--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -508,7 +508,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N139"/>
+  <dimension ref="N140"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -644,21 +644,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="9" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" s="10" t="e"/>
       <c r="M9" s="9" t="n">
         <v>2</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -672,19 +672,15 @@
       <c r="F10" s="8" t="e"/>
       <c r="G10" s="8" t="e"/>
       <c r="H10" s="9" t="n">
-        <v>137</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="I10" s="10" t="e"/>
       <c r="J10" s="10" t="e"/>
       <c r="K10" s="9" t="n">
         <v>134</v>
       </c>
       <c r="L10" s="10" t="e"/>
-      <c r="M10" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M10" s="10" t="e"/>
       <c r="N10" s="9" t="n">
         <v>134</v>
       </c>
@@ -700,21 +696,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1048</v>
+        <v>1000</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="9" t="n">
-        <v>965</v>
+        <v>924</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N11" s="9" t="n">
-        <v>965</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -728,21 +724,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1261</v>
+        <v>1220</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1261</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -756,21 +752,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2740</v>
+        <v>2667</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2454</v>
+        <v>2371</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2454</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -1100,78 +1096,78 @@
       <c r="F26" s="19" t="e"/>
       <c r="G26" s="19" t="e"/>
       <c r="H26" s="9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I26" s="10" t="e"/>
       <c r="J26" s="10" t="e"/>
       <c r="K26" s="9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L26" s="10" t="e"/>
       <c r="M26" s="10" t="e"/>
       <c r="N26" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true">
-      <c r="A27" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="e"/>
+      <c r="C27" s="19" t="e"/>
+      <c r="D27" s="19" t="e"/>
+      <c r="E27" s="19" t="e"/>
+      <c r="F27" s="19" t="e"/>
+      <c r="G27" s="19" t="e"/>
+      <c r="H27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" s="10" t="e"/>
+      <c r="J27" s="10" t="e"/>
+      <c r="K27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="10" t="e"/>
+      <c r="M27" s="10" t="e"/>
+      <c r="N27" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="16" t="e"/>
-      <c r="C27" s="16" t="e"/>
-      <c r="D27" s="16" t="s">
+      <c r="B28" s="16" t="e"/>
+      <c r="C28" s="16" t="e"/>
+      <c r="D28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="16" t="e"/>
-      <c r="F27" s="16" t="e"/>
-      <c r="G27" s="16" t="s">
+      <c r="E28" s="16" t="e"/>
+      <c r="F28" s="16" t="e"/>
+      <c r="G28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I27" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="18" t="e"/>
-      <c r="K27" s="17" t="n">
+      <c r="H28" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="L27" s="18" t="e"/>
-      <c r="M27" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="17" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A28" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="19" t="e"/>
-      <c r="C28" s="19" t="e"/>
-      <c r="D28" s="19" t="e"/>
-      <c r="E28" s="19" t="e"/>
-      <c r="F28" s="19" t="e"/>
-      <c r="G28" s="19" t="e"/>
-      <c r="H28" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="I28" s="10" t="e"/>
-      <c r="J28" s="10" t="e"/>
-      <c r="K28" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="L28" s="10" t="e"/>
-      <c r="M28" s="10" t="e"/>
-      <c r="N28" s="9" t="n">
-        <v>16</v>
+      <c r="I28" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18" t="e"/>
+      <c r="K28" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="L28" s="18" t="e"/>
+      <c r="M28" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="1">
       <c r="A29" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B29" s="19" t="e"/>
       <c r="C29" s="19" t="e"/>
@@ -1180,54 +1176,50 @@
       <c r="F29" s="19" t="e"/>
       <c r="G29" s="19" t="e"/>
       <c r="H29" s="9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I29" s="9" t="n">
         <v>1</v>
       </c>
       <c r="J29" s="10" t="e"/>
       <c r="K29" s="9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L29" s="10" t="e"/>
       <c r="M29" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N29" s="9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" ht="22" customHeight="true">
-      <c r="A30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="16" t="e"/>
-      <c r="C30" s="16" t="e"/>
-      <c r="D30" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="16" t="e"/>
-      <c r="F30" s="16" t="e"/>
-      <c r="G30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="I30" s="18" t="e"/>
-      <c r="J30" s="18" t="e"/>
-      <c r="K30" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="L30" s="18" t="e"/>
-      <c r="M30" s="18" t="e"/>
-      <c r="N30" s="17" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="e"/>
+      <c r="C30" s="19" t="e"/>
+      <c r="D30" s="19" t="e"/>
+      <c r="E30" s="19" t="e"/>
+      <c r="F30" s="19" t="e"/>
+      <c r="G30" s="19" t="e"/>
+      <c r="H30" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" s="10" t="e"/>
+      <c r="J30" s="10" t="e"/>
+      <c r="K30" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="10" t="e"/>
+      <c r="M30" s="10" t="e"/>
+      <c r="N30" s="9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="1">
       <c r="A31" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="19" t="e"/>
       <c r="C31" s="19" t="e"/>
@@ -1236,69 +1228,69 @@
       <c r="F31" s="19" t="e"/>
       <c r="G31" s="19" t="e"/>
       <c r="H31" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I31" s="10" t="e"/>
       <c r="J31" s="10" t="e"/>
       <c r="K31" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L31" s="10" t="e"/>
       <c r="M31" s="10" t="e"/>
       <c r="N31" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="16" t="e"/>
+      <c r="C32" s="16" t="e"/>
+      <c r="D32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="16" t="e"/>
+      <c r="F32" s="16" t="e"/>
+      <c r="G32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="I32" s="18" t="e"/>
+      <c r="J32" s="18" t="e"/>
+      <c r="K32" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L32" s="18" t="e"/>
+      <c r="M32" s="18" t="e"/>
+      <c r="N32" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="19" t="e"/>
+      <c r="C33" s="19" t="e"/>
+      <c r="D33" s="19" t="e"/>
+      <c r="E33" s="19" t="e"/>
+      <c r="F33" s="19" t="e"/>
+      <c r="G33" s="19" t="e"/>
+      <c r="H33" s="9" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="19" t="e"/>
-      <c r="C32" s="19" t="e"/>
-      <c r="D32" s="19" t="e"/>
-      <c r="E32" s="19" t="e"/>
-      <c r="F32" s="19" t="e"/>
-      <c r="G32" s="19" t="e"/>
-      <c r="H32" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" s="10" t="e"/>
-      <c r="J32" s="10" t="e"/>
-      <c r="K32" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L32" s="10" t="e"/>
-      <c r="M32" s="10" t="e"/>
-      <c r="N32" s="9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" ht="22" customHeight="true">
-      <c r="A33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="16" t="e"/>
-      <c r="C33" s="16" t="e"/>
-      <c r="D33" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="16" t="e"/>
-      <c r="F33" s="16" t="e"/>
-      <c r="G33" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="18" t="e"/>
-      <c r="J33" s="18" t="e"/>
-      <c r="K33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="18" t="e"/>
-      <c r="M33" s="18" t="e"/>
-      <c r="N33" s="17" t="n">
-        <v>1</v>
+      <c r="I33" s="10" t="e"/>
+      <c r="J33" s="10" t="e"/>
+      <c r="K33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" s="10" t="e"/>
+      <c r="M33" s="10" t="e"/>
+      <c r="N33" s="9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="1">
@@ -1312,27 +1304,27 @@
       <c r="F34" s="19" t="e"/>
       <c r="G34" s="19" t="e"/>
       <c r="H34" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" s="10" t="e"/>
       <c r="J34" s="10" t="e"/>
       <c r="K34" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="10" t="e"/>
       <c r="M34" s="10" t="e"/>
       <c r="N34" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="true">
       <c r="A35" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="16" t="e"/>
       <c r="C35" s="16" t="e"/>
       <c r="D35" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E35" s="16" t="e"/>
       <c r="F35" s="16" t="e"/>
@@ -1340,26 +1332,22 @@
         <v>24</v>
       </c>
       <c r="H35" s="17" t="n">
-        <v>85</v>
-      </c>
-      <c r="I35" s="17" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" s="18" t="e"/>
       <c r="J35" s="18" t="e"/>
       <c r="K35" s="17" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="L35" s="18" t="e"/>
-      <c r="M35" s="17" t="n">
-        <v>3</v>
-      </c>
+      <c r="M35" s="18" t="e"/>
       <c r="N35" s="17" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="1">
       <c r="A36" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B36" s="19" t="e"/>
       <c r="C36" s="19" t="e"/>
@@ -1368,78 +1356,74 @@
       <c r="F36" s="19" t="e"/>
       <c r="G36" s="19" t="e"/>
       <c r="H36" s="9" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I36" s="10" t="e"/>
       <c r="J36" s="10" t="e"/>
       <c r="K36" s="9" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="L36" s="10" t="e"/>
       <c r="M36" s="10" t="e"/>
       <c r="N36" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true">
+      <c r="A37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="16" t="e"/>
+      <c r="C37" s="16" t="e"/>
+      <c r="D37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="16" t="e"/>
+      <c r="F37" s="16" t="e"/>
+      <c r="G37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="I37" s="18" t="e"/>
+      <c r="J37" s="18" t="e"/>
+      <c r="K37" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="L37" s="18" t="e"/>
+      <c r="M37" s="18" t="e"/>
+      <c r="N37" s="17" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A38" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="19" t="e"/>
+      <c r="C38" s="19" t="e"/>
+      <c r="D38" s="19" t="e"/>
+      <c r="E38" s="19" t="e"/>
+      <c r="F38" s="19" t="e"/>
+      <c r="G38" s="19" t="e"/>
+      <c r="H38" s="9" t="n">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="19" t="e"/>
-      <c r="C37" s="19" t="e"/>
-      <c r="D37" s="19" t="e"/>
-      <c r="E37" s="19" t="e"/>
-      <c r="F37" s="19" t="e"/>
-      <c r="G37" s="19" t="e"/>
-      <c r="H37" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I37" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" s="10" t="e"/>
-      <c r="K37" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="L37" s="10" t="e"/>
-      <c r="M37" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" s="9" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" ht="22" customHeight="true">
-      <c r="A38" s="16" t="s">
+      <c r="I38" s="10" t="e"/>
+      <c r="J38" s="10" t="e"/>
+      <c r="K38" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B38" s="16" t="e"/>
-      <c r="C38" s="16" t="e"/>
-      <c r="D38" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="16" t="e"/>
-      <c r="F38" s="16" t="e"/>
-      <c r="G38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="I38" s="18" t="e"/>
-      <c r="J38" s="18" t="e"/>
-      <c r="K38" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="L38" s="18" t="e"/>
-      <c r="M38" s="18" t="e"/>
-      <c r="N38" s="17" t="n">
-        <v>8</v>
+      <c r="L38" s="10" t="e"/>
+      <c r="M38" s="10" t="e"/>
+      <c r="N38" s="9" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="1">
       <c r="A39" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B39" s="19" t="e"/>
       <c r="C39" s="19" t="e"/>
@@ -1448,74 +1432,74 @@
       <c r="F39" s="19" t="e"/>
       <c r="G39" s="19" t="e"/>
       <c r="H39" s="9" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I39" s="10" t="e"/>
       <c r="J39" s="10" t="e"/>
       <c r="K39" s="9" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="L39" s="10" t="e"/>
       <c r="M39" s="10" t="e"/>
       <c r="N39" s="9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" ht="22" customHeight="true">
+      <c r="A40" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="16" t="e"/>
+      <c r="C40" s="16" t="e"/>
+      <c r="D40" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="16" t="e"/>
+      <c r="F40" s="16" t="e"/>
+      <c r="G40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="I40" s="18" t="e"/>
+      <c r="J40" s="18" t="e"/>
+      <c r="K40" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L40" s="18" t="e"/>
+      <c r="M40" s="18" t="e"/>
+      <c r="N40" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A41" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="19" t="e"/>
+      <c r="C41" s="19" t="e"/>
+      <c r="D41" s="19" t="e"/>
+      <c r="E41" s="19" t="e"/>
+      <c r="F41" s="19" t="e"/>
+      <c r="G41" s="19" t="e"/>
+      <c r="H41" s="9" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="19" t="e"/>
-      <c r="C40" s="19" t="e"/>
-      <c r="D40" s="19" t="e"/>
-      <c r="E40" s="19" t="e"/>
-      <c r="F40" s="19" t="e"/>
-      <c r="G40" s="19" t="e"/>
-      <c r="H40" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" s="10" t="e"/>
-      <c r="J40" s="10" t="e"/>
-      <c r="K40" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" s="10" t="e"/>
-      <c r="M40" s="10" t="e"/>
-      <c r="N40" s="9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" ht="22" customHeight="true">
-      <c r="A41" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="16" t="e"/>
-      <c r="C41" s="16" t="e"/>
-      <c r="D41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="16" t="e"/>
-      <c r="F41" s="16" t="e"/>
-      <c r="G41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I41" s="18" t="e"/>
-      <c r="J41" s="18" t="e"/>
-      <c r="K41" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L41" s="18" t="e"/>
-      <c r="M41" s="18" t="e"/>
-      <c r="N41" s="17" t="n">
-        <v>4</v>
+      <c r="I41" s="10" t="e"/>
+      <c r="J41" s="10" t="e"/>
+      <c r="K41" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" s="10" t="e"/>
+      <c r="M41" s="10" t="e"/>
+      <c r="N41" s="9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true" outlineLevel="1">
       <c r="A42" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B42" s="19" t="e"/>
       <c r="C42" s="19" t="e"/>
@@ -1524,27 +1508,27 @@
       <c r="F42" s="19" t="e"/>
       <c r="G42" s="19" t="e"/>
       <c r="H42" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" s="10" t="e"/>
       <c r="J42" s="10" t="e"/>
       <c r="K42" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L42" s="10" t="e"/>
       <c r="M42" s="10" t="e"/>
       <c r="N42" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true">
       <c r="A43" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="16" t="e"/>
       <c r="C43" s="16" t="e"/>
       <c r="D43" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E43" s="16" t="e"/>
       <c r="F43" s="16" t="e"/>
@@ -1552,22 +1536,22 @@
         <v>24</v>
       </c>
       <c r="H43" s="17" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I43" s="18" t="e"/>
       <c r="J43" s="18" t="e"/>
       <c r="K43" s="17" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L43" s="18" t="e"/>
       <c r="M43" s="18" t="e"/>
       <c r="N43" s="17" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="A44" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B44" s="19" t="e"/>
       <c r="C44" s="19" t="e"/>
@@ -1576,27 +1560,27 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I44" s="10" t="e"/>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L44" s="10" t="e"/>
       <c r="M44" s="10" t="e"/>
       <c r="N44" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true">
       <c r="A45" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="16" t="e"/>
       <c r="C45" s="16" t="e"/>
       <c r="D45" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="16" t="e"/>
       <c r="F45" s="16" t="e"/>
@@ -1604,17 +1588,17 @@
         <v>24</v>
       </c>
       <c r="H45" s="17" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I45" s="18" t="e"/>
       <c r="J45" s="18" t="e"/>
       <c r="K45" s="17" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L45" s="18" t="e"/>
       <c r="M45" s="18" t="e"/>
       <c r="N45" s="17" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
@@ -1628,27 +1612,27 @@
       <c r="F46" s="19" t="e"/>
       <c r="G46" s="19" t="e"/>
       <c r="H46" s="9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I46" s="10" t="e"/>
       <c r="J46" s="10" t="e"/>
       <c r="K46" s="9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L46" s="10" t="e"/>
       <c r="M46" s="10" t="e"/>
       <c r="N46" s="9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true">
       <c r="A47" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="16" t="e"/>
       <c r="C47" s="16" t="e"/>
       <c r="D47" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E47" s="16" t="e"/>
       <c r="F47" s="16" t="e"/>
@@ -1656,22 +1640,22 @@
         <v>24</v>
       </c>
       <c r="H47" s="17" t="n">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="I47" s="18" t="e"/>
       <c r="J47" s="18" t="e"/>
       <c r="K47" s="17" t="n">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="L47" s="18" t="e"/>
       <c r="M47" s="18" t="e"/>
       <c r="N47" s="17" t="n">
-        <v>225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true" outlineLevel="1">
       <c r="A48" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B48" s="19" t="e"/>
       <c r="C48" s="19" t="e"/>
@@ -1680,46 +1664,54 @@
       <c r="F48" s="19" t="e"/>
       <c r="G48" s="19" t="e"/>
       <c r="H48" s="9" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="I48" s="10" t="e"/>
       <c r="J48" s="10" t="e"/>
       <c r="K48" s="9" t="n">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="L48" s="10" t="e"/>
       <c r="M48" s="10" t="e"/>
       <c r="N48" s="9" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A49" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="19" t="e"/>
-      <c r="C49" s="19" t="e"/>
-      <c r="D49" s="19" t="e"/>
-      <c r="E49" s="19" t="e"/>
-      <c r="F49" s="19" t="e"/>
-      <c r="G49" s="19" t="e"/>
-      <c r="H49" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I49" s="10" t="e"/>
-      <c r="J49" s="10" t="e"/>
-      <c r="K49" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L49" s="10" t="e"/>
-      <c r="M49" s="10" t="e"/>
-      <c r="N49" s="9" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="16" t="e"/>
+      <c r="C49" s="16" t="e"/>
+      <c r="D49" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="16" t="e"/>
+      <c r="F49" s="16" t="e"/>
+      <c r="G49" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="17" t="n">
+        <v>225</v>
+      </c>
+      <c r="I49" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="J49" s="18" t="e"/>
+      <c r="K49" s="17" t="n">
+        <v>195</v>
+      </c>
+      <c r="L49" s="18" t="e"/>
+      <c r="M49" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="N49" s="17" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B50" s="19" t="e"/>
       <c r="C50" s="19" t="e"/>
@@ -1728,78 +1720,82 @@
       <c r="F50" s="19" t="e"/>
       <c r="G50" s="19" t="e"/>
       <c r="H50" s="9" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="I50" s="10" t="e"/>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="L50" s="10" t="e"/>
       <c r="M50" s="10" t="e"/>
       <c r="N50" s="9" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" ht="22" customHeight="true">
-      <c r="A51" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A51" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="19" t="e"/>
+      <c r="C51" s="19" t="e"/>
+      <c r="D51" s="19" t="e"/>
+      <c r="E51" s="19" t="e"/>
+      <c r="F51" s="19" t="e"/>
+      <c r="G51" s="19" t="e"/>
+      <c r="H51" s="9" t="n">
+        <v>109</v>
+      </c>
+      <c r="I51" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="J51" s="10" t="e"/>
+      <c r="K51" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="L51" s="10" t="e"/>
+      <c r="M51" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="N51" s="9" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="16" t="e"/>
-      <c r="C51" s="16" t="e"/>
-      <c r="D51" s="16" t="s">
+      <c r="B52" s="16" t="e"/>
+      <c r="C52" s="16" t="e"/>
+      <c r="D52" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="16" t="e"/>
-      <c r="F51" s="16" t="e"/>
-      <c r="G51" s="16" t="s">
+      <c r="E52" s="16" t="e"/>
+      <c r="F52" s="16" t="e"/>
+      <c r="G52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="17" t="n">
-        <v>136</v>
-      </c>
-      <c r="I51" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" s="18" t="e"/>
-      <c r="K51" s="17" t="n">
-        <v>122</v>
-      </c>
-      <c r="L51" s="18" t="e"/>
-      <c r="M51" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="N51" s="17" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A52" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="19" t="e"/>
-      <c r="C52" s="19" t="e"/>
-      <c r="D52" s="19" t="e"/>
-      <c r="E52" s="19" t="e"/>
-      <c r="F52" s="19" t="e"/>
-      <c r="G52" s="19" t="e"/>
-      <c r="H52" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="I52" s="10" t="e"/>
-      <c r="J52" s="10" t="e"/>
-      <c r="K52" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="L52" s="10" t="e"/>
-      <c r="M52" s="10" t="e"/>
-      <c r="N52" s="9" t="n">
-        <v>42</v>
+      <c r="H52" s="17" t="n">
+        <v>133</v>
+      </c>
+      <c r="I52" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J52" s="18" t="e"/>
+      <c r="K52" s="17" t="n">
+        <v>120</v>
+      </c>
+      <c r="L52" s="18" t="e"/>
+      <c r="M52" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="N52" s="17" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="1">
       <c r="A53" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B53" s="19" t="e"/>
       <c r="C53" s="19" t="e"/>
@@ -1808,26 +1804,22 @@
       <c r="F53" s="19" t="e"/>
       <c r="G53" s="19" t="e"/>
       <c r="H53" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I53" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I53" s="10" t="e"/>
       <c r="J53" s="10" t="e"/>
       <c r="K53" s="9" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L53" s="10" t="e"/>
-      <c r="M53" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M53" s="10" t="e"/>
       <c r="N53" s="9" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1836,22 +1828,26 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I54" s="10" t="e"/>
+        <v>39</v>
+      </c>
+      <c r="I54" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L54" s="10" t="e"/>
-      <c r="M54" s="10" t="e"/>
+      <c r="M54" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="N54" s="9" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1860,22 +1856,22 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" s="10" t="e"/>
       <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="A56" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B56" s="19" t="e"/>
       <c r="C56" s="19" t="e"/>
@@ -1884,82 +1880,82 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I56" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I56" s="10" t="e"/>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L56" s="10" t="e"/>
+      <c r="M56" s="10" t="e"/>
+      <c r="N56" s="9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="19" t="e"/>
+      <c r="C57" s="19" t="e"/>
+      <c r="D57" s="19" t="e"/>
+      <c r="E57" s="19" t="e"/>
+      <c r="F57" s="19" t="e"/>
+      <c r="G57" s="19" t="e"/>
+      <c r="H57" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="L56" s="10" t="e"/>
-      <c r="M56" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N56" s="9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" ht="11" customHeight="true">
-      <c r="A57" s="16" t="s">
+      <c r="I57" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" s="10" t="e"/>
+      <c r="K57" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L57" s="10" t="e"/>
+      <c r="M57" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" s="9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="16" t="e"/>
-      <c r="C57" s="16" t="e"/>
-      <c r="D57" s="16" t="s">
+      <c r="B58" s="16" t="e"/>
+      <c r="C58" s="16" t="e"/>
+      <c r="D58" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="16" t="e"/>
-      <c r="F57" s="16" t="e"/>
-      <c r="G57" s="16" t="s">
+      <c r="E58" s="16" t="e"/>
+      <c r="F58" s="16" t="e"/>
+      <c r="G58" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="17" t="n">
-        <v>144</v>
-      </c>
-      <c r="I57" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" s="18" t="e"/>
-      <c r="K57" s="17" t="n">
+      <c r="H58" s="17" t="n">
         <v>142</v>
       </c>
-      <c r="L57" s="18" t="e"/>
-      <c r="M57" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N57" s="17" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A58" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="19" t="e"/>
-      <c r="C58" s="19" t="e"/>
-      <c r="D58" s="19" t="e"/>
-      <c r="E58" s="19" t="e"/>
-      <c r="F58" s="19" t="e"/>
-      <c r="G58" s="19" t="e"/>
-      <c r="H58" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I58" s="10" t="e"/>
-      <c r="J58" s="10" t="e"/>
-      <c r="K58" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="L58" s="10" t="e"/>
-      <c r="M58" s="10" t="e"/>
-      <c r="N58" s="9" t="n">
-        <v>33</v>
+      <c r="I58" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J58" s="18" t="e"/>
+      <c r="K58" s="17" t="n">
+        <v>137</v>
+      </c>
+      <c r="L58" s="18" t="e"/>
+      <c r="M58" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" s="17" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="1">
       <c r="A59" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B59" s="19" t="e"/>
       <c r="C59" s="19" t="e"/>
@@ -1968,22 +1964,26 @@
       <c r="F59" s="19" t="e"/>
       <c r="G59" s="19" t="e"/>
       <c r="H59" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="I59" s="10" t="e"/>
+        <v>33</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J59" s="10" t="e"/>
       <c r="K59" s="9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L59" s="10" t="e"/>
-      <c r="M59" s="10" t="e"/>
+      <c r="M59" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="N59" s="9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1992,82 +1992,78 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>79</v>
-      </c>
-      <c r="I60" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="L60" s="10" t="e"/>
+      <c r="M60" s="10" t="e"/>
+      <c r="N60" s="9" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A61" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="19" t="e"/>
+      <c r="C61" s="19" t="e"/>
+      <c r="D61" s="19" t="e"/>
+      <c r="E61" s="19" t="e"/>
+      <c r="F61" s="19" t="e"/>
+      <c r="G61" s="19" t="e"/>
+      <c r="H61" s="9" t="n">
         <v>77</v>
       </c>
-      <c r="L60" s="10" t="e"/>
-      <c r="M60" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N60" s="9" t="n">
+      <c r="I61" s="10" t="e"/>
+      <c r="J61" s="10" t="e"/>
+      <c r="K61" s="9" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" ht="22" customHeight="true">
-      <c r="A61" s="16" t="s">
+      <c r="L61" s="10" t="e"/>
+      <c r="M61" s="10" t="e"/>
+      <c r="N61" s="9" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true">
+      <c r="A62" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="e"/>
-      <c r="C61" s="16" t="e"/>
-      <c r="D61" s="16" t="s">
+      <c r="B62" s="16" t="e"/>
+      <c r="C62" s="16" t="e"/>
+      <c r="D62" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="16" t="e"/>
-      <c r="F61" s="16" t="e"/>
-      <c r="G61" s="16" t="s">
+      <c r="E62" s="16" t="e"/>
+      <c r="F62" s="16" t="e"/>
+      <c r="G62" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="17" t="n">
-        <v>153</v>
-      </c>
-      <c r="I61" s="17" t="n">
-        <v>46</v>
-      </c>
-      <c r="J61" s="18" t="e"/>
-      <c r="K61" s="17" t="n">
-        <v>107</v>
-      </c>
-      <c r="L61" s="18" t="e"/>
-      <c r="M61" s="17" t="n">
-        <v>46</v>
-      </c>
-      <c r="N61" s="17" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A62" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="19" t="e"/>
-      <c r="C62" s="19" t="e"/>
-      <c r="D62" s="19" t="e"/>
-      <c r="E62" s="19" t="e"/>
-      <c r="F62" s="19" t="e"/>
-      <c r="G62" s="19" t="e"/>
-      <c r="H62" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="I62" s="10" t="e"/>
-      <c r="J62" s="10" t="e"/>
-      <c r="K62" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="L62" s="10" t="e"/>
-      <c r="M62" s="10" t="e"/>
-      <c r="N62" s="9" t="n">
-        <v>16</v>
+      <c r="H62" s="17" t="n">
+        <v>125</v>
+      </c>
+      <c r="I62" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J62" s="18" t="e"/>
+      <c r="K62" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="L62" s="18" t="e"/>
+      <c r="M62" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="N62" s="17" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true" outlineLevel="1">
       <c r="A63" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B63" s="19" t="e"/>
       <c r="C63" s="19" t="e"/>
@@ -2076,26 +2072,22 @@
       <c r="F63" s="19" t="e"/>
       <c r="G63" s="19" t="e"/>
       <c r="H63" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="I63" s="9" t="n">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I63" s="10" t="e"/>
       <c r="J63" s="10" t="e"/>
       <c r="K63" s="9" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L63" s="10" t="e"/>
-      <c r="M63" s="9" t="n">
-        <v>18</v>
-      </c>
+      <c r="M63" s="10" t="e"/>
       <c r="N63" s="9" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="11" customHeight="true" outlineLevel="1">
       <c r="A64" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B64" s="19" t="e"/>
       <c r="C64" s="19" t="e"/>
@@ -2104,26 +2096,26 @@
       <c r="F64" s="19" t="e"/>
       <c r="G64" s="19" t="e"/>
       <c r="H64" s="9" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J64" s="10" t="e"/>
       <c r="K64" s="9" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L64" s="10" t="e"/>
       <c r="M64" s="9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N64" s="9" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2132,82 +2124,86 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L65" s="10" t="e"/>
       <c r="M65" s="9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N65" s="9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A66" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="19" t="e"/>
+      <c r="C66" s="19" t="e"/>
+      <c r="D66" s="19" t="e"/>
+      <c r="E66" s="19" t="e"/>
+      <c r="F66" s="19" t="e"/>
+      <c r="G66" s="19" t="e"/>
+      <c r="H66" s="9" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" ht="11" customHeight="true">
-      <c r="A66" s="16" t="s">
+      <c r="I66" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" s="10" t="e"/>
+      <c r="K66" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L66" s="10" t="e"/>
+      <c r="M66" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" s="9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true">
+      <c r="A67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="16" t="e"/>
-      <c r="C66" s="16" t="e"/>
-      <c r="D66" s="16" t="s">
+      <c r="B67" s="16" t="e"/>
+      <c r="C67" s="16" t="e"/>
+      <c r="D67" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="16" t="e"/>
-      <c r="F66" s="16" t="e"/>
-      <c r="G66" s="16" t="s">
+      <c r="E67" s="16" t="e"/>
+      <c r="F67" s="16" t="e"/>
+      <c r="G67" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="17" t="n">
-        <v>148</v>
-      </c>
-      <c r="I66" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" s="18" t="e"/>
-      <c r="K66" s="17" t="n">
+      <c r="H67" s="17" t="n">
+        <v>144</v>
+      </c>
+      <c r="I67" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" s="18" t="e"/>
+      <c r="K67" s="17" t="n">
         <v>142</v>
       </c>
-      <c r="L66" s="18" t="e"/>
-      <c r="M66" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N66" s="17" t="n">
+      <c r="L67" s="18" t="e"/>
+      <c r="M67" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" s="17" t="n">
         <v>142</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A67" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="19" t="e"/>
-      <c r="C67" s="19" t="e"/>
-      <c r="D67" s="19" t="e"/>
-      <c r="E67" s="19" t="e"/>
-      <c r="F67" s="19" t="e"/>
-      <c r="G67" s="19" t="e"/>
-      <c r="H67" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I67" s="10" t="e"/>
-      <c r="J67" s="10" t="e"/>
-      <c r="K67" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L67" s="10" t="e"/>
-      <c r="M67" s="10" t="e"/>
-      <c r="N67" s="9" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2216,26 +2212,22 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="I68" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I68" s="10" t="e"/>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L68" s="10" t="e"/>
-      <c r="M68" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M68" s="10" t="e"/>
       <c r="N68" s="9" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
       <c r="A69" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B69" s="19" t="e"/>
       <c r="C69" s="19" t="e"/>
@@ -2244,22 +2236,26 @@
       <c r="F69" s="19" t="e"/>
       <c r="G69" s="19" t="e"/>
       <c r="H69" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I69" s="10" t="e"/>
+        <v>37</v>
+      </c>
+      <c r="I69" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J69" s="10" t="e"/>
       <c r="K69" s="9" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L69" s="10" t="e"/>
-      <c r="M69" s="10" t="e"/>
+      <c r="M69" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N69" s="9" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2268,22 +2264,22 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L70" s="10" t="e"/>
       <c r="M70" s="10" t="e"/>
       <c r="N70" s="9" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
       <c r="A71" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B71" s="19" t="e"/>
       <c r="C71" s="19" t="e"/>
@@ -2292,82 +2288,74 @@
       <c r="F71" s="19" t="e"/>
       <c r="G71" s="19" t="e"/>
       <c r="H71" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I71" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I71" s="10" t="e"/>
       <c r="J71" s="10" t="e"/>
       <c r="K71" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L71" s="10" t="e"/>
+      <c r="M71" s="10" t="e"/>
+      <c r="N71" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="19" t="e"/>
+      <c r="C72" s="19" t="e"/>
+      <c r="D72" s="19" t="e"/>
+      <c r="E72" s="19" t="e"/>
+      <c r="F72" s="19" t="e"/>
+      <c r="G72" s="19" t="e"/>
+      <c r="H72" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="L71" s="10" t="e"/>
-      <c r="M71" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N71" s="9" t="n">
+      <c r="I72" s="10" t="e"/>
+      <c r="J72" s="10" t="e"/>
+      <c r="K72" s="9" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" ht="11" customHeight="true">
-      <c r="A72" s="16" t="s">
+      <c r="L72" s="10" t="e"/>
+      <c r="M72" s="10" t="e"/>
+      <c r="N72" s="9" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true">
+      <c r="A73" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="16" t="e"/>
-      <c r="C72" s="16" t="e"/>
-      <c r="D72" s="16" t="s">
+      <c r="B73" s="16" t="e"/>
+      <c r="C73" s="16" t="e"/>
+      <c r="D73" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E72" s="16" t="e"/>
-      <c r="F72" s="16" t="e"/>
-      <c r="G72" s="16" t="s">
+      <c r="E73" s="16" t="e"/>
+      <c r="F73" s="16" t="e"/>
+      <c r="G73" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="I72" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J72" s="18" t="e"/>
-      <c r="K72" s="17" t="n">
+      <c r="H73" s="17" t="n">
         <v>55</v>
       </c>
-      <c r="L72" s="18" t="e"/>
-      <c r="M72" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N72" s="17" t="n">
+      <c r="I73" s="18" t="e"/>
+      <c r="J73" s="18" t="e"/>
+      <c r="K73" s="17" t="n">
         <v>55</v>
       </c>
-    </row>
-    <row r="73" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A73" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="19" t="e"/>
-      <c r="C73" s="19" t="e"/>
-      <c r="D73" s="19" t="e"/>
-      <c r="E73" s="19" t="e"/>
-      <c r="F73" s="19" t="e"/>
-      <c r="G73" s="19" t="e"/>
-      <c r="H73" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I73" s="10" t="e"/>
-      <c r="J73" s="10" t="e"/>
-      <c r="K73" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L73" s="10" t="e"/>
-      <c r="M73" s="10" t="e"/>
-      <c r="N73" s="9" t="n">
-        <v>14</v>
+      <c r="L73" s="18" t="e"/>
+      <c r="M73" s="18" t="e"/>
+      <c r="N73" s="17" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="A74" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B74" s="19" t="e"/>
       <c r="C74" s="19" t="e"/>
@@ -2376,78 +2364,74 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="I74" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I74" s="10" t="e"/>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L74" s="10" t="e"/>
+      <c r="M74" s="10" t="e"/>
+      <c r="N74" s="9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A75" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="19" t="e"/>
+      <c r="C75" s="19" t="e"/>
+      <c r="D75" s="19" t="e"/>
+      <c r="E75" s="19" t="e"/>
+      <c r="F75" s="19" t="e"/>
+      <c r="G75" s="19" t="e"/>
+      <c r="H75" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="L74" s="10" t="e"/>
-      <c r="M74" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N74" s="9" t="n">
+      <c r="I75" s="10" t="e"/>
+      <c r="J75" s="10" t="e"/>
+      <c r="K75" s="9" t="n">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" ht="22" customHeight="true">
-      <c r="A75" s="16" t="s">
+      <c r="L75" s="10" t="e"/>
+      <c r="M75" s="10" t="e"/>
+      <c r="N75" s="9" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" ht="22" customHeight="true">
+      <c r="A76" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="16" t="e"/>
-      <c r="C75" s="16" t="e"/>
-      <c r="D75" s="16" t="s">
+      <c r="B76" s="16" t="e"/>
+      <c r="C76" s="16" t="e"/>
+      <c r="D76" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E75" s="16" t="e"/>
-      <c r="F75" s="16" t="e"/>
-      <c r="G75" s="16" t="s">
+      <c r="E76" s="16" t="e"/>
+      <c r="F76" s="16" t="e"/>
+      <c r="G76" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="17" t="n">
+      <c r="H76" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I75" s="18" t="e"/>
-      <c r="J75" s="18" t="e"/>
-      <c r="K75" s="17" t="n">
+      <c r="I76" s="18" t="e"/>
+      <c r="J76" s="18" t="e"/>
+      <c r="K76" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="L75" s="18" t="e"/>
-      <c r="M75" s="18" t="e"/>
-      <c r="N75" s="17" t="n">
+      <c r="L76" s="18" t="e"/>
+      <c r="M76" s="18" t="e"/>
+      <c r="N76" s="17" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A76" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="19" t="e"/>
-      <c r="C76" s="19" t="e"/>
-      <c r="D76" s="19" t="e"/>
-      <c r="E76" s="19" t="e"/>
-      <c r="F76" s="19" t="e"/>
-      <c r="G76" s="19" t="e"/>
-      <c r="H76" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" s="10" t="e"/>
-      <c r="J76" s="10" t="e"/>
-      <c r="K76" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" s="10" t="e"/>
-      <c r="M76" s="10" t="e"/>
-      <c r="N76" s="9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2469,69 +2453,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="11" customHeight="true">
-      <c r="A78" s="16" t="s">
+    <row r="78" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A78" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="19" t="e"/>
+      <c r="C78" s="19" t="e"/>
+      <c r="D78" s="19" t="e"/>
+      <c r="E78" s="19" t="e"/>
+      <c r="F78" s="19" t="e"/>
+      <c r="G78" s="19" t="e"/>
+      <c r="H78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" s="10" t="e"/>
+      <c r="J78" s="10" t="e"/>
+      <c r="K78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="10" t="e"/>
+      <c r="M78" s="10" t="e"/>
+      <c r="N78" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true">
+      <c r="A79" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="16" t="e"/>
-      <c r="C78" s="16" t="e"/>
-      <c r="D78" s="16" t="s">
+      <c r="B79" s="16" t="e"/>
+      <c r="C79" s="16" t="e"/>
+      <c r="D79" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="16" t="e"/>
-      <c r="F78" s="16" t="e"/>
-      <c r="G78" s="16" t="s">
+      <c r="E79" s="16" t="e"/>
+      <c r="F79" s="16" t="e"/>
+      <c r="G79" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="17" t="n">
-        <v>177</v>
-      </c>
-      <c r="I78" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J78" s="18" t="e"/>
-      <c r="K78" s="17" t="n">
-        <v>170</v>
-      </c>
-      <c r="L78" s="18" t="e"/>
-      <c r="M78" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N78" s="17" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A79" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="19" t="e"/>
-      <c r="C79" s="19" t="e"/>
-      <c r="D79" s="19" t="e"/>
-      <c r="E79" s="19" t="e"/>
-      <c r="F79" s="19" t="e"/>
-      <c r="G79" s="19" t="e"/>
-      <c r="H79" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I79" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" s="10" t="e"/>
-      <c r="K79" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="L79" s="10" t="e"/>
-      <c r="M79" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" s="9" t="n">
-        <v>45</v>
+      <c r="H79" s="17" t="n">
+        <v>174</v>
+      </c>
+      <c r="I79" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" s="18" t="e"/>
+      <c r="K79" s="17" t="n">
+        <v>169</v>
+      </c>
+      <c r="L79" s="18" t="e"/>
+      <c r="M79" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" s="17" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="A80" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B80" s="19" t="e"/>
       <c r="C80" s="19" t="e"/>
@@ -2540,26 +2520,26 @@
       <c r="F80" s="19" t="e"/>
       <c r="G80" s="19" t="e"/>
       <c r="H80" s="9" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" s="10" t="e"/>
       <c r="K80" s="9" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L80" s="10" t="e"/>
       <c r="M80" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N80" s="9" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="A81" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B81" s="19" t="e"/>
       <c r="C81" s="19" t="e"/>
@@ -2568,22 +2548,26 @@
       <c r="F81" s="19" t="e"/>
       <c r="G81" s="19" t="e"/>
       <c r="H81" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I81" s="10" t="e"/>
+        <v>59</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J81" s="10" t="e"/>
       <c r="K81" s="9" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="L81" s="10" t="e"/>
-      <c r="M81" s="10" t="e"/>
+      <c r="M81" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N81" s="9" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="A82" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B82" s="19" t="e"/>
       <c r="C82" s="19" t="e"/>
@@ -2592,22 +2576,22 @@
       <c r="F82" s="19" t="e"/>
       <c r="G82" s="19" t="e"/>
       <c r="H82" s="9" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I82" s="10" t="e"/>
       <c r="J82" s="10" t="e"/>
       <c r="K82" s="9" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L82" s="10" t="e"/>
       <c r="M82" s="10" t="e"/>
       <c r="N82" s="9" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2616,86 +2600,82 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I83" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L83" s="10" t="e"/>
+      <c r="M83" s="10" t="e"/>
+      <c r="N83" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="19" t="e"/>
+      <c r="C84" s="19" t="e"/>
+      <c r="D84" s="19" t="e"/>
+      <c r="E84" s="19" t="e"/>
+      <c r="F84" s="19" t="e"/>
+      <c r="G84" s="19" t="e"/>
+      <c r="H84" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="L83" s="10" t="e"/>
-      <c r="M83" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N83" s="9" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true">
-      <c r="A84" s="16" t="s">
+      <c r="I84" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" s="10" t="e"/>
+      <c r="K84" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L84" s="10" t="e"/>
+      <c r="M84" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true">
+      <c r="A85" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="16" t="e"/>
-      <c r="C84" s="16" t="e"/>
-      <c r="D84" s="16" t="s">
+      <c r="B85" s="16" t="e"/>
+      <c r="C85" s="16" t="e"/>
+      <c r="D85" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="16" t="e"/>
-      <c r="F84" s="16" t="e"/>
-      <c r="G84" s="16" t="s">
+      <c r="E85" s="16" t="e"/>
+      <c r="F85" s="16" t="e"/>
+      <c r="G85" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H84" s="17" t="n">
+      <c r="H85" s="17" t="n">
         <v>196</v>
       </c>
-      <c r="I84" s="17" t="n">
+      <c r="I85" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="J84" s="18" t="e"/>
-      <c r="K84" s="17" t="n">
+      <c r="J85" s="18" t="e"/>
+      <c r="K85" s="17" t="n">
         <v>188</v>
       </c>
-      <c r="L84" s="18" t="e"/>
-      <c r="M84" s="17" t="n">
+      <c r="L85" s="18" t="e"/>
+      <c r="M85" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="N84" s="17" t="n">
+      <c r="N85" s="17" t="n">
         <v>188</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A85" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="19" t="e"/>
-      <c r="C85" s="19" t="e"/>
-      <c r="D85" s="19" t="e"/>
-      <c r="E85" s="19" t="e"/>
-      <c r="F85" s="19" t="e"/>
-      <c r="G85" s="19" t="e"/>
-      <c r="H85" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="I85" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" s="10" t="e"/>
-      <c r="K85" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="L85" s="10" t="e"/>
-      <c r="M85" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N85" s="9" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B86" s="19" t="e"/>
       <c r="C86" s="19" t="e"/>
@@ -2704,26 +2684,26 @@
       <c r="F86" s="19" t="e"/>
       <c r="G86" s="19" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L86" s="10" t="e"/>
       <c r="M86" s="9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N86" s="9" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="A87" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B87" s="19" t="e"/>
       <c r="C87" s="19" t="e"/>
@@ -2732,22 +2712,26 @@
       <c r="F87" s="19" t="e"/>
       <c r="G87" s="19" t="e"/>
       <c r="H87" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I87" s="10" t="e"/>
+        <v>54</v>
+      </c>
+      <c r="I87" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J87" s="10" t="e"/>
       <c r="K87" s="9" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L87" s="10" t="e"/>
-      <c r="M87" s="10" t="e"/>
+      <c r="M87" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N87" s="9" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2756,22 +2740,22 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L88" s="10" t="e"/>
       <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B89" s="19" t="e"/>
       <c r="C89" s="19" t="e"/>
@@ -2780,82 +2764,78 @@
       <c r="F89" s="19" t="e"/>
       <c r="G89" s="19" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I89" s="10" t="e"/>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L89" s="10" t="e"/>
       <c r="M89" s="10" t="e"/>
       <c r="N89" s="9" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A90" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="19" t="e"/>
+      <c r="C90" s="19" t="e"/>
+      <c r="D90" s="19" t="e"/>
+      <c r="E90" s="19" t="e"/>
+      <c r="F90" s="19" t="e"/>
+      <c r="G90" s="19" t="e"/>
+      <c r="H90" s="9" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" ht="22" customHeight="true">
-      <c r="A90" s="16" t="s">
+      <c r="I90" s="10" t="e"/>
+      <c r="J90" s="10" t="e"/>
+      <c r="K90" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L90" s="10" t="e"/>
+      <c r="M90" s="10" t="e"/>
+      <c r="N90" s="9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true">
+      <c r="A91" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="16" t="e"/>
-      <c r="C90" s="16" t="e"/>
-      <c r="D90" s="16" t="s">
+      <c r="B91" s="16" t="e"/>
+      <c r="C91" s="16" t="e"/>
+      <c r="D91" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E90" s="16" t="e"/>
-      <c r="F90" s="16" t="e"/>
-      <c r="G90" s="16" t="s">
+      <c r="E91" s="16" t="e"/>
+      <c r="F91" s="16" t="e"/>
+      <c r="G91" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H90" s="17" t="n">
-        <v>228</v>
-      </c>
-      <c r="I90" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J90" s="18" t="e"/>
-      <c r="K90" s="17" t="n">
-        <v>213</v>
-      </c>
-      <c r="L90" s="18" t="e"/>
-      <c r="M90" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="N90" s="17" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A91" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" s="19" t="e"/>
-      <c r="C91" s="19" t="e"/>
-      <c r="D91" s="19" t="e"/>
-      <c r="E91" s="19" t="e"/>
-      <c r="F91" s="19" t="e"/>
-      <c r="G91" s="19" t="e"/>
-      <c r="H91" s="9" t="n">
-        <v>77</v>
-      </c>
-      <c r="I91" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J91" s="10" t="e"/>
-      <c r="K91" s="9" t="n">
-        <v>68</v>
-      </c>
-      <c r="L91" s="10" t="e"/>
-      <c r="M91" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="N91" s="9" t="n">
-        <v>68</v>
+      <c r="H91" s="17" t="n">
+        <v>225</v>
+      </c>
+      <c r="I91" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J91" s="18" t="e"/>
+      <c r="K91" s="17" t="n">
+        <v>211</v>
+      </c>
+      <c r="L91" s="18" t="e"/>
+      <c r="M91" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="N91" s="17" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="A92" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B92" s="19" t="e"/>
       <c r="C92" s="19" t="e"/>
@@ -2864,26 +2844,26 @@
       <c r="F92" s="19" t="e"/>
       <c r="G92" s="19" t="e"/>
       <c r="H92" s="9" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I92" s="9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J92" s="10" t="e"/>
       <c r="K92" s="9" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L92" s="10" t="e"/>
       <c r="M92" s="9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N92" s="9" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="A93" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B93" s="19" t="e"/>
       <c r="C93" s="19" t="e"/>
@@ -2892,22 +2872,26 @@
       <c r="F93" s="19" t="e"/>
       <c r="G93" s="19" t="e"/>
       <c r="H93" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="I93" s="10" t="e"/>
+        <v>75</v>
+      </c>
+      <c r="I93" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J93" s="10" t="e"/>
       <c r="K93" s="9" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L93" s="10" t="e"/>
-      <c r="M93" s="10" t="e"/>
+      <c r="M93" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N93" s="9" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2916,22 +2900,22 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I94" s="10" t="e"/>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L94" s="10" t="e"/>
       <c r="M94" s="10" t="e"/>
       <c r="N94" s="9" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2940,82 +2924,82 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I95" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I95" s="10" t="e"/>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L95" s="10" t="e"/>
+      <c r="M95" s="10" t="e"/>
+      <c r="N95" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A96" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="19" t="e"/>
+      <c r="C96" s="19" t="e"/>
+      <c r="D96" s="19" t="e"/>
+      <c r="E96" s="19" t="e"/>
+      <c r="F96" s="19" t="e"/>
+      <c r="G96" s="19" t="e"/>
+      <c r="H96" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="L95" s="10" t="e"/>
-      <c r="M95" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N95" s="9" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true">
-      <c r="A96" s="16" t="s">
+      <c r="I96" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" s="10" t="e"/>
+      <c r="K96" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="L96" s="10" t="e"/>
+      <c r="M96" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" s="9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true">
+      <c r="A97" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B96" s="16" t="e"/>
-      <c r="C96" s="16" t="e"/>
-      <c r="D96" s="16" t="s">
+      <c r="B97" s="16" t="e"/>
+      <c r="C97" s="16" t="e"/>
+      <c r="D97" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E96" s="16" t="e"/>
-      <c r="F96" s="16" t="e"/>
-      <c r="G96" s="16" t="s">
+      <c r="E97" s="16" t="e"/>
+      <c r="F97" s="16" t="e"/>
+      <c r="G97" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="17" t="n">
-        <v>176</v>
-      </c>
-      <c r="I96" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J96" s="18" t="e"/>
-      <c r="K96" s="17" t="n">
+      <c r="H97" s="17" t="n">
+        <v>175</v>
+      </c>
+      <c r="I97" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" s="18" t="e"/>
+      <c r="K97" s="17" t="n">
         <v>171</v>
       </c>
-      <c r="L96" s="18" t="e"/>
-      <c r="M96" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N96" s="17" t="n">
+      <c r="L97" s="18" t="e"/>
+      <c r="M97" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" s="17" t="n">
         <v>171</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A97" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B97" s="19" t="e"/>
-      <c r="C97" s="19" t="e"/>
-      <c r="D97" s="19" t="e"/>
-      <c r="E97" s="19" t="e"/>
-      <c r="F97" s="19" t="e"/>
-      <c r="G97" s="19" t="e"/>
-      <c r="H97" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="I97" s="10" t="e"/>
-      <c r="J97" s="10" t="e"/>
-      <c r="K97" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="L97" s="10" t="e"/>
-      <c r="M97" s="10" t="e"/>
-      <c r="N97" s="9" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B98" s="19" t="e"/>
       <c r="C98" s="19" t="e"/>
@@ -3024,26 +3008,22 @@
       <c r="F98" s="19" t="e"/>
       <c r="G98" s="19" t="e"/>
       <c r="H98" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I98" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I98" s="10" t="e"/>
       <c r="J98" s="10" t="e"/>
       <c r="K98" s="9" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L98" s="10" t="e"/>
-      <c r="M98" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M98" s="10" t="e"/>
       <c r="N98" s="9" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -3052,22 +3032,26 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I99" s="10" t="e"/>
+        <v>34</v>
+      </c>
+      <c r="I99" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L99" s="10" t="e"/>
-      <c r="M99" s="10" t="e"/>
+      <c r="M99" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="N99" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="A100" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B100" s="19" t="e"/>
       <c r="C100" s="19" t="e"/>
@@ -3076,22 +3060,22 @@
       <c r="F100" s="19" t="e"/>
       <c r="G100" s="19" t="e"/>
       <c r="H100" s="9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I100" s="10" t="e"/>
       <c r="J100" s="10" t="e"/>
       <c r="K100" s="9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L100" s="10" t="e"/>
       <c r="M100" s="10" t="e"/>
       <c r="N100" s="9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3100,86 +3084,78 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I101" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I101" s="10" t="e"/>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L101" s="10" t="e"/>
+      <c r="M101" s="10" t="e"/>
+      <c r="N101" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A102" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="19" t="e"/>
+      <c r="C102" s="19" t="e"/>
+      <c r="D102" s="19" t="e"/>
+      <c r="E102" s="19" t="e"/>
+      <c r="F102" s="19" t="e"/>
+      <c r="G102" s="19" t="e"/>
+      <c r="H102" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="L101" s="10" t="e"/>
-      <c r="M101" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" s="9" t="n">
+      <c r="I102" s="10" t="e"/>
+      <c r="J102" s="10" t="e"/>
+      <c r="K102" s="9" t="n">
         <v>44</v>
       </c>
-    </row>
-    <row r="102" ht="11" customHeight="true">
-      <c r="A102" s="16" t="s">
+      <c r="L102" s="10" t="e"/>
+      <c r="M102" s="10" t="e"/>
+      <c r="N102" s="9" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true">
+      <c r="A103" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="16" t="e"/>
-      <c r="C102" s="16" t="e"/>
-      <c r="D102" s="16" t="s">
+      <c r="B103" s="16" t="e"/>
+      <c r="C103" s="16" t="e"/>
+      <c r="D103" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E102" s="16" t="e"/>
-      <c r="F102" s="16" t="e"/>
-      <c r="G102" s="16" t="s">
+      <c r="E103" s="16" t="e"/>
+      <c r="F103" s="16" t="e"/>
+      <c r="G103" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H102" s="17" t="n">
+      <c r="H103" s="17" t="n">
         <v>144</v>
       </c>
-      <c r="I102" s="17" t="n">
+      <c r="I103" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="J102" s="18" t="e"/>
-      <c r="K102" s="17" t="n">
+      <c r="J103" s="18" t="e"/>
+      <c r="K103" s="17" t="n">
         <v>118</v>
       </c>
-      <c r="L102" s="18" t="e"/>
-      <c r="M102" s="17" t="n">
+      <c r="L103" s="18" t="e"/>
+      <c r="M103" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="N102" s="17" t="n">
+      <c r="N103" s="17" t="n">
         <v>118</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A103" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" s="19" t="e"/>
-      <c r="C103" s="19" t="e"/>
-      <c r="D103" s="19" t="e"/>
-      <c r="E103" s="19" t="e"/>
-      <c r="F103" s="19" t="e"/>
-      <c r="G103" s="19" t="e"/>
-      <c r="H103" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="I103" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J103" s="10" t="e"/>
-      <c r="K103" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="L103" s="10" t="e"/>
-      <c r="M103" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="N103" s="9" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="A104" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B104" s="19" t="e"/>
       <c r="C104" s="19" t="e"/>
@@ -3188,26 +3164,26 @@
       <c r="F104" s="19" t="e"/>
       <c r="G104" s="19" t="e"/>
       <c r="H104" s="9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I104" s="9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J104" s="10" t="e"/>
       <c r="K104" s="9" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L104" s="10" t="e"/>
       <c r="M104" s="9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N104" s="9" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B105" s="19" t="e"/>
       <c r="C105" s="19" t="e"/>
@@ -3216,22 +3192,26 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I105" s="10" t="e"/>
+        <v>39</v>
+      </c>
+      <c r="I105" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L105" s="10" t="e"/>
-      <c r="M105" s="10" t="e"/>
+      <c r="M105" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="N105" s="9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B106" s="19" t="e"/>
       <c r="C106" s="19" t="e"/>
@@ -3240,82 +3220,78 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I106" s="10" t="e"/>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="L106" s="10" t="e"/>
       <c r="M106" s="10" t="e"/>
       <c r="N106" s="9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A107" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="19" t="e"/>
+      <c r="C107" s="19" t="e"/>
+      <c r="D107" s="19" t="e"/>
+      <c r="E107" s="19" t="e"/>
+      <c r="F107" s="19" t="e"/>
+      <c r="G107" s="19" t="e"/>
+      <c r="H107" s="9" t="n">
         <v>49</v>
       </c>
-    </row>
-    <row r="107" ht="11" customHeight="true">
-      <c r="A107" s="16" t="s">
+      <c r="I107" s="10" t="e"/>
+      <c r="J107" s="10" t="e"/>
+      <c r="K107" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="L107" s="10" t="e"/>
+      <c r="M107" s="10" t="e"/>
+      <c r="N107" s="9" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" ht="11" customHeight="true">
+      <c r="A108" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B107" s="16" t="e"/>
-      <c r="C107" s="16" t="e"/>
-      <c r="D107" s="16" t="s">
+      <c r="B108" s="16" t="e"/>
+      <c r="C108" s="16" t="e"/>
+      <c r="D108" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E107" s="16" t="e"/>
-      <c r="F107" s="16" t="e"/>
-      <c r="G107" s="16" t="s">
+      <c r="E108" s="16" t="e"/>
+      <c r="F108" s="16" t="e"/>
+      <c r="G108" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H107" s="17" t="n">
-        <v>143</v>
-      </c>
-      <c r="I107" s="17" t="n">
+      <c r="H108" s="17" t="n">
+        <v>138</v>
+      </c>
+      <c r="I108" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="J107" s="18" t="e"/>
-      <c r="K107" s="17" t="n">
-        <v>109</v>
-      </c>
-      <c r="L107" s="18" t="e"/>
-      <c r="M107" s="17" t="n">
+      <c r="J108" s="18" t="e"/>
+      <c r="K108" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="L108" s="18" t="e"/>
+      <c r="M108" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="N107" s="17" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A108" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" s="19" t="e"/>
-      <c r="C108" s="19" t="e"/>
-      <c r="D108" s="19" t="e"/>
-      <c r="E108" s="19" t="e"/>
-      <c r="F108" s="19" t="e"/>
-      <c r="G108" s="19" t="e"/>
-      <c r="H108" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I108" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J108" s="10" t="e"/>
-      <c r="K108" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="L108" s="10" t="e"/>
-      <c r="M108" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N108" s="9" t="n">
-        <v>37</v>
+      <c r="N108" s="17" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="A109" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B109" s="19" t="e"/>
       <c r="C109" s="19" t="e"/>
@@ -3324,26 +3300,26 @@
       <c r="F109" s="19" t="e"/>
       <c r="G109" s="19" t="e"/>
       <c r="H109" s="9" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J109" s="10" t="e"/>
       <c r="K109" s="9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L109" s="10" t="e"/>
       <c r="M109" s="9" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N109" s="9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3352,26 +3328,26 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="I110" s="9" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="L110" s="10" t="e"/>
       <c r="M110" s="9" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N110" s="9" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="A111" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B111" s="19" t="e"/>
       <c r="C111" s="19" t="e"/>
@@ -3380,86 +3356,82 @@
       <c r="F111" s="19" t="e"/>
       <c r="G111" s="19" t="e"/>
       <c r="H111" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I111" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I111" s="10" t="e"/>
       <c r="J111" s="10" t="e"/>
       <c r="K111" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L111" s="10" t="e"/>
+      <c r="M111" s="10" t="e"/>
+      <c r="N111" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A112" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="19" t="e"/>
+      <c r="C112" s="19" t="e"/>
+      <c r="D112" s="19" t="e"/>
+      <c r="E112" s="19" t="e"/>
+      <c r="F112" s="19" t="e"/>
+      <c r="G112" s="19" t="e"/>
+      <c r="H112" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="L111" s="10" t="e"/>
-      <c r="M111" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N111" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true">
-      <c r="A112" s="16" t="s">
+      <c r="I112" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J112" s="10" t="e"/>
+      <c r="K112" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="L112" s="10" t="e"/>
+      <c r="M112" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" s="9" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" ht="11" customHeight="true">
+      <c r="A113" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B112" s="16" t="e"/>
-      <c r="C112" s="16" t="e"/>
-      <c r="D112" s="16" t="s">
+      <c r="B113" s="16" t="e"/>
+      <c r="C113" s="16" t="e"/>
+      <c r="D113" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E112" s="16" t="e"/>
-      <c r="F112" s="16" t="e"/>
-      <c r="G112" s="16" t="s">
+      <c r="E113" s="16" t="e"/>
+      <c r="F113" s="16" t="e"/>
+      <c r="G113" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H112" s="17" t="n">
+      <c r="H113" s="17" t="n">
         <v>121</v>
       </c>
-      <c r="I112" s="17" t="n">
+      <c r="I113" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="J112" s="18" t="e"/>
-      <c r="K112" s="17" t="n">
+      <c r="J113" s="18" t="e"/>
+      <c r="K113" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="L112" s="18" t="e"/>
-      <c r="M112" s="17" t="n">
+      <c r="L113" s="18" t="e"/>
+      <c r="M113" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="N112" s="17" t="n">
+      <c r="N113" s="17" t="n">
         <v>100</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A113" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="19" t="e"/>
-      <c r="C113" s="19" t="e"/>
-      <c r="D113" s="19" t="e"/>
-      <c r="E113" s="19" t="e"/>
-      <c r="F113" s="19" t="e"/>
-      <c r="G113" s="19" t="e"/>
-      <c r="H113" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I113" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="J113" s="10" t="e"/>
-      <c r="K113" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="L113" s="10" t="e"/>
-      <c r="M113" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="N113" s="9" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3468,26 +3440,26 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L114" s="10" t="e"/>
       <c r="M114" s="9" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N114" s="9" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="A115" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B115" s="19" t="e"/>
       <c r="C115" s="19" t="e"/>
@@ -3496,22 +3468,26 @@
       <c r="F115" s="19" t="e"/>
       <c r="G115" s="19" t="e"/>
       <c r="H115" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I115" s="10" t="e"/>
+        <v>42</v>
+      </c>
+      <c r="I115" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J115" s="10" t="e"/>
       <c r="K115" s="9" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L115" s="10" t="e"/>
-      <c r="M115" s="10" t="e"/>
+      <c r="M115" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N115" s="9" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3535,7 +3511,7 @@
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="A117" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B117" s="19" t="e"/>
       <c r="C117" s="19" t="e"/>
@@ -3544,74 +3520,74 @@
       <c r="F117" s="19" t="e"/>
       <c r="G117" s="19" t="e"/>
       <c r="H117" s="9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I117" s="10" t="e"/>
       <c r="J117" s="10" t="e"/>
       <c r="K117" s="9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L117" s="10" t="e"/>
       <c r="M117" s="10" t="e"/>
       <c r="N117" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A118" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="19" t="e"/>
+      <c r="C118" s="19" t="e"/>
+      <c r="D118" s="19" t="e"/>
+      <c r="E118" s="19" t="e"/>
+      <c r="F118" s="19" t="e"/>
+      <c r="G118" s="19" t="e"/>
+      <c r="H118" s="9" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="118" ht="11" customHeight="true">
-      <c r="A118" s="16" t="s">
+      <c r="I118" s="10" t="e"/>
+      <c r="J118" s="10" t="e"/>
+      <c r="K118" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L118" s="10" t="e"/>
+      <c r="M118" s="10" t="e"/>
+      <c r="N118" s="9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true">
+      <c r="A119" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B118" s="16" t="e"/>
-      <c r="C118" s="16" t="e"/>
-      <c r="D118" s="16" t="s">
+      <c r="B119" s="16" t="e"/>
+      <c r="C119" s="16" t="e"/>
+      <c r="D119" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E118" s="16" t="e"/>
-      <c r="F118" s="16" t="e"/>
-      <c r="G118" s="16" t="s">
+      <c r="E119" s="16" t="e"/>
+      <c r="F119" s="16" t="e"/>
+      <c r="G119" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H118" s="17" t="n">
+      <c r="H119" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="I118" s="18" t="e"/>
-      <c r="J118" s="18" t="e"/>
-      <c r="K118" s="17" t="n">
+      <c r="I119" s="18" t="e"/>
+      <c r="J119" s="18" t="e"/>
+      <c r="K119" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="L118" s="18" t="e"/>
-      <c r="M118" s="18" t="e"/>
-      <c r="N118" s="17" t="n">
+      <c r="L119" s="18" t="e"/>
+      <c r="M119" s="18" t="e"/>
+      <c r="N119" s="17" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A119" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B119" s="19" t="e"/>
-      <c r="C119" s="19" t="e"/>
-      <c r="D119" s="19" t="e"/>
-      <c r="E119" s="19" t="e"/>
-      <c r="F119" s="19" t="e"/>
-      <c r="G119" s="19" t="e"/>
-      <c r="H119" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I119" s="10" t="e"/>
-      <c r="J119" s="10" t="e"/>
-      <c r="K119" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="L119" s="10" t="e"/>
-      <c r="M119" s="10" t="e"/>
-      <c r="N119" s="9" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3633,69 +3609,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" ht="11" customHeight="true">
-      <c r="A121" s="16" t="s">
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A121" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="19" t="e"/>
+      <c r="C121" s="19" t="e"/>
+      <c r="D121" s="19" t="e"/>
+      <c r="E121" s="19" t="e"/>
+      <c r="F121" s="19" t="e"/>
+      <c r="G121" s="19" t="e"/>
+      <c r="H121" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I121" s="10" t="e"/>
+      <c r="J121" s="10" t="e"/>
+      <c r="K121" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L121" s="10" t="e"/>
+      <c r="M121" s="10" t="e"/>
+      <c r="N121" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true">
+      <c r="A122" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B121" s="16" t="e"/>
-      <c r="C121" s="16" t="e"/>
-      <c r="D121" s="16" t="s">
+      <c r="B122" s="16" t="e"/>
+      <c r="C122" s="16" t="e"/>
+      <c r="D122" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E121" s="16" t="e"/>
-      <c r="F121" s="16" t="e"/>
-      <c r="G121" s="16" t="s">
+      <c r="E122" s="16" t="e"/>
+      <c r="F122" s="16" t="e"/>
+      <c r="G122" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H121" s="17" t="n">
-        <v>295</v>
-      </c>
-      <c r="I121" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J121" s="18" t="e"/>
-      <c r="K121" s="17" t="n">
-        <v>245</v>
-      </c>
-      <c r="L121" s="18" t="e"/>
-      <c r="M121" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="N121" s="17" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A122" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B122" s="19" t="e"/>
-      <c r="C122" s="19" t="e"/>
-      <c r="D122" s="19" t="e"/>
-      <c r="E122" s="19" t="e"/>
-      <c r="F122" s="19" t="e"/>
-      <c r="G122" s="19" t="e"/>
-      <c r="H122" s="9" t="n">
-        <v>113</v>
-      </c>
-      <c r="I122" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="J122" s="10" t="e"/>
-      <c r="K122" s="9" t="n">
-        <v>83</v>
-      </c>
-      <c r="L122" s="10" t="e"/>
-      <c r="M122" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="N122" s="9" t="n">
-        <v>83</v>
+      <c r="H122" s="17" t="n">
+        <v>292</v>
+      </c>
+      <c r="I122" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="J122" s="18" t="e"/>
+      <c r="K122" s="17" t="n">
+        <v>214</v>
+      </c>
+      <c r="L122" s="18" t="e"/>
+      <c r="M122" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="N122" s="17" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="A123" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B123" s="19" t="e"/>
       <c r="C123" s="19" t="e"/>
@@ -3704,26 +3676,26 @@
       <c r="F123" s="19" t="e"/>
       <c r="G123" s="19" t="e"/>
       <c r="H123" s="9" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I123" s="9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J123" s="10" t="e"/>
       <c r="K123" s="9" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L123" s="10" t="e"/>
       <c r="M123" s="9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N123" s="9" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="A124" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B124" s="19" t="e"/>
       <c r="C124" s="19" t="e"/>
@@ -3732,22 +3704,26 @@
       <c r="F124" s="19" t="e"/>
       <c r="G124" s="19" t="e"/>
       <c r="H124" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="I124" s="10" t="e"/>
+        <v>104</v>
+      </c>
+      <c r="I124" s="9" t="n">
+        <v>17</v>
+      </c>
       <c r="J124" s="10" t="e"/>
       <c r="K124" s="9" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="L124" s="10" t="e"/>
-      <c r="M124" s="10" t="e"/>
+      <c r="M124" s="9" t="n">
+        <v>17</v>
+      </c>
       <c r="N124" s="9" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B125" s="19" t="e"/>
       <c r="C125" s="19" t="e"/>
@@ -3756,22 +3732,26 @@
       <c r="F125" s="19" t="e"/>
       <c r="G125" s="19" t="e"/>
       <c r="H125" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I125" s="10" t="e"/>
+        <v>24</v>
+      </c>
+      <c r="I125" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="J125" s="10" t="e"/>
       <c r="K125" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L125" s="10" t="e"/>
-      <c r="M125" s="10" t="e"/>
+      <c r="M125" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="N125" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3780,138 +3760,134 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="I126" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I126" s="10" t="e"/>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L126" s="10" t="e"/>
-      <c r="M126" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M126" s="10" t="e"/>
       <c r="N126" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" ht="11" customHeight="true">
-      <c r="A127" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A127" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="19" t="e"/>
+      <c r="C127" s="19" t="e"/>
+      <c r="D127" s="19" t="e"/>
+      <c r="E127" s="19" t="e"/>
+      <c r="F127" s="19" t="e"/>
+      <c r="G127" s="19" t="e"/>
+      <c r="H127" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="I127" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J127" s="10" t="e"/>
+      <c r="K127" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L127" s="10" t="e"/>
+      <c r="M127" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="N127" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true">
+      <c r="A128" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B127" s="16" t="e"/>
-      <c r="C127" s="16" t="e"/>
-      <c r="D127" s="16" t="s">
+      <c r="B128" s="16" t="e"/>
+      <c r="C128" s="16" t="e"/>
+      <c r="D128" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E127" s="16" t="e"/>
-      <c r="F127" s="16" t="e"/>
-      <c r="G127" s="16" t="s">
+      <c r="E128" s="16" t="e"/>
+      <c r="F128" s="16" t="e"/>
+      <c r="G128" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H127" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" s="18" t="e"/>
-      <c r="J127" s="18" t="e"/>
-      <c r="K127" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L127" s="18" t="e"/>
-      <c r="M127" s="18" t="e"/>
-      <c r="N127" s="17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A128" s="19" t="s">
+      <c r="H128" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" s="18" t="e"/>
+      <c r="J128" s="18" t="e"/>
+      <c r="K128" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" s="18" t="e"/>
+      <c r="M128" s="18" t="e"/>
+      <c r="N128" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A129" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B128" s="19" t="e"/>
-      <c r="C128" s="19" t="e"/>
-      <c r="D128" s="19" t="e"/>
-      <c r="E128" s="19" t="e"/>
-      <c r="F128" s="19" t="e"/>
-      <c r="G128" s="19" t="e"/>
-      <c r="H128" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" s="10" t="e"/>
-      <c r="J128" s="10" t="e"/>
-      <c r="K128" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L128" s="10" t="e"/>
-      <c r="M128" s="10" t="e"/>
-      <c r="N128" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true">
-      <c r="A129" s="16" t="s">
+      <c r="B129" s="19" t="e"/>
+      <c r="C129" s="19" t="e"/>
+      <c r="D129" s="19" t="e"/>
+      <c r="E129" s="19" t="e"/>
+      <c r="F129" s="19" t="e"/>
+      <c r="G129" s="19" t="e"/>
+      <c r="H129" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" s="10" t="e"/>
+      <c r="J129" s="10" t="e"/>
+      <c r="K129" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" s="10" t="e"/>
+      <c r="M129" s="10" t="e"/>
+      <c r="N129" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true">
+      <c r="A130" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B129" s="16" t="e"/>
-      <c r="C129" s="16" t="e"/>
-      <c r="D129" s="16" t="s">
+      <c r="B130" s="16" t="e"/>
+      <c r="C130" s="16" t="e"/>
+      <c r="D130" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E129" s="16" t="e"/>
-      <c r="F129" s="16" t="e"/>
-      <c r="G129" s="16" t="s">
+      <c r="E130" s="16" t="e"/>
+      <c r="F130" s="16" t="e"/>
+      <c r="G130" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H129" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="I129" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J129" s="18" t="e"/>
-      <c r="K129" s="17" t="n">
-        <v>62</v>
-      </c>
-      <c r="L129" s="18" t="e"/>
-      <c r="M129" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="N129" s="17" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A130" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B130" s="19" t="e"/>
-      <c r="C130" s="19" t="e"/>
-      <c r="D130" s="19" t="e"/>
-      <c r="E130" s="19" t="e"/>
-      <c r="F130" s="19" t="e"/>
-      <c r="G130" s="19" t="e"/>
-      <c r="H130" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I130" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J130" s="10" t="e"/>
-      <c r="K130" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L130" s="10" t="e"/>
-      <c r="M130" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N130" s="9" t="n">
-        <v>13</v>
+      <c r="H130" s="17" t="n">
+        <v>76</v>
+      </c>
+      <c r="I130" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J130" s="18" t="e"/>
+      <c r="K130" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="L130" s="18" t="e"/>
+      <c r="M130" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N130" s="17" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="A131" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B131" s="19" t="e"/>
       <c r="C131" s="19" t="e"/>
@@ -3920,26 +3896,26 @@
       <c r="F131" s="19" t="e"/>
       <c r="G131" s="19" t="e"/>
       <c r="H131" s="9" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I131" s="9" t="n">
         <v>7</v>
       </c>
       <c r="J131" s="10" t="e"/>
       <c r="K131" s="9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L131" s="10" t="e"/>
       <c r="M131" s="9" t="n">
         <v>7</v>
       </c>
       <c r="N131" s="9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="A132" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B132" s="19" t="e"/>
       <c r="C132" s="19" t="e"/>
@@ -3948,22 +3924,26 @@
       <c r="F132" s="19" t="e"/>
       <c r="G132" s="19" t="e"/>
       <c r="H132" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I132" s="10" t="e"/>
+        <v>26</v>
+      </c>
+      <c r="I132" s="9" t="n">
+        <v>7</v>
+      </c>
       <c r="J132" s="10" t="e"/>
       <c r="K132" s="9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L132" s="10" t="e"/>
-      <c r="M132" s="10" t="e"/>
+      <c r="M132" s="9" t="n">
+        <v>7</v>
+      </c>
       <c r="N132" s="9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="A133" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B133" s="19" t="e"/>
       <c r="C133" s="19" t="e"/>
@@ -3972,86 +3952,82 @@
       <c r="F133" s="19" t="e"/>
       <c r="G133" s="19" t="e"/>
       <c r="H133" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I133" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I133" s="10" t="e"/>
       <c r="J133" s="10" t="e"/>
       <c r="K133" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L133" s="10" t="e"/>
+      <c r="M133" s="10" t="e"/>
+      <c r="N133" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A134" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="19" t="e"/>
+      <c r="C134" s="19" t="e"/>
+      <c r="D134" s="19" t="e"/>
+      <c r="E134" s="19" t="e"/>
+      <c r="F134" s="19" t="e"/>
+      <c r="G134" s="19" t="e"/>
+      <c r="H134" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="L133" s="10" t="e"/>
-      <c r="M133" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" ht="11" customHeight="true">
-      <c r="A134" s="16" t="s">
+      <c r="I134" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" s="10" t="e"/>
+      <c r="K134" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L134" s="10" t="e"/>
+      <c r="M134" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true">
+      <c r="A135" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B134" s="16" t="e"/>
-      <c r="C134" s="16" t="e"/>
-      <c r="D134" s="16" t="s">
+      <c r="B135" s="16" t="e"/>
+      <c r="C135" s="16" t="e"/>
+      <c r="D135" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E134" s="16" t="e"/>
-      <c r="F134" s="16" t="e"/>
-      <c r="G134" s="16" t="s">
+      <c r="E135" s="16" t="e"/>
+      <c r="F135" s="16" t="e"/>
+      <c r="G135" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H134" s="17" t="n">
-        <v>66</v>
-      </c>
-      <c r="I134" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="J134" s="18" t="e"/>
-      <c r="K134" s="17" t="n">
-        <v>42</v>
-      </c>
-      <c r="L134" s="18" t="e"/>
-      <c r="M134" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="N134" s="17" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A135" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B135" s="19" t="e"/>
-      <c r="C135" s="19" t="e"/>
-      <c r="D135" s="19" t="e"/>
-      <c r="E135" s="19" t="e"/>
-      <c r="F135" s="19" t="e"/>
-      <c r="G135" s="19" t="e"/>
-      <c r="H135" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I135" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J135" s="10" t="e"/>
-      <c r="K135" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L135" s="10" t="e"/>
-      <c r="M135" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N135" s="9" t="n">
-        <v>13</v>
+      <c r="H135" s="17" t="n">
+        <v>58</v>
+      </c>
+      <c r="I135" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J135" s="18" t="e"/>
+      <c r="K135" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="L135" s="18" t="e"/>
+      <c r="M135" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N135" s="17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="A136" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B136" s="19" t="e"/>
       <c r="C136" s="19" t="e"/>
@@ -4060,26 +4036,26 @@
       <c r="F136" s="19" t="e"/>
       <c r="G136" s="19" t="e"/>
       <c r="H136" s="9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I136" s="9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J136" s="10" t="e"/>
       <c r="K136" s="9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L136" s="10" t="e"/>
       <c r="M136" s="9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N136" s="9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="A137" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B137" s="19" t="e"/>
       <c r="C137" s="19" t="e"/>
@@ -4088,26 +4064,26 @@
       <c r="F137" s="19" t="e"/>
       <c r="G137" s="19" t="e"/>
       <c r="H137" s="9" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I137" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J137" s="10" t="e"/>
       <c r="K137" s="9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L137" s="10" t="e"/>
       <c r="M137" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N137" s="9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" ht="11" customHeight="true" outlineLevel="1">
       <c r="A138" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B138" s="19" t="e"/>
       <c r="C138" s="19" t="e"/>
@@ -4119,50 +4095,74 @@
         <v>10</v>
       </c>
       <c r="I138" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" s="10" t="e"/>
       <c r="K138" s="9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L138" s="10" t="e"/>
       <c r="M138" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N138" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A139" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="19" t="e"/>
+      <c r="C139" s="19" t="e"/>
+      <c r="D139" s="19" t="e"/>
+      <c r="E139" s="19" t="e"/>
+      <c r="F139" s="19" t="e"/>
+      <c r="G139" s="19" t="e"/>
+      <c r="H139" s="9" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" ht="13" customHeight="true">
-      <c r="A139" s="12" t="s">
+      <c r="I139" s="10" t="e"/>
+      <c r="J139" s="10" t="e"/>
+      <c r="K139" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L139" s="10" t="e"/>
+      <c r="M139" s="10" t="e"/>
+      <c r="N139" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" ht="13" customHeight="true">
+      <c r="A140" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B139" s="12" t="e"/>
-      <c r="C139" s="12" t="e"/>
-      <c r="D139" s="12" t="e"/>
-      <c r="E139" s="12" t="e"/>
-      <c r="F139" s="12" t="e"/>
-      <c r="G139" s="12" t="e"/>
-      <c r="H139" s="13" t="n">
-        <v>2740</v>
-      </c>
-      <c r="I139" s="14" t="n">
-        <v>286</v>
-      </c>
-      <c r="J139" s="15" t="e"/>
-      <c r="K139" s="13" t="n">
-        <v>2454</v>
-      </c>
-      <c r="L139" s="15" t="e"/>
-      <c r="M139" s="14" t="n">
-        <v>286</v>
-      </c>
-      <c r="N139" s="13" t="n">
-        <v>2454</v>
+      <c r="B140" s="12" t="e"/>
+      <c r="C140" s="12" t="e"/>
+      <c r="D140" s="12" t="e"/>
+      <c r="E140" s="12" t="e"/>
+      <c r="F140" s="12" t="e"/>
+      <c r="G140" s="12" t="e"/>
+      <c r="H140" s="13" t="n">
+        <v>2667</v>
+      </c>
+      <c r="I140" s="14" t="n">
+        <v>296</v>
+      </c>
+      <c r="J140" s="15" t="e"/>
+      <c r="K140" s="13" t="n">
+        <v>2371</v>
+      </c>
+      <c r="L140" s="15" t="e"/>
+      <c r="M140" s="14" t="n">
+        <v>296</v>
+      </c>
+      <c r="N140" s="13" t="n">
+        <v>2371</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="178">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -4200,27 +4200,26 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:G41"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="D43:F43"/>
@@ -4231,115 +4230,117 @@
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
     <mergeCell ref="A63:G63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
     <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:F76"/>
     <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:F79"/>
     <mergeCell ref="A80:G80"/>
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A82:G82"/>
     <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
     <mergeCell ref="A86:G86"/>
     <mergeCell ref="A87:G87"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:F97"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:F103"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
     <mergeCell ref="A106:G106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:F108"/>
     <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A111:G111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="D113:F113"/>
     <mergeCell ref="A114:G114"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
     <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:F119"/>
     <mergeCell ref="A120:G120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="D122:F122"/>
     <mergeCell ref="A123:G123"/>
     <mergeCell ref="A124:G124"/>
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:F130"/>
     <mergeCell ref="A131:G131"/>
     <mergeCell ref="A132:G132"/>
     <mergeCell ref="A133:G133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:F135"/>
     <mergeCell ref="A136:G136"/>
     <mergeCell ref="A137:G137"/>
     <mergeCell ref="A138:G138"/>
     <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A140:G140"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -508,7 +508,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N140"/>
+  <dimension ref="N144"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -644,21 +644,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L9" s="10" t="e"/>
       <c r="M9" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -696,21 +696,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1000</v>
+        <v>1156</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J11" s="10" t="e"/>
-      <c r="K11" s="9" t="n">
-        <v>924</v>
+      <c r="K11" s="11" t="n">
+        <v>1145</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" s="9" t="n">
-        <v>924</v>
+        <v>11</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>1145</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -724,21 +724,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1438</v>
+        <v>1851</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1220</v>
+        <v>1841</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1220</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -752,21 +752,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2667</v>
+        <v>3234</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2371</v>
+        <v>3209</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2371</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -1040,21 +1040,21 @@
         <v>24</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="18" t="e"/>
       <c r="K24" s="17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L24" s="18" t="e"/>
       <c r="M24" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" s="17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true" outlineLevel="1">
@@ -1068,19 +1068,15 @@
       <c r="F25" s="19" t="e"/>
       <c r="G25" s="19" t="e"/>
       <c r="H25" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I25" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I25" s="10" t="e"/>
       <c r="J25" s="10" t="e"/>
       <c r="K25" s="9" t="n">
         <v>6</v>
       </c>
       <c r="L25" s="10" t="e"/>
-      <c r="M25" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M25" s="10" t="e"/>
       <c r="N25" s="9" t="n">
         <v>6</v>
       </c>
@@ -1096,17 +1092,17 @@
       <c r="F26" s="19" t="e"/>
       <c r="G26" s="19" t="e"/>
       <c r="H26" s="9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I26" s="10" t="e"/>
       <c r="J26" s="10" t="e"/>
       <c r="K26" s="9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L26" s="10" t="e"/>
       <c r="M26" s="10" t="e"/>
       <c r="N26" s="9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1120,17 +1116,21 @@
       <c r="F27" s="19" t="e"/>
       <c r="G27" s="19" t="e"/>
       <c r="H27" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I27" s="10" t="e"/>
+        <v>14</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J27" s="10" t="e"/>
       <c r="K27" s="9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L27" s="10" t="e"/>
-      <c r="M27" s="10" t="e"/>
+      <c r="M27" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N27" s="9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1148,21 +1148,21 @@
         <v>24</v>
       </c>
       <c r="H28" s="17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="17" t="n">
         <v>1</v>
       </c>
       <c r="J28" s="18" t="e"/>
       <c r="K28" s="17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L28" s="18" t="e"/>
       <c r="M28" s="17" t="n">
         <v>1</v>
       </c>
       <c r="N28" s="17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="1">
@@ -1176,19 +1176,15 @@
       <c r="F29" s="19" t="e"/>
       <c r="G29" s="19" t="e"/>
       <c r="H29" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I29" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I29" s="10" t="e"/>
       <c r="J29" s="10" t="e"/>
       <c r="K29" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L29" s="10" t="e"/>
-      <c r="M29" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M29" s="10" t="e"/>
       <c r="N29" s="9" t="n">
         <v>5</v>
       </c>
@@ -1230,15 +1226,19 @@
       <c r="H31" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="I31" s="10" t="e"/>
+      <c r="I31" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J31" s="10" t="e"/>
       <c r="K31" s="9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" s="10" t="e"/>
-      <c r="M31" s="10" t="e"/>
+      <c r="M31" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N31" s="9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true">
@@ -1692,21 +1692,21 @@
         <v>24</v>
       </c>
       <c r="H49" s="17" t="n">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="I49" s="17" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J49" s="18" t="e"/>
       <c r="K49" s="17" t="n">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="L49" s="18" t="e"/>
       <c r="M49" s="17" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N49" s="17" t="n">
-        <v>195</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
@@ -1722,20 +1722,24 @@
       <c r="H50" s="9" t="n">
         <v>116</v>
       </c>
-      <c r="I50" s="10" t="e"/>
+      <c r="I50" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L50" s="10" t="e"/>
-      <c r="M50" s="10" t="e"/>
+      <c r="M50" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N50" s="9" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="1">
       <c r="A51" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B51" s="19" t="e"/>
       <c r="C51" s="19" t="e"/>
@@ -1744,82 +1748,78 @@
       <c r="F51" s="19" t="e"/>
       <c r="G51" s="19" t="e"/>
       <c r="H51" s="9" t="n">
-        <v>109</v>
-      </c>
-      <c r="I51" s="9" t="n">
-        <v>30</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I51" s="10" t="e"/>
       <c r="J51" s="10" t="e"/>
       <c r="K51" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L51" s="10" t="e"/>
+      <c r="M51" s="10" t="e"/>
+      <c r="N51" s="9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A52" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="19" t="e"/>
+      <c r="C52" s="19" t="e"/>
+      <c r="D52" s="19" t="e"/>
+      <c r="E52" s="19" t="e"/>
+      <c r="F52" s="19" t="e"/>
+      <c r="G52" s="19" t="e"/>
+      <c r="H52" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="L51" s="10" t="e"/>
-      <c r="M51" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="N51" s="9" t="n">
+      <c r="I52" s="10" t="e"/>
+      <c r="J52" s="10" t="e"/>
+      <c r="K52" s="9" t="n">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" ht="22" customHeight="true">
-      <c r="A52" s="16" t="s">
+      <c r="L52" s="10" t="e"/>
+      <c r="M52" s="10" t="e"/>
+      <c r="N52" s="9" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
+      <c r="A53" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="16" t="e"/>
-      <c r="C52" s="16" t="e"/>
-      <c r="D52" s="16" t="s">
+      <c r="B53" s="16" t="e"/>
+      <c r="C53" s="16" t="e"/>
+      <c r="D53" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="16" t="e"/>
-      <c r="F52" s="16" t="e"/>
-      <c r="G52" s="16" t="s">
+      <c r="E53" s="16" t="e"/>
+      <c r="F53" s="16" t="e"/>
+      <c r="G53" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="17" t="n">
-        <v>133</v>
-      </c>
-      <c r="I52" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" s="18" t="e"/>
-      <c r="K52" s="17" t="n">
-        <v>120</v>
-      </c>
-      <c r="L52" s="18" t="e"/>
-      <c r="M52" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="N52" s="17" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A53" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="19" t="e"/>
-      <c r="C53" s="19" t="e"/>
-      <c r="D53" s="19" t="e"/>
-      <c r="E53" s="19" t="e"/>
-      <c r="F53" s="19" t="e"/>
-      <c r="G53" s="19" t="e"/>
-      <c r="H53" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="I53" s="10" t="e"/>
-      <c r="J53" s="10" t="e"/>
-      <c r="K53" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="L53" s="10" t="e"/>
-      <c r="M53" s="10" t="e"/>
-      <c r="N53" s="9" t="n">
-        <v>42</v>
+      <c r="H53" s="17" t="n">
+        <v>169</v>
+      </c>
+      <c r="I53" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="18" t="e"/>
+      <c r="K53" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="L53" s="18" t="e"/>
+      <c r="M53" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="17" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1828,26 +1828,22 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I54" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I54" s="10" t="e"/>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L54" s="10" t="e"/>
-      <c r="M54" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M54" s="10" t="e"/>
       <c r="N54" s="9" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1856,22 +1852,22 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="L55" s="10" t="e"/>
       <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="A56" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B56" s="19" t="e"/>
       <c r="C56" s="19" t="e"/>
@@ -1880,22 +1876,22 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" s="10" t="e"/>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L56" s="10" t="e"/>
       <c r="M56" s="10" t="e"/>
       <c r="N56" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
       <c r="A57" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B57" s="19" t="e"/>
       <c r="C57" s="19" t="e"/>
@@ -1904,86 +1900,78 @@
       <c r="F57" s="19" t="e"/>
       <c r="G57" s="19" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I57" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I57" s="10" t="e"/>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="L57" s="10" t="e"/>
+      <c r="M57" s="10" t="e"/>
+      <c r="N57" s="9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A58" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="19" t="e"/>
+      <c r="C58" s="19" t="e"/>
+      <c r="D58" s="19" t="e"/>
+      <c r="E58" s="19" t="e"/>
+      <c r="F58" s="19" t="e"/>
+      <c r="G58" s="19" t="e"/>
+      <c r="H58" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="L57" s="10" t="e"/>
-      <c r="M57" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N57" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
-      <c r="A58" s="16" t="s">
+      <c r="I58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10" t="e"/>
+      <c r="K58" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L58" s="10" t="e"/>
+      <c r="M58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
+      <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="16" t="e"/>
-      <c r="C58" s="16" t="e"/>
-      <c r="D58" s="16" t="s">
+      <c r="B59" s="16" t="e"/>
+      <c r="C59" s="16" t="e"/>
+      <c r="D59" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="16" t="e"/>
-      <c r="F58" s="16" t="e"/>
-      <c r="G58" s="16" t="s">
+      <c r="E59" s="16" t="e"/>
+      <c r="F59" s="16" t="e"/>
+      <c r="G59" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="17" t="n">
-        <v>142</v>
-      </c>
-      <c r="I58" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" s="18" t="e"/>
-      <c r="K58" s="17" t="n">
-        <v>137</v>
-      </c>
-      <c r="L58" s="18" t="e"/>
-      <c r="M58" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" s="17" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A59" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="19" t="e"/>
-      <c r="C59" s="19" t="e"/>
-      <c r="D59" s="19" t="e"/>
-      <c r="E59" s="19" t="e"/>
-      <c r="F59" s="19" t="e"/>
-      <c r="G59" s="19" t="e"/>
-      <c r="H59" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I59" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" s="10" t="e"/>
-      <c r="K59" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="L59" s="10" t="e"/>
-      <c r="M59" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" s="9" t="n">
-        <v>28</v>
+      <c r="H59" s="17" t="n">
+        <v>187</v>
+      </c>
+      <c r="I59" s="18" t="e"/>
+      <c r="J59" s="18" t="e"/>
+      <c r="K59" s="17" t="n">
+        <v>187</v>
+      </c>
+      <c r="L59" s="18" t="e"/>
+      <c r="M59" s="18" t="e"/>
+      <c r="N59" s="17" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1992,22 +1980,22 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L60" s="10" t="e"/>
       <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -2016,78 +2004,78 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I61" s="10" t="e"/>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L61" s="10" t="e"/>
       <c r="M61" s="10" t="e"/>
       <c r="N61" s="9" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A62" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="19" t="e"/>
+      <c r="C62" s="19" t="e"/>
+      <c r="D62" s="19" t="e"/>
+      <c r="E62" s="19" t="e"/>
+      <c r="F62" s="19" t="e"/>
+      <c r="G62" s="19" t="e"/>
+      <c r="H62" s="9" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" ht="22" customHeight="true">
-      <c r="A62" s="16" t="s">
+      <c r="I62" s="10" t="e"/>
+      <c r="J62" s="10" t="e"/>
+      <c r="K62" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="L62" s="10" t="e"/>
+      <c r="M62" s="10" t="e"/>
+      <c r="N62" s="9" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true">
+      <c r="A63" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="16" t="e"/>
-      <c r="C62" s="16" t="e"/>
-      <c r="D62" s="16" t="s">
+      <c r="B63" s="16" t="e"/>
+      <c r="C63" s="16" t="e"/>
+      <c r="D63" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="16" t="e"/>
-      <c r="F62" s="16" t="e"/>
-      <c r="G62" s="16" t="s">
+      <c r="E63" s="16" t="e"/>
+      <c r="F63" s="16" t="e"/>
+      <c r="G63" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="17" t="n">
-        <v>125</v>
-      </c>
-      <c r="I62" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="J62" s="18" t="e"/>
-      <c r="K62" s="17" t="n">
-        <v>104</v>
-      </c>
-      <c r="L62" s="18" t="e"/>
-      <c r="M62" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="N62" s="17" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A63" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="19" t="e"/>
-      <c r="C63" s="19" t="e"/>
-      <c r="D63" s="19" t="e"/>
-      <c r="E63" s="19" t="e"/>
-      <c r="F63" s="19" t="e"/>
-      <c r="G63" s="19" t="e"/>
-      <c r="H63" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="I63" s="10" t="e"/>
-      <c r="J63" s="10" t="e"/>
-      <c r="K63" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="L63" s="10" t="e"/>
-      <c r="M63" s="10" t="e"/>
-      <c r="N63" s="9" t="n">
-        <v>16</v>
+      <c r="H63" s="17" t="n">
+        <v>144</v>
+      </c>
+      <c r="I63" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" s="18" t="e"/>
+      <c r="K63" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="L63" s="18" t="e"/>
+      <c r="M63" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" s="17" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="64" ht="11" customHeight="true" outlineLevel="1">
       <c r="A64" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B64" s="19" t="e"/>
       <c r="C64" s="19" t="e"/>
@@ -2096,26 +2084,22 @@
       <c r="F64" s="19" t="e"/>
       <c r="G64" s="19" t="e"/>
       <c r="H64" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="I64" s="9" t="n">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I64" s="10" t="e"/>
       <c r="J64" s="10" t="e"/>
       <c r="K64" s="9" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L64" s="10" t="e"/>
-      <c r="M64" s="9" t="n">
-        <v>18</v>
-      </c>
+      <c r="M64" s="10" t="e"/>
       <c r="N64" s="9" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2124,26 +2108,22 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="I65" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I65" s="10" t="e"/>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L65" s="10" t="e"/>
-      <c r="M65" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M65" s="10" t="e"/>
       <c r="N65" s="9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="11" customHeight="true" outlineLevel="1">
       <c r="A66" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B66" s="19" t="e"/>
       <c r="C66" s="19" t="e"/>
@@ -2152,58 +2132,46 @@
       <c r="F66" s="19" t="e"/>
       <c r="G66" s="19" t="e"/>
       <c r="H66" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I66" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I66" s="10" t="e"/>
       <c r="J66" s="10" t="e"/>
       <c r="K66" s="9" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="L66" s="10" t="e"/>
-      <c r="M66" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M66" s="10" t="e"/>
       <c r="N66" s="9" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true">
-      <c r="A67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="16" t="e"/>
-      <c r="C67" s="16" t="e"/>
-      <c r="D67" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="16" t="e"/>
-      <c r="F67" s="16" t="e"/>
-      <c r="G67" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" s="17" t="n">
-        <v>144</v>
-      </c>
-      <c r="I67" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" s="18" t="e"/>
-      <c r="K67" s="17" t="n">
-        <v>142</v>
-      </c>
-      <c r="L67" s="18" t="e"/>
-      <c r="M67" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N67" s="17" t="n">
-        <v>142</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A67" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="19" t="e"/>
+      <c r="C67" s="19" t="e"/>
+      <c r="D67" s="19" t="e"/>
+      <c r="E67" s="19" t="e"/>
+      <c r="F67" s="19" t="e"/>
+      <c r="G67" s="19" t="e"/>
+      <c r="H67" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I67" s="10" t="e"/>
+      <c r="J67" s="10" t="e"/>
+      <c r="K67" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L67" s="10" t="e"/>
+      <c r="M67" s="10" t="e"/>
+      <c r="N67" s="9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2212,50 +2180,54 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I68" s="10" t="e"/>
+        <v>26</v>
+      </c>
+      <c r="I68" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L68" s="10" t="e"/>
-      <c r="M68" s="10" t="e"/>
+      <c r="M68" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="N68" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A69" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="19" t="e"/>
-      <c r="C69" s="19" t="e"/>
-      <c r="D69" s="19" t="e"/>
-      <c r="E69" s="19" t="e"/>
-      <c r="F69" s="19" t="e"/>
-      <c r="G69" s="19" t="e"/>
-      <c r="H69" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="I69" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" s="10" t="e"/>
-      <c r="K69" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="L69" s="10" t="e"/>
-      <c r="M69" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N69" s="9" t="n">
-        <v>35</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true">
+      <c r="A69" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="16" t="e"/>
+      <c r="C69" s="16" t="e"/>
+      <c r="D69" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="16" t="e"/>
+      <c r="F69" s="16" t="e"/>
+      <c r="G69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="I69" s="18" t="e"/>
+      <c r="J69" s="18" t="e"/>
+      <c r="K69" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="L69" s="18" t="e"/>
+      <c r="M69" s="18" t="e"/>
+      <c r="N69" s="17" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2264,22 +2236,22 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L70" s="10" t="e"/>
       <c r="M70" s="10" t="e"/>
       <c r="N70" s="9" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
       <c r="A71" s="19" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B71" s="19" t="e"/>
       <c r="C71" s="19" t="e"/>
@@ -2288,22 +2260,22 @@
       <c r="F71" s="19" t="e"/>
       <c r="G71" s="19" t="e"/>
       <c r="H71" s="9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I71" s="10" t="e"/>
       <c r="J71" s="10" t="e"/>
       <c r="K71" s="9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L71" s="10" t="e"/>
       <c r="M71" s="10" t="e"/>
       <c r="N71" s="9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="1">
       <c r="A72" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B72" s="19" t="e"/>
       <c r="C72" s="19" t="e"/>
@@ -2312,50 +2284,46 @@
       <c r="F72" s="19" t="e"/>
       <c r="G72" s="19" t="e"/>
       <c r="H72" s="9" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I72" s="10" t="e"/>
       <c r="J72" s="10" t="e"/>
       <c r="K72" s="9" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L72" s="10" t="e"/>
       <c r="M72" s="10" t="e"/>
       <c r="N72" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A73" s="19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" ht="11" customHeight="true">
-      <c r="A73" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="16" t="e"/>
-      <c r="C73" s="16" t="e"/>
-      <c r="D73" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E73" s="16" t="e"/>
-      <c r="F73" s="16" t="e"/>
-      <c r="G73" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="I73" s="18" t="e"/>
-      <c r="J73" s="18" t="e"/>
-      <c r="K73" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="L73" s="18" t="e"/>
-      <c r="M73" s="18" t="e"/>
-      <c r="N73" s="17" t="n">
-        <v>55</v>
+      <c r="B73" s="19" t="e"/>
+      <c r="C73" s="19" t="e"/>
+      <c r="D73" s="19" t="e"/>
+      <c r="E73" s="19" t="e"/>
+      <c r="F73" s="19" t="e"/>
+      <c r="G73" s="19" t="e"/>
+      <c r="H73" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I73" s="10" t="e"/>
+      <c r="J73" s="10" t="e"/>
+      <c r="K73" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L73" s="10" t="e"/>
+      <c r="M73" s="10" t="e"/>
+      <c r="N73" s="9" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="A74" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B74" s="19" t="e"/>
       <c r="C74" s="19" t="e"/>
@@ -2364,74 +2332,74 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I74" s="10" t="e"/>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="L74" s="10" t="e"/>
       <c r="M74" s="10" t="e"/>
       <c r="N74" s="9" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="16" t="e"/>
+      <c r="C75" s="16" t="e"/>
+      <c r="D75" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="16" t="e"/>
+      <c r="F75" s="16" t="e"/>
+      <c r="G75" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="I75" s="18" t="e"/>
+      <c r="J75" s="18" t="e"/>
+      <c r="K75" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="L75" s="18" t="e"/>
+      <c r="M75" s="18" t="e"/>
+      <c r="N75" s="17" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A76" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="19" t="e"/>
+      <c r="C76" s="19" t="e"/>
+      <c r="D76" s="19" t="e"/>
+      <c r="E76" s="19" t="e"/>
+      <c r="F76" s="19" t="e"/>
+      <c r="G76" s="19" t="e"/>
+      <c r="H76" s="9" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A75" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="19" t="e"/>
-      <c r="C75" s="19" t="e"/>
-      <c r="D75" s="19" t="e"/>
-      <c r="E75" s="19" t="e"/>
-      <c r="F75" s="19" t="e"/>
-      <c r="G75" s="19" t="e"/>
-      <c r="H75" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="I75" s="10" t="e"/>
-      <c r="J75" s="10" t="e"/>
-      <c r="K75" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="L75" s="10" t="e"/>
-      <c r="M75" s="10" t="e"/>
-      <c r="N75" s="9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" ht="22" customHeight="true">
-      <c r="A76" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="16" t="e"/>
-      <c r="C76" s="16" t="e"/>
-      <c r="D76" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" s="16" t="e"/>
-      <c r="F76" s="16" t="e"/>
-      <c r="G76" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" s="18" t="e"/>
-      <c r="J76" s="18" t="e"/>
-      <c r="K76" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L76" s="18" t="e"/>
-      <c r="M76" s="18" t="e"/>
-      <c r="N76" s="17" t="n">
-        <v>2</v>
+      <c r="I76" s="10" t="e"/>
+      <c r="J76" s="10" t="e"/>
+      <c r="K76" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L76" s="10" t="e"/>
+      <c r="M76" s="10" t="e"/>
+      <c r="N76" s="9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2440,78 +2408,74 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I77" s="10" t="e"/>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="10" t="e"/>
       <c r="N77" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A78" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="19" t="e"/>
-      <c r="C78" s="19" t="e"/>
-      <c r="D78" s="19" t="e"/>
-      <c r="E78" s="19" t="e"/>
-      <c r="F78" s="19" t="e"/>
-      <c r="G78" s="19" t="e"/>
-      <c r="H78" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" s="10" t="e"/>
-      <c r="J78" s="10" t="e"/>
-      <c r="K78" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="10" t="e"/>
-      <c r="M78" s="10" t="e"/>
-      <c r="N78" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" ht="11" customHeight="true">
-      <c r="A79" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="16" t="e"/>
-      <c r="C79" s="16" t="e"/>
-      <c r="D79" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="16" t="e"/>
-      <c r="F79" s="16" t="e"/>
-      <c r="G79" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" ht="22" customHeight="true">
+      <c r="A78" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="16" t="e"/>
+      <c r="C78" s="16" t="e"/>
+      <c r="D78" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="16" t="e"/>
+      <c r="F78" s="16" t="e"/>
+      <c r="G78" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="17" t="n">
-        <v>174</v>
-      </c>
-      <c r="I79" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" s="18" t="e"/>
-      <c r="K79" s="17" t="n">
-        <v>169</v>
-      </c>
-      <c r="L79" s="18" t="e"/>
-      <c r="M79" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N79" s="17" t="n">
-        <v>169</v>
+      <c r="H78" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" s="18" t="e"/>
+      <c r="J78" s="18" t="e"/>
+      <c r="K78" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" s="18" t="e"/>
+      <c r="M78" s="18" t="e"/>
+      <c r="N78" s="17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A79" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="19" t="e"/>
+      <c r="C79" s="19" t="e"/>
+      <c r="D79" s="19" t="e"/>
+      <c r="E79" s="19" t="e"/>
+      <c r="F79" s="19" t="e"/>
+      <c r="G79" s="19" t="e"/>
+      <c r="H79" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" s="10" t="e"/>
+      <c r="J79" s="10" t="e"/>
+      <c r="K79" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="10" t="e"/>
+      <c r="M79" s="10" t="e"/>
+      <c r="N79" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="A80" s="19" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B80" s="19" t="e"/>
       <c r="C80" s="19" t="e"/>
@@ -2520,54 +2484,50 @@
       <c r="F80" s="19" t="e"/>
       <c r="G80" s="19" t="e"/>
       <c r="H80" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I80" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" s="10" t="e"/>
       <c r="J80" s="10" t="e"/>
       <c r="K80" s="9" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="L80" s="10" t="e"/>
-      <c r="M80" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M80" s="10" t="e"/>
       <c r="N80" s="9" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A81" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="19" t="e"/>
-      <c r="C81" s="19" t="e"/>
-      <c r="D81" s="19" t="e"/>
-      <c r="E81" s="19" t="e"/>
-      <c r="F81" s="19" t="e"/>
-      <c r="G81" s="19" t="e"/>
-      <c r="H81" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="I81" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" s="10" t="e"/>
-      <c r="K81" s="9" t="n">
-        <v>56</v>
-      </c>
-      <c r="L81" s="10" t="e"/>
-      <c r="M81" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N81" s="9" t="n">
-        <v>56</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" ht="11" customHeight="true">
+      <c r="A81" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="16" t="e"/>
+      <c r="C81" s="16" t="e"/>
+      <c r="D81" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="16" t="e"/>
+      <c r="F81" s="16" t="e"/>
+      <c r="G81" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="17" t="n">
+        <v>164</v>
+      </c>
+      <c r="I81" s="18" t="e"/>
+      <c r="J81" s="18" t="e"/>
+      <c r="K81" s="17" t="n">
+        <v>164</v>
+      </c>
+      <c r="L81" s="18" t="e"/>
+      <c r="M81" s="18" t="e"/>
+      <c r="N81" s="17" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="A82" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B82" s="19" t="e"/>
       <c r="C82" s="19" t="e"/>
@@ -2576,22 +2536,22 @@
       <c r="F82" s="19" t="e"/>
       <c r="G82" s="19" t="e"/>
       <c r="H82" s="9" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I82" s="10" t="e"/>
       <c r="J82" s="10" t="e"/>
       <c r="K82" s="9" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L82" s="10" t="e"/>
       <c r="M82" s="10" t="e"/>
       <c r="N82" s="9" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2600,22 +2560,22 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L83" s="10" t="e"/>
       <c r="M83" s="10" t="e"/>
       <c r="N83" s="9" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B84" s="19" t="e"/>
       <c r="C84" s="19" t="e"/>
@@ -2624,58 +2584,46 @@
       <c r="F84" s="19" t="e"/>
       <c r="G84" s="19" t="e"/>
       <c r="H84" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I84" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I84" s="10" t="e"/>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L84" s="10" t="e"/>
-      <c r="M84" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M84" s="10" t="e"/>
       <c r="N84" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true">
-      <c r="A85" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="16" t="e"/>
-      <c r="C85" s="16" t="e"/>
-      <c r="D85" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E85" s="16" t="e"/>
-      <c r="F85" s="16" t="e"/>
-      <c r="G85" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H85" s="17" t="n">
-        <v>196</v>
-      </c>
-      <c r="I85" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" s="18" t="e"/>
-      <c r="K85" s="17" t="n">
-        <v>188</v>
-      </c>
-      <c r="L85" s="18" t="e"/>
-      <c r="M85" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N85" s="17" t="n">
-        <v>188</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A85" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="19" t="e"/>
+      <c r="C85" s="19" t="e"/>
+      <c r="D85" s="19" t="e"/>
+      <c r="E85" s="19" t="e"/>
+      <c r="F85" s="19" t="e"/>
+      <c r="G85" s="19" t="e"/>
+      <c r="H85" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I85" s="10" t="e"/>
+      <c r="J85" s="10" t="e"/>
+      <c r="K85" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L85" s="10" t="e"/>
+      <c r="M85" s="10" t="e"/>
+      <c r="N85" s="9" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B86" s="19" t="e"/>
       <c r="C86" s="19" t="e"/>
@@ -2684,54 +2632,50 @@
       <c r="F86" s="19" t="e"/>
       <c r="G86" s="19" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="I86" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I86" s="10" t="e"/>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L86" s="10" t="e"/>
-      <c r="M86" s="9" t="n">
-        <v>7</v>
-      </c>
+      <c r="M86" s="10" t="e"/>
       <c r="N86" s="9" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A87" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" s="19" t="e"/>
-      <c r="C87" s="19" t="e"/>
-      <c r="D87" s="19" t="e"/>
-      <c r="E87" s="19" t="e"/>
-      <c r="F87" s="19" t="e"/>
-      <c r="G87" s="19" t="e"/>
-      <c r="H87" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="I87" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" s="10" t="e"/>
-      <c r="K87" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="L87" s="10" t="e"/>
-      <c r="M87" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" s="9" t="n">
-        <v>53</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true">
+      <c r="A87" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="16" t="e"/>
+      <c r="C87" s="16" t="e"/>
+      <c r="D87" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="16" t="e"/>
+      <c r="F87" s="16" t="e"/>
+      <c r="G87" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="17" t="n">
+        <v>184</v>
+      </c>
+      <c r="I87" s="18" t="e"/>
+      <c r="J87" s="18" t="e"/>
+      <c r="K87" s="17" t="n">
+        <v>184</v>
+      </c>
+      <c r="L87" s="18" t="e"/>
+      <c r="M87" s="18" t="e"/>
+      <c r="N87" s="17" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2740,22 +2684,22 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="L88" s="10" t="e"/>
       <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="19" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B89" s="19" t="e"/>
       <c r="C89" s="19" t="e"/>
@@ -2764,22 +2708,22 @@
       <c r="F89" s="19" t="e"/>
       <c r="G89" s="19" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I89" s="10" t="e"/>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L89" s="10" t="e"/>
       <c r="M89" s="10" t="e"/>
       <c r="N89" s="9" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="A90" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B90" s="19" t="e"/>
       <c r="C90" s="19" t="e"/>
@@ -2788,54 +2732,46 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true">
-      <c r="A91" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B91" s="16" t="e"/>
-      <c r="C91" s="16" t="e"/>
-      <c r="D91" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E91" s="16" t="e"/>
-      <c r="F91" s="16" t="e"/>
-      <c r="G91" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" s="17" t="n">
-        <v>225</v>
-      </c>
-      <c r="I91" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="J91" s="18" t="e"/>
-      <c r="K91" s="17" t="n">
-        <v>211</v>
-      </c>
-      <c r="L91" s="18" t="e"/>
-      <c r="M91" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="N91" s="17" t="n">
-        <v>211</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A91" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="19" t="e"/>
+      <c r="C91" s="19" t="e"/>
+      <c r="D91" s="19" t="e"/>
+      <c r="E91" s="19" t="e"/>
+      <c r="F91" s="19" t="e"/>
+      <c r="G91" s="19" t="e"/>
+      <c r="H91" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I91" s="10" t="e"/>
+      <c r="J91" s="10" t="e"/>
+      <c r="K91" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L91" s="10" t="e"/>
+      <c r="M91" s="10" t="e"/>
+      <c r="N91" s="9" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="A92" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B92" s="19" t="e"/>
       <c r="C92" s="19" t="e"/>
@@ -2844,54 +2780,54 @@
       <c r="F92" s="19" t="e"/>
       <c r="G92" s="19" t="e"/>
       <c r="H92" s="9" t="n">
-        <v>77</v>
-      </c>
-      <c r="I92" s="9" t="n">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I92" s="10" t="e"/>
       <c r="J92" s="10" t="e"/>
       <c r="K92" s="9" t="n">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="L92" s="10" t="e"/>
-      <c r="M92" s="9" t="n">
-        <v>9</v>
-      </c>
+      <c r="M92" s="10" t="e"/>
       <c r="N92" s="9" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A93" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B93" s="19" t="e"/>
-      <c r="C93" s="19" t="e"/>
-      <c r="D93" s="19" t="e"/>
-      <c r="E93" s="19" t="e"/>
-      <c r="F93" s="19" t="e"/>
-      <c r="G93" s="19" t="e"/>
-      <c r="H93" s="9" t="n">
-        <v>75</v>
-      </c>
-      <c r="I93" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" s="10" t="e"/>
-      <c r="K93" s="9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" ht="22" customHeight="true">
+      <c r="A93" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L93" s="10" t="e"/>
-      <c r="M93" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N93" s="9" t="n">
-        <v>72</v>
+      <c r="B93" s="16" t="e"/>
+      <c r="C93" s="16" t="e"/>
+      <c r="D93" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="16" t="e"/>
+      <c r="F93" s="16" t="e"/>
+      <c r="G93" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="17" t="n">
+        <v>286</v>
+      </c>
+      <c r="I93" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" s="18" t="e"/>
+      <c r="K93" s="17" t="n">
+        <v>284</v>
+      </c>
+      <c r="L93" s="18" t="e"/>
+      <c r="M93" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" s="17" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2900,22 +2836,22 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I94" s="10" t="e"/>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="L94" s="10" t="e"/>
       <c r="M94" s="10" t="e"/>
       <c r="N94" s="9" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2924,22 +2860,22 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I95" s="10" t="e"/>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="L95" s="10" t="e"/>
       <c r="M95" s="10" t="e"/>
       <c r="N95" s="9" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="A96" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B96" s="19" t="e"/>
       <c r="C96" s="19" t="e"/>
@@ -2948,58 +2884,46 @@
       <c r="F96" s="19" t="e"/>
       <c r="G96" s="19" t="e"/>
       <c r="H96" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I96" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I96" s="10" t="e"/>
       <c r="J96" s="10" t="e"/>
       <c r="K96" s="9" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L96" s="10" t="e"/>
-      <c r="M96" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M96" s="10" t="e"/>
       <c r="N96" s="9" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true">
-      <c r="A97" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B97" s="16" t="e"/>
-      <c r="C97" s="16" t="e"/>
-      <c r="D97" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E97" s="16" t="e"/>
-      <c r="F97" s="16" t="e"/>
-      <c r="G97" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97" s="17" t="n">
-        <v>175</v>
-      </c>
-      <c r="I97" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" s="18" t="e"/>
-      <c r="K97" s="17" t="n">
-        <v>171</v>
-      </c>
-      <c r="L97" s="18" t="e"/>
-      <c r="M97" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N97" s="17" t="n">
-        <v>171</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A97" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="19" t="e"/>
+      <c r="C97" s="19" t="e"/>
+      <c r="D97" s="19" t="e"/>
+      <c r="E97" s="19" t="e"/>
+      <c r="F97" s="19" t="e"/>
+      <c r="G97" s="19" t="e"/>
+      <c r="H97" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I97" s="10" t="e"/>
+      <c r="J97" s="10" t="e"/>
+      <c r="K97" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L97" s="10" t="e"/>
+      <c r="M97" s="10" t="e"/>
+      <c r="N97" s="9" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B98" s="19" t="e"/>
       <c r="C98" s="19" t="e"/>
@@ -3008,50 +2932,54 @@
       <c r="F98" s="19" t="e"/>
       <c r="G98" s="19" t="e"/>
       <c r="H98" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="I98" s="10" t="e"/>
+        <v>24</v>
+      </c>
+      <c r="I98" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J98" s="10" t="e"/>
       <c r="K98" s="9" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="L98" s="10" t="e"/>
-      <c r="M98" s="10" t="e"/>
+      <c r="M98" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N98" s="9" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A99" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" s="19" t="e"/>
-      <c r="C99" s="19" t="e"/>
-      <c r="D99" s="19" t="e"/>
-      <c r="E99" s="19" t="e"/>
-      <c r="F99" s="19" t="e"/>
-      <c r="G99" s="19" t="e"/>
-      <c r="H99" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I99" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" s="10" t="e"/>
-      <c r="K99" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L99" s="10" t="e"/>
-      <c r="M99" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N99" s="9" t="n">
-        <v>30</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" ht="11" customHeight="true">
+      <c r="A99" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="16" t="e"/>
+      <c r="C99" s="16" t="e"/>
+      <c r="D99" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" s="16" t="e"/>
+      <c r="F99" s="16" t="e"/>
+      <c r="G99" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="17" t="n">
+        <v>161</v>
+      </c>
+      <c r="I99" s="18" t="e"/>
+      <c r="J99" s="18" t="e"/>
+      <c r="K99" s="17" t="n">
+        <v>161</v>
+      </c>
+      <c r="L99" s="18" t="e"/>
+      <c r="M99" s="18" t="e"/>
+      <c r="N99" s="17" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="A100" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B100" s="19" t="e"/>
       <c r="C100" s="19" t="e"/>
@@ -3060,22 +2988,22 @@
       <c r="F100" s="19" t="e"/>
       <c r="G100" s="19" t="e"/>
       <c r="H100" s="9" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I100" s="10" t="e"/>
       <c r="J100" s="10" t="e"/>
       <c r="K100" s="9" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L100" s="10" t="e"/>
       <c r="M100" s="10" t="e"/>
       <c r="N100" s="9" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3084,22 +3012,22 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I101" s="10" t="e"/>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L101" s="10" t="e"/>
       <c r="M101" s="10" t="e"/>
       <c r="N101" s="9" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B102" s="19" t="e"/>
       <c r="C102" s="19" t="e"/>
@@ -3108,54 +3036,46 @@
       <c r="F102" s="19" t="e"/>
       <c r="G102" s="19" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I102" s="10" t="e"/>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L102" s="10" t="e"/>
       <c r="M102" s="10" t="e"/>
       <c r="N102" s="9" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true">
-      <c r="A103" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B103" s="16" t="e"/>
-      <c r="C103" s="16" t="e"/>
-      <c r="D103" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E103" s="16" t="e"/>
-      <c r="F103" s="16" t="e"/>
-      <c r="G103" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" s="17" t="n">
-        <v>144</v>
-      </c>
-      <c r="I103" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="J103" s="18" t="e"/>
-      <c r="K103" s="17" t="n">
-        <v>118</v>
-      </c>
-      <c r="L103" s="18" t="e"/>
-      <c r="M103" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="N103" s="17" t="n">
-        <v>118</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A103" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="19" t="e"/>
+      <c r="C103" s="19" t="e"/>
+      <c r="D103" s="19" t="e"/>
+      <c r="E103" s="19" t="e"/>
+      <c r="F103" s="19" t="e"/>
+      <c r="G103" s="19" t="e"/>
+      <c r="H103" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I103" s="10" t="e"/>
+      <c r="J103" s="10" t="e"/>
+      <c r="K103" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L103" s="10" t="e"/>
+      <c r="M103" s="10" t="e"/>
+      <c r="N103" s="9" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="A104" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B104" s="19" t="e"/>
       <c r="C104" s="19" t="e"/>
@@ -3164,54 +3084,50 @@
       <c r="F104" s="19" t="e"/>
       <c r="G104" s="19" t="e"/>
       <c r="H104" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="I104" s="9" t="n">
-        <v>12</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I104" s="10" t="e"/>
       <c r="J104" s="10" t="e"/>
       <c r="K104" s="9" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L104" s="10" t="e"/>
-      <c r="M104" s="9" t="n">
-        <v>12</v>
-      </c>
+      <c r="M104" s="10" t="e"/>
       <c r="N104" s="9" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A105" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B105" s="19" t="e"/>
-      <c r="C105" s="19" t="e"/>
-      <c r="D105" s="19" t="e"/>
-      <c r="E105" s="19" t="e"/>
-      <c r="F105" s="19" t="e"/>
-      <c r="G105" s="19" t="e"/>
-      <c r="H105" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I105" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="J105" s="10" t="e"/>
-      <c r="K105" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L105" s="10" t="e"/>
-      <c r="M105" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="N105" s="9" t="n">
-        <v>25</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" ht="11" customHeight="true">
+      <c r="A105" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="16" t="e"/>
+      <c r="C105" s="16" t="e"/>
+      <c r="D105" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" s="16" t="e"/>
+      <c r="F105" s="16" t="e"/>
+      <c r="G105" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="17" t="n">
+        <v>299</v>
+      </c>
+      <c r="I105" s="18" t="e"/>
+      <c r="J105" s="18" t="e"/>
+      <c r="K105" s="17" t="n">
+        <v>299</v>
+      </c>
+      <c r="L105" s="18" t="e"/>
+      <c r="M105" s="18" t="e"/>
+      <c r="N105" s="17" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B106" s="19" t="e"/>
       <c r="C106" s="19" t="e"/>
@@ -3220,22 +3136,22 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I106" s="10" t="e"/>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="L106" s="10" t="e"/>
       <c r="M106" s="10" t="e"/>
       <c r="N106" s="9" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3244,54 +3160,46 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I107" s="10" t="e"/>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L107" s="10" t="e"/>
       <c r="M107" s="10" t="e"/>
       <c r="N107" s="9" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" ht="11" customHeight="true">
-      <c r="A108" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="16" t="e"/>
-      <c r="C108" s="16" t="e"/>
-      <c r="D108" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E108" s="16" t="e"/>
-      <c r="F108" s="16" t="e"/>
-      <c r="G108" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="17" t="n">
-        <v>138</v>
-      </c>
-      <c r="I108" s="17" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A108" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J108" s="18" t="e"/>
-      <c r="K108" s="17" t="n">
-        <v>104</v>
-      </c>
-      <c r="L108" s="18" t="e"/>
-      <c r="M108" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="N108" s="17" t="n">
-        <v>104</v>
+      <c r="B108" s="19" t="e"/>
+      <c r="C108" s="19" t="e"/>
+      <c r="D108" s="19" t="e"/>
+      <c r="E108" s="19" t="e"/>
+      <c r="F108" s="19" t="e"/>
+      <c r="G108" s="19" t="e"/>
+      <c r="H108" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I108" s="10" t="e"/>
+      <c r="J108" s="10" t="e"/>
+      <c r="K108" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L108" s="10" t="e"/>
+      <c r="M108" s="10" t="e"/>
+      <c r="N108" s="9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="A109" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B109" s="19" t="e"/>
       <c r="C109" s="19" t="e"/>
@@ -3300,26 +3208,22 @@
       <c r="F109" s="19" t="e"/>
       <c r="G109" s="19" t="e"/>
       <c r="H109" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I109" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I109" s="10" t="e"/>
       <c r="J109" s="10" t="e"/>
       <c r="K109" s="9" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="L109" s="10" t="e"/>
-      <c r="M109" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="M109" s="10" t="e"/>
       <c r="N109" s="9" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3328,50 +3232,54 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>62</v>
-      </c>
-      <c r="I110" s="9" t="n">
-        <v>21</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I110" s="10" t="e"/>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L110" s="10" t="e"/>
-      <c r="M110" s="9" t="n">
-        <v>21</v>
-      </c>
+      <c r="M110" s="10" t="e"/>
       <c r="N110" s="9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A111" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="19" t="e"/>
-      <c r="C111" s="19" t="e"/>
-      <c r="D111" s="19" t="e"/>
-      <c r="E111" s="19" t="e"/>
-      <c r="F111" s="19" t="e"/>
-      <c r="G111" s="19" t="e"/>
-      <c r="H111" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I111" s="10" t="e"/>
-      <c r="J111" s="10" t="e"/>
-      <c r="K111" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L111" s="10" t="e"/>
-      <c r="M111" s="10" t="e"/>
-      <c r="N111" s="9" t="n">
-        <v>9</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true">
+      <c r="A111" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="16" t="e"/>
+      <c r="C111" s="16" t="e"/>
+      <c r="D111" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" s="16" t="e"/>
+      <c r="F111" s="16" t="e"/>
+      <c r="G111" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="17" t="n">
+        <v>280</v>
+      </c>
+      <c r="I111" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" s="18" t="e"/>
+      <c r="K111" s="17" t="n">
+        <v>278</v>
+      </c>
+      <c r="L111" s="18" t="e"/>
+      <c r="M111" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" s="17" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3380,58 +3288,46 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I112" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I112" s="10" t="e"/>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L112" s="10" t="e"/>
-      <c r="M112" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M112" s="10" t="e"/>
       <c r="N112" s="9" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true">
-      <c r="A113" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B113" s="16" t="e"/>
-      <c r="C113" s="16" t="e"/>
-      <c r="D113" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E113" s="16" t="e"/>
-      <c r="F113" s="16" t="e"/>
-      <c r="G113" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H113" s="17" t="n">
-        <v>121</v>
-      </c>
-      <c r="I113" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="J113" s="18" t="e"/>
-      <c r="K113" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L113" s="18" t="e"/>
-      <c r="M113" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="N113" s="17" t="n">
-        <v>100</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A113" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="19" t="e"/>
+      <c r="C113" s="19" t="e"/>
+      <c r="D113" s="19" t="e"/>
+      <c r="E113" s="19" t="e"/>
+      <c r="F113" s="19" t="e"/>
+      <c r="G113" s="19" t="e"/>
+      <c r="H113" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="I113" s="10" t="e"/>
+      <c r="J113" s="10" t="e"/>
+      <c r="K113" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="L113" s="10" t="e"/>
+      <c r="M113" s="10" t="e"/>
+      <c r="N113" s="9" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3440,26 +3336,22 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I114" s="9" t="n">
-        <v>19</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I114" s="10" t="e"/>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="L114" s="10" t="e"/>
-      <c r="M114" s="9" t="n">
-        <v>19</v>
-      </c>
+      <c r="M114" s="10" t="e"/>
       <c r="N114" s="9" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="A115" s="19" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B115" s="19" t="e"/>
       <c r="C115" s="19" t="e"/>
@@ -3468,26 +3360,22 @@
       <c r="F115" s="19" t="e"/>
       <c r="G115" s="19" t="e"/>
       <c r="H115" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="I115" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I115" s="10" t="e"/>
       <c r="J115" s="10" t="e"/>
       <c r="K115" s="9" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L115" s="10" t="e"/>
-      <c r="M115" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M115" s="10" t="e"/>
       <c r="N115" s="9" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3496,46 +3384,54 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I116" s="10" t="e"/>
+        <v>27</v>
+      </c>
+      <c r="I116" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L116" s="10" t="e"/>
-      <c r="M116" s="10" t="e"/>
+      <c r="M116" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N116" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A117" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117" s="19" t="e"/>
-      <c r="C117" s="19" t="e"/>
-      <c r="D117" s="19" t="e"/>
-      <c r="E117" s="19" t="e"/>
-      <c r="F117" s="19" t="e"/>
-      <c r="G117" s="19" t="e"/>
-      <c r="H117" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I117" s="10" t="e"/>
-      <c r="J117" s="10" t="e"/>
-      <c r="K117" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L117" s="10" t="e"/>
-      <c r="M117" s="10" t="e"/>
-      <c r="N117" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true">
+      <c r="A117" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117" s="16" t="e"/>
+      <c r="C117" s="16" t="e"/>
+      <c r="D117" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" s="16" t="e"/>
+      <c r="F117" s="16" t="e"/>
+      <c r="G117" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="I117" s="18" t="e"/>
+      <c r="J117" s="18" t="e"/>
+      <c r="K117" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="L117" s="18" t="e"/>
+      <c r="M117" s="18" t="e"/>
+      <c r="N117" s="17" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="A118" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B118" s="19" t="e"/>
       <c r="C118" s="19" t="e"/>
@@ -3544,50 +3440,46 @@
       <c r="F118" s="19" t="e"/>
       <c r="G118" s="19" t="e"/>
       <c r="H118" s="9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I118" s="10" t="e"/>
       <c r="J118" s="10" t="e"/>
       <c r="K118" s="9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L118" s="10" t="e"/>
       <c r="M118" s="10" t="e"/>
       <c r="N118" s="9" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true">
-      <c r="A119" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B119" s="16" t="e"/>
-      <c r="C119" s="16" t="e"/>
-      <c r="D119" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E119" s="16" t="e"/>
-      <c r="F119" s="16" t="e"/>
-      <c r="G119" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="I119" s="18" t="e"/>
-      <c r="J119" s="18" t="e"/>
-      <c r="K119" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="L119" s="18" t="e"/>
-      <c r="M119" s="18" t="e"/>
-      <c r="N119" s="17" t="n">
-        <v>12</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A119" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" s="19" t="e"/>
+      <c r="C119" s="19" t="e"/>
+      <c r="D119" s="19" t="e"/>
+      <c r="E119" s="19" t="e"/>
+      <c r="F119" s="19" t="e"/>
+      <c r="G119" s="19" t="e"/>
+      <c r="H119" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="I119" s="10" t="e"/>
+      <c r="J119" s="10" t="e"/>
+      <c r="K119" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="L119" s="10" t="e"/>
+      <c r="M119" s="10" t="e"/>
+      <c r="N119" s="9" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3596,22 +3488,22 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I120" s="10" t="e"/>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L120" s="10" t="e"/>
       <c r="M120" s="10" t="e"/>
       <c r="N120" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3620,27 +3512,27 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I121" s="10" t="e"/>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L121" s="10" t="e"/>
       <c r="M121" s="10" t="e"/>
       <c r="N121" s="9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true">
       <c r="A122" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B122" s="16" t="e"/>
       <c r="C122" s="16" t="e"/>
       <c r="D122" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E122" s="16" t="e"/>
       <c r="F122" s="16" t="e"/>
@@ -3648,21 +3540,17 @@
         <v>24</v>
       </c>
       <c r="H122" s="17" t="n">
-        <v>292</v>
-      </c>
-      <c r="I122" s="17" t="n">
-        <v>78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I122" s="18" t="e"/>
       <c r="J122" s="18" t="e"/>
       <c r="K122" s="17" t="n">
-        <v>214</v>
+        <v>2</v>
       </c>
       <c r="L122" s="18" t="e"/>
-      <c r="M122" s="17" t="n">
-        <v>78</v>
-      </c>
+      <c r="M122" s="18" t="e"/>
       <c r="N122" s="17" t="n">
-        <v>214</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
@@ -3676,21 +3564,17 @@
       <c r="F123" s="19" t="e"/>
       <c r="G123" s="19" t="e"/>
       <c r="H123" s="9" t="n">
-        <v>113</v>
-      </c>
-      <c r="I123" s="9" t="n">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" s="10" t="e"/>
       <c r="J123" s="10" t="e"/>
       <c r="K123" s="9" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="L123" s="10" t="e"/>
-      <c r="M123" s="9" t="n">
-        <v>30</v>
-      </c>
+      <c r="M123" s="10" t="e"/>
       <c r="N123" s="9" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
@@ -3704,54 +3588,54 @@
       <c r="F124" s="19" t="e"/>
       <c r="G124" s="19" t="e"/>
       <c r="H124" s="9" t="n">
-        <v>104</v>
-      </c>
-      <c r="I124" s="9" t="n">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" s="10" t="e"/>
       <c r="J124" s="10" t="e"/>
       <c r="K124" s="9" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="L124" s="10" t="e"/>
-      <c r="M124" s="9" t="n">
-        <v>17</v>
-      </c>
+      <c r="M124" s="10" t="e"/>
       <c r="N124" s="9" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A125" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" s="19" t="e"/>
-      <c r="C125" s="19" t="e"/>
-      <c r="D125" s="19" t="e"/>
-      <c r="E125" s="19" t="e"/>
-      <c r="F125" s="19" t="e"/>
-      <c r="G125" s="19" t="e"/>
-      <c r="H125" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true">
+      <c r="A125" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="16" t="e"/>
+      <c r="C125" s="16" t="e"/>
+      <c r="D125" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E125" s="16" t="e"/>
+      <c r="F125" s="16" t="e"/>
+      <c r="G125" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I125" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J125" s="10" t="e"/>
-      <c r="K125" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L125" s="10" t="e"/>
-      <c r="M125" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N125" s="9" t="n">
-        <v>4</v>
+      <c r="H125" s="17" t="n">
+        <v>371</v>
+      </c>
+      <c r="I125" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J125" s="18" t="e"/>
+      <c r="K125" s="17" t="n">
+        <v>366</v>
+      </c>
+      <c r="L125" s="18" t="e"/>
+      <c r="M125" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N125" s="17" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3760,22 +3644,22 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="I126" s="10" t="e"/>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="L126" s="10" t="e"/>
       <c r="M126" s="10" t="e"/>
       <c r="N126" s="9" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="A127" s="19" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B127" s="19" t="e"/>
       <c r="C127" s="19" t="e"/>
@@ -3784,54 +3668,50 @@
       <c r="F127" s="19" t="e"/>
       <c r="G127" s="19" t="e"/>
       <c r="H127" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="I127" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="I127" s="10" t="e"/>
       <c r="J127" s="10" t="e"/>
       <c r="K127" s="9" t="n">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="L127" s="10" t="e"/>
-      <c r="M127" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M127" s="10" t="e"/>
       <c r="N127" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true">
-      <c r="A128" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B128" s="16" t="e"/>
-      <c r="C128" s="16" t="e"/>
-      <c r="D128" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E128" s="16" t="e"/>
-      <c r="F128" s="16" t="e"/>
-      <c r="G128" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A128" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="19" t="e"/>
+      <c r="C128" s="19" t="e"/>
+      <c r="D128" s="19" t="e"/>
+      <c r="E128" s="19" t="e"/>
+      <c r="F128" s="19" t="e"/>
+      <c r="G128" s="19" t="e"/>
+      <c r="H128" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="H128" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" s="18" t="e"/>
-      <c r="J128" s="18" t="e"/>
-      <c r="K128" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L128" s="18" t="e"/>
-      <c r="M128" s="18" t="e"/>
-      <c r="N128" s="17" t="n">
-        <v>1</v>
+      <c r="I128" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J128" s="10" t="e"/>
+      <c r="K128" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L128" s="10" t="e"/>
+      <c r="M128" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N128" s="9" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="A129" s="19" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B129" s="19" t="e"/>
       <c r="C129" s="19" t="e"/>
@@ -3840,77 +3720,69 @@
       <c r="F129" s="19" t="e"/>
       <c r="G129" s="19" t="e"/>
       <c r="H129" s="9" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I129" s="10" t="e"/>
       <c r="J129" s="10" t="e"/>
       <c r="K129" s="9" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="L129" s="10" t="e"/>
       <c r="M129" s="10" t="e"/>
       <c r="N129" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true">
-      <c r="A130" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B130" s="16" t="e"/>
-      <c r="C130" s="16" t="e"/>
-      <c r="D130" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E130" s="16" t="e"/>
-      <c r="F130" s="16" t="e"/>
-      <c r="G130" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A130" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="19" t="e"/>
+      <c r="C130" s="19" t="e"/>
+      <c r="D130" s="19" t="e"/>
+      <c r="E130" s="19" t="e"/>
+      <c r="F130" s="19" t="e"/>
+      <c r="G130" s="19" t="e"/>
+      <c r="H130" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I130" s="10" t="e"/>
+      <c r="J130" s="10" t="e"/>
+      <c r="K130" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L130" s="10" t="e"/>
+      <c r="M130" s="10" t="e"/>
+      <c r="N130" s="9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" ht="11" customHeight="true">
+      <c r="A131" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="16" t="e"/>
+      <c r="C131" s="16" t="e"/>
+      <c r="D131" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E131" s="16" t="e"/>
+      <c r="F131" s="16" t="e"/>
+      <c r="G131" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H130" s="17" t="n">
-        <v>76</v>
-      </c>
-      <c r="I130" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J130" s="18" t="e"/>
-      <c r="K130" s="17" t="n">
-        <v>60</v>
-      </c>
-      <c r="L130" s="18" t="e"/>
-      <c r="M130" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="N130" s="17" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A131" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B131" s="19" t="e"/>
-      <c r="C131" s="19" t="e"/>
-      <c r="D131" s="19" t="e"/>
-      <c r="E131" s="19" t="e"/>
-      <c r="F131" s="19" t="e"/>
-      <c r="G131" s="19" t="e"/>
-      <c r="H131" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I131" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J131" s="10" t="e"/>
-      <c r="K131" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L131" s="10" t="e"/>
-      <c r="M131" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N131" s="9" t="n">
-        <v>13</v>
+      <c r="H131" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" s="18" t="e"/>
+      <c r="J131" s="18" t="e"/>
+      <c r="K131" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" s="18" t="e"/>
+      <c r="M131" s="18" t="e"/>
+      <c r="N131" s="17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="1">
@@ -3924,50 +3796,54 @@
       <c r="F132" s="19" t="e"/>
       <c r="G132" s="19" t="e"/>
       <c r="H132" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I132" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" s="10" t="e"/>
       <c r="J132" s="10" t="e"/>
       <c r="K132" s="9" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L132" s="10" t="e"/>
-      <c r="M132" s="9" t="n">
-        <v>7</v>
-      </c>
+      <c r="M132" s="10" t="e"/>
       <c r="N132" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A133" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B133" s="19" t="e"/>
-      <c r="C133" s="19" t="e"/>
-      <c r="D133" s="19" t="e"/>
-      <c r="E133" s="19" t="e"/>
-      <c r="F133" s="19" t="e"/>
-      <c r="G133" s="19" t="e"/>
-      <c r="H133" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I133" s="10" t="e"/>
-      <c r="J133" s="10" t="e"/>
-      <c r="K133" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L133" s="10" t="e"/>
-      <c r="M133" s="10" t="e"/>
-      <c r="N133" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true">
+      <c r="A133" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B133" s="16" t="e"/>
+      <c r="C133" s="16" t="e"/>
+      <c r="D133" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E133" s="16" t="e"/>
+      <c r="F133" s="16" t="e"/>
+      <c r="G133" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" s="17" t="n">
+        <v>54</v>
+      </c>
+      <c r="I133" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" s="18" t="e"/>
+      <c r="K133" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L133" s="18" t="e"/>
+      <c r="M133" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" s="17" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="A134" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B134" s="19" t="e"/>
       <c r="C134" s="19" t="e"/>
@@ -3976,58 +3852,46 @@
       <c r="F134" s="19" t="e"/>
       <c r="G134" s="19" t="e"/>
       <c r="H134" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I134" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I134" s="10" t="e"/>
       <c r="J134" s="10" t="e"/>
       <c r="K134" s="9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L134" s="10" t="e"/>
-      <c r="M134" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M134" s="10" t="e"/>
       <c r="N134" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true">
-      <c r="A135" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B135" s="16" t="e"/>
-      <c r="C135" s="16" t="e"/>
-      <c r="D135" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E135" s="16" t="e"/>
-      <c r="F135" s="16" t="e"/>
-      <c r="G135" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H135" s="17" t="n">
-        <v>58</v>
-      </c>
-      <c r="I135" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J135" s="18" t="e"/>
-      <c r="K135" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="L135" s="18" t="e"/>
-      <c r="M135" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N135" s="17" t="n">
-        <v>41</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A135" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="19" t="e"/>
+      <c r="C135" s="19" t="e"/>
+      <c r="D135" s="19" t="e"/>
+      <c r="E135" s="19" t="e"/>
+      <c r="F135" s="19" t="e"/>
+      <c r="G135" s="19" t="e"/>
+      <c r="H135" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I135" s="10" t="e"/>
+      <c r="J135" s="10" t="e"/>
+      <c r="K135" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L135" s="10" t="e"/>
+      <c r="M135" s="10" t="e"/>
+      <c r="N135" s="9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="A136" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B136" s="19" t="e"/>
       <c r="C136" s="19" t="e"/>
@@ -4036,26 +3900,22 @@
       <c r="F136" s="19" t="e"/>
       <c r="G136" s="19" t="e"/>
       <c r="H136" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I136" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I136" s="10" t="e"/>
       <c r="J136" s="10" t="e"/>
       <c r="K136" s="9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L136" s="10" t="e"/>
-      <c r="M136" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M136" s="10" t="e"/>
       <c r="N136" s="9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="A137" s="19" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B137" s="19" t="e"/>
       <c r="C137" s="19" t="e"/>
@@ -4064,54 +3924,54 @@
       <c r="F137" s="19" t="e"/>
       <c r="G137" s="19" t="e"/>
       <c r="H137" s="9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I137" s="9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J137" s="10" t="e"/>
       <c r="K137" s="9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L137" s="10" t="e"/>
       <c r="M137" s="9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N137" s="9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A138" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B138" s="19" t="e"/>
-      <c r="C138" s="19" t="e"/>
-      <c r="D138" s="19" t="e"/>
-      <c r="E138" s="19" t="e"/>
-      <c r="F138" s="19" t="e"/>
-      <c r="G138" s="19" t="e"/>
-      <c r="H138" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I138" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" s="10" t="e"/>
-      <c r="K138" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L138" s="10" t="e"/>
-      <c r="M138" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" s="9" t="n">
-        <v>9</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true">
+      <c r="A138" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B138" s="16" t="e"/>
+      <c r="C138" s="16" t="e"/>
+      <c r="D138" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="16" t="e"/>
+      <c r="F138" s="16" t="e"/>
+      <c r="G138" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" s="17" t="n">
+        <v>133</v>
+      </c>
+      <c r="I138" s="18" t="e"/>
+      <c r="J138" s="18" t="e"/>
+      <c r="K138" s="17" t="n">
+        <v>133</v>
+      </c>
+      <c r="L138" s="18" t="e"/>
+      <c r="M138" s="18" t="e"/>
+      <c r="N138" s="17" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="A139" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B139" s="19" t="e"/>
       <c r="C139" s="19" t="e"/>
@@ -4120,49 +3980,145 @@
       <c r="F139" s="19" t="e"/>
       <c r="G139" s="19" t="e"/>
       <c r="H139" s="9" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I139" s="10" t="e"/>
       <c r="J139" s="10" t="e"/>
       <c r="K139" s="9" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L139" s="10" t="e"/>
       <c r="M139" s="10" t="e"/>
       <c r="N139" s="9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A140" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B140" s="19" t="e"/>
+      <c r="C140" s="19" t="e"/>
+      <c r="D140" s="19" t="e"/>
+      <c r="E140" s="19" t="e"/>
+      <c r="F140" s="19" t="e"/>
+      <c r="G140" s="19" t="e"/>
+      <c r="H140" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="I140" s="10" t="e"/>
+      <c r="J140" s="10" t="e"/>
+      <c r="K140" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="L140" s="10" t="e"/>
+      <c r="M140" s="10" t="e"/>
+      <c r="N140" s="9" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A141" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" s="19" t="e"/>
+      <c r="C141" s="19" t="e"/>
+      <c r="D141" s="19" t="e"/>
+      <c r="E141" s="19" t="e"/>
+      <c r="F141" s="19" t="e"/>
+      <c r="G141" s="19" t="e"/>
+      <c r="H141" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I141" s="10" t="e"/>
+      <c r="J141" s="10" t="e"/>
+      <c r="K141" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L141" s="10" t="e"/>
+      <c r="M141" s="10" t="e"/>
+      <c r="N141" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A142" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" s="19" t="e"/>
+      <c r="C142" s="19" t="e"/>
+      <c r="D142" s="19" t="e"/>
+      <c r="E142" s="19" t="e"/>
+      <c r="F142" s="19" t="e"/>
+      <c r="G142" s="19" t="e"/>
+      <c r="H142" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I142" s="10" t="e"/>
+      <c r="J142" s="10" t="e"/>
+      <c r="K142" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L142" s="10" t="e"/>
+      <c r="M142" s="10" t="e"/>
+      <c r="N142" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A143" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="19" t="e"/>
+      <c r="C143" s="19" t="e"/>
+      <c r="D143" s="19" t="e"/>
+      <c r="E143" s="19" t="e"/>
+      <c r="F143" s="19" t="e"/>
+      <c r="G143" s="19" t="e"/>
+      <c r="H143" s="9" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" ht="13" customHeight="true">
-      <c r="A140" s="12" t="s">
+      <c r="I143" s="10" t="e"/>
+      <c r="J143" s="10" t="e"/>
+      <c r="K143" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L143" s="10" t="e"/>
+      <c r="M143" s="10" t="e"/>
+      <c r="N143" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" ht="13" customHeight="true">
+      <c r="A144" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B140" s="12" t="e"/>
-      <c r="C140" s="12" t="e"/>
-      <c r="D140" s="12" t="e"/>
-      <c r="E140" s="12" t="e"/>
-      <c r="F140" s="12" t="e"/>
-      <c r="G140" s="12" t="e"/>
-      <c r="H140" s="13" t="n">
-        <v>2667</v>
-      </c>
-      <c r="I140" s="14" t="n">
-        <v>296</v>
-      </c>
-      <c r="J140" s="15" t="e"/>
-      <c r="K140" s="13" t="n">
-        <v>2371</v>
-      </c>
-      <c r="L140" s="15" t="e"/>
-      <c r="M140" s="14" t="n">
-        <v>296</v>
-      </c>
-      <c r="N140" s="13" t="n">
-        <v>2371</v>
+      <c r="B144" s="12" t="e"/>
+      <c r="C144" s="12" t="e"/>
+      <c r="D144" s="12" t="e"/>
+      <c r="E144" s="12" t="e"/>
+      <c r="F144" s="12" t="e"/>
+      <c r="G144" s="12" t="e"/>
+      <c r="H144" s="13" t="n">
+        <v>3234</v>
+      </c>
+      <c r="I144" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J144" s="15" t="e"/>
+      <c r="K144" s="13" t="n">
+        <v>3209</v>
+      </c>
+      <c r="L144" s="15" t="e"/>
+      <c r="M144" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="N144" s="13" t="n">
+        <v>3209</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="178">
+  <mergeCells count="182">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -4234,113 +4190,117 @@
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="A67:G67"/>
     <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:F69"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A71:G71"/>
     <mergeCell ref="A72:G72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A73:G73"/>
     <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="A76:G76"/>
     <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="A79:G79"/>
     <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:F81"/>
     <mergeCell ref="A82:G82"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A85:G85"/>
     <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:F87"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A91:G91"/>
     <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:F93"/>
     <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
     <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="A97:G97"/>
     <mergeCell ref="A98:G98"/>
-    <mergeCell ref="A99:G99"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:F99"/>
     <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A103:G103"/>
     <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:F105"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="A108:G108"/>
     <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D111:F111"/>
     <mergeCell ref="A112:G112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A113:G113"/>
     <mergeCell ref="A114:G114"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:F117"/>
     <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="A119:G119"/>
     <mergeCell ref="A120:G120"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="D122:F122"/>
     <mergeCell ref="A123:G123"/>
     <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:F125"/>
     <mergeCell ref="A126:G126"/>
     <mergeCell ref="A127:G127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="A128:G128"/>
     <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="D131:F131"/>
     <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:F133"/>
     <mergeCell ref="A134:G134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="A135:G135"/>
     <mergeCell ref="A136:G136"/>
     <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:F138"/>
     <mergeCell ref="A139:G139"/>
     <mergeCell ref="A140:G140"/>
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A144:G144"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Остатки и доступность товаров</t>
   </si>
@@ -149,6 +149,12 @@
     <t>503А Решетка водоприемная РВ - 10.14.100 - штампованная нержавеющая сталь, кл. A15</t>
   </si>
   <si>
+    <t>503А-10</t>
+  </si>
+  <si>
+    <t>503А-10 Решетка водоприемная ANMAKS DN100 щелевая из нержавеющей стали, 1000х136 мм, 10 штук</t>
+  </si>
+  <si>
     <t>503А-5</t>
   </si>
   <si>
@@ -171,6 +177,12 @@
   </si>
   <si>
     <t>508АК  Решетка водоприемная РВ - 10.14.100 - штампованная стальная оцинк.  под крепеж, кл. А15</t>
+  </si>
+  <si>
+    <t>508АК-10</t>
+  </si>
+  <si>
+    <t>508АК-10 Решетка водоприемная ANMAKS DN100 щелевая стальная оцинкованная, 1000х136 мм. КР. 10 штук</t>
   </si>
   <si>
     <t>6800А</t>
@@ -508,7 +520,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N144"/>
+  <dimension ref="N142"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -644,21 +656,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="L9" s="10" t="e"/>
       <c r="M9" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -672,17 +684,17 @@
       <c r="F10" s="8" t="e"/>
       <c r="G10" s="8" t="e"/>
       <c r="H10" s="9" t="n">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="I10" s="10" t="e"/>
       <c r="J10" s="10" t="e"/>
       <c r="K10" s="9" t="n">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="L10" s="10" t="e"/>
       <c r="M10" s="10" t="e"/>
       <c r="N10" s="9" t="n">
-        <v>134</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -695,22 +707,22 @@
       <c r="E11" s="8" t="e"/>
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
-      <c r="H11" s="11" t="n">
-        <v>1156</v>
+      <c r="H11" s="9" t="n">
+        <v>935</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J11" s="10" t="e"/>
-      <c r="K11" s="11" t="n">
-        <v>1145</v>
+      <c r="K11" s="9" t="n">
+        <v>899</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="N11" s="11" t="n">
-        <v>1145</v>
+        <v>36</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>899</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -724,21 +736,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1851</v>
+        <v>1348</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1841</v>
+        <v>1305</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1841</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -752,21 +764,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>3234</v>
+        <v>2571</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>3209</v>
+        <v>2490</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>3209</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -1040,21 +1052,17 @@
         <v>24</v>
       </c>
       <c r="H24" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="I24" s="17" t="n">
-        <v>3</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I24" s="18" t="e"/>
       <c r="J24" s="18" t="e"/>
       <c r="K24" s="17" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L24" s="18" t="e"/>
-      <c r="M24" s="17" t="n">
-        <v>3</v>
-      </c>
+      <c r="M24" s="18" t="e"/>
       <c r="N24" s="17" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true" outlineLevel="1">
@@ -1092,17 +1100,17 @@
       <c r="F26" s="19" t="e"/>
       <c r="G26" s="19" t="e"/>
       <c r="H26" s="9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I26" s="10" t="e"/>
       <c r="J26" s="10" t="e"/>
       <c r="K26" s="9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L26" s="10" t="e"/>
       <c r="M26" s="10" t="e"/>
       <c r="N26" s="9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1116,21 +1124,17 @@
       <c r="F27" s="19" t="e"/>
       <c r="G27" s="19" t="e"/>
       <c r="H27" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I27" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I27" s="10" t="e"/>
       <c r="J27" s="10" t="e"/>
       <c r="K27" s="9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L27" s="10" t="e"/>
-      <c r="M27" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M27" s="10" t="e"/>
       <c r="N27" s="9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1148,21 +1152,21 @@
         <v>24</v>
       </c>
       <c r="H28" s="17" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I28" s="17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="18" t="e"/>
       <c r="K28" s="17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L28" s="18" t="e"/>
       <c r="M28" s="17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" s="17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="1">
@@ -1224,21 +1228,21 @@
       <c r="F31" s="19" t="e"/>
       <c r="G31" s="19" t="e"/>
       <c r="H31" s="9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I31" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="10" t="e"/>
       <c r="K31" s="9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L31" s="10" t="e"/>
       <c r="M31" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" s="9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true">
@@ -1256,22 +1260,22 @@
         <v>24</v>
       </c>
       <c r="H32" s="17" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I32" s="18" t="e"/>
       <c r="J32" s="18" t="e"/>
       <c r="K32" s="17" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L32" s="18" t="e"/>
       <c r="M32" s="18" t="e"/>
       <c r="N32" s="17" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33" s="19" t="e"/>
       <c r="C33" s="19" t="e"/>
@@ -1280,150 +1284,154 @@
       <c r="F33" s="19" t="e"/>
       <c r="G33" s="19" t="e"/>
       <c r="H33" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I33" s="10" t="e"/>
       <c r="J33" s="10" t="e"/>
       <c r="K33" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L33" s="10" t="e"/>
       <c r="M33" s="10" t="e"/>
       <c r="N33" s="9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A34" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
+      <c r="A34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="16" t="e"/>
+      <c r="C34" s="16" t="e"/>
+      <c r="D34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="16" t="e"/>
+      <c r="F34" s="16" t="e"/>
+      <c r="G34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" s="18" t="e"/>
+      <c r="J34" s="18" t="e"/>
+      <c r="K34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="18" t="e"/>
+      <c r="M34" s="18" t="e"/>
+      <c r="N34" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="19" t="e"/>
-      <c r="C34" s="19" t="e"/>
-      <c r="D34" s="19" t="e"/>
-      <c r="E34" s="19" t="e"/>
-      <c r="F34" s="19" t="e"/>
-      <c r="G34" s="19" t="e"/>
-      <c r="H34" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34" s="10" t="e"/>
-      <c r="J34" s="10" t="e"/>
-      <c r="K34" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L34" s="10" t="e"/>
-      <c r="M34" s="10" t="e"/>
-      <c r="N34" s="9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" ht="22" customHeight="true">
-      <c r="A35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="16" t="e"/>
-      <c r="C35" s="16" t="e"/>
-      <c r="D35" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="16" t="e"/>
-      <c r="F35" s="16" t="e"/>
-      <c r="G35" s="16" t="s">
+      <c r="B35" s="19" t="e"/>
+      <c r="C35" s="19" t="e"/>
+      <c r="D35" s="19" t="e"/>
+      <c r="E35" s="19" t="e"/>
+      <c r="F35" s="19" t="e"/>
+      <c r="G35" s="19" t="e"/>
+      <c r="H35" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" s="10" t="e"/>
+      <c r="J35" s="10" t="e"/>
+      <c r="K35" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L35" s="10" t="e"/>
+      <c r="M35" s="10" t="e"/>
+      <c r="N35" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="true">
+      <c r="A36" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="16" t="e"/>
+      <c r="C36" s="16" t="e"/>
+      <c r="D36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="16" t="e"/>
+      <c r="F36" s="16" t="e"/>
+      <c r="G36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="17" t="n">
+      <c r="H36" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I35" s="18" t="e"/>
-      <c r="J35" s="18" t="e"/>
-      <c r="K35" s="17" t="n">
+      <c r="I36" s="18" t="e"/>
+      <c r="J36" s="18" t="e"/>
+      <c r="K36" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="18" t="e"/>
-      <c r="M35" s="18" t="e"/>
-      <c r="N35" s="17" t="n">
+      <c r="L36" s="18" t="e"/>
+      <c r="M36" s="18" t="e"/>
+      <c r="N36" s="17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A36" s="19" t="s">
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A37" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="19" t="e"/>
-      <c r="C36" s="19" t="e"/>
-      <c r="D36" s="19" t="e"/>
-      <c r="E36" s="19" t="e"/>
-      <c r="F36" s="19" t="e"/>
-      <c r="G36" s="19" t="e"/>
-      <c r="H36" s="9" t="n">
+      <c r="B37" s="19" t="e"/>
+      <c r="C37" s="19" t="e"/>
+      <c r="D37" s="19" t="e"/>
+      <c r="E37" s="19" t="e"/>
+      <c r="F37" s="19" t="e"/>
+      <c r="G37" s="19" t="e"/>
+      <c r="H37" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="10" t="e"/>
-      <c r="J36" s="10" t="e"/>
-      <c r="K36" s="9" t="n">
+      <c r="I37" s="10" t="e"/>
+      <c r="J37" s="10" t="e"/>
+      <c r="K37" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="10" t="e"/>
-      <c r="M36" s="10" t="e"/>
-      <c r="N36" s="9" t="n">
+      <c r="L37" s="10" t="e"/>
+      <c r="M37" s="10" t="e"/>
+      <c r="N37" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="22" customHeight="true">
-      <c r="A37" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="16" t="e"/>
-      <c r="C37" s="16" t="e"/>
-      <c r="D37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="16" t="e"/>
-      <c r="F37" s="16" t="e"/>
-      <c r="G37" s="16" t="s">
+    <row r="38" ht="22" customHeight="true">
+      <c r="A38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="16" t="e"/>
+      <c r="C38" s="16" t="e"/>
+      <c r="D38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="16" t="e"/>
+      <c r="F38" s="16" t="e"/>
+      <c r="G38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="17" t="n">
+      <c r="H38" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="I37" s="18" t="e"/>
-      <c r="J37" s="18" t="e"/>
-      <c r="K37" s="17" t="n">
+      <c r="I38" s="18" t="e"/>
+      <c r="J38" s="18" t="e"/>
+      <c r="K38" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="L37" s="18" t="e"/>
-      <c r="M37" s="18" t="e"/>
-      <c r="N37" s="17" t="n">
+      <c r="L38" s="18" t="e"/>
+      <c r="M38" s="18" t="e"/>
+      <c r="N38" s="17" t="n">
         <v>82</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A38" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="19" t="e"/>
-      <c r="C38" s="19" t="e"/>
-      <c r="D38" s="19" t="e"/>
-      <c r="E38" s="19" t="e"/>
-      <c r="F38" s="19" t="e"/>
-      <c r="G38" s="19" t="e"/>
-      <c r="H38" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I38" s="10" t="e"/>
-      <c r="J38" s="10" t="e"/>
-      <c r="K38" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="L38" s="10" t="e"/>
-      <c r="M38" s="10" t="e"/>
-      <c r="N38" s="9" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="1">
       <c r="A39" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" s="19" t="e"/>
       <c r="C39" s="19" t="e"/>
@@ -1432,69 +1440,69 @@
       <c r="F39" s="19" t="e"/>
       <c r="G39" s="19" t="e"/>
       <c r="H39" s="9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I39" s="10" t="e"/>
       <c r="J39" s="10" t="e"/>
       <c r="K39" s="9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L39" s="10" t="e"/>
       <c r="M39" s="10" t="e"/>
       <c r="N39" s="9" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="19" t="e"/>
+      <c r="C40" s="19" t="e"/>
+      <c r="D40" s="19" t="e"/>
+      <c r="E40" s="19" t="e"/>
+      <c r="F40" s="19" t="e"/>
+      <c r="G40" s="19" t="e"/>
+      <c r="H40" s="9" t="n">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" ht="22" customHeight="true">
-      <c r="A40" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="16" t="e"/>
-      <c r="C40" s="16" t="e"/>
-      <c r="D40" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="16" t="e"/>
-      <c r="F40" s="16" t="e"/>
-      <c r="G40" s="16" t="s">
+      <c r="I40" s="10" t="e"/>
+      <c r="J40" s="10" t="e"/>
+      <c r="K40" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="L40" s="10" t="e"/>
+      <c r="M40" s="10" t="e"/>
+      <c r="N40" s="9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" ht="22" customHeight="true">
+      <c r="A41" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="16" t="e"/>
+      <c r="C41" s="16" t="e"/>
+      <c r="D41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="16" t="e"/>
+      <c r="F41" s="16" t="e"/>
+      <c r="G41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="I40" s="18" t="e"/>
-      <c r="J40" s="18" t="e"/>
-      <c r="K40" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="L40" s="18" t="e"/>
-      <c r="M40" s="18" t="e"/>
-      <c r="N40" s="17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A41" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="19" t="e"/>
-      <c r="C41" s="19" t="e"/>
-      <c r="D41" s="19" t="e"/>
-      <c r="E41" s="19" t="e"/>
-      <c r="F41" s="19" t="e"/>
-      <c r="G41" s="19" t="e"/>
-      <c r="H41" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I41" s="10" t="e"/>
-      <c r="J41" s="10" t="e"/>
-      <c r="K41" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L41" s="10" t="e"/>
-      <c r="M41" s="10" t="e"/>
-      <c r="N41" s="9" t="n">
-        <v>3</v>
+      <c r="H41" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="I41" s="18" t="e"/>
+      <c r="J41" s="18" t="e"/>
+      <c r="K41" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L41" s="18" t="e"/>
+      <c r="M41" s="18" t="e"/>
+      <c r="N41" s="17" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true" outlineLevel="1">
@@ -1508,27 +1516,27 @@
       <c r="F42" s="19" t="e"/>
       <c r="G42" s="19" t="e"/>
       <c r="H42" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I42" s="10" t="e"/>
       <c r="J42" s="10" t="e"/>
       <c r="K42" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L42" s="10" t="e"/>
       <c r="M42" s="10" t="e"/>
       <c r="N42" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="true">
       <c r="A43" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="16" t="e"/>
       <c r="C43" s="16" t="e"/>
       <c r="D43" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E43" s="16" t="e"/>
       <c r="F43" s="16" t="e"/>
@@ -1536,17 +1544,17 @@
         <v>24</v>
       </c>
       <c r="H43" s="17" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I43" s="18" t="e"/>
       <c r="J43" s="18" t="e"/>
       <c r="K43" s="17" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L43" s="18" t="e"/>
       <c r="M43" s="18" t="e"/>
       <c r="N43" s="17" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
@@ -1573,173 +1581,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" ht="11" customHeight="true">
-      <c r="A45" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="16" t="e"/>
-      <c r="C45" s="16" t="e"/>
-      <c r="D45" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="16" t="e"/>
-      <c r="F45" s="16" t="e"/>
-      <c r="G45" s="16" t="s">
+    <row r="45" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A45" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="19" t="e"/>
+      <c r="C45" s="19" t="e"/>
+      <c r="D45" s="19" t="e"/>
+      <c r="E45" s="19" t="e"/>
+      <c r="F45" s="19" t="e"/>
+      <c r="G45" s="19" t="e"/>
+      <c r="H45" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" s="10" t="e"/>
+      <c r="J45" s="10" t="e"/>
+      <c r="K45" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L45" s="10" t="e"/>
+      <c r="M45" s="10" t="e"/>
+      <c r="N45" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true">
+      <c r="A46" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="16" t="e"/>
+      <c r="C46" s="16" t="e"/>
+      <c r="D46" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="16" t="e"/>
+      <c r="F46" s="16" t="e"/>
+      <c r="G46" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="17" t="n">
+      <c r="H46" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" s="18" t="e"/>
+      <c r="J46" s="18" t="e"/>
+      <c r="K46" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L46" s="18" t="e"/>
+      <c r="M46" s="18" t="e"/>
+      <c r="N46" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A47" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="19" t="e"/>
+      <c r="C47" s="19" t="e"/>
+      <c r="D47" s="19" t="e"/>
+      <c r="E47" s="19" t="e"/>
+      <c r="F47" s="19" t="e"/>
+      <c r="G47" s="19" t="e"/>
+      <c r="H47" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I47" s="10" t="e"/>
+      <c r="J47" s="10" t="e"/>
+      <c r="K47" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" s="10" t="e"/>
+      <c r="M47" s="10" t="e"/>
+      <c r="N47" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="16" t="e"/>
+      <c r="C48" s="16" t="e"/>
+      <c r="D48" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="16" t="e"/>
+      <c r="F48" s="16" t="e"/>
+      <c r="G48" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="I45" s="18" t="e"/>
-      <c r="J45" s="18" t="e"/>
-      <c r="K45" s="17" t="n">
+      <c r="I48" s="18" t="e"/>
+      <c r="J48" s="18" t="e"/>
+      <c r="K48" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="L45" s="18" t="e"/>
-      <c r="M45" s="18" t="e"/>
-      <c r="N45" s="17" t="n">
+      <c r="L48" s="18" t="e"/>
+      <c r="M48" s="18" t="e"/>
+      <c r="N48" s="17" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="46" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A46" s="19" t="s">
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A49" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="19" t="e"/>
-      <c r="C46" s="19" t="e"/>
-      <c r="D46" s="19" t="e"/>
-      <c r="E46" s="19" t="e"/>
-      <c r="F46" s="19" t="e"/>
-      <c r="G46" s="19" t="e"/>
-      <c r="H46" s="9" t="n">
+      <c r="B49" s="19" t="e"/>
+      <c r="C49" s="19" t="e"/>
+      <c r="D49" s="19" t="e"/>
+      <c r="E49" s="19" t="e"/>
+      <c r="F49" s="19" t="e"/>
+      <c r="G49" s="19" t="e"/>
+      <c r="H49" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="I46" s="10" t="e"/>
-      <c r="J46" s="10" t="e"/>
-      <c r="K46" s="9" t="n">
+      <c r="I49" s="10" t="e"/>
+      <c r="J49" s="10" t="e"/>
+      <c r="K49" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="L46" s="10" t="e"/>
-      <c r="M46" s="10" t="e"/>
-      <c r="N46" s="9" t="n">
+      <c r="L49" s="10" t="e"/>
+      <c r="M49" s="10" t="e"/>
+      <c r="N49" s="9" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="47" ht="11" customHeight="true">
-      <c r="A47" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="16" t="e"/>
-      <c r="C47" s="16" t="e"/>
-      <c r="D47" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="16" t="e"/>
-      <c r="F47" s="16" t="e"/>
-      <c r="G47" s="16" t="s">
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="16" t="e"/>
+      <c r="C50" s="16" t="e"/>
+      <c r="D50" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="16" t="e"/>
+      <c r="F50" s="16" t="e"/>
+      <c r="G50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="17" t="n">
+      <c r="H50" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="18" t="e"/>
-      <c r="J47" s="18" t="e"/>
-      <c r="K47" s="17" t="n">
+      <c r="I50" s="18" t="e"/>
+      <c r="J50" s="18" t="e"/>
+      <c r="K50" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="L47" s="18" t="e"/>
-      <c r="M47" s="18" t="e"/>
-      <c r="N47" s="17" t="n">
+      <c r="L50" s="18" t="e"/>
+      <c r="M50" s="18" t="e"/>
+      <c r="N50" s="17" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="19" t="e"/>
-      <c r="C48" s="19" t="e"/>
-      <c r="D48" s="19" t="e"/>
-      <c r="E48" s="19" t="e"/>
-      <c r="F48" s="19" t="e"/>
-      <c r="G48" s="19" t="e"/>
-      <c r="H48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="10" t="e"/>
-      <c r="J48" s="10" t="e"/>
-      <c r="K48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" s="10" t="e"/>
-      <c r="M48" s="10" t="e"/>
-      <c r="N48" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="A49" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="16" t="e"/>
-      <c r="C49" s="16" t="e"/>
-      <c r="D49" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="16" t="e"/>
-      <c r="F49" s="16" t="e"/>
-      <c r="G49" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="17" t="n">
-        <v>295</v>
-      </c>
-      <c r="I49" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J49" s="18" t="e"/>
-      <c r="K49" s="17" t="n">
-        <v>289</v>
-      </c>
-      <c r="L49" s="18" t="e"/>
-      <c r="M49" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N49" s="17" t="n">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A50" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="19" t="e"/>
-      <c r="C50" s="19" t="e"/>
-      <c r="D50" s="19" t="e"/>
-      <c r="E50" s="19" t="e"/>
-      <c r="F50" s="19" t="e"/>
-      <c r="G50" s="19" t="e"/>
-      <c r="H50" s="9" t="n">
-        <v>116</v>
-      </c>
-      <c r="I50" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" s="10" t="e"/>
-      <c r="K50" s="9" t="n">
-        <v>110</v>
-      </c>
-      <c r="L50" s="10" t="e"/>
-      <c r="M50" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N50" s="9" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="1">
       <c r="A51" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B51" s="19" t="e"/>
       <c r="C51" s="19" t="e"/>
@@ -1748,78 +1748,78 @@
       <c r="F51" s="19" t="e"/>
       <c r="G51" s="19" t="e"/>
       <c r="H51" s="9" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I51" s="10" t="e"/>
       <c r="J51" s="10" t="e"/>
       <c r="K51" s="9" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L51" s="10" t="e"/>
       <c r="M51" s="10" t="e"/>
       <c r="N51" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A52" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="19" t="e"/>
-      <c r="C52" s="19" t="e"/>
-      <c r="D52" s="19" t="e"/>
-      <c r="E52" s="19" t="e"/>
-      <c r="F52" s="19" t="e"/>
-      <c r="G52" s="19" t="e"/>
-      <c r="H52" s="9" t="n">
-        <v>79</v>
-      </c>
-      <c r="I52" s="10" t="e"/>
-      <c r="J52" s="10" t="e"/>
-      <c r="K52" s="9" t="n">
-        <v>79</v>
-      </c>
-      <c r="L52" s="10" t="e"/>
-      <c r="M52" s="10" t="e"/>
-      <c r="N52" s="9" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
-      <c r="A53" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="16" t="e"/>
-      <c r="C53" s="16" t="e"/>
-      <c r="D53" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="16" t="e"/>
-      <c r="F53" s="16" t="e"/>
-      <c r="G53" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
+      <c r="A52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="16" t="e"/>
+      <c r="C52" s="16" t="e"/>
+      <c r="D52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="16" t="e"/>
+      <c r="F52" s="16" t="e"/>
+      <c r="G52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="17" t="n">
-        <v>169</v>
-      </c>
-      <c r="I53" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="18" t="e"/>
-      <c r="K53" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="L53" s="18" t="e"/>
-      <c r="M53" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="17" t="n">
-        <v>168</v>
+      <c r="H52" s="17" t="n">
+        <v>288</v>
+      </c>
+      <c r="I52" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J52" s="18" t="e"/>
+      <c r="K52" s="17" t="n">
+        <v>268</v>
+      </c>
+      <c r="L52" s="18" t="e"/>
+      <c r="M52" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N52" s="17" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A53" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="19" t="e"/>
+      <c r="C53" s="19" t="e"/>
+      <c r="D53" s="19" t="e"/>
+      <c r="E53" s="19" t="e"/>
+      <c r="F53" s="19" t="e"/>
+      <c r="G53" s="19" t="e"/>
+      <c r="H53" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="I53" s="10" t="e"/>
+      <c r="J53" s="10" t="e"/>
+      <c r="K53" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="L53" s="10" t="e"/>
+      <c r="M53" s="10" t="e"/>
+      <c r="N53" s="9" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1828,22 +1828,22 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="I54" s="10" t="e"/>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="10" t="e"/>
       <c r="N54" s="9" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1852,46 +1852,54 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="I55" s="10" t="e"/>
+        <v>78</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="L55" s="10" t="e"/>
-      <c r="M55" s="10" t="e"/>
+      <c r="M55" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="N55" s="9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A56" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="19" t="e"/>
-      <c r="C56" s="19" t="e"/>
-      <c r="D56" s="19" t="e"/>
-      <c r="E56" s="19" t="e"/>
-      <c r="F56" s="19" t="e"/>
-      <c r="G56" s="19" t="e"/>
-      <c r="H56" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I56" s="10" t="e"/>
-      <c r="J56" s="10" t="e"/>
-      <c r="K56" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L56" s="10" t="e"/>
-      <c r="M56" s="10" t="e"/>
-      <c r="N56" s="9" t="n">
-        <v>14</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true">
+      <c r="A56" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="16" t="e"/>
+      <c r="C56" s="16" t="e"/>
+      <c r="D56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="16" t="e"/>
+      <c r="F56" s="16" t="e"/>
+      <c r="G56" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="17" t="n">
+        <v>150</v>
+      </c>
+      <c r="I56" s="18" t="e"/>
+      <c r="J56" s="18" t="e"/>
+      <c r="K56" s="17" t="n">
+        <v>150</v>
+      </c>
+      <c r="L56" s="18" t="e"/>
+      <c r="M56" s="18" t="e"/>
+      <c r="N56" s="17" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
       <c r="A57" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" s="19" t="e"/>
       <c r="C57" s="19" t="e"/>
@@ -1900,22 +1908,22 @@
       <c r="F57" s="19" t="e"/>
       <c r="G57" s="19" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I57" s="10" t="e"/>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L57" s="10" t="e"/>
       <c r="M57" s="10" t="e"/>
       <c r="N57" s="9" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="11" customHeight="true" outlineLevel="1">
       <c r="A58" s="19" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B58" s="19" t="e"/>
       <c r="C58" s="19" t="e"/>
@@ -1924,54 +1932,46 @@
       <c r="F58" s="19" t="e"/>
       <c r="G58" s="19" t="e"/>
       <c r="H58" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="I58" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I58" s="10" t="e"/>
       <c r="J58" s="10" t="e"/>
       <c r="K58" s="9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L58" s="10" t="e"/>
-      <c r="M58" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M58" s="10" t="e"/>
       <c r="N58" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true">
-      <c r="A59" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="16" t="e"/>
-      <c r="C59" s="16" t="e"/>
-      <c r="D59" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="16" t="e"/>
-      <c r="F59" s="16" t="e"/>
-      <c r="G59" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="17" t="n">
-        <v>187</v>
-      </c>
-      <c r="I59" s="18" t="e"/>
-      <c r="J59" s="18" t="e"/>
-      <c r="K59" s="17" t="n">
-        <v>187</v>
-      </c>
-      <c r="L59" s="18" t="e"/>
-      <c r="M59" s="18" t="e"/>
-      <c r="N59" s="17" t="n">
-        <v>187</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A59" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="19" t="e"/>
+      <c r="C59" s="19" t="e"/>
+      <c r="D59" s="19" t="e"/>
+      <c r="E59" s="19" t="e"/>
+      <c r="F59" s="19" t="e"/>
+      <c r="G59" s="19" t="e"/>
+      <c r="H59" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="I59" s="10" t="e"/>
+      <c r="J59" s="10" t="e"/>
+      <c r="K59" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L59" s="10" t="e"/>
+      <c r="M59" s="10" t="e"/>
+      <c r="N59" s="9" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1980,22 +1980,22 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L60" s="10" t="e"/>
       <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -2004,78 +2004,74 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I61" s="10" t="e"/>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L61" s="10" t="e"/>
       <c r="M61" s="10" t="e"/>
       <c r="N61" s="9" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A62" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="19" t="e"/>
-      <c r="C62" s="19" t="e"/>
-      <c r="D62" s="19" t="e"/>
-      <c r="E62" s="19" t="e"/>
-      <c r="F62" s="19" t="e"/>
-      <c r="G62" s="19" t="e"/>
-      <c r="H62" s="9" t="n">
-        <v>77</v>
-      </c>
-      <c r="I62" s="10" t="e"/>
-      <c r="J62" s="10" t="e"/>
-      <c r="K62" s="9" t="n">
-        <v>77</v>
-      </c>
-      <c r="L62" s="10" t="e"/>
-      <c r="M62" s="10" t="e"/>
-      <c r="N62" s="9" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" ht="22" customHeight="true">
-      <c r="A63" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="16" t="e"/>
-      <c r="C63" s="16" t="e"/>
-      <c r="D63" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="16" t="e"/>
-      <c r="F63" s="16" t="e"/>
-      <c r="G63" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="true">
+      <c r="A62" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="16" t="e"/>
+      <c r="C62" s="16" t="e"/>
+      <c r="D62" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="16" t="e"/>
+      <c r="F62" s="16" t="e"/>
+      <c r="G62" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="17" t="n">
-        <v>144</v>
-      </c>
-      <c r="I63" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" s="18" t="e"/>
-      <c r="K63" s="17" t="n">
-        <v>140</v>
-      </c>
-      <c r="L63" s="18" t="e"/>
-      <c r="M63" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N63" s="17" t="n">
-        <v>140</v>
+      <c r="H62" s="17" t="n">
+        <v>187</v>
+      </c>
+      <c r="I62" s="18" t="e"/>
+      <c r="J62" s="18" t="e"/>
+      <c r="K62" s="17" t="n">
+        <v>187</v>
+      </c>
+      <c r="L62" s="18" t="e"/>
+      <c r="M62" s="18" t="e"/>
+      <c r="N62" s="17" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A63" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="19" t="e"/>
+      <c r="C63" s="19" t="e"/>
+      <c r="D63" s="19" t="e"/>
+      <c r="E63" s="19" t="e"/>
+      <c r="F63" s="19" t="e"/>
+      <c r="G63" s="19" t="e"/>
+      <c r="H63" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="I63" s="10" t="e"/>
+      <c r="J63" s="10" t="e"/>
+      <c r="K63" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L63" s="10" t="e"/>
+      <c r="M63" s="10" t="e"/>
+      <c r="N63" s="9" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="11" customHeight="true" outlineLevel="1">
       <c r="A64" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B64" s="19" t="e"/>
       <c r="C64" s="19" t="e"/>
@@ -2084,22 +2080,22 @@
       <c r="F64" s="19" t="e"/>
       <c r="G64" s="19" t="e"/>
       <c r="H64" s="9" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I64" s="10" t="e"/>
       <c r="J64" s="10" t="e"/>
       <c r="K64" s="9" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="L64" s="10" t="e"/>
       <c r="M64" s="10" t="e"/>
       <c r="N64" s="9" t="n">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2108,46 +2104,54 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I65" s="10" t="e"/>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L65" s="10" t="e"/>
       <c r="M65" s="10" t="e"/>
       <c r="N65" s="9" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A66" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="19" t="e"/>
-      <c r="C66" s="19" t="e"/>
-      <c r="D66" s="19" t="e"/>
-      <c r="E66" s="19" t="e"/>
-      <c r="F66" s="19" t="e"/>
-      <c r="G66" s="19" t="e"/>
-      <c r="H66" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="I66" s="10" t="e"/>
-      <c r="J66" s="10" t="e"/>
-      <c r="K66" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="L66" s="10" t="e"/>
-      <c r="M66" s="10" t="e"/>
-      <c r="N66" s="9" t="n">
-        <v>37</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true">
+      <c r="A66" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="16" t="e"/>
+      <c r="C66" s="16" t="e"/>
+      <c r="D66" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="16" t="e"/>
+      <c r="F66" s="16" t="e"/>
+      <c r="G66" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="17" t="n">
+        <v>73</v>
+      </c>
+      <c r="I66" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" s="18" t="e"/>
+      <c r="K66" s="17" t="n">
+        <v>68</v>
+      </c>
+      <c r="L66" s="18" t="e"/>
+      <c r="M66" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" s="17" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="67" ht="11" customHeight="true" outlineLevel="1">
       <c r="A67" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="19" t="e"/>
       <c r="C67" s="19" t="e"/>
@@ -2156,22 +2160,22 @@
       <c r="F67" s="19" t="e"/>
       <c r="G67" s="19" t="e"/>
       <c r="H67" s="9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I67" s="10" t="e"/>
       <c r="J67" s="10" t="e"/>
       <c r="K67" s="9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L67" s="10" t="e"/>
       <c r="M67" s="10" t="e"/>
       <c r="N67" s="9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2180,54 +2184,50 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I68" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I68" s="10" t="e"/>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L68" s="10" t="e"/>
-      <c r="M68" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M68" s="10" t="e"/>
       <c r="N68" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="true">
-      <c r="A69" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="16" t="e"/>
-      <c r="C69" s="16" t="e"/>
-      <c r="D69" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="16" t="e"/>
-      <c r="F69" s="16" t="e"/>
-      <c r="G69" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="17" t="n">
-        <v>140</v>
-      </c>
-      <c r="I69" s="18" t="e"/>
-      <c r="J69" s="18" t="e"/>
-      <c r="K69" s="17" t="n">
-        <v>140</v>
-      </c>
-      <c r="L69" s="18" t="e"/>
-      <c r="M69" s="18" t="e"/>
-      <c r="N69" s="17" t="n">
-        <v>140</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A69" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="19" t="e"/>
+      <c r="C69" s="19" t="e"/>
+      <c r="D69" s="19" t="e"/>
+      <c r="E69" s="19" t="e"/>
+      <c r="F69" s="19" t="e"/>
+      <c r="G69" s="19" t="e"/>
+      <c r="H69" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="I69" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" s="10" t="e"/>
+      <c r="K69" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="L69" s="10" t="e"/>
+      <c r="M69" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" s="9" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2236,46 +2236,58 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I70" s="10" t="e"/>
+        <v>11</v>
+      </c>
+      <c r="I70" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="L70" s="10" t="e"/>
-      <c r="M70" s="10" t="e"/>
+      <c r="M70" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N70" s="9" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A71" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="19" t="e"/>
-      <c r="C71" s="19" t="e"/>
-      <c r="D71" s="19" t="e"/>
-      <c r="E71" s="19" t="e"/>
-      <c r="F71" s="19" t="e"/>
-      <c r="G71" s="19" t="e"/>
-      <c r="H71" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I71" s="10" t="e"/>
-      <c r="J71" s="10" t="e"/>
-      <c r="K71" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="L71" s="10" t="e"/>
-      <c r="M71" s="10" t="e"/>
-      <c r="N71" s="9" t="n">
-        <v>34</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true">
+      <c r="A71" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="16" t="e"/>
+      <c r="C71" s="16" t="e"/>
+      <c r="D71" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="16" t="e"/>
+      <c r="F71" s="16" t="e"/>
+      <c r="G71" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="17" t="n">
+        <v>107</v>
+      </c>
+      <c r="I71" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" s="18" t="e"/>
+      <c r="K71" s="17" t="n">
+        <v>96</v>
+      </c>
+      <c r="L71" s="18" t="e"/>
+      <c r="M71" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="N71" s="17" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="1">
       <c r="A72" s="19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B72" s="19" t="e"/>
       <c r="C72" s="19" t="e"/>
@@ -2284,22 +2296,22 @@
       <c r="F72" s="19" t="e"/>
       <c r="G72" s="19" t="e"/>
       <c r="H72" s="9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I72" s="10" t="e"/>
       <c r="J72" s="10" t="e"/>
       <c r="K72" s="9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L72" s="10" t="e"/>
       <c r="M72" s="10" t="e"/>
       <c r="N72" s="9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="A73" s="19" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B73" s="19" t="e"/>
       <c r="C73" s="19" t="e"/>
@@ -2308,22 +2320,22 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I73" s="10" t="e"/>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L73" s="10" t="e"/>
       <c r="M73" s="10" t="e"/>
       <c r="N73" s="9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="A74" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B74" s="19" t="e"/>
       <c r="C74" s="19" t="e"/>
@@ -2332,74 +2344,78 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I74" s="10" t="e"/>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L74" s="10" t="e"/>
       <c r="M74" s="10" t="e"/>
       <c r="N74" s="9" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" ht="11" customHeight="true">
-      <c r="A75" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="16" t="e"/>
-      <c r="C75" s="16" t="e"/>
-      <c r="D75" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" s="16" t="e"/>
-      <c r="F75" s="16" t="e"/>
-      <c r="G75" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A75" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="19" t="e"/>
+      <c r="C75" s="19" t="e"/>
+      <c r="D75" s="19" t="e"/>
+      <c r="E75" s="19" t="e"/>
+      <c r="F75" s="19" t="e"/>
+      <c r="G75" s="19" t="e"/>
+      <c r="H75" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I75" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J75" s="10" t="e"/>
+      <c r="K75" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L75" s="10" t="e"/>
+      <c r="M75" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="N75" s="9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true">
+      <c r="A76" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="16" t="e"/>
+      <c r="C76" s="16" t="e"/>
+      <c r="D76" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="16" t="e"/>
+      <c r="F76" s="16" t="e"/>
+      <c r="G76" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="I75" s="18" t="e"/>
-      <c r="J75" s="18" t="e"/>
-      <c r="K75" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="L75" s="18" t="e"/>
-      <c r="M75" s="18" t="e"/>
-      <c r="N75" s="17" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A76" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="19" t="e"/>
-      <c r="C76" s="19" t="e"/>
-      <c r="D76" s="19" t="e"/>
-      <c r="E76" s="19" t="e"/>
-      <c r="F76" s="19" t="e"/>
-      <c r="G76" s="19" t="e"/>
-      <c r="H76" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I76" s="10" t="e"/>
-      <c r="J76" s="10" t="e"/>
-      <c r="K76" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L76" s="10" t="e"/>
-      <c r="M76" s="10" t="e"/>
-      <c r="N76" s="9" t="n">
-        <v>14</v>
+      <c r="H76" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="I76" s="18" t="e"/>
+      <c r="J76" s="18" t="e"/>
+      <c r="K76" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="L76" s="18" t="e"/>
+      <c r="M76" s="18" t="e"/>
+      <c r="N76" s="17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2408,74 +2424,74 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I77" s="10" t="e"/>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="10" t="e"/>
       <c r="N77" s="9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" ht="22" customHeight="true">
-      <c r="A78" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="16" t="e"/>
-      <c r="C78" s="16" t="e"/>
-      <c r="D78" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E78" s="16" t="e"/>
-      <c r="F78" s="16" t="e"/>
-      <c r="G78" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A78" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="19" t="e"/>
+      <c r="C78" s="19" t="e"/>
+      <c r="D78" s="19" t="e"/>
+      <c r="E78" s="19" t="e"/>
+      <c r="F78" s="19" t="e"/>
+      <c r="G78" s="19" t="e"/>
+      <c r="H78" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I78" s="10" t="e"/>
+      <c r="J78" s="10" t="e"/>
+      <c r="K78" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="L78" s="10" t="e"/>
+      <c r="M78" s="10" t="e"/>
+      <c r="N78" s="9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" ht="22" customHeight="true">
+      <c r="A79" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="16" t="e"/>
+      <c r="C79" s="16" t="e"/>
+      <c r="D79" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="16" t="e"/>
+      <c r="F79" s="16" t="e"/>
+      <c r="G79" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="17" t="n">
+      <c r="H79" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I78" s="18" t="e"/>
-      <c r="J78" s="18" t="e"/>
-      <c r="K78" s="17" t="n">
+      <c r="I79" s="18" t="e"/>
+      <c r="J79" s="18" t="e"/>
+      <c r="K79" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="L78" s="18" t="e"/>
-      <c r="M78" s="18" t="e"/>
-      <c r="N78" s="17" t="n">
+      <c r="L79" s="18" t="e"/>
+      <c r="M79" s="18" t="e"/>
+      <c r="N79" s="17" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="79" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A79" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="19" t="e"/>
-      <c r="C79" s="19" t="e"/>
-      <c r="D79" s="19" t="e"/>
-      <c r="E79" s="19" t="e"/>
-      <c r="F79" s="19" t="e"/>
-      <c r="G79" s="19" t="e"/>
-      <c r="H79" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" s="10" t="e"/>
-      <c r="J79" s="10" t="e"/>
-      <c r="K79" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" s="10" t="e"/>
-      <c r="M79" s="10" t="e"/>
-      <c r="N79" s="9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="A80" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B80" s="19" t="e"/>
       <c r="C80" s="19" t="e"/>
@@ -2497,61 +2513,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="11" customHeight="true">
-      <c r="A81" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="16" t="e"/>
-      <c r="C81" s="16" t="e"/>
-      <c r="D81" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="16" t="e"/>
-      <c r="F81" s="16" t="e"/>
-      <c r="G81" s="16" t="s">
+    <row r="81" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A81" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="19" t="e"/>
+      <c r="C81" s="19" t="e"/>
+      <c r="D81" s="19" t="e"/>
+      <c r="E81" s="19" t="e"/>
+      <c r="F81" s="19" t="e"/>
+      <c r="G81" s="19" t="e"/>
+      <c r="H81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" s="10" t="e"/>
+      <c r="J81" s="10" t="e"/>
+      <c r="K81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" s="10" t="e"/>
+      <c r="M81" s="10" t="e"/>
+      <c r="N81" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true">
+      <c r="A82" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="16" t="e"/>
+      <c r="C82" s="16" t="e"/>
+      <c r="D82" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="16" t="e"/>
+      <c r="F82" s="16" t="e"/>
+      <c r="G82" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H81" s="17" t="n">
-        <v>164</v>
-      </c>
-      <c r="I81" s="18" t="e"/>
-      <c r="J81" s="18" t="e"/>
-      <c r="K81" s="17" t="n">
-        <v>164</v>
-      </c>
-      <c r="L81" s="18" t="e"/>
-      <c r="M81" s="18" t="e"/>
-      <c r="N81" s="17" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A82" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="19" t="e"/>
-      <c r="C82" s="19" t="e"/>
-      <c r="D82" s="19" t="e"/>
-      <c r="E82" s="19" t="e"/>
-      <c r="F82" s="19" t="e"/>
-      <c r="G82" s="19" t="e"/>
-      <c r="H82" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="I82" s="10" t="e"/>
-      <c r="J82" s="10" t="e"/>
-      <c r="K82" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="L82" s="10" t="e"/>
-      <c r="M82" s="10" t="e"/>
-      <c r="N82" s="9" t="n">
-        <v>43</v>
+      <c r="H82" s="17" t="n">
+        <v>87</v>
+      </c>
+      <c r="I82" s="18" t="e"/>
+      <c r="J82" s="18" t="e"/>
+      <c r="K82" s="17" t="n">
+        <v>87</v>
+      </c>
+      <c r="L82" s="18" t="e"/>
+      <c r="M82" s="18" t="e"/>
+      <c r="N82" s="17" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2560,22 +2576,22 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="L83" s="10" t="e"/>
       <c r="M83" s="10" t="e"/>
       <c r="N83" s="9" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="19" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B84" s="19" t="e"/>
       <c r="C84" s="19" t="e"/>
@@ -2584,22 +2600,22 @@
       <c r="F84" s="19" t="e"/>
       <c r="G84" s="19" t="e"/>
       <c r="H84" s="9" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I84" s="10" t="e"/>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L84" s="10" t="e"/>
       <c r="M84" s="10" t="e"/>
       <c r="N84" s="9" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2608,17 +2624,17 @@
       <c r="F85" s="19" t="e"/>
       <c r="G85" s="19" t="e"/>
       <c r="H85" s="9" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I85" s="10" t="e"/>
       <c r="J85" s="10" t="e"/>
       <c r="K85" s="9" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L85" s="10" t="e"/>
       <c r="M85" s="10" t="e"/>
       <c r="N85" s="9" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
@@ -2632,27 +2648,27 @@
       <c r="F86" s="19" t="e"/>
       <c r="G86" s="19" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I86" s="10" t="e"/>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L86" s="10" t="e"/>
       <c r="M86" s="10" t="e"/>
       <c r="N86" s="9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true">
       <c r="A87" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B87" s="16" t="e"/>
       <c r="C87" s="16" t="e"/>
       <c r="D87" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E87" s="16" t="e"/>
       <c r="F87" s="16" t="e"/>
@@ -2660,17 +2676,21 @@
         <v>24</v>
       </c>
       <c r="H87" s="17" t="n">
-        <v>184</v>
-      </c>
-      <c r="I87" s="18" t="e"/>
+        <v>41</v>
+      </c>
+      <c r="I87" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J87" s="18" t="e"/>
       <c r="K87" s="17" t="n">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="L87" s="18" t="e"/>
-      <c r="M87" s="18" t="e"/>
+      <c r="M87" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N87" s="17" t="n">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
@@ -2684,22 +2704,22 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="L88" s="10" t="e"/>
       <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B89" s="19" t="e"/>
       <c r="C89" s="19" t="e"/>
@@ -2708,17 +2728,17 @@
       <c r="F89" s="19" t="e"/>
       <c r="G89" s="19" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I89" s="10" t="e"/>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L89" s="10" t="e"/>
       <c r="M89" s="10" t="e"/>
       <c r="N89" s="9" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
@@ -2732,22 +2752,22 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="A91" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B91" s="19" t="e"/>
       <c r="C91" s="19" t="e"/>
@@ -2756,78 +2776,82 @@
       <c r="F91" s="19" t="e"/>
       <c r="G91" s="19" t="e"/>
       <c r="H91" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I91" s="10" t="e"/>
+        <v>11</v>
+      </c>
+      <c r="I91" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J91" s="10" t="e"/>
       <c r="K91" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L91" s="10" t="e"/>
-      <c r="M91" s="10" t="e"/>
+      <c r="M91" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N91" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" s="19" t="e"/>
-      <c r="C92" s="19" t="e"/>
-      <c r="D92" s="19" t="e"/>
-      <c r="E92" s="19" t="e"/>
-      <c r="F92" s="19" t="e"/>
-      <c r="G92" s="19" t="e"/>
-      <c r="H92" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I92" s="10" t="e"/>
-      <c r="J92" s="10" t="e"/>
-      <c r="K92" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L92" s="10" t="e"/>
-      <c r="M92" s="10" t="e"/>
-      <c r="N92" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" ht="22" customHeight="true">
-      <c r="A93" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B93" s="16" t="e"/>
-      <c r="C93" s="16" t="e"/>
-      <c r="D93" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E93" s="16" t="e"/>
-      <c r="F93" s="16" t="e"/>
-      <c r="G93" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" ht="22" customHeight="true">
+      <c r="A92" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="16" t="e"/>
+      <c r="C92" s="16" t="e"/>
+      <c r="D92" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="16" t="e"/>
+      <c r="F92" s="16" t="e"/>
+      <c r="G92" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H93" s="17" t="n">
-        <v>286</v>
-      </c>
-      <c r="I93" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" s="18" t="e"/>
-      <c r="K93" s="17" t="n">
-        <v>284</v>
-      </c>
-      <c r="L93" s="18" t="e"/>
-      <c r="M93" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N93" s="17" t="n">
-        <v>284</v>
+      <c r="H92" s="17" t="n">
+        <v>145</v>
+      </c>
+      <c r="I92" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J92" s="18" t="e"/>
+      <c r="K92" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="L92" s="18" t="e"/>
+      <c r="M92" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" s="17" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A93" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="19" t="e"/>
+      <c r="C93" s="19" t="e"/>
+      <c r="D93" s="19" t="e"/>
+      <c r="E93" s="19" t="e"/>
+      <c r="F93" s="19" t="e"/>
+      <c r="G93" s="19" t="e"/>
+      <c r="H93" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="I93" s="10" t="e"/>
+      <c r="J93" s="10" t="e"/>
+      <c r="K93" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="L93" s="10" t="e"/>
+      <c r="M93" s="10" t="e"/>
+      <c r="N93" s="9" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2836,22 +2860,22 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I94" s="10" t="e"/>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="L94" s="10" t="e"/>
       <c r="M94" s="10" t="e"/>
       <c r="N94" s="9" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2860,22 +2884,22 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I95" s="10" t="e"/>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="L95" s="10" t="e"/>
       <c r="M95" s="10" t="e"/>
       <c r="N95" s="9" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="A96" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B96" s="19" t="e"/>
       <c r="C96" s="19" t="e"/>
@@ -2884,22 +2908,22 @@
       <c r="F96" s="19" t="e"/>
       <c r="G96" s="19" t="e"/>
       <c r="H96" s="9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I96" s="10" t="e"/>
       <c r="J96" s="10" t="e"/>
       <c r="K96" s="9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L96" s="10" t="e"/>
       <c r="M96" s="10" t="e"/>
       <c r="N96" s="9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="A97" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B97" s="19" t="e"/>
       <c r="C97" s="19" t="e"/>
@@ -2908,78 +2932,78 @@
       <c r="F97" s="19" t="e"/>
       <c r="G97" s="19" t="e"/>
       <c r="H97" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I97" s="10" t="e"/>
+        <v>20</v>
+      </c>
+      <c r="I97" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J97" s="10" t="e"/>
       <c r="K97" s="9" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L97" s="10" t="e"/>
-      <c r="M97" s="10" t="e"/>
+      <c r="M97" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="N97" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A98" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="19" t="e"/>
-      <c r="C98" s="19" t="e"/>
-      <c r="D98" s="19" t="e"/>
-      <c r="E98" s="19" t="e"/>
-      <c r="F98" s="19" t="e"/>
-      <c r="G98" s="19" t="e"/>
-      <c r="H98" s="9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" ht="11" customHeight="true">
+      <c r="A98" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="16" t="e"/>
+      <c r="C98" s="16" t="e"/>
+      <c r="D98" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="16" t="e"/>
+      <c r="F98" s="16" t="e"/>
+      <c r="G98" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" s="10" t="e"/>
-      <c r="K98" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L98" s="10" t="e"/>
-      <c r="M98" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N98" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" ht="11" customHeight="true">
-      <c r="A99" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="16" t="e"/>
-      <c r="C99" s="16" t="e"/>
-      <c r="D99" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E99" s="16" t="e"/>
-      <c r="F99" s="16" t="e"/>
-      <c r="G99" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H99" s="17" t="n">
-        <v>161</v>
-      </c>
-      <c r="I99" s="18" t="e"/>
-      <c r="J99" s="18" t="e"/>
-      <c r="K99" s="17" t="n">
-        <v>161</v>
-      </c>
-      <c r="L99" s="18" t="e"/>
-      <c r="M99" s="18" t="e"/>
-      <c r="N99" s="17" t="n">
-        <v>161</v>
+      <c r="H98" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="I98" s="18" t="e"/>
+      <c r="J98" s="18" t="e"/>
+      <c r="K98" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="L98" s="18" t="e"/>
+      <c r="M98" s="18" t="e"/>
+      <c r="N98" s="17" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A99" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="19" t="e"/>
+      <c r="C99" s="19" t="e"/>
+      <c r="D99" s="19" t="e"/>
+      <c r="E99" s="19" t="e"/>
+      <c r="F99" s="19" t="e"/>
+      <c r="G99" s="19" t="e"/>
+      <c r="H99" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="I99" s="10" t="e"/>
+      <c r="J99" s="10" t="e"/>
+      <c r="K99" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="L99" s="10" t="e"/>
+      <c r="M99" s="10" t="e"/>
+      <c r="N99" s="9" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="A100" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B100" s="19" t="e"/>
       <c r="C100" s="19" t="e"/>
@@ -2988,22 +3012,22 @@
       <c r="F100" s="19" t="e"/>
       <c r="G100" s="19" t="e"/>
       <c r="H100" s="9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I100" s="10" t="e"/>
       <c r="J100" s="10" t="e"/>
       <c r="K100" s="9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L100" s="10" t="e"/>
       <c r="M100" s="10" t="e"/>
       <c r="N100" s="9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3012,22 +3036,22 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I101" s="10" t="e"/>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L101" s="10" t="e"/>
       <c r="M101" s="10" t="e"/>
       <c r="N101" s="9" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B102" s="19" t="e"/>
       <c r="C102" s="19" t="e"/>
@@ -3036,22 +3060,22 @@
       <c r="F102" s="19" t="e"/>
       <c r="G102" s="19" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I102" s="10" t="e"/>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L102" s="10" t="e"/>
       <c r="M102" s="10" t="e"/>
       <c r="N102" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="A103" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B103" s="19" t="e"/>
       <c r="C103" s="19" t="e"/>
@@ -3060,74 +3084,74 @@
       <c r="F103" s="19" t="e"/>
       <c r="G103" s="19" t="e"/>
       <c r="H103" s="9" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I103" s="10" t="e"/>
       <c r="J103" s="10" t="e"/>
       <c r="K103" s="9" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L103" s="10" t="e"/>
       <c r="M103" s="10" t="e"/>
       <c r="N103" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A104" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" s="19" t="e"/>
-      <c r="C104" s="19" t="e"/>
-      <c r="D104" s="19" t="e"/>
-      <c r="E104" s="19" t="e"/>
-      <c r="F104" s="19" t="e"/>
-      <c r="G104" s="19" t="e"/>
-      <c r="H104" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="I104" s="10" t="e"/>
-      <c r="J104" s="10" t="e"/>
-      <c r="K104" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="L104" s="10" t="e"/>
-      <c r="M104" s="10" t="e"/>
-      <c r="N104" s="9" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" ht="11" customHeight="true">
-      <c r="A105" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" s="16" t="e"/>
-      <c r="C105" s="16" t="e"/>
-      <c r="D105" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E105" s="16" t="e"/>
-      <c r="F105" s="16" t="e"/>
-      <c r="G105" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true">
+      <c r="A104" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="16" t="e"/>
+      <c r="C104" s="16" t="e"/>
+      <c r="D104" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E104" s="16" t="e"/>
+      <c r="F104" s="16" t="e"/>
+      <c r="G104" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H105" s="17" t="n">
-        <v>299</v>
-      </c>
-      <c r="I105" s="18" t="e"/>
-      <c r="J105" s="18" t="e"/>
-      <c r="K105" s="17" t="n">
-        <v>299</v>
-      </c>
-      <c r="L105" s="18" t="e"/>
-      <c r="M105" s="18" t="e"/>
-      <c r="N105" s="17" t="n">
-        <v>299</v>
+      <c r="H104" s="17" t="n">
+        <v>225</v>
+      </c>
+      <c r="I104" s="18" t="e"/>
+      <c r="J104" s="18" t="e"/>
+      <c r="K104" s="17" t="n">
+        <v>225</v>
+      </c>
+      <c r="L104" s="18" t="e"/>
+      <c r="M104" s="18" t="e"/>
+      <c r="N104" s="17" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A105" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="19" t="e"/>
+      <c r="C105" s="19" t="e"/>
+      <c r="D105" s="19" t="e"/>
+      <c r="E105" s="19" t="e"/>
+      <c r="F105" s="19" t="e"/>
+      <c r="G105" s="19" t="e"/>
+      <c r="H105" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="I105" s="10" t="e"/>
+      <c r="J105" s="10" t="e"/>
+      <c r="K105" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="L105" s="10" t="e"/>
+      <c r="M105" s="10" t="e"/>
+      <c r="N105" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B106" s="19" t="e"/>
       <c r="C106" s="19" t="e"/>
@@ -3136,22 +3160,22 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I106" s="10" t="e"/>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L106" s="10" t="e"/>
       <c r="M106" s="10" t="e"/>
       <c r="N106" s="9" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3160,22 +3184,22 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="I107" s="10" t="e"/>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="L107" s="10" t="e"/>
       <c r="M107" s="10" t="e"/>
       <c r="N107" s="9" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B108" s="19" t="e"/>
       <c r="C108" s="19" t="e"/>
@@ -3184,46 +3208,54 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I108" s="10" t="e"/>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L108" s="10" t="e"/>
       <c r="M108" s="10" t="e"/>
       <c r="N108" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A109" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" s="19" t="e"/>
-      <c r="C109" s="19" t="e"/>
-      <c r="D109" s="19" t="e"/>
-      <c r="E109" s="19" t="e"/>
-      <c r="F109" s="19" t="e"/>
-      <c r="G109" s="19" t="e"/>
-      <c r="H109" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I109" s="10" t="e"/>
-      <c r="J109" s="10" t="e"/>
-      <c r="K109" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L109" s="10" t="e"/>
-      <c r="M109" s="10" t="e"/>
-      <c r="N109" s="9" t="n">
-        <v>100</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="true">
+      <c r="A109" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="16" t="e"/>
+      <c r="C109" s="16" t="e"/>
+      <c r="D109" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109" s="16" t="e"/>
+      <c r="F109" s="16" t="e"/>
+      <c r="G109" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="17" t="n">
+        <v>232</v>
+      </c>
+      <c r="I109" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" s="18" t="e"/>
+      <c r="K109" s="17" t="n">
+        <v>229</v>
+      </c>
+      <c r="L109" s="18" t="e"/>
+      <c r="M109" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" s="17" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3232,54 +3264,46 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="I110" s="10" t="e"/>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="L110" s="10" t="e"/>
       <c r="M110" s="10" t="e"/>
       <c r="N110" s="9" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true">
-      <c r="A111" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="16" t="e"/>
-      <c r="C111" s="16" t="e"/>
-      <c r="D111" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E111" s="16" t="e"/>
-      <c r="F111" s="16" t="e"/>
-      <c r="G111" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" s="17" t="n">
-        <v>280</v>
-      </c>
-      <c r="I111" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J111" s="18" t="e"/>
-      <c r="K111" s="17" t="n">
-        <v>278</v>
-      </c>
-      <c r="L111" s="18" t="e"/>
-      <c r="M111" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N111" s="17" t="n">
-        <v>278</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A111" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" s="19" t="e"/>
+      <c r="C111" s="19" t="e"/>
+      <c r="D111" s="19" t="e"/>
+      <c r="E111" s="19" t="e"/>
+      <c r="F111" s="19" t="e"/>
+      <c r="G111" s="19" t="e"/>
+      <c r="H111" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="I111" s="10" t="e"/>
+      <c r="J111" s="10" t="e"/>
+      <c r="K111" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="L111" s="10" t="e"/>
+      <c r="M111" s="10" t="e"/>
+      <c r="N111" s="9" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3288,22 +3312,26 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>60</v>
-      </c>
-      <c r="I112" s="10" t="e"/>
+        <v>8</v>
+      </c>
+      <c r="I112" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L112" s="10" t="e"/>
-      <c r="M112" s="10" t="e"/>
+      <c r="M112" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N112" s="9" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="A113" s="19" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B113" s="19" t="e"/>
       <c r="C113" s="19" t="e"/>
@@ -3312,22 +3340,22 @@
       <c r="F113" s="19" t="e"/>
       <c r="G113" s="19" t="e"/>
       <c r="H113" s="9" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I113" s="10" t="e"/>
       <c r="J113" s="10" t="e"/>
       <c r="K113" s="9" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="L113" s="10" t="e"/>
       <c r="M113" s="10" t="e"/>
       <c r="N113" s="9" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3336,46 +3364,50 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I114" s="10" t="e"/>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="L114" s="10" t="e"/>
       <c r="M114" s="10" t="e"/>
       <c r="N114" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A115" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" s="19" t="e"/>
-      <c r="C115" s="19" t="e"/>
-      <c r="D115" s="19" t="e"/>
-      <c r="E115" s="19" t="e"/>
-      <c r="F115" s="19" t="e"/>
-      <c r="G115" s="19" t="e"/>
-      <c r="H115" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I115" s="10" t="e"/>
-      <c r="J115" s="10" t="e"/>
-      <c r="K115" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L115" s="10" t="e"/>
-      <c r="M115" s="10" t="e"/>
-      <c r="N115" s="9" t="n">
-        <v>100</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true">
+      <c r="A115" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" s="16" t="e"/>
+      <c r="C115" s="16" t="e"/>
+      <c r="D115" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E115" s="16" t="e"/>
+      <c r="F115" s="16" t="e"/>
+      <c r="G115" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I115" s="18" t="e"/>
+      <c r="J115" s="18" t="e"/>
+      <c r="K115" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L115" s="18" t="e"/>
+      <c r="M115" s="18" t="e"/>
+      <c r="N115" s="17" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3384,54 +3416,46 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I116" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I116" s="10" t="e"/>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L116" s="10" t="e"/>
-      <c r="M116" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M116" s="10" t="e"/>
       <c r="N116" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true">
-      <c r="A117" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B117" s="16" t="e"/>
-      <c r="C117" s="16" t="e"/>
-      <c r="D117" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E117" s="16" t="e"/>
-      <c r="F117" s="16" t="e"/>
-      <c r="G117" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="I117" s="18" t="e"/>
-      <c r="J117" s="18" t="e"/>
-      <c r="K117" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="L117" s="18" t="e"/>
-      <c r="M117" s="18" t="e"/>
-      <c r="N117" s="17" t="n">
-        <v>80</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A117" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="19" t="e"/>
+      <c r="C117" s="19" t="e"/>
+      <c r="D117" s="19" t="e"/>
+      <c r="E117" s="19" t="e"/>
+      <c r="F117" s="19" t="e"/>
+      <c r="G117" s="19" t="e"/>
+      <c r="H117" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="I117" s="10" t="e"/>
+      <c r="J117" s="10" t="e"/>
+      <c r="K117" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L117" s="10" t="e"/>
+      <c r="M117" s="10" t="e"/>
+      <c r="N117" s="9" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="A118" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B118" s="19" t="e"/>
       <c r="C118" s="19" t="e"/>
@@ -3440,22 +3464,22 @@
       <c r="F118" s="19" t="e"/>
       <c r="G118" s="19" t="e"/>
       <c r="H118" s="9" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I118" s="10" t="e"/>
       <c r="J118" s="10" t="e"/>
       <c r="K118" s="9" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="L118" s="10" t="e"/>
       <c r="M118" s="10" t="e"/>
       <c r="N118" s="9" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="A119" s="19" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B119" s="19" t="e"/>
       <c r="C119" s="19" t="e"/>
@@ -3464,46 +3488,54 @@
       <c r="F119" s="19" t="e"/>
       <c r="G119" s="19" t="e"/>
       <c r="H119" s="9" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I119" s="10" t="e"/>
       <c r="J119" s="10" t="e"/>
       <c r="K119" s="9" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L119" s="10" t="e"/>
       <c r="M119" s="10" t="e"/>
       <c r="N119" s="9" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A120" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B120" s="19" t="e"/>
-      <c r="C120" s="19" t="e"/>
-      <c r="D120" s="19" t="e"/>
-      <c r="E120" s="19" t="e"/>
-      <c r="F120" s="19" t="e"/>
-      <c r="G120" s="19" t="e"/>
-      <c r="H120" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I120" s="10" t="e"/>
-      <c r="J120" s="10" t="e"/>
-      <c r="K120" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L120" s="10" t="e"/>
-      <c r="M120" s="10" t="e"/>
-      <c r="N120" s="9" t="n">
-        <v>10</v>
+    </row>
+    <row r="120" ht="11" customHeight="true">
+      <c r="A120" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B120" s="16" t="e"/>
+      <c r="C120" s="16" t="e"/>
+      <c r="D120" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E120" s="16" t="e"/>
+      <c r="F120" s="16" t="e"/>
+      <c r="G120" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="17" t="n">
+        <v>174</v>
+      </c>
+      <c r="I120" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J120" s="18" t="e"/>
+      <c r="K120" s="17" t="n">
+        <v>166</v>
+      </c>
+      <c r="L120" s="18" t="e"/>
+      <c r="M120" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N120" s="17" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3512,50 +3544,46 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I121" s="10" t="e"/>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="L121" s="10" t="e"/>
       <c r="M121" s="10" t="e"/>
       <c r="N121" s="9" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" ht="11" customHeight="true">
-      <c r="A122" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B122" s="16" t="e"/>
-      <c r="C122" s="16" t="e"/>
-      <c r="D122" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E122" s="16" t="e"/>
-      <c r="F122" s="16" t="e"/>
-      <c r="G122" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H122" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" s="18" t="e"/>
-      <c r="J122" s="18" t="e"/>
-      <c r="K122" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L122" s="18" t="e"/>
-      <c r="M122" s="18" t="e"/>
-      <c r="N122" s="17" t="n">
-        <v>2</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A122" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122" s="19" t="e"/>
+      <c r="C122" s="19" t="e"/>
+      <c r="D122" s="19" t="e"/>
+      <c r="E122" s="19" t="e"/>
+      <c r="F122" s="19" t="e"/>
+      <c r="G122" s="19" t="e"/>
+      <c r="H122" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="I122" s="10" t="e"/>
+      <c r="J122" s="10" t="e"/>
+      <c r="K122" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="L122" s="10" t="e"/>
+      <c r="M122" s="10" t="e"/>
+      <c r="N122" s="9" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="A123" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B123" s="19" t="e"/>
       <c r="C123" s="19" t="e"/>
@@ -3564,22 +3592,22 @@
       <c r="F123" s="19" t="e"/>
       <c r="G123" s="19" t="e"/>
       <c r="H123" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I123" s="10" t="e"/>
       <c r="J123" s="10" t="e"/>
       <c r="K123" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L123" s="10" t="e"/>
       <c r="M123" s="10" t="e"/>
       <c r="N123" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="A124" s="19" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B124" s="19" t="e"/>
       <c r="C124" s="19" t="e"/>
@@ -3588,27 +3616,31 @@
       <c r="F124" s="19" t="e"/>
       <c r="G124" s="19" t="e"/>
       <c r="H124" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" s="10" t="e"/>
+        <v>30</v>
+      </c>
+      <c r="I124" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J124" s="10" t="e"/>
       <c r="K124" s="9" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L124" s="10" t="e"/>
-      <c r="M124" s="10" t="e"/>
+      <c r="M124" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="N124" s="9" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true">
       <c r="A125" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B125" s="16" t="e"/>
       <c r="C125" s="16" t="e"/>
       <c r="D125" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E125" s="16" t="e"/>
       <c r="F125" s="16" t="e"/>
@@ -3616,21 +3648,21 @@
         <v>24</v>
       </c>
       <c r="H125" s="17" t="n">
-        <v>371</v>
+        <v>188</v>
       </c>
       <c r="I125" s="17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J125" s="18" t="e"/>
       <c r="K125" s="17" t="n">
-        <v>366</v>
+        <v>182</v>
       </c>
       <c r="L125" s="18" t="e"/>
       <c r="M125" s="17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N125" s="17" t="n">
-        <v>366</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
@@ -3644,22 +3676,22 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="I126" s="10" t="e"/>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="L126" s="10" t="e"/>
       <c r="M126" s="10" t="e"/>
       <c r="N126" s="9" t="n">
-        <v>116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="A127" s="19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B127" s="19" t="e"/>
       <c r="C127" s="19" t="e"/>
@@ -3668,17 +3700,17 @@
       <c r="F127" s="19" t="e"/>
       <c r="G127" s="19" t="e"/>
       <c r="H127" s="9" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="I127" s="10" t="e"/>
       <c r="J127" s="10" t="e"/>
       <c r="K127" s="9" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="L127" s="10" t="e"/>
       <c r="M127" s="10" t="e"/>
       <c r="N127" s="9" t="n">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
@@ -3692,26 +3724,22 @@
       <c r="F128" s="19" t="e"/>
       <c r="G128" s="19" t="e"/>
       <c r="H128" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="I128" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I128" s="10" t="e"/>
       <c r="J128" s="10" t="e"/>
       <c r="K128" s="9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L128" s="10" t="e"/>
-      <c r="M128" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M128" s="10" t="e"/>
       <c r="N128" s="9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="A129" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B129" s="19" t="e"/>
       <c r="C129" s="19" t="e"/>
@@ -3720,130 +3748,130 @@
       <c r="F129" s="19" t="e"/>
       <c r="G129" s="19" t="e"/>
       <c r="H129" s="9" t="n">
-        <v>70</v>
-      </c>
-      <c r="I129" s="10" t="e"/>
+        <v>36</v>
+      </c>
+      <c r="I129" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J129" s="10" t="e"/>
       <c r="K129" s="9" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="L129" s="10" t="e"/>
-      <c r="M129" s="10" t="e"/>
+      <c r="M129" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N129" s="9" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A130" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" s="19" t="e"/>
-      <c r="C130" s="19" t="e"/>
-      <c r="D130" s="19" t="e"/>
-      <c r="E130" s="19" t="e"/>
-      <c r="F130" s="19" t="e"/>
-      <c r="G130" s="19" t="e"/>
-      <c r="H130" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I130" s="10" t="e"/>
-      <c r="J130" s="10" t="e"/>
-      <c r="K130" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L130" s="10" t="e"/>
-      <c r="M130" s="10" t="e"/>
-      <c r="N130" s="9" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" ht="11" customHeight="true">
-      <c r="A131" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B131" s="16" t="e"/>
-      <c r="C131" s="16" t="e"/>
-      <c r="D131" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E131" s="16" t="e"/>
-      <c r="F131" s="16" t="e"/>
-      <c r="G131" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true">
+      <c r="A130" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" s="16" t="e"/>
+      <c r="C130" s="16" t="e"/>
+      <c r="D130" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="16" t="e"/>
+      <c r="F130" s="16" t="e"/>
+      <c r="G130" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H131" s="17" t="n">
+      <c r="H130" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I131" s="18" t="e"/>
-      <c r="J131" s="18" t="e"/>
-      <c r="K131" s="17" t="n">
+      <c r="I130" s="18" t="e"/>
+      <c r="J130" s="18" t="e"/>
+      <c r="K130" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="L131" s="18" t="e"/>
-      <c r="M131" s="18" t="e"/>
-      <c r="N131" s="17" t="n">
+      <c r="L130" s="18" t="e"/>
+      <c r="M130" s="18" t="e"/>
+      <c r="N130" s="17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A132" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B132" s="19" t="e"/>
-      <c r="C132" s="19" t="e"/>
-      <c r="D132" s="19" t="e"/>
-      <c r="E132" s="19" t="e"/>
-      <c r="F132" s="19" t="e"/>
-      <c r="G132" s="19" t="e"/>
-      <c r="H132" s="9" t="n">
+    <row r="131" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A131" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="19" t="e"/>
+      <c r="C131" s="19" t="e"/>
+      <c r="D131" s="19" t="e"/>
+      <c r="E131" s="19" t="e"/>
+      <c r="F131" s="19" t="e"/>
+      <c r="G131" s="19" t="e"/>
+      <c r="H131" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I132" s="10" t="e"/>
-      <c r="J132" s="10" t="e"/>
-      <c r="K132" s="9" t="n">
+      <c r="I131" s="10" t="e"/>
+      <c r="J131" s="10" t="e"/>
+      <c r="K131" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L132" s="10" t="e"/>
-      <c r="M132" s="10" t="e"/>
-      <c r="N132" s="9" t="n">
+      <c r="L131" s="10" t="e"/>
+      <c r="M131" s="10" t="e"/>
+      <c r="N131" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="11" customHeight="true">
-      <c r="A133" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B133" s="16" t="e"/>
-      <c r="C133" s="16" t="e"/>
-      <c r="D133" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E133" s="16" t="e"/>
-      <c r="F133" s="16" t="e"/>
-      <c r="G133" s="16" t="s">
+    <row r="132" ht="11" customHeight="true">
+      <c r="A132" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="16" t="e"/>
+      <c r="C132" s="16" t="e"/>
+      <c r="D132" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E132" s="16" t="e"/>
+      <c r="F132" s="16" t="e"/>
+      <c r="G132" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H133" s="17" t="n">
-        <v>54</v>
-      </c>
-      <c r="I133" s="17" t="n">
+      <c r="H132" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="I132" s="18" t="e"/>
+      <c r="J132" s="18" t="e"/>
+      <c r="K132" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L132" s="18" t="e"/>
+      <c r="M132" s="18" t="e"/>
+      <c r="N132" s="17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A133" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" s="19" t="e"/>
+      <c r="C133" s="19" t="e"/>
+      <c r="D133" s="19" t="e"/>
+      <c r="E133" s="19" t="e"/>
+      <c r="F133" s="19" t="e"/>
+      <c r="G133" s="19" t="e"/>
+      <c r="H133" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="J133" s="18" t="e"/>
-      <c r="K133" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="L133" s="18" t="e"/>
-      <c r="M133" s="17" t="n">
+      <c r="I133" s="10" t="e"/>
+      <c r="J133" s="10" t="e"/>
+      <c r="K133" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="N133" s="17" t="n">
-        <v>53</v>
+      <c r="L133" s="10" t="e"/>
+      <c r="M133" s="10" t="e"/>
+      <c r="N133" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="A134" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B134" s="19" t="e"/>
       <c r="C134" s="19" t="e"/>
@@ -3852,22 +3880,22 @@
       <c r="F134" s="19" t="e"/>
       <c r="G134" s="19" t="e"/>
       <c r="H134" s="9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I134" s="10" t="e"/>
       <c r="J134" s="10" t="e"/>
       <c r="K134" s="9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L134" s="10" t="e"/>
       <c r="M134" s="10" t="e"/>
       <c r="N134" s="9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="A135" s="19" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B135" s="19" t="e"/>
       <c r="C135" s="19" t="e"/>
@@ -3876,22 +3904,22 @@
       <c r="F135" s="19" t="e"/>
       <c r="G135" s="19" t="e"/>
       <c r="H135" s="9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I135" s="10" t="e"/>
       <c r="J135" s="10" t="e"/>
       <c r="K135" s="9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L135" s="10" t="e"/>
       <c r="M135" s="10" t="e"/>
       <c r="N135" s="9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="A136" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B136" s="19" t="e"/>
       <c r="C136" s="19" t="e"/>
@@ -3900,78 +3928,78 @@
       <c r="F136" s="19" t="e"/>
       <c r="G136" s="19" t="e"/>
       <c r="H136" s="9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I136" s="10" t="e"/>
       <c r="J136" s="10" t="e"/>
       <c r="K136" s="9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L136" s="10" t="e"/>
       <c r="M136" s="10" t="e"/>
       <c r="N136" s="9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A137" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" ht="11" customHeight="true">
+      <c r="A137" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B137" s="16" t="e"/>
+      <c r="C137" s="16" t="e"/>
+      <c r="D137" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E137" s="16" t="e"/>
+      <c r="F137" s="16" t="e"/>
+      <c r="G137" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H137" s="17" t="n">
+        <v>103</v>
+      </c>
+      <c r="I137" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J137" s="18" t="e"/>
+      <c r="K137" s="17" t="n">
+        <v>83</v>
+      </c>
+      <c r="L137" s="18" t="e"/>
+      <c r="M137" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N137" s="17" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A138" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="19" t="e"/>
+      <c r="C138" s="19" t="e"/>
+      <c r="D138" s="19" t="e"/>
+      <c r="E138" s="19" t="e"/>
+      <c r="F138" s="19" t="e"/>
+      <c r="G138" s="19" t="e"/>
+      <c r="H138" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B137" s="19" t="e"/>
-      <c r="C137" s="19" t="e"/>
-      <c r="D137" s="19" t="e"/>
-      <c r="E137" s="19" t="e"/>
-      <c r="F137" s="19" t="e"/>
-      <c r="G137" s="19" t="e"/>
-      <c r="H137" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I137" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" s="10" t="e"/>
-      <c r="K137" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L137" s="10" t="e"/>
-      <c r="M137" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true">
-      <c r="A138" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B138" s="16" t="e"/>
-      <c r="C138" s="16" t="e"/>
-      <c r="D138" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E138" s="16" t="e"/>
-      <c r="F138" s="16" t="e"/>
-      <c r="G138" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H138" s="17" t="n">
-        <v>133</v>
-      </c>
-      <c r="I138" s="18" t="e"/>
-      <c r="J138" s="18" t="e"/>
-      <c r="K138" s="17" t="n">
-        <v>133</v>
-      </c>
-      <c r="L138" s="18" t="e"/>
-      <c r="M138" s="18" t="e"/>
-      <c r="N138" s="17" t="n">
-        <v>133</v>
+      <c r="I138" s="10" t="e"/>
+      <c r="J138" s="10" t="e"/>
+      <c r="K138" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L138" s="10" t="e"/>
+      <c r="M138" s="10" t="e"/>
+      <c r="N138" s="9" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="A139" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B139" s="19" t="e"/>
       <c r="C139" s="19" t="e"/>
@@ -3980,22 +4008,22 @@
       <c r="F139" s="19" t="e"/>
       <c r="G139" s="19" t="e"/>
       <c r="H139" s="9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I139" s="10" t="e"/>
       <c r="J139" s="10" t="e"/>
       <c r="K139" s="9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L139" s="10" t="e"/>
       <c r="M139" s="10" t="e"/>
       <c r="N139" s="9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="A140" s="19" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B140" s="19" t="e"/>
       <c r="C140" s="19" t="e"/>
@@ -4004,22 +4032,26 @@
       <c r="F140" s="19" t="e"/>
       <c r="G140" s="19" t="e"/>
       <c r="H140" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I140" s="10" t="e"/>
+        <v>8</v>
+      </c>
+      <c r="I140" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J140" s="10" t="e"/>
       <c r="K140" s="9" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="L140" s="10" t="e"/>
-      <c r="M140" s="10" t="e"/>
+      <c r="M140" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N140" s="9" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="A141" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B141" s="19" t="e"/>
       <c r="C141" s="19" t="e"/>
@@ -4028,93 +4060,49 @@
       <c r="F141" s="19" t="e"/>
       <c r="G141" s="19" t="e"/>
       <c r="H141" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I141" s="10" t="e"/>
+        <v>33</v>
+      </c>
+      <c r="I141" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="J141" s="10" t="e"/>
       <c r="K141" s="9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L141" s="10" t="e"/>
-      <c r="M141" s="10" t="e"/>
+      <c r="M141" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="N141" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A142" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B142" s="19" t="e"/>
-      <c r="C142" s="19" t="e"/>
-      <c r="D142" s="19" t="e"/>
-      <c r="E142" s="19" t="e"/>
-      <c r="F142" s="19" t="e"/>
-      <c r="G142" s="19" t="e"/>
-      <c r="H142" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I142" s="10" t="e"/>
-      <c r="J142" s="10" t="e"/>
-      <c r="K142" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L142" s="10" t="e"/>
-      <c r="M142" s="10" t="e"/>
-      <c r="N142" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A143" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B143" s="19" t="e"/>
-      <c r="C143" s="19" t="e"/>
-      <c r="D143" s="19" t="e"/>
-      <c r="E143" s="19" t="e"/>
-      <c r="F143" s="19" t="e"/>
-      <c r="G143" s="19" t="e"/>
-      <c r="H143" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I143" s="10" t="e"/>
-      <c r="J143" s="10" t="e"/>
-      <c r="K143" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L143" s="10" t="e"/>
-      <c r="M143" s="10" t="e"/>
-      <c r="N143" s="9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" ht="13" customHeight="true">
-      <c r="A144" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" ht="13" customHeight="true">
+      <c r="A142" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B144" s="12" t="e"/>
-      <c r="C144" s="12" t="e"/>
-      <c r="D144" s="12" t="e"/>
-      <c r="E144" s="12" t="e"/>
-      <c r="F144" s="12" t="e"/>
-      <c r="G144" s="12" t="e"/>
-      <c r="H144" s="13" t="n">
-        <v>3234</v>
-      </c>
-      <c r="I144" s="14" t="n">
-        <v>25</v>
-      </c>
-      <c r="J144" s="15" t="e"/>
-      <c r="K144" s="13" t="n">
-        <v>3209</v>
-      </c>
-      <c r="L144" s="15" t="e"/>
-      <c r="M144" s="14" t="n">
-        <v>25</v>
-      </c>
-      <c r="N144" s="13" t="n">
-        <v>3209</v>
+      <c r="B142" s="12" t="e"/>
+      <c r="C142" s="12" t="e"/>
+      <c r="D142" s="12" t="e"/>
+      <c r="E142" s="12" t="e"/>
+      <c r="F142" s="12" t="e"/>
+      <c r="G142" s="12" t="e"/>
+      <c r="H142" s="13" t="n">
+        <v>2571</v>
+      </c>
+      <c r="I142" s="14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J142" s="15" t="e"/>
+      <c r="K142" s="13" t="n">
+        <v>2490</v>
+      </c>
+      <c r="L142" s="15" t="e"/>
+      <c r="M142" s="14" t="n">
+        <v>81</v>
+      </c>
+      <c r="N142" s="13" t="n">
+        <v>2490</v>
       </c>
     </row>
   </sheetData>
@@ -4165,69 +4153,71 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:G53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
     <mergeCell ref="A57:G57"/>
     <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
     <mergeCell ref="A72:G72"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:F76"/>
     <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:F79"/>
     <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
     <mergeCell ref="A85:G85"/>
@@ -4238,43 +4228,43 @@
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A93:G93"/>
     <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
     <mergeCell ref="A96:G96"/>
     <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A98:G98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="A99:G99"/>
     <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A105:G105"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:F109"/>
     <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="A111:G111"/>
     <mergeCell ref="A112:G112"/>
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="D115:F115"/>
     <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="A117:G117"/>
     <mergeCell ref="A118:G118"/>
     <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A120:G120"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="D120:F120"/>
     <mergeCell ref="A121:G121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A122:G122"/>
     <mergeCell ref="A123:G123"/>
     <mergeCell ref="A124:G124"/>
     <mergeCell ref="A125:C125"/>
@@ -4283,24 +4273,22 @@
     <mergeCell ref="A127:G127"/>
     <mergeCell ref="A128:G128"/>
     <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="A133:G133"/>
     <mergeCell ref="A134:G134"/>
     <mergeCell ref="A135:G135"/>
     <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="A138:G138"/>
     <mergeCell ref="A139:G139"/>
     <mergeCell ref="A140:G140"/>
     <mergeCell ref="A141:G141"/>
     <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A144:G144"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -520,7 +520,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N142"/>
+  <dimension ref="N148"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -656,21 +656,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L9" s="10" t="e"/>
       <c r="M9" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -686,15 +686,19 @@
       <c r="H10" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="I10" s="10" t="e"/>
+      <c r="I10" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J10" s="10" t="e"/>
       <c r="K10" s="9" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L10" s="10" t="e"/>
-      <c r="M10" s="10" t="e"/>
+      <c r="M10" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N10" s="9" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -707,22 +711,22 @@
       <c r="E11" s="8" t="e"/>
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
-      <c r="H11" s="9" t="n">
-        <v>935</v>
+      <c r="H11" s="11" t="n">
+        <v>1099</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J11" s="10" t="e"/>
-      <c r="K11" s="9" t="n">
-        <v>899</v>
+      <c r="K11" s="11" t="n">
+        <v>1024</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="N11" s="9" t="n">
-        <v>899</v>
+        <v>75</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>1024</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -736,21 +740,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1348</v>
+        <v>1705</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>43</v>
+        <v>437</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1305</v>
+        <v>1268</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>43</v>
+        <v>437</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1305</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -764,21 +768,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2571</v>
+        <v>3090</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2490</v>
+        <v>2572</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2490</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -1054,15 +1058,19 @@
       <c r="H24" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="I24" s="18" t="e"/>
+      <c r="I24" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="18" t="e"/>
       <c r="K24" s="17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L24" s="18" t="e"/>
-      <c r="M24" s="18" t="e"/>
+      <c r="M24" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N24" s="17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true" outlineLevel="1">
@@ -1078,15 +1086,19 @@
       <c r="H25" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="I25" s="10" t="e"/>
+      <c r="I25" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J25" s="10" t="e"/>
       <c r="K25" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" s="10" t="e"/>
-      <c r="M25" s="10" t="e"/>
+      <c r="M25" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N25" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="1">
@@ -1152,21 +1164,21 @@
         <v>24</v>
       </c>
       <c r="H28" s="17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I28" s="17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" s="18" t="e"/>
       <c r="K28" s="17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L28" s="18" t="e"/>
       <c r="M28" s="17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" s="17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="1">
@@ -1228,21 +1240,21 @@
       <c r="F31" s="19" t="e"/>
       <c r="G31" s="19" t="e"/>
       <c r="H31" s="9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" s="10" t="e"/>
       <c r="K31" s="9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L31" s="10" t="e"/>
       <c r="M31" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true">
@@ -1494,20 +1506,24 @@
       <c r="H41" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="I41" s="18" t="e"/>
+      <c r="I41" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="J41" s="18" t="e"/>
       <c r="K41" s="17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L41" s="18" t="e"/>
-      <c r="M41" s="18" t="e"/>
+      <c r="M41" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="N41" s="17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true" outlineLevel="1">
       <c r="A42" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B42" s="19" t="e"/>
       <c r="C42" s="19" t="e"/>
@@ -1516,74 +1532,78 @@
       <c r="F42" s="19" t="e"/>
       <c r="G42" s="19" t="e"/>
       <c r="H42" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I42" s="10" t="e"/>
+        <v>5</v>
+      </c>
+      <c r="I42" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J42" s="10" t="e"/>
       <c r="K42" s="9" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L42" s="10" t="e"/>
-      <c r="M42" s="10" t="e"/>
+      <c r="M42" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N42" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true">
-      <c r="A43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="19" t="e"/>
+      <c r="C43" s="19" t="e"/>
+      <c r="D43" s="19" t="e"/>
+      <c r="E43" s="19" t="e"/>
+      <c r="F43" s="19" t="e"/>
+      <c r="G43" s="19" t="e"/>
+      <c r="H43" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I43" s="10" t="e"/>
+      <c r="J43" s="10" t="e"/>
+      <c r="K43" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L43" s="10" t="e"/>
+      <c r="M43" s="10" t="e"/>
+      <c r="N43" s="9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" ht="22" customHeight="true">
+      <c r="A44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="16" t="e"/>
-      <c r="C43" s="16" t="e"/>
-      <c r="D43" s="16" t="s">
+      <c r="B44" s="16" t="e"/>
+      <c r="C44" s="16" t="e"/>
+      <c r="D44" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="16" t="e"/>
-      <c r="F43" s="16" t="e"/>
-      <c r="G43" s="16" t="s">
+      <c r="E44" s="16" t="e"/>
+      <c r="F44" s="16" t="e"/>
+      <c r="G44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="17" t="n">
+      <c r="H44" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="I43" s="18" t="e"/>
-      <c r="J43" s="18" t="e"/>
-      <c r="K43" s="17" t="n">
+      <c r="I44" s="18" t="e"/>
+      <c r="J44" s="18" t="e"/>
+      <c r="K44" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="L43" s="18" t="e"/>
-      <c r="M43" s="18" t="e"/>
-      <c r="N43" s="17" t="n">
+      <c r="L44" s="18" t="e"/>
+      <c r="M44" s="18" t="e"/>
+      <c r="N44" s="17" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="44" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="19" t="e"/>
-      <c r="C44" s="19" t="e"/>
-      <c r="D44" s="19" t="e"/>
-      <c r="E44" s="19" t="e"/>
-      <c r="F44" s="19" t="e"/>
-      <c r="G44" s="19" t="e"/>
-      <c r="H44" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I44" s="10" t="e"/>
-      <c r="J44" s="10" t="e"/>
-      <c r="K44" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L44" s="10" t="e"/>
-      <c r="M44" s="10" t="e"/>
-      <c r="N44" s="9" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="A45" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B45" s="19" t="e"/>
       <c r="C45" s="19" t="e"/>
@@ -1592,234 +1612,230 @@
       <c r="F45" s="19" t="e"/>
       <c r="G45" s="19" t="e"/>
       <c r="H45" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I45" s="10" t="e"/>
       <c r="J45" s="10" t="e"/>
       <c r="K45" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L45" s="10" t="e"/>
       <c r="M45" s="10" t="e"/>
       <c r="N45" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A46" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="19" t="e"/>
+      <c r="C46" s="19" t="e"/>
+      <c r="D46" s="19" t="e"/>
+      <c r="E46" s="19" t="e"/>
+      <c r="F46" s="19" t="e"/>
+      <c r="G46" s="19" t="e"/>
+      <c r="H46" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" ht="22" customHeight="true">
-      <c r="A46" s="16" t="s">
+      <c r="I46" s="10" t="e"/>
+      <c r="J46" s="10" t="e"/>
+      <c r="K46" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L46" s="10" t="e"/>
+      <c r="M46" s="10" t="e"/>
+      <c r="N46" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true">
+      <c r="A47" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="16" t="e"/>
-      <c r="C46" s="16" t="e"/>
-      <c r="D46" s="16" t="s">
+      <c r="B47" s="16" t="e"/>
+      <c r="C47" s="16" t="e"/>
+      <c r="D47" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="16" t="e"/>
-      <c r="F46" s="16" t="e"/>
-      <c r="G46" s="16" t="s">
+      <c r="E47" s="16" t="e"/>
+      <c r="F47" s="16" t="e"/>
+      <c r="G47" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="17" t="n">
+      <c r="H47" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="I46" s="18" t="e"/>
-      <c r="J46" s="18" t="e"/>
-      <c r="K46" s="17" t="n">
+      <c r="I47" s="18" t="e"/>
+      <c r="J47" s="18" t="e"/>
+      <c r="K47" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="L46" s="18" t="e"/>
-      <c r="M46" s="18" t="e"/>
-      <c r="N46" s="17" t="n">
+      <c r="L47" s="18" t="e"/>
+      <c r="M47" s="18" t="e"/>
+      <c r="N47" s="17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="47" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A47" s="19" t="s">
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A48" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="19" t="e"/>
-      <c r="C47" s="19" t="e"/>
-      <c r="D47" s="19" t="e"/>
-      <c r="E47" s="19" t="e"/>
-      <c r="F47" s="19" t="e"/>
-      <c r="G47" s="19" t="e"/>
-      <c r="H47" s="9" t="n">
+      <c r="B48" s="19" t="e"/>
+      <c r="C48" s="19" t="e"/>
+      <c r="D48" s="19" t="e"/>
+      <c r="E48" s="19" t="e"/>
+      <c r="F48" s="19" t="e"/>
+      <c r="G48" s="19" t="e"/>
+      <c r="H48" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I47" s="10" t="e"/>
-      <c r="J47" s="10" t="e"/>
-      <c r="K47" s="9" t="n">
+      <c r="I48" s="10" t="e"/>
+      <c r="J48" s="10" t="e"/>
+      <c r="K48" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L47" s="10" t="e"/>
-      <c r="M47" s="10" t="e"/>
-      <c r="N47" s="9" t="n">
+      <c r="L48" s="10" t="e"/>
+      <c r="M48" s="10" t="e"/>
+      <c r="N48" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="48" ht="11" customHeight="true">
-      <c r="A48" s="16" t="s">
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="16" t="e"/>
-      <c r="C48" s="16" t="e"/>
-      <c r="D48" s="16" t="s">
+      <c r="B49" s="16" t="e"/>
+      <c r="C49" s="16" t="e"/>
+      <c r="D49" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="16" t="e"/>
-      <c r="F48" s="16" t="e"/>
-      <c r="G48" s="16" t="s">
+      <c r="E49" s="16" t="e"/>
+      <c r="F49" s="16" t="e"/>
+      <c r="G49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="17" t="n">
+      <c r="H49" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="I48" s="18" t="e"/>
-      <c r="J48" s="18" t="e"/>
-      <c r="K48" s="17" t="n">
+      <c r="I49" s="18" t="e"/>
+      <c r="J49" s="18" t="e"/>
+      <c r="K49" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="L48" s="18" t="e"/>
-      <c r="M48" s="18" t="e"/>
-      <c r="N48" s="17" t="n">
+      <c r="L49" s="18" t="e"/>
+      <c r="M49" s="18" t="e"/>
+      <c r="N49" s="17" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A49" s="19" t="s">
+    <row r="50" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A50" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="19" t="e"/>
-      <c r="C49" s="19" t="e"/>
-      <c r="D49" s="19" t="e"/>
-      <c r="E49" s="19" t="e"/>
-      <c r="F49" s="19" t="e"/>
-      <c r="G49" s="19" t="e"/>
-      <c r="H49" s="9" t="n">
+      <c r="B50" s="19" t="e"/>
+      <c r="C50" s="19" t="e"/>
+      <c r="D50" s="19" t="e"/>
+      <c r="E50" s="19" t="e"/>
+      <c r="F50" s="19" t="e"/>
+      <c r="G50" s="19" t="e"/>
+      <c r="H50" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="I49" s="10" t="e"/>
-      <c r="J49" s="10" t="e"/>
-      <c r="K49" s="9" t="n">
+      <c r="I50" s="10" t="e"/>
+      <c r="J50" s="10" t="e"/>
+      <c r="K50" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="L49" s="10" t="e"/>
-      <c r="M49" s="10" t="e"/>
-      <c r="N49" s="9" t="n">
+      <c r="L50" s="10" t="e"/>
+      <c r="M50" s="10" t="e"/>
+      <c r="N50" s="9" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="50" ht="11" customHeight="true">
-      <c r="A50" s="16" t="s">
+    <row r="51" ht="11" customHeight="true">
+      <c r="A51" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="16" t="e"/>
-      <c r="C50" s="16" t="e"/>
-      <c r="D50" s="16" t="s">
+      <c r="B51" s="16" t="e"/>
+      <c r="C51" s="16" t="e"/>
+      <c r="D51" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="16" t="e"/>
-      <c r="F50" s="16" t="e"/>
-      <c r="G50" s="16" t="s">
+      <c r="E51" s="16" t="e"/>
+      <c r="F51" s="16" t="e"/>
+      <c r="G51" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="17" t="n">
+      <c r="H51" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I50" s="18" t="e"/>
-      <c r="J50" s="18" t="e"/>
-      <c r="K50" s="17" t="n">
+      <c r="I51" s="18" t="e"/>
+      <c r="J51" s="18" t="e"/>
+      <c r="K51" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="L50" s="18" t="e"/>
-      <c r="M50" s="18" t="e"/>
-      <c r="N50" s="17" t="n">
+      <c r="L51" s="18" t="e"/>
+      <c r="M51" s="18" t="e"/>
+      <c r="N51" s="17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A51" s="19" t="s">
+    <row r="52" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A52" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="19" t="e"/>
-      <c r="C51" s="19" t="e"/>
-      <c r="D51" s="19" t="e"/>
-      <c r="E51" s="19" t="e"/>
-      <c r="F51" s="19" t="e"/>
-      <c r="G51" s="19" t="e"/>
-      <c r="H51" s="9" t="n">
+      <c r="B52" s="19" t="e"/>
+      <c r="C52" s="19" t="e"/>
+      <c r="D52" s="19" t="e"/>
+      <c r="E52" s="19" t="e"/>
+      <c r="F52" s="19" t="e"/>
+      <c r="G52" s="19" t="e"/>
+      <c r="H52" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I51" s="10" t="e"/>
-      <c r="J51" s="10" t="e"/>
-      <c r="K51" s="9" t="n">
+      <c r="I52" s="10" t="e"/>
+      <c r="J52" s="10" t="e"/>
+      <c r="K52" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L51" s="10" t="e"/>
-      <c r="M51" s="10" t="e"/>
-      <c r="N51" s="9" t="n">
+      <c r="L52" s="10" t="e"/>
+      <c r="M52" s="10" t="e"/>
+      <c r="N52" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="11" customHeight="true">
-      <c r="A52" s="16" t="s">
+    <row r="53" ht="11" customHeight="true">
+      <c r="A53" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="16" t="e"/>
-      <c r="C52" s="16" t="e"/>
-      <c r="D52" s="16" t="s">
+      <c r="B53" s="16" t="e"/>
+      <c r="C53" s="16" t="e"/>
+      <c r="D53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="16" t="e"/>
-      <c r="F52" s="16" t="e"/>
-      <c r="G52" s="16" t="s">
+      <c r="E53" s="16" t="e"/>
+      <c r="F53" s="16" t="e"/>
+      <c r="G53" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="17" t="n">
-        <v>288</v>
-      </c>
-      <c r="I52" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="J52" s="18" t="e"/>
-      <c r="K52" s="17" t="n">
+      <c r="H53" s="17" t="n">
         <v>268</v>
       </c>
-      <c r="L52" s="18" t="e"/>
-      <c r="M52" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="N52" s="17" t="n">
+      <c r="I53" s="18" t="e"/>
+      <c r="J53" s="18" t="e"/>
+      <c r="K53" s="17" t="n">
         <v>268</v>
       </c>
-    </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="19" t="e"/>
-      <c r="C53" s="19" t="e"/>
-      <c r="D53" s="19" t="e"/>
-      <c r="E53" s="19" t="e"/>
-      <c r="F53" s="19" t="e"/>
-      <c r="G53" s="19" t="e"/>
-      <c r="H53" s="9" t="n">
-        <v>110</v>
-      </c>
-      <c r="I53" s="10" t="e"/>
-      <c r="J53" s="10" t="e"/>
-      <c r="K53" s="9" t="n">
-        <v>110</v>
-      </c>
-      <c r="L53" s="10" t="e"/>
-      <c r="M53" s="10" t="e"/>
-      <c r="N53" s="9" t="n">
-        <v>110</v>
+      <c r="L53" s="18" t="e"/>
+      <c r="M53" s="18" t="e"/>
+      <c r="N53" s="17" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1828,22 +1844,22 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I54" s="10" t="e"/>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="10" t="e"/>
       <c r="N54" s="9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1852,78 +1868,78 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>78</v>
-      </c>
-      <c r="I55" s="9" t="n">
-        <v>20</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L55" s="10" t="e"/>
+      <c r="M55" s="10" t="e"/>
+      <c r="N55" s="9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A56" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="19" t="e"/>
+      <c r="C56" s="19" t="e"/>
+      <c r="D56" s="19" t="e"/>
+      <c r="E56" s="19" t="e"/>
+      <c r="F56" s="19" t="e"/>
+      <c r="G56" s="19" t="e"/>
+      <c r="H56" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="L55" s="10" t="e"/>
-      <c r="M55" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N55" s="9" t="n">
+      <c r="I56" s="10" t="e"/>
+      <c r="J56" s="10" t="e"/>
+      <c r="K56" s="9" t="n">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" ht="22" customHeight="true">
-      <c r="A56" s="16" t="s">
+      <c r="L56" s="10" t="e"/>
+      <c r="M56" s="10" t="e"/>
+      <c r="N56" s="9" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true">
+      <c r="A57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="16" t="e"/>
-      <c r="C56" s="16" t="e"/>
-      <c r="D56" s="16" t="s">
+      <c r="B57" s="16" t="e"/>
+      <c r="C57" s="16" t="e"/>
+      <c r="D57" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="16" t="e"/>
-      <c r="F56" s="16" t="e"/>
-      <c r="G56" s="16" t="s">
+      <c r="E57" s="16" t="e"/>
+      <c r="F57" s="16" t="e"/>
+      <c r="G57" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="17" t="n">
+      <c r="H57" s="17" t="n">
         <v>150</v>
       </c>
-      <c r="I56" s="18" t="e"/>
-      <c r="J56" s="18" t="e"/>
-      <c r="K56" s="17" t="n">
-        <v>150</v>
-      </c>
-      <c r="L56" s="18" t="e"/>
-      <c r="M56" s="18" t="e"/>
-      <c r="N56" s="17" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A57" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="19" t="e"/>
-      <c r="C57" s="19" t="e"/>
-      <c r="D57" s="19" t="e"/>
-      <c r="E57" s="19" t="e"/>
-      <c r="F57" s="19" t="e"/>
-      <c r="G57" s="19" t="e"/>
-      <c r="H57" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="I57" s="10" t="e"/>
-      <c r="J57" s="10" t="e"/>
-      <c r="K57" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="L57" s="10" t="e"/>
-      <c r="M57" s="10" t="e"/>
-      <c r="N57" s="9" t="n">
-        <v>37</v>
+      <c r="I57" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" s="18" t="e"/>
+      <c r="K57" s="17" t="n">
+        <v>142</v>
+      </c>
+      <c r="L57" s="18" t="e"/>
+      <c r="M57" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N57" s="17" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="58" ht="11" customHeight="true" outlineLevel="1">
       <c r="A58" s="19" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B58" s="19" t="e"/>
       <c r="C58" s="19" t="e"/>
@@ -1932,22 +1948,22 @@
       <c r="F58" s="19" t="e"/>
       <c r="G58" s="19" t="e"/>
       <c r="H58" s="9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I58" s="10" t="e"/>
       <c r="J58" s="10" t="e"/>
       <c r="K58" s="9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L58" s="10" t="e"/>
       <c r="M58" s="10" t="e"/>
       <c r="N58" s="9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="1">
       <c r="A59" s="19" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B59" s="19" t="e"/>
       <c r="C59" s="19" t="e"/>
@@ -1956,22 +1972,26 @@
       <c r="F59" s="19" t="e"/>
       <c r="G59" s="19" t="e"/>
       <c r="H59" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="I59" s="10" t="e"/>
+        <v>52</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J59" s="10" t="e"/>
       <c r="K59" s="9" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L59" s="10" t="e"/>
-      <c r="M59" s="10" t="e"/>
+      <c r="M59" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="N59" s="9" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1980,22 +2000,22 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L60" s="10" t="e"/>
       <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -2017,61 +2037,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" ht="11" customHeight="true">
-      <c r="A62" s="16" t="s">
+    <row r="62" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A62" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="19" t="e"/>
+      <c r="C62" s="19" t="e"/>
+      <c r="D62" s="19" t="e"/>
+      <c r="E62" s="19" t="e"/>
+      <c r="F62" s="19" t="e"/>
+      <c r="G62" s="19" t="e"/>
+      <c r="H62" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I62" s="10" t="e"/>
+      <c r="J62" s="10" t="e"/>
+      <c r="K62" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L62" s="10" t="e"/>
+      <c r="M62" s="10" t="e"/>
+      <c r="N62" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="11" customHeight="true">
+      <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="16" t="e"/>
-      <c r="C62" s="16" t="e"/>
-      <c r="D62" s="16" t="s">
+      <c r="B63" s="16" t="e"/>
+      <c r="C63" s="16" t="e"/>
+      <c r="D63" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="16" t="e"/>
-      <c r="F62" s="16" t="e"/>
-      <c r="G62" s="16" t="s">
+      <c r="E63" s="16" t="e"/>
+      <c r="F63" s="16" t="e"/>
+      <c r="G63" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="17" t="n">
+      <c r="H63" s="17" t="n">
         <v>187</v>
       </c>
-      <c r="I62" s="18" t="e"/>
-      <c r="J62" s="18" t="e"/>
-      <c r="K62" s="17" t="n">
-        <v>187</v>
-      </c>
-      <c r="L62" s="18" t="e"/>
-      <c r="M62" s="18" t="e"/>
-      <c r="N62" s="17" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A63" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="19" t="e"/>
-      <c r="C63" s="19" t="e"/>
-      <c r="D63" s="19" t="e"/>
-      <c r="E63" s="19" t="e"/>
-      <c r="F63" s="19" t="e"/>
-      <c r="G63" s="19" t="e"/>
-      <c r="H63" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="I63" s="10" t="e"/>
-      <c r="J63" s="10" t="e"/>
-      <c r="K63" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="L63" s="10" t="e"/>
-      <c r="M63" s="10" t="e"/>
-      <c r="N63" s="9" t="n">
-        <v>28</v>
+      <c r="I63" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" s="18" t="e"/>
+      <c r="K63" s="17" t="n">
+        <v>185</v>
+      </c>
+      <c r="L63" s="18" t="e"/>
+      <c r="M63" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" s="17" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="11" customHeight="true" outlineLevel="1">
       <c r="A64" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B64" s="19" t="e"/>
       <c r="C64" s="19" t="e"/>
@@ -2080,22 +2104,22 @@
       <c r="F64" s="19" t="e"/>
       <c r="G64" s="19" t="e"/>
       <c r="H64" s="9" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I64" s="10" t="e"/>
       <c r="J64" s="10" t="e"/>
       <c r="K64" s="9" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="L64" s="10" t="e"/>
       <c r="M64" s="10" t="e"/>
       <c r="N64" s="9" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2104,78 +2128,82 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I65" s="10" t="e"/>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L65" s="10" t="e"/>
       <c r="M65" s="10" t="e"/>
       <c r="N65" s="9" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A66" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="19" t="e"/>
+      <c r="C66" s="19" t="e"/>
+      <c r="D66" s="19" t="e"/>
+      <c r="E66" s="19" t="e"/>
+      <c r="F66" s="19" t="e"/>
+      <c r="G66" s="19" t="e"/>
+      <c r="H66" s="9" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" ht="22" customHeight="true">
-      <c r="A66" s="16" t="s">
+      <c r="I66" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" s="10" t="e"/>
+      <c r="K66" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="L66" s="10" t="e"/>
+      <c r="M66" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" s="9" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true">
+      <c r="A67" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="16" t="e"/>
-      <c r="C66" s="16" t="e"/>
-      <c r="D66" s="16" t="s">
+      <c r="B67" s="16" t="e"/>
+      <c r="C67" s="16" t="e"/>
+      <c r="D67" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="16" t="e"/>
-      <c r="F66" s="16" t="e"/>
-      <c r="G66" s="16" t="s">
+      <c r="E67" s="16" t="e"/>
+      <c r="F67" s="16" t="e"/>
+      <c r="G67" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="17" t="n">
-        <v>73</v>
-      </c>
-      <c r="I66" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" s="18" t="e"/>
-      <c r="K66" s="17" t="n">
+      <c r="H67" s="17" t="n">
         <v>68</v>
       </c>
-      <c r="L66" s="18" t="e"/>
-      <c r="M66" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N66" s="17" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A67" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="19" t="e"/>
-      <c r="C67" s="19" t="e"/>
-      <c r="D67" s="19" t="e"/>
-      <c r="E67" s="19" t="e"/>
-      <c r="F67" s="19" t="e"/>
-      <c r="G67" s="19" t="e"/>
-      <c r="H67" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="I67" s="10" t="e"/>
-      <c r="J67" s="10" t="e"/>
-      <c r="K67" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="L67" s="10" t="e"/>
-      <c r="M67" s="10" t="e"/>
-      <c r="N67" s="9" t="n">
-        <v>16</v>
+      <c r="I67" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" s="18" t="e"/>
+      <c r="K67" s="17" t="n">
+        <v>57</v>
+      </c>
+      <c r="L67" s="18" t="e"/>
+      <c r="M67" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="N67" s="17" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2184,22 +2212,26 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I68" s="10" t="e"/>
+        <v>16</v>
+      </c>
+      <c r="I68" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L68" s="10" t="e"/>
-      <c r="M68" s="10" t="e"/>
+      <c r="M68" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N68" s="9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
       <c r="A69" s="19" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B69" s="19" t="e"/>
       <c r="C69" s="19" t="e"/>
@@ -2208,26 +2240,26 @@
       <c r="F69" s="19" t="e"/>
       <c r="G69" s="19" t="e"/>
       <c r="H69" s="9" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I69" s="9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J69" s="10" t="e"/>
       <c r="K69" s="9" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="L69" s="10" t="e"/>
       <c r="M69" s="9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N69" s="9" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2236,82 +2268,82 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I70" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="L70" s="10" t="e"/>
+      <c r="M70" s="10" t="e"/>
+      <c r="N70" s="9" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A71" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="19" t="e"/>
+      <c r="C71" s="19" t="e"/>
+      <c r="D71" s="19" t="e"/>
+      <c r="E71" s="19" t="e"/>
+      <c r="F71" s="19" t="e"/>
+      <c r="G71" s="19" t="e"/>
+      <c r="H71" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="L70" s="10" t="e"/>
-      <c r="M70" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N70" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" ht="11" customHeight="true">
-      <c r="A71" s="16" t="s">
+      <c r="I71" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" s="10" t="e"/>
+      <c r="K71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L71" s="10" t="e"/>
+      <c r="M71" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true">
+      <c r="A72" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="16" t="e"/>
-      <c r="C71" s="16" t="e"/>
-      <c r="D71" s="16" t="s">
+      <c r="B72" s="16" t="e"/>
+      <c r="C72" s="16" t="e"/>
+      <c r="D72" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="16" t="e"/>
-      <c r="F71" s="16" t="e"/>
-      <c r="G71" s="16" t="s">
+      <c r="E72" s="16" t="e"/>
+      <c r="F72" s="16" t="e"/>
+      <c r="G72" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="17" t="n">
-        <v>107</v>
-      </c>
-      <c r="I71" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J71" s="18" t="e"/>
-      <c r="K71" s="17" t="n">
+      <c r="H72" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="L71" s="18" t="e"/>
-      <c r="M71" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="N71" s="17" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A72" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="19" t="e"/>
-      <c r="C72" s="19" t="e"/>
-      <c r="D72" s="19" t="e"/>
-      <c r="E72" s="19" t="e"/>
-      <c r="F72" s="19" t="e"/>
-      <c r="G72" s="19" t="e"/>
-      <c r="H72" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I72" s="10" t="e"/>
-      <c r="J72" s="10" t="e"/>
-      <c r="K72" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L72" s="10" t="e"/>
-      <c r="M72" s="10" t="e"/>
-      <c r="N72" s="9" t="n">
-        <v>25</v>
+      <c r="I72" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J72" s="18" t="e"/>
+      <c r="K72" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="L72" s="18" t="e"/>
+      <c r="M72" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N72" s="17" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="A73" s="19" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B73" s="19" t="e"/>
       <c r="C73" s="19" t="e"/>
@@ -2320,22 +2352,26 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="I73" s="10" t="e"/>
+        <v>25</v>
+      </c>
+      <c r="I73" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L73" s="10" t="e"/>
-      <c r="M73" s="10" t="e"/>
+      <c r="M73" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="N73" s="9" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="A74" s="19" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B74" s="19" t="e"/>
       <c r="C74" s="19" t="e"/>
@@ -2344,22 +2380,26 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I74" s="10" t="e"/>
+        <v>32</v>
+      </c>
+      <c r="I74" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L74" s="10" t="e"/>
-      <c r="M74" s="10" t="e"/>
+      <c r="M74" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N74" s="9" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
       <c r="A75" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B75" s="19" t="e"/>
       <c r="C75" s="19" t="e"/>
@@ -2368,78 +2408,78 @@
       <c r="F75" s="19" t="e"/>
       <c r="G75" s="19" t="e"/>
       <c r="H75" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="I75" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I75" s="10" t="e"/>
       <c r="J75" s="10" t="e"/>
       <c r="K75" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L75" s="10" t="e"/>
+      <c r="M75" s="10" t="e"/>
+      <c r="N75" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A76" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="19" t="e"/>
+      <c r="C76" s="19" t="e"/>
+      <c r="D76" s="19" t="e"/>
+      <c r="E76" s="19" t="e"/>
+      <c r="F76" s="19" t="e"/>
+      <c r="G76" s="19" t="e"/>
+      <c r="H76" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="L75" s="10" t="e"/>
-      <c r="M75" s="9" t="n">
+      <c r="I76" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="N75" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" ht="11" customHeight="true">
-      <c r="A76" s="16" t="s">
+      <c r="J76" s="10" t="e"/>
+      <c r="K76" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L76" s="10" t="e"/>
+      <c r="M76" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="N76" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" ht="11" customHeight="true">
+      <c r="A77" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="16" t="e"/>
-      <c r="C76" s="16" t="e"/>
-      <c r="D76" s="16" t="s">
+      <c r="B77" s="16" t="e"/>
+      <c r="C77" s="16" t="e"/>
+      <c r="D77" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="16" t="e"/>
-      <c r="F76" s="16" t="e"/>
-      <c r="G76" s="16" t="s">
+      <c r="E77" s="16" t="e"/>
+      <c r="F77" s="16" t="e"/>
+      <c r="G77" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H76" s="17" t="n">
+      <c r="H77" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="I76" s="18" t="e"/>
-      <c r="J76" s="18" t="e"/>
-      <c r="K76" s="17" t="n">
+      <c r="I77" s="18" t="e"/>
+      <c r="J77" s="18" t="e"/>
+      <c r="K77" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="L76" s="18" t="e"/>
-      <c r="M76" s="18" t="e"/>
-      <c r="N76" s="17" t="n">
+      <c r="L77" s="18" t="e"/>
+      <c r="M77" s="18" t="e"/>
+      <c r="N77" s="17" t="n">
         <v>41</v>
-      </c>
-    </row>
-    <row r="77" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A77" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="19" t="e"/>
-      <c r="C77" s="19" t="e"/>
-      <c r="D77" s="19" t="e"/>
-      <c r="E77" s="19" t="e"/>
-      <c r="F77" s="19" t="e"/>
-      <c r="G77" s="19" t="e"/>
-      <c r="H77" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I77" s="10" t="e"/>
-      <c r="J77" s="10" t="e"/>
-      <c r="K77" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L77" s="10" t="e"/>
-      <c r="M77" s="10" t="e"/>
-      <c r="N77" s="9" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B78" s="19" t="e"/>
       <c r="C78" s="19" t="e"/>
@@ -2448,74 +2488,78 @@
       <c r="F78" s="19" t="e"/>
       <c r="G78" s="19" t="e"/>
       <c r="H78" s="9" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I78" s="10" t="e"/>
       <c r="J78" s="10" t="e"/>
       <c r="K78" s="9" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L78" s="10" t="e"/>
       <c r="M78" s="10" t="e"/>
       <c r="N78" s="9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A79" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="19" t="e"/>
+      <c r="C79" s="19" t="e"/>
+      <c r="D79" s="19" t="e"/>
+      <c r="E79" s="19" t="e"/>
+      <c r="F79" s="19" t="e"/>
+      <c r="G79" s="19" t="e"/>
+      <c r="H79" s="9" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" ht="22" customHeight="true">
-      <c r="A79" s="16" t="s">
+      <c r="I79" s="10" t="e"/>
+      <c r="J79" s="10" t="e"/>
+      <c r="K79" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="L79" s="10" t="e"/>
+      <c r="M79" s="10" t="e"/>
+      <c r="N79" s="9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" ht="22" customHeight="true">
+      <c r="A80" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="16" t="e"/>
-      <c r="C79" s="16" t="e"/>
-      <c r="D79" s="16" t="s">
+      <c r="B80" s="16" t="e"/>
+      <c r="C80" s="16" t="e"/>
+      <c r="D80" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="16" t="e"/>
-      <c r="F79" s="16" t="e"/>
-      <c r="G79" s="16" t="s">
+      <c r="E80" s="16" t="e"/>
+      <c r="F80" s="16" t="e"/>
+      <c r="G80" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" s="18" t="e"/>
-      <c r="J79" s="18" t="e"/>
-      <c r="K79" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L79" s="18" t="e"/>
-      <c r="M79" s="18" t="e"/>
-      <c r="N79" s="17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A80" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="19" t="e"/>
-      <c r="C80" s="19" t="e"/>
-      <c r="D80" s="19" t="e"/>
-      <c r="E80" s="19" t="e"/>
-      <c r="F80" s="19" t="e"/>
-      <c r="G80" s="19" t="e"/>
-      <c r="H80" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" s="10" t="e"/>
-      <c r="J80" s="10" t="e"/>
-      <c r="K80" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" s="10" t="e"/>
-      <c r="M80" s="10" t="e"/>
-      <c r="N80" s="9" t="n">
-        <v>1</v>
+      <c r="H80" s="17" t="n">
+        <v>102</v>
+      </c>
+      <c r="I80" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" s="18" t="e"/>
+      <c r="K80" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="L80" s="18" t="e"/>
+      <c r="M80" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="N80" s="17" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="A81" s="19" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B81" s="19" t="e"/>
       <c r="C81" s="19" t="e"/>
@@ -2524,50 +2568,54 @@
       <c r="F81" s="19" t="e"/>
       <c r="G81" s="19" t="e"/>
       <c r="H81" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" s="10" t="e"/>
+        <v>31</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J81" s="10" t="e"/>
       <c r="K81" s="9" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L81" s="10" t="e"/>
-      <c r="M81" s="10" t="e"/>
+      <c r="M81" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N81" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true">
-      <c r="A82" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="16" t="e"/>
-      <c r="C82" s="16" t="e"/>
-      <c r="D82" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E82" s="16" t="e"/>
-      <c r="F82" s="16" t="e"/>
-      <c r="G82" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" s="17" t="n">
-        <v>87</v>
-      </c>
-      <c r="I82" s="18" t="e"/>
-      <c r="J82" s="18" t="e"/>
-      <c r="K82" s="17" t="n">
-        <v>87</v>
-      </c>
-      <c r="L82" s="18" t="e"/>
-      <c r="M82" s="18" t="e"/>
-      <c r="N82" s="17" t="n">
-        <v>87</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A82" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="19" t="e"/>
+      <c r="C82" s="19" t="e"/>
+      <c r="D82" s="19" t="e"/>
+      <c r="E82" s="19" t="e"/>
+      <c r="F82" s="19" t="e"/>
+      <c r="G82" s="19" t="e"/>
+      <c r="H82" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="I82" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J82" s="10" t="e"/>
+      <c r="K82" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L82" s="10" t="e"/>
+      <c r="M82" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N82" s="9" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2576,22 +2624,22 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L83" s="10" t="e"/>
       <c r="M83" s="10" t="e"/>
       <c r="N83" s="9" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="19" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B84" s="19" t="e"/>
       <c r="C84" s="19" t="e"/>
@@ -2600,46 +2648,54 @@
       <c r="F84" s="19" t="e"/>
       <c r="G84" s="19" t="e"/>
       <c r="H84" s="9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I84" s="10" t="e"/>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L84" s="10" t="e"/>
       <c r="M84" s="10" t="e"/>
       <c r="N84" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true">
+      <c r="A85" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="16" t="e"/>
+      <c r="C85" s="16" t="e"/>
+      <c r="D85" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="16" t="e"/>
+      <c r="F85" s="16" t="e"/>
+      <c r="G85" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A85" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="19" t="e"/>
-      <c r="C85" s="19" t="e"/>
-      <c r="D85" s="19" t="e"/>
-      <c r="E85" s="19" t="e"/>
-      <c r="F85" s="19" t="e"/>
-      <c r="G85" s="19" t="e"/>
-      <c r="H85" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I85" s="10" t="e"/>
-      <c r="J85" s="10" t="e"/>
-      <c r="K85" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L85" s="10" t="e"/>
-      <c r="M85" s="10" t="e"/>
-      <c r="N85" s="9" t="n">
-        <v>13</v>
+      <c r="H85" s="17" t="n">
+        <v>187</v>
+      </c>
+      <c r="I85" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" s="18" t="e"/>
+      <c r="K85" s="17" t="n">
+        <v>162</v>
+      </c>
+      <c r="L85" s="18" t="e"/>
+      <c r="M85" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="N85" s="17" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B86" s="19" t="e"/>
       <c r="C86" s="19" t="e"/>
@@ -2648,54 +2704,54 @@
       <c r="F86" s="19" t="e"/>
       <c r="G86" s="19" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I86" s="10" t="e"/>
+        <v>71</v>
+      </c>
+      <c r="I86" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="L86" s="10" t="e"/>
-      <c r="M86" s="10" t="e"/>
+      <c r="M86" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="N86" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true">
-      <c r="A87" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B87" s="16" t="e"/>
-      <c r="C87" s="16" t="e"/>
-      <c r="D87" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E87" s="16" t="e"/>
-      <c r="F87" s="16" t="e"/>
-      <c r="G87" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H87" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="I87" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" s="18" t="e"/>
-      <c r="K87" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="L87" s="18" t="e"/>
-      <c r="M87" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" s="17" t="n">
-        <v>40</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A87" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="19" t="e"/>
+      <c r="C87" s="19" t="e"/>
+      <c r="D87" s="19" t="e"/>
+      <c r="E87" s="19" t="e"/>
+      <c r="F87" s="19" t="e"/>
+      <c r="G87" s="19" t="e"/>
+      <c r="H87" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="I87" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J87" s="10" t="e"/>
+      <c r="K87" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="L87" s="10" t="e"/>
+      <c r="M87" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="N87" s="9" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2704,22 +2760,22 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L88" s="10" t="e"/>
       <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="19" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B89" s="19" t="e"/>
       <c r="C89" s="19" t="e"/>
@@ -2728,22 +2784,22 @@
       <c r="F89" s="19" t="e"/>
       <c r="G89" s="19" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I89" s="10" t="e"/>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L89" s="10" t="e"/>
       <c r="M89" s="10" t="e"/>
       <c r="N89" s="9" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="A90" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B90" s="19" t="e"/>
       <c r="C90" s="19" t="e"/>
@@ -2752,82 +2808,82 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" ht="11" customHeight="true">
+      <c r="A91" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="16" t="e"/>
+      <c r="C91" s="16" t="e"/>
+      <c r="D91" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" s="16" t="e"/>
+      <c r="F91" s="16" t="e"/>
+      <c r="G91" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="I91" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J91" s="18" t="e"/>
+      <c r="K91" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="L91" s="18" t="e"/>
+      <c r="M91" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N91" s="17" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A92" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="19" t="e"/>
+      <c r="C92" s="19" t="e"/>
+      <c r="D92" s="19" t="e"/>
+      <c r="E92" s="19" t="e"/>
+      <c r="F92" s="19" t="e"/>
+      <c r="G92" s="19" t="e"/>
+      <c r="H92" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I92" s="9" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A91" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" s="19" t="e"/>
-      <c r="C91" s="19" t="e"/>
-      <c r="D91" s="19" t="e"/>
-      <c r="E91" s="19" t="e"/>
-      <c r="F91" s="19" t="e"/>
-      <c r="G91" s="19" t="e"/>
-      <c r="H91" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I91" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" s="10" t="e"/>
-      <c r="K91" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L91" s="10" t="e"/>
-      <c r="M91" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" ht="22" customHeight="true">
-      <c r="A92" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B92" s="16" t="e"/>
-      <c r="C92" s="16" t="e"/>
-      <c r="D92" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92" s="16" t="e"/>
-      <c r="F92" s="16" t="e"/>
-      <c r="G92" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" s="17" t="n">
-        <v>145</v>
-      </c>
-      <c r="I92" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J92" s="18" t="e"/>
-      <c r="K92" s="17" t="n">
-        <v>140</v>
-      </c>
-      <c r="L92" s="18" t="e"/>
-      <c r="M92" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N92" s="17" t="n">
-        <v>140</v>
+      <c r="J92" s="10" t="e"/>
+      <c r="K92" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L92" s="10" t="e"/>
+      <c r="M92" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N92" s="9" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="A93" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B93" s="19" t="e"/>
       <c r="C93" s="19" t="e"/>
@@ -2836,22 +2892,26 @@
       <c r="F93" s="19" t="e"/>
       <c r="G93" s="19" t="e"/>
       <c r="H93" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="I93" s="10" t="e"/>
+        <v>34</v>
+      </c>
+      <c r="I93" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J93" s="10" t="e"/>
       <c r="K93" s="9" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L93" s="10" t="e"/>
-      <c r="M93" s="10" t="e"/>
+      <c r="M93" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="N93" s="9" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2860,22 +2920,22 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I94" s="10" t="e"/>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L94" s="10" t="e"/>
       <c r="M94" s="10" t="e"/>
       <c r="N94" s="9" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2884,22 +2944,22 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I95" s="10" t="e"/>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L95" s="10" t="e"/>
       <c r="M95" s="10" t="e"/>
       <c r="N95" s="9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="A96" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B96" s="19" t="e"/>
       <c r="C96" s="19" t="e"/>
@@ -2921,65 +2981,69 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" s="19" t="e"/>
-      <c r="C97" s="19" t="e"/>
-      <c r="D97" s="19" t="e"/>
-      <c r="E97" s="19" t="e"/>
-      <c r="F97" s="19" t="e"/>
-      <c r="G97" s="19" t="e"/>
-      <c r="H97" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I97" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" s="10" t="e"/>
-      <c r="K97" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L97" s="10" t="e"/>
-      <c r="M97" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N97" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true">
-      <c r="A98" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="16" t="e"/>
-      <c r="C98" s="16" t="e"/>
-      <c r="D98" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E98" s="16" t="e"/>
-      <c r="F98" s="16" t="e"/>
-      <c r="G98" s="16" t="s">
+    <row r="97" ht="22" customHeight="true">
+      <c r="A97" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="16" t="e"/>
+      <c r="C97" s="16" t="e"/>
+      <c r="D97" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E97" s="16" t="e"/>
+      <c r="F97" s="16" t="e"/>
+      <c r="G97" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H98" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="I98" s="18" t="e"/>
-      <c r="J98" s="18" t="e"/>
-      <c r="K98" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="L98" s="18" t="e"/>
-      <c r="M98" s="18" t="e"/>
-      <c r="N98" s="17" t="n">
-        <v>168</v>
+      <c r="H97" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="I97" s="17" t="n">
+        <v>48</v>
+      </c>
+      <c r="J97" s="18" t="e"/>
+      <c r="K97" s="17" t="n">
+        <v>92</v>
+      </c>
+      <c r="L97" s="18" t="e"/>
+      <c r="M97" s="17" t="n">
+        <v>48</v>
+      </c>
+      <c r="N97" s="17" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A98" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="19" t="e"/>
+      <c r="C98" s="19" t="e"/>
+      <c r="D98" s="19" t="e"/>
+      <c r="E98" s="19" t="e"/>
+      <c r="F98" s="19" t="e"/>
+      <c r="G98" s="19" t="e"/>
+      <c r="H98" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="I98" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="J98" s="10" t="e"/>
+      <c r="K98" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="L98" s="10" t="e"/>
+      <c r="M98" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="N98" s="9" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -2988,22 +3052,26 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="I99" s="10" t="e"/>
+        <v>46</v>
+      </c>
+      <c r="I99" s="9" t="n">
+        <v>13</v>
+      </c>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L99" s="10" t="e"/>
-      <c r="M99" s="10" t="e"/>
+      <c r="M99" s="9" t="n">
+        <v>13</v>
+      </c>
       <c r="N99" s="9" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="A100" s="19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B100" s="19" t="e"/>
       <c r="C100" s="19" t="e"/>
@@ -3012,22 +3080,22 @@
       <c r="F100" s="19" t="e"/>
       <c r="G100" s="19" t="e"/>
       <c r="H100" s="9" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I100" s="10" t="e"/>
       <c r="J100" s="10" t="e"/>
       <c r="K100" s="9" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L100" s="10" t="e"/>
       <c r="M100" s="10" t="e"/>
       <c r="N100" s="9" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3036,46 +3104,54 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I101" s="10" t="e"/>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L101" s="10" t="e"/>
       <c r="M101" s="10" t="e"/>
       <c r="N101" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A102" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102" s="19" t="e"/>
-      <c r="C102" s="19" t="e"/>
-      <c r="D102" s="19" t="e"/>
-      <c r="E102" s="19" t="e"/>
-      <c r="F102" s="19" t="e"/>
-      <c r="G102" s="19" t="e"/>
-      <c r="H102" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I102" s="10" t="e"/>
-      <c r="J102" s="10" t="e"/>
-      <c r="K102" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L102" s="10" t="e"/>
-      <c r="M102" s="10" t="e"/>
-      <c r="N102" s="9" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" ht="11" customHeight="true">
+      <c r="A102" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="16" t="e"/>
+      <c r="C102" s="16" t="e"/>
+      <c r="D102" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102" s="16" t="e"/>
+      <c r="F102" s="16" t="e"/>
+      <c r="G102" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="I102" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J102" s="18" t="e"/>
+      <c r="K102" s="17" t="n">
+        <v>154</v>
+      </c>
+      <c r="L102" s="18" t="e"/>
+      <c r="M102" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="N102" s="17" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="A103" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B103" s="19" t="e"/>
       <c r="C103" s="19" t="e"/>
@@ -3084,50 +3160,50 @@
       <c r="F103" s="19" t="e"/>
       <c r="G103" s="19" t="e"/>
       <c r="H103" s="9" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I103" s="10" t="e"/>
       <c r="J103" s="10" t="e"/>
       <c r="K103" s="9" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L103" s="10" t="e"/>
       <c r="M103" s="10" t="e"/>
       <c r="N103" s="9" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true">
-      <c r="A104" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B104" s="16" t="e"/>
-      <c r="C104" s="16" t="e"/>
-      <c r="D104" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E104" s="16" t="e"/>
-      <c r="F104" s="16" t="e"/>
-      <c r="G104" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H104" s="17" t="n">
-        <v>225</v>
-      </c>
-      <c r="I104" s="18" t="e"/>
-      <c r="J104" s="18" t="e"/>
-      <c r="K104" s="17" t="n">
-        <v>225</v>
-      </c>
-      <c r="L104" s="18" t="e"/>
-      <c r="M104" s="18" t="e"/>
-      <c r="N104" s="17" t="n">
-        <v>225</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A104" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="19" t="e"/>
+      <c r="C104" s="19" t="e"/>
+      <c r="D104" s="19" t="e"/>
+      <c r="E104" s="19" t="e"/>
+      <c r="F104" s="19" t="e"/>
+      <c r="G104" s="19" t="e"/>
+      <c r="H104" s="9" t="n">
+        <v>57</v>
+      </c>
+      <c r="I104" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J104" s="10" t="e"/>
+      <c r="K104" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="L104" s="10" t="e"/>
+      <c r="M104" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="N104" s="9" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B105" s="19" t="e"/>
       <c r="C105" s="19" t="e"/>
@@ -3136,22 +3212,22 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I105" s="10" t="e"/>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L105" s="10" t="e"/>
       <c r="M105" s="10" t="e"/>
       <c r="N105" s="9" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="19" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B106" s="19" t="e"/>
       <c r="C106" s="19" t="e"/>
@@ -3160,22 +3236,22 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I106" s="10" t="e"/>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="L106" s="10" t="e"/>
       <c r="M106" s="10" t="e"/>
       <c r="N106" s="9" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3184,78 +3260,82 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I107" s="10" t="e"/>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="L107" s="10" t="e"/>
       <c r="M107" s="10" t="e"/>
       <c r="N107" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" s="19" t="e"/>
-      <c r="C108" s="19" t="e"/>
-      <c r="D108" s="19" t="e"/>
-      <c r="E108" s="19" t="e"/>
-      <c r="F108" s="19" t="e"/>
-      <c r="G108" s="19" t="e"/>
-      <c r="H108" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I108" s="10" t="e"/>
-      <c r="J108" s="10" t="e"/>
-      <c r="K108" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L108" s="10" t="e"/>
-      <c r="M108" s="10" t="e"/>
-      <c r="N108" s="9" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true">
-      <c r="A109" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109" s="16" t="e"/>
-      <c r="C109" s="16" t="e"/>
-      <c r="D109" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E109" s="16" t="e"/>
-      <c r="F109" s="16" t="e"/>
-      <c r="G109" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" ht="11" customHeight="true">
+      <c r="A108" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="16" t="e"/>
+      <c r="C108" s="16" t="e"/>
+      <c r="D108" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="16" t="e"/>
+      <c r="F108" s="16" t="e"/>
+      <c r="G108" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H109" s="17" t="n">
-        <v>232</v>
-      </c>
-      <c r="I109" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J109" s="18" t="e"/>
-      <c r="K109" s="17" t="n">
-        <v>229</v>
-      </c>
-      <c r="L109" s="18" t="e"/>
-      <c r="M109" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N109" s="17" t="n">
-        <v>229</v>
+      <c r="H108" s="17" t="n">
+        <v>275</v>
+      </c>
+      <c r="I108" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="J108" s="18" t="e"/>
+      <c r="K108" s="17" t="n">
+        <v>240</v>
+      </c>
+      <c r="L108" s="18" t="e"/>
+      <c r="M108" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="N108" s="17" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A109" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" s="19" t="e"/>
+      <c r="C109" s="19" t="e"/>
+      <c r="D109" s="19" t="e"/>
+      <c r="E109" s="19" t="e"/>
+      <c r="F109" s="19" t="e"/>
+      <c r="G109" s="19" t="e"/>
+      <c r="H109" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="I109" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="J109" s="10" t="e"/>
+      <c r="K109" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="L109" s="10" t="e"/>
+      <c r="M109" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="N109" s="9" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3264,22 +3344,26 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>90</v>
-      </c>
-      <c r="I110" s="10" t="e"/>
+        <v>80</v>
+      </c>
+      <c r="I110" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="L110" s="10" t="e"/>
-      <c r="M110" s="10" t="e"/>
+      <c r="M110" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="N110" s="9" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="A111" s="19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B111" s="19" t="e"/>
       <c r="C111" s="19" t="e"/>
@@ -3288,22 +3372,22 @@
       <c r="F111" s="19" t="e"/>
       <c r="G111" s="19" t="e"/>
       <c r="H111" s="9" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I111" s="10" t="e"/>
       <c r="J111" s="10" t="e"/>
       <c r="K111" s="9" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="L111" s="10" t="e"/>
       <c r="M111" s="10" t="e"/>
       <c r="N111" s="9" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3312,26 +3396,22 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I112" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I112" s="10" t="e"/>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L112" s="10" t="e"/>
-      <c r="M112" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M112" s="10" t="e"/>
       <c r="N112" s="9" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="A113" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B113" s="19" t="e"/>
       <c r="C113" s="19" t="e"/>
@@ -3340,74 +3420,82 @@
       <c r="F113" s="19" t="e"/>
       <c r="G113" s="19" t="e"/>
       <c r="H113" s="9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I113" s="10" t="e"/>
       <c r="J113" s="10" t="e"/>
       <c r="K113" s="9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L113" s="10" t="e"/>
       <c r="M113" s="10" t="e"/>
       <c r="N113" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B114" s="19" t="e"/>
-      <c r="C114" s="19" t="e"/>
-      <c r="D114" s="19" t="e"/>
-      <c r="E114" s="19" t="e"/>
-      <c r="F114" s="19" t="e"/>
-      <c r="G114" s="19" t="e"/>
-      <c r="H114" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I114" s="10" t="e"/>
-      <c r="J114" s="10" t="e"/>
-      <c r="K114" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="L114" s="10" t="e"/>
-      <c r="M114" s="10" t="e"/>
-      <c r="N114" s="9" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true">
-      <c r="A115" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" s="16" t="e"/>
-      <c r="C115" s="16" t="e"/>
-      <c r="D115" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E115" s="16" t="e"/>
-      <c r="F115" s="16" t="e"/>
-      <c r="G115" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true">
+      <c r="A114" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114" s="16" t="e"/>
+      <c r="C114" s="16" t="e"/>
+      <c r="D114" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" s="16" t="e"/>
+      <c r="F114" s="16" t="e"/>
+      <c r="G114" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H115" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="I115" s="18" t="e"/>
-      <c r="J115" s="18" t="e"/>
-      <c r="K115" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="L115" s="18" t="e"/>
-      <c r="M115" s="18" t="e"/>
-      <c r="N115" s="17" t="n">
-        <v>53</v>
+      <c r="H114" s="17" t="n">
+        <v>279</v>
+      </c>
+      <c r="I114" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="J114" s="18" t="e"/>
+      <c r="K114" s="17" t="n">
+        <v>204</v>
+      </c>
+      <c r="L114" s="18" t="e"/>
+      <c r="M114" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="N114" s="17" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A115" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="19" t="e"/>
+      <c r="C115" s="19" t="e"/>
+      <c r="D115" s="19" t="e"/>
+      <c r="E115" s="19" t="e"/>
+      <c r="F115" s="19" t="e"/>
+      <c r="G115" s="19" t="e"/>
+      <c r="H115" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I115" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J115" s="10" t="e"/>
+      <c r="K115" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="L115" s="10" t="e"/>
+      <c r="M115" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="N115" s="9" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3416,22 +3504,26 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="I116" s="10" t="e"/>
+        <v>105</v>
+      </c>
+      <c r="I116" s="9" t="n">
+        <v>38</v>
+      </c>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="L116" s="10" t="e"/>
-      <c r="M116" s="10" t="e"/>
+      <c r="M116" s="9" t="n">
+        <v>38</v>
+      </c>
       <c r="N116" s="9" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="A117" s="19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B117" s="19" t="e"/>
       <c r="C117" s="19" t="e"/>
@@ -3440,22 +3532,22 @@
       <c r="F117" s="19" t="e"/>
       <c r="G117" s="19" t="e"/>
       <c r="H117" s="9" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I117" s="10" t="e"/>
       <c r="J117" s="10" t="e"/>
       <c r="K117" s="9" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L117" s="10" t="e"/>
       <c r="M117" s="10" t="e"/>
       <c r="N117" s="9" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="A118" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B118" s="19" t="e"/>
       <c r="C118" s="19" t="e"/>
@@ -3464,78 +3556,86 @@
       <c r="F118" s="19" t="e"/>
       <c r="G118" s="19" t="e"/>
       <c r="H118" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I118" s="10" t="e"/>
+        <v>69</v>
+      </c>
+      <c r="I118" s="9" t="n">
+        <v>24</v>
+      </c>
       <c r="J118" s="10" t="e"/>
       <c r="K118" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L118" s="10" t="e"/>
+      <c r="M118" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="N118" s="9" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true">
+      <c r="A119" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="16" t="e"/>
+      <c r="C119" s="16" t="e"/>
+      <c r="D119" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E119" s="16" t="e"/>
+      <c r="F119" s="16" t="e"/>
+      <c r="G119" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="I119" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J119" s="18" t="e"/>
+      <c r="K119" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="L119" s="18" t="e"/>
+      <c r="M119" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="N119" s="17" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A120" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="19" t="e"/>
+      <c r="C120" s="19" t="e"/>
+      <c r="D120" s="19" t="e"/>
+      <c r="E120" s="19" t="e"/>
+      <c r="F120" s="19" t="e"/>
+      <c r="G120" s="19" t="e"/>
+      <c r="H120" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="I120" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L118" s="10" t="e"/>
-      <c r="M118" s="10" t="e"/>
-      <c r="N118" s="9" t="n">
+      <c r="J120" s="10" t="e"/>
+      <c r="K120" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L120" s="10" t="e"/>
+      <c r="M120" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A119" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" s="19" t="e"/>
-      <c r="C119" s="19" t="e"/>
-      <c r="D119" s="19" t="e"/>
-      <c r="E119" s="19" t="e"/>
-      <c r="F119" s="19" t="e"/>
-      <c r="G119" s="19" t="e"/>
-      <c r="H119" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I119" s="10" t="e"/>
-      <c r="J119" s="10" t="e"/>
-      <c r="K119" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L119" s="10" t="e"/>
-      <c r="M119" s="10" t="e"/>
-      <c r="N119" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true">
-      <c r="A120" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B120" s="16" t="e"/>
-      <c r="C120" s="16" t="e"/>
-      <c r="D120" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E120" s="16" t="e"/>
-      <c r="F120" s="16" t="e"/>
-      <c r="G120" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H120" s="17" t="n">
-        <v>174</v>
-      </c>
-      <c r="I120" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J120" s="18" t="e"/>
-      <c r="K120" s="17" t="n">
-        <v>166</v>
-      </c>
-      <c r="L120" s="18" t="e"/>
-      <c r="M120" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N120" s="17" t="n">
-        <v>166</v>
+      <c r="N120" s="9" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3544,22 +3644,26 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>66</v>
-      </c>
-      <c r="I121" s="10" t="e"/>
+        <v>19</v>
+      </c>
+      <c r="I121" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="L121" s="10" t="e"/>
-      <c r="M121" s="10" t="e"/>
+      <c r="M121" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="N121" s="9" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B122" s="19" t="e"/>
       <c r="C122" s="19" t="e"/>
@@ -3568,22 +3672,22 @@
       <c r="F122" s="19" t="e"/>
       <c r="G122" s="19" t="e"/>
       <c r="H122" s="9" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="I122" s="10" t="e"/>
       <c r="J122" s="10" t="e"/>
       <c r="K122" s="9" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="L122" s="10" t="e"/>
       <c r="M122" s="10" t="e"/>
       <c r="N122" s="9" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="A123" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B123" s="19" t="e"/>
       <c r="C123" s="19" t="e"/>
@@ -3594,80 +3698,84 @@
       <c r="H123" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I123" s="10" t="e"/>
+      <c r="I123" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J123" s="10" t="e"/>
       <c r="K123" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L123" s="10" t="e"/>
-      <c r="M123" s="10" t="e"/>
+      <c r="M123" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N123" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A124" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" s="19" t="e"/>
-      <c r="C124" s="19" t="e"/>
-      <c r="D124" s="19" t="e"/>
-      <c r="E124" s="19" t="e"/>
-      <c r="F124" s="19" t="e"/>
-      <c r="G124" s="19" t="e"/>
-      <c r="H124" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I124" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J124" s="10" t="e"/>
-      <c r="K124" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L124" s="10" t="e"/>
-      <c r="M124" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N124" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true">
-      <c r="A125" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B125" s="16" t="e"/>
-      <c r="C125" s="16" t="e"/>
-      <c r="D125" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E125" s="16" t="e"/>
-      <c r="F125" s="16" t="e"/>
-      <c r="G125" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true">
+      <c r="A124" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="16" t="e"/>
+      <c r="C124" s="16" t="e"/>
+      <c r="D124" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E124" s="16" t="e"/>
+      <c r="F124" s="16" t="e"/>
+      <c r="G124" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H125" s="17" t="n">
-        <v>188</v>
-      </c>
-      <c r="I125" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J125" s="18" t="e"/>
-      <c r="K125" s="17" t="n">
-        <v>182</v>
-      </c>
-      <c r="L125" s="18" t="e"/>
-      <c r="M125" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N125" s="17" t="n">
-        <v>182</v>
+      <c r="H124" s="17" t="n">
+        <v>266</v>
+      </c>
+      <c r="I124" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="J124" s="18" t="e"/>
+      <c r="K124" s="17" t="n">
+        <v>192</v>
+      </c>
+      <c r="L124" s="18" t="e"/>
+      <c r="M124" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="N124" s="17" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A125" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" s="19" t="e"/>
+      <c r="C125" s="19" t="e"/>
+      <c r="D125" s="19" t="e"/>
+      <c r="E125" s="19" t="e"/>
+      <c r="F125" s="19" t="e"/>
+      <c r="G125" s="19" t="e"/>
+      <c r="H125" s="9" t="n">
+        <v>106</v>
+      </c>
+      <c r="I125" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="J125" s="10" t="e"/>
+      <c r="K125" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="L125" s="10" t="e"/>
+      <c r="M125" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="N125" s="9" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3676,22 +3784,26 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>64</v>
-      </c>
-      <c r="I126" s="10" t="e"/>
+        <v>113</v>
+      </c>
+      <c r="I126" s="9" t="n">
+        <v>47</v>
+      </c>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L126" s="10" t="e"/>
-      <c r="M126" s="10" t="e"/>
+      <c r="M126" s="9" t="n">
+        <v>47</v>
+      </c>
       <c r="N126" s="9" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="A127" s="19" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B127" s="19" t="e"/>
       <c r="C127" s="19" t="e"/>
@@ -3700,22 +3812,22 @@
       <c r="F127" s="19" t="e"/>
       <c r="G127" s="19" t="e"/>
       <c r="H127" s="9" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I127" s="10" t="e"/>
       <c r="J127" s="10" t="e"/>
       <c r="K127" s="9" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="L127" s="10" t="e"/>
       <c r="M127" s="10" t="e"/>
       <c r="N127" s="9" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="A128" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B128" s="19" t="e"/>
       <c r="C128" s="19" t="e"/>
@@ -3724,17 +3836,17 @@
       <c r="F128" s="19" t="e"/>
       <c r="G128" s="19" t="e"/>
       <c r="H128" s="9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I128" s="10" t="e"/>
       <c r="J128" s="10" t="e"/>
       <c r="K128" s="9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L128" s="10" t="e"/>
       <c r="M128" s="10" t="e"/>
       <c r="N128" s="9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="1">
@@ -3748,31 +3860,27 @@
       <c r="F129" s="19" t="e"/>
       <c r="G129" s="19" t="e"/>
       <c r="H129" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I129" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I129" s="10" t="e"/>
       <c r="J129" s="10" t="e"/>
       <c r="K129" s="9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L129" s="10" t="e"/>
-      <c r="M129" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M129" s="10" t="e"/>
       <c r="N129" s="9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true">
       <c r="A130" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B130" s="16" t="e"/>
       <c r="C130" s="16" t="e"/>
       <c r="D130" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E130" s="16" t="e"/>
       <c r="F130" s="16" t="e"/>
@@ -3780,22 +3888,26 @@
         <v>24</v>
       </c>
       <c r="H130" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" s="18" t="e"/>
+        <v>282</v>
+      </c>
+      <c r="I130" s="17" t="n">
+        <v>107</v>
+      </c>
       <c r="J130" s="18" t="e"/>
       <c r="K130" s="17" t="n">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="L130" s="18" t="e"/>
-      <c r="M130" s="18" t="e"/>
+      <c r="M130" s="17" t="n">
+        <v>107</v>
+      </c>
       <c r="N130" s="17" t="n">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="A131" s="19" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B131" s="19" t="e"/>
       <c r="C131" s="19" t="e"/>
@@ -3804,50 +3916,54 @@
       <c r="F131" s="19" t="e"/>
       <c r="G131" s="19" t="e"/>
       <c r="H131" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" s="10" t="e"/>
+        <v>104</v>
+      </c>
+      <c r="I131" s="9" t="n">
+        <v>45</v>
+      </c>
       <c r="J131" s="10" t="e"/>
       <c r="K131" s="9" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="L131" s="10" t="e"/>
-      <c r="M131" s="10" t="e"/>
+      <c r="M131" s="9" t="n">
+        <v>45</v>
+      </c>
       <c r="N131" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true">
-      <c r="A132" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B132" s="16" t="e"/>
-      <c r="C132" s="16" t="e"/>
-      <c r="D132" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E132" s="16" t="e"/>
-      <c r="F132" s="16" t="e"/>
-      <c r="G132" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="I132" s="18" t="e"/>
-      <c r="J132" s="18" t="e"/>
-      <c r="K132" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L132" s="18" t="e"/>
-      <c r="M132" s="18" t="e"/>
-      <c r="N132" s="17" t="n">
-        <v>18</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A132" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132" s="19" t="e"/>
+      <c r="C132" s="19" t="e"/>
+      <c r="D132" s="19" t="e"/>
+      <c r="E132" s="19" t="e"/>
+      <c r="F132" s="19" t="e"/>
+      <c r="G132" s="19" t="e"/>
+      <c r="H132" s="9" t="n">
+        <v>113</v>
+      </c>
+      <c r="I132" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J132" s="10" t="e"/>
+      <c r="K132" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="L132" s="10" t="e"/>
+      <c r="M132" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="N132" s="9" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="A133" s="19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B133" s="19" t="e"/>
       <c r="C133" s="19" t="e"/>
@@ -3856,22 +3972,22 @@
       <c r="F133" s="19" t="e"/>
       <c r="G133" s="19" t="e"/>
       <c r="H133" s="9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I133" s="10" t="e"/>
       <c r="J133" s="10" t="e"/>
       <c r="K133" s="9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L133" s="10" t="e"/>
       <c r="M133" s="10" t="e"/>
       <c r="N133" s="9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="A134" s="19" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B134" s="19" t="e"/>
       <c r="C134" s="19" t="e"/>
@@ -3880,22 +3996,22 @@
       <c r="F134" s="19" t="e"/>
       <c r="G134" s="19" t="e"/>
       <c r="H134" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I134" s="10" t="e"/>
       <c r="J134" s="10" t="e"/>
       <c r="K134" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L134" s="10" t="e"/>
       <c r="M134" s="10" t="e"/>
       <c r="N134" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="A135" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B135" s="19" t="e"/>
       <c r="C135" s="19" t="e"/>
@@ -3904,102 +4020,110 @@
       <c r="F135" s="19" t="e"/>
       <c r="G135" s="19" t="e"/>
       <c r="H135" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I135" s="10" t="e"/>
+        <v>40</v>
+      </c>
+      <c r="I135" s="9" t="n">
+        <v>12</v>
+      </c>
       <c r="J135" s="10" t="e"/>
       <c r="K135" s="9" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="L135" s="10" t="e"/>
-      <c r="M135" s="10" t="e"/>
+      <c r="M135" s="9" t="n">
+        <v>12</v>
+      </c>
       <c r="N135" s="9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A136" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B136" s="19" t="e"/>
-      <c r="C136" s="19" t="e"/>
-      <c r="D136" s="19" t="e"/>
-      <c r="E136" s="19" t="e"/>
-      <c r="F136" s="19" t="e"/>
-      <c r="G136" s="19" t="e"/>
-      <c r="H136" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I136" s="10" t="e"/>
-      <c r="J136" s="10" t="e"/>
-      <c r="K136" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L136" s="10" t="e"/>
-      <c r="M136" s="10" t="e"/>
-      <c r="N136" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" ht="11" customHeight="true">
-      <c r="A137" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B137" s="16" t="e"/>
-      <c r="C137" s="16" t="e"/>
-      <c r="D137" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E137" s="16" t="e"/>
-      <c r="F137" s="16" t="e"/>
-      <c r="G137" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" ht="11" customHeight="true">
+      <c r="A136" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B136" s="16" t="e"/>
+      <c r="C136" s="16" t="e"/>
+      <c r="D136" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="16" t="e"/>
+      <c r="F136" s="16" t="e"/>
+      <c r="G136" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H137" s="17" t="n">
-        <v>103</v>
-      </c>
-      <c r="I137" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="J137" s="18" t="e"/>
-      <c r="K137" s="17" t="n">
-        <v>83</v>
-      </c>
-      <c r="L137" s="18" t="e"/>
-      <c r="M137" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="N137" s="17" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A138" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B138" s="19" t="e"/>
-      <c r="C138" s="19" t="e"/>
-      <c r="D138" s="19" t="e"/>
-      <c r="E138" s="19" t="e"/>
-      <c r="F138" s="19" t="e"/>
-      <c r="G138" s="19" t="e"/>
-      <c r="H138" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I138" s="10" t="e"/>
-      <c r="J138" s="10" t="e"/>
-      <c r="K138" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L138" s="10" t="e"/>
-      <c r="M138" s="10" t="e"/>
-      <c r="N138" s="9" t="n">
-        <v>25</v>
+      <c r="H136" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" s="18" t="e"/>
+      <c r="J136" s="18" t="e"/>
+      <c r="K136" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" s="18" t="e"/>
+      <c r="M136" s="18" t="e"/>
+      <c r="N136" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A137" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" s="19" t="e"/>
+      <c r="C137" s="19" t="e"/>
+      <c r="D137" s="19" t="e"/>
+      <c r="E137" s="19" t="e"/>
+      <c r="F137" s="19" t="e"/>
+      <c r="G137" s="19" t="e"/>
+      <c r="H137" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" s="10" t="e"/>
+      <c r="J137" s="10" t="e"/>
+      <c r="K137" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" s="10" t="e"/>
+      <c r="M137" s="10" t="e"/>
+      <c r="N137" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true">
+      <c r="A138" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B138" s="16" t="e"/>
+      <c r="C138" s="16" t="e"/>
+      <c r="D138" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E138" s="16" t="e"/>
+      <c r="F138" s="16" t="e"/>
+      <c r="G138" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="I138" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" s="18" t="e"/>
+      <c r="K138" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="L138" s="18" t="e"/>
+      <c r="M138" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" s="17" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="A139" s="19" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B139" s="19" t="e"/>
       <c r="C139" s="19" t="e"/>
@@ -4008,22 +4132,22 @@
       <c r="F139" s="19" t="e"/>
       <c r="G139" s="19" t="e"/>
       <c r="H139" s="9" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="I139" s="10" t="e"/>
       <c r="J139" s="10" t="e"/>
       <c r="K139" s="9" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="L139" s="10" t="e"/>
       <c r="M139" s="10" t="e"/>
       <c r="N139" s="9" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="A140" s="19" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B140" s="19" t="e"/>
       <c r="C140" s="19" t="e"/>
@@ -4032,26 +4156,22 @@
       <c r="F140" s="19" t="e"/>
       <c r="G140" s="19" t="e"/>
       <c r="H140" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I140" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I140" s="10" t="e"/>
       <c r="J140" s="10" t="e"/>
       <c r="K140" s="9" t="n">
         <v>6</v>
       </c>
       <c r="L140" s="10" t="e"/>
-      <c r="M140" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M140" s="10" t="e"/>
       <c r="N140" s="9" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="A141" s="19" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B141" s="19" t="e"/>
       <c r="C141" s="19" t="e"/>
@@ -4060,53 +4180,221 @@
       <c r="F141" s="19" t="e"/>
       <c r="G141" s="19" t="e"/>
       <c r="H141" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I141" s="9" t="n">
-        <v>18</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I141" s="10" t="e"/>
       <c r="J141" s="10" t="e"/>
       <c r="K141" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" s="10" t="e"/>
+      <c r="M141" s="10" t="e"/>
+      <c r="N141" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A142" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="19" t="e"/>
+      <c r="C142" s="19" t="e"/>
+      <c r="D142" s="19" t="e"/>
+      <c r="E142" s="19" t="e"/>
+      <c r="F142" s="19" t="e"/>
+      <c r="G142" s="19" t="e"/>
+      <c r="H142" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I142" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" s="10" t="e"/>
+      <c r="K142" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L142" s="10" t="e"/>
+      <c r="M142" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" ht="11" customHeight="true">
+      <c r="A143" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B143" s="16" t="e"/>
+      <c r="C143" s="16" t="e"/>
+      <c r="D143" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E143" s="16" t="e"/>
+      <c r="F143" s="16" t="e"/>
+      <c r="G143" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" s="17" t="n">
+        <v>83</v>
+      </c>
+      <c r="I143" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="J143" s="18" t="e"/>
+      <c r="K143" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="L143" s="18" t="e"/>
+      <c r="M143" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="N143" s="17" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A144" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="19" t="e"/>
+      <c r="C144" s="19" t="e"/>
+      <c r="D144" s="19" t="e"/>
+      <c r="E144" s="19" t="e"/>
+      <c r="F144" s="19" t="e"/>
+      <c r="G144" s="19" t="e"/>
+      <c r="H144" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="L141" s="10" t="e"/>
-      <c r="M141" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="N141" s="9" t="n">
+      <c r="I144" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J144" s="10" t="e"/>
+      <c r="K144" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L144" s="10" t="e"/>
+      <c r="M144" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N144" s="9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A145" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" s="19" t="e"/>
+      <c r="C145" s="19" t="e"/>
+      <c r="D145" s="19" t="e"/>
+      <c r="E145" s="19" t="e"/>
+      <c r="F145" s="19" t="e"/>
+      <c r="G145" s="19" t="e"/>
+      <c r="H145" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="I145" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="J145" s="10" t="e"/>
+      <c r="K145" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L145" s="10" t="e"/>
+      <c r="M145" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="N145" s="9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A146" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="19" t="e"/>
+      <c r="C146" s="19" t="e"/>
+      <c r="D146" s="19" t="e"/>
+      <c r="E146" s="19" t="e"/>
+      <c r="F146" s="19" t="e"/>
+      <c r="G146" s="19" t="e"/>
+      <c r="H146" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I146" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" s="10" t="e"/>
+      <c r="K146" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L146" s="10" t="e"/>
+      <c r="M146" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A147" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" s="19" t="e"/>
+      <c r="C147" s="19" t="e"/>
+      <c r="D147" s="19" t="e"/>
+      <c r="E147" s="19" t="e"/>
+      <c r="F147" s="19" t="e"/>
+      <c r="G147" s="19" t="e"/>
+      <c r="H147" s="9" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="142" ht="13" customHeight="true">
-      <c r="A142" s="12" t="s">
+      <c r="I147" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J147" s="10" t="e"/>
+      <c r="K147" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L147" s="10" t="e"/>
+      <c r="M147" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N147" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" ht="13" customHeight="true">
+      <c r="A148" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B142" s="12" t="e"/>
-      <c r="C142" s="12" t="e"/>
-      <c r="D142" s="12" t="e"/>
-      <c r="E142" s="12" t="e"/>
-      <c r="F142" s="12" t="e"/>
-      <c r="G142" s="12" t="e"/>
-      <c r="H142" s="13" t="n">
-        <v>2571</v>
-      </c>
-      <c r="I142" s="14" t="n">
-        <v>81</v>
-      </c>
-      <c r="J142" s="15" t="e"/>
-      <c r="K142" s="13" t="n">
-        <v>2490</v>
-      </c>
-      <c r="L142" s="15" t="e"/>
-      <c r="M142" s="14" t="n">
-        <v>81</v>
-      </c>
-      <c r="N142" s="13" t="n">
-        <v>2490</v>
+      <c r="B148" s="12" t="e"/>
+      <c r="C148" s="12" t="e"/>
+      <c r="D148" s="12" t="e"/>
+      <c r="E148" s="12" t="e"/>
+      <c r="F148" s="12" t="e"/>
+      <c r="G148" s="12" t="e"/>
+      <c r="H148" s="13" t="n">
+        <v>3090</v>
+      </c>
+      <c r="I148" s="14" t="n">
+        <v>518</v>
+      </c>
+      <c r="J148" s="15" t="e"/>
+      <c r="K148" s="13" t="n">
+        <v>2572</v>
+      </c>
+      <c r="L148" s="15" t="e"/>
+      <c r="M148" s="14" t="n">
+        <v>518</v>
+      </c>
+      <c r="N148" s="13" t="n">
+        <v>2572</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="188">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -4166,109 +4454,108 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A74:G74"/>
     <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:F77"/>
     <mergeCell ref="A78:G78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:F80"/>
     <mergeCell ref="A81:G81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A82:G82"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
     <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="A87:G87"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A92:G92"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
     <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:F102"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A112:G112"/>
     <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
     <mergeCell ref="A117:G117"/>
     <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="A120:G120"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
     <mergeCell ref="A127:G127"/>
     <mergeCell ref="A128:G128"/>
@@ -4276,19 +4563,26 @@
     <mergeCell ref="A130:C130"/>
     <mergeCell ref="D130:F130"/>
     <mergeCell ref="A131:G131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="A132:G132"/>
     <mergeCell ref="A133:G133"/>
     <mergeCell ref="A134:G134"/>
     <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:F138"/>
     <mergeCell ref="A139:G139"/>
     <mergeCell ref="A140:G140"/>
     <mergeCell ref="A141:G141"/>
     <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A145:G145"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A148:G148"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N128"/>
+  <dimension ref="N132"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -615,21 +615,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L9" s="10" t="e"/>
       <c r="M9" s="9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -667,21 +667,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1097</v>
+        <v>1344</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1063</v>
+        <v>1199</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1063</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -695,21 +695,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1223</v>
+        <v>1890</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="J12" s="10" t="e"/>
-      <c r="K12" s="9" t="n">
-        <v>996</v>
+      <c r="K12" s="11" t="n">
+        <v>1605</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>227</v>
-      </c>
-      <c r="N12" s="9" t="n">
-        <v>996</v>
+        <v>285</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>1605</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -723,21 +723,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2544</v>
+        <v>3471</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2281</v>
+        <v>3030</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2281</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -755,21 +755,21 @@
         <v>24</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I14" s="17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L14" s="18" t="e"/>
       <c r="M14" s="17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" s="17" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
@@ -807,17 +807,17 @@
       <c r="F16" s="19" t="e"/>
       <c r="G16" s="19" t="e"/>
       <c r="H16" s="9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I16" s="10" t="e"/>
       <c r="J16" s="10" t="e"/>
       <c r="K16" s="9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="L16" s="10" t="e"/>
       <c r="M16" s="10" t="e"/>
       <c r="N16" s="9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="1">
@@ -831,10 +831,10 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
@@ -842,7 +842,7 @@
       </c>
       <c r="L17" s="10" t="e"/>
       <c r="M17" s="9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" s="9" t="n">
         <v>12</v>
@@ -865,15 +865,19 @@
       <c r="H18" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="I18" s="18" t="e"/>
+      <c r="I18" s="17" t="n">
+        <v>6</v>
+      </c>
       <c r="J18" s="18" t="e"/>
       <c r="K18" s="17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L18" s="18" t="e"/>
-      <c r="M18" s="18" t="e"/>
+      <c r="M18" s="17" t="n">
+        <v>6</v>
+      </c>
       <c r="N18" s="17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="1">
@@ -902,7 +906,7 @@
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
       <c r="A20" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="19" t="e"/>
       <c r="C20" s="19" t="e"/>
@@ -911,178 +915,182 @@
       <c r="F20" s="19" t="e"/>
       <c r="G20" s="19" t="e"/>
       <c r="H20" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" s="10" t="e"/>
+        <v>14</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J20" s="10" t="e"/>
       <c r="K20" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L20" s="10" t="e"/>
-      <c r="M20" s="10" t="e"/>
+      <c r="M20" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N20" s="9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A21" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="true">
+      <c r="A21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="16" t="e"/>
+      <c r="C21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="16" t="e"/>
+      <c r="E21" s="16" t="e"/>
+      <c r="F21" s="16" t="e"/>
+      <c r="G21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="I21" s="18" t="e"/>
+      <c r="J21" s="18" t="e"/>
+      <c r="K21" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L21" s="18" t="e"/>
+      <c r="M21" s="18" t="e"/>
+      <c r="N21" s="17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="19" t="e"/>
-      <c r="C21" s="19" t="e"/>
-      <c r="D21" s="19" t="e"/>
-      <c r="E21" s="19" t="e"/>
-      <c r="F21" s="19" t="e"/>
-      <c r="G21" s="19" t="e"/>
-      <c r="H21" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I21" s="10" t="e"/>
-      <c r="J21" s="10" t="e"/>
-      <c r="K21" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L21" s="10" t="e"/>
-      <c r="M21" s="10" t="e"/>
-      <c r="N21" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="true">
-      <c r="A22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="16" t="e"/>
-      <c r="C22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="16" t="e"/>
-      <c r="E22" s="16" t="e"/>
-      <c r="F22" s="16" t="e"/>
-      <c r="G22" s="16" t="s">
+      <c r="B22" s="19" t="e"/>
+      <c r="C22" s="19" t="e"/>
+      <c r="D22" s="19" t="e"/>
+      <c r="E22" s="19" t="e"/>
+      <c r="F22" s="19" t="e"/>
+      <c r="G22" s="19" t="e"/>
+      <c r="H22" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10" t="e"/>
+      <c r="J22" s="10" t="e"/>
+      <c r="K22" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L22" s="10" t="e"/>
+      <c r="M22" s="10" t="e"/>
+      <c r="N22" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
+      <c r="A23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="16" t="e"/>
+      <c r="C23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="16" t="e"/>
+      <c r="E23" s="16" t="e"/>
+      <c r="F23" s="16" t="e"/>
+      <c r="G23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="I22" s="18" t="e"/>
-      <c r="J22" s="18" t="e"/>
-      <c r="K22" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L22" s="18" t="e"/>
-      <c r="M22" s="18" t="e"/>
-      <c r="N22" s="17" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A23" s="19" t="s">
+      <c r="H23" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="18" t="e"/>
+      <c r="J23" s="18" t="e"/>
+      <c r="K23" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="18" t="e"/>
+      <c r="M23" s="18" t="e"/>
+      <c r="N23" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="19" t="e"/>
-      <c r="C23" s="19" t="e"/>
-      <c r="D23" s="19" t="e"/>
-      <c r="E23" s="19" t="e"/>
-      <c r="F23" s="19" t="e"/>
-      <c r="G23" s="19" t="e"/>
-      <c r="H23" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10" t="e"/>
-      <c r="J23" s="10" t="e"/>
-      <c r="K23" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L23" s="10" t="e"/>
-      <c r="M23" s="10" t="e"/>
-      <c r="N23" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true">
-      <c r="A24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="16" t="e"/>
-      <c r="C24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="16" t="e"/>
-      <c r="E24" s="16" t="e"/>
-      <c r="F24" s="16" t="e"/>
-      <c r="G24" s="16" t="s">
+      <c r="B24" s="19" t="e"/>
+      <c r="C24" s="19" t="e"/>
+      <c r="D24" s="19" t="e"/>
+      <c r="E24" s="19" t="e"/>
+      <c r="F24" s="19" t="e"/>
+      <c r="G24" s="19" t="e"/>
+      <c r="H24" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10" t="e"/>
+      <c r="J24" s="10" t="e"/>
+      <c r="K24" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" s="10" t="e"/>
+      <c r="M24" s="10" t="e"/>
+      <c r="N24" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
+      <c r="A25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="16" t="e"/>
+      <c r="C25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="16" t="e"/>
+      <c r="E25" s="16" t="e"/>
+      <c r="F25" s="16" t="e"/>
+      <c r="G25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" s="18" t="e"/>
-      <c r="J24" s="18" t="e"/>
-      <c r="K24" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L24" s="18" t="e"/>
-      <c r="M24" s="18" t="e"/>
-      <c r="N24" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="19" t="e"/>
-      <c r="C25" s="19" t="e"/>
-      <c r="D25" s="19" t="e"/>
-      <c r="E25" s="19" t="e"/>
-      <c r="F25" s="19" t="e"/>
-      <c r="G25" s="19" t="e"/>
-      <c r="H25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="10" t="e"/>
-      <c r="J25" s="10" t="e"/>
-      <c r="K25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L25" s="10" t="e"/>
-      <c r="M25" s="10" t="e"/>
-      <c r="N25" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true">
-      <c r="A26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="16" t="e"/>
-      <c r="C26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="16" t="e"/>
-      <c r="E26" s="16" t="e"/>
-      <c r="F26" s="16" t="e"/>
-      <c r="G26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="17" t="n">
+      <c r="H25" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="I26" s="18" t="e"/>
-      <c r="J26" s="18" t="e"/>
-      <c r="K26" s="17" t="n">
+      <c r="I25" s="18" t="e"/>
+      <c r="J25" s="18" t="e"/>
+      <c r="K25" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="L26" s="18" t="e"/>
-      <c r="M26" s="18" t="e"/>
-      <c r="N26" s="17" t="n">
+      <c r="L25" s="18" t="e"/>
+      <c r="M25" s="18" t="e"/>
+      <c r="N25" s="17" t="n">
         <v>82</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19" t="e"/>
+      <c r="C26" s="19" t="e"/>
+      <c r="D26" s="19" t="e"/>
+      <c r="E26" s="19" t="e"/>
+      <c r="F26" s="19" t="e"/>
+      <c r="G26" s="19" t="e"/>
+      <c r="H26" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="I26" s="10" t="e"/>
+      <c r="J26" s="10" t="e"/>
+      <c r="K26" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L26" s="10" t="e"/>
+      <c r="M26" s="10" t="e"/>
+      <c r="N26" s="9" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="A27" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="19" t="e"/>
       <c r="C27" s="19" t="e"/>
@@ -1091,74 +1099,74 @@
       <c r="F27" s="19" t="e"/>
       <c r="G27" s="19" t="e"/>
       <c r="H27" s="9" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I27" s="10" t="e"/>
       <c r="J27" s="10" t="e"/>
       <c r="K27" s="9" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L27" s="10" t="e"/>
       <c r="M27" s="10" t="e"/>
       <c r="N27" s="9" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19" t="e"/>
-      <c r="C28" s="19" t="e"/>
-      <c r="D28" s="19" t="e"/>
-      <c r="E28" s="19" t="e"/>
-      <c r="F28" s="19" t="e"/>
-      <c r="G28" s="19" t="e"/>
-      <c r="H28" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="I28" s="10" t="e"/>
-      <c r="J28" s="10" t="e"/>
-      <c r="K28" s="9" t="n">
+    </row>
+    <row r="28" ht="22" customHeight="true">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="10" t="e"/>
-      <c r="M28" s="10" t="e"/>
-      <c r="N28" s="9" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true">
-      <c r="A29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16" t="e"/>
-      <c r="C29" s="16" t="s">
+      <c r="B28" s="16" t="e"/>
+      <c r="C28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="16" t="e"/>
-      <c r="E29" s="16" t="e"/>
-      <c r="F29" s="16" t="e"/>
-      <c r="G29" s="16" t="s">
+      <c r="D28" s="16" t="e"/>
+      <c r="E28" s="16" t="e"/>
+      <c r="F28" s="16" t="e"/>
+      <c r="G28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="17" t="n">
+      <c r="H28" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="I29" s="18" t="e"/>
-      <c r="J29" s="18" t="e"/>
-      <c r="K29" s="17" t="n">
+      <c r="I28" s="18" t="e"/>
+      <c r="J28" s="18" t="e"/>
+      <c r="K28" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="L29" s="18" t="e"/>
-      <c r="M29" s="18" t="e"/>
-      <c r="N29" s="17" t="n">
+      <c r="L28" s="18" t="e"/>
+      <c r="M28" s="18" t="e"/>
+      <c r="N28" s="17" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="19" t="e"/>
+      <c r="C29" s="19" t="e"/>
+      <c r="D29" s="19" t="e"/>
+      <c r="E29" s="19" t="e"/>
+      <c r="F29" s="19" t="e"/>
+      <c r="G29" s="19" t="e"/>
+      <c r="H29" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10" t="e"/>
+      <c r="J29" s="10" t="e"/>
+      <c r="K29" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="10" t="e"/>
+      <c r="M29" s="10" t="e"/>
+      <c r="N29" s="9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="A30" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="19" t="e"/>
       <c r="C30" s="19" t="e"/>
@@ -1167,74 +1175,74 @@
       <c r="F30" s="19" t="e"/>
       <c r="G30" s="19" t="e"/>
       <c r="H30" s="9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I30" s="10" t="e"/>
       <c r="J30" s="10" t="e"/>
       <c r="K30" s="9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L30" s="10" t="e"/>
       <c r="M30" s="10" t="e"/>
       <c r="N30" s="9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A31" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="19" t="e"/>
-      <c r="C31" s="19" t="e"/>
-      <c r="D31" s="19" t="e"/>
-      <c r="E31" s="19" t="e"/>
-      <c r="F31" s="19" t="e"/>
-      <c r="G31" s="19" t="e"/>
-      <c r="H31" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="I31" s="10" t="e"/>
-      <c r="J31" s="10" t="e"/>
-      <c r="K31" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L31" s="10" t="e"/>
-      <c r="M31" s="10" t="e"/>
-      <c r="N31" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="22" customHeight="true">
-      <c r="A32" s="16" t="s">
+    </row>
+    <row r="31" ht="22" customHeight="true">
+      <c r="A31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="16" t="e"/>
-      <c r="C32" s="16" t="s">
+      <c r="B31" s="16" t="e"/>
+      <c r="C31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="16" t="e"/>
-      <c r="E32" s="16" t="e"/>
-      <c r="F32" s="16" t="e"/>
-      <c r="G32" s="16" t="s">
+      <c r="D31" s="16" t="e"/>
+      <c r="E31" s="16" t="e"/>
+      <c r="F31" s="16" t="e"/>
+      <c r="G31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="17" t="n">
+      <c r="H31" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="I32" s="18" t="e"/>
-      <c r="J32" s="18" t="e"/>
-      <c r="K32" s="17" t="n">
+      <c r="I31" s="18" t="e"/>
+      <c r="J31" s="18" t="e"/>
+      <c r="K31" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="L32" s="18" t="e"/>
-      <c r="M32" s="18" t="e"/>
-      <c r="N32" s="17" t="n">
+      <c r="L31" s="18" t="e"/>
+      <c r="M31" s="18" t="e"/>
+      <c r="N31" s="17" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="e"/>
+      <c r="C32" s="19" t="e"/>
+      <c r="D32" s="19" t="e"/>
+      <c r="E32" s="19" t="e"/>
+      <c r="F32" s="19" t="e"/>
+      <c r="G32" s="19" t="e"/>
+      <c r="H32" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" s="10" t="e"/>
+      <c r="J32" s="10" t="e"/>
+      <c r="K32" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" s="10" t="e"/>
+      <c r="M32" s="10" t="e"/>
+      <c r="N32" s="9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="19" t="e"/>
       <c r="C33" s="19" t="e"/>
@@ -1243,178 +1251,182 @@
       <c r="F33" s="19" t="e"/>
       <c r="G33" s="19" t="e"/>
       <c r="H33" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I33" s="10" t="e"/>
       <c r="J33" s="10" t="e"/>
       <c r="K33" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L33" s="10" t="e"/>
       <c r="M33" s="10" t="e"/>
       <c r="N33" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A34" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
+      <c r="A34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="16" t="e"/>
+      <c r="C34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="16" t="e"/>
+      <c r="E34" s="16" t="e"/>
+      <c r="F34" s="16" t="e"/>
+      <c r="G34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" s="18" t="e"/>
+      <c r="J34" s="18" t="e"/>
+      <c r="K34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="18" t="e"/>
+      <c r="M34" s="18" t="e"/>
+      <c r="N34" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A35" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="19" t="e"/>
-      <c r="C34" s="19" t="e"/>
-      <c r="D34" s="19" t="e"/>
-      <c r="E34" s="19" t="e"/>
-      <c r="F34" s="19" t="e"/>
-      <c r="G34" s="19" t="e"/>
-      <c r="H34" s="9" t="n">
+      <c r="B35" s="19" t="e"/>
+      <c r="C35" s="19" t="e"/>
+      <c r="D35" s="19" t="e"/>
+      <c r="E35" s="19" t="e"/>
+      <c r="F35" s="19" t="e"/>
+      <c r="G35" s="19" t="e"/>
+      <c r="H35" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I34" s="10" t="e"/>
-      <c r="J34" s="10" t="e"/>
-      <c r="K34" s="9" t="n">
+      <c r="I35" s="10" t="e"/>
+      <c r="J35" s="10" t="e"/>
+      <c r="K35" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L34" s="10" t="e"/>
-      <c r="M34" s="10" t="e"/>
-      <c r="N34" s="9" t="n">
+      <c r="L35" s="10" t="e"/>
+      <c r="M35" s="10" t="e"/>
+      <c r="N35" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="22" customHeight="true">
-      <c r="A35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="16" t="e"/>
-      <c r="C35" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="16" t="e"/>
-      <c r="E35" s="16" t="e"/>
-      <c r="F35" s="16" t="e"/>
-      <c r="G35" s="16" t="s">
+    <row r="36" ht="11" customHeight="true">
+      <c r="A36" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="16" t="e"/>
+      <c r="C36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="16" t="e"/>
+      <c r="E36" s="16" t="e"/>
+      <c r="F36" s="16" t="e"/>
+      <c r="G36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" s="18" t="e"/>
-      <c r="J35" s="18" t="e"/>
-      <c r="K35" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L35" s="18" t="e"/>
-      <c r="M35" s="18" t="e"/>
-      <c r="N35" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A36" s="19" t="s">
+      <c r="H36" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" s="18" t="e"/>
+      <c r="J36" s="18" t="e"/>
+      <c r="K36" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="L36" s="18" t="e"/>
+      <c r="M36" s="18" t="e"/>
+      <c r="N36" s="17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="19" t="e"/>
-      <c r="C36" s="19" t="e"/>
-      <c r="D36" s="19" t="e"/>
-      <c r="E36" s="19" t="e"/>
-      <c r="F36" s="19" t="e"/>
-      <c r="G36" s="19" t="e"/>
-      <c r="H36" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" s="10" t="e"/>
-      <c r="J36" s="10" t="e"/>
-      <c r="K36" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L36" s="10" t="e"/>
-      <c r="M36" s="10" t="e"/>
-      <c r="N36" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true">
-      <c r="A37" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="16" t="e"/>
-      <c r="C37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="16" t="e"/>
-      <c r="E37" s="16" t="e"/>
-      <c r="F37" s="16" t="e"/>
-      <c r="G37" s="16" t="s">
+      <c r="B37" s="19" t="e"/>
+      <c r="C37" s="19" t="e"/>
+      <c r="D37" s="19" t="e"/>
+      <c r="E37" s="19" t="e"/>
+      <c r="F37" s="19" t="e"/>
+      <c r="G37" s="19" t="e"/>
+      <c r="H37" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" s="10" t="e"/>
+      <c r="J37" s="10" t="e"/>
+      <c r="K37" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L37" s="10" t="e"/>
+      <c r="M37" s="10" t="e"/>
+      <c r="N37" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="16" t="e"/>
+      <c r="C38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="16" t="e"/>
+      <c r="E38" s="16" t="e"/>
+      <c r="F38" s="16" t="e"/>
+      <c r="G38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="17" t="n">
+      <c r="H38" s="17" t="n">
+        <v>268</v>
+      </c>
+      <c r="I38" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="18" t="e"/>
+      <c r="K38" s="17" t="n">
+        <v>266</v>
+      </c>
+      <c r="L38" s="18" t="e"/>
+      <c r="M38" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" s="17" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="18" t="e"/>
-      <c r="J37" s="18" t="e"/>
-      <c r="K37" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L37" s="18" t="e"/>
-      <c r="M37" s="18" t="e"/>
-      <c r="N37" s="17" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A38" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="19" t="e"/>
-      <c r="C38" s="19" t="e"/>
-      <c r="D38" s="19" t="e"/>
-      <c r="E38" s="19" t="e"/>
-      <c r="F38" s="19" t="e"/>
-      <c r="G38" s="19" t="e"/>
-      <c r="H38" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="10" t="e"/>
-      <c r="J38" s="10" t="e"/>
-      <c r="K38" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L38" s="10" t="e"/>
-      <c r="M38" s="10" t="e"/>
-      <c r="N38" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true">
-      <c r="A39" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="16" t="e"/>
-      <c r="C39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="16" t="e"/>
-      <c r="E39" s="16" t="e"/>
-      <c r="F39" s="16" t="e"/>
-      <c r="G39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="17" t="n">
-        <v>268</v>
-      </c>
-      <c r="I39" s="18" t="e"/>
-      <c r="J39" s="18" t="e"/>
-      <c r="K39" s="17" t="n">
-        <v>268</v>
-      </c>
-      <c r="L39" s="18" t="e"/>
-      <c r="M39" s="18" t="e"/>
-      <c r="N39" s="17" t="n">
-        <v>268</v>
+      <c r="B39" s="19" t="e"/>
+      <c r="C39" s="19" t="e"/>
+      <c r="D39" s="19" t="e"/>
+      <c r="E39" s="19" t="e"/>
+      <c r="F39" s="19" t="e"/>
+      <c r="G39" s="19" t="e"/>
+      <c r="H39" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="I39" s="10" t="e"/>
+      <c r="J39" s="10" t="e"/>
+      <c r="K39" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="L39" s="10" t="e"/>
+      <c r="M39" s="10" t="e"/>
+      <c r="N39" s="9" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="1">
       <c r="A40" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="19" t="e"/>
       <c r="C40" s="19" t="e"/>
@@ -1423,22 +1435,22 @@
       <c r="F40" s="19" t="e"/>
       <c r="G40" s="19" t="e"/>
       <c r="H40" s="9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I40" s="10" t="e"/>
       <c r="J40" s="10" t="e"/>
       <c r="K40" s="9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L40" s="10" t="e"/>
       <c r="M40" s="10" t="e"/>
       <c r="N40" s="9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="1">
       <c r="A41" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="19" t="e"/>
       <c r="C41" s="19" t="e"/>
@@ -1447,78 +1459,82 @@
       <c r="F41" s="19" t="e"/>
       <c r="G41" s="19" t="e"/>
       <c r="H41" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I41" s="10" t="e"/>
+        <v>58</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J41" s="10" t="e"/>
       <c r="K41" s="9" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="L41" s="10" t="e"/>
-      <c r="M41" s="10" t="e"/>
+      <c r="M41" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N41" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="19" t="e"/>
-      <c r="C42" s="19" t="e"/>
-      <c r="D42" s="19" t="e"/>
-      <c r="E42" s="19" t="e"/>
-      <c r="F42" s="19" t="e"/>
-      <c r="G42" s="19" t="e"/>
-      <c r="H42" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="I42" s="10" t="e"/>
-      <c r="J42" s="10" t="e"/>
-      <c r="K42" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="L42" s="10" t="e"/>
-      <c r="M42" s="10" t="e"/>
-      <c r="N42" s="9" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true">
-      <c r="A43" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true">
+      <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="16" t="e"/>
-      <c r="C43" s="16" t="s">
+      <c r="B42" s="16" t="e"/>
+      <c r="C42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="16" t="e"/>
-      <c r="E43" s="16" t="e"/>
-      <c r="F43" s="16" t="e"/>
-      <c r="G43" s="16" t="s">
+      <c r="D42" s="16" t="e"/>
+      <c r="E42" s="16" t="e"/>
+      <c r="F42" s="16" t="e"/>
+      <c r="G42" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="17" t="n">
-        <v>176</v>
-      </c>
-      <c r="I43" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="18" t="e"/>
-      <c r="K43" s="17" t="n">
-        <v>175</v>
-      </c>
-      <c r="L43" s="18" t="e"/>
-      <c r="M43" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="17" t="n">
-        <v>175</v>
+      <c r="H42" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="I42" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" s="18" t="e"/>
+      <c r="K42" s="17" t="n">
+        <v>156</v>
+      </c>
+      <c r="L42" s="18" t="e"/>
+      <c r="M42" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="N42" s="17" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="19" t="e"/>
+      <c r="C43" s="19" t="e"/>
+      <c r="D43" s="19" t="e"/>
+      <c r="E43" s="19" t="e"/>
+      <c r="F43" s="19" t="e"/>
+      <c r="G43" s="19" t="e"/>
+      <c r="H43" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="I43" s="10" t="e"/>
+      <c r="J43" s="10" t="e"/>
+      <c r="K43" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="L43" s="10" t="e"/>
+      <c r="M43" s="10" t="e"/>
+      <c r="N43" s="9" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="A44" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B44" s="19" t="e"/>
       <c r="C44" s="19" t="e"/>
@@ -1527,22 +1543,26 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="I44" s="10" t="e"/>
+        <v>52</v>
+      </c>
+      <c r="I44" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L44" s="10" t="e"/>
-      <c r="M44" s="10" t="e"/>
+      <c r="M44" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N44" s="9" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="A45" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B45" s="19" t="e"/>
       <c r="C45" s="19" t="e"/>
@@ -1551,22 +1571,26 @@
       <c r="F45" s="19" t="e"/>
       <c r="G45" s="19" t="e"/>
       <c r="H45" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="I45" s="10" t="e"/>
+        <v>20</v>
+      </c>
+      <c r="I45" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="J45" s="10" t="e"/>
       <c r="K45" s="9" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="L45" s="10" t="e"/>
-      <c r="M45" s="10" t="e"/>
+      <c r="M45" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="N45" s="9" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
       <c r="A46" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B46" s="19" t="e"/>
       <c r="C46" s="19" t="e"/>
@@ -1575,22 +1599,22 @@
       <c r="F46" s="19" t="e"/>
       <c r="G46" s="19" t="e"/>
       <c r="H46" s="9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I46" s="10" t="e"/>
       <c r="J46" s="10" t="e"/>
       <c r="K46" s="9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L46" s="10" t="e"/>
       <c r="M46" s="10" t="e"/>
       <c r="N46" s="9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="A47" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" s="19" t="e"/>
       <c r="C47" s="19" t="e"/>
@@ -1599,78 +1623,82 @@
       <c r="F47" s="19" t="e"/>
       <c r="G47" s="19" t="e"/>
       <c r="H47" s="9" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I47" s="10" t="e"/>
       <c r="J47" s="10" t="e"/>
       <c r="K47" s="9" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L47" s="10" t="e"/>
       <c r="M47" s="10" t="e"/>
       <c r="N47" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A48" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="19" t="e"/>
-      <c r="C48" s="19" t="e"/>
-      <c r="D48" s="19" t="e"/>
-      <c r="E48" s="19" t="e"/>
-      <c r="F48" s="19" t="e"/>
-      <c r="G48" s="19" t="e"/>
-      <c r="H48" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="10" t="e"/>
-      <c r="K48" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="L48" s="10" t="e"/>
-      <c r="M48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" s="9" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="A49" s="16" t="s">
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="16" t="e"/>
-      <c r="C49" s="16" t="s">
+      <c r="B48" s="16" t="e"/>
+      <c r="C48" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="16" t="e"/>
-      <c r="E49" s="16" t="e"/>
-      <c r="F49" s="16" t="e"/>
-      <c r="G49" s="16" t="s">
+      <c r="D48" s="16" t="e"/>
+      <c r="E48" s="16" t="e"/>
+      <c r="F48" s="16" t="e"/>
+      <c r="G48" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="17" t="n">
+      <c r="H48" s="17" t="n">
         <v>185</v>
       </c>
-      <c r="I49" s="18" t="e"/>
-      <c r="J49" s="18" t="e"/>
-      <c r="K49" s="17" t="n">
-        <v>185</v>
-      </c>
-      <c r="L49" s="18" t="e"/>
-      <c r="M49" s="18" t="e"/>
-      <c r="N49" s="17" t="n">
-        <v>185</v>
+      <c r="I48" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J48" s="18" t="e"/>
+      <c r="K48" s="17" t="n">
+        <v>135</v>
+      </c>
+      <c r="L48" s="18" t="e"/>
+      <c r="M48" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="N48" s="17" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="19" t="e"/>
+      <c r="C49" s="19" t="e"/>
+      <c r="D49" s="19" t="e"/>
+      <c r="E49" s="19" t="e"/>
+      <c r="F49" s="19" t="e"/>
+      <c r="G49" s="19" t="e"/>
+      <c r="H49" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="I49" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J49" s="10" t="e"/>
+      <c r="K49" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="L49" s="10" t="e"/>
+      <c r="M49" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="N49" s="9" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B50" s="19" t="e"/>
       <c r="C50" s="19" t="e"/>
@@ -1679,46 +1707,54 @@
       <c r="F50" s="19" t="e"/>
       <c r="G50" s="19" t="e"/>
       <c r="H50" s="9" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I50" s="10" t="e"/>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="L50" s="10" t="e"/>
       <c r="M50" s="10" t="e"/>
       <c r="N50" s="9" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A51" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="19" t="e"/>
-      <c r="C51" s="19" t="e"/>
-      <c r="D51" s="19" t="e"/>
-      <c r="E51" s="19" t="e"/>
-      <c r="F51" s="19" t="e"/>
-      <c r="G51" s="19" t="e"/>
-      <c r="H51" s="9" t="n">
-        <v>57</v>
-      </c>
-      <c r="I51" s="10" t="e"/>
-      <c r="J51" s="10" t="e"/>
-      <c r="K51" s="9" t="n">
-        <v>57</v>
-      </c>
-      <c r="L51" s="10" t="e"/>
-      <c r="M51" s="10" t="e"/>
-      <c r="N51" s="9" t="n">
-        <v>57</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="true">
+      <c r="A51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="16" t="e"/>
+      <c r="C51" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="16" t="e"/>
+      <c r="E51" s="16" t="e"/>
+      <c r="F51" s="16" t="e"/>
+      <c r="G51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="17" t="n">
+        <v>189</v>
+      </c>
+      <c r="I51" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J51" s="18" t="e"/>
+      <c r="K51" s="17" t="n">
+        <v>172</v>
+      </c>
+      <c r="L51" s="18" t="e"/>
+      <c r="M51" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N51" s="17" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="52" ht="11" customHeight="true" outlineLevel="1">
       <c r="A52" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" s="19" t="e"/>
       <c r="C52" s="19" t="e"/>
@@ -1727,54 +1763,50 @@
       <c r="F52" s="19" t="e"/>
       <c r="G52" s="19" t="e"/>
       <c r="H52" s="9" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I52" s="10" t="e"/>
       <c r="J52" s="10" t="e"/>
       <c r="K52" s="9" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="L52" s="10" t="e"/>
       <c r="M52" s="10" t="e"/>
       <c r="N52" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
-      <c r="A53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="16" t="e"/>
-      <c r="C53" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="16" t="e"/>
-      <c r="E53" s="16" t="e"/>
-      <c r="F53" s="16" t="e"/>
-      <c r="G53" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="17" t="n">
-        <v>121</v>
-      </c>
-      <c r="I53" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J53" s="18" t="e"/>
-      <c r="K53" s="17" t="n">
-        <v>108</v>
-      </c>
-      <c r="L53" s="18" t="e"/>
-      <c r="M53" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="N53" s="17" t="n">
-        <v>108</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A53" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="19" t="e"/>
+      <c r="C53" s="19" t="e"/>
+      <c r="D53" s="19" t="e"/>
+      <c r="E53" s="19" t="e"/>
+      <c r="F53" s="19" t="e"/>
+      <c r="G53" s="19" t="e"/>
+      <c r="H53" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" s="10" t="e"/>
+      <c r="K53" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="L53" s="10" t="e"/>
+      <c r="M53" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" s="9" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1783,22 +1815,26 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>51</v>
-      </c>
-      <c r="I54" s="10" t="e"/>
+        <v>29</v>
+      </c>
+      <c r="I54" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="L54" s="10" t="e"/>
-      <c r="M54" s="10" t="e"/>
+      <c r="M54" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="N54" s="9" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1807,26 +1843,22 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="I55" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L55" s="10" t="e"/>
-      <c r="M55" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="A56" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B56" s="19" t="e"/>
       <c r="C56" s="19" t="e"/>
@@ -1835,82 +1867,86 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I56" s="10" t="e"/>
+        <v>36</v>
+      </c>
+      <c r="I56" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L56" s="10" t="e"/>
+      <c r="M56" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N56" s="9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="16" t="e"/>
+      <c r="C57" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="16" t="e"/>
+      <c r="E57" s="16" t="e"/>
+      <c r="F57" s="16" t="e"/>
+      <c r="G57" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="17" t="n">
+        <v>112</v>
+      </c>
+      <c r="I57" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="L56" s="10" t="e"/>
-      <c r="M56" s="10" t="e"/>
-      <c r="N56" s="9" t="n">
+      <c r="J57" s="18" t="e"/>
+      <c r="K57" s="17" t="n">
+        <v>108</v>
+      </c>
+      <c r="L57" s="18" t="e"/>
+      <c r="M57" s="17" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A57" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="19" t="e"/>
-      <c r="C57" s="19" t="e"/>
-      <c r="D57" s="19" t="e"/>
-      <c r="E57" s="19" t="e"/>
-      <c r="F57" s="19" t="e"/>
-      <c r="G57" s="19" t="e"/>
-      <c r="H57" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I57" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" s="10" t="e"/>
-      <c r="K57" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="L57" s="10" t="e"/>
-      <c r="M57" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N57" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
-      <c r="A58" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="16" t="e"/>
-      <c r="C58" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="16" t="e"/>
-      <c r="E58" s="16" t="e"/>
-      <c r="F58" s="16" t="e"/>
-      <c r="G58" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="17" t="n">
-        <v>99</v>
-      </c>
-      <c r="I58" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" s="18" t="e"/>
-      <c r="K58" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="L58" s="18" t="e"/>
-      <c r="M58" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" s="17" t="n">
-        <v>94</v>
+      <c r="N57" s="17" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A58" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="19" t="e"/>
+      <c r="C58" s="19" t="e"/>
+      <c r="D58" s="19" t="e"/>
+      <c r="E58" s="19" t="e"/>
+      <c r="F58" s="19" t="e"/>
+      <c r="G58" s="19" t="e"/>
+      <c r="H58" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="I58" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" s="10" t="e"/>
+      <c r="K58" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L58" s="10" t="e"/>
+      <c r="M58" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" s="9" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="1">
       <c r="A59" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B59" s="19" t="e"/>
       <c r="C59" s="19" t="e"/>
@@ -1919,22 +1955,22 @@
       <c r="F59" s="19" t="e"/>
       <c r="G59" s="19" t="e"/>
       <c r="H59" s="9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I59" s="10" t="e"/>
       <c r="J59" s="10" t="e"/>
       <c r="K59" s="9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L59" s="10" t="e"/>
       <c r="M59" s="10" t="e"/>
       <c r="N59" s="9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1943,26 +1979,22 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I60" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L60" s="10" t="e"/>
-      <c r="M60" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -1971,22 +2003,22 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I61" s="10" t="e"/>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L61" s="10" t="e"/>
       <c r="M61" s="10" t="e"/>
       <c r="N61" s="9" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="11" customHeight="true" outlineLevel="1">
       <c r="A62" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B62" s="19" t="e"/>
       <c r="C62" s="19" t="e"/>
@@ -1995,78 +2027,82 @@
       <c r="F62" s="19" t="e"/>
       <c r="G62" s="19" t="e"/>
       <c r="H62" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I62" s="10" t="e"/>
+        <v>31</v>
+      </c>
+      <c r="I62" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J62" s="10" t="e"/>
       <c r="K62" s="9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L62" s="10" t="e"/>
-      <c r="M62" s="10" t="e"/>
+      <c r="M62" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N62" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A63" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="19" t="e"/>
-      <c r="C63" s="19" t="e"/>
-      <c r="D63" s="19" t="e"/>
-      <c r="E63" s="19" t="e"/>
-      <c r="F63" s="19" t="e"/>
-      <c r="G63" s="19" t="e"/>
-      <c r="H63" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" ht="11" customHeight="true">
+      <c r="A63" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="16" t="e"/>
+      <c r="C63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="16" t="e"/>
+      <c r="E63" s="16" t="e"/>
+      <c r="F63" s="16" t="e"/>
+      <c r="G63" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="I63" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" s="18" t="e"/>
+      <c r="K63" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="I63" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" s="10" t="e"/>
-      <c r="K63" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L63" s="10" t="e"/>
-      <c r="M63" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N63" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" ht="11" customHeight="true">
-      <c r="A64" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="16" t="e"/>
-      <c r="C64" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="16" t="e"/>
-      <c r="E64" s="16" t="e"/>
-      <c r="F64" s="16" t="e"/>
-      <c r="G64" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="I64" s="18" t="e"/>
-      <c r="J64" s="18" t="e"/>
-      <c r="K64" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="L64" s="18" t="e"/>
-      <c r="M64" s="18" t="e"/>
-      <c r="N64" s="17" t="n">
-        <v>33</v>
+      <c r="L63" s="18" t="e"/>
+      <c r="M63" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N63" s="17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A64" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="19" t="e"/>
+      <c r="C64" s="19" t="e"/>
+      <c r="D64" s="19" t="e"/>
+      <c r="E64" s="19" t="e"/>
+      <c r="F64" s="19" t="e"/>
+      <c r="G64" s="19" t="e"/>
+      <c r="H64" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I64" s="10" t="e"/>
+      <c r="J64" s="10" t="e"/>
+      <c r="K64" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L64" s="10" t="e"/>
+      <c r="M64" s="10" t="e"/>
+      <c r="N64" s="9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2075,78 +2111,86 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I65" s="10" t="e"/>
+        <v>18</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <v>17</v>
+      </c>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L65" s="10" t="e"/>
-      <c r="M65" s="10" t="e"/>
+      <c r="M65" s="9" t="n">
+        <v>17</v>
+      </c>
       <c r="N65" s="9" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A66" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="19" t="e"/>
-      <c r="C66" s="19" t="e"/>
-      <c r="D66" s="19" t="e"/>
-      <c r="E66" s="19" t="e"/>
-      <c r="F66" s="19" t="e"/>
-      <c r="G66" s="19" t="e"/>
-      <c r="H66" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I66" s="10" t="e"/>
-      <c r="J66" s="10" t="e"/>
-      <c r="K66" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L66" s="10" t="e"/>
-      <c r="M66" s="10" t="e"/>
-      <c r="N66" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" ht="22" customHeight="true">
-      <c r="A67" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true">
+      <c r="A66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="16" t="e"/>
-      <c r="C67" s="16" t="s">
+      <c r="B66" s="16" t="e"/>
+      <c r="C66" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="16" t="e"/>
-      <c r="E67" s="16" t="e"/>
-      <c r="F67" s="16" t="e"/>
-      <c r="G67" s="16" t="s">
+      <c r="D66" s="16" t="e"/>
+      <c r="E66" s="16" t="e"/>
+      <c r="F66" s="16" t="e"/>
+      <c r="G66" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="17" t="n">
-        <v>84</v>
-      </c>
-      <c r="I67" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" s="18" t="e"/>
-      <c r="K67" s="17" t="n">
-        <v>79</v>
-      </c>
-      <c r="L67" s="18" t="e"/>
-      <c r="M67" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N67" s="17" t="n">
-        <v>79</v>
+      <c r="H66" s="17" t="n">
+        <v>205</v>
+      </c>
+      <c r="I66" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J66" s="18" t="e"/>
+      <c r="K66" s="17" t="n">
+        <v>179</v>
+      </c>
+      <c r="L66" s="18" t="e"/>
+      <c r="M66" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="N66" s="17" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A67" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="19" t="e"/>
+      <c r="C67" s="19" t="e"/>
+      <c r="D67" s="19" t="e"/>
+      <c r="E67" s="19" t="e"/>
+      <c r="F67" s="19" t="e"/>
+      <c r="G67" s="19" t="e"/>
+      <c r="H67" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I67" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" s="10" t="e"/>
+      <c r="K67" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L67" s="10" t="e"/>
+      <c r="M67" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" s="9" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2155,22 +2199,22 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I68" s="10" t="e"/>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="L68" s="10" t="e"/>
       <c r="M68" s="10" t="e"/>
       <c r="N68" s="9" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
       <c r="A69" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B69" s="19" t="e"/>
       <c r="C69" s="19" t="e"/>
@@ -2179,26 +2223,22 @@
       <c r="F69" s="19" t="e"/>
       <c r="G69" s="19" t="e"/>
       <c r="H69" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I69" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I69" s="10" t="e"/>
       <c r="J69" s="10" t="e"/>
       <c r="K69" s="9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L69" s="10" t="e"/>
-      <c r="M69" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M69" s="10" t="e"/>
       <c r="N69" s="9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2207,17 +2247,17 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L70" s="10" t="e"/>
       <c r="M70" s="10" t="e"/>
       <c r="N70" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
@@ -2231,17 +2271,21 @@
       <c r="F71" s="19" t="e"/>
       <c r="G71" s="19" t="e"/>
       <c r="H71" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I71" s="10" t="e"/>
+        <v>74</v>
+      </c>
+      <c r="I71" s="9" t="n">
+        <v>24</v>
+      </c>
       <c r="J71" s="10" t="e"/>
       <c r="K71" s="9" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L71" s="10" t="e"/>
-      <c r="M71" s="10" t="e"/>
+      <c r="M71" s="9" t="n">
+        <v>24</v>
+      </c>
       <c r="N71" s="9" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true">
@@ -2259,21 +2303,21 @@
         <v>24</v>
       </c>
       <c r="H72" s="17" t="n">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="I72" s="17" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J72" s="18" t="e"/>
       <c r="K72" s="17" t="n">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="L72" s="18" t="e"/>
       <c r="M72" s="17" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N72" s="17" t="n">
-        <v>121</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
@@ -2287,21 +2331,21 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L73" s="10" t="e"/>
       <c r="M73" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N73" s="9" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
@@ -2315,21 +2359,21 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L74" s="10" t="e"/>
       <c r="M74" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N74" s="9" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
@@ -2367,17 +2411,17 @@
       <c r="F76" s="19" t="e"/>
       <c r="G76" s="19" t="e"/>
       <c r="H76" s="9" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I76" s="10" t="e"/>
       <c r="J76" s="10" t="e"/>
       <c r="K76" s="9" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L76" s="10" t="e"/>
       <c r="M76" s="10" t="e"/>
       <c r="N76" s="9" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
@@ -2391,21 +2435,21 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="9" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N77" s="9" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true">
@@ -2423,21 +2467,21 @@
         <v>24</v>
       </c>
       <c r="H78" s="17" t="n">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="I78" s="17" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J78" s="18" t="e"/>
       <c r="K78" s="17" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="L78" s="18" t="e"/>
       <c r="M78" s="17" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N78" s="17" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
@@ -2451,21 +2495,21 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L79" s="10" t="e"/>
       <c r="M79" s="9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N79" s="9" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
@@ -2479,17 +2523,17 @@
       <c r="F80" s="19" t="e"/>
       <c r="G80" s="19" t="e"/>
       <c r="H80" s="9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I80" s="10" t="e"/>
       <c r="J80" s="10" t="e"/>
       <c r="K80" s="9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L80" s="10" t="e"/>
       <c r="M80" s="10" t="e"/>
       <c r="N80" s="9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
@@ -2505,20 +2549,24 @@
       <c r="H81" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="I81" s="10" t="e"/>
+      <c r="I81" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J81" s="10" t="e"/>
       <c r="K81" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L81" s="10" t="e"/>
-      <c r="M81" s="10" t="e"/>
+      <c r="M81" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="N81" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="A82" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B82" s="19" t="e"/>
       <c r="C82" s="19" t="e"/>
@@ -2527,82 +2575,82 @@
       <c r="F82" s="19" t="e"/>
       <c r="G82" s="19" t="e"/>
       <c r="H82" s="9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I82" s="10" t="e"/>
       <c r="J82" s="10" t="e"/>
       <c r="K82" s="9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L82" s="10" t="e"/>
       <c r="M82" s="10" t="e"/>
       <c r="N82" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" ht="22" customHeight="true">
-      <c r="A83" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A83" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="19" t="e"/>
+      <c r="C83" s="19" t="e"/>
+      <c r="D83" s="19" t="e"/>
+      <c r="E83" s="19" t="e"/>
+      <c r="F83" s="19" t="e"/>
+      <c r="G83" s="19" t="e"/>
+      <c r="H83" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I83" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J83" s="10" t="e"/>
+      <c r="K83" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="L83" s="10" t="e"/>
+      <c r="M83" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N83" s="9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" ht="22" customHeight="true">
+      <c r="A84" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="16" t="e"/>
-      <c r="C83" s="16" t="s">
+      <c r="B84" s="16" t="e"/>
+      <c r="C84" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="16" t="e"/>
-      <c r="E83" s="16" t="e"/>
-      <c r="F83" s="16" t="e"/>
-      <c r="G83" s="16" t="s">
+      <c r="D84" s="16" t="e"/>
+      <c r="E84" s="16" t="e"/>
+      <c r="F84" s="16" t="e"/>
+      <c r="G84" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H83" s="17" t="n">
-        <v>79</v>
-      </c>
-      <c r="I83" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="J83" s="18" t="e"/>
-      <c r="K83" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="L83" s="18" t="e"/>
-      <c r="M83" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="N83" s="17" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A84" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="19" t="e"/>
-      <c r="C84" s="19" t="e"/>
-      <c r="D84" s="19" t="e"/>
-      <c r="E84" s="19" t="e"/>
-      <c r="F84" s="19" t="e"/>
-      <c r="G84" s="19" t="e"/>
-      <c r="H84" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="I84" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" s="10" t="e"/>
-      <c r="K84" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="L84" s="10" t="e"/>
-      <c r="M84" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N84" s="9" t="n">
-        <v>23</v>
+      <c r="H84" s="17" t="n">
+        <v>206</v>
+      </c>
+      <c r="I84" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J84" s="18" t="e"/>
+      <c r="K84" s="17" t="n">
+        <v>189</v>
+      </c>
+      <c r="L84" s="18" t="e"/>
+      <c r="M84" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N84" s="17" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2611,26 +2659,26 @@
       <c r="F85" s="19" t="e"/>
       <c r="G85" s="19" t="e"/>
       <c r="H85" s="9" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I85" s="9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J85" s="10" t="e"/>
       <c r="K85" s="9" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="L85" s="10" t="e"/>
       <c r="M85" s="9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N85" s="9" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B86" s="19" t="e"/>
       <c r="C86" s="19" t="e"/>
@@ -2639,22 +2687,26 @@
       <c r="F86" s="19" t="e"/>
       <c r="G86" s="19" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I86" s="10" t="e"/>
+        <v>65</v>
+      </c>
+      <c r="I86" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="L86" s="10" t="e"/>
-      <c r="M86" s="10" t="e"/>
+      <c r="M86" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N86" s="9" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="A87" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B87" s="19" t="e"/>
       <c r="C87" s="19" t="e"/>
@@ -2663,58 +2715,46 @@
       <c r="F87" s="19" t="e"/>
       <c r="G87" s="19" t="e"/>
       <c r="H87" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I87" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I87" s="10" t="e"/>
       <c r="J87" s="10" t="e"/>
       <c r="K87" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L87" s="10" t="e"/>
-      <c r="M87" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M87" s="10" t="e"/>
       <c r="N87" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" ht="11" customHeight="true">
-      <c r="A88" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B88" s="16" t="e"/>
-      <c r="C88" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" s="16" t="e"/>
-      <c r="E88" s="16" t="e"/>
-      <c r="F88" s="16" t="e"/>
-      <c r="G88" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" s="17" t="n">
-        <v>123</v>
-      </c>
-      <c r="I88" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" s="18" t="e"/>
-      <c r="K88" s="17" t="n">
-        <v>112</v>
-      </c>
-      <c r="L88" s="18" t="e"/>
-      <c r="M88" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="N88" s="17" t="n">
-        <v>112</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A88" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="19" t="e"/>
+      <c r="C88" s="19" t="e"/>
+      <c r="D88" s="19" t="e"/>
+      <c r="E88" s="19" t="e"/>
+      <c r="F88" s="19" t="e"/>
+      <c r="G88" s="19" t="e"/>
+      <c r="H88" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I88" s="10" t="e"/>
+      <c r="J88" s="10" t="e"/>
+      <c r="K88" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L88" s="10" t="e"/>
+      <c r="M88" s="10" t="e"/>
+      <c r="N88" s="9" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B89" s="19" t="e"/>
       <c r="C89" s="19" t="e"/>
@@ -2723,54 +2763,58 @@
       <c r="F89" s="19" t="e"/>
       <c r="G89" s="19" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L89" s="10" t="e"/>
       <c r="M89" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N89" s="9" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A90" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" s="19" t="e"/>
-      <c r="C90" s="19" t="e"/>
-      <c r="D90" s="19" t="e"/>
-      <c r="E90" s="19" t="e"/>
-      <c r="F90" s="19" t="e"/>
-      <c r="G90" s="19" t="e"/>
-      <c r="H90" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I90" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J90" s="10" t="e"/>
-      <c r="K90" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L90" s="10" t="e"/>
-      <c r="M90" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N90" s="9" t="n">
-        <v>30</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true">
+      <c r="A90" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="16" t="e"/>
+      <c r="C90" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="16" t="e"/>
+      <c r="E90" s="16" t="e"/>
+      <c r="F90" s="16" t="e"/>
+      <c r="G90" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="17" t="n">
+        <v>195</v>
+      </c>
+      <c r="I90" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" s="18" t="e"/>
+      <c r="K90" s="17" t="n">
+        <v>193</v>
+      </c>
+      <c r="L90" s="18" t="e"/>
+      <c r="M90" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" s="17" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="A91" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B91" s="19" t="e"/>
       <c r="C91" s="19" t="e"/>
@@ -2779,22 +2823,22 @@
       <c r="F91" s="19" t="e"/>
       <c r="G91" s="19" t="e"/>
       <c r="H91" s="9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I91" s="10" t="e"/>
       <c r="J91" s="10" t="e"/>
       <c r="K91" s="9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L91" s="10" t="e"/>
       <c r="M91" s="10" t="e"/>
       <c r="N91" s="9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="A92" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B92" s="19" t="e"/>
       <c r="C92" s="19" t="e"/>
@@ -2803,54 +2847,50 @@
       <c r="F92" s="19" t="e"/>
       <c r="G92" s="19" t="e"/>
       <c r="H92" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I92" s="10" t="e"/>
+        <v>59</v>
+      </c>
+      <c r="I92" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J92" s="10" t="e"/>
       <c r="K92" s="9" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="L92" s="10" t="e"/>
-      <c r="M92" s="10" t="e"/>
+      <c r="M92" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N92" s="9" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" ht="11" customHeight="true">
-      <c r="A93" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="16" t="e"/>
-      <c r="C93" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D93" s="16" t="e"/>
-      <c r="E93" s="16" t="e"/>
-      <c r="F93" s="16" t="e"/>
-      <c r="G93" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" s="17" t="n">
-        <v>255</v>
-      </c>
-      <c r="I93" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="J93" s="18" t="e"/>
-      <c r="K93" s="17" t="n">
-        <v>221</v>
-      </c>
-      <c r="L93" s="18" t="e"/>
-      <c r="M93" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="N93" s="17" t="n">
-        <v>221</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A93" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="19" t="e"/>
+      <c r="C93" s="19" t="e"/>
+      <c r="D93" s="19" t="e"/>
+      <c r="E93" s="19" t="e"/>
+      <c r="F93" s="19" t="e"/>
+      <c r="G93" s="19" t="e"/>
+      <c r="H93" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I93" s="10" t="e"/>
+      <c r="J93" s="10" t="e"/>
+      <c r="K93" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L93" s="10" t="e"/>
+      <c r="M93" s="10" t="e"/>
+      <c r="N93" s="9" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2859,26 +2899,22 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>82</v>
-      </c>
-      <c r="I94" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I94" s="10" t="e"/>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L94" s="10" t="e"/>
-      <c r="M94" s="9" t="n">
-        <v>7</v>
-      </c>
+      <c r="M94" s="10" t="e"/>
       <c r="N94" s="9" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2887,50 +2923,58 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="I95" s="9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="L95" s="10" t="e"/>
       <c r="M95" s="9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N95" s="9" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A96" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B96" s="19" t="e"/>
-      <c r="C96" s="19" t="e"/>
-      <c r="D96" s="19" t="e"/>
-      <c r="E96" s="19" t="e"/>
-      <c r="F96" s="19" t="e"/>
-      <c r="G96" s="19" t="e"/>
-      <c r="H96" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I96" s="10" t="e"/>
-      <c r="J96" s="10" t="e"/>
-      <c r="K96" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L96" s="10" t="e"/>
-      <c r="M96" s="10" t="e"/>
-      <c r="N96" s="9" t="n">
-        <v>14</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true">
+      <c r="A96" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="16" t="e"/>
+      <c r="C96" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" s="16" t="e"/>
+      <c r="E96" s="16" t="e"/>
+      <c r="F96" s="16" t="e"/>
+      <c r="G96" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="17" t="n">
+        <v>319</v>
+      </c>
+      <c r="I96" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J96" s="18" t="e"/>
+      <c r="K96" s="17" t="n">
+        <v>312</v>
+      </c>
+      <c r="L96" s="18" t="e"/>
+      <c r="M96" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N96" s="17" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="A97" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" s="19" t="e"/>
       <c r="C97" s="19" t="e"/>
@@ -2939,22 +2983,26 @@
       <c r="F97" s="19" t="e"/>
       <c r="G97" s="19" t="e"/>
       <c r="H97" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I97" s="10" t="e"/>
+        <v>102</v>
+      </c>
+      <c r="I97" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J97" s="10" t="e"/>
       <c r="K97" s="9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L97" s="10" t="e"/>
-      <c r="M97" s="10" t="e"/>
+      <c r="M97" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N97" s="9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B98" s="19" t="e"/>
       <c r="C98" s="19" t="e"/>
@@ -2963,58 +3011,50 @@
       <c r="F98" s="19" t="e"/>
       <c r="G98" s="19" t="e"/>
       <c r="H98" s="9" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="I98" s="9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J98" s="10" t="e"/>
       <c r="K98" s="9" t="n">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="L98" s="10" t="e"/>
       <c r="M98" s="9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N98" s="9" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" ht="11" customHeight="true">
-      <c r="A99" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="16" t="e"/>
-      <c r="C99" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D99" s="16" t="e"/>
-      <c r="E99" s="16" t="e"/>
-      <c r="F99" s="16" t="e"/>
-      <c r="G99" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H99" s="17" t="n">
-        <v>71</v>
-      </c>
-      <c r="I99" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="J99" s="18" t="e"/>
-      <c r="K99" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L99" s="18" t="e"/>
-      <c r="M99" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="N99" s="17" t="n">
-        <v>18</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A99" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="19" t="e"/>
+      <c r="C99" s="19" t="e"/>
+      <c r="D99" s="19" t="e"/>
+      <c r="E99" s="19" t="e"/>
+      <c r="F99" s="19" t="e"/>
+      <c r="G99" s="19" t="e"/>
+      <c r="H99" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I99" s="10" t="e"/>
+      <c r="J99" s="10" t="e"/>
+      <c r="K99" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L99" s="10" t="e"/>
+      <c r="M99" s="10" t="e"/>
+      <c r="N99" s="9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="A100" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B100" s="19" t="e"/>
       <c r="C100" s="19" t="e"/>
@@ -3023,26 +3063,22 @@
       <c r="F100" s="19" t="e"/>
       <c r="G100" s="19" t="e"/>
       <c r="H100" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="I100" s="9" t="n">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I100" s="10" t="e"/>
       <c r="J100" s="10" t="e"/>
       <c r="K100" s="9" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L100" s="10" t="e"/>
-      <c r="M100" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="M100" s="10" t="e"/>
       <c r="N100" s="9" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3051,50 +3087,58 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I101" s="9" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="L101" s="10" t="e"/>
       <c r="M101" s="9" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="N101" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A102" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="19" t="e"/>
-      <c r="C102" s="19" t="e"/>
-      <c r="D102" s="19" t="e"/>
-      <c r="E102" s="19" t="e"/>
-      <c r="F102" s="19" t="e"/>
-      <c r="G102" s="19" t="e"/>
-      <c r="H102" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="I102" s="10" t="e"/>
-      <c r="J102" s="10" t="e"/>
-      <c r="K102" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="L102" s="10" t="e"/>
-      <c r="M102" s="10" t="e"/>
-      <c r="N102" s="9" t="n">
-        <v>16</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" ht="11" customHeight="true">
+      <c r="A102" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="16" t="e"/>
+      <c r="C102" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102" s="16" t="e"/>
+      <c r="E102" s="16" t="e"/>
+      <c r="F102" s="16" t="e"/>
+      <c r="G102" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="17" t="n">
+        <v>234</v>
+      </c>
+      <c r="I102" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="J102" s="18" t="e"/>
+      <c r="K102" s="17" t="n">
+        <v>160</v>
+      </c>
+      <c r="L102" s="18" t="e"/>
+      <c r="M102" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="N102" s="17" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="A103" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B103" s="19" t="e"/>
       <c r="C103" s="19" t="e"/>
@@ -3103,54 +3147,54 @@
       <c r="F103" s="19" t="e"/>
       <c r="G103" s="19" t="e"/>
       <c r="H103" s="9" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="I103" s="9" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J103" s="10" t="e"/>
-      <c r="K103" s="10" t="e"/>
+      <c r="K103" s="9" t="n">
+        <v>55</v>
+      </c>
       <c r="L103" s="10" t="e"/>
       <c r="M103" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N103" s="10" t="e"/>
-    </row>
-    <row r="104" ht="11" customHeight="true">
-      <c r="A104" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B104" s="16" t="e"/>
-      <c r="C104" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D104" s="16" t="e"/>
-      <c r="E104" s="16" t="e"/>
-      <c r="F104" s="16" t="e"/>
-      <c r="G104" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H104" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I104" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J104" s="18" t="e"/>
-      <c r="K104" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L104" s="18" t="e"/>
-      <c r="M104" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N104" s="17" t="n">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="N103" s="9" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A104" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="19" t="e"/>
+      <c r="C104" s="19" t="e"/>
+      <c r="D104" s="19" t="e"/>
+      <c r="E104" s="19" t="e"/>
+      <c r="F104" s="19" t="e"/>
+      <c r="G104" s="19" t="e"/>
+      <c r="H104" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="I104" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="J104" s="10" t="e"/>
+      <c r="K104" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="L104" s="10" t="e"/>
+      <c r="M104" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="N104" s="9" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B105" s="19" t="e"/>
       <c r="C105" s="19" t="e"/>
@@ -3159,10 +3203,10 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I105" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
@@ -3170,7 +3214,7 @@
       </c>
       <c r="L105" s="10" t="e"/>
       <c r="M105" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N105" s="9" t="n">
         <v>1</v>
@@ -3178,7 +3222,7 @@
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B106" s="19" t="e"/>
       <c r="C106" s="19" t="e"/>
@@ -3187,22 +3231,22 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I106" s="10" t="e"/>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L106" s="10" t="e"/>
       <c r="M106" s="10" t="e"/>
       <c r="N106" s="9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3211,78 +3255,78 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" s="10" t="e"/>
+        <v>20</v>
+      </c>
+      <c r="I107" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L107" s="10" t="e"/>
-      <c r="M107" s="10" t="e"/>
+      <c r="M107" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N107" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A108" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" s="19" t="e"/>
-      <c r="C108" s="19" t="e"/>
-      <c r="D108" s="19" t="e"/>
-      <c r="E108" s="19" t="e"/>
-      <c r="F108" s="19" t="e"/>
-      <c r="G108" s="19" t="e"/>
-      <c r="H108" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" s="10" t="e"/>
-      <c r="J108" s="10" t="e"/>
-      <c r="K108" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L108" s="10" t="e"/>
-      <c r="M108" s="10" t="e"/>
-      <c r="N108" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true">
-      <c r="A109" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B109" s="16" t="e"/>
-      <c r="C109" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D109" s="16" t="e"/>
-      <c r="E109" s="16" t="e"/>
-      <c r="F109" s="16" t="e"/>
-      <c r="G109" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" ht="11" customHeight="true">
+      <c r="A108" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="16" t="e"/>
+      <c r="C108" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" s="16" t="e"/>
+      <c r="E108" s="16" t="e"/>
+      <c r="F108" s="16" t="e"/>
+      <c r="G108" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H109" s="17" t="n">
-        <v>231</v>
-      </c>
-      <c r="I109" s="17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J109" s="18" t="e"/>
-      <c r="K109" s="17" t="n">
-        <v>204</v>
-      </c>
-      <c r="L109" s="18" t="e"/>
-      <c r="M109" s="17" t="n">
-        <v>27</v>
-      </c>
-      <c r="N109" s="17" t="n">
-        <v>204</v>
+      <c r="H108" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I108" s="18" t="e"/>
+      <c r="J108" s="18" t="e"/>
+      <c r="K108" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L108" s="18" t="e"/>
+      <c r="M108" s="18" t="e"/>
+      <c r="N108" s="17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A109" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="19" t="e"/>
+      <c r="C109" s="19" t="e"/>
+      <c r="D109" s="19" t="e"/>
+      <c r="E109" s="19" t="e"/>
+      <c r="F109" s="19" t="e"/>
+      <c r="G109" s="19" t="e"/>
+      <c r="H109" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" s="10" t="e"/>
+      <c r="J109" s="10" t="e"/>
+      <c r="K109" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="10" t="e"/>
+      <c r="M109" s="10" t="e"/>
+      <c r="N109" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3291,26 +3335,22 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>80</v>
-      </c>
-      <c r="I110" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" s="10" t="e"/>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="L110" s="10" t="e"/>
-      <c r="M110" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M110" s="10" t="e"/>
       <c r="N110" s="9" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="A111" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B111" s="19" t="e"/>
       <c r="C111" s="19" t="e"/>
@@ -3319,26 +3359,22 @@
       <c r="F111" s="19" t="e"/>
       <c r="G111" s="19" t="e"/>
       <c r="H111" s="9" t="n">
-        <v>73</v>
-      </c>
-      <c r="I111" s="9" t="n">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" s="10" t="e"/>
       <c r="J111" s="10" t="e"/>
       <c r="K111" s="9" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="L111" s="10" t="e"/>
-      <c r="M111" s="9" t="n">
-        <v>12</v>
-      </c>
+      <c r="M111" s="10" t="e"/>
       <c r="N111" s="9" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3347,46 +3383,54 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I112" s="10" t="e"/>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L112" s="10" t="e"/>
       <c r="M112" s="10" t="e"/>
       <c r="N112" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A113" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B113" s="19" t="e"/>
-      <c r="C113" s="19" t="e"/>
-      <c r="D113" s="19" t="e"/>
-      <c r="E113" s="19" t="e"/>
-      <c r="F113" s="19" t="e"/>
-      <c r="G113" s="19" t="e"/>
-      <c r="H113" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I113" s="10" t="e"/>
-      <c r="J113" s="10" t="e"/>
-      <c r="K113" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L113" s="10" t="e"/>
-      <c r="M113" s="10" t="e"/>
-      <c r="N113" s="9" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" ht="11" customHeight="true">
+      <c r="A113" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="16" t="e"/>
+      <c r="C113" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" s="16" t="e"/>
+      <c r="E113" s="16" t="e"/>
+      <c r="F113" s="16" t="e"/>
+      <c r="G113" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" s="17" t="n">
+        <v>293</v>
+      </c>
+      <c r="I113" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="J113" s="18" t="e"/>
+      <c r="K113" s="17" t="n">
+        <v>248</v>
+      </c>
+      <c r="L113" s="18" t="e"/>
+      <c r="M113" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="N113" s="17" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3395,58 +3439,54 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="I114" s="9" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="L114" s="10" t="e"/>
       <c r="M114" s="9" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N114" s="9" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true">
-      <c r="A115" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B115" s="16" t="e"/>
-      <c r="C115" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D115" s="16" t="e"/>
-      <c r="E115" s="16" t="e"/>
-      <c r="F115" s="16" t="e"/>
-      <c r="G115" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H115" s="17" t="n">
-        <v>295</v>
-      </c>
-      <c r="I115" s="17" t="n">
-        <v>61</v>
-      </c>
-      <c r="J115" s="18" t="e"/>
-      <c r="K115" s="17" t="n">
-        <v>234</v>
-      </c>
-      <c r="L115" s="18" t="e"/>
-      <c r="M115" s="17" t="n">
-        <v>61</v>
-      </c>
-      <c r="N115" s="17" t="n">
-        <v>234</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A115" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="19" t="e"/>
+      <c r="C115" s="19" t="e"/>
+      <c r="D115" s="19" t="e"/>
+      <c r="E115" s="19" t="e"/>
+      <c r="F115" s="19" t="e"/>
+      <c r="G115" s="19" t="e"/>
+      <c r="H115" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="I115" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="J115" s="10" t="e"/>
+      <c r="K115" s="9" t="n">
+        <v>86</v>
+      </c>
+      <c r="L115" s="10" t="e"/>
+      <c r="M115" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="N115" s="9" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3455,26 +3495,22 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>113</v>
-      </c>
-      <c r="I116" s="9" t="n">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I116" s="10" t="e"/>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="L116" s="10" t="e"/>
-      <c r="M116" s="9" t="n">
-        <v>31</v>
-      </c>
+      <c r="M116" s="10" t="e"/>
       <c r="N116" s="9" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="A117" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B117" s="19" t="e"/>
       <c r="C117" s="19" t="e"/>
@@ -3483,26 +3519,22 @@
       <c r="F117" s="19" t="e"/>
       <c r="G117" s="19" t="e"/>
       <c r="H117" s="9" t="n">
-        <v>109</v>
-      </c>
-      <c r="I117" s="9" t="n">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I117" s="10" t="e"/>
       <c r="J117" s="10" t="e"/>
       <c r="K117" s="9" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L117" s="10" t="e"/>
-      <c r="M117" s="9" t="n">
-        <v>19</v>
-      </c>
+      <c r="M117" s="10" t="e"/>
       <c r="N117" s="9" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="A118" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B118" s="19" t="e"/>
       <c r="C118" s="19" t="e"/>
@@ -3511,46 +3543,58 @@
       <c r="F118" s="19" t="e"/>
       <c r="G118" s="19" t="e"/>
       <c r="H118" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I118" s="10" t="e"/>
+        <v>44</v>
+      </c>
+      <c r="I118" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J118" s="10" t="e"/>
       <c r="K118" s="9" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="L118" s="10" t="e"/>
-      <c r="M118" s="10" t="e"/>
+      <c r="M118" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N118" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A119" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B119" s="19" t="e"/>
-      <c r="C119" s="19" t="e"/>
-      <c r="D119" s="19" t="e"/>
-      <c r="E119" s="19" t="e"/>
-      <c r="F119" s="19" t="e"/>
-      <c r="G119" s="19" t="e"/>
-      <c r="H119" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I119" s="10" t="e"/>
-      <c r="J119" s="10" t="e"/>
-      <c r="K119" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L119" s="10" t="e"/>
-      <c r="M119" s="10" t="e"/>
-      <c r="N119" s="9" t="n">
-        <v>20</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true">
+      <c r="A119" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="16" t="e"/>
+      <c r="C119" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" s="16" t="e"/>
+      <c r="E119" s="16" t="e"/>
+      <c r="F119" s="16" t="e"/>
+      <c r="G119" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="17" t="n">
+        <v>434</v>
+      </c>
+      <c r="I119" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="J119" s="18" t="e"/>
+      <c r="K119" s="17" t="n">
+        <v>340</v>
+      </c>
+      <c r="L119" s="18" t="e"/>
+      <c r="M119" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="N119" s="17" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3559,54 +3603,54 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="I120" s="9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="L120" s="10" t="e"/>
       <c r="M120" s="9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N120" s="9" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" ht="11" customHeight="true">
-      <c r="A121" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B121" s="16" t="e"/>
-      <c r="C121" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D121" s="16" t="e"/>
-      <c r="E121" s="16" t="e"/>
-      <c r="F121" s="16" t="e"/>
-      <c r="G121" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" s="18" t="e"/>
-      <c r="J121" s="18" t="e"/>
-      <c r="K121" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L121" s="18" t="e"/>
-      <c r="M121" s="18" t="e"/>
-      <c r="N121" s="17" t="n">
-        <v>1</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A121" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" s="19" t="e"/>
+      <c r="C121" s="19" t="e"/>
+      <c r="D121" s="19" t="e"/>
+      <c r="E121" s="19" t="e"/>
+      <c r="F121" s="19" t="e"/>
+      <c r="G121" s="19" t="e"/>
+      <c r="H121" s="9" t="n">
+        <v>178</v>
+      </c>
+      <c r="I121" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="J121" s="10" t="e"/>
+      <c r="K121" s="9" t="n">
+        <v>137</v>
+      </c>
+      <c r="L121" s="10" t="e"/>
+      <c r="M121" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="N121" s="9" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B122" s="19" t="e"/>
       <c r="C122" s="19" t="e"/>
@@ -3615,54 +3659,46 @@
       <c r="F122" s="19" t="e"/>
       <c r="G122" s="19" t="e"/>
       <c r="H122" s="9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I122" s="10" t="e"/>
       <c r="J122" s="10" t="e"/>
       <c r="K122" s="9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L122" s="10" t="e"/>
       <c r="M122" s="10" t="e"/>
       <c r="N122" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true">
-      <c r="A123" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B123" s="16" t="e"/>
-      <c r="C123" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D123" s="16" t="e"/>
-      <c r="E123" s="16" t="e"/>
-      <c r="F123" s="16" t="e"/>
-      <c r="G123" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="I123" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J123" s="18" t="e"/>
-      <c r="K123" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="L123" s="18" t="e"/>
-      <c r="M123" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N123" s="17" t="n">
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A123" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="19" t="e"/>
+      <c r="C123" s="19" t="e"/>
+      <c r="D123" s="19" t="e"/>
+      <c r="E123" s="19" t="e"/>
+      <c r="F123" s="19" t="e"/>
+      <c r="G123" s="19" t="e"/>
+      <c r="H123" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I123" s="10" t="e"/>
+      <c r="J123" s="10" t="e"/>
+      <c r="K123" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L123" s="10" t="e"/>
+      <c r="M123" s="10" t="e"/>
+      <c r="N123" s="9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="A124" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B124" s="19" t="e"/>
       <c r="C124" s="19" t="e"/>
@@ -3671,50 +3707,54 @@
       <c r="F124" s="19" t="e"/>
       <c r="G124" s="19" t="e"/>
       <c r="H124" s="9" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I124" s="9" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J124" s="10" t="e"/>
       <c r="K124" s="9" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="L124" s="10" t="e"/>
       <c r="M124" s="9" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N124" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A125" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B125" s="19" t="e"/>
-      <c r="C125" s="19" t="e"/>
-      <c r="D125" s="19" t="e"/>
-      <c r="E125" s="19" t="e"/>
-      <c r="F125" s="19" t="e"/>
-      <c r="G125" s="19" t="e"/>
-      <c r="H125" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" s="10" t="e"/>
-      <c r="J125" s="10" t="e"/>
-      <c r="K125" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L125" s="10" t="e"/>
-      <c r="M125" s="10" t="e"/>
-      <c r="N125" s="9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true">
+      <c r="A125" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="16" t="e"/>
+      <c r="C125" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="16" t="e"/>
+      <c r="E125" s="16" t="e"/>
+      <c r="F125" s="16" t="e"/>
+      <c r="G125" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" s="18" t="e"/>
+      <c r="J125" s="18" t="e"/>
+      <c r="K125" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" s="18" t="e"/>
+      <c r="M125" s="18" t="e"/>
+      <c r="N125" s="17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3723,73 +3763,189 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126" s="10" t="e"/>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L126" s="10" t="e"/>
       <c r="M126" s="10" t="e"/>
       <c r="N126" s="9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A127" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true">
+      <c r="A127" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127" s="16" t="e"/>
+      <c r="C127" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" s="16" t="e"/>
+      <c r="E127" s="16" t="e"/>
+      <c r="F127" s="16" t="e"/>
+      <c r="G127" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="B127" s="19" t="e"/>
-      <c r="C127" s="19" t="e"/>
-      <c r="D127" s="19" t="e"/>
-      <c r="E127" s="19" t="e"/>
-      <c r="F127" s="19" t="e"/>
-      <c r="G127" s="19" t="e"/>
-      <c r="H127" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" s="10" t="e"/>
-      <c r="J127" s="10" t="e"/>
-      <c r="K127" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L127" s="10" t="e"/>
-      <c r="M127" s="10" t="e"/>
-      <c r="N127" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" ht="13" customHeight="true">
-      <c r="A128" s="12" t="s">
+      <c r="I127" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J127" s="18" t="e"/>
+      <c r="K127" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L127" s="18" t="e"/>
+      <c r="M127" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="N127" s="17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A128" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="19" t="e"/>
+      <c r="C128" s="19" t="e"/>
+      <c r="D128" s="19" t="e"/>
+      <c r="E128" s="19" t="e"/>
+      <c r="F128" s="19" t="e"/>
+      <c r="G128" s="19" t="e"/>
+      <c r="H128" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I128" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J128" s="10" t="e"/>
+      <c r="K128" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" s="10" t="e"/>
+      <c r="M128" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N128" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A129" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="19" t="e"/>
+      <c r="C129" s="19" t="e"/>
+      <c r="D129" s="19" t="e"/>
+      <c r="E129" s="19" t="e"/>
+      <c r="F129" s="19" t="e"/>
+      <c r="G129" s="19" t="e"/>
+      <c r="H129" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="I129" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J129" s="10" t="e"/>
+      <c r="K129" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" s="10" t="e"/>
+      <c r="M129" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="N129" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A130" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="19" t="e"/>
+      <c r="C130" s="19" t="e"/>
+      <c r="D130" s="19" t="e"/>
+      <c r="E130" s="19" t="e"/>
+      <c r="F130" s="19" t="e"/>
+      <c r="G130" s="19" t="e"/>
+      <c r="H130" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" s="10" t="e"/>
+      <c r="K130" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" s="10" t="e"/>
+      <c r="M130" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A131" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="19" t="e"/>
+      <c r="C131" s="19" t="e"/>
+      <c r="D131" s="19" t="e"/>
+      <c r="E131" s="19" t="e"/>
+      <c r="F131" s="19" t="e"/>
+      <c r="G131" s="19" t="e"/>
+      <c r="H131" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" s="10" t="e"/>
+      <c r="J131" s="10" t="e"/>
+      <c r="K131" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" s="10" t="e"/>
+      <c r="M131" s="10" t="e"/>
+      <c r="N131" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="13" customHeight="true">
+      <c r="A132" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="12" t="e"/>
-      <c r="C128" s="12" t="e"/>
-      <c r="D128" s="12" t="e"/>
-      <c r="E128" s="12" t="e"/>
-      <c r="F128" s="12" t="e"/>
-      <c r="G128" s="12" t="e"/>
-      <c r="H128" s="13" t="n">
-        <v>2544</v>
-      </c>
-      <c r="I128" s="14" t="n">
-        <v>263</v>
-      </c>
-      <c r="J128" s="15" t="e"/>
-      <c r="K128" s="13" t="n">
-        <v>2281</v>
-      </c>
-      <c r="L128" s="15" t="e"/>
-      <c r="M128" s="14" t="n">
-        <v>263</v>
-      </c>
-      <c r="N128" s="13" t="n">
-        <v>2281</v>
+      <c r="B132" s="12" t="e"/>
+      <c r="C132" s="12" t="e"/>
+      <c r="D132" s="12" t="e"/>
+      <c r="E132" s="12" t="e"/>
+      <c r="F132" s="12" t="e"/>
+      <c r="G132" s="12" t="e"/>
+      <c r="H132" s="13" t="n">
+        <v>3471</v>
+      </c>
+      <c r="I132" s="14" t="n">
+        <v>441</v>
+      </c>
+      <c r="J132" s="15" t="e"/>
+      <c r="K132" s="13" t="n">
+        <v>3030</v>
+      </c>
+      <c r="L132" s="15" t="e"/>
+      <c r="M132" s="14" t="n">
+        <v>441</v>
+      </c>
+      <c r="N132" s="13" t="n">
+        <v>3030</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="165">
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3818,67 +3974,67 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
     <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A53:G53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="A58:G58"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="A67:G67"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
@@ -3896,61 +4052,65 @@
     <mergeCell ref="A80:G80"/>
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:F84"/>
     <mergeCell ref="A85:G85"/>
     <mergeCell ref="A86:G86"/>
     <mergeCell ref="A87:G87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A88:G88"/>
     <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
     <mergeCell ref="A91:G91"/>
     <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="A93:G93"/>
     <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:F96"/>
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A98:G98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="A99:G99"/>
     <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:F102"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A112:G112"/>
-    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:F113"/>
     <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
     <mergeCell ref="A117:G117"/>
     <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:F119"/>
     <mergeCell ref="A120:G120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="A121:G121"/>
     <mergeCell ref="A122:G122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="A123:G123"/>
     <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:F125"/>
     <mergeCell ref="A126:G126"/>
-    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:F127"/>
     <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A132:G132"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N132"/>
+  <dimension ref="N129"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -615,21 +615,17 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>57</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I9" s="10" t="e"/>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L9" s="10" t="e"/>
-      <c r="M9" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M9" s="10" t="e"/>
       <c r="N9" s="9" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -667,21 +663,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1344</v>
+        <v>1361</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1199</v>
+        <v>1250</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1199</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -695,21 +691,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1890</v>
+        <v>2328</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>285</v>
+        <v>715</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>285</v>
+        <v>715</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1605</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -723,21 +719,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>3471</v>
+        <v>3935</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>441</v>
+        <v>826</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>3030</v>
+        <v>3109</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>441</v>
+        <v>826</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>3030</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -755,21 +751,17 @@
         <v>24</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>38</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I14" s="18" t="e"/>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L14" s="18" t="e"/>
-      <c r="M14" s="17" t="n">
-        <v>5</v>
-      </c>
+      <c r="M14" s="18" t="e"/>
       <c r="N14" s="17" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
@@ -807,17 +799,17 @@
       <c r="F16" s="19" t="e"/>
       <c r="G16" s="19" t="e"/>
       <c r="H16" s="9" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I16" s="10" t="e"/>
       <c r="J16" s="10" t="e"/>
       <c r="K16" s="9" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L16" s="10" t="e"/>
       <c r="M16" s="10" t="e"/>
       <c r="N16" s="9" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="1">
@@ -831,19 +823,15 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="I17" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I17" s="10" t="e"/>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
         <v>12</v>
       </c>
       <c r="L17" s="10" t="e"/>
-      <c r="M17" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M17" s="10" t="e"/>
       <c r="N17" s="9" t="n">
         <v>12</v>
       </c>
@@ -863,21 +851,17 @@
         <v>24</v>
       </c>
       <c r="H18" s="17" t="n">
-        <v>19</v>
-      </c>
-      <c r="I18" s="17" t="n">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I18" s="18" t="e"/>
       <c r="J18" s="18" t="e"/>
       <c r="K18" s="17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L18" s="18" t="e"/>
-      <c r="M18" s="17" t="n">
-        <v>6</v>
-      </c>
+      <c r="M18" s="18" t="e"/>
       <c r="N18" s="17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="1">
@@ -906,7 +890,7 @@
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
       <c r="A20" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="19" t="e"/>
       <c r="C20" s="19" t="e"/>
@@ -915,182 +899,178 @@
       <c r="F20" s="19" t="e"/>
       <c r="G20" s="19" t="e"/>
       <c r="H20" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I20" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I20" s="10" t="e"/>
       <c r="J20" s="10" t="e"/>
       <c r="K20" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" s="10" t="e"/>
+      <c r="M20" s="10" t="e"/>
+      <c r="N20" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="19" t="e"/>
+      <c r="C21" s="19" t="e"/>
+      <c r="D21" s="19" t="e"/>
+      <c r="E21" s="19" t="e"/>
+      <c r="F21" s="19" t="e"/>
+      <c r="G21" s="19" t="e"/>
+      <c r="H21" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="L20" s="10" t="e"/>
-      <c r="M20" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N20" s="9" t="n">
+      <c r="I21" s="10" t="e"/>
+      <c r="J21" s="10" t="e"/>
+      <c r="K21" s="9" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" ht="22" customHeight="true">
-      <c r="A21" s="16" t="s">
+      <c r="L21" s="10" t="e"/>
+      <c r="M21" s="10" t="e"/>
+      <c r="N21" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true">
+      <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="16" t="e"/>
-      <c r="C21" s="16" t="s">
+      <c r="B22" s="16" t="e"/>
+      <c r="C22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="16" t="e"/>
-      <c r="E21" s="16" t="e"/>
-      <c r="F21" s="16" t="e"/>
-      <c r="G21" s="16" t="s">
+      <c r="D22" s="16" t="e"/>
+      <c r="E22" s="16" t="e"/>
+      <c r="F22" s="16" t="e"/>
+      <c r="G22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="17" t="n">
+      <c r="H22" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="I21" s="18" t="e"/>
-      <c r="J21" s="18" t="e"/>
-      <c r="K21" s="17" t="n">
+      <c r="I22" s="18" t="e"/>
+      <c r="J22" s="18" t="e"/>
+      <c r="K22" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="L21" s="18" t="e"/>
-      <c r="M21" s="18" t="e"/>
-      <c r="N21" s="17" t="n">
+      <c r="L22" s="18" t="e"/>
+      <c r="M22" s="18" t="e"/>
+      <c r="N22" s="17" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A22" s="19" t="s">
+    <row r="23" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="19" t="e"/>
-      <c r="C22" s="19" t="e"/>
-      <c r="D22" s="19" t="e"/>
-      <c r="E22" s="19" t="e"/>
-      <c r="F22" s="19" t="e"/>
-      <c r="G22" s="19" t="e"/>
-      <c r="H22" s="9" t="n">
+      <c r="B23" s="19" t="e"/>
+      <c r="C23" s="19" t="e"/>
+      <c r="D23" s="19" t="e"/>
+      <c r="E23" s="19" t="e"/>
+      <c r="F23" s="19" t="e"/>
+      <c r="G23" s="19" t="e"/>
+      <c r="H23" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="I22" s="10" t="e"/>
-      <c r="J22" s="10" t="e"/>
-      <c r="K22" s="9" t="n">
+      <c r="I23" s="10" t="e"/>
+      <c r="J23" s="10" t="e"/>
+      <c r="K23" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="L22" s="10" t="e"/>
-      <c r="M22" s="10" t="e"/>
-      <c r="N22" s="9" t="n">
+      <c r="L23" s="10" t="e"/>
+      <c r="M23" s="10" t="e"/>
+      <c r="N23" s="9" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="22" customHeight="true">
-      <c r="A23" s="16" t="s">
+    <row r="24" ht="22" customHeight="true">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="16" t="e"/>
-      <c r="C23" s="16" t="s">
+      <c r="B24" s="16" t="e"/>
+      <c r="C24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="16" t="e"/>
-      <c r="E23" s="16" t="e"/>
-      <c r="F23" s="16" t="e"/>
-      <c r="G23" s="16" t="s">
+      <c r="D24" s="16" t="e"/>
+      <c r="E24" s="16" t="e"/>
+      <c r="F24" s="16" t="e"/>
+      <c r="G24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="17" t="n">
+      <c r="H24" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="I23" s="18" t="e"/>
-      <c r="J23" s="18" t="e"/>
-      <c r="K23" s="17" t="n">
+      <c r="I24" s="18" t="e"/>
+      <c r="J24" s="18" t="e"/>
+      <c r="K24" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="L23" s="18" t="e"/>
-      <c r="M23" s="18" t="e"/>
-      <c r="N23" s="17" t="n">
+      <c r="L24" s="18" t="e"/>
+      <c r="M24" s="18" t="e"/>
+      <c r="N24" s="17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A24" s="19" t="s">
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="19" t="e"/>
-      <c r="C24" s="19" t="e"/>
-      <c r="D24" s="19" t="e"/>
-      <c r="E24" s="19" t="e"/>
-      <c r="F24" s="19" t="e"/>
-      <c r="G24" s="19" t="e"/>
-      <c r="H24" s="9" t="n">
+      <c r="B25" s="19" t="e"/>
+      <c r="C25" s="19" t="e"/>
+      <c r="D25" s="19" t="e"/>
+      <c r="E25" s="19" t="e"/>
+      <c r="F25" s="19" t="e"/>
+      <c r="G25" s="19" t="e"/>
+      <c r="H25" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I24" s="10" t="e"/>
-      <c r="J24" s="10" t="e"/>
-      <c r="K24" s="9" t="n">
+      <c r="I25" s="10" t="e"/>
+      <c r="J25" s="10" t="e"/>
+      <c r="K25" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L24" s="10" t="e"/>
-      <c r="M24" s="10" t="e"/>
-      <c r="N24" s="9" t="n">
+      <c r="L25" s="10" t="e"/>
+      <c r="M25" s="10" t="e"/>
+      <c r="N25" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="22" customHeight="true">
-      <c r="A25" s="16" t="s">
+    <row r="26" ht="22" customHeight="true">
+      <c r="A26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="16" t="e"/>
-      <c r="C25" s="16" t="s">
+      <c r="B26" s="16" t="e"/>
+      <c r="C26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="16" t="e"/>
-      <c r="E25" s="16" t="e"/>
-      <c r="F25" s="16" t="e"/>
-      <c r="G25" s="16" t="s">
+      <c r="D26" s="16" t="e"/>
+      <c r="E26" s="16" t="e"/>
+      <c r="F26" s="16" t="e"/>
+      <c r="G26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="17" t="n">
+      <c r="H26" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="I25" s="18" t="e"/>
-      <c r="J25" s="18" t="e"/>
-      <c r="K25" s="17" t="n">
+      <c r="I26" s="18" t="e"/>
+      <c r="J26" s="18" t="e"/>
+      <c r="K26" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="L25" s="18" t="e"/>
-      <c r="M25" s="18" t="e"/>
-      <c r="N25" s="17" t="n">
+      <c r="L26" s="18" t="e"/>
+      <c r="M26" s="18" t="e"/>
+      <c r="N26" s="17" t="n">
         <v>82</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="19" t="e"/>
-      <c r="C26" s="19" t="e"/>
-      <c r="D26" s="19" t="e"/>
-      <c r="E26" s="19" t="e"/>
-      <c r="F26" s="19" t="e"/>
-      <c r="G26" s="19" t="e"/>
-      <c r="H26" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I26" s="10" t="e"/>
-      <c r="J26" s="10" t="e"/>
-      <c r="K26" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="L26" s="10" t="e"/>
-      <c r="M26" s="10" t="e"/>
-      <c r="N26" s="9" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="A27" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="19" t="e"/>
       <c r="C27" s="19" t="e"/>
@@ -1099,74 +1079,74 @@
       <c r="F27" s="19" t="e"/>
       <c r="G27" s="19" t="e"/>
       <c r="H27" s="9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I27" s="10" t="e"/>
       <c r="J27" s="10" t="e"/>
       <c r="K27" s="9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L27" s="10" t="e"/>
       <c r="M27" s="10" t="e"/>
       <c r="N27" s="9" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="e"/>
+      <c r="C28" s="19" t="e"/>
+      <c r="D28" s="19" t="e"/>
+      <c r="E28" s="19" t="e"/>
+      <c r="F28" s="19" t="e"/>
+      <c r="G28" s="19" t="e"/>
+      <c r="H28" s="9" t="n">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" ht="22" customHeight="true">
-      <c r="A28" s="16" t="s">
+      <c r="I28" s="10" t="e"/>
+      <c r="J28" s="10" t="e"/>
+      <c r="K28" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B28" s="16" t="e"/>
-      <c r="C28" s="16" t="s">
+      <c r="L28" s="10" t="e"/>
+      <c r="M28" s="10" t="e"/>
+      <c r="N28" s="9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true">
+      <c r="A29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="16" t="e"/>
+      <c r="C29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="16" t="e"/>
-      <c r="E28" s="16" t="e"/>
-      <c r="F28" s="16" t="e"/>
-      <c r="G28" s="16" t="s">
+      <c r="D29" s="16" t="e"/>
+      <c r="E29" s="16" t="e"/>
+      <c r="F29" s="16" t="e"/>
+      <c r="G29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="17" t="n">
+      <c r="H29" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="I28" s="18" t="e"/>
-      <c r="J28" s="18" t="e"/>
-      <c r="K28" s="17" t="n">
+      <c r="I29" s="18" t="e"/>
+      <c r="J29" s="18" t="e"/>
+      <c r="K29" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="L28" s="18" t="e"/>
-      <c r="M28" s="18" t="e"/>
-      <c r="N28" s="17" t="n">
+      <c r="L29" s="18" t="e"/>
+      <c r="M29" s="18" t="e"/>
+      <c r="N29" s="17" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="19" t="e"/>
-      <c r="C29" s="19" t="e"/>
-      <c r="D29" s="19" t="e"/>
-      <c r="E29" s="19" t="e"/>
-      <c r="F29" s="19" t="e"/>
-      <c r="G29" s="19" t="e"/>
-      <c r="H29" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" s="10" t="e"/>
-      <c r="J29" s="10" t="e"/>
-      <c r="K29" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" s="10" t="e"/>
-      <c r="M29" s="10" t="e"/>
-      <c r="N29" s="9" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="A30" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" s="19" t="e"/>
       <c r="C30" s="19" t="e"/>
@@ -1175,74 +1155,74 @@
       <c r="F30" s="19" t="e"/>
       <c r="G30" s="19" t="e"/>
       <c r="H30" s="9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I30" s="10" t="e"/>
       <c r="J30" s="10" t="e"/>
       <c r="K30" s="9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L30" s="10" t="e"/>
       <c r="M30" s="10" t="e"/>
       <c r="N30" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="19" t="e"/>
+      <c r="C31" s="19" t="e"/>
+      <c r="D31" s="19" t="e"/>
+      <c r="E31" s="19" t="e"/>
+      <c r="F31" s="19" t="e"/>
+      <c r="G31" s="19" t="e"/>
+      <c r="H31" s="9" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" ht="22" customHeight="true">
-      <c r="A31" s="16" t="s">
+      <c r="I31" s="10" t="e"/>
+      <c r="J31" s="10" t="e"/>
+      <c r="K31" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L31" s="10" t="e"/>
+      <c r="M31" s="10" t="e"/>
+      <c r="N31" s="9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="16" t="e"/>
-      <c r="C31" s="16" t="s">
+      <c r="B32" s="16" t="e"/>
+      <c r="C32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="16" t="e"/>
-      <c r="E31" s="16" t="e"/>
-      <c r="F31" s="16" t="e"/>
-      <c r="G31" s="16" t="s">
+      <c r="D32" s="16" t="e"/>
+      <c r="E32" s="16" t="e"/>
+      <c r="F32" s="16" t="e"/>
+      <c r="G32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="17" t="n">
+      <c r="H32" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="I31" s="18" t="e"/>
-      <c r="J31" s="18" t="e"/>
-      <c r="K31" s="17" t="n">
+      <c r="I32" s="18" t="e"/>
+      <c r="J32" s="18" t="e"/>
+      <c r="K32" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="L31" s="18" t="e"/>
-      <c r="M31" s="18" t="e"/>
-      <c r="N31" s="17" t="n">
+      <c r="L32" s="18" t="e"/>
+      <c r="M32" s="18" t="e"/>
+      <c r="N32" s="17" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="19" t="e"/>
-      <c r="C32" s="19" t="e"/>
-      <c r="D32" s="19" t="e"/>
-      <c r="E32" s="19" t="e"/>
-      <c r="F32" s="19" t="e"/>
-      <c r="G32" s="19" t="e"/>
-      <c r="H32" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" s="10" t="e"/>
-      <c r="J32" s="10" t="e"/>
-      <c r="K32" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L32" s="10" t="e"/>
-      <c r="M32" s="10" t="e"/>
-      <c r="N32" s="9" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B33" s="19" t="e"/>
       <c r="C33" s="19" t="e"/>
@@ -1251,182 +1231,178 @@
       <c r="F33" s="19" t="e"/>
       <c r="G33" s="19" t="e"/>
       <c r="H33" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I33" s="10" t="e"/>
       <c r="J33" s="10" t="e"/>
       <c r="K33" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L33" s="10" t="e"/>
       <c r="M33" s="10" t="e"/>
       <c r="N33" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="19" t="e"/>
+      <c r="C34" s="19" t="e"/>
+      <c r="D34" s="19" t="e"/>
+      <c r="E34" s="19" t="e"/>
+      <c r="F34" s="19" t="e"/>
+      <c r="G34" s="19" t="e"/>
+      <c r="H34" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" ht="22" customHeight="true">
-      <c r="A34" s="16" t="s">
+      <c r="I34" s="10" t="e"/>
+      <c r="J34" s="10" t="e"/>
+      <c r="K34" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="10" t="e"/>
+      <c r="M34" s="10" t="e"/>
+      <c r="N34" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true">
+      <c r="A35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="16" t="e"/>
-      <c r="C34" s="16" t="s">
+      <c r="B35" s="16" t="e"/>
+      <c r="C35" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="16" t="e"/>
-      <c r="E34" s="16" t="e"/>
-      <c r="F34" s="16" t="e"/>
-      <c r="G34" s="16" t="s">
+      <c r="D35" s="16" t="e"/>
+      <c r="E35" s="16" t="e"/>
+      <c r="F35" s="16" t="e"/>
+      <c r="G35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="17" t="n">
+      <c r="H35" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="I34" s="18" t="e"/>
-      <c r="J34" s="18" t="e"/>
-      <c r="K34" s="17" t="n">
+      <c r="I35" s="18" t="e"/>
+      <c r="J35" s="18" t="e"/>
+      <c r="K35" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="L34" s="18" t="e"/>
-      <c r="M34" s="18" t="e"/>
-      <c r="N34" s="17" t="n">
+      <c r="L35" s="18" t="e"/>
+      <c r="M35" s="18" t="e"/>
+      <c r="N35" s="17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A35" s="19" t="s">
+    <row r="36" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A36" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="19" t="e"/>
-      <c r="C35" s="19" t="e"/>
-      <c r="D35" s="19" t="e"/>
-      <c r="E35" s="19" t="e"/>
-      <c r="F35" s="19" t="e"/>
-      <c r="G35" s="19" t="e"/>
-      <c r="H35" s="9" t="n">
+      <c r="B36" s="19" t="e"/>
+      <c r="C36" s="19" t="e"/>
+      <c r="D36" s="19" t="e"/>
+      <c r="E36" s="19" t="e"/>
+      <c r="F36" s="19" t="e"/>
+      <c r="G36" s="19" t="e"/>
+      <c r="H36" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I35" s="10" t="e"/>
-      <c r="J35" s="10" t="e"/>
-      <c r="K35" s="9" t="n">
+      <c r="I36" s="10" t="e"/>
+      <c r="J36" s="10" t="e"/>
+      <c r="K36" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L35" s="10" t="e"/>
-      <c r="M35" s="10" t="e"/>
-      <c r="N35" s="9" t="n">
+      <c r="L36" s="10" t="e"/>
+      <c r="M36" s="10" t="e"/>
+      <c r="N36" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="11" customHeight="true">
-      <c r="A36" s="16" t="s">
+    <row r="37" ht="11" customHeight="true">
+      <c r="A37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="16" t="e"/>
-      <c r="C36" s="16" t="s">
+      <c r="B37" s="16" t="e"/>
+      <c r="C37" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="16" t="e"/>
-      <c r="E36" s="16" t="e"/>
-      <c r="F36" s="16" t="e"/>
-      <c r="G36" s="16" t="s">
+      <c r="D37" s="16" t="e"/>
+      <c r="E37" s="16" t="e"/>
+      <c r="F37" s="16" t="e"/>
+      <c r="G37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="17" t="n">
+      <c r="H37" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="I36" s="18" t="e"/>
-      <c r="J36" s="18" t="e"/>
-      <c r="K36" s="17" t="n">
+      <c r="I37" s="18" t="e"/>
+      <c r="J37" s="18" t="e"/>
+      <c r="K37" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="L36" s="18" t="e"/>
-      <c r="M36" s="18" t="e"/>
-      <c r="N36" s="17" t="n">
+      <c r="L37" s="18" t="e"/>
+      <c r="M37" s="18" t="e"/>
+      <c r="N37" s="17" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A37" s="19" t="s">
+    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A38" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="19" t="e"/>
-      <c r="C37" s="19" t="e"/>
-      <c r="D37" s="19" t="e"/>
-      <c r="E37" s="19" t="e"/>
-      <c r="F37" s="19" t="e"/>
-      <c r="G37" s="19" t="e"/>
-      <c r="H37" s="9" t="n">
+      <c r="B38" s="19" t="e"/>
+      <c r="C38" s="19" t="e"/>
+      <c r="D38" s="19" t="e"/>
+      <c r="E38" s="19" t="e"/>
+      <c r="F38" s="19" t="e"/>
+      <c r="G38" s="19" t="e"/>
+      <c r="H38" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="I37" s="10" t="e"/>
-      <c r="J37" s="10" t="e"/>
-      <c r="K37" s="9" t="n">
+      <c r="I38" s="10" t="e"/>
+      <c r="J38" s="10" t="e"/>
+      <c r="K38" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="L37" s="10" t="e"/>
-      <c r="M37" s="10" t="e"/>
-      <c r="N37" s="9" t="n">
+      <c r="L38" s="10" t="e"/>
+      <c r="M38" s="10" t="e"/>
+      <c r="N38" s="9" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="38" ht="11" customHeight="true">
-      <c r="A38" s="16" t="s">
+    <row r="39" ht="11" customHeight="true">
+      <c r="A39" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="16" t="e"/>
-      <c r="C38" s="16" t="s">
+      <c r="B39" s="16" t="e"/>
+      <c r="C39" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="16" t="e"/>
-      <c r="E38" s="16" t="e"/>
-      <c r="F38" s="16" t="e"/>
-      <c r="G38" s="16" t="s">
+      <c r="D39" s="16" t="e"/>
+      <c r="E39" s="16" t="e"/>
+      <c r="F39" s="16" t="e"/>
+      <c r="G39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="17" t="n">
-        <v>268</v>
-      </c>
-      <c r="I38" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" s="18" t="e"/>
-      <c r="K38" s="17" t="n">
+      <c r="H39" s="17" t="n">
         <v>266</v>
       </c>
-      <c r="L38" s="18" t="e"/>
-      <c r="M38" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" s="17" t="n">
+      <c r="I39" s="18" t="e"/>
+      <c r="J39" s="18" t="e"/>
+      <c r="K39" s="17" t="n">
         <v>266</v>
       </c>
-    </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="19" t="e"/>
-      <c r="C39" s="19" t="e"/>
-      <c r="D39" s="19" t="e"/>
-      <c r="E39" s="19" t="e"/>
-      <c r="F39" s="19" t="e"/>
-      <c r="G39" s="19" t="e"/>
-      <c r="H39" s="9" t="n">
-        <v>110</v>
-      </c>
-      <c r="I39" s="10" t="e"/>
-      <c r="J39" s="10" t="e"/>
-      <c r="K39" s="9" t="n">
-        <v>110</v>
-      </c>
-      <c r="L39" s="10" t="e"/>
-      <c r="M39" s="10" t="e"/>
-      <c r="N39" s="9" t="n">
-        <v>110</v>
+      <c r="L39" s="18" t="e"/>
+      <c r="M39" s="18" t="e"/>
+      <c r="N39" s="17" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="1">
       <c r="A40" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" s="19" t="e"/>
       <c r="C40" s="19" t="e"/>
@@ -1435,22 +1411,22 @@
       <c r="F40" s="19" t="e"/>
       <c r="G40" s="19" t="e"/>
       <c r="H40" s="9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I40" s="10" t="e"/>
       <c r="J40" s="10" t="e"/>
       <c r="K40" s="9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L40" s="10" t="e"/>
       <c r="M40" s="10" t="e"/>
       <c r="N40" s="9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="1">
       <c r="A41" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="19" t="e"/>
       <c r="C41" s="19" t="e"/>
@@ -1459,82 +1435,78 @@
       <c r="F41" s="19" t="e"/>
       <c r="G41" s="19" t="e"/>
       <c r="H41" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I41" s="10" t="e"/>
       <c r="J41" s="10" t="e"/>
       <c r="K41" s="9" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L41" s="10" t="e"/>
-      <c r="M41" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M41" s="10" t="e"/>
       <c r="N41" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" ht="22" customHeight="true">
-      <c r="A42" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="19" t="e"/>
+      <c r="C42" s="19" t="e"/>
+      <c r="D42" s="19" t="e"/>
+      <c r="E42" s="19" t="e"/>
+      <c r="F42" s="19" t="e"/>
+      <c r="G42" s="19" t="e"/>
+      <c r="H42" s="9" t="n">
+        <v>106</v>
+      </c>
+      <c r="I42" s="10" t="e"/>
+      <c r="J42" s="10" t="e"/>
+      <c r="K42" s="9" t="n">
+        <v>106</v>
+      </c>
+      <c r="L42" s="10" t="e"/>
+      <c r="M42" s="10" t="e"/>
+      <c r="N42" s="9" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true">
+      <c r="A43" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16" t="e"/>
-      <c r="C42" s="16" t="s">
+      <c r="B43" s="16" t="e"/>
+      <c r="C43" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="16" t="e"/>
-      <c r="E42" s="16" t="e"/>
-      <c r="F42" s="16" t="e"/>
-      <c r="G42" s="16" t="s">
+      <c r="D43" s="16" t="e"/>
+      <c r="E43" s="16" t="e"/>
+      <c r="F43" s="16" t="e"/>
+      <c r="G43" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="I42" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J42" s="18" t="e"/>
-      <c r="K42" s="17" t="n">
-        <v>156</v>
-      </c>
-      <c r="L42" s="18" t="e"/>
-      <c r="M42" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="N42" s="17" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="19" t="e"/>
-      <c r="C43" s="19" t="e"/>
-      <c r="D43" s="19" t="e"/>
-      <c r="E43" s="19" t="e"/>
-      <c r="F43" s="19" t="e"/>
-      <c r="G43" s="19" t="e"/>
-      <c r="H43" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="I43" s="10" t="e"/>
-      <c r="J43" s="10" t="e"/>
-      <c r="K43" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="L43" s="10" t="e"/>
-      <c r="M43" s="10" t="e"/>
-      <c r="N43" s="9" t="n">
-        <v>53</v>
+      <c r="H43" s="17" t="n">
+        <v>207</v>
+      </c>
+      <c r="I43" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" s="18" t="e"/>
+      <c r="K43" s="17" t="n">
+        <v>202</v>
+      </c>
+      <c r="L43" s="18" t="e"/>
+      <c r="M43" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" s="17" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="A44" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B44" s="19" t="e"/>
       <c r="C44" s="19" t="e"/>
@@ -1543,26 +1515,22 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="I44" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="I44" s="10" t="e"/>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L44" s="10" t="e"/>
-      <c r="M44" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M44" s="10" t="e"/>
       <c r="N44" s="9" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="A45" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B45" s="19" t="e"/>
       <c r="C45" s="19" t="e"/>
@@ -1571,26 +1539,26 @@
       <c r="F45" s="19" t="e"/>
       <c r="G45" s="19" t="e"/>
       <c r="H45" s="9" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J45" s="10" t="e"/>
       <c r="K45" s="9" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L45" s="10" t="e"/>
       <c r="M45" s="9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N45" s="9" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
       <c r="A46" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B46" s="19" t="e"/>
       <c r="C46" s="19" t="e"/>
@@ -1599,22 +1567,22 @@
       <c r="F46" s="19" t="e"/>
       <c r="G46" s="19" t="e"/>
       <c r="H46" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I46" s="10" t="e"/>
       <c r="J46" s="10" t="e"/>
       <c r="K46" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L46" s="10" t="e"/>
       <c r="M46" s="10" t="e"/>
       <c r="N46" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="A47" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="19" t="e"/>
       <c r="C47" s="19" t="e"/>
@@ -1623,82 +1591,78 @@
       <c r="F47" s="19" t="e"/>
       <c r="G47" s="19" t="e"/>
       <c r="H47" s="9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I47" s="10" t="e"/>
       <c r="J47" s="10" t="e"/>
       <c r="K47" s="9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L47" s="10" t="e"/>
       <c r="M47" s="10" t="e"/>
       <c r="N47" s="9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A48" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="19" t="e"/>
+      <c r="C48" s="19" t="e"/>
+      <c r="D48" s="19" t="e"/>
+      <c r="E48" s="19" t="e"/>
+      <c r="F48" s="19" t="e"/>
+      <c r="G48" s="19" t="e"/>
+      <c r="H48" s="9" t="n">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" ht="11" customHeight="true">
-      <c r="A48" s="16" t="s">
+      <c r="I48" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" s="10" t="e"/>
+      <c r="K48" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L48" s="10" t="e"/>
+      <c r="M48" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="16" t="e"/>
-      <c r="C48" s="16" t="s">
+      <c r="B49" s="16" t="e"/>
+      <c r="C49" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="16" t="e"/>
-      <c r="E48" s="16" t="e"/>
-      <c r="F48" s="16" t="e"/>
-      <c r="G48" s="16" t="s">
+      <c r="D49" s="16" t="e"/>
+      <c r="E49" s="16" t="e"/>
+      <c r="F49" s="16" t="e"/>
+      <c r="G49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="17" t="n">
+      <c r="H49" s="17" t="n">
         <v>185</v>
       </c>
-      <c r="I48" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J48" s="18" t="e"/>
-      <c r="K48" s="17" t="n">
-        <v>135</v>
-      </c>
-      <c r="L48" s="18" t="e"/>
-      <c r="M48" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="N48" s="17" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="19" t="e"/>
-      <c r="C49" s="19" t="e"/>
-      <c r="D49" s="19" t="e"/>
-      <c r="E49" s="19" t="e"/>
-      <c r="F49" s="19" t="e"/>
-      <c r="G49" s="19" t="e"/>
-      <c r="H49" s="9" t="n">
-        <v>85</v>
-      </c>
-      <c r="I49" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="J49" s="10" t="e"/>
-      <c r="K49" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="L49" s="10" t="e"/>
-      <c r="M49" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="N49" s="9" t="n">
-        <v>35</v>
+      <c r="I49" s="18" t="e"/>
+      <c r="J49" s="18" t="e"/>
+      <c r="K49" s="17" t="n">
+        <v>185</v>
+      </c>
+      <c r="L49" s="18" t="e"/>
+      <c r="M49" s="18" t="e"/>
+      <c r="N49" s="17" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B50" s="19" t="e"/>
       <c r="C50" s="19" t="e"/>
@@ -1707,54 +1671,46 @@
       <c r="F50" s="19" t="e"/>
       <c r="G50" s="19" t="e"/>
       <c r="H50" s="9" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I50" s="10" t="e"/>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="L50" s="10" t="e"/>
       <c r="M50" s="10" t="e"/>
       <c r="N50" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" ht="22" customHeight="true">
-      <c r="A51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="16" t="e"/>
-      <c r="C51" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="16" t="e"/>
-      <c r="E51" s="16" t="e"/>
-      <c r="F51" s="16" t="e"/>
-      <c r="G51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="17" t="n">
-        <v>189</v>
-      </c>
-      <c r="I51" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J51" s="18" t="e"/>
-      <c r="K51" s="17" t="n">
-        <v>172</v>
-      </c>
-      <c r="L51" s="18" t="e"/>
-      <c r="M51" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N51" s="17" t="n">
-        <v>172</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A51" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="19" t="e"/>
+      <c r="C51" s="19" t="e"/>
+      <c r="D51" s="19" t="e"/>
+      <c r="E51" s="19" t="e"/>
+      <c r="F51" s="19" t="e"/>
+      <c r="G51" s="19" t="e"/>
+      <c r="H51" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I51" s="10" t="e"/>
+      <c r="J51" s="10" t="e"/>
+      <c r="K51" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="L51" s="10" t="e"/>
+      <c r="M51" s="10" t="e"/>
+      <c r="N51" s="9" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="11" customHeight="true" outlineLevel="1">
       <c r="A52" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B52" s="19" t="e"/>
       <c r="C52" s="19" t="e"/>
@@ -1763,50 +1719,54 @@
       <c r="F52" s="19" t="e"/>
       <c r="G52" s="19" t="e"/>
       <c r="H52" s="9" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I52" s="10" t="e"/>
       <c r="J52" s="10" t="e"/>
       <c r="K52" s="9" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="L52" s="10" t="e"/>
       <c r="M52" s="10" t="e"/>
       <c r="N52" s="9" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A53" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="19" t="e"/>
-      <c r="C53" s="19" t="e"/>
-      <c r="D53" s="19" t="e"/>
-      <c r="E53" s="19" t="e"/>
-      <c r="F53" s="19" t="e"/>
-      <c r="G53" s="19" t="e"/>
-      <c r="H53" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="I53" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" s="10" t="e"/>
-      <c r="K53" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="L53" s="10" t="e"/>
-      <c r="M53" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" s="9" t="n">
-        <v>50</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
+      <c r="A53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="e"/>
+      <c r="C53" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="16" t="e"/>
+      <c r="E53" s="16" t="e"/>
+      <c r="F53" s="16" t="e"/>
+      <c r="G53" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="17" t="n">
+        <v>176</v>
+      </c>
+      <c r="I53" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="J53" s="18" t="e"/>
+      <c r="K53" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="L53" s="18" t="e"/>
+      <c r="M53" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="N53" s="17" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1815,10 +1775,10 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
@@ -1826,7 +1786,7 @@
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" s="9" t="n">
         <v>24</v>
@@ -1834,7 +1794,7 @@
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1843,22 +1803,26 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I55" s="10" t="e"/>
+        <v>99</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>35</v>
+      </c>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="L55" s="10" t="e"/>
-      <c r="M55" s="10" t="e"/>
+      <c r="M55" s="9" t="n">
+        <v>35</v>
+      </c>
       <c r="N55" s="9" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="A56" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B56" s="19" t="e"/>
       <c r="C56" s="19" t="e"/>
@@ -1867,86 +1831,78 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I56" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I56" s="10" t="e"/>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="L56" s="10" t="e"/>
+      <c r="M56" s="10" t="e"/>
+      <c r="N56" s="9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A57" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="19" t="e"/>
+      <c r="C57" s="19" t="e"/>
+      <c r="D57" s="19" t="e"/>
+      <c r="E57" s="19" t="e"/>
+      <c r="F57" s="19" t="e"/>
+      <c r="G57" s="19" t="e"/>
+      <c r="H57" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="L56" s="10" t="e"/>
-      <c r="M56" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N56" s="9" t="n">
+      <c r="I57" s="10" t="e"/>
+      <c r="J57" s="10" t="e"/>
+      <c r="K57" s="9" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" ht="11" customHeight="true">
-      <c r="A57" s="16" t="s">
+      <c r="L57" s="10" t="e"/>
+      <c r="M57" s="10" t="e"/>
+      <c r="N57" s="9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="16" t="e"/>
-      <c r="C57" s="16" t="s">
+      <c r="B58" s="16" t="e"/>
+      <c r="C58" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="16" t="e"/>
-      <c r="E57" s="16" t="e"/>
-      <c r="F57" s="16" t="e"/>
-      <c r="G57" s="16" t="s">
+      <c r="D58" s="16" t="e"/>
+      <c r="E58" s="16" t="e"/>
+      <c r="F58" s="16" t="e"/>
+      <c r="G58" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="17" t="n">
-        <v>112</v>
-      </c>
-      <c r="I57" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" s="18" t="e"/>
-      <c r="K57" s="17" t="n">
-        <v>108</v>
-      </c>
-      <c r="L57" s="18" t="e"/>
-      <c r="M57" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" s="17" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A58" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="19" t="e"/>
-      <c r="C58" s="19" t="e"/>
-      <c r="D58" s="19" t="e"/>
-      <c r="E58" s="19" t="e"/>
-      <c r="F58" s="19" t="e"/>
-      <c r="G58" s="19" t="e"/>
-      <c r="H58" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I58" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" s="10" t="e"/>
-      <c r="K58" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="L58" s="10" t="e"/>
-      <c r="M58" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" s="9" t="n">
-        <v>23</v>
+      <c r="H58" s="17" t="n">
+        <v>111</v>
+      </c>
+      <c r="I58" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J58" s="18" t="e"/>
+      <c r="K58" s="17" t="n">
+        <v>99</v>
+      </c>
+      <c r="L58" s="18" t="e"/>
+      <c r="M58" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="N58" s="17" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="1">
       <c r="A59" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B59" s="19" t="e"/>
       <c r="C59" s="19" t="e"/>
@@ -1955,22 +1911,26 @@
       <c r="F59" s="19" t="e"/>
       <c r="G59" s="19" t="e"/>
       <c r="H59" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I59" s="10" t="e"/>
+        <v>36</v>
+      </c>
+      <c r="I59" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="J59" s="10" t="e"/>
       <c r="K59" s="9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L59" s="10" t="e"/>
-      <c r="M59" s="10" t="e"/>
+      <c r="M59" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="N59" s="9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1979,22 +1939,26 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I60" s="10" t="e"/>
+        <v>27</v>
+      </c>
+      <c r="I60" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="L60" s="10" t="e"/>
-      <c r="M60" s="10" t="e"/>
+      <c r="M60" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N60" s="9" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -2003,22 +1967,22 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I61" s="10" t="e"/>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L61" s="10" t="e"/>
       <c r="M61" s="10" t="e"/>
       <c r="N61" s="9" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" ht="11" customHeight="true" outlineLevel="1">
       <c r="A62" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" s="19" t="e"/>
       <c r="C62" s="19" t="e"/>
@@ -2027,82 +1991,74 @@
       <c r="F62" s="19" t="e"/>
       <c r="G62" s="19" t="e"/>
       <c r="H62" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I62" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I62" s="10" t="e"/>
       <c r="J62" s="10" t="e"/>
       <c r="K62" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L62" s="10" t="e"/>
+      <c r="M62" s="10" t="e"/>
+      <c r="N62" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A63" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="19" t="e"/>
+      <c r="C63" s="19" t="e"/>
+      <c r="D63" s="19" t="e"/>
+      <c r="E63" s="19" t="e"/>
+      <c r="F63" s="19" t="e"/>
+      <c r="G63" s="19" t="e"/>
+      <c r="H63" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="L62" s="10" t="e"/>
-      <c r="M62" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" s="9" t="n">
+      <c r="I63" s="10" t="e"/>
+      <c r="J63" s="10" t="e"/>
+      <c r="K63" s="9" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="63" ht="11" customHeight="true">
-      <c r="A63" s="16" t="s">
+      <c r="L63" s="10" t="e"/>
+      <c r="M63" s="10" t="e"/>
+      <c r="N63" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" ht="11" customHeight="true">
+      <c r="A64" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="16" t="e"/>
-      <c r="C63" s="16" t="s">
+      <c r="B64" s="16" t="e"/>
+      <c r="C64" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="16" t="e"/>
-      <c r="E63" s="16" t="e"/>
-      <c r="F63" s="16" t="e"/>
-      <c r="G63" s="16" t="s">
+      <c r="D64" s="16" t="e"/>
+      <c r="E64" s="16" t="e"/>
+      <c r="F64" s="16" t="e"/>
+      <c r="G64" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="17" t="n">
-        <v>32</v>
-      </c>
-      <c r="I63" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" s="18" t="e"/>
-      <c r="K63" s="17" t="n">
+      <c r="H64" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="L63" s="18" t="e"/>
-      <c r="M63" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N63" s="17" t="n">
+      <c r="I64" s="18" t="e"/>
+      <c r="J64" s="18" t="e"/>
+      <c r="K64" s="17" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A64" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="19" t="e"/>
-      <c r="C64" s="19" t="e"/>
-      <c r="D64" s="19" t="e"/>
-      <c r="E64" s="19" t="e"/>
-      <c r="F64" s="19" t="e"/>
-      <c r="G64" s="19" t="e"/>
-      <c r="H64" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I64" s="10" t="e"/>
-      <c r="J64" s="10" t="e"/>
-      <c r="K64" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L64" s="10" t="e"/>
-      <c r="M64" s="10" t="e"/>
-      <c r="N64" s="9" t="n">
-        <v>14</v>
+      <c r="L64" s="18" t="e"/>
+      <c r="M64" s="18" t="e"/>
+      <c r="N64" s="17" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2111,86 +2067,78 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I65" s="9" t="n">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I65" s="10" t="e"/>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L65" s="10" t="e"/>
+      <c r="M65" s="10" t="e"/>
+      <c r="N65" s="9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A66" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="19" t="e"/>
+      <c r="C66" s="19" t="e"/>
+      <c r="D66" s="19" t="e"/>
+      <c r="E66" s="19" t="e"/>
+      <c r="F66" s="19" t="e"/>
+      <c r="G66" s="19" t="e"/>
+      <c r="H66" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L65" s="10" t="e"/>
-      <c r="M65" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="N65" s="9" t="n">
+      <c r="I66" s="10" t="e"/>
+      <c r="J66" s="10" t="e"/>
+      <c r="K66" s="9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" ht="22" customHeight="true">
-      <c r="A66" s="16" t="s">
+      <c r="L66" s="10" t="e"/>
+      <c r="M66" s="10" t="e"/>
+      <c r="N66" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true">
+      <c r="A67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="16" t="e"/>
-      <c r="C66" s="16" t="s">
+      <c r="B67" s="16" t="e"/>
+      <c r="C67" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="16" t="e"/>
-      <c r="E66" s="16" t="e"/>
-      <c r="F66" s="16" t="e"/>
-      <c r="G66" s="16" t="s">
+      <c r="D67" s="16" t="e"/>
+      <c r="E67" s="16" t="e"/>
+      <c r="F67" s="16" t="e"/>
+      <c r="G67" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="17" t="n">
-        <v>205</v>
-      </c>
-      <c r="I66" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="J66" s="18" t="e"/>
-      <c r="K66" s="17" t="n">
-        <v>179</v>
-      </c>
-      <c r="L66" s="18" t="e"/>
-      <c r="M66" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="N66" s="17" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A67" s="19" t="s">
+      <c r="H67" s="17" t="n">
+        <v>181</v>
+      </c>
+      <c r="I67" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="B67" s="19" t="e"/>
-      <c r="C67" s="19" t="e"/>
-      <c r="D67" s="19" t="e"/>
-      <c r="E67" s="19" t="e"/>
-      <c r="F67" s="19" t="e"/>
-      <c r="G67" s="19" t="e"/>
-      <c r="H67" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="I67" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" s="10" t="e"/>
-      <c r="K67" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L67" s="10" t="e"/>
-      <c r="M67" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N67" s="9" t="n">
-        <v>30</v>
+      <c r="J67" s="18" t="e"/>
+      <c r="K67" s="17" t="n">
+        <v>156</v>
+      </c>
+      <c r="L67" s="18" t="e"/>
+      <c r="M67" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="N67" s="17" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2199,22 +2147,26 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="I68" s="10" t="e"/>
+        <v>42</v>
+      </c>
+      <c r="I68" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="L68" s="10" t="e"/>
-      <c r="M68" s="10" t="e"/>
+      <c r="M68" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="N68" s="9" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
       <c r="A69" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B69" s="19" t="e"/>
       <c r="C69" s="19" t="e"/>
@@ -2223,22 +2175,26 @@
       <c r="F69" s="19" t="e"/>
       <c r="G69" s="19" t="e"/>
       <c r="H69" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I69" s="10" t="e"/>
+        <v>69</v>
+      </c>
+      <c r="I69" s="9" t="n">
+        <v>17</v>
+      </c>
       <c r="J69" s="10" t="e"/>
       <c r="K69" s="9" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L69" s="10" t="e"/>
-      <c r="M69" s="10" t="e"/>
+      <c r="M69" s="9" t="n">
+        <v>17</v>
+      </c>
       <c r="N69" s="9" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2247,17 +2203,17 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L70" s="10" t="e"/>
       <c r="M70" s="10" t="e"/>
       <c r="N70" s="9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
@@ -2271,19 +2227,15 @@
       <c r="F71" s="19" t="e"/>
       <c r="G71" s="19" t="e"/>
       <c r="H71" s="9" t="n">
-        <v>74</v>
-      </c>
-      <c r="I71" s="9" t="n">
-        <v>24</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I71" s="10" t="e"/>
       <c r="J71" s="10" t="e"/>
       <c r="K71" s="9" t="n">
         <v>50</v>
       </c>
       <c r="L71" s="10" t="e"/>
-      <c r="M71" s="9" t="n">
-        <v>24</v>
-      </c>
+      <c r="M71" s="10" t="e"/>
       <c r="N71" s="9" t="n">
         <v>50</v>
       </c>
@@ -2303,21 +2255,21 @@
         <v>24</v>
       </c>
       <c r="H72" s="17" t="n">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I72" s="17" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J72" s="18" t="e"/>
       <c r="K72" s="17" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L72" s="18" t="e"/>
       <c r="M72" s="17" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N72" s="17" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
@@ -2331,21 +2283,21 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="L73" s="10" t="e"/>
       <c r="M73" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N73" s="9" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
@@ -2359,21 +2311,21 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="I74" s="9" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L74" s="10" t="e"/>
       <c r="M74" s="9" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N74" s="9" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
@@ -2411,17 +2363,17 @@
       <c r="F76" s="19" t="e"/>
       <c r="G76" s="19" t="e"/>
       <c r="H76" s="9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I76" s="10" t="e"/>
       <c r="J76" s="10" t="e"/>
       <c r="K76" s="9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L76" s="10" t="e"/>
       <c r="M76" s="10" t="e"/>
       <c r="N76" s="9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
@@ -2435,21 +2387,21 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="9" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N77" s="9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true">
@@ -2467,21 +2419,21 @@
         <v>24</v>
       </c>
       <c r="H78" s="17" t="n">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I78" s="17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J78" s="18" t="e"/>
       <c r="K78" s="17" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L78" s="18" t="e"/>
       <c r="M78" s="17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N78" s="17" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
@@ -2495,21 +2447,21 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I79" s="9" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L79" s="10" t="e"/>
       <c r="M79" s="9" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N79" s="9" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
@@ -2547,26 +2499,22 @@
       <c r="F81" s="19" t="e"/>
       <c r="G81" s="19" t="e"/>
       <c r="H81" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I81" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I81" s="10" t="e"/>
       <c r="J81" s="10" t="e"/>
       <c r="K81" s="9" t="n">
         <v>10</v>
       </c>
       <c r="L81" s="10" t="e"/>
-      <c r="M81" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M81" s="10" t="e"/>
       <c r="N81" s="9" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="A82" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B82" s="19" t="e"/>
       <c r="C82" s="19" t="e"/>
@@ -2575,82 +2523,82 @@
       <c r="F82" s="19" t="e"/>
       <c r="G82" s="19" t="e"/>
       <c r="H82" s="9" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I82" s="10" t="e"/>
       <c r="J82" s="10" t="e"/>
       <c r="K82" s="9" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L82" s="10" t="e"/>
       <c r="M82" s="10" t="e"/>
       <c r="N82" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A83" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" s="19" t="e"/>
-      <c r="C83" s="19" t="e"/>
-      <c r="D83" s="19" t="e"/>
-      <c r="E83" s="19" t="e"/>
-      <c r="F83" s="19" t="e"/>
-      <c r="G83" s="19" t="e"/>
-      <c r="H83" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I83" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J83" s="10" t="e"/>
-      <c r="K83" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="L83" s="10" t="e"/>
-      <c r="M83" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="N83" s="9" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" ht="22" customHeight="true">
-      <c r="A84" s="16" t="s">
+    </row>
+    <row r="83" ht="22" customHeight="true">
+      <c r="A83" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B84" s="16" t="e"/>
-      <c r="C84" s="16" t="s">
+      <c r="B83" s="16" t="e"/>
+      <c r="C83" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="16" t="e"/>
-      <c r="E84" s="16" t="e"/>
-      <c r="F84" s="16" t="e"/>
-      <c r="G84" s="16" t="s">
+      <c r="D83" s="16" t="e"/>
+      <c r="E83" s="16" t="e"/>
+      <c r="F83" s="16" t="e"/>
+      <c r="G83" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H84" s="17" t="n">
-        <v>206</v>
-      </c>
-      <c r="I84" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" s="18" t="e"/>
-      <c r="K84" s="17" t="n">
-        <v>189</v>
-      </c>
-      <c r="L84" s="18" t="e"/>
-      <c r="M84" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N84" s="17" t="n">
-        <v>189</v>
+      <c r="H83" s="17" t="n">
+        <v>303</v>
+      </c>
+      <c r="I83" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="J83" s="18" t="e"/>
+      <c r="K83" s="17" t="n">
+        <v>226</v>
+      </c>
+      <c r="L83" s="18" t="e"/>
+      <c r="M83" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="N83" s="17" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A84" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="19" t="e"/>
+      <c r="C84" s="19" t="e"/>
+      <c r="D84" s="19" t="e"/>
+      <c r="E84" s="19" t="e"/>
+      <c r="F84" s="19" t="e"/>
+      <c r="G84" s="19" t="e"/>
+      <c r="H84" s="9" t="n">
+        <v>122</v>
+      </c>
+      <c r="I84" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="J84" s="10" t="e"/>
+      <c r="K84" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="L84" s="10" t="e"/>
+      <c r="M84" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="N84" s="9" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2659,26 +2607,26 @@
       <c r="F85" s="19" t="e"/>
       <c r="G85" s="19" t="e"/>
       <c r="H85" s="9" t="n">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I85" s="9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J85" s="10" t="e"/>
       <c r="K85" s="9" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="L85" s="10" t="e"/>
       <c r="M85" s="9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="N85" s="9" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B86" s="19" t="e"/>
       <c r="C86" s="19" t="e"/>
@@ -2687,26 +2635,26 @@
       <c r="F86" s="19" t="e"/>
       <c r="G86" s="19" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9" t="n">
         <v>6</v>
       </c>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="L86" s="10" t="e"/>
       <c r="M86" s="9" t="n">
         <v>6</v>
       </c>
       <c r="N86" s="9" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="A87" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B87" s="19" t="e"/>
       <c r="C87" s="19" t="e"/>
@@ -2715,22 +2663,22 @@
       <c r="F87" s="19" t="e"/>
       <c r="G87" s="19" t="e"/>
       <c r="H87" s="9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I87" s="10" t="e"/>
       <c r="J87" s="10" t="e"/>
       <c r="K87" s="9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L87" s="10" t="e"/>
       <c r="M87" s="10" t="e"/>
       <c r="N87" s="9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2739,82 +2687,82 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L88" s="10" t="e"/>
       <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A89" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="19" t="e"/>
-      <c r="C89" s="19" t="e"/>
-      <c r="D89" s="19" t="e"/>
-      <c r="E89" s="19" t="e"/>
-      <c r="F89" s="19" t="e"/>
-      <c r="G89" s="19" t="e"/>
-      <c r="H89" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I89" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" s="10" t="e"/>
-      <c r="K89" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="L89" s="10" t="e"/>
-      <c r="M89" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N89" s="9" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true">
-      <c r="A90" s="16" t="s">
+    </row>
+    <row r="89" ht="11" customHeight="true">
+      <c r="A89" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B90" s="16" t="e"/>
-      <c r="C90" s="16" t="s">
+      <c r="B89" s="16" t="e"/>
+      <c r="C89" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D90" s="16" t="e"/>
-      <c r="E90" s="16" t="e"/>
-      <c r="F90" s="16" t="e"/>
-      <c r="G90" s="16" t="s">
+      <c r="D89" s="16" t="e"/>
+      <c r="E89" s="16" t="e"/>
+      <c r="F89" s="16" t="e"/>
+      <c r="G89" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H90" s="17" t="n">
-        <v>195</v>
-      </c>
-      <c r="I90" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" s="18" t="e"/>
-      <c r="K90" s="17" t="n">
-        <v>193</v>
-      </c>
-      <c r="L90" s="18" t="e"/>
-      <c r="M90" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N90" s="17" t="n">
-        <v>193</v>
+      <c r="H89" s="17" t="n">
+        <v>294</v>
+      </c>
+      <c r="I89" s="17" t="n">
+        <v>28</v>
+      </c>
+      <c r="J89" s="18" t="e"/>
+      <c r="K89" s="17" t="n">
+        <v>266</v>
+      </c>
+      <c r="L89" s="18" t="e"/>
+      <c r="M89" s="17" t="n">
+        <v>28</v>
+      </c>
+      <c r="N89" s="17" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A90" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="19" t="e"/>
+      <c r="C90" s="19" t="e"/>
+      <c r="D90" s="19" t="e"/>
+      <c r="E90" s="19" t="e"/>
+      <c r="F90" s="19" t="e"/>
+      <c r="G90" s="19" t="e"/>
+      <c r="H90" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I90" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" s="10" t="e"/>
+      <c r="K90" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="L90" s="10" t="e"/>
+      <c r="M90" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N90" s="9" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="A91" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B91" s="19" t="e"/>
       <c r="C91" s="19" t="e"/>
@@ -2823,22 +2771,26 @@
       <c r="F91" s="19" t="e"/>
       <c r="G91" s="19" t="e"/>
       <c r="H91" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I91" s="10" t="e"/>
+        <v>89</v>
+      </c>
+      <c r="I91" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="J91" s="10" t="e"/>
       <c r="K91" s="9" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="L91" s="10" t="e"/>
-      <c r="M91" s="10" t="e"/>
+      <c r="M91" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="N91" s="9" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="A92" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B92" s="19" t="e"/>
       <c r="C92" s="19" t="e"/>
@@ -2847,26 +2799,22 @@
       <c r="F92" s="19" t="e"/>
       <c r="G92" s="19" t="e"/>
       <c r="H92" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="I92" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I92" s="10" t="e"/>
       <c r="J92" s="10" t="e"/>
       <c r="K92" s="9" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="L92" s="10" t="e"/>
-      <c r="M92" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M92" s="10" t="e"/>
       <c r="N92" s="9" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="A93" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B93" s="19" t="e"/>
       <c r="C93" s="19" t="e"/>
@@ -2875,22 +2823,22 @@
       <c r="F93" s="19" t="e"/>
       <c r="G93" s="19" t="e"/>
       <c r="H93" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I93" s="10" t="e"/>
       <c r="J93" s="10" t="e"/>
       <c r="K93" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="L93" s="10" t="e"/>
       <c r="M93" s="10" t="e"/>
       <c r="N93" s="9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2899,82 +2847,82 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I94" s="10" t="e"/>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L94" s="10" t="e"/>
       <c r="M94" s="10" t="e"/>
       <c r="N94" s="9" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A95" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="19" t="e"/>
-      <c r="C95" s="19" t="e"/>
-      <c r="D95" s="19" t="e"/>
-      <c r="E95" s="19" t="e"/>
-      <c r="F95" s="19" t="e"/>
-      <c r="G95" s="19" t="e"/>
-      <c r="H95" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I95" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" s="10" t="e"/>
-      <c r="K95" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="L95" s="10" t="e"/>
-      <c r="M95" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" s="9" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true">
-      <c r="A96" s="16" t="s">
+    </row>
+    <row r="95" ht="11" customHeight="true">
+      <c r="A95" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B96" s="16" t="e"/>
-      <c r="C96" s="16" t="s">
+      <c r="B95" s="16" t="e"/>
+      <c r="C95" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="16" t="e"/>
-      <c r="E96" s="16" t="e"/>
-      <c r="F96" s="16" t="e"/>
-      <c r="G96" s="16" t="s">
+      <c r="D95" s="16" t="e"/>
+      <c r="E95" s="16" t="e"/>
+      <c r="F95" s="16" t="e"/>
+      <c r="G95" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="17" t="n">
-        <v>319</v>
-      </c>
-      <c r="I96" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J96" s="18" t="e"/>
-      <c r="K96" s="17" t="n">
-        <v>312</v>
-      </c>
-      <c r="L96" s="18" t="e"/>
-      <c r="M96" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N96" s="17" t="n">
-        <v>312</v>
+      <c r="H95" s="17" t="n">
+        <v>318</v>
+      </c>
+      <c r="I95" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="J95" s="18" t="e"/>
+      <c r="K95" s="17" t="n">
+        <v>241</v>
+      </c>
+      <c r="L95" s="18" t="e"/>
+      <c r="M95" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="N95" s="17" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A96" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="19" t="e"/>
+      <c r="C96" s="19" t="e"/>
+      <c r="D96" s="19" t="e"/>
+      <c r="E96" s="19" t="e"/>
+      <c r="F96" s="19" t="e"/>
+      <c r="G96" s="19" t="e"/>
+      <c r="H96" s="9" t="n">
+        <v>107</v>
+      </c>
+      <c r="I96" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="J96" s="10" t="e"/>
+      <c r="K96" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="L96" s="10" t="e"/>
+      <c r="M96" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="N96" s="9" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="A97" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B97" s="19" t="e"/>
       <c r="C97" s="19" t="e"/>
@@ -2983,26 +2931,26 @@
       <c r="F97" s="19" t="e"/>
       <c r="G97" s="19" t="e"/>
       <c r="H97" s="9" t="n">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="I97" s="9" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="J97" s="10" t="e"/>
       <c r="K97" s="9" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L97" s="10" t="e"/>
       <c r="M97" s="9" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="N97" s="9" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B98" s="19" t="e"/>
       <c r="C98" s="19" t="e"/>
@@ -3011,26 +2959,22 @@
       <c r="F98" s="19" t="e"/>
       <c r="G98" s="19" t="e"/>
       <c r="H98" s="9" t="n">
-        <v>115</v>
-      </c>
-      <c r="I98" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I98" s="10" t="e"/>
       <c r="J98" s="10" t="e"/>
       <c r="K98" s="9" t="n">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="L98" s="10" t="e"/>
-      <c r="M98" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M98" s="10" t="e"/>
       <c r="N98" s="9" t="n">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -3039,46 +2983,54 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I99" s="10" t="e"/>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="L99" s="10" t="e"/>
       <c r="M99" s="10" t="e"/>
       <c r="N99" s="9" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A100" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="19" t="e"/>
-      <c r="C100" s="19" t="e"/>
-      <c r="D100" s="19" t="e"/>
-      <c r="E100" s="19" t="e"/>
-      <c r="F100" s="19" t="e"/>
-      <c r="G100" s="19" t="e"/>
-      <c r="H100" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I100" s="10" t="e"/>
-      <c r="J100" s="10" t="e"/>
-      <c r="K100" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L100" s="10" t="e"/>
-      <c r="M100" s="10" t="e"/>
-      <c r="N100" s="9" t="n">
-        <v>40</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true">
+      <c r="A100" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="16" t="e"/>
+      <c r="C100" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D100" s="16" t="e"/>
+      <c r="E100" s="16" t="e"/>
+      <c r="F100" s="16" t="e"/>
+      <c r="G100" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="17" t="n">
+        <v>429</v>
+      </c>
+      <c r="I100" s="17" t="n">
+        <v>123</v>
+      </c>
+      <c r="J100" s="18" t="e"/>
+      <c r="K100" s="17" t="n">
+        <v>306</v>
+      </c>
+      <c r="L100" s="18" t="e"/>
+      <c r="M100" s="17" t="n">
+        <v>123</v>
+      </c>
+      <c r="N100" s="17" t="n">
+        <v>306</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3087,58 +3039,54 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="I101" s="9" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="L101" s="10" t="e"/>
       <c r="M101" s="9" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="N101" s="9" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="true">
-      <c r="A102" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="16" t="e"/>
-      <c r="C102" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D102" s="16" t="e"/>
-      <c r="E102" s="16" t="e"/>
-      <c r="F102" s="16" t="e"/>
-      <c r="G102" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H102" s="17" t="n">
-        <v>234</v>
-      </c>
-      <c r="I102" s="17" t="n">
-        <v>74</v>
-      </c>
-      <c r="J102" s="18" t="e"/>
-      <c r="K102" s="17" t="n">
-        <v>160</v>
-      </c>
-      <c r="L102" s="18" t="e"/>
-      <c r="M102" s="17" t="n">
-        <v>74</v>
-      </c>
-      <c r="N102" s="17" t="n">
-        <v>160</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A102" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="19" t="e"/>
+      <c r="C102" s="19" t="e"/>
+      <c r="D102" s="19" t="e"/>
+      <c r="E102" s="19" t="e"/>
+      <c r="F102" s="19" t="e"/>
+      <c r="G102" s="19" t="e"/>
+      <c r="H102" s="9" t="n">
+        <v>181</v>
+      </c>
+      <c r="I102" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="J102" s="10" t="e"/>
+      <c r="K102" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L102" s="10" t="e"/>
+      <c r="M102" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="N102" s="9" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="A103" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B103" s="19" t="e"/>
       <c r="C103" s="19" t="e"/>
@@ -3147,26 +3095,22 @@
       <c r="F103" s="19" t="e"/>
       <c r="G103" s="19" t="e"/>
       <c r="H103" s="9" t="n">
-        <v>78</v>
-      </c>
-      <c r="I103" s="9" t="n">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I103" s="10" t="e"/>
       <c r="J103" s="10" t="e"/>
       <c r="K103" s="9" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="L103" s="10" t="e"/>
-      <c r="M103" s="9" t="n">
-        <v>23</v>
-      </c>
+      <c r="M103" s="10" t="e"/>
       <c r="N103" s="9" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="A104" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B104" s="19" t="e"/>
       <c r="C104" s="19" t="e"/>
@@ -3175,26 +3119,22 @@
       <c r="F104" s="19" t="e"/>
       <c r="G104" s="19" t="e"/>
       <c r="H104" s="9" t="n">
-        <v>111</v>
-      </c>
-      <c r="I104" s="9" t="n">
-        <v>46</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I104" s="10" t="e"/>
       <c r="J104" s="10" t="e"/>
       <c r="K104" s="9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L104" s="10" t="e"/>
-      <c r="M104" s="9" t="n">
-        <v>46</v>
-      </c>
+      <c r="M104" s="10" t="e"/>
       <c r="N104" s="9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B105" s="19" t="e"/>
       <c r="C105" s="19" t="e"/>
@@ -3203,50 +3143,54 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9" t="n">
         <v>4</v>
       </c>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L105" s="10" t="e"/>
       <c r="M105" s="9" t="n">
         <v>4</v>
       </c>
       <c r="N105" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A106" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="19" t="e"/>
-      <c r="C106" s="19" t="e"/>
-      <c r="D106" s="19" t="e"/>
-      <c r="E106" s="19" t="e"/>
-      <c r="F106" s="19" t="e"/>
-      <c r="G106" s="19" t="e"/>
-      <c r="H106" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I106" s="10" t="e"/>
-      <c r="J106" s="10" t="e"/>
-      <c r="K106" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L106" s="10" t="e"/>
-      <c r="M106" s="10" t="e"/>
-      <c r="N106" s="9" t="n">
-        <v>20</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" ht="11" customHeight="true">
+      <c r="A106" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="16" t="e"/>
+      <c r="C106" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="16" t="e"/>
+      <c r="E106" s="16" t="e"/>
+      <c r="F106" s="16" t="e"/>
+      <c r="G106" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I106" s="18" t="e"/>
+      <c r="J106" s="18" t="e"/>
+      <c r="K106" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L106" s="18" t="e"/>
+      <c r="M106" s="18" t="e"/>
+      <c r="N106" s="17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3255,54 +3199,46 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I107" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="I107" s="10" t="e"/>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L107" s="10" t="e"/>
-      <c r="M107" s="9" t="n">
+      <c r="M107" s="10" t="e"/>
+      <c r="N107" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="N107" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" ht="11" customHeight="true">
-      <c r="A108" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="16" t="e"/>
-      <c r="C108" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D108" s="16" t="e"/>
-      <c r="E108" s="16" t="e"/>
-      <c r="F108" s="16" t="e"/>
-      <c r="G108" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I108" s="18" t="e"/>
-      <c r="J108" s="18" t="e"/>
-      <c r="K108" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L108" s="18" t="e"/>
-      <c r="M108" s="18" t="e"/>
-      <c r="N108" s="17" t="n">
-        <v>4</v>
+    </row>
+    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A108" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="19" t="e"/>
+      <c r="C108" s="19" t="e"/>
+      <c r="D108" s="19" t="e"/>
+      <c r="E108" s="19" t="e"/>
+      <c r="F108" s="19" t="e"/>
+      <c r="G108" s="19" t="e"/>
+      <c r="H108" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" s="10" t="e"/>
+      <c r="J108" s="10" t="e"/>
+      <c r="K108" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" s="10" t="e"/>
+      <c r="M108" s="10" t="e"/>
+      <c r="N108" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="A109" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B109" s="19" t="e"/>
       <c r="C109" s="19" t="e"/>
@@ -3326,7 +3262,7 @@
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3348,33 +3284,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A111" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" s="19" t="e"/>
-      <c r="C111" s="19" t="e"/>
-      <c r="D111" s="19" t="e"/>
-      <c r="E111" s="19" t="e"/>
-      <c r="F111" s="19" t="e"/>
-      <c r="G111" s="19" t="e"/>
-      <c r="H111" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" s="10" t="e"/>
-      <c r="J111" s="10" t="e"/>
-      <c r="K111" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L111" s="10" t="e"/>
-      <c r="M111" s="10" t="e"/>
-      <c r="N111" s="9" t="n">
-        <v>1</v>
+    <row r="111" ht="11" customHeight="true">
+      <c r="A111" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="16" t="e"/>
+      <c r="C111" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" s="16" t="e"/>
+      <c r="E111" s="16" t="e"/>
+      <c r="F111" s="16" t="e"/>
+      <c r="G111" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="17" t="n">
+        <v>390</v>
+      </c>
+      <c r="I111" s="17" t="n">
+        <v>161</v>
+      </c>
+      <c r="J111" s="18" t="e"/>
+      <c r="K111" s="17" t="n">
+        <v>229</v>
+      </c>
+      <c r="L111" s="18" t="e"/>
+      <c r="M111" s="17" t="n">
+        <v>161</v>
+      </c>
+      <c r="N111" s="17" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3383,54 +3327,54 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" s="10" t="e"/>
+        <v>154</v>
+      </c>
+      <c r="I112" s="9" t="n">
+        <v>78</v>
+      </c>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="L112" s="10" t="e"/>
-      <c r="M112" s="10" t="e"/>
+      <c r="M112" s="9" t="n">
+        <v>78</v>
+      </c>
       <c r="N112" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true">
-      <c r="A113" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B113" s="16" t="e"/>
-      <c r="C113" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D113" s="16" t="e"/>
-      <c r="E113" s="16" t="e"/>
-      <c r="F113" s="16" t="e"/>
-      <c r="G113" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H113" s="17" t="n">
-        <v>293</v>
-      </c>
-      <c r="I113" s="17" t="n">
-        <v>45</v>
-      </c>
-      <c r="J113" s="18" t="e"/>
-      <c r="K113" s="17" t="n">
-        <v>248</v>
-      </c>
-      <c r="L113" s="18" t="e"/>
-      <c r="M113" s="17" t="n">
-        <v>45</v>
-      </c>
-      <c r="N113" s="17" t="n">
-        <v>248</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A113" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="19" t="e"/>
+      <c r="C113" s="19" t="e"/>
+      <c r="D113" s="19" t="e"/>
+      <c r="E113" s="19" t="e"/>
+      <c r="F113" s="19" t="e"/>
+      <c r="G113" s="19" t="e"/>
+      <c r="H113" s="9" t="n">
+        <v>145</v>
+      </c>
+      <c r="I113" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="J113" s="10" t="e"/>
+      <c r="K113" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="L113" s="10" t="e"/>
+      <c r="M113" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="N113" s="9" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3439,26 +3383,22 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>114</v>
-      </c>
-      <c r="I114" s="9" t="n">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I114" s="10" t="e"/>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="L114" s="10" t="e"/>
-      <c r="M114" s="9" t="n">
-        <v>23</v>
-      </c>
+      <c r="M114" s="10" t="e"/>
       <c r="N114" s="9" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="A115" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B115" s="19" t="e"/>
       <c r="C115" s="19" t="e"/>
@@ -3467,26 +3407,22 @@
       <c r="F115" s="19" t="e"/>
       <c r="G115" s="19" t="e"/>
       <c r="H115" s="9" t="n">
-        <v>105</v>
-      </c>
-      <c r="I115" s="9" t="n">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I115" s="10" t="e"/>
       <c r="J115" s="10" t="e"/>
       <c r="K115" s="9" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="L115" s="10" t="e"/>
-      <c r="M115" s="9" t="n">
-        <v>19</v>
-      </c>
+      <c r="M115" s="10" t="e"/>
       <c r="N115" s="9" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3495,46 +3431,58 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="I116" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I116" s="10" t="e"/>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="L116" s="10" t="e"/>
+      <c r="M116" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L116" s="10" t="e"/>
-      <c r="M116" s="10" t="e"/>
       <c r="N116" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A117" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B117" s="19" t="e"/>
-      <c r="C117" s="19" t="e"/>
-      <c r="D117" s="19" t="e"/>
-      <c r="E117" s="19" t="e"/>
-      <c r="F117" s="19" t="e"/>
-      <c r="G117" s="19" t="e"/>
-      <c r="H117" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I117" s="10" t="e"/>
-      <c r="J117" s="10" t="e"/>
-      <c r="K117" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L117" s="10" t="e"/>
-      <c r="M117" s="10" t="e"/>
-      <c r="N117" s="9" t="n">
-        <v>20</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true">
+      <c r="A117" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="16" t="e"/>
+      <c r="C117" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" s="16" t="e"/>
+      <c r="E117" s="16" t="e"/>
+      <c r="F117" s="16" t="e"/>
+      <c r="G117" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I117" s="17" t="n">
+        <v>205</v>
+      </c>
+      <c r="J117" s="18" t="e"/>
+      <c r="K117" s="17" t="n">
+        <v>195</v>
+      </c>
+      <c r="L117" s="18" t="e"/>
+      <c r="M117" s="17" t="n">
+        <v>205</v>
+      </c>
+      <c r="N117" s="17" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="A118" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B118" s="19" t="e"/>
       <c r="C118" s="19" t="e"/>
@@ -3543,58 +3491,54 @@
       <c r="F118" s="19" t="e"/>
       <c r="G118" s="19" t="e"/>
       <c r="H118" s="9" t="n">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I118" s="9" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="J118" s="10" t="e"/>
       <c r="K118" s="9" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L118" s="10" t="e"/>
       <c r="M118" s="9" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="N118" s="9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true">
-      <c r="A119" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B119" s="16" t="e"/>
-      <c r="C119" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="16" t="e"/>
-      <c r="E119" s="16" t="e"/>
-      <c r="F119" s="16" t="e"/>
-      <c r="G119" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="17" t="n">
-        <v>434</v>
-      </c>
-      <c r="I119" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="J119" s="18" t="e"/>
-      <c r="K119" s="17" t="n">
-        <v>340</v>
-      </c>
-      <c r="L119" s="18" t="e"/>
-      <c r="M119" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="N119" s="17" t="n">
-        <v>340</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A119" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="19" t="e"/>
+      <c r="C119" s="19" t="e"/>
+      <c r="D119" s="19" t="e"/>
+      <c r="E119" s="19" t="e"/>
+      <c r="F119" s="19" t="e"/>
+      <c r="G119" s="19" t="e"/>
+      <c r="H119" s="9" t="n">
+        <v>188</v>
+      </c>
+      <c r="I119" s="9" t="n">
+        <v>109</v>
+      </c>
+      <c r="J119" s="10" t="e"/>
+      <c r="K119" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="L119" s="10" t="e"/>
+      <c r="M119" s="9" t="n">
+        <v>109</v>
+      </c>
+      <c r="N119" s="9" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3603,26 +3547,22 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>138</v>
-      </c>
-      <c r="I120" s="9" t="n">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I120" s="10" t="e"/>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="L120" s="10" t="e"/>
-      <c r="M120" s="9" t="n">
-        <v>19</v>
-      </c>
+      <c r="M120" s="10" t="e"/>
       <c r="N120" s="9" t="n">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3631,50 +3571,54 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="I121" s="9" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="L121" s="10" t="e"/>
       <c r="M121" s="9" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="N121" s="9" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A122" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B122" s="19" t="e"/>
-      <c r="C122" s="19" t="e"/>
-      <c r="D122" s="19" t="e"/>
-      <c r="E122" s="19" t="e"/>
-      <c r="F122" s="19" t="e"/>
-      <c r="G122" s="19" t="e"/>
-      <c r="H122" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I122" s="10" t="e"/>
-      <c r="J122" s="10" t="e"/>
-      <c r="K122" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L122" s="10" t="e"/>
-      <c r="M122" s="10" t="e"/>
-      <c r="N122" s="9" t="n">
-        <v>14</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true">
+      <c r="A122" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" s="16" t="e"/>
+      <c r="C122" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" s="16" t="e"/>
+      <c r="E122" s="16" t="e"/>
+      <c r="F122" s="16" t="e"/>
+      <c r="G122" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" s="18" t="e"/>
+      <c r="J122" s="18" t="e"/>
+      <c r="K122" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" s="18" t="e"/>
+      <c r="M122" s="18" t="e"/>
+      <c r="N122" s="17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="A123" s="19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B123" s="19" t="e"/>
       <c r="C123" s="19" t="e"/>
@@ -3683,72 +3627,76 @@
       <c r="F123" s="19" t="e"/>
       <c r="G123" s="19" t="e"/>
       <c r="H123" s="9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I123" s="10" t="e"/>
       <c r="J123" s="10" t="e"/>
       <c r="K123" s="9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L123" s="10" t="e"/>
       <c r="M123" s="10" t="e"/>
       <c r="N123" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A124" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B124" s="19" t="e"/>
-      <c r="C124" s="19" t="e"/>
-      <c r="D124" s="19" t="e"/>
-      <c r="E124" s="19" t="e"/>
-      <c r="F124" s="19" t="e"/>
-      <c r="G124" s="19" t="e"/>
-      <c r="H124" s="9" t="n">
-        <v>94</v>
-      </c>
-      <c r="I124" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="J124" s="10" t="e"/>
-      <c r="K124" s="9" t="n">
-        <v>60</v>
-      </c>
-      <c r="L124" s="10" t="e"/>
-      <c r="M124" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="N124" s="9" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true">
-      <c r="A125" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B125" s="16" t="e"/>
-      <c r="C125" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D125" s="16" t="e"/>
-      <c r="E125" s="16" t="e"/>
-      <c r="F125" s="16" t="e"/>
-      <c r="G125" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true">
+      <c r="A124" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" s="16" t="e"/>
+      <c r="C124" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D124" s="16" t="e"/>
+      <c r="E124" s="16" t="e"/>
+      <c r="F124" s="16" t="e"/>
+      <c r="G124" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H125" s="17" t="n">
+      <c r="H124" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="I124" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J124" s="18" t="e"/>
+      <c r="K124" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L124" s="18" t="e"/>
+      <c r="M124" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="N124" s="17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A125" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="19" t="e"/>
+      <c r="C125" s="19" t="e"/>
+      <c r="D125" s="19" t="e"/>
+      <c r="E125" s="19" t="e"/>
+      <c r="F125" s="19" t="e"/>
+      <c r="G125" s="19" t="e"/>
+      <c r="H125" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I125" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J125" s="10" t="e"/>
+      <c r="K125" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I125" s="18" t="e"/>
-      <c r="J125" s="18" t="e"/>
-      <c r="K125" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L125" s="18" t="e"/>
-      <c r="M125" s="18" t="e"/>
-      <c r="N125" s="17" t="n">
+      <c r="L125" s="10" t="e"/>
+      <c r="M125" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N125" s="9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,54 +3711,50 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" s="10" t="e"/>
+        <v>16</v>
+      </c>
+      <c r="I126" s="9" t="n">
+        <v>15</v>
+      </c>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L126" s="10" t="e"/>
-      <c r="M126" s="10" t="e"/>
+      <c r="M126" s="9" t="n">
+        <v>15</v>
+      </c>
       <c r="N126" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="11" customHeight="true">
-      <c r="A127" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B127" s="16" t="e"/>
-      <c r="C127" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D127" s="16" t="e"/>
-      <c r="E127" s="16" t="e"/>
-      <c r="F127" s="16" t="e"/>
-      <c r="G127" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H127" s="17" t="n">
-        <v>27</v>
-      </c>
-      <c r="I127" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="J127" s="18" t="e"/>
-      <c r="K127" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L127" s="18" t="e"/>
-      <c r="M127" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="N127" s="17" t="n">
-        <v>4</v>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A127" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="19" t="e"/>
+      <c r="C127" s="19" t="e"/>
+      <c r="D127" s="19" t="e"/>
+      <c r="E127" s="19" t="e"/>
+      <c r="F127" s="19" t="e"/>
+      <c r="G127" s="19" t="e"/>
+      <c r="H127" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" s="10" t="e"/>
+      <c r="J127" s="10" t="e"/>
+      <c r="K127" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" s="10" t="e"/>
+      <c r="M127" s="10" t="e"/>
+      <c r="N127" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="A128" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B128" s="19" t="e"/>
       <c r="C128" s="19" t="e"/>
@@ -3819,133 +3763,49 @@
       <c r="F128" s="19" t="e"/>
       <c r="G128" s="19" t="e"/>
       <c r="H128" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I128" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" s="10" t="e"/>
       <c r="J128" s="10" t="e"/>
       <c r="K128" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L128" s="10" t="e"/>
-      <c r="M128" s="9" t="n">
-        <v>7</v>
-      </c>
+      <c r="M128" s="10" t="e"/>
       <c r="N128" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A129" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B129" s="19" t="e"/>
-      <c r="C129" s="19" t="e"/>
-      <c r="D129" s="19" t="e"/>
-      <c r="E129" s="19" t="e"/>
-      <c r="F129" s="19" t="e"/>
-      <c r="G129" s="19" t="e"/>
-      <c r="H129" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="I129" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="J129" s="10" t="e"/>
-      <c r="K129" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L129" s="10" t="e"/>
-      <c r="M129" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="N129" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A130" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B130" s="19" t="e"/>
-      <c r="C130" s="19" t="e"/>
-      <c r="D130" s="19" t="e"/>
-      <c r="E130" s="19" t="e"/>
-      <c r="F130" s="19" t="e"/>
-      <c r="G130" s="19" t="e"/>
-      <c r="H130" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" s="10" t="e"/>
-      <c r="K130" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L130" s="10" t="e"/>
-      <c r="M130" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A131" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B131" s="19" t="e"/>
-      <c r="C131" s="19" t="e"/>
-      <c r="D131" s="19" t="e"/>
-      <c r="E131" s="19" t="e"/>
-      <c r="F131" s="19" t="e"/>
-      <c r="G131" s="19" t="e"/>
-      <c r="H131" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" s="10" t="e"/>
-      <c r="J131" s="10" t="e"/>
-      <c r="K131" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L131" s="10" t="e"/>
-      <c r="M131" s="10" t="e"/>
-      <c r="N131" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" ht="13" customHeight="true">
-      <c r="A132" s="12" t="s">
+    <row r="129" ht="13" customHeight="true">
+      <c r="A129" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B132" s="12" t="e"/>
-      <c r="C132" s="12" t="e"/>
-      <c r="D132" s="12" t="e"/>
-      <c r="E132" s="12" t="e"/>
-      <c r="F132" s="12" t="e"/>
-      <c r="G132" s="12" t="e"/>
-      <c r="H132" s="13" t="n">
-        <v>3471</v>
-      </c>
-      <c r="I132" s="14" t="n">
-        <v>441</v>
-      </c>
-      <c r="J132" s="15" t="e"/>
-      <c r="K132" s="13" t="n">
-        <v>3030</v>
-      </c>
-      <c r="L132" s="15" t="e"/>
-      <c r="M132" s="14" t="n">
-        <v>441</v>
-      </c>
-      <c r="N132" s="13" t="n">
-        <v>3030</v>
+      <c r="B129" s="12" t="e"/>
+      <c r="C129" s="12" t="e"/>
+      <c r="D129" s="12" t="e"/>
+      <c r="E129" s="12" t="e"/>
+      <c r="F129" s="12" t="e"/>
+      <c r="G129" s="12" t="e"/>
+      <c r="H129" s="13" t="n">
+        <v>3935</v>
+      </c>
+      <c r="I129" s="14" t="n">
+        <v>826</v>
+      </c>
+      <c r="J129" s="15" t="e"/>
+      <c r="K129" s="13" t="n">
+        <v>3109</v>
+      </c>
+      <c r="L129" s="15" t="e"/>
+      <c r="M129" s="14" t="n">
+        <v>826</v>
+      </c>
+      <c r="N129" s="13" t="n">
+        <v>3109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="165">
+  <mergeCells count="162">
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3974,67 +3834,67 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
     <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
     <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:F64"/>
     <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
@@ -4052,65 +3912,62 @@
     <mergeCell ref="A80:G80"/>
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A84:G84"/>
     <mergeCell ref="A85:G85"/>
     <mergeCell ref="A86:G86"/>
     <mergeCell ref="A87:G87"/>
     <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A90:G90"/>
     <mergeCell ref="A91:G91"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A96:G96"/>
     <mergeCell ref="A97:G97"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:F100"/>
     <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="A102:G102"/>
     <mergeCell ref="A103:G103"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:F106"/>
     <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A108:G108"/>
     <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:F111"/>
     <mergeCell ref="A112:G112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="A113:G113"/>
     <mergeCell ref="A114:G114"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:F117"/>
     <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="A119:G119"/>
     <mergeCell ref="A120:G120"/>
     <mergeCell ref="A121:G121"/>
-    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:F122"/>
     <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:F125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="A127:G127"/>
     <mergeCell ref="A128:G128"/>
     <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A131:G131"/>
-    <mergeCell ref="A132:G132"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Остатки и доступность товаров</t>
   </si>
@@ -192,12 +192,6 @@
   </si>
   <si>
     <t>7262-КП Садовый приствольный круг ANMAKS КОНТУР-КП-60.06</t>
-  </si>
-  <si>
-    <t>7280</t>
-  </si>
-  <si>
-    <t>7280 Экобордюр  КОНТУР Б-100.08.08-ПП пластиковый  черный  L-1000 мм,  H-80 мм</t>
   </si>
   <si>
     <t>7280-К-8</t>
@@ -478,7 +472,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N129"/>
+  <dimension ref="N127"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -615,17 +609,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>66</v>
-      </c>
-      <c r="I9" s="10" t="e"/>
+        <v>64</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L9" s="10" t="e"/>
-      <c r="M9" s="10" t="e"/>
+      <c r="M9" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="N9" s="9" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -663,21 +661,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1361</v>
+        <v>1175</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1250</v>
+        <v>1140</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1250</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -691,21 +689,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>2328</v>
+        <v>1469</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>715</v>
+        <v>231</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1613</v>
+        <v>1238</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>715</v>
+        <v>231</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1613</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -719,21 +717,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>3935</v>
+        <v>2888</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>826</v>
+        <v>277</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>3109</v>
+        <v>2611</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>826</v>
+        <v>277</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>3109</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -751,17 +749,21 @@
         <v>24</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>43</v>
-      </c>
-      <c r="I14" s="18" t="e"/>
+        <v>40</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L14" s="18" t="e"/>
-      <c r="M14" s="18" t="e"/>
+      <c r="M14" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" s="17" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
@@ -823,17 +825,21 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="I17" s="10" t="e"/>
+        <v>9</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L17" s="10" t="e"/>
-      <c r="M17" s="10" t="e"/>
+      <c r="M17" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" s="9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -851,17 +857,21 @@
         <v>24</v>
       </c>
       <c r="H18" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="I18" s="18" t="e"/>
+        <v>24</v>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="J18" s="18" t="e"/>
       <c r="K18" s="17" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L18" s="18" t="e"/>
-      <c r="M18" s="18" t="e"/>
+      <c r="M18" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="N18" s="17" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="1">
@@ -875,22 +885,22 @@
       <c r="F19" s="19" t="e"/>
       <c r="G19" s="19" t="e"/>
       <c r="H19" s="9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I19" s="10" t="e"/>
       <c r="J19" s="10" t="e"/>
       <c r="K19" s="9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L19" s="10" t="e"/>
       <c r="M19" s="10" t="e"/>
       <c r="N19" s="9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
       <c r="A20" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="19" t="e"/>
       <c r="C20" s="19" t="e"/>
@@ -899,178 +909,182 @@
       <c r="F20" s="19" t="e"/>
       <c r="G20" s="19" t="e"/>
       <c r="H20" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I20" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I20" s="10" t="e"/>
       <c r="J20" s="10" t="e"/>
       <c r="K20" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L20" s="10" t="e"/>
+      <c r="M20" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L20" s="10" t="e"/>
-      <c r="M20" s="10" t="e"/>
       <c r="N20" s="9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="true">
+      <c r="A21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="16" t="e"/>
+      <c r="C21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="16" t="e"/>
+      <c r="E21" s="16" t="e"/>
+      <c r="F21" s="16" t="e"/>
+      <c r="G21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="I21" s="18" t="e"/>
+      <c r="J21" s="18" t="e"/>
+      <c r="K21" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L21" s="18" t="e"/>
+      <c r="M21" s="18" t="e"/>
+      <c r="N21" s="17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="19" t="e"/>
+      <c r="C22" s="19" t="e"/>
+      <c r="D22" s="19" t="e"/>
+      <c r="E22" s="19" t="e"/>
+      <c r="F22" s="19" t="e"/>
+      <c r="G22" s="19" t="e"/>
+      <c r="H22" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10" t="e"/>
+      <c r="J22" s="10" t="e"/>
+      <c r="K22" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L22" s="10" t="e"/>
+      <c r="M22" s="10" t="e"/>
+      <c r="N22" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
+      <c r="A23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="16" t="e"/>
+      <c r="C23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="16" t="e"/>
+      <c r="E23" s="16" t="e"/>
+      <c r="F23" s="16" t="e"/>
+      <c r="G23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="17" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A21" s="19" t="s">
+      <c r="I23" s="18" t="e"/>
+      <c r="J23" s="18" t="e"/>
+      <c r="K23" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="18" t="e"/>
+      <c r="M23" s="18" t="e"/>
+      <c r="N23" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="19" t="e"/>
-      <c r="C21" s="19" t="e"/>
-      <c r="D21" s="19" t="e"/>
-      <c r="E21" s="19" t="e"/>
-      <c r="F21" s="19" t="e"/>
-      <c r="G21" s="19" t="e"/>
-      <c r="H21" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I21" s="10" t="e"/>
-      <c r="J21" s="10" t="e"/>
-      <c r="K21" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L21" s="10" t="e"/>
-      <c r="M21" s="10" t="e"/>
-      <c r="N21" s="9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="true">
-      <c r="A22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="16" t="e"/>
-      <c r="C22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="16" t="e"/>
-      <c r="E22" s="16" t="e"/>
-      <c r="F22" s="16" t="e"/>
-      <c r="G22" s="16" t="s">
+      <c r="B24" s="19" t="e"/>
+      <c r="C24" s="19" t="e"/>
+      <c r="D24" s="19" t="e"/>
+      <c r="E24" s="19" t="e"/>
+      <c r="F24" s="19" t="e"/>
+      <c r="G24" s="19" t="e"/>
+      <c r="H24" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10" t="e"/>
+      <c r="J24" s="10" t="e"/>
+      <c r="K24" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" s="10" t="e"/>
+      <c r="M24" s="10" t="e"/>
+      <c r="N24" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
+      <c r="A25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="16" t="e"/>
+      <c r="C25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="16" t="e"/>
+      <c r="E25" s="16" t="e"/>
+      <c r="F25" s="16" t="e"/>
+      <c r="G25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="I22" s="18" t="e"/>
-      <c r="J22" s="18" t="e"/>
-      <c r="K22" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L22" s="18" t="e"/>
-      <c r="M22" s="18" t="e"/>
-      <c r="N22" s="17" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A23" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="19" t="e"/>
-      <c r="C23" s="19" t="e"/>
-      <c r="D23" s="19" t="e"/>
-      <c r="E23" s="19" t="e"/>
-      <c r="F23" s="19" t="e"/>
-      <c r="G23" s="19" t="e"/>
-      <c r="H23" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10" t="e"/>
-      <c r="J23" s="10" t="e"/>
-      <c r="K23" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L23" s="10" t="e"/>
-      <c r="M23" s="10" t="e"/>
-      <c r="N23" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true">
-      <c r="A24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="16" t="e"/>
-      <c r="C24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="16" t="e"/>
-      <c r="E24" s="16" t="e"/>
-      <c r="F24" s="16" t="e"/>
-      <c r="G24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" s="18" t="e"/>
-      <c r="J24" s="18" t="e"/>
-      <c r="K24" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L24" s="18" t="e"/>
-      <c r="M24" s="18" t="e"/>
-      <c r="N24" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="19" t="e"/>
-      <c r="C25" s="19" t="e"/>
-      <c r="D25" s="19" t="e"/>
-      <c r="E25" s="19" t="e"/>
-      <c r="F25" s="19" t="e"/>
-      <c r="G25" s="19" t="e"/>
-      <c r="H25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="10" t="e"/>
-      <c r="J25" s="10" t="e"/>
-      <c r="K25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L25" s="10" t="e"/>
-      <c r="M25" s="10" t="e"/>
-      <c r="N25" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true">
-      <c r="A26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="16" t="e"/>
-      <c r="C26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="16" t="e"/>
-      <c r="E26" s="16" t="e"/>
-      <c r="F26" s="16" t="e"/>
-      <c r="G26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="17" t="n">
+      <c r="H25" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="I26" s="18" t="e"/>
-      <c r="J26" s="18" t="e"/>
-      <c r="K26" s="17" t="n">
+      <c r="I25" s="18" t="e"/>
+      <c r="J25" s="18" t="e"/>
+      <c r="K25" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="L26" s="18" t="e"/>
-      <c r="M26" s="18" t="e"/>
-      <c r="N26" s="17" t="n">
+      <c r="L25" s="18" t="e"/>
+      <c r="M25" s="18" t="e"/>
+      <c r="N25" s="17" t="n">
         <v>82</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19" t="e"/>
+      <c r="C26" s="19" t="e"/>
+      <c r="D26" s="19" t="e"/>
+      <c r="E26" s="19" t="e"/>
+      <c r="F26" s="19" t="e"/>
+      <c r="G26" s="19" t="e"/>
+      <c r="H26" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="I26" s="10" t="e"/>
+      <c r="J26" s="10" t="e"/>
+      <c r="K26" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L26" s="10" t="e"/>
+      <c r="M26" s="10" t="e"/>
+      <c r="N26" s="9" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="A27" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="19" t="e"/>
       <c r="C27" s="19" t="e"/>
@@ -1079,74 +1093,74 @@
       <c r="F27" s="19" t="e"/>
       <c r="G27" s="19" t="e"/>
       <c r="H27" s="9" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I27" s="10" t="e"/>
       <c r="J27" s="10" t="e"/>
       <c r="K27" s="9" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L27" s="10" t="e"/>
       <c r="M27" s="10" t="e"/>
       <c r="N27" s="9" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19" t="e"/>
-      <c r="C28" s="19" t="e"/>
-      <c r="D28" s="19" t="e"/>
-      <c r="E28" s="19" t="e"/>
-      <c r="F28" s="19" t="e"/>
-      <c r="G28" s="19" t="e"/>
-      <c r="H28" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="I28" s="10" t="e"/>
-      <c r="J28" s="10" t="e"/>
-      <c r="K28" s="9" t="n">
+    </row>
+    <row r="28" ht="22" customHeight="true">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="10" t="e"/>
-      <c r="M28" s="10" t="e"/>
-      <c r="N28" s="9" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true">
-      <c r="A29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16" t="e"/>
-      <c r="C29" s="16" t="s">
+      <c r="B28" s="16" t="e"/>
+      <c r="C28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="16" t="e"/>
-      <c r="E29" s="16" t="e"/>
-      <c r="F29" s="16" t="e"/>
-      <c r="G29" s="16" t="s">
+      <c r="D28" s="16" t="e"/>
+      <c r="E28" s="16" t="e"/>
+      <c r="F28" s="16" t="e"/>
+      <c r="G28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="17" t="n">
+      <c r="H28" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="I29" s="18" t="e"/>
-      <c r="J29" s="18" t="e"/>
-      <c r="K29" s="17" t="n">
+      <c r="I28" s="18" t="e"/>
+      <c r="J28" s="18" t="e"/>
+      <c r="K28" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="L29" s="18" t="e"/>
-      <c r="M29" s="18" t="e"/>
-      <c r="N29" s="17" t="n">
+      <c r="L28" s="18" t="e"/>
+      <c r="M28" s="18" t="e"/>
+      <c r="N28" s="17" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="19" t="e"/>
+      <c r="C29" s="19" t="e"/>
+      <c r="D29" s="19" t="e"/>
+      <c r="E29" s="19" t="e"/>
+      <c r="F29" s="19" t="e"/>
+      <c r="G29" s="19" t="e"/>
+      <c r="H29" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10" t="e"/>
+      <c r="J29" s="10" t="e"/>
+      <c r="K29" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="10" t="e"/>
+      <c r="M29" s="10" t="e"/>
+      <c r="N29" s="9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="A30" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="19" t="e"/>
       <c r="C30" s="19" t="e"/>
@@ -1155,74 +1169,74 @@
       <c r="F30" s="19" t="e"/>
       <c r="G30" s="19" t="e"/>
       <c r="H30" s="9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I30" s="10" t="e"/>
       <c r="J30" s="10" t="e"/>
       <c r="K30" s="9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L30" s="10" t="e"/>
       <c r="M30" s="10" t="e"/>
       <c r="N30" s="9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A31" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="19" t="e"/>
-      <c r="C31" s="19" t="e"/>
-      <c r="D31" s="19" t="e"/>
-      <c r="E31" s="19" t="e"/>
-      <c r="F31" s="19" t="e"/>
-      <c r="G31" s="19" t="e"/>
-      <c r="H31" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="I31" s="10" t="e"/>
-      <c r="J31" s="10" t="e"/>
-      <c r="K31" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L31" s="10" t="e"/>
-      <c r="M31" s="10" t="e"/>
-      <c r="N31" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="22" customHeight="true">
-      <c r="A32" s="16" t="s">
+    </row>
+    <row r="31" ht="22" customHeight="true">
+      <c r="A31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="16" t="e"/>
-      <c r="C32" s="16" t="s">
+      <c r="B31" s="16" t="e"/>
+      <c r="C31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="16" t="e"/>
-      <c r="E32" s="16" t="e"/>
-      <c r="F32" s="16" t="e"/>
-      <c r="G32" s="16" t="s">
+      <c r="D31" s="16" t="e"/>
+      <c r="E31" s="16" t="e"/>
+      <c r="F31" s="16" t="e"/>
+      <c r="G31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="17" t="n">
+      <c r="H31" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="I32" s="18" t="e"/>
-      <c r="J32" s="18" t="e"/>
-      <c r="K32" s="17" t="n">
+      <c r="I31" s="18" t="e"/>
+      <c r="J31" s="18" t="e"/>
+      <c r="K31" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="L32" s="18" t="e"/>
-      <c r="M32" s="18" t="e"/>
-      <c r="N32" s="17" t="n">
+      <c r="L31" s="18" t="e"/>
+      <c r="M31" s="18" t="e"/>
+      <c r="N31" s="17" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="e"/>
+      <c r="C32" s="19" t="e"/>
+      <c r="D32" s="19" t="e"/>
+      <c r="E32" s="19" t="e"/>
+      <c r="F32" s="19" t="e"/>
+      <c r="G32" s="19" t="e"/>
+      <c r="H32" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" s="10" t="e"/>
+      <c r="J32" s="10" t="e"/>
+      <c r="K32" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" s="10" t="e"/>
+      <c r="M32" s="10" t="e"/>
+      <c r="N32" s="9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="19" t="e"/>
       <c r="C33" s="19" t="e"/>
@@ -1231,178 +1245,178 @@
       <c r="F33" s="19" t="e"/>
       <c r="G33" s="19" t="e"/>
       <c r="H33" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I33" s="10" t="e"/>
       <c r="J33" s="10" t="e"/>
       <c r="K33" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L33" s="10" t="e"/>
       <c r="M33" s="10" t="e"/>
       <c r="N33" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A34" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
+      <c r="A34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="16" t="e"/>
+      <c r="C34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="16" t="e"/>
+      <c r="E34" s="16" t="e"/>
+      <c r="F34" s="16" t="e"/>
+      <c r="G34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" s="18" t="e"/>
+      <c r="J34" s="18" t="e"/>
+      <c r="K34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="18" t="e"/>
+      <c r="M34" s="18" t="e"/>
+      <c r="N34" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A35" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="19" t="e"/>
-      <c r="C34" s="19" t="e"/>
-      <c r="D34" s="19" t="e"/>
-      <c r="E34" s="19" t="e"/>
-      <c r="F34" s="19" t="e"/>
-      <c r="G34" s="19" t="e"/>
-      <c r="H34" s="9" t="n">
+      <c r="B35" s="19" t="e"/>
+      <c r="C35" s="19" t="e"/>
+      <c r="D35" s="19" t="e"/>
+      <c r="E35" s="19" t="e"/>
+      <c r="F35" s="19" t="e"/>
+      <c r="G35" s="19" t="e"/>
+      <c r="H35" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I34" s="10" t="e"/>
-      <c r="J34" s="10" t="e"/>
-      <c r="K34" s="9" t="n">
+      <c r="I35" s="10" t="e"/>
+      <c r="J35" s="10" t="e"/>
+      <c r="K35" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L34" s="10" t="e"/>
-      <c r="M34" s="10" t="e"/>
-      <c r="N34" s="9" t="n">
+      <c r="L35" s="10" t="e"/>
+      <c r="M35" s="10" t="e"/>
+      <c r="N35" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="22" customHeight="true">
-      <c r="A35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="16" t="e"/>
-      <c r="C35" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="16" t="e"/>
-      <c r="E35" s="16" t="e"/>
-      <c r="F35" s="16" t="e"/>
-      <c r="G35" s="16" t="s">
+    <row r="36" ht="11" customHeight="true">
+      <c r="A36" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="16" t="e"/>
+      <c r="C36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="16" t="e"/>
+      <c r="E36" s="16" t="e"/>
+      <c r="F36" s="16" t="e"/>
+      <c r="G36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" s="18" t="e"/>
-      <c r="J35" s="18" t="e"/>
-      <c r="K35" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L35" s="18" t="e"/>
-      <c r="M35" s="18" t="e"/>
-      <c r="N35" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A36" s="19" t="s">
+      <c r="H36" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" s="18" t="e"/>
+      <c r="J36" s="18" t="e"/>
+      <c r="K36" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="L36" s="18" t="e"/>
+      <c r="M36" s="18" t="e"/>
+      <c r="N36" s="17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="19" t="e"/>
-      <c r="C36" s="19" t="e"/>
-      <c r="D36" s="19" t="e"/>
-      <c r="E36" s="19" t="e"/>
-      <c r="F36" s="19" t="e"/>
-      <c r="G36" s="19" t="e"/>
-      <c r="H36" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" s="10" t="e"/>
-      <c r="J36" s="10" t="e"/>
-      <c r="K36" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L36" s="10" t="e"/>
-      <c r="M36" s="10" t="e"/>
-      <c r="N36" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true">
-      <c r="A37" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="16" t="e"/>
-      <c r="C37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="16" t="e"/>
-      <c r="E37" s="16" t="e"/>
-      <c r="F37" s="16" t="e"/>
-      <c r="G37" s="16" t="s">
+      <c r="B37" s="19" t="e"/>
+      <c r="C37" s="19" t="e"/>
+      <c r="D37" s="19" t="e"/>
+      <c r="E37" s="19" t="e"/>
+      <c r="F37" s="19" t="e"/>
+      <c r="G37" s="19" t="e"/>
+      <c r="H37" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" s="10" t="e"/>
+      <c r="J37" s="10" t="e"/>
+      <c r="K37" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L37" s="10" t="e"/>
+      <c r="M37" s="10" t="e"/>
+      <c r="N37" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="16" t="e"/>
+      <c r="C38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="16" t="e"/>
+      <c r="E38" s="16" t="e"/>
+      <c r="F38" s="16" t="e"/>
+      <c r="G38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="17" t="n">
+      <c r="H38" s="17" t="n">
+        <v>263</v>
+      </c>
+      <c r="I38" s="18" t="e"/>
+      <c r="J38" s="18" t="e"/>
+      <c r="K38" s="17" t="n">
+        <v>263</v>
+      </c>
+      <c r="L38" s="18" t="e"/>
+      <c r="M38" s="18" t="e"/>
+      <c r="N38" s="17" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="18" t="e"/>
-      <c r="J37" s="18" t="e"/>
-      <c r="K37" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L37" s="18" t="e"/>
-      <c r="M37" s="18" t="e"/>
-      <c r="N37" s="17" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A38" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="19" t="e"/>
-      <c r="C38" s="19" t="e"/>
-      <c r="D38" s="19" t="e"/>
-      <c r="E38" s="19" t="e"/>
-      <c r="F38" s="19" t="e"/>
-      <c r="G38" s="19" t="e"/>
-      <c r="H38" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="10" t="e"/>
-      <c r="J38" s="10" t="e"/>
-      <c r="K38" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L38" s="10" t="e"/>
-      <c r="M38" s="10" t="e"/>
-      <c r="N38" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true">
-      <c r="A39" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="16" t="e"/>
-      <c r="C39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="16" t="e"/>
-      <c r="E39" s="16" t="e"/>
-      <c r="F39" s="16" t="e"/>
-      <c r="G39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="17" t="n">
-        <v>266</v>
-      </c>
-      <c r="I39" s="18" t="e"/>
-      <c r="J39" s="18" t="e"/>
-      <c r="K39" s="17" t="n">
-        <v>266</v>
-      </c>
-      <c r="L39" s="18" t="e"/>
-      <c r="M39" s="18" t="e"/>
-      <c r="N39" s="17" t="n">
-        <v>266</v>
+      <c r="B39" s="19" t="e"/>
+      <c r="C39" s="19" t="e"/>
+      <c r="D39" s="19" t="e"/>
+      <c r="E39" s="19" t="e"/>
+      <c r="F39" s="19" t="e"/>
+      <c r="G39" s="19" t="e"/>
+      <c r="H39" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="I39" s="10" t="e"/>
+      <c r="J39" s="10" t="e"/>
+      <c r="K39" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="L39" s="10" t="e"/>
+      <c r="M39" s="10" t="e"/>
+      <c r="N39" s="9" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="1">
       <c r="A40" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="19" t="e"/>
       <c r="C40" s="19" t="e"/>
@@ -1411,22 +1425,22 @@
       <c r="F40" s="19" t="e"/>
       <c r="G40" s="19" t="e"/>
       <c r="H40" s="9" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="I40" s="10" t="e"/>
       <c r="J40" s="10" t="e"/>
       <c r="K40" s="9" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="L40" s="10" t="e"/>
       <c r="M40" s="10" t="e"/>
       <c r="N40" s="9" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="1">
       <c r="A41" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="19" t="e"/>
       <c r="C41" s="19" t="e"/>
@@ -1435,78 +1449,78 @@
       <c r="F41" s="19" t="e"/>
       <c r="G41" s="19" t="e"/>
       <c r="H41" s="9" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="I41" s="10" t="e"/>
       <c r="J41" s="10" t="e"/>
       <c r="K41" s="9" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="L41" s="10" t="e"/>
       <c r="M41" s="10" t="e"/>
       <c r="N41" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="19" t="e"/>
-      <c r="C42" s="19" t="e"/>
-      <c r="D42" s="19" t="e"/>
-      <c r="E42" s="19" t="e"/>
-      <c r="F42" s="19" t="e"/>
-      <c r="G42" s="19" t="e"/>
-      <c r="H42" s="9" t="n">
-        <v>106</v>
-      </c>
-      <c r="I42" s="10" t="e"/>
-      <c r="J42" s="10" t="e"/>
-      <c r="K42" s="9" t="n">
-        <v>106</v>
-      </c>
-      <c r="L42" s="10" t="e"/>
-      <c r="M42" s="10" t="e"/>
-      <c r="N42" s="9" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true">
-      <c r="A43" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true">
+      <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="16" t="e"/>
-      <c r="C43" s="16" t="s">
+      <c r="B42" s="16" t="e"/>
+      <c r="C42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="16" t="e"/>
-      <c r="E43" s="16" t="e"/>
-      <c r="F43" s="16" t="e"/>
-      <c r="G43" s="16" t="s">
+      <c r="D42" s="16" t="e"/>
+      <c r="E42" s="16" t="e"/>
+      <c r="F42" s="16" t="e"/>
+      <c r="G42" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="17" t="n">
-        <v>207</v>
-      </c>
-      <c r="I43" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" s="18" t="e"/>
-      <c r="K43" s="17" t="n">
-        <v>202</v>
-      </c>
-      <c r="L43" s="18" t="e"/>
-      <c r="M43" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" s="17" t="n">
-        <v>202</v>
+      <c r="H42" s="17" t="n">
+        <v>167</v>
+      </c>
+      <c r="I42" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" s="18" t="e"/>
+      <c r="K42" s="17" t="n">
+        <v>163</v>
+      </c>
+      <c r="L42" s="18" t="e"/>
+      <c r="M42" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" s="17" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="19" t="e"/>
+      <c r="C43" s="19" t="e"/>
+      <c r="D43" s="19" t="e"/>
+      <c r="E43" s="19" t="e"/>
+      <c r="F43" s="19" t="e"/>
+      <c r="G43" s="19" t="e"/>
+      <c r="H43" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="I43" s="10" t="e"/>
+      <c r="J43" s="10" t="e"/>
+      <c r="K43" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="L43" s="10" t="e"/>
+      <c r="M43" s="10" t="e"/>
+      <c r="N43" s="9" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="A44" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B44" s="19" t="e"/>
       <c r="C44" s="19" t="e"/>
@@ -1515,22 +1529,26 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="I44" s="10" t="e"/>
+        <v>44</v>
+      </c>
+      <c r="I44" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L44" s="10" t="e"/>
-      <c r="M44" s="10" t="e"/>
+      <c r="M44" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N44" s="9" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="A45" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B45" s="19" t="e"/>
       <c r="C45" s="19" t="e"/>
@@ -1539,26 +1557,26 @@
       <c r="F45" s="19" t="e"/>
       <c r="G45" s="19" t="e"/>
       <c r="H45" s="9" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I45" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="10" t="e"/>
       <c r="K45" s="9" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="L45" s="10" t="e"/>
       <c r="M45" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" s="9" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
       <c r="A46" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B46" s="19" t="e"/>
       <c r="C46" s="19" t="e"/>
@@ -1567,22 +1585,22 @@
       <c r="F46" s="19" t="e"/>
       <c r="G46" s="19" t="e"/>
       <c r="H46" s="9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I46" s="10" t="e"/>
       <c r="J46" s="10" t="e"/>
       <c r="K46" s="9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L46" s="10" t="e"/>
       <c r="M46" s="10" t="e"/>
       <c r="N46" s="9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="A47" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" s="19" t="e"/>
       <c r="C47" s="19" t="e"/>
@@ -1591,78 +1609,82 @@
       <c r="F47" s="19" t="e"/>
       <c r="G47" s="19" t="e"/>
       <c r="H47" s="9" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I47" s="10" t="e"/>
       <c r="J47" s="10" t="e"/>
       <c r="K47" s="9" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L47" s="10" t="e"/>
       <c r="M47" s="10" t="e"/>
       <c r="N47" s="9" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A48" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="19" t="e"/>
-      <c r="C48" s="19" t="e"/>
-      <c r="D48" s="19" t="e"/>
-      <c r="E48" s="19" t="e"/>
-      <c r="F48" s="19" t="e"/>
-      <c r="G48" s="19" t="e"/>
-      <c r="H48" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I48" s="9" t="n">
+      <c r="B48" s="16" t="e"/>
+      <c r="C48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="16" t="e"/>
+      <c r="E48" s="16" t="e"/>
+      <c r="F48" s="16" t="e"/>
+      <c r="G48" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="17" t="n">
+        <v>176</v>
+      </c>
+      <c r="I48" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="J48" s="10" t="e"/>
-      <c r="K48" s="9" t="n">
+      <c r="J48" s="18" t="e"/>
+      <c r="K48" s="17" t="n">
+        <v>173</v>
+      </c>
+      <c r="L48" s="18" t="e"/>
+      <c r="M48" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" s="17" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="10" t="e"/>
-      <c r="M48" s="9" t="n">
+      <c r="B49" s="19" t="e"/>
+      <c r="C49" s="19" t="e"/>
+      <c r="D49" s="19" t="e"/>
+      <c r="E49" s="19" t="e"/>
+      <c r="F49" s="19" t="e"/>
+      <c r="G49" s="19" t="e"/>
+      <c r="H49" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="I49" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="N48" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="A49" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="16" t="e"/>
-      <c r="C49" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="16" t="e"/>
-      <c r="E49" s="16" t="e"/>
-      <c r="F49" s="16" t="e"/>
-      <c r="G49" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="17" t="n">
-        <v>185</v>
-      </c>
-      <c r="I49" s="18" t="e"/>
-      <c r="J49" s="18" t="e"/>
-      <c r="K49" s="17" t="n">
-        <v>185</v>
-      </c>
-      <c r="L49" s="18" t="e"/>
-      <c r="M49" s="18" t="e"/>
-      <c r="N49" s="17" t="n">
-        <v>185</v>
+      <c r="J49" s="10" t="e"/>
+      <c r="K49" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="L49" s="10" t="e"/>
+      <c r="M49" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" s="9" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B50" s="19" t="e"/>
       <c r="C50" s="19" t="e"/>
@@ -1671,22 +1693,22 @@
       <c r="F50" s="19" t="e"/>
       <c r="G50" s="19" t="e"/>
       <c r="H50" s="9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I50" s="10" t="e"/>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L50" s="10" t="e"/>
       <c r="M50" s="10" t="e"/>
       <c r="N50" s="9" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="1">
       <c r="A51" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" s="19" t="e"/>
       <c r="C51" s="19" t="e"/>
@@ -1695,78 +1717,78 @@
       <c r="F51" s="19" t="e"/>
       <c r="G51" s="19" t="e"/>
       <c r="H51" s="9" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I51" s="10" t="e"/>
       <c r="J51" s="10" t="e"/>
       <c r="K51" s="9" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="L51" s="10" t="e"/>
       <c r="M51" s="10" t="e"/>
       <c r="N51" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A52" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="19" t="e"/>
-      <c r="C52" s="19" t="e"/>
-      <c r="D52" s="19" t="e"/>
-      <c r="E52" s="19" t="e"/>
-      <c r="F52" s="19" t="e"/>
-      <c r="G52" s="19" t="e"/>
-      <c r="H52" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I52" s="10" t="e"/>
-      <c r="J52" s="10" t="e"/>
-      <c r="K52" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" s="10" t="e"/>
-      <c r="M52" s="10" t="e"/>
-      <c r="N52" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
-      <c r="A53" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="16" t="e"/>
-      <c r="C53" s="16" t="s">
+      <c r="B52" s="16" t="e"/>
+      <c r="C52" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="16" t="e"/>
-      <c r="E53" s="16" t="e"/>
-      <c r="F53" s="16" t="e"/>
-      <c r="G53" s="16" t="s">
+      <c r="D52" s="16" t="e"/>
+      <c r="E52" s="16" t="e"/>
+      <c r="F52" s="16" t="e"/>
+      <c r="G52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="17" t="n">
-        <v>176</v>
-      </c>
-      <c r="I53" s="17" t="n">
-        <v>36</v>
-      </c>
-      <c r="J53" s="18" t="e"/>
-      <c r="K53" s="17" t="n">
-        <v>140</v>
-      </c>
-      <c r="L53" s="18" t="e"/>
-      <c r="M53" s="17" t="n">
-        <v>36</v>
-      </c>
-      <c r="N53" s="17" t="n">
-        <v>140</v>
+      <c r="H52" s="17" t="n">
+        <v>190</v>
+      </c>
+      <c r="I52" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" s="18" t="e"/>
+      <c r="K52" s="17" t="n">
+        <v>184</v>
+      </c>
+      <c r="L52" s="18" t="e"/>
+      <c r="M52" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N52" s="17" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A53" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="19" t="e"/>
+      <c r="C53" s="19" t="e"/>
+      <c r="D53" s="19" t="e"/>
+      <c r="E53" s="19" t="e"/>
+      <c r="F53" s="19" t="e"/>
+      <c r="G53" s="19" t="e"/>
+      <c r="H53" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="I53" s="10" t="e"/>
+      <c r="J53" s="10" t="e"/>
+      <c r="K53" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="L53" s="10" t="e"/>
+      <c r="M53" s="10" t="e"/>
+      <c r="N53" s="9" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1775,26 +1797,26 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N54" s="9" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1803,26 +1825,26 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="I55" s="9" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="L55" s="10" t="e"/>
       <c r="M55" s="9" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N55" s="9" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="A56" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" s="19" t="e"/>
       <c r="C56" s="19" t="e"/>
@@ -1831,17 +1853,17 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I56" s="10" t="e"/>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="L56" s="10" t="e"/>
       <c r="M56" s="10" t="e"/>
       <c r="N56" s="9" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
@@ -1855,17 +1877,21 @@
       <c r="F57" s="19" t="e"/>
       <c r="G57" s="19" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="I57" s="10" t="e"/>
+        <v>31</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L57" s="10" t="e"/>
-      <c r="M57" s="10" t="e"/>
+      <c r="M57" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N57" s="9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="11" customHeight="true">
@@ -1883,21 +1909,21 @@
         <v>24</v>
       </c>
       <c r="H58" s="17" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="I58" s="17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J58" s="18" t="e"/>
       <c r="K58" s="17" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="L58" s="18" t="e"/>
       <c r="M58" s="17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N58" s="17" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="1">
@@ -1911,21 +1937,21 @@
       <c r="F59" s="19" t="e"/>
       <c r="G59" s="19" t="e"/>
       <c r="H59" s="9" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J59" s="10" t="e"/>
       <c r="K59" s="9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L59" s="10" t="e"/>
       <c r="M59" s="9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N59" s="9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
@@ -1939,21 +1965,17 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I60" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L60" s="10" t="e"/>
-      <c r="M60" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
@@ -1991,17 +2013,17 @@
       <c r="F62" s="19" t="e"/>
       <c r="G62" s="19" t="e"/>
       <c r="H62" s="9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I62" s="10" t="e"/>
       <c r="J62" s="10" t="e"/>
       <c r="K62" s="9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L62" s="10" t="e"/>
       <c r="M62" s="10" t="e"/>
       <c r="N62" s="9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true" outlineLevel="1">
@@ -2015,20 +2037,24 @@
       <c r="F63" s="19" t="e"/>
       <c r="G63" s="19" t="e"/>
       <c r="H63" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I63" s="10" t="e"/>
+        <v>27</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J63" s="10" t="e"/>
       <c r="K63" s="9" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L63" s="10" t="e"/>
-      <c r="M63" s="10" t="e"/>
+      <c r="M63" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="N63" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" ht="11" customHeight="true">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" ht="22" customHeight="true">
       <c r="A64" s="16" t="s">
         <v>56</v>
       </c>
@@ -2043,22 +2069,26 @@
         <v>24</v>
       </c>
       <c r="H64" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="I64" s="18" t="e"/>
+        <v>118</v>
+      </c>
+      <c r="I64" s="17" t="n">
+        <v>9</v>
+      </c>
       <c r="J64" s="18" t="e"/>
       <c r="K64" s="17" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="L64" s="18" t="e"/>
-      <c r="M64" s="18" t="e"/>
+      <c r="M64" s="17" t="n">
+        <v>9</v>
+      </c>
       <c r="N64" s="17" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2067,22 +2097,26 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I65" s="10" t="e"/>
+        <v>31</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="L65" s="10" t="e"/>
-      <c r="M65" s="10" t="e"/>
+      <c r="M65" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N65" s="9" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="11" customHeight="true" outlineLevel="1">
       <c r="A66" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B66" s="19" t="e"/>
       <c r="C66" s="19" t="e"/>
@@ -2091,54 +2125,46 @@
       <c r="F66" s="19" t="e"/>
       <c r="G66" s="19" t="e"/>
       <c r="H66" s="9" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I66" s="10" t="e"/>
       <c r="J66" s="10" t="e"/>
       <c r="K66" s="9" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L66" s="10" t="e"/>
       <c r="M66" s="10" t="e"/>
       <c r="N66" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" ht="22" customHeight="true">
-      <c r="A67" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="16" t="e"/>
-      <c r="C67" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="16" t="e"/>
-      <c r="E67" s="16" t="e"/>
-      <c r="F67" s="16" t="e"/>
-      <c r="G67" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" s="17" t="n">
-        <v>181</v>
-      </c>
-      <c r="I67" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" s="18" t="e"/>
-      <c r="K67" s="17" t="n">
-        <v>156</v>
-      </c>
-      <c r="L67" s="18" t="e"/>
-      <c r="M67" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="N67" s="17" t="n">
-        <v>156</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A67" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="19" t="e"/>
+      <c r="C67" s="19" t="e"/>
+      <c r="D67" s="19" t="e"/>
+      <c r="E67" s="19" t="e"/>
+      <c r="F67" s="19" t="e"/>
+      <c r="G67" s="19" t="e"/>
+      <c r="H67" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I67" s="10" t="e"/>
+      <c r="J67" s="10" t="e"/>
+      <c r="K67" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L67" s="10" t="e"/>
+      <c r="M67" s="10" t="e"/>
+      <c r="N67" s="9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2147,54 +2173,58 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L68" s="10" t="e"/>
       <c r="M68" s="9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N68" s="9" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A69" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="19" t="e"/>
-      <c r="C69" s="19" t="e"/>
-      <c r="D69" s="19" t="e"/>
-      <c r="E69" s="19" t="e"/>
-      <c r="F69" s="19" t="e"/>
-      <c r="G69" s="19" t="e"/>
-      <c r="H69" s="9" t="n">
-        <v>69</v>
-      </c>
-      <c r="I69" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="J69" s="10" t="e"/>
-      <c r="K69" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="L69" s="10" t="e"/>
-      <c r="M69" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="N69" s="9" t="n">
-        <v>52</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true">
+      <c r="A69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="16" t="e"/>
+      <c r="C69" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="16" t="e"/>
+      <c r="E69" s="16" t="e"/>
+      <c r="F69" s="16" t="e"/>
+      <c r="G69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="17" t="n">
+        <v>129</v>
+      </c>
+      <c r="I69" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J69" s="18" t="e"/>
+      <c r="K69" s="17" t="n">
+        <v>124</v>
+      </c>
+      <c r="L69" s="18" t="e"/>
+      <c r="M69" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" s="17" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2203,22 +2233,26 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I70" s="10" t="e"/>
+        <v>49</v>
+      </c>
+      <c r="I70" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L70" s="10" t="e"/>
-      <c r="M70" s="10" t="e"/>
+      <c r="M70" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N70" s="9" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
       <c r="A71" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B71" s="19" t="e"/>
       <c r="C71" s="19" t="e"/>
@@ -2227,54 +2261,50 @@
       <c r="F71" s="19" t="e"/>
       <c r="G71" s="19" t="e"/>
       <c r="H71" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I71" s="10" t="e"/>
+        <v>21</v>
+      </c>
+      <c r="I71" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J71" s="10" t="e"/>
       <c r="K71" s="9" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L71" s="10" t="e"/>
-      <c r="M71" s="10" t="e"/>
+      <c r="M71" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N71" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true">
-      <c r="A72" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="16" t="e"/>
-      <c r="C72" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="16" t="e"/>
-      <c r="E72" s="16" t="e"/>
-      <c r="F72" s="16" t="e"/>
-      <c r="G72" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" s="17" t="n">
-        <v>220</v>
-      </c>
-      <c r="I72" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="J72" s="18" t="e"/>
-      <c r="K72" s="17" t="n">
-        <v>187</v>
-      </c>
-      <c r="L72" s="18" t="e"/>
-      <c r="M72" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="N72" s="17" t="n">
-        <v>187</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A72" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="19" t="e"/>
+      <c r="C72" s="19" t="e"/>
+      <c r="D72" s="19" t="e"/>
+      <c r="E72" s="19" t="e"/>
+      <c r="F72" s="19" t="e"/>
+      <c r="G72" s="19" t="e"/>
+      <c r="H72" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I72" s="10" t="e"/>
+      <c r="J72" s="10" t="e"/>
+      <c r="K72" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L72" s="10" t="e"/>
+      <c r="M72" s="10" t="e"/>
+      <c r="N72" s="9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="A73" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B73" s="19" t="e"/>
       <c r="C73" s="19" t="e"/>
@@ -2283,54 +2313,58 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L73" s="10" t="e"/>
       <c r="M73" s="9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N73" s="9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A74" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="19" t="e"/>
-      <c r="C74" s="19" t="e"/>
-      <c r="D74" s="19" t="e"/>
-      <c r="E74" s="19" t="e"/>
-      <c r="F74" s="19" t="e"/>
-      <c r="G74" s="19" t="e"/>
-      <c r="H74" s="9" t="n">
-        <v>83</v>
-      </c>
-      <c r="I74" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="J74" s="10" t="e"/>
-      <c r="K74" s="9" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true">
+      <c r="A74" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L74" s="10" t="e"/>
-      <c r="M74" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="N74" s="9" t="n">
-        <v>60</v>
+      <c r="B74" s="16" t="e"/>
+      <c r="C74" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="16" t="e"/>
+      <c r="E74" s="16" t="e"/>
+      <c r="F74" s="16" t="e"/>
+      <c r="G74" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="17" t="n">
+        <v>178</v>
+      </c>
+      <c r="I74" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" s="18" t="e"/>
+      <c r="K74" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="L74" s="18" t="e"/>
+      <c r="M74" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N74" s="17" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
       <c r="A75" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B75" s="19" t="e"/>
       <c r="C75" s="19" t="e"/>
@@ -2339,22 +2373,26 @@
       <c r="F75" s="19" t="e"/>
       <c r="G75" s="19" t="e"/>
       <c r="H75" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I75" s="10" t="e"/>
+        <v>61</v>
+      </c>
+      <c r="I75" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="J75" s="10" t="e"/>
       <c r="K75" s="9" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="L75" s="10" t="e"/>
-      <c r="M75" s="10" t="e"/>
+      <c r="M75" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="N75" s="9" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true" outlineLevel="1">
       <c r="A76" s="19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B76" s="19" t="e"/>
       <c r="C76" s="19" t="e"/>
@@ -2363,22 +2401,22 @@
       <c r="F76" s="19" t="e"/>
       <c r="G76" s="19" t="e"/>
       <c r="H76" s="9" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I76" s="10" t="e"/>
       <c r="J76" s="10" t="e"/>
       <c r="K76" s="9" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L76" s="10" t="e"/>
       <c r="M76" s="10" t="e"/>
       <c r="N76" s="9" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2387,58 +2425,50 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="I77" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N77" s="9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" ht="11" customHeight="true">
-      <c r="A78" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="16" t="e"/>
-      <c r="C78" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="16" t="e"/>
-      <c r="E78" s="16" t="e"/>
-      <c r="F78" s="16" t="e"/>
-      <c r="G78" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" s="17" t="n">
-        <v>163</v>
-      </c>
-      <c r="I78" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J78" s="18" t="e"/>
-      <c r="K78" s="17" t="n">
-        <v>141</v>
-      </c>
-      <c r="L78" s="18" t="e"/>
-      <c r="M78" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="N78" s="17" t="n">
-        <v>141</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A78" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="19" t="e"/>
+      <c r="C78" s="19" t="e"/>
+      <c r="D78" s="19" t="e"/>
+      <c r="E78" s="19" t="e"/>
+      <c r="F78" s="19" t="e"/>
+      <c r="G78" s="19" t="e"/>
+      <c r="H78" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I78" s="10" t="e"/>
+      <c r="J78" s="10" t="e"/>
+      <c r="K78" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L78" s="10" t="e"/>
+      <c r="M78" s="10" t="e"/>
+      <c r="N78" s="9" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B79" s="19" t="e"/>
       <c r="C79" s="19" t="e"/>
@@ -2447,50 +2477,54 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>78</v>
-      </c>
-      <c r="I79" s="9" t="n">
-        <v>22</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I79" s="10" t="e"/>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L79" s="10" t="e"/>
-      <c r="M79" s="9" t="n">
-        <v>22</v>
-      </c>
+      <c r="M79" s="10" t="e"/>
       <c r="N79" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A80" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="19" t="e"/>
-      <c r="C80" s="19" t="e"/>
-      <c r="D80" s="19" t="e"/>
-      <c r="E80" s="19" t="e"/>
-      <c r="F80" s="19" t="e"/>
-      <c r="G80" s="19" t="e"/>
-      <c r="H80" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="I80" s="10" t="e"/>
-      <c r="J80" s="10" t="e"/>
-      <c r="K80" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="L80" s="10" t="e"/>
-      <c r="M80" s="10" t="e"/>
-      <c r="N80" s="9" t="n">
-        <v>44</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" ht="22" customHeight="true">
+      <c r="A80" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="16" t="e"/>
+      <c r="C80" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="16" t="e"/>
+      <c r="E80" s="16" t="e"/>
+      <c r="F80" s="16" t="e"/>
+      <c r="G80" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="17" t="n">
+        <v>200</v>
+      </c>
+      <c r="I80" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J80" s="18" t="e"/>
+      <c r="K80" s="17" t="n">
+        <v>179</v>
+      </c>
+      <c r="L80" s="18" t="e"/>
+      <c r="M80" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="N80" s="17" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="A81" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B81" s="19" t="e"/>
       <c r="C81" s="19" t="e"/>
@@ -2499,22 +2533,26 @@
       <c r="F81" s="19" t="e"/>
       <c r="G81" s="19" t="e"/>
       <c r="H81" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I81" s="10" t="e"/>
+        <v>77</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J81" s="10" t="e"/>
       <c r="K81" s="9" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="L81" s="10" t="e"/>
-      <c r="M81" s="10" t="e"/>
+      <c r="M81" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="N81" s="9" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="A82" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B82" s="19" t="e"/>
       <c r="C82" s="19" t="e"/>
@@ -2523,54 +2561,50 @@
       <c r="F82" s="19" t="e"/>
       <c r="G82" s="19" t="e"/>
       <c r="H82" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I82" s="10" t="e"/>
+        <v>51</v>
+      </c>
+      <c r="I82" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J82" s="10" t="e"/>
       <c r="K82" s="9" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L82" s="10" t="e"/>
-      <c r="M82" s="10" t="e"/>
+      <c r="M82" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N82" s="9" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" ht="22" customHeight="true">
-      <c r="A83" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83" s="16" t="e"/>
-      <c r="C83" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="16" t="e"/>
-      <c r="E83" s="16" t="e"/>
-      <c r="F83" s="16" t="e"/>
-      <c r="G83" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" s="17" t="n">
-        <v>303</v>
-      </c>
-      <c r="I83" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="J83" s="18" t="e"/>
-      <c r="K83" s="17" t="n">
-        <v>226</v>
-      </c>
-      <c r="L83" s="18" t="e"/>
-      <c r="M83" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="N83" s="17" t="n">
-        <v>226</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A83" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="19" t="e"/>
+      <c r="C83" s="19" t="e"/>
+      <c r="D83" s="19" t="e"/>
+      <c r="E83" s="19" t="e"/>
+      <c r="F83" s="19" t="e"/>
+      <c r="G83" s="19" t="e"/>
+      <c r="H83" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I83" s="10" t="e"/>
+      <c r="J83" s="10" t="e"/>
+      <c r="K83" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L83" s="10" t="e"/>
+      <c r="M83" s="10" t="e"/>
+      <c r="N83" s="9" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B84" s="19" t="e"/>
       <c r="C84" s="19" t="e"/>
@@ -2579,26 +2613,22 @@
       <c r="F84" s="19" t="e"/>
       <c r="G84" s="19" t="e"/>
       <c r="H84" s="9" t="n">
-        <v>122</v>
-      </c>
-      <c r="I84" s="9" t="n">
-        <v>43</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I84" s="10" t="e"/>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="L84" s="10" t="e"/>
-      <c r="M84" s="9" t="n">
-        <v>43</v>
-      </c>
+      <c r="M84" s="10" t="e"/>
       <c r="N84" s="9" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2607,54 +2637,58 @@
       <c r="F85" s="19" t="e"/>
       <c r="G85" s="19" t="e"/>
       <c r="H85" s="9" t="n">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J85" s="10" t="e"/>
       <c r="K85" s="9" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="L85" s="10" t="e"/>
       <c r="M85" s="9" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="N85" s="9" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A86" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="19" t="e"/>
-      <c r="C86" s="19" t="e"/>
-      <c r="D86" s="19" t="e"/>
-      <c r="E86" s="19" t="e"/>
-      <c r="F86" s="19" t="e"/>
-      <c r="G86" s="19" t="e"/>
-      <c r="H86" s="9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true">
+      <c r="A86" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="16" t="e"/>
+      <c r="C86" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="16" t="e"/>
+      <c r="E86" s="16" t="e"/>
+      <c r="F86" s="16" t="e"/>
+      <c r="G86" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I86" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" s="10" t="e"/>
-      <c r="K86" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L86" s="10" t="e"/>
-      <c r="M86" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N86" s="9" t="n">
-        <v>18</v>
+      <c r="H86" s="17" t="n">
+        <v>138</v>
+      </c>
+      <c r="I86" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" s="18" t="e"/>
+      <c r="K86" s="17" t="n">
+        <v>131</v>
+      </c>
+      <c r="L86" s="18" t="e"/>
+      <c r="M86" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N86" s="17" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="A87" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" s="19" t="e"/>
       <c r="C87" s="19" t="e"/>
@@ -2663,22 +2697,22 @@
       <c r="F87" s="19" t="e"/>
       <c r="G87" s="19" t="e"/>
       <c r="H87" s="9" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I87" s="10" t="e"/>
       <c r="J87" s="10" t="e"/>
       <c r="K87" s="9" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L87" s="10" t="e"/>
       <c r="M87" s="10" t="e"/>
       <c r="N87" s="9" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2687,54 +2721,50 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="I88" s="10" t="e"/>
+        <v>35</v>
+      </c>
+      <c r="I88" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L88" s="10" t="e"/>
-      <c r="M88" s="10" t="e"/>
+      <c r="M88" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N88" s="9" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" ht="11" customHeight="true">
-      <c r="A89" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" s="16" t="e"/>
-      <c r="C89" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D89" s="16" t="e"/>
-      <c r="E89" s="16" t="e"/>
-      <c r="F89" s="16" t="e"/>
-      <c r="G89" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" s="17" t="n">
-        <v>294</v>
-      </c>
-      <c r="I89" s="17" t="n">
-        <v>28</v>
-      </c>
-      <c r="J89" s="18" t="e"/>
-      <c r="K89" s="17" t="n">
-        <v>266</v>
-      </c>
-      <c r="L89" s="18" t="e"/>
-      <c r="M89" s="17" t="n">
-        <v>28</v>
-      </c>
-      <c r="N89" s="17" t="n">
-        <v>266</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A89" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="19" t="e"/>
+      <c r="C89" s="19" t="e"/>
+      <c r="D89" s="19" t="e"/>
+      <c r="E89" s="19" t="e"/>
+      <c r="F89" s="19" t="e"/>
+      <c r="G89" s="19" t="e"/>
+      <c r="H89" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I89" s="10" t="e"/>
+      <c r="J89" s="10" t="e"/>
+      <c r="K89" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L89" s="10" t="e"/>
+      <c r="M89" s="10" t="e"/>
+      <c r="N89" s="9" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="A90" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B90" s="19" t="e"/>
       <c r="C90" s="19" t="e"/>
@@ -2743,26 +2773,22 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>60</v>
-      </c>
-      <c r="I90" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L90" s="10" t="e"/>
-      <c r="M90" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="A91" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B91" s="19" t="e"/>
       <c r="C91" s="19" t="e"/>
@@ -2771,50 +2797,58 @@
       <c r="F91" s="19" t="e"/>
       <c r="G91" s="19" t="e"/>
       <c r="H91" s="9" t="n">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J91" s="10" t="e"/>
       <c r="K91" s="9" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L91" s="10" t="e"/>
       <c r="M91" s="9" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N91" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true">
+      <c r="A92" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="16" t="e"/>
+      <c r="C92" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A92" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="19" t="e"/>
-      <c r="C92" s="19" t="e"/>
-      <c r="D92" s="19" t="e"/>
-      <c r="E92" s="19" t="e"/>
-      <c r="F92" s="19" t="e"/>
-      <c r="G92" s="19" t="e"/>
-      <c r="H92" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I92" s="10" t="e"/>
-      <c r="J92" s="10" t="e"/>
-      <c r="K92" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L92" s="10" t="e"/>
-      <c r="M92" s="10" t="e"/>
-      <c r="N92" s="9" t="n">
-        <v>20</v>
+      <c r="D92" s="16" t="e"/>
+      <c r="E92" s="16" t="e"/>
+      <c r="F92" s="16" t="e"/>
+      <c r="G92" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="17" t="n">
+        <v>247</v>
+      </c>
+      <c r="I92" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" s="18" t="e"/>
+      <c r="K92" s="17" t="n">
+        <v>241</v>
+      </c>
+      <c r="L92" s="18" t="e"/>
+      <c r="M92" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N92" s="17" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="A93" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" s="19" t="e"/>
       <c r="C93" s="19" t="e"/>
@@ -2823,22 +2857,26 @@
       <c r="F93" s="19" t="e"/>
       <c r="G93" s="19" t="e"/>
       <c r="H93" s="9" t="n">
-        <v>90</v>
-      </c>
-      <c r="I93" s="10" t="e"/>
+        <v>88</v>
+      </c>
+      <c r="I93" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J93" s="10" t="e"/>
       <c r="K93" s="9" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L93" s="10" t="e"/>
-      <c r="M93" s="10" t="e"/>
+      <c r="M93" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N93" s="9" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2847,54 +2885,50 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I94" s="10" t="e"/>
+        <v>85</v>
+      </c>
+      <c r="I94" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="L94" s="10" t="e"/>
-      <c r="M94" s="10" t="e"/>
+      <c r="M94" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="N94" s="9" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" ht="11" customHeight="true">
-      <c r="A95" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" s="16" t="e"/>
-      <c r="C95" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D95" s="16" t="e"/>
-      <c r="E95" s="16" t="e"/>
-      <c r="F95" s="16" t="e"/>
-      <c r="G95" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H95" s="17" t="n">
-        <v>318</v>
-      </c>
-      <c r="I95" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" s="18" t="e"/>
-      <c r="K95" s="17" t="n">
-        <v>241</v>
-      </c>
-      <c r="L95" s="18" t="e"/>
-      <c r="M95" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="N95" s="17" t="n">
-        <v>241</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A95" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="19" t="e"/>
+      <c r="C95" s="19" t="e"/>
+      <c r="D95" s="19" t="e"/>
+      <c r="E95" s="19" t="e"/>
+      <c r="F95" s="19" t="e"/>
+      <c r="G95" s="19" t="e"/>
+      <c r="H95" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I95" s="10" t="e"/>
+      <c r="J95" s="10" t="e"/>
+      <c r="K95" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L95" s="10" t="e"/>
+      <c r="M95" s="10" t="e"/>
+      <c r="N95" s="9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="A96" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B96" s="19" t="e"/>
       <c r="C96" s="19" t="e"/>
@@ -2903,26 +2937,22 @@
       <c r="F96" s="19" t="e"/>
       <c r="G96" s="19" t="e"/>
       <c r="H96" s="9" t="n">
-        <v>107</v>
-      </c>
-      <c r="I96" s="9" t="n">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I96" s="10" t="e"/>
       <c r="J96" s="10" t="e"/>
       <c r="K96" s="9" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="L96" s="10" t="e"/>
-      <c r="M96" s="9" t="n">
-        <v>23</v>
-      </c>
+      <c r="M96" s="10" t="e"/>
       <c r="N96" s="9" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="A97" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B97" s="19" t="e"/>
       <c r="C97" s="19" t="e"/>
@@ -2931,50 +2961,54 @@
       <c r="F97" s="19" t="e"/>
       <c r="G97" s="19" t="e"/>
       <c r="H97" s="9" t="n">
-        <v>150</v>
-      </c>
-      <c r="I97" s="9" t="n">
-        <v>54</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I97" s="10" t="e"/>
       <c r="J97" s="10" t="e"/>
       <c r="K97" s="9" t="n">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="L97" s="10" t="e"/>
-      <c r="M97" s="9" t="n">
-        <v>54</v>
-      </c>
+      <c r="M97" s="10" t="e"/>
       <c r="N97" s="9" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A98" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98" s="19" t="e"/>
-      <c r="C98" s="19" t="e"/>
-      <c r="D98" s="19" t="e"/>
-      <c r="E98" s="19" t="e"/>
-      <c r="F98" s="19" t="e"/>
-      <c r="G98" s="19" t="e"/>
-      <c r="H98" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I98" s="10" t="e"/>
-      <c r="J98" s="10" t="e"/>
-      <c r="K98" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L98" s="10" t="e"/>
-      <c r="M98" s="10" t="e"/>
-      <c r="N98" s="9" t="n">
-        <v>14</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" ht="11" customHeight="true">
+      <c r="A98" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="16" t="e"/>
+      <c r="C98" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" s="16" t="e"/>
+      <c r="E98" s="16" t="e"/>
+      <c r="F98" s="16" t="e"/>
+      <c r="G98" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="17" t="n">
+        <v>278</v>
+      </c>
+      <c r="I98" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="J98" s="18" t="e"/>
+      <c r="K98" s="17" t="n">
+        <v>219</v>
+      </c>
+      <c r="L98" s="18" t="e"/>
+      <c r="M98" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="N98" s="17" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -2983,54 +3017,54 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="I99" s="10" t="e"/>
+        <v>96</v>
+      </c>
+      <c r="I99" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="L99" s="10" t="e"/>
-      <c r="M99" s="10" t="e"/>
+      <c r="M99" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="N99" s="9" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true">
-      <c r="A100" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="16" t="e"/>
-      <c r="C100" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D100" s="16" t="e"/>
-      <c r="E100" s="16" t="e"/>
-      <c r="F100" s="16" t="e"/>
-      <c r="G100" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H100" s="17" t="n">
-        <v>429</v>
-      </c>
-      <c r="I100" s="17" t="n">
-        <v>123</v>
-      </c>
-      <c r="J100" s="18" t="e"/>
-      <c r="K100" s="17" t="n">
-        <v>306</v>
-      </c>
-      <c r="L100" s="18" t="e"/>
-      <c r="M100" s="17" t="n">
-        <v>123</v>
-      </c>
-      <c r="N100" s="17" t="n">
-        <v>306</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A100" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="19" t="e"/>
+      <c r="C100" s="19" t="e"/>
+      <c r="D100" s="19" t="e"/>
+      <c r="E100" s="19" t="e"/>
+      <c r="F100" s="19" t="e"/>
+      <c r="G100" s="19" t="e"/>
+      <c r="H100" s="9" t="n">
+        <v>103</v>
+      </c>
+      <c r="I100" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="J100" s="10" t="e"/>
+      <c r="K100" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="L100" s="10" t="e"/>
+      <c r="M100" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="N100" s="9" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3039,26 +3073,22 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>138</v>
-      </c>
-      <c r="I101" s="9" t="n">
-        <v>38</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I101" s="10" t="e"/>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L101" s="10" t="e"/>
-      <c r="M101" s="9" t="n">
-        <v>38</v>
-      </c>
+      <c r="M101" s="10" t="e"/>
       <c r="N101" s="9" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B102" s="19" t="e"/>
       <c r="C102" s="19" t="e"/>
@@ -3067,26 +3097,22 @@
       <c r="F102" s="19" t="e"/>
       <c r="G102" s="19" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>181</v>
-      </c>
-      <c r="I102" s="9" t="n">
-        <v>81</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I102" s="10" t="e"/>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L102" s="10" t="e"/>
-      <c r="M102" s="9" t="n">
-        <v>81</v>
-      </c>
+      <c r="M102" s="10" t="e"/>
       <c r="N102" s="9" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="A103" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B103" s="19" t="e"/>
       <c r="C103" s="19" t="e"/>
@@ -3095,46 +3121,58 @@
       <c r="F103" s="19" t="e"/>
       <c r="G103" s="19" t="e"/>
       <c r="H103" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I103" s="10" t="e"/>
+        <v>58</v>
+      </c>
+      <c r="I103" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="J103" s="10" t="e"/>
       <c r="K103" s="9" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L103" s="10" t="e"/>
-      <c r="M103" s="10" t="e"/>
+      <c r="M103" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="N103" s="9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A104" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B104" s="19" t="e"/>
-      <c r="C104" s="19" t="e"/>
-      <c r="D104" s="19" t="e"/>
-      <c r="E104" s="19" t="e"/>
-      <c r="F104" s="19" t="e"/>
-      <c r="G104" s="19" t="e"/>
-      <c r="H104" s="9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true">
+      <c r="A104" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I104" s="10" t="e"/>
-      <c r="J104" s="10" t="e"/>
-      <c r="K104" s="9" t="n">
-        <v>70</v>
-      </c>
-      <c r="L104" s="10" t="e"/>
-      <c r="M104" s="10" t="e"/>
-      <c r="N104" s="9" t="n">
-        <v>70</v>
+      <c r="B104" s="16" t="e"/>
+      <c r="C104" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" s="16" t="e"/>
+      <c r="E104" s="16" t="e"/>
+      <c r="F104" s="16" t="e"/>
+      <c r="G104" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="17" t="n">
+        <v>149</v>
+      </c>
+      <c r="I104" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" s="18" t="e"/>
+      <c r="K104" s="17" t="n">
+        <v>148</v>
+      </c>
+      <c r="L104" s="18" t="e"/>
+      <c r="M104" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" s="17" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B105" s="19" t="e"/>
       <c r="C105" s="19" t="e"/>
@@ -3143,54 +3181,46 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I105" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I105" s="10" t="e"/>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L105" s="10" t="e"/>
-      <c r="M105" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M105" s="10" t="e"/>
       <c r="N105" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" ht="11" customHeight="true">
-      <c r="A106" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B106" s="16" t="e"/>
-      <c r="C106" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D106" s="16" t="e"/>
-      <c r="E106" s="16" t="e"/>
-      <c r="F106" s="16" t="e"/>
-      <c r="G106" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H106" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I106" s="18" t="e"/>
-      <c r="J106" s="18" t="e"/>
-      <c r="K106" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L106" s="18" t="e"/>
-      <c r="M106" s="18" t="e"/>
-      <c r="N106" s="17" t="n">
-        <v>4</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A106" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="19" t="e"/>
+      <c r="C106" s="19" t="e"/>
+      <c r="D106" s="19" t="e"/>
+      <c r="E106" s="19" t="e"/>
+      <c r="F106" s="19" t="e"/>
+      <c r="G106" s="19" t="e"/>
+      <c r="H106" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="I106" s="10" t="e"/>
+      <c r="J106" s="10" t="e"/>
+      <c r="K106" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L106" s="10" t="e"/>
+      <c r="M106" s="10" t="e"/>
+      <c r="N106" s="9" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3214,7 +3244,7 @@
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B108" s="19" t="e"/>
       <c r="C108" s="19" t="e"/>
@@ -3223,22 +3253,22 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I108" s="10" t="e"/>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L108" s="10" t="e"/>
       <c r="M108" s="10" t="e"/>
       <c r="N108" s="9" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="A109" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B109" s="19" t="e"/>
       <c r="C109" s="19" t="e"/>
@@ -3247,78 +3277,86 @@
       <c r="F109" s="19" t="e"/>
       <c r="G109" s="19" t="e"/>
       <c r="H109" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="I109" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I109" s="10" t="e"/>
       <c r="J109" s="10" t="e"/>
       <c r="K109" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L109" s="10" t="e"/>
+      <c r="M109" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="L109" s="10" t="e"/>
-      <c r="M109" s="10" t="e"/>
       <c r="N109" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" ht="11" customHeight="true">
+      <c r="A110" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="16" t="e"/>
+      <c r="C110" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" s="16" t="e"/>
+      <c r="E110" s="16" t="e"/>
+      <c r="F110" s="16" t="e"/>
+      <c r="G110" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" s="17" t="n">
+        <v>49</v>
+      </c>
+      <c r="I110" s="17" t="n">
+        <v>43</v>
+      </c>
+      <c r="J110" s="18" t="e"/>
+      <c r="K110" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L110" s="18" t="e"/>
+      <c r="M110" s="17" t="n">
+        <v>43</v>
+      </c>
+      <c r="N110" s="17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A111" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" s="19" t="e"/>
+      <c r="C111" s="19" t="e"/>
+      <c r="D111" s="19" t="e"/>
+      <c r="E111" s="19" t="e"/>
+      <c r="F111" s="19" t="e"/>
+      <c r="G111" s="19" t="e"/>
+      <c r="H111" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="I111" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="J111" s="10" t="e"/>
+      <c r="K111" s="9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A110" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B110" s="19" t="e"/>
-      <c r="C110" s="19" t="e"/>
-      <c r="D110" s="19" t="e"/>
-      <c r="E110" s="19" t="e"/>
-      <c r="F110" s="19" t="e"/>
-      <c r="G110" s="19" t="e"/>
-      <c r="H110" s="9" t="n">
+      <c r="L111" s="10" t="e"/>
+      <c r="M111" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="N111" s="9" t="n">
         <v>1</v>
-      </c>
-      <c r="I110" s="10" t="e"/>
-      <c r="J110" s="10" t="e"/>
-      <c r="K110" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L110" s="10" t="e"/>
-      <c r="M110" s="10" t="e"/>
-      <c r="N110" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true">
-      <c r="A111" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B111" s="16" t="e"/>
-      <c r="C111" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D111" s="16" t="e"/>
-      <c r="E111" s="16" t="e"/>
-      <c r="F111" s="16" t="e"/>
-      <c r="G111" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" s="17" t="n">
-        <v>390</v>
-      </c>
-      <c r="I111" s="17" t="n">
-        <v>161</v>
-      </c>
-      <c r="J111" s="18" t="e"/>
-      <c r="K111" s="17" t="n">
-        <v>229</v>
-      </c>
-      <c r="L111" s="18" t="e"/>
-      <c r="M111" s="17" t="n">
-        <v>161</v>
-      </c>
-      <c r="N111" s="17" t="n">
-        <v>229</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3327,26 +3365,26 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="L112" s="10" t="e"/>
       <c r="M112" s="9" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="N112" s="9" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="A113" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B113" s="19" t="e"/>
       <c r="C113" s="19" t="e"/>
@@ -3355,50 +3393,58 @@
       <c r="F113" s="19" t="e"/>
       <c r="G113" s="19" t="e"/>
       <c r="H113" s="9" t="n">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="I113" s="9" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="J113" s="10" t="e"/>
       <c r="K113" s="9" t="n">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="L113" s="10" t="e"/>
       <c r="M113" s="9" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="N113" s="9" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A114" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114" s="19" t="e"/>
-      <c r="C114" s="19" t="e"/>
-      <c r="D114" s="19" t="e"/>
-      <c r="E114" s="19" t="e"/>
-      <c r="F114" s="19" t="e"/>
-      <c r="G114" s="19" t="e"/>
-      <c r="H114" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I114" s="10" t="e"/>
-      <c r="J114" s="10" t="e"/>
-      <c r="K114" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L114" s="10" t="e"/>
-      <c r="M114" s="10" t="e"/>
-      <c r="N114" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true">
+      <c r="A114" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="16" t="e"/>
+      <c r="C114" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" s="16" t="e"/>
+      <c r="E114" s="16" t="e"/>
+      <c r="F114" s="16" t="e"/>
+      <c r="G114" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="17" t="n">
+        <v>113</v>
+      </c>
+      <c r="I114" s="17" t="n">
+        <v>62</v>
+      </c>
+      <c r="J114" s="18" t="e"/>
+      <c r="K114" s="17" t="n">
+        <v>51</v>
+      </c>
+      <c r="L114" s="18" t="e"/>
+      <c r="M114" s="17" t="n">
+        <v>62</v>
+      </c>
+      <c r="N114" s="17" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="A115" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115" s="19" t="e"/>
       <c r="C115" s="19" t="e"/>
@@ -3407,22 +3453,26 @@
       <c r="F115" s="19" t="e"/>
       <c r="G115" s="19" t="e"/>
       <c r="H115" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I115" s="10" t="e"/>
+        <v>40</v>
+      </c>
+      <c r="I115" s="9" t="n">
+        <v>19</v>
+      </c>
       <c r="J115" s="10" t="e"/>
       <c r="K115" s="9" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L115" s="10" t="e"/>
-      <c r="M115" s="10" t="e"/>
+      <c r="M115" s="9" t="n">
+        <v>19</v>
+      </c>
       <c r="N115" s="9" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3431,86 +3481,82 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I116" s="9" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L116" s="10" t="e"/>
       <c r="M116" s="9" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N116" s="9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true">
-      <c r="A117" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A117" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" s="19" t="e"/>
+      <c r="C117" s="19" t="e"/>
+      <c r="D117" s="19" t="e"/>
+      <c r="E117" s="19" t="e"/>
+      <c r="F117" s="19" t="e"/>
+      <c r="G117" s="19" t="e"/>
+      <c r="H117" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I117" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" s="10" t="e"/>
+      <c r="K117" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L117" s="10" t="e"/>
+      <c r="M117" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true">
+      <c r="A118" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B117" s="16" t="e"/>
-      <c r="C117" s="16" t="s">
+      <c r="B118" s="16" t="e"/>
+      <c r="C118" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D117" s="16" t="e"/>
-      <c r="E117" s="16" t="e"/>
-      <c r="F117" s="16" t="e"/>
-      <c r="G117" s="16" t="s">
+      <c r="D118" s="16" t="e"/>
+      <c r="E118" s="16" t="e"/>
+      <c r="F118" s="16" t="e"/>
+      <c r="G118" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H117" s="17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I117" s="17" t="n">
-        <v>205</v>
-      </c>
-      <c r="J117" s="18" t="e"/>
-      <c r="K117" s="17" t="n">
-        <v>195</v>
-      </c>
-      <c r="L117" s="18" t="e"/>
-      <c r="M117" s="17" t="n">
-        <v>205</v>
-      </c>
-      <c r="N117" s="17" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A118" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" s="19" t="e"/>
-      <c r="C118" s="19" t="e"/>
-      <c r="D118" s="19" t="e"/>
-      <c r="E118" s="19" t="e"/>
-      <c r="F118" s="19" t="e"/>
-      <c r="G118" s="19" t="e"/>
-      <c r="H118" s="9" t="n">
-        <v>138</v>
-      </c>
-      <c r="I118" s="9" t="n">
-        <v>94</v>
-      </c>
-      <c r="J118" s="10" t="e"/>
-      <c r="K118" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="L118" s="10" t="e"/>
-      <c r="M118" s="9" t="n">
-        <v>94</v>
-      </c>
-      <c r="N118" s="9" t="n">
-        <v>44</v>
+      <c r="H118" s="17" t="n">
+        <v>92</v>
+      </c>
+      <c r="I118" s="18" t="e"/>
+      <c r="J118" s="18" t="e"/>
+      <c r="K118" s="17" t="n">
+        <v>92</v>
+      </c>
+      <c r="L118" s="18" t="e"/>
+      <c r="M118" s="18" t="e"/>
+      <c r="N118" s="17" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="A119" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B119" s="19" t="e"/>
       <c r="C119" s="19" t="e"/>
@@ -3519,26 +3565,22 @@
       <c r="F119" s="19" t="e"/>
       <c r="G119" s="19" t="e"/>
       <c r="H119" s="9" t="n">
-        <v>188</v>
-      </c>
-      <c r="I119" s="9" t="n">
-        <v>109</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I119" s="10" t="e"/>
       <c r="J119" s="10" t="e"/>
       <c r="K119" s="9" t="n">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="L119" s="10" t="e"/>
-      <c r="M119" s="9" t="n">
-        <v>109</v>
-      </c>
+      <c r="M119" s="10" t="e"/>
       <c r="N119" s="9" t="n">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3547,22 +3589,22 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I120" s="10" t="e"/>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L120" s="10" t="e"/>
       <c r="M120" s="10" t="e"/>
       <c r="N120" s="9" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3571,110 +3613,106 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>60</v>
-      </c>
-      <c r="I121" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I121" s="10" t="e"/>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="L121" s="10" t="e"/>
-      <c r="M121" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M121" s="10" t="e"/>
       <c r="N121" s="9" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" ht="11" customHeight="true">
-      <c r="A122" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A122" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="19" t="e"/>
+      <c r="C122" s="19" t="e"/>
+      <c r="D122" s="19" t="e"/>
+      <c r="E122" s="19" t="e"/>
+      <c r="F122" s="19" t="e"/>
+      <c r="G122" s="19" t="e"/>
+      <c r="H122" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I122" s="10" t="e"/>
+      <c r="J122" s="10" t="e"/>
+      <c r="K122" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L122" s="10" t="e"/>
+      <c r="M122" s="10" t="e"/>
+      <c r="N122" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true">
+      <c r="A123" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B122" s="16" t="e"/>
-      <c r="C122" s="16" t="s">
+      <c r="B123" s="16" t="e"/>
+      <c r="C123" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D122" s="16" t="e"/>
-      <c r="E122" s="16" t="e"/>
-      <c r="F122" s="16" t="e"/>
-      <c r="G122" s="16" t="s">
+      <c r="D123" s="16" t="e"/>
+      <c r="E123" s="16" t="e"/>
+      <c r="F123" s="16" t="e"/>
+      <c r="G123" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H122" s="17" t="n">
+      <c r="H123" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I123" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J123" s="18" t="e"/>
+      <c r="K123" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L123" s="18" t="e"/>
+      <c r="M123" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="N123" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A124" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="19" t="e"/>
+      <c r="C124" s="19" t="e"/>
+      <c r="D124" s="19" t="e"/>
+      <c r="E124" s="19" t="e"/>
+      <c r="F124" s="19" t="e"/>
+      <c r="G124" s="19" t="e"/>
+      <c r="H124" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I124" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J124" s="10" t="e"/>
+      <c r="K124" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I122" s="18" t="e"/>
-      <c r="J122" s="18" t="e"/>
-      <c r="K122" s="17" t="n">
+      <c r="L124" s="10" t="e"/>
+      <c r="M124" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N124" s="9" t="n">
         <v>1</v>
-      </c>
-      <c r="L122" s="18" t="e"/>
-      <c r="M122" s="18" t="e"/>
-      <c r="N122" s="17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A123" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B123" s="19" t="e"/>
-      <c r="C123" s="19" t="e"/>
-      <c r="D123" s="19" t="e"/>
-      <c r="E123" s="19" t="e"/>
-      <c r="F123" s="19" t="e"/>
-      <c r="G123" s="19" t="e"/>
-      <c r="H123" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" s="10" t="e"/>
-      <c r="J123" s="10" t="e"/>
-      <c r="K123" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L123" s="10" t="e"/>
-      <c r="M123" s="10" t="e"/>
-      <c r="N123" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true">
-      <c r="A124" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B124" s="16" t="e"/>
-      <c r="C124" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D124" s="16" t="e"/>
-      <c r="E124" s="16" t="e"/>
-      <c r="F124" s="16" t="e"/>
-      <c r="G124" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="I124" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J124" s="18" t="e"/>
-      <c r="K124" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L124" s="18" t="e"/>
-      <c r="M124" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="N124" s="17" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B125" s="19" t="e"/>
       <c r="C125" s="19" t="e"/>
@@ -3683,10 +3721,10 @@
       <c r="F125" s="19" t="e"/>
       <c r="G125" s="19" t="e"/>
       <c r="H125" s="9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I125" s="9" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J125" s="10" t="e"/>
       <c r="K125" s="9" t="n">
@@ -3694,7 +3732,7 @@
       </c>
       <c r="L125" s="10" t="e"/>
       <c r="M125" s="9" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N125" s="9" t="n">
         <v>1</v>
@@ -3702,7 +3740,7 @@
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3711,101 +3749,49 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="I126" s="9" t="n">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" s="10" t="e"/>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L126" s="10" t="e"/>
-      <c r="M126" s="9" t="n">
-        <v>15</v>
-      </c>
+      <c r="M126" s="10" t="e"/>
       <c r="N126" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A127" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B127" s="19" t="e"/>
-      <c r="C127" s="19" t="e"/>
-      <c r="D127" s="19" t="e"/>
-      <c r="E127" s="19" t="e"/>
-      <c r="F127" s="19" t="e"/>
-      <c r="G127" s="19" t="e"/>
-      <c r="H127" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" s="10" t="e"/>
-      <c r="J127" s="10" t="e"/>
-      <c r="K127" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L127" s="10" t="e"/>
-      <c r="M127" s="10" t="e"/>
-      <c r="N127" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A128" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B128" s="19" t="e"/>
-      <c r="C128" s="19" t="e"/>
-      <c r="D128" s="19" t="e"/>
-      <c r="E128" s="19" t="e"/>
-      <c r="F128" s="19" t="e"/>
-      <c r="G128" s="19" t="e"/>
-      <c r="H128" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" s="10" t="e"/>
-      <c r="J128" s="10" t="e"/>
-      <c r="K128" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L128" s="10" t="e"/>
-      <c r="M128" s="10" t="e"/>
-      <c r="N128" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" ht="13" customHeight="true">
-      <c r="A129" s="12" t="s">
+    <row r="127" ht="13" customHeight="true">
+      <c r="A127" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B129" s="12" t="e"/>
-      <c r="C129" s="12" t="e"/>
-      <c r="D129" s="12" t="e"/>
-      <c r="E129" s="12" t="e"/>
-      <c r="F129" s="12" t="e"/>
-      <c r="G129" s="12" t="e"/>
-      <c r="H129" s="13" t="n">
-        <v>3935</v>
-      </c>
-      <c r="I129" s="14" t="n">
-        <v>826</v>
-      </c>
-      <c r="J129" s="15" t="e"/>
-      <c r="K129" s="13" t="n">
-        <v>3109</v>
-      </c>
-      <c r="L129" s="15" t="e"/>
-      <c r="M129" s="14" t="n">
-        <v>826</v>
-      </c>
-      <c r="N129" s="13" t="n">
-        <v>3109</v>
+      <c r="B127" s="12" t="e"/>
+      <c r="C127" s="12" t="e"/>
+      <c r="D127" s="12" t="e"/>
+      <c r="E127" s="12" t="e"/>
+      <c r="F127" s="12" t="e"/>
+      <c r="G127" s="12" t="e"/>
+      <c r="H127" s="13" t="n">
+        <v>2888</v>
+      </c>
+      <c r="I127" s="14" t="n">
+        <v>277</v>
+      </c>
+      <c r="J127" s="15" t="e"/>
+      <c r="K127" s="13" t="n">
+        <v>2611</v>
+      </c>
+      <c r="L127" s="15" t="e"/>
+      <c r="M127" s="14" t="n">
+        <v>277</v>
+      </c>
+      <c r="N127" s="13" t="n">
+        <v>2611</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="159">
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3834,50 +3820,50 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A53:G53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A56:G56"/>
@@ -3893,81 +3879,78 @@
     <mergeCell ref="C64:F64"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A67:G67"/>
     <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:F69"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="A72:G72"/>
     <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:F74"/>
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="A76:G76"/>
     <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="A78:G78"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:F80"/>
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
     <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:F86"/>
     <mergeCell ref="A87:G87"/>
     <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="A89:G89"/>
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A95:G95"/>
     <mergeCell ref="A96:G96"/>
     <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A98:G98"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:F98"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:F104"/>
     <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="A106:G106"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A108:G108"/>
     <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="A111:G111"/>
     <mergeCell ref="A112:G112"/>
     <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:F114"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:F118"/>
     <mergeCell ref="A119:G119"/>
     <mergeCell ref="A120:G120"/>
     <mergeCell ref="A121:G121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="A124:G124"/>
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
     <mergeCell ref="A127:G127"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A129:G129"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Остатки и доступность товаров</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>82402-З  Бордюр Кантри MAXI пластиковый ЗЕЛЕНЫЙ L=10000 мм</t>
+  </si>
+  <si>
+    <t>82402-К</t>
+  </si>
+  <si>
+    <t>82402-К  Бордюр Кантри MAXI пластиковый КОРИЧНЕВЫЙ L=10000 мм</t>
   </si>
   <si>
     <t>82402-Ч</t>
@@ -472,7 +478,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N127"/>
+  <dimension ref="N134"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -609,21 +615,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L9" s="10" t="e"/>
       <c r="M9" s="9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -661,21 +667,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1175</v>
+        <v>1156</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1140</v>
+        <v>1114</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1140</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -689,21 +695,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1469</v>
+        <v>1568</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1238</v>
+        <v>1207</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1238</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -717,21 +723,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2888</v>
+        <v>2956</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>277</v>
+        <v>406</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2611</v>
+        <v>2550</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>277</v>
+        <v>406</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2611</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -749,19 +755,15 @@
         <v>24</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I14" s="18" t="e"/>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
         <v>39</v>
       </c>
       <c r="L14" s="18" t="e"/>
-      <c r="M14" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M14" s="18" t="e"/>
       <c r="N14" s="17" t="n">
         <v>39</v>
       </c>
@@ -825,19 +827,15 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I17" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I17" s="10" t="e"/>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
         <v>8</v>
       </c>
       <c r="L17" s="10" t="e"/>
-      <c r="M17" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M17" s="10" t="e"/>
       <c r="N17" s="9" t="n">
         <v>8</v>
       </c>
@@ -857,21 +855,21 @@
         <v>24</v>
       </c>
       <c r="H18" s="17" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I18" s="17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J18" s="18" t="e"/>
       <c r="K18" s="17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L18" s="18" t="e"/>
       <c r="M18" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" s="17" t="n">
         <v>10</v>
-      </c>
-      <c r="N18" s="17" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="1">
@@ -887,15 +885,19 @@
       <c r="H19" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="10" t="e"/>
+      <c r="I19" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" s="10" t="e"/>
       <c r="K19" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="10" t="e"/>
-      <c r="M19" s="10" t="e"/>
+      <c r="M19" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
@@ -909,21 +911,21 @@
       <c r="F20" s="19" t="e"/>
       <c r="G20" s="19" t="e"/>
       <c r="H20" s="9" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I20" s="9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J20" s="10" t="e"/>
       <c r="K20" s="9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L20" s="10" t="e"/>
       <c r="M20" s="9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N20" s="9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true">
@@ -1477,21 +1479,21 @@
         <v>24</v>
       </c>
       <c r="H42" s="17" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I42" s="17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J42" s="18" t="e"/>
       <c r="K42" s="17" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L42" s="18" t="e"/>
       <c r="M42" s="17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N42" s="17" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="1">
@@ -1529,21 +1531,21 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L44" s="10" t="e"/>
       <c r="M44" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44" s="9" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
@@ -1557,19 +1559,15 @@
       <c r="F45" s="19" t="e"/>
       <c r="G45" s="19" t="e"/>
       <c r="H45" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I45" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I45" s="10" t="e"/>
       <c r="J45" s="10" t="e"/>
       <c r="K45" s="9" t="n">
         <v>8</v>
       </c>
       <c r="L45" s="10" t="e"/>
-      <c r="M45" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M45" s="10" t="e"/>
       <c r="N45" s="9" t="n">
         <v>8</v>
       </c>
@@ -1611,15 +1609,19 @@
       <c r="H47" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="I47" s="10" t="e"/>
+      <c r="I47" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J47" s="10" t="e"/>
       <c r="K47" s="9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L47" s="10" t="e"/>
-      <c r="M47" s="10" t="e"/>
+      <c r="M47" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="N47" s="9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true">
@@ -1637,21 +1639,17 @@
         <v>24</v>
       </c>
       <c r="H48" s="17" t="n">
-        <v>176</v>
-      </c>
-      <c r="I48" s="17" t="n">
-        <v>3</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I48" s="18" t="e"/>
       <c r="J48" s="18" t="e"/>
       <c r="K48" s="17" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L48" s="18" t="e"/>
-      <c r="M48" s="17" t="n">
-        <v>3</v>
-      </c>
+      <c r="M48" s="18" t="e"/>
       <c r="N48" s="17" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true" outlineLevel="1">
@@ -1665,21 +1663,17 @@
       <c r="F49" s="19" t="e"/>
       <c r="G49" s="19" t="e"/>
       <c r="H49" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I49" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I49" s="10" t="e"/>
       <c r="J49" s="10" t="e"/>
       <c r="K49" s="9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L49" s="10" t="e"/>
-      <c r="M49" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M49" s="10" t="e"/>
       <c r="N49" s="9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
@@ -1745,21 +1739,21 @@
         <v>24</v>
       </c>
       <c r="H52" s="17" t="n">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I52" s="17" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J52" s="18" t="e"/>
       <c r="K52" s="17" t="n">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="L52" s="18" t="e"/>
       <c r="M52" s="17" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N52" s="17" t="n">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="1">
@@ -1773,17 +1767,17 @@
       <c r="F53" s="19" t="e"/>
       <c r="G53" s="19" t="e"/>
       <c r="H53" s="9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I53" s="10" t="e"/>
       <c r="J53" s="10" t="e"/>
       <c r="K53" s="9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L53" s="10" t="e"/>
       <c r="M53" s="10" t="e"/>
       <c r="N53" s="9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
@@ -1797,21 +1791,21 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="9" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N54" s="9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
@@ -1825,21 +1819,17 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I55" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L55" s="10" t="e"/>
-      <c r="M55" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
@@ -1853,17 +1843,17 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I56" s="10" t="e"/>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L56" s="10" t="e"/>
       <c r="M56" s="10" t="e"/>
       <c r="N56" s="9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
@@ -1877,21 +1867,21 @@
       <c r="F57" s="19" t="e"/>
       <c r="G57" s="19" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9" t="n">
         <v>1</v>
       </c>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L57" s="10" t="e"/>
       <c r="M57" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N57" s="9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="11" customHeight="true">
@@ -1909,21 +1899,21 @@
         <v>24</v>
       </c>
       <c r="H58" s="17" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I58" s="17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J58" s="18" t="e"/>
       <c r="K58" s="17" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L58" s="18" t="e"/>
       <c r="M58" s="17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N58" s="17" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="1">
@@ -1937,21 +1927,21 @@
       <c r="F59" s="19" t="e"/>
       <c r="G59" s="19" t="e"/>
       <c r="H59" s="9" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9" t="n">
         <v>3</v>
       </c>
       <c r="J59" s="10" t="e"/>
       <c r="K59" s="9" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L59" s="10" t="e"/>
       <c r="M59" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N59" s="9" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
@@ -1965,17 +1955,17 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L60" s="10" t="e"/>
       <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
@@ -2013,17 +2003,17 @@
       <c r="F62" s="19" t="e"/>
       <c r="G62" s="19" t="e"/>
       <c r="H62" s="9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I62" s="10" t="e"/>
       <c r="J62" s="10" t="e"/>
       <c r="K62" s="9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L62" s="10" t="e"/>
       <c r="M62" s="10" t="e"/>
       <c r="N62" s="9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true" outlineLevel="1">
@@ -2037,19 +2027,15 @@
       <c r="F63" s="19" t="e"/>
       <c r="G63" s="19" t="e"/>
       <c r="H63" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I63" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I63" s="10" t="e"/>
       <c r="J63" s="10" t="e"/>
       <c r="K63" s="9" t="n">
         <v>22</v>
       </c>
       <c r="L63" s="10" t="e"/>
-      <c r="M63" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M63" s="10" t="e"/>
       <c r="N63" s="9" t="n">
         <v>22</v>
       </c>
@@ -2069,21 +2055,21 @@
         <v>24</v>
       </c>
       <c r="H64" s="17" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I64" s="17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J64" s="18" t="e"/>
       <c r="K64" s="17" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L64" s="18" t="e"/>
       <c r="M64" s="17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N64" s="17" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
@@ -2097,21 +2083,21 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9" t="n">
         <v>2</v>
       </c>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L65" s="10" t="e"/>
       <c r="M65" s="9" t="n">
         <v>2</v>
       </c>
       <c r="N65" s="9" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="11" customHeight="true" outlineLevel="1">
@@ -2125,17 +2111,17 @@
       <c r="F66" s="19" t="e"/>
       <c r="G66" s="19" t="e"/>
       <c r="H66" s="9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I66" s="10" t="e"/>
       <c r="J66" s="10" t="e"/>
       <c r="K66" s="9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L66" s="10" t="e"/>
       <c r="M66" s="10" t="e"/>
       <c r="N66" s="9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="11" customHeight="true" outlineLevel="1">
@@ -2149,22 +2135,22 @@
       <c r="F67" s="19" t="e"/>
       <c r="G67" s="19" t="e"/>
       <c r="H67" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I67" s="10" t="e"/>
       <c r="J67" s="10" t="e"/>
       <c r="K67" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L67" s="10" t="e"/>
       <c r="M67" s="10" t="e"/>
       <c r="N67" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2173,86 +2159,82 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I68" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I68" s="10" t="e"/>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="L68" s="10" t="e"/>
-      <c r="M68" s="9" t="n">
-        <v>7</v>
-      </c>
+      <c r="M68" s="10" t="e"/>
       <c r="N68" s="9" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="true">
-      <c r="A69" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A69" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="19" t="e"/>
+      <c r="C69" s="19" t="e"/>
+      <c r="D69" s="19" t="e"/>
+      <c r="E69" s="19" t="e"/>
+      <c r="F69" s="19" t="e"/>
+      <c r="G69" s="19" t="e"/>
+      <c r="H69" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I69" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" s="10" t="e"/>
+      <c r="K69" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L69" s="10" t="e"/>
+      <c r="M69" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N69" s="9" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" ht="11" customHeight="true">
+      <c r="A70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="16" t="e"/>
-      <c r="C69" s="16" t="s">
+      <c r="B70" s="16" t="e"/>
+      <c r="C70" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="16" t="e"/>
-      <c r="E69" s="16" t="e"/>
-      <c r="F69" s="16" t="e"/>
-      <c r="G69" s="16" t="s">
+      <c r="D70" s="16" t="e"/>
+      <c r="E70" s="16" t="e"/>
+      <c r="F70" s="16" t="e"/>
+      <c r="G70" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="17" t="n">
-        <v>129</v>
-      </c>
-      <c r="I69" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" s="18" t="e"/>
-      <c r="K69" s="17" t="n">
-        <v>124</v>
-      </c>
-      <c r="L69" s="18" t="e"/>
-      <c r="M69" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N69" s="17" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A70" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="19" t="e"/>
-      <c r="C70" s="19" t="e"/>
-      <c r="D70" s="19" t="e"/>
-      <c r="E70" s="19" t="e"/>
-      <c r="F70" s="19" t="e"/>
-      <c r="G70" s="19" t="e"/>
-      <c r="H70" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="I70" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" s="10" t="e"/>
-      <c r="K70" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="L70" s="10" t="e"/>
-      <c r="M70" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" s="9" t="n">
-        <v>48</v>
+      <c r="H70" s="17" t="n">
+        <v>120</v>
+      </c>
+      <c r="I70" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" s="18" t="e"/>
+      <c r="K70" s="17" t="n">
+        <v>110</v>
+      </c>
+      <c r="L70" s="18" t="e"/>
+      <c r="M70" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N70" s="17" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
       <c r="A71" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B71" s="19" t="e"/>
       <c r="C71" s="19" t="e"/>
@@ -2261,26 +2243,26 @@
       <c r="F71" s="19" t="e"/>
       <c r="G71" s="19" t="e"/>
       <c r="H71" s="9" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9" t="n">
         <v>1</v>
       </c>
       <c r="J71" s="10" t="e"/>
       <c r="K71" s="9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L71" s="10" t="e"/>
       <c r="M71" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N71" s="9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="1">
       <c r="A72" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B72" s="19" t="e"/>
       <c r="C72" s="19" t="e"/>
@@ -2289,22 +2271,26 @@
       <c r="F72" s="19" t="e"/>
       <c r="G72" s="19" t="e"/>
       <c r="H72" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I72" s="10" t="e"/>
+        <v>34</v>
+      </c>
+      <c r="I72" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J72" s="10" t="e"/>
       <c r="K72" s="9" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L72" s="10" t="e"/>
-      <c r="M72" s="10" t="e"/>
+      <c r="M72" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="N72" s="9" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="A73" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B73" s="19" t="e"/>
       <c r="C73" s="19" t="e"/>
@@ -2313,86 +2299,82 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I73" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I73" s="10" t="e"/>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L73" s="10" t="e"/>
-      <c r="M73" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M73" s="10" t="e"/>
       <c r="N73" s="9" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" ht="11" customHeight="true">
-      <c r="A74" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A74" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="19" t="e"/>
+      <c r="C74" s="19" t="e"/>
+      <c r="D74" s="19" t="e"/>
+      <c r="E74" s="19" t="e"/>
+      <c r="F74" s="19" t="e"/>
+      <c r="G74" s="19" t="e"/>
+      <c r="H74" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="I74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" s="10" t="e"/>
+      <c r="K74" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="L74" s="10" t="e"/>
+      <c r="M74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" s="9" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="16" t="e"/>
-      <c r="C74" s="16" t="s">
+      <c r="B75" s="16" t="e"/>
+      <c r="C75" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="16" t="e"/>
-      <c r="E74" s="16" t="e"/>
-      <c r="F74" s="16" t="e"/>
-      <c r="G74" s="16" t="s">
+      <c r="D75" s="16" t="e"/>
+      <c r="E75" s="16" t="e"/>
+      <c r="F75" s="16" t="e"/>
+      <c r="G75" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="17" t="n">
-        <v>178</v>
-      </c>
-      <c r="I74" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" s="18" t="e"/>
-      <c r="K74" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="L74" s="18" t="e"/>
-      <c r="M74" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N74" s="17" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A75" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="19" t="e"/>
-      <c r="C75" s="19" t="e"/>
-      <c r="D75" s="19" t="e"/>
-      <c r="E75" s="19" t="e"/>
-      <c r="F75" s="19" t="e"/>
-      <c r="G75" s="19" t="e"/>
-      <c r="H75" s="9" t="n">
-        <v>61</v>
-      </c>
-      <c r="I75" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" s="10" t="e"/>
-      <c r="K75" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="L75" s="10" t="e"/>
-      <c r="M75" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="N75" s="9" t="n">
-        <v>52</v>
+      <c r="H75" s="17" t="n">
+        <v>157</v>
+      </c>
+      <c r="I75" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J75" s="18" t="e"/>
+      <c r="K75" s="17" t="n">
+        <v>146</v>
+      </c>
+      <c r="L75" s="18" t="e"/>
+      <c r="M75" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="N75" s="17" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true" outlineLevel="1">
       <c r="A76" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B76" s="19" t="e"/>
       <c r="C76" s="19" t="e"/>
@@ -2401,22 +2383,26 @@
       <c r="F76" s="19" t="e"/>
       <c r="G76" s="19" t="e"/>
       <c r="H76" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="I76" s="10" t="e"/>
+        <v>51</v>
+      </c>
+      <c r="I76" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="J76" s="10" t="e"/>
       <c r="K76" s="9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L76" s="10" t="e"/>
-      <c r="M76" s="10" t="e"/>
+      <c r="M76" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="N76" s="9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2425,26 +2411,22 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I77" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I77" s="10" t="e"/>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="L77" s="10" t="e"/>
-      <c r="M77" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M77" s="10" t="e"/>
       <c r="N77" s="9" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B78" s="19" t="e"/>
       <c r="C78" s="19" t="e"/>
@@ -2453,22 +2435,22 @@
       <c r="F78" s="19" t="e"/>
       <c r="G78" s="19" t="e"/>
       <c r="H78" s="9" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I78" s="10" t="e"/>
       <c r="J78" s="10" t="e"/>
       <c r="K78" s="9" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L78" s="10" t="e"/>
       <c r="M78" s="10" t="e"/>
       <c r="N78" s="9" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="19" t="e"/>
       <c r="C79" s="19" t="e"/>
@@ -2477,82 +2459,78 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I79" s="10" t="e"/>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L79" s="10" t="e"/>
       <c r="M79" s="10" t="e"/>
       <c r="N79" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A80" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="19" t="e"/>
+      <c r="C80" s="19" t="e"/>
+      <c r="D80" s="19" t="e"/>
+      <c r="E80" s="19" t="e"/>
+      <c r="F80" s="19" t="e"/>
+      <c r="G80" s="19" t="e"/>
+      <c r="H80" s="9" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="80" ht="22" customHeight="true">
-      <c r="A80" s="16" t="s">
+      <c r="I80" s="10" t="e"/>
+      <c r="J80" s="10" t="e"/>
+      <c r="K80" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L80" s="10" t="e"/>
+      <c r="M80" s="10" t="e"/>
+      <c r="N80" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" ht="22" customHeight="true">
+      <c r="A81" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B80" s="16" t="e"/>
-      <c r="C80" s="16" t="s">
+      <c r="B81" s="16" t="e"/>
+      <c r="C81" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="16" t="e"/>
-      <c r="E80" s="16" t="e"/>
-      <c r="F80" s="16" t="e"/>
-      <c r="G80" s="16" t="s">
+      <c r="D81" s="16" t="e"/>
+      <c r="E81" s="16" t="e"/>
+      <c r="F81" s="16" t="e"/>
+      <c r="G81" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H80" s="17" t="n">
-        <v>200</v>
-      </c>
-      <c r="I80" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" s="18" t="e"/>
-      <c r="K80" s="17" t="n">
-        <v>179</v>
-      </c>
-      <c r="L80" s="18" t="e"/>
-      <c r="M80" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="N80" s="17" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="81" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A81" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="19" t="e"/>
-      <c r="C81" s="19" t="e"/>
-      <c r="D81" s="19" t="e"/>
-      <c r="E81" s="19" t="e"/>
-      <c r="F81" s="19" t="e"/>
-      <c r="G81" s="19" t="e"/>
-      <c r="H81" s="9" t="n">
-        <v>77</v>
-      </c>
-      <c r="I81" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" s="10" t="e"/>
-      <c r="K81" s="9" t="n">
-        <v>69</v>
-      </c>
-      <c r="L81" s="10" t="e"/>
-      <c r="M81" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N81" s="9" t="n">
-        <v>69</v>
+      <c r="H81" s="17" t="n">
+        <v>226</v>
+      </c>
+      <c r="I81" s="17" t="n">
+        <v>42</v>
+      </c>
+      <c r="J81" s="18" t="e"/>
+      <c r="K81" s="17" t="n">
+        <v>184</v>
+      </c>
+      <c r="L81" s="18" t="e"/>
+      <c r="M81" s="17" t="n">
+        <v>42</v>
+      </c>
+      <c r="N81" s="17" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="A82" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B82" s="19" t="e"/>
       <c r="C82" s="19" t="e"/>
@@ -2561,26 +2539,26 @@
       <c r="F82" s="19" t="e"/>
       <c r="G82" s="19" t="e"/>
       <c r="H82" s="9" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I82" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J82" s="10" t="e"/>
       <c r="K82" s="9" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L82" s="10" t="e"/>
       <c r="M82" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N82" s="9" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2589,22 +2567,26 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I83" s="10" t="e"/>
+        <v>72</v>
+      </c>
+      <c r="I83" s="9" t="n">
+        <v>24</v>
+      </c>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L83" s="10" t="e"/>
-      <c r="M83" s="10" t="e"/>
+      <c r="M83" s="9" t="n">
+        <v>24</v>
+      </c>
       <c r="N83" s="9" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B84" s="19" t="e"/>
       <c r="C84" s="19" t="e"/>
@@ -2613,22 +2595,22 @@
       <c r="F84" s="19" t="e"/>
       <c r="G84" s="19" t="e"/>
       <c r="H84" s="9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I84" s="10" t="e"/>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L84" s="10" t="e"/>
       <c r="M84" s="10" t="e"/>
       <c r="N84" s="9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2637,82 +2619,82 @@
       <c r="F85" s="19" t="e"/>
       <c r="G85" s="19" t="e"/>
       <c r="H85" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I85" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I85" s="10" t="e"/>
       <c r="J85" s="10" t="e"/>
       <c r="K85" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L85" s="10" t="e"/>
+      <c r="M85" s="10" t="e"/>
+      <c r="N85" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A86" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L85" s="10" t="e"/>
-      <c r="M85" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N85" s="9" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true">
-      <c r="A86" s="16" t="s">
+      <c r="B86" s="19" t="e"/>
+      <c r="C86" s="19" t="e"/>
+      <c r="D86" s="19" t="e"/>
+      <c r="E86" s="19" t="e"/>
+      <c r="F86" s="19" t="e"/>
+      <c r="G86" s="19" t="e"/>
+      <c r="H86" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="I86" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" s="10" t="e"/>
+      <c r="K86" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="L86" s="10" t="e"/>
+      <c r="M86" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N86" s="9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true">
+      <c r="A87" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="16" t="e"/>
-      <c r="C86" s="16" t="s">
+      <c r="B87" s="16" t="e"/>
+      <c r="C87" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D86" s="16" t="e"/>
-      <c r="E86" s="16" t="e"/>
-      <c r="F86" s="16" t="e"/>
-      <c r="G86" s="16" t="s">
+      <c r="D87" s="16" t="e"/>
+      <c r="E87" s="16" t="e"/>
+      <c r="F87" s="16" t="e"/>
+      <c r="G87" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H86" s="17" t="n">
-        <v>138</v>
-      </c>
-      <c r="I86" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" s="18" t="e"/>
-      <c r="K86" s="17" t="n">
-        <v>131</v>
-      </c>
-      <c r="L86" s="18" t="e"/>
-      <c r="M86" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N86" s="17" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A87" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="19" t="e"/>
-      <c r="C87" s="19" t="e"/>
-      <c r="D87" s="19" t="e"/>
-      <c r="E87" s="19" t="e"/>
-      <c r="F87" s="19" t="e"/>
-      <c r="G87" s="19" t="e"/>
-      <c r="H87" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I87" s="10" t="e"/>
-      <c r="J87" s="10" t="e"/>
-      <c r="K87" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="L87" s="10" t="e"/>
-      <c r="M87" s="10" t="e"/>
-      <c r="N87" s="9" t="n">
-        <v>33</v>
+      <c r="H87" s="17" t="n">
+        <v>120</v>
+      </c>
+      <c r="I87" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J87" s="18" t="e"/>
+      <c r="K87" s="17" t="n">
+        <v>115</v>
+      </c>
+      <c r="L87" s="18" t="e"/>
+      <c r="M87" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" s="17" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2721,26 +2703,22 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I88" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L88" s="10" t="e"/>
-      <c r="M88" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B89" s="19" t="e"/>
       <c r="C89" s="19" t="e"/>
@@ -2749,22 +2727,26 @@
       <c r="F89" s="19" t="e"/>
       <c r="G89" s="19" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I89" s="10" t="e"/>
+        <v>29</v>
+      </c>
+      <c r="I89" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L89" s="10" t="e"/>
-      <c r="M89" s="10" t="e"/>
+      <c r="M89" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="N89" s="9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="A90" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B90" s="19" t="e"/>
       <c r="C90" s="19" t="e"/>
@@ -2773,22 +2755,22 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="A91" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91" s="19" t="e"/>
       <c r="C91" s="19" t="e"/>
@@ -2797,86 +2779,78 @@
       <c r="F91" s="19" t="e"/>
       <c r="G91" s="19" t="e"/>
       <c r="H91" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I91" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I91" s="10" t="e"/>
       <c r="J91" s="10" t="e"/>
       <c r="K91" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L91" s="10" t="e"/>
+      <c r="M91" s="10" t="e"/>
+      <c r="N91" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A92" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="19" t="e"/>
+      <c r="C92" s="19" t="e"/>
+      <c r="D92" s="19" t="e"/>
+      <c r="E92" s="19" t="e"/>
+      <c r="F92" s="19" t="e"/>
+      <c r="G92" s="19" t="e"/>
+      <c r="H92" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="L91" s="10" t="e"/>
-      <c r="M91" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N91" s="9" t="n">
+      <c r="I92" s="10" t="e"/>
+      <c r="J92" s="10" t="e"/>
+      <c r="K92" s="9" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" ht="11" customHeight="true">
-      <c r="A92" s="16" t="s">
+      <c r="L92" s="10" t="e"/>
+      <c r="M92" s="10" t="e"/>
+      <c r="N92" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" ht="11" customHeight="true">
+      <c r="A93" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B92" s="16" t="e"/>
-      <c r="C92" s="16" t="s">
+      <c r="B93" s="16" t="e"/>
+      <c r="C93" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D92" s="16" t="e"/>
-      <c r="E92" s="16" t="e"/>
-      <c r="F92" s="16" t="e"/>
-      <c r="G92" s="16" t="s">
+      <c r="D93" s="16" t="e"/>
+      <c r="E93" s="16" t="e"/>
+      <c r="F93" s="16" t="e"/>
+      <c r="G93" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H92" s="17" t="n">
-        <v>247</v>
-      </c>
-      <c r="I92" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J92" s="18" t="e"/>
-      <c r="K92" s="17" t="n">
-        <v>241</v>
-      </c>
-      <c r="L92" s="18" t="e"/>
-      <c r="M92" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N92" s="17" t="n">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A93" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="19" t="e"/>
-      <c r="C93" s="19" t="e"/>
-      <c r="D93" s="19" t="e"/>
-      <c r="E93" s="19" t="e"/>
-      <c r="F93" s="19" t="e"/>
-      <c r="G93" s="19" t="e"/>
-      <c r="H93" s="9" t="n">
-        <v>88</v>
-      </c>
-      <c r="I93" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" s="10" t="e"/>
-      <c r="K93" s="9" t="n">
-        <v>86</v>
-      </c>
-      <c r="L93" s="10" t="e"/>
-      <c r="M93" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N93" s="9" t="n">
-        <v>86</v>
+      <c r="H93" s="17" t="n">
+        <v>197</v>
+      </c>
+      <c r="I93" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J93" s="18" t="e"/>
+      <c r="K93" s="17" t="n">
+        <v>175</v>
+      </c>
+      <c r="L93" s="18" t="e"/>
+      <c r="M93" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="N93" s="17" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2885,26 +2859,26 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L94" s="10" t="e"/>
       <c r="M94" s="9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N94" s="9" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2913,22 +2887,26 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I95" s="10" t="e"/>
+        <v>71</v>
+      </c>
+      <c r="I95" s="9" t="n">
+        <v>15</v>
+      </c>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="L95" s="10" t="e"/>
-      <c r="M95" s="10" t="e"/>
+      <c r="M95" s="9" t="n">
+        <v>15</v>
+      </c>
       <c r="N95" s="9" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="A96" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B96" s="19" t="e"/>
       <c r="C96" s="19" t="e"/>
@@ -2937,17 +2915,17 @@
       <c r="F96" s="19" t="e"/>
       <c r="G96" s="19" t="e"/>
       <c r="H96" s="9" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I96" s="10" t="e"/>
       <c r="J96" s="10" t="e"/>
       <c r="K96" s="9" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L96" s="10" t="e"/>
       <c r="M96" s="10" t="e"/>
       <c r="N96" s="9" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="1">
@@ -2961,17 +2939,17 @@
       <c r="F97" s="19" t="e"/>
       <c r="G97" s="19" t="e"/>
       <c r="H97" s="9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I97" s="10" t="e"/>
       <c r="J97" s="10" t="e"/>
       <c r="K97" s="9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L97" s="10" t="e"/>
       <c r="M97" s="10" t="e"/>
       <c r="N97" s="9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true">
@@ -2989,21 +2967,21 @@
         <v>24</v>
       </c>
       <c r="H98" s="17" t="n">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="I98" s="17" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J98" s="18" t="e"/>
       <c r="K98" s="17" t="n">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="L98" s="18" t="e"/>
       <c r="M98" s="17" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N98" s="17" t="n">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
@@ -3017,21 +2995,21 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I99" s="9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L99" s="10" t="e"/>
       <c r="M99" s="9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="N99" s="9" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
@@ -3045,21 +3023,21 @@
       <c r="F100" s="19" t="e"/>
       <c r="G100" s="19" t="e"/>
       <c r="H100" s="9" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I100" s="9" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J100" s="10" t="e"/>
       <c r="K100" s="9" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="L100" s="10" t="e"/>
       <c r="M100" s="9" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N100" s="9" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
@@ -3088,7 +3066,7 @@
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B102" s="19" t="e"/>
       <c r="C102" s="19" t="e"/>
@@ -3097,82 +3075,82 @@
       <c r="F102" s="19" t="e"/>
       <c r="G102" s="19" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I102" s="10" t="e"/>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L102" s="10" t="e"/>
       <c r="M102" s="10" t="e"/>
       <c r="N102" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A103" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B103" s="19" t="e"/>
-      <c r="C103" s="19" t="e"/>
-      <c r="D103" s="19" t="e"/>
-      <c r="E103" s="19" t="e"/>
-      <c r="F103" s="19" t="e"/>
-      <c r="G103" s="19" t="e"/>
-      <c r="H103" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="I103" s="9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true">
+      <c r="A103" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="16" t="e"/>
+      <c r="C103" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="16" t="e"/>
+      <c r="E103" s="16" t="e"/>
+      <c r="F103" s="16" t="e"/>
+      <c r="G103" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="17" t="n">
+        <v>115</v>
+      </c>
+      <c r="I103" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J103" s="18" t="e"/>
+      <c r="K103" s="17" t="n">
+        <v>108</v>
+      </c>
+      <c r="L103" s="18" t="e"/>
+      <c r="M103" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N103" s="17" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A104" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="10" t="e"/>
-      <c r="K103" s="9" t="n">
+      <c r="B104" s="19" t="e"/>
+      <c r="C104" s="19" t="e"/>
+      <c r="D104" s="19" t="e"/>
+      <c r="E104" s="19" t="e"/>
+      <c r="F104" s="19" t="e"/>
+      <c r="G104" s="19" t="e"/>
+      <c r="H104" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="I104" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" s="10" t="e"/>
+      <c r="K104" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="L103" s="10" t="e"/>
-      <c r="M103" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="N103" s="9" t="n">
+      <c r="L104" s="10" t="e"/>
+      <c r="M104" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" s="9" t="n">
         <v>33</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true">
-      <c r="A104" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B104" s="16" t="e"/>
-      <c r="C104" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D104" s="16" t="e"/>
-      <c r="E104" s="16" t="e"/>
-      <c r="F104" s="16" t="e"/>
-      <c r="G104" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H104" s="17" t="n">
-        <v>149</v>
-      </c>
-      <c r="I104" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" s="18" t="e"/>
-      <c r="K104" s="17" t="n">
-        <v>148</v>
-      </c>
-      <c r="L104" s="18" t="e"/>
-      <c r="M104" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" s="17" t="n">
-        <v>148</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B105" s="19" t="e"/>
       <c r="C105" s="19" t="e"/>
@@ -3181,22 +3159,26 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="I105" s="10" t="e"/>
+        <v>31</v>
+      </c>
+      <c r="I105" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="L105" s="10" t="e"/>
-      <c r="M105" s="10" t="e"/>
+      <c r="M105" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N105" s="9" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B106" s="19" t="e"/>
       <c r="C106" s="19" t="e"/>
@@ -3205,22 +3187,22 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I106" s="10" t="e"/>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L106" s="10" t="e"/>
       <c r="M106" s="10" t="e"/>
       <c r="N106" s="9" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3229,22 +3211,22 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I107" s="10" t="e"/>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L107" s="10" t="e"/>
       <c r="M107" s="10" t="e"/>
       <c r="N107" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B108" s="19" t="e"/>
       <c r="C108" s="19" t="e"/>
@@ -3253,82 +3235,86 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I108" s="10" t="e"/>
+        <v>27</v>
+      </c>
+      <c r="I108" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="L108" s="10" t="e"/>
-      <c r="M108" s="10" t="e"/>
+      <c r="M108" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N108" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A109" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" s="19" t="e"/>
-      <c r="C109" s="19" t="e"/>
-      <c r="D109" s="19" t="e"/>
-      <c r="E109" s="19" t="e"/>
-      <c r="F109" s="19" t="e"/>
-      <c r="G109" s="19" t="e"/>
-      <c r="H109" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="I109" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" s="10" t="e"/>
-      <c r="K109" s="9" t="n">
+    </row>
+    <row r="109" ht="11" customHeight="true">
+      <c r="A109" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="16" t="e"/>
+      <c r="C109" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" s="16" t="e"/>
+      <c r="E109" s="16" t="e"/>
+      <c r="F109" s="16" t="e"/>
+      <c r="G109" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="17" t="n">
+        <v>132</v>
+      </c>
+      <c r="I109" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="J109" s="18" t="e"/>
+      <c r="K109" s="17" t="n">
+        <v>69</v>
+      </c>
+      <c r="L109" s="18" t="e"/>
+      <c r="M109" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="N109" s="17" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A110" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L109" s="10" t="e"/>
-      <c r="M109" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" ht="11" customHeight="true">
-      <c r="A110" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B110" s="16" t="e"/>
-      <c r="C110" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D110" s="16" t="e"/>
-      <c r="E110" s="16" t="e"/>
-      <c r="F110" s="16" t="e"/>
-      <c r="G110" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H110" s="17" t="n">
-        <v>49</v>
-      </c>
-      <c r="I110" s="17" t="n">
-        <v>43</v>
-      </c>
-      <c r="J110" s="18" t="e"/>
-      <c r="K110" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="L110" s="18" t="e"/>
-      <c r="M110" s="17" t="n">
-        <v>43</v>
-      </c>
-      <c r="N110" s="17" t="n">
-        <v>6</v>
+      <c r="B110" s="19" t="e"/>
+      <c r="C110" s="19" t="e"/>
+      <c r="D110" s="19" t="e"/>
+      <c r="E110" s="19" t="e"/>
+      <c r="F110" s="19" t="e"/>
+      <c r="G110" s="19" t="e"/>
+      <c r="H110" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="I110" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="J110" s="10" t="e"/>
+      <c r="K110" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L110" s="10" t="e"/>
+      <c r="M110" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="N110" s="9" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="A111" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B111" s="19" t="e"/>
       <c r="C111" s="19" t="e"/>
@@ -3337,26 +3323,26 @@
       <c r="F111" s="19" t="e"/>
       <c r="G111" s="19" t="e"/>
       <c r="H111" s="9" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I111" s="9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J111" s="10" t="e"/>
       <c r="K111" s="9" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L111" s="10" t="e"/>
       <c r="M111" s="9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N111" s="9" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3365,21 +3351,17 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I112" s="9" t="n">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I112" s="10" t="e"/>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L112" s="10" t="e"/>
-      <c r="M112" s="9" t="n">
-        <v>19</v>
-      </c>
+      <c r="M112" s="10" t="e"/>
       <c r="N112" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
@@ -3393,21 +3375,21 @@
       <c r="F113" s="19" t="e"/>
       <c r="G113" s="19" t="e"/>
       <c r="H113" s="9" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" s="10" t="e"/>
       <c r="K113" s="9" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L113" s="10" t="e"/>
       <c r="M113" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N113" s="9" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true">
@@ -3425,21 +3407,21 @@
         <v>24</v>
       </c>
       <c r="H114" s="17" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I114" s="17" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="J114" s="18" t="e"/>
       <c r="K114" s="17" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L114" s="18" t="e"/>
       <c r="M114" s="17" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="N114" s="17" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
@@ -3453,21 +3435,21 @@
       <c r="F115" s="19" t="e"/>
       <c r="G115" s="19" t="e"/>
       <c r="H115" s="9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I115" s="9" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J115" s="10" t="e"/>
       <c r="K115" s="9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L115" s="10" t="e"/>
       <c r="M115" s="9" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N115" s="9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
@@ -3481,26 +3463,26 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I116" s="9" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L116" s="10" t="e"/>
       <c r="M116" s="9" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N116" s="9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="A117" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B117" s="19" t="e"/>
       <c r="C117" s="19" t="e"/>
@@ -3509,78 +3491,82 @@
       <c r="F117" s="19" t="e"/>
       <c r="G117" s="19" t="e"/>
       <c r="H117" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I117" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I117" s="10" t="e"/>
       <c r="J117" s="10" t="e"/>
       <c r="K117" s="9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L117" s="10" t="e"/>
-      <c r="M117" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M117" s="10" t="e"/>
       <c r="N117" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true">
-      <c r="A118" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A118" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="19" t="e"/>
+      <c r="C118" s="19" t="e"/>
+      <c r="D118" s="19" t="e"/>
+      <c r="E118" s="19" t="e"/>
+      <c r="F118" s="19" t="e"/>
+      <c r="G118" s="19" t="e"/>
+      <c r="H118" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I118" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" s="10" t="e"/>
+      <c r="K118" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L118" s="10" t="e"/>
+      <c r="M118" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true">
+      <c r="A119" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B118" s="16" t="e"/>
-      <c r="C118" s="16" t="s">
+      <c r="B119" s="16" t="e"/>
+      <c r="C119" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D118" s="16" t="e"/>
-      <c r="E118" s="16" t="e"/>
-      <c r="F118" s="16" t="e"/>
-      <c r="G118" s="16" t="s">
+      <c r="D119" s="16" t="e"/>
+      <c r="E119" s="16" t="e"/>
+      <c r="F119" s="16" t="e"/>
+      <c r="G119" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H118" s="17" t="n">
-        <v>92</v>
-      </c>
-      <c r="I118" s="18" t="e"/>
-      <c r="J118" s="18" t="e"/>
-      <c r="K118" s="17" t="n">
-        <v>92</v>
-      </c>
-      <c r="L118" s="18" t="e"/>
-      <c r="M118" s="18" t="e"/>
-      <c r="N118" s="17" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A119" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" s="19" t="e"/>
-      <c r="C119" s="19" t="e"/>
-      <c r="D119" s="19" t="e"/>
-      <c r="E119" s="19" t="e"/>
-      <c r="F119" s="19" t="e"/>
-      <c r="G119" s="19" t="e"/>
-      <c r="H119" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="I119" s="10" t="e"/>
-      <c r="J119" s="10" t="e"/>
-      <c r="K119" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="L119" s="10" t="e"/>
-      <c r="M119" s="10" t="e"/>
-      <c r="N119" s="9" t="n">
-        <v>28</v>
+      <c r="H119" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="I119" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" s="18" t="e"/>
+      <c r="K119" s="17" t="n">
+        <v>89</v>
+      </c>
+      <c r="L119" s="18" t="e"/>
+      <c r="M119" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" s="17" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3589,22 +3575,26 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I120" s="10" t="e"/>
+        <v>26</v>
+      </c>
+      <c r="I120" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L120" s="10" t="e"/>
-      <c r="M120" s="10" t="e"/>
+      <c r="M120" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N120" s="9" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3613,22 +3603,22 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I121" s="10" t="e"/>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L121" s="10" t="e"/>
       <c r="M121" s="10" t="e"/>
       <c r="N121" s="9" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B122" s="19" t="e"/>
       <c r="C122" s="19" t="e"/>
@@ -3637,82 +3627,78 @@
       <c r="F122" s="19" t="e"/>
       <c r="G122" s="19" t="e"/>
       <c r="H122" s="9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I122" s="10" t="e"/>
       <c r="J122" s="10" t="e"/>
       <c r="K122" s="9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L122" s="10" t="e"/>
       <c r="M122" s="10" t="e"/>
       <c r="N122" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A123" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="19" t="e"/>
+      <c r="C123" s="19" t="e"/>
+      <c r="D123" s="19" t="e"/>
+      <c r="E123" s="19" t="e"/>
+      <c r="F123" s="19" t="e"/>
+      <c r="G123" s="19" t="e"/>
+      <c r="H123" s="9" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" ht="11" customHeight="true">
-      <c r="A123" s="16" t="s">
+      <c r="I123" s="10" t="e"/>
+      <c r="J123" s="10" t="e"/>
+      <c r="K123" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L123" s="10" t="e"/>
+      <c r="M123" s="10" t="e"/>
+      <c r="N123" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true">
+      <c r="A124" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B123" s="16" t="e"/>
-      <c r="C123" s="16" t="s">
+      <c r="B124" s="16" t="e"/>
+      <c r="C124" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D123" s="16" t="e"/>
-      <c r="E123" s="16" t="e"/>
-      <c r="F123" s="16" t="e"/>
-      <c r="G123" s="16" t="s">
+      <c r="D124" s="16" t="e"/>
+      <c r="E124" s="16" t="e"/>
+      <c r="F124" s="16" t="e"/>
+      <c r="G124" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H123" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I123" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J123" s="18" t="e"/>
-      <c r="K123" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L123" s="18" t="e"/>
-      <c r="M123" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="N123" s="17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A124" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" s="19" t="e"/>
-      <c r="C124" s="19" t="e"/>
-      <c r="D124" s="19" t="e"/>
-      <c r="E124" s="19" t="e"/>
-      <c r="F124" s="19" t="e"/>
-      <c r="G124" s="19" t="e"/>
-      <c r="H124" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I124" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J124" s="10" t="e"/>
-      <c r="K124" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L124" s="10" t="e"/>
-      <c r="M124" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N124" s="9" t="n">
-        <v>1</v>
+      <c r="H124" s="17" t="n">
+        <v>95</v>
+      </c>
+      <c r="I124" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J124" s="18" t="e"/>
+      <c r="K124" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="L124" s="18" t="e"/>
+      <c r="M124" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N124" s="17" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B125" s="19" t="e"/>
       <c r="C125" s="19" t="e"/>
@@ -3721,26 +3707,26 @@
       <c r="F125" s="19" t="e"/>
       <c r="G125" s="19" t="e"/>
       <c r="H125" s="9" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I125" s="9" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J125" s="10" t="e"/>
       <c r="K125" s="9" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L125" s="10" t="e"/>
       <c r="M125" s="9" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N125" s="9" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3749,49 +3735,241 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" s="10" t="e"/>
+        <v>27</v>
+      </c>
+      <c r="I126" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L126" s="10" t="e"/>
-      <c r="M126" s="10" t="e"/>
+      <c r="M126" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N126" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" ht="13" customHeight="true">
-      <c r="A127" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A127" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="19" t="e"/>
+      <c r="C127" s="19" t="e"/>
+      <c r="D127" s="19" t="e"/>
+      <c r="E127" s="19" t="e"/>
+      <c r="F127" s="19" t="e"/>
+      <c r="G127" s="19" t="e"/>
+      <c r="H127" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I127" s="10" t="e"/>
+      <c r="J127" s="10" t="e"/>
+      <c r="K127" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L127" s="10" t="e"/>
+      <c r="M127" s="10" t="e"/>
+      <c r="N127" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A128" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="19" t="e"/>
+      <c r="C128" s="19" t="e"/>
+      <c r="D128" s="19" t="e"/>
+      <c r="E128" s="19" t="e"/>
+      <c r="F128" s="19" t="e"/>
+      <c r="G128" s="19" t="e"/>
+      <c r="H128" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I128" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="J128" s="10" t="e"/>
+      <c r="K128" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L128" s="10" t="e"/>
+      <c r="M128" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="N128" s="9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true">
+      <c r="A129" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="16" t="e"/>
+      <c r="C129" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="16" t="e"/>
+      <c r="E129" s="16" t="e"/>
+      <c r="F129" s="16" t="e"/>
+      <c r="G129" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" s="17" t="n">
+        <v>109</v>
+      </c>
+      <c r="I129" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="J129" s="18" t="e"/>
+      <c r="K129" s="17" t="n">
+        <v>70</v>
+      </c>
+      <c r="L129" s="18" t="e"/>
+      <c r="M129" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="N129" s="17" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A130" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="19" t="e"/>
+      <c r="C130" s="19" t="e"/>
+      <c r="D130" s="19" t="e"/>
+      <c r="E130" s="19" t="e"/>
+      <c r="F130" s="19" t="e"/>
+      <c r="G130" s="19" t="e"/>
+      <c r="H130" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I130" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J130" s="10" t="e"/>
+      <c r="K130" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L130" s="10" t="e"/>
+      <c r="M130" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="N130" s="9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A131" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" s="19" t="e"/>
+      <c r="C131" s="19" t="e"/>
+      <c r="D131" s="19" t="e"/>
+      <c r="E131" s="19" t="e"/>
+      <c r="F131" s="19" t="e"/>
+      <c r="G131" s="19" t="e"/>
+      <c r="H131" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="I131" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="J131" s="10" t="e"/>
+      <c r="K131" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L131" s="10" t="e"/>
+      <c r="M131" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="N131" s="9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A132" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="19" t="e"/>
+      <c r="C132" s="19" t="e"/>
+      <c r="D132" s="19" t="e"/>
+      <c r="E132" s="19" t="e"/>
+      <c r="F132" s="19" t="e"/>
+      <c r="G132" s="19" t="e"/>
+      <c r="H132" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I132" s="10" t="e"/>
+      <c r="J132" s="10" t="e"/>
+      <c r="K132" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L132" s="10" t="e"/>
+      <c r="M132" s="10" t="e"/>
+      <c r="N132" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A133" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="19" t="e"/>
+      <c r="C133" s="19" t="e"/>
+      <c r="D133" s="19" t="e"/>
+      <c r="E133" s="19" t="e"/>
+      <c r="F133" s="19" t="e"/>
+      <c r="G133" s="19" t="e"/>
+      <c r="H133" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B127" s="12" t="e"/>
-      <c r="C127" s="12" t="e"/>
-      <c r="D127" s="12" t="e"/>
-      <c r="E127" s="12" t="e"/>
-      <c r="F127" s="12" t="e"/>
-      <c r="G127" s="12" t="e"/>
-      <c r="H127" s="13" t="n">
-        <v>2888</v>
-      </c>
-      <c r="I127" s="14" t="n">
-        <v>277</v>
-      </c>
-      <c r="J127" s="15" t="e"/>
-      <c r="K127" s="13" t="n">
-        <v>2611</v>
-      </c>
-      <c r="L127" s="15" t="e"/>
-      <c r="M127" s="14" t="n">
-        <v>277</v>
-      </c>
-      <c r="N127" s="13" t="n">
-        <v>2611</v>
+      <c r="I133" s="10" t="e"/>
+      <c r="J133" s="10" t="e"/>
+      <c r="K133" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L133" s="10" t="e"/>
+      <c r="M133" s="10" t="e"/>
+      <c r="N133" s="9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" ht="13" customHeight="true">
+      <c r="A134" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="12" t="e"/>
+      <c r="C134" s="12" t="e"/>
+      <c r="D134" s="12" t="e"/>
+      <c r="E134" s="12" t="e"/>
+      <c r="F134" s="12" t="e"/>
+      <c r="G134" s="12" t="e"/>
+      <c r="H134" s="13" t="n">
+        <v>2956</v>
+      </c>
+      <c r="I134" s="14" t="n">
+        <v>406</v>
+      </c>
+      <c r="J134" s="15" t="e"/>
+      <c r="K134" s="13" t="n">
+        <v>2550</v>
+      </c>
+      <c r="L134" s="15" t="e"/>
+      <c r="M134" s="14" t="n">
+        <v>406</v>
+      </c>
+      <c r="N134" s="13" t="n">
+        <v>2550</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="167">
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3881,36 +4059,36 @@
     <mergeCell ref="A66:G66"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:F70"/>
     <mergeCell ref="A71:G71"/>
     <mergeCell ref="A72:G72"/>
     <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:F75"/>
     <mergeCell ref="A76:G76"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:F81"/>
     <mergeCell ref="A82:G82"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
     <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
     <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
     <mergeCell ref="A96:G96"/>
@@ -3921,16 +4099,16 @@
     <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="A110:G110"/>
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A112:G112"/>
     <mergeCell ref="A113:G113"/>
@@ -3939,18 +4117,26 @@
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
     <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:F119"/>
     <mergeCell ref="A120:G120"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="A122:G122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:F124"/>
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
     <mergeCell ref="A127:G127"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A134:G134"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Остатки и доступность товаров</t>
   </si>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>7262-КП Садовый приствольный круг ANMAKS КОНТУР-КП-60.06</t>
+  </si>
+  <si>
+    <t>7262-КП(Л)</t>
+  </si>
+  <si>
+    <t>7262-КП(Л) Садовый приствольный круг ANMAKS КОНТУР-КП-60.06</t>
+  </si>
+  <si>
+    <t>7262-КП(Ле)</t>
+  </si>
+  <si>
+    <t>7262-КП(Ле) Садовый приствольный круг ANMAKS КОНТУР-КП-60.06</t>
+  </si>
+  <si>
+    <t>7262-КП(У)</t>
+  </si>
+  <si>
+    <t>7262-КП(У) Садовый приствольный круг ANMAKS КОНТУР-КП-60.06</t>
+  </si>
+  <si>
+    <t>7280</t>
+  </si>
+  <si>
+    <t>7280 Экобордюр  КОНТУР Б-100.08.08-ПП пластиковый  черный  L-1000 мм,  H-80 мм</t>
   </si>
   <si>
     <t>7280-К-8</t>
@@ -478,18 +502,18 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N134"/>
+  <dimension ref="N151"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="true"/>
-    <col min="2" max="2" width="2.33203125" style="1" customWidth="true"/>
-    <col min="3" max="3" width="1.83203125" style="1" customWidth="true"/>
-    <col min="4" max="4" width="51.5" style="1" customWidth="true"/>
+    <col min="2" max="2" width="4.16796875" style="1" customWidth="true"/>
+    <col min="3" max="3" width="0.66796875" style="1" customWidth="true"/>
+    <col min="4" max="4" width="50.83203125" style="1" customWidth="true"/>
     <col min="5" max="5" width="18.5" style="1" customWidth="true"/>
-    <col min="6" max="6" width="3" style="1" customWidth="true"/>
+    <col min="6" max="6" width="5.33203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="7.16796875" style="1" customWidth="true"/>
     <col min="8" max="8" width="14" style="1" customWidth="true"/>
     <col min="9" max="9" width="16.33203125" style="1" customWidth="true"/>
@@ -515,17 +539,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="e"/>
-      <c r="C4" s="3" t="e"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="4" t="e"/>
       <c r="E4" s="4" t="e"/>
       <c r="F4" s="4" t="e"/>
       <c r="G4" s="4" t="e"/>
       <c r="H4" s="4" t="e"/>
       <c r="I4" s="4" t="e"/>
       <c r="J4" s="4" t="e"/>
-      <c r="K4" s="4" t="e"/>
     </row>
     <row r="5" ht="10" customHeight="true" s="1" customFormat="true"/>
     <row r="6" ht="13" customHeight="true">
@@ -555,10 +578,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="e"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="5" t="e"/>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="e"/>
       <c r="E7" s="5" t="e"/>
       <c r="F7" s="5" t="e"/>
       <c r="G7" s="5" t="s">
@@ -615,21 +638,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="L9" s="10" t="e"/>
       <c r="M9" s="9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -667,21 +690,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1156</v>
+        <v>1270</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1114</v>
+        <v>1230</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1114</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -695,21 +718,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1568</v>
+        <v>1678</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1207</v>
+        <v>1421</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1207</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -723,21 +746,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2956</v>
+        <v>3201</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2550</v>
+        <v>2896</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2550</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -745,27 +768,31 @@
         <v>22</v>
       </c>
       <c r="B14" s="16" t="e"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="16" t="e"/>
+      <c r="D14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="16" t="e"/>
       <c r="E14" s="16" t="e"/>
       <c r="F14" s="16" t="e"/>
       <c r="G14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="I14" s="18" t="e"/>
+        <v>34</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L14" s="18" t="e"/>
-      <c r="M14" s="18" t="e"/>
+      <c r="M14" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" s="17" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
@@ -779,17 +806,17 @@
       <c r="F15" s="19" t="e"/>
       <c r="G15" s="19" t="e"/>
       <c r="H15" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="10" t="e"/>
       <c r="J15" s="10" t="e"/>
       <c r="K15" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" s="10" t="e"/>
       <c r="M15" s="10" t="e"/>
       <c r="N15" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="1">
@@ -803,17 +830,17 @@
       <c r="F16" s="19" t="e"/>
       <c r="G16" s="19" t="e"/>
       <c r="H16" s="9" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I16" s="10" t="e"/>
       <c r="J16" s="10" t="e"/>
       <c r="K16" s="9" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L16" s="10" t="e"/>
       <c r="M16" s="10" t="e"/>
       <c r="N16" s="9" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="1">
@@ -827,17 +854,21 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I17" s="10" t="e"/>
+        <v>14</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L17" s="10" t="e"/>
-      <c r="M17" s="10" t="e"/>
+      <c r="M17" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" s="9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -845,31 +876,31 @@
         <v>28</v>
       </c>
       <c r="B18" s="16" t="e"/>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="16" t="e"/>
+      <c r="D18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="16" t="e"/>
       <c r="E18" s="16" t="e"/>
       <c r="F18" s="16" t="e"/>
       <c r="G18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="17" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I18" s="17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J18" s="18" t="e"/>
       <c r="K18" s="17" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L18" s="18" t="e"/>
       <c r="M18" s="17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N18" s="17" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="1">
@@ -883,26 +914,22 @@
       <c r="F19" s="19" t="e"/>
       <c r="G19" s="19" t="e"/>
       <c r="H19" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I19" s="10" t="e"/>
       <c r="J19" s="10" t="e"/>
       <c r="K19" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L19" s="10" t="e"/>
-      <c r="M19" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M19" s="10" t="e"/>
       <c r="N19" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
       <c r="A20" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="19" t="e"/>
       <c r="C20" s="19" t="e"/>
@@ -911,182 +938,182 @@
       <c r="F20" s="19" t="e"/>
       <c r="G20" s="19" t="e"/>
       <c r="H20" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I20" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I20" s="10" t="e"/>
       <c r="J20" s="10" t="e"/>
       <c r="K20" s="9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" s="10" t="e"/>
-      <c r="M20" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M20" s="10" t="e"/>
       <c r="N20" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" ht="22" customHeight="true">
-      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="19" t="e"/>
+      <c r="C21" s="19" t="e"/>
+      <c r="D21" s="19" t="e"/>
+      <c r="E21" s="19" t="e"/>
+      <c r="F21" s="19" t="e"/>
+      <c r="G21" s="19" t="e"/>
+      <c r="H21" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" s="10" t="e"/>
+      <c r="K21" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L21" s="10" t="e"/>
+      <c r="M21" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" s="9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true">
+      <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="16" t="e"/>
-      <c r="C21" s="16" t="s">
+      <c r="B22" s="16" t="e"/>
+      <c r="C22" s="16" t="e"/>
+      <c r="D22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="16" t="e"/>
-      <c r="E21" s="16" t="e"/>
-      <c r="F21" s="16" t="e"/>
-      <c r="G21" s="16" t="s">
+      <c r="E22" s="16" t="e"/>
+      <c r="F22" s="16" t="e"/>
+      <c r="G22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="17" t="n">
+      <c r="H22" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="I21" s="18" t="e"/>
-      <c r="J21" s="18" t="e"/>
-      <c r="K21" s="17" t="n">
+      <c r="I22" s="18" t="e"/>
+      <c r="J22" s="18" t="e"/>
+      <c r="K22" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="L21" s="18" t="e"/>
-      <c r="M21" s="18" t="e"/>
-      <c r="N21" s="17" t="n">
+      <c r="L22" s="18" t="e"/>
+      <c r="M22" s="18" t="e"/>
+      <c r="N22" s="17" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A22" s="19" t="s">
+    <row r="23" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="19" t="e"/>
-      <c r="C22" s="19" t="e"/>
-      <c r="D22" s="19" t="e"/>
-      <c r="E22" s="19" t="e"/>
-      <c r="F22" s="19" t="e"/>
-      <c r="G22" s="19" t="e"/>
-      <c r="H22" s="9" t="n">
+      <c r="B23" s="19" t="e"/>
+      <c r="C23" s="19" t="e"/>
+      <c r="D23" s="19" t="e"/>
+      <c r="E23" s="19" t="e"/>
+      <c r="F23" s="19" t="e"/>
+      <c r="G23" s="19" t="e"/>
+      <c r="H23" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="I22" s="10" t="e"/>
-      <c r="J22" s="10" t="e"/>
-      <c r="K22" s="9" t="n">
+      <c r="I23" s="10" t="e"/>
+      <c r="J23" s="10" t="e"/>
+      <c r="K23" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="L22" s="10" t="e"/>
-      <c r="M22" s="10" t="e"/>
-      <c r="N22" s="9" t="n">
+      <c r="L23" s="10" t="e"/>
+      <c r="M23" s="10" t="e"/>
+      <c r="N23" s="9" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="22" customHeight="true">
-      <c r="A23" s="16" t="s">
+    <row r="24" ht="22" customHeight="true">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="16" t="e"/>
-      <c r="C23" s="16" t="s">
+      <c r="B24" s="16" t="e"/>
+      <c r="C24" s="16" t="e"/>
+      <c r="D24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="16" t="e"/>
-      <c r="E23" s="16" t="e"/>
-      <c r="F23" s="16" t="e"/>
-      <c r="G23" s="16" t="s">
+      <c r="E24" s="16" t="e"/>
+      <c r="F24" s="16" t="e"/>
+      <c r="G24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="17" t="n">
+      <c r="H24" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="I23" s="18" t="e"/>
-      <c r="J23" s="18" t="e"/>
-      <c r="K23" s="17" t="n">
+      <c r="I24" s="18" t="e"/>
+      <c r="J24" s="18" t="e"/>
+      <c r="K24" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="L23" s="18" t="e"/>
-      <c r="M23" s="18" t="e"/>
-      <c r="N23" s="17" t="n">
+      <c r="L24" s="18" t="e"/>
+      <c r="M24" s="18" t="e"/>
+      <c r="N24" s="17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A24" s="19" t="s">
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="19" t="e"/>
-      <c r="C24" s="19" t="e"/>
-      <c r="D24" s="19" t="e"/>
-      <c r="E24" s="19" t="e"/>
-      <c r="F24" s="19" t="e"/>
-      <c r="G24" s="19" t="e"/>
-      <c r="H24" s="9" t="n">
+      <c r="B25" s="19" t="e"/>
+      <c r="C25" s="19" t="e"/>
+      <c r="D25" s="19" t="e"/>
+      <c r="E25" s="19" t="e"/>
+      <c r="F25" s="19" t="e"/>
+      <c r="G25" s="19" t="e"/>
+      <c r="H25" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I24" s="10" t="e"/>
-      <c r="J24" s="10" t="e"/>
-      <c r="K24" s="9" t="n">
+      <c r="I25" s="10" t="e"/>
+      <c r="J25" s="10" t="e"/>
+      <c r="K25" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L24" s="10" t="e"/>
-      <c r="M24" s="10" t="e"/>
-      <c r="N24" s="9" t="n">
+      <c r="L25" s="10" t="e"/>
+      <c r="M25" s="10" t="e"/>
+      <c r="N25" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="22" customHeight="true">
-      <c r="A25" s="16" t="s">
+    <row r="26" ht="22" customHeight="true">
+      <c r="A26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="16" t="e"/>
-      <c r="C25" s="16" t="s">
+      <c r="B26" s="16" t="e"/>
+      <c r="C26" s="16" t="e"/>
+      <c r="D26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="16" t="e"/>
-      <c r="E25" s="16" t="e"/>
-      <c r="F25" s="16" t="e"/>
-      <c r="G25" s="16" t="s">
+      <c r="E26" s="16" t="e"/>
+      <c r="F26" s="16" t="e"/>
+      <c r="G26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="17" t="n">
+      <c r="H26" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="I25" s="18" t="e"/>
-      <c r="J25" s="18" t="e"/>
-      <c r="K25" s="17" t="n">
+      <c r="I26" s="18" t="e"/>
+      <c r="J26" s="18" t="e"/>
+      <c r="K26" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="L25" s="18" t="e"/>
-      <c r="M25" s="18" t="e"/>
-      <c r="N25" s="17" t="n">
+      <c r="L26" s="18" t="e"/>
+      <c r="M26" s="18" t="e"/>
+      <c r="N26" s="17" t="n">
         <v>82</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="19" t="e"/>
-      <c r="C26" s="19" t="e"/>
-      <c r="D26" s="19" t="e"/>
-      <c r="E26" s="19" t="e"/>
-      <c r="F26" s="19" t="e"/>
-      <c r="G26" s="19" t="e"/>
-      <c r="H26" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I26" s="10" t="e"/>
-      <c r="J26" s="10" t="e"/>
-      <c r="K26" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="L26" s="10" t="e"/>
-      <c r="M26" s="10" t="e"/>
-      <c r="N26" s="9" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="A27" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="19" t="e"/>
       <c r="C27" s="19" t="e"/>
@@ -1095,74 +1122,74 @@
       <c r="F27" s="19" t="e"/>
       <c r="G27" s="19" t="e"/>
       <c r="H27" s="9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I27" s="10" t="e"/>
       <c r="J27" s="10" t="e"/>
       <c r="K27" s="9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L27" s="10" t="e"/>
       <c r="M27" s="10" t="e"/>
       <c r="N27" s="9" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="e"/>
+      <c r="C28" s="19" t="e"/>
+      <c r="D28" s="19" t="e"/>
+      <c r="E28" s="19" t="e"/>
+      <c r="F28" s="19" t="e"/>
+      <c r="G28" s="19" t="e"/>
+      <c r="H28" s="9" t="n">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" ht="22" customHeight="true">
-      <c r="A28" s="16" t="s">
+      <c r="I28" s="10" t="e"/>
+      <c r="J28" s="10" t="e"/>
+      <c r="K28" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B28" s="16" t="e"/>
-      <c r="C28" s="16" t="s">
+      <c r="L28" s="10" t="e"/>
+      <c r="M28" s="10" t="e"/>
+      <c r="N28" s="9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true">
+      <c r="A29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="16" t="e"/>
+      <c r="C29" s="16" t="e"/>
+      <c r="D29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="16" t="e"/>
-      <c r="E28" s="16" t="e"/>
-      <c r="F28" s="16" t="e"/>
-      <c r="G28" s="16" t="s">
+      <c r="E29" s="16" t="e"/>
+      <c r="F29" s="16" t="e"/>
+      <c r="G29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="17" t="n">
+      <c r="H29" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="I28" s="18" t="e"/>
-      <c r="J28" s="18" t="e"/>
-      <c r="K28" s="17" t="n">
+      <c r="I29" s="18" t="e"/>
+      <c r="J29" s="18" t="e"/>
+      <c r="K29" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="L28" s="18" t="e"/>
-      <c r="M28" s="18" t="e"/>
-      <c r="N28" s="17" t="n">
+      <c r="L29" s="18" t="e"/>
+      <c r="M29" s="18" t="e"/>
+      <c r="N29" s="17" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="19" t="e"/>
-      <c r="C29" s="19" t="e"/>
-      <c r="D29" s="19" t="e"/>
-      <c r="E29" s="19" t="e"/>
-      <c r="F29" s="19" t="e"/>
-      <c r="G29" s="19" t="e"/>
-      <c r="H29" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" s="10" t="e"/>
-      <c r="J29" s="10" t="e"/>
-      <c r="K29" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" s="10" t="e"/>
-      <c r="M29" s="10" t="e"/>
-      <c r="N29" s="9" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="A30" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" s="19" t="e"/>
       <c r="C30" s="19" t="e"/>
@@ -1171,74 +1198,74 @@
       <c r="F30" s="19" t="e"/>
       <c r="G30" s="19" t="e"/>
       <c r="H30" s="9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I30" s="10" t="e"/>
       <c r="J30" s="10" t="e"/>
       <c r="K30" s="9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L30" s="10" t="e"/>
       <c r="M30" s="10" t="e"/>
       <c r="N30" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="19" t="e"/>
+      <c r="C31" s="19" t="e"/>
+      <c r="D31" s="19" t="e"/>
+      <c r="E31" s="19" t="e"/>
+      <c r="F31" s="19" t="e"/>
+      <c r="G31" s="19" t="e"/>
+      <c r="H31" s="9" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" ht="22" customHeight="true">
-      <c r="A31" s="16" t="s">
+      <c r="I31" s="10" t="e"/>
+      <c r="J31" s="10" t="e"/>
+      <c r="K31" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L31" s="10" t="e"/>
+      <c r="M31" s="10" t="e"/>
+      <c r="N31" s="9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="16" t="e"/>
-      <c r="C31" s="16" t="s">
+      <c r="B32" s="16" t="e"/>
+      <c r="C32" s="16" t="e"/>
+      <c r="D32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="16" t="e"/>
-      <c r="E31" s="16" t="e"/>
-      <c r="F31" s="16" t="e"/>
-      <c r="G31" s="16" t="s">
+      <c r="E32" s="16" t="e"/>
+      <c r="F32" s="16" t="e"/>
+      <c r="G32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="17" t="n">
+      <c r="H32" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="I31" s="18" t="e"/>
-      <c r="J31" s="18" t="e"/>
-      <c r="K31" s="17" t="n">
+      <c r="I32" s="18" t="e"/>
+      <c r="J32" s="18" t="e"/>
+      <c r="K32" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="L31" s="18" t="e"/>
-      <c r="M31" s="18" t="e"/>
-      <c r="N31" s="17" t="n">
+      <c r="L32" s="18" t="e"/>
+      <c r="M32" s="18" t="e"/>
+      <c r="N32" s="17" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="19" t="e"/>
-      <c r="C32" s="19" t="e"/>
-      <c r="D32" s="19" t="e"/>
-      <c r="E32" s="19" t="e"/>
-      <c r="F32" s="19" t="e"/>
-      <c r="G32" s="19" t="e"/>
-      <c r="H32" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" s="10" t="e"/>
-      <c r="J32" s="10" t="e"/>
-      <c r="K32" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L32" s="10" t="e"/>
-      <c r="M32" s="10" t="e"/>
-      <c r="N32" s="9" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B33" s="19" t="e"/>
       <c r="C33" s="19" t="e"/>
@@ -1247,178 +1274,178 @@
       <c r="F33" s="19" t="e"/>
       <c r="G33" s="19" t="e"/>
       <c r="H33" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I33" s="10" t="e"/>
       <c r="J33" s="10" t="e"/>
       <c r="K33" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L33" s="10" t="e"/>
       <c r="M33" s="10" t="e"/>
       <c r="N33" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="19" t="e"/>
+      <c r="C34" s="19" t="e"/>
+      <c r="D34" s="19" t="e"/>
+      <c r="E34" s="19" t="e"/>
+      <c r="F34" s="19" t="e"/>
+      <c r="G34" s="19" t="e"/>
+      <c r="H34" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" ht="22" customHeight="true">
-      <c r="A34" s="16" t="s">
+      <c r="I34" s="10" t="e"/>
+      <c r="J34" s="10" t="e"/>
+      <c r="K34" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="10" t="e"/>
+      <c r="M34" s="10" t="e"/>
+      <c r="N34" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true">
+      <c r="A35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="16" t="e"/>
-      <c r="C34" s="16" t="s">
+      <c r="B35" s="16" t="e"/>
+      <c r="C35" s="16" t="e"/>
+      <c r="D35" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="16" t="e"/>
-      <c r="E34" s="16" t="e"/>
-      <c r="F34" s="16" t="e"/>
-      <c r="G34" s="16" t="s">
+      <c r="E35" s="16" t="e"/>
+      <c r="F35" s="16" t="e"/>
+      <c r="G35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="17" t="n">
+      <c r="H35" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="I34" s="18" t="e"/>
-      <c r="J34" s="18" t="e"/>
-      <c r="K34" s="17" t="n">
+      <c r="I35" s="18" t="e"/>
+      <c r="J35" s="18" t="e"/>
+      <c r="K35" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="L34" s="18" t="e"/>
-      <c r="M34" s="18" t="e"/>
-      <c r="N34" s="17" t="n">
+      <c r="L35" s="18" t="e"/>
+      <c r="M35" s="18" t="e"/>
+      <c r="N35" s="17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A35" s="19" t="s">
+    <row r="36" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A36" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="19" t="e"/>
-      <c r="C35" s="19" t="e"/>
-      <c r="D35" s="19" t="e"/>
-      <c r="E35" s="19" t="e"/>
-      <c r="F35" s="19" t="e"/>
-      <c r="G35" s="19" t="e"/>
-      <c r="H35" s="9" t="n">
+      <c r="B36" s="19" t="e"/>
+      <c r="C36" s="19" t="e"/>
+      <c r="D36" s="19" t="e"/>
+      <c r="E36" s="19" t="e"/>
+      <c r="F36" s="19" t="e"/>
+      <c r="G36" s="19" t="e"/>
+      <c r="H36" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I35" s="10" t="e"/>
-      <c r="J35" s="10" t="e"/>
-      <c r="K35" s="9" t="n">
+      <c r="I36" s="10" t="e"/>
+      <c r="J36" s="10" t="e"/>
+      <c r="K36" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L35" s="10" t="e"/>
-      <c r="M35" s="10" t="e"/>
-      <c r="N35" s="9" t="n">
+      <c r="L36" s="10" t="e"/>
+      <c r="M36" s="10" t="e"/>
+      <c r="N36" s="9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="11" customHeight="true">
-      <c r="A36" s="16" t="s">
+    <row r="37" ht="11" customHeight="true">
+      <c r="A37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="16" t="e"/>
-      <c r="C36" s="16" t="s">
+      <c r="B37" s="16" t="e"/>
+      <c r="C37" s="16" t="e"/>
+      <c r="D37" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="16" t="e"/>
-      <c r="E36" s="16" t="e"/>
-      <c r="F36" s="16" t="e"/>
-      <c r="G36" s="16" t="s">
+      <c r="E37" s="16" t="e"/>
+      <c r="F37" s="16" t="e"/>
+      <c r="G37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="17" t="n">
+      <c r="H37" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="I36" s="18" t="e"/>
-      <c r="J36" s="18" t="e"/>
-      <c r="K36" s="17" t="n">
+      <c r="I37" s="18" t="e"/>
+      <c r="J37" s="18" t="e"/>
+      <c r="K37" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="L36" s="18" t="e"/>
-      <c r="M36" s="18" t="e"/>
-      <c r="N36" s="17" t="n">
+      <c r="L37" s="18" t="e"/>
+      <c r="M37" s="18" t="e"/>
+      <c r="N37" s="17" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A37" s="19" t="s">
+    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A38" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="19" t="e"/>
-      <c r="C37" s="19" t="e"/>
-      <c r="D37" s="19" t="e"/>
-      <c r="E37" s="19" t="e"/>
-      <c r="F37" s="19" t="e"/>
-      <c r="G37" s="19" t="e"/>
-      <c r="H37" s="9" t="n">
+      <c r="B38" s="19" t="e"/>
+      <c r="C38" s="19" t="e"/>
+      <c r="D38" s="19" t="e"/>
+      <c r="E38" s="19" t="e"/>
+      <c r="F38" s="19" t="e"/>
+      <c r="G38" s="19" t="e"/>
+      <c r="H38" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="I37" s="10" t="e"/>
-      <c r="J37" s="10" t="e"/>
-      <c r="K37" s="9" t="n">
+      <c r="I38" s="10" t="e"/>
+      <c r="J38" s="10" t="e"/>
+      <c r="K38" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="L37" s="10" t="e"/>
-      <c r="M37" s="10" t="e"/>
-      <c r="N37" s="9" t="n">
+      <c r="L38" s="10" t="e"/>
+      <c r="M38" s="10" t="e"/>
+      <c r="N38" s="9" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="38" ht="11" customHeight="true">
-      <c r="A38" s="16" t="s">
+    <row r="39" ht="11" customHeight="true">
+      <c r="A39" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="16" t="e"/>
-      <c r="C38" s="16" t="s">
+      <c r="B39" s="16" t="e"/>
+      <c r="C39" s="16" t="e"/>
+      <c r="D39" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="16" t="e"/>
-      <c r="E38" s="16" t="e"/>
-      <c r="F38" s="16" t="e"/>
-      <c r="G38" s="16" t="s">
+      <c r="E39" s="16" t="e"/>
+      <c r="F39" s="16" t="e"/>
+      <c r="G39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="17" t="n">
-        <v>263</v>
-      </c>
-      <c r="I38" s="18" t="e"/>
-      <c r="J38" s="18" t="e"/>
-      <c r="K38" s="17" t="n">
-        <v>263</v>
-      </c>
-      <c r="L38" s="18" t="e"/>
-      <c r="M38" s="18" t="e"/>
-      <c r="N38" s="17" t="n">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="19" t="e"/>
-      <c r="C39" s="19" t="e"/>
-      <c r="D39" s="19" t="e"/>
-      <c r="E39" s="19" t="e"/>
-      <c r="F39" s="19" t="e"/>
-      <c r="G39" s="19" t="e"/>
-      <c r="H39" s="9" t="n">
-        <v>110</v>
-      </c>
-      <c r="I39" s="10" t="e"/>
-      <c r="J39" s="10" t="e"/>
-      <c r="K39" s="9" t="n">
-        <v>110</v>
-      </c>
-      <c r="L39" s="10" t="e"/>
-      <c r="M39" s="10" t="e"/>
-      <c r="N39" s="9" t="n">
-        <v>110</v>
+      <c r="H39" s="17" t="n">
+        <v>248</v>
+      </c>
+      <c r="I39" s="18" t="e"/>
+      <c r="J39" s="18" t="e"/>
+      <c r="K39" s="17" t="n">
+        <v>248</v>
+      </c>
+      <c r="L39" s="18" t="e"/>
+      <c r="M39" s="18" t="e"/>
+      <c r="N39" s="17" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="1">
       <c r="A40" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" s="19" t="e"/>
       <c r="C40" s="19" t="e"/>
@@ -1427,22 +1454,22 @@
       <c r="F40" s="19" t="e"/>
       <c r="G40" s="19" t="e"/>
       <c r="H40" s="9" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I40" s="10" t="e"/>
       <c r="J40" s="10" t="e"/>
       <c r="K40" s="9" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L40" s="10" t="e"/>
       <c r="M40" s="10" t="e"/>
       <c r="N40" s="9" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="1">
       <c r="A41" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="19" t="e"/>
       <c r="C41" s="19" t="e"/>
@@ -1451,78 +1478,78 @@
       <c r="F41" s="19" t="e"/>
       <c r="G41" s="19" t="e"/>
       <c r="H41" s="9" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="I41" s="10" t="e"/>
       <c r="J41" s="10" t="e"/>
       <c r="K41" s="9" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="L41" s="10" t="e"/>
       <c r="M41" s="10" t="e"/>
       <c r="N41" s="9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="19" t="e"/>
+      <c r="C42" s="19" t="e"/>
+      <c r="D42" s="19" t="e"/>
+      <c r="E42" s="19" t="e"/>
+      <c r="F42" s="19" t="e"/>
+      <c r="G42" s="19" t="e"/>
+      <c r="H42" s="9" t="n">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" ht="22" customHeight="true">
-      <c r="A42" s="16" t="s">
+      <c r="I42" s="10" t="e"/>
+      <c r="J42" s="10" t="e"/>
+      <c r="K42" s="9" t="n">
+        <v>103</v>
+      </c>
+      <c r="L42" s="10" t="e"/>
+      <c r="M42" s="10" t="e"/>
+      <c r="N42" s="9" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true">
+      <c r="A43" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16" t="e"/>
-      <c r="C42" s="16" t="s">
+      <c r="B43" s="16" t="e"/>
+      <c r="C43" s="16" t="e"/>
+      <c r="D43" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="16" t="e"/>
-      <c r="E42" s="16" t="e"/>
-      <c r="F42" s="16" t="e"/>
-      <c r="G42" s="16" t="s">
+      <c r="E43" s="16" t="e"/>
+      <c r="F43" s="16" t="e"/>
+      <c r="G43" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="17" t="n">
-        <v>160</v>
-      </c>
-      <c r="I42" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" s="18" t="e"/>
-      <c r="K42" s="17" t="n">
-        <v>154</v>
-      </c>
-      <c r="L42" s="18" t="e"/>
-      <c r="M42" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N42" s="17" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="19" t="e"/>
-      <c r="C43" s="19" t="e"/>
-      <c r="D43" s="19" t="e"/>
-      <c r="E43" s="19" t="e"/>
-      <c r="F43" s="19" t="e"/>
-      <c r="G43" s="19" t="e"/>
-      <c r="H43" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="I43" s="10" t="e"/>
-      <c r="J43" s="10" t="e"/>
-      <c r="K43" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="L43" s="10" t="e"/>
-      <c r="M43" s="10" t="e"/>
-      <c r="N43" s="9" t="n">
-        <v>48</v>
+      <c r="H43" s="17" t="n">
+        <v>142</v>
+      </c>
+      <c r="I43" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" s="18" t="e"/>
+      <c r="K43" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="L43" s="18" t="e"/>
+      <c r="M43" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="17" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="A44" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B44" s="19" t="e"/>
       <c r="C44" s="19" t="e"/>
@@ -1531,26 +1558,22 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I44" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I44" s="10" t="e"/>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L44" s="10" t="e"/>
-      <c r="M44" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M44" s="10" t="e"/>
       <c r="N44" s="9" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="A45" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B45" s="19" t="e"/>
       <c r="C45" s="19" t="e"/>
@@ -1559,22 +1582,22 @@
       <c r="F45" s="19" t="e"/>
       <c r="G45" s="19" t="e"/>
       <c r="H45" s="9" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I45" s="10" t="e"/>
       <c r="J45" s="10" t="e"/>
       <c r="K45" s="9" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L45" s="10" t="e"/>
       <c r="M45" s="10" t="e"/>
       <c r="N45" s="9" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
       <c r="A46" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B46" s="19" t="e"/>
       <c r="C46" s="19" t="e"/>
@@ -1583,22 +1606,22 @@
       <c r="F46" s="19" t="e"/>
       <c r="G46" s="19" t="e"/>
       <c r="H46" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I46" s="10" t="e"/>
       <c r="J46" s="10" t="e"/>
       <c r="K46" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L46" s="10" t="e"/>
       <c r="M46" s="10" t="e"/>
       <c r="N46" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="A47" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="19" t="e"/>
       <c r="C47" s="19" t="e"/>
@@ -1607,78 +1630,78 @@
       <c r="F47" s="19" t="e"/>
       <c r="G47" s="19" t="e"/>
       <c r="H47" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I47" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I47" s="10" t="e"/>
       <c r="J47" s="10" t="e"/>
       <c r="K47" s="9" t="n">
         <v>30</v>
       </c>
       <c r="L47" s="10" t="e"/>
-      <c r="M47" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M47" s="10" t="e"/>
       <c r="N47" s="9" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="48" ht="11" customHeight="true">
-      <c r="A48" s="16" t="s">
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A48" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="19" t="e"/>
+      <c r="C48" s="19" t="e"/>
+      <c r="D48" s="19" t="e"/>
+      <c r="E48" s="19" t="e"/>
+      <c r="F48" s="19" t="e"/>
+      <c r="G48" s="19" t="e"/>
+      <c r="H48" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I48" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" s="10" t="e"/>
+      <c r="K48" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L48" s="10" t="e"/>
+      <c r="M48" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="16" t="e"/>
-      <c r="C48" s="16" t="s">
+      <c r="B49" s="16" t="e"/>
+      <c r="C49" s="16" t="e"/>
+      <c r="D49" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="16" t="e"/>
-      <c r="E48" s="16" t="e"/>
-      <c r="F48" s="16" t="e"/>
-      <c r="G48" s="16" t="s">
+      <c r="E49" s="16" t="e"/>
+      <c r="F49" s="16" t="e"/>
+      <c r="G49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="17" t="n">
-        <v>172</v>
-      </c>
-      <c r="I48" s="18" t="e"/>
-      <c r="J48" s="18" t="e"/>
-      <c r="K48" s="17" t="n">
-        <v>172</v>
-      </c>
-      <c r="L48" s="18" t="e"/>
-      <c r="M48" s="18" t="e"/>
-      <c r="N48" s="17" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="19" t="e"/>
-      <c r="C49" s="19" t="e"/>
-      <c r="D49" s="19" t="e"/>
-      <c r="E49" s="19" t="e"/>
-      <c r="F49" s="19" t="e"/>
-      <c r="G49" s="19" t="e"/>
-      <c r="H49" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I49" s="10" t="e"/>
-      <c r="J49" s="10" t="e"/>
-      <c r="K49" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="L49" s="10" t="e"/>
-      <c r="M49" s="10" t="e"/>
-      <c r="N49" s="9" t="n">
-        <v>31</v>
+      <c r="H49" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="I49" s="18" t="e"/>
+      <c r="J49" s="18" t="e"/>
+      <c r="K49" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="L49" s="18" t="e"/>
+      <c r="M49" s="18" t="e"/>
+      <c r="N49" s="17" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B50" s="19" t="e"/>
       <c r="C50" s="19" t="e"/>
@@ -1687,22 +1710,22 @@
       <c r="F50" s="19" t="e"/>
       <c r="G50" s="19" t="e"/>
       <c r="H50" s="9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I50" s="10" t="e"/>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L50" s="10" t="e"/>
       <c r="M50" s="10" t="e"/>
       <c r="N50" s="9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="1">
       <c r="A51" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="19" t="e"/>
       <c r="C51" s="19" t="e"/>
@@ -1711,78 +1734,74 @@
       <c r="F51" s="19" t="e"/>
       <c r="G51" s="19" t="e"/>
       <c r="H51" s="9" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I51" s="10" t="e"/>
       <c r="J51" s="10" t="e"/>
       <c r="K51" s="9" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="L51" s="10" t="e"/>
       <c r="M51" s="10" t="e"/>
       <c r="N51" s="9" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" ht="22" customHeight="true">
-      <c r="A52" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="19" t="e"/>
+      <c r="C52" s="19" t="e"/>
+      <c r="D52" s="19" t="e"/>
+      <c r="E52" s="19" t="e"/>
+      <c r="F52" s="19" t="e"/>
+      <c r="G52" s="19" t="e"/>
+      <c r="H52" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="I52" s="10" t="e"/>
+      <c r="J52" s="10" t="e"/>
+      <c r="K52" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="L52" s="10" t="e"/>
+      <c r="M52" s="10" t="e"/>
+      <c r="N52" s="9" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
+      <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="16" t="e"/>
-      <c r="C52" s="16" t="s">
+      <c r="B53" s="16" t="e"/>
+      <c r="C53" s="16" t="e"/>
+      <c r="D53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="16" t="e"/>
-      <c r="E52" s="16" t="e"/>
-      <c r="F52" s="16" t="e"/>
-      <c r="G52" s="16" t="s">
+      <c r="E53" s="16" t="e"/>
+      <c r="F53" s="16" t="e"/>
+      <c r="G53" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="17" t="n">
-        <v>176</v>
-      </c>
-      <c r="I52" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J52" s="18" t="e"/>
-      <c r="K52" s="17" t="n">
-        <v>161</v>
-      </c>
-      <c r="L52" s="18" t="e"/>
-      <c r="M52" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="N52" s="17" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="19" t="e"/>
-      <c r="C53" s="19" t="e"/>
-      <c r="D53" s="19" t="e"/>
-      <c r="E53" s="19" t="e"/>
-      <c r="F53" s="19" t="e"/>
-      <c r="G53" s="19" t="e"/>
-      <c r="H53" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I53" s="10" t="e"/>
-      <c r="J53" s="10" t="e"/>
-      <c r="K53" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="L53" s="10" t="e"/>
-      <c r="M53" s="10" t="e"/>
-      <c r="N53" s="9" t="n">
-        <v>35</v>
+      <c r="H53" s="17" t="n">
+        <v>154</v>
+      </c>
+      <c r="I53" s="18" t="e"/>
+      <c r="J53" s="18" t="e"/>
+      <c r="K53" s="17" t="n">
+        <v>154</v>
+      </c>
+      <c r="L53" s="18" t="e"/>
+      <c r="M53" s="18" t="e"/>
+      <c r="N53" s="17" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1791,26 +1810,22 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="I54" s="9" t="n">
-        <v>14</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I54" s="10" t="e"/>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L54" s="10" t="e"/>
-      <c r="M54" s="9" t="n">
-        <v>14</v>
-      </c>
+      <c r="M54" s="10" t="e"/>
       <c r="N54" s="9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1819,22 +1834,22 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L55" s="10" t="e"/>
       <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="A56" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B56" s="19" t="e"/>
       <c r="C56" s="19" t="e"/>
@@ -1843,22 +1858,22 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I56" s="10" t="e"/>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L56" s="10" t="e"/>
       <c r="M56" s="10" t="e"/>
       <c r="N56" s="9" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
       <c r="A57" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" s="19" t="e"/>
       <c r="C57" s="19" t="e"/>
@@ -1867,86 +1882,78 @@
       <c r="F57" s="19" t="e"/>
       <c r="G57" s="19" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I57" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I57" s="10" t="e"/>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L57" s="10" t="e"/>
-      <c r="M57" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M57" s="10" t="e"/>
       <c r="N57" s="9" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
-      <c r="A58" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A58" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="19" t="e"/>
+      <c r="C58" s="19" t="e"/>
+      <c r="D58" s="19" t="e"/>
+      <c r="E58" s="19" t="e"/>
+      <c r="F58" s="19" t="e"/>
+      <c r="G58" s="19" t="e"/>
+      <c r="H58" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="I58" s="10" t="e"/>
+      <c r="J58" s="10" t="e"/>
+      <c r="K58" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="L58" s="10" t="e"/>
+      <c r="M58" s="10" t="e"/>
+      <c r="N58" s="9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
+      <c r="A59" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="16" t="e"/>
-      <c r="C58" s="16" t="s">
+      <c r="B59" s="16" t="e"/>
+      <c r="C59" s="16" t="e"/>
+      <c r="D59" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="16" t="e"/>
-      <c r="E58" s="16" t="e"/>
-      <c r="F58" s="16" t="e"/>
-      <c r="G58" s="16" t="s">
+      <c r="E59" s="16" t="e"/>
+      <c r="F59" s="16" t="e"/>
+      <c r="G59" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="17" t="n">
-        <v>123</v>
-      </c>
-      <c r="I58" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" s="18" t="e"/>
-      <c r="K58" s="17" t="n">
-        <v>120</v>
-      </c>
-      <c r="L58" s="18" t="e"/>
-      <c r="M58" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" s="17" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A59" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="19" t="e"/>
-      <c r="C59" s="19" t="e"/>
-      <c r="D59" s="19" t="e"/>
-      <c r="E59" s="19" t="e"/>
-      <c r="F59" s="19" t="e"/>
-      <c r="G59" s="19" t="e"/>
-      <c r="H59" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I59" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" s="10" t="e"/>
-      <c r="K59" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="L59" s="10" t="e"/>
-      <c r="M59" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N59" s="9" t="n">
-        <v>28</v>
+      <c r="H59" s="17" t="n">
+        <v>112</v>
+      </c>
+      <c r="I59" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" s="18" t="e"/>
+      <c r="K59" s="17" t="n">
+        <v>108</v>
+      </c>
+      <c r="L59" s="18" t="e"/>
+      <c r="M59" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" s="17" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1955,22 +1962,22 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L60" s="10" t="e"/>
       <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -1979,22 +1986,22 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I61" s="10" t="e"/>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L61" s="10" t="e"/>
       <c r="M61" s="10" t="e"/>
       <c r="N61" s="9" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="11" customHeight="true" outlineLevel="1">
       <c r="A62" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B62" s="19" t="e"/>
       <c r="C62" s="19" t="e"/>
@@ -2003,22 +2010,22 @@
       <c r="F62" s="19" t="e"/>
       <c r="G62" s="19" t="e"/>
       <c r="H62" s="9" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I62" s="10" t="e"/>
       <c r="J62" s="10" t="e"/>
       <c r="K62" s="9" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L62" s="10" t="e"/>
       <c r="M62" s="10" t="e"/>
       <c r="N62" s="9" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true" outlineLevel="1">
       <c r="A63" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" s="19" t="e"/>
       <c r="C63" s="19" t="e"/>
@@ -2027,82 +2034,78 @@
       <c r="F63" s="19" t="e"/>
       <c r="G63" s="19" t="e"/>
       <c r="H63" s="9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I63" s="10" t="e"/>
       <c r="J63" s="10" t="e"/>
       <c r="K63" s="9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L63" s="10" t="e"/>
       <c r="M63" s="10" t="e"/>
       <c r="N63" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" ht="22" customHeight="true">
-      <c r="A64" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A64" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="19" t="e"/>
+      <c r="C64" s="19" t="e"/>
+      <c r="D64" s="19" t="e"/>
+      <c r="E64" s="19" t="e"/>
+      <c r="F64" s="19" t="e"/>
+      <c r="G64" s="19" t="e"/>
+      <c r="H64" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I64" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" s="10" t="e"/>
+      <c r="K64" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L64" s="10" t="e"/>
+      <c r="M64" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" s="9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="11" customHeight="true">
+      <c r="A65" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="16" t="e"/>
-      <c r="C64" s="16" t="s">
+      <c r="B65" s="16" t="e"/>
+      <c r="C65" s="16" t="e"/>
+      <c r="D65" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="16" t="e"/>
-      <c r="E64" s="16" t="e"/>
-      <c r="F64" s="16" t="e"/>
-      <c r="G64" s="16" t="s">
+      <c r="E65" s="16" t="e"/>
+      <c r="F65" s="16" t="e"/>
+      <c r="G65" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="17" t="n">
-        <v>142</v>
-      </c>
-      <c r="I64" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" s="18" t="e"/>
-      <c r="K64" s="17" t="n">
-        <v>134</v>
-      </c>
-      <c r="L64" s="18" t="e"/>
-      <c r="M64" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N64" s="17" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="19" t="e"/>
-      <c r="C65" s="19" t="e"/>
-      <c r="D65" s="19" t="e"/>
-      <c r="E65" s="19" t="e"/>
-      <c r="F65" s="19" t="e"/>
-      <c r="G65" s="19" t="e"/>
-      <c r="H65" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I65" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" s="10" t="e"/>
-      <c r="K65" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="L65" s="10" t="e"/>
-      <c r="M65" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N65" s="9" t="n">
-        <v>37</v>
+      <c r="H65" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I65" s="18" t="e"/>
+      <c r="J65" s="18" t="e"/>
+      <c r="K65" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L65" s="18" t="e"/>
+      <c r="M65" s="18" t="e"/>
+      <c r="N65" s="17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="11" customHeight="true" outlineLevel="1">
       <c r="A66" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B66" s="19" t="e"/>
       <c r="C66" s="19" t="e"/>
@@ -2111,46 +2114,50 @@
       <c r="F66" s="19" t="e"/>
       <c r="G66" s="19" t="e"/>
       <c r="H66" s="9" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I66" s="10" t="e"/>
       <c r="J66" s="10" t="e"/>
       <c r="K66" s="9" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L66" s="10" t="e"/>
       <c r="M66" s="10" t="e"/>
       <c r="N66" s="9" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A67" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="19" t="e"/>
-      <c r="C67" s="19" t="e"/>
-      <c r="D67" s="19" t="e"/>
-      <c r="E67" s="19" t="e"/>
-      <c r="F67" s="19" t="e"/>
-      <c r="G67" s="19" t="e"/>
-      <c r="H67" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I67" s="10" t="e"/>
-      <c r="J67" s="10" t="e"/>
-      <c r="K67" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L67" s="10" t="e"/>
-      <c r="M67" s="10" t="e"/>
-      <c r="N67" s="9" t="n">
-        <v>20</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true">
+      <c r="A67" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="16" t="e"/>
+      <c r="C67" s="16" t="e"/>
+      <c r="D67" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="16" t="e"/>
+      <c r="F67" s="16" t="e"/>
+      <c r="G67" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I67" s="18" t="e"/>
+      <c r="J67" s="18" t="e"/>
+      <c r="K67" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L67" s="18" t="e"/>
+      <c r="M67" s="18" t="e"/>
+      <c r="N67" s="17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B68" s="19" t="e"/>
       <c r="C68" s="19" t="e"/>
@@ -2159,82 +2166,74 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I68" s="10" t="e"/>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L68" s="10" t="e"/>
       <c r="M68" s="10" t="e"/>
       <c r="N68" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A69" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="19" t="e"/>
-      <c r="C69" s="19" t="e"/>
-      <c r="D69" s="19" t="e"/>
-      <c r="E69" s="19" t="e"/>
-      <c r="F69" s="19" t="e"/>
-      <c r="G69" s="19" t="e"/>
-      <c r="H69" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I69" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" s="10" t="e"/>
-      <c r="K69" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="L69" s="10" t="e"/>
-      <c r="M69" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N69" s="9" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" ht="11" customHeight="true">
-      <c r="A70" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="16" t="e"/>
-      <c r="C70" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="16" t="e"/>
-      <c r="E70" s="16" t="e"/>
-      <c r="F70" s="16" t="e"/>
-      <c r="G70" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true">
+      <c r="A69" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="16" t="e"/>
+      <c r="C69" s="16" t="e"/>
+      <c r="D69" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="16" t="e"/>
+      <c r="F69" s="16" t="e"/>
+      <c r="G69" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H70" s="17" t="n">
-        <v>120</v>
-      </c>
-      <c r="I70" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" s="18" t="e"/>
-      <c r="K70" s="17" t="n">
-        <v>110</v>
-      </c>
-      <c r="L70" s="18" t="e"/>
-      <c r="M70" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N70" s="17" t="n">
-        <v>110</v>
+      <c r="H69" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I69" s="18" t="e"/>
+      <c r="J69" s="18" t="e"/>
+      <c r="K69" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L69" s="18" t="e"/>
+      <c r="M69" s="18" t="e"/>
+      <c r="N69" s="17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A70" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="19" t="e"/>
+      <c r="C70" s="19" t="e"/>
+      <c r="D70" s="19" t="e"/>
+      <c r="E70" s="19" t="e"/>
+      <c r="F70" s="19" t="e"/>
+      <c r="G70" s="19" t="e"/>
+      <c r="H70" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I70" s="10" t="e"/>
+      <c r="J70" s="10" t="e"/>
+      <c r="K70" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L70" s="10" t="e"/>
+      <c r="M70" s="10" t="e"/>
+      <c r="N70" s="9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
       <c r="A71" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B71" s="19" t="e"/>
       <c r="C71" s="19" t="e"/>
@@ -2243,54 +2242,50 @@
       <c r="F71" s="19" t="e"/>
       <c r="G71" s="19" t="e"/>
       <c r="H71" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I71" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I71" s="10" t="e"/>
       <c r="J71" s="10" t="e"/>
       <c r="K71" s="9" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="L71" s="10" t="e"/>
-      <c r="M71" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M71" s="10" t="e"/>
       <c r="N71" s="9" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A72" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="19" t="e"/>
-      <c r="C72" s="19" t="e"/>
-      <c r="D72" s="19" t="e"/>
-      <c r="E72" s="19" t="e"/>
-      <c r="F72" s="19" t="e"/>
-      <c r="G72" s="19" t="e"/>
-      <c r="H72" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I72" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" s="10" t="e"/>
-      <c r="K72" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L72" s="10" t="e"/>
-      <c r="M72" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N72" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true">
+      <c r="A72" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="16" t="e"/>
+      <c r="C72" s="16" t="e"/>
+      <c r="D72" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="16" t="e"/>
+      <c r="F72" s="16" t="e"/>
+      <c r="G72" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I72" s="18" t="e"/>
+      <c r="J72" s="18" t="e"/>
+      <c r="K72" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L72" s="18" t="e"/>
+      <c r="M72" s="18" t="e"/>
+      <c r="N72" s="17" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="A73" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B73" s="19" t="e"/>
       <c r="C73" s="19" t="e"/>
@@ -2299,22 +2294,22 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I73" s="10" t="e"/>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L73" s="10" t="e"/>
       <c r="M73" s="10" t="e"/>
       <c r="N73" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="A74" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" s="19" t="e"/>
       <c r="C74" s="19" t="e"/>
@@ -2323,86 +2318,78 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I74" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I74" s="10" t="e"/>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L74" s="10" t="e"/>
-      <c r="M74" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M74" s="10" t="e"/>
       <c r="N74" s="9" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" ht="11" customHeight="true">
-      <c r="A75" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="16" t="e"/>
-      <c r="C75" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="16" t="e"/>
-      <c r="E75" s="16" t="e"/>
-      <c r="F75" s="16" t="e"/>
-      <c r="G75" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A75" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="19" t="e"/>
+      <c r="C75" s="19" t="e"/>
+      <c r="D75" s="19" t="e"/>
+      <c r="E75" s="19" t="e"/>
+      <c r="F75" s="19" t="e"/>
+      <c r="G75" s="19" t="e"/>
+      <c r="H75" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="I75" s="10" t="e"/>
+      <c r="J75" s="10" t="e"/>
+      <c r="K75" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="L75" s="10" t="e"/>
+      <c r="M75" s="10" t="e"/>
+      <c r="N75" s="9" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" ht="22" customHeight="true">
+      <c r="A76" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="16" t="e"/>
+      <c r="C76" s="16" t="e"/>
+      <c r="D76" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="16" t="e"/>
+      <c r="F76" s="16" t="e"/>
+      <c r="G76" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="17" t="n">
-        <v>157</v>
-      </c>
-      <c r="I75" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J75" s="18" t="e"/>
-      <c r="K75" s="17" t="n">
-        <v>146</v>
-      </c>
-      <c r="L75" s="18" t="e"/>
-      <c r="M75" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="N75" s="17" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A76" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="19" t="e"/>
-      <c r="C76" s="19" t="e"/>
-      <c r="D76" s="19" t="e"/>
-      <c r="E76" s="19" t="e"/>
-      <c r="F76" s="19" t="e"/>
-      <c r="G76" s="19" t="e"/>
-      <c r="H76" s="9" t="n">
-        <v>51</v>
-      </c>
-      <c r="I76" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" s="10" t="e"/>
-      <c r="K76" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L76" s="10" t="e"/>
-      <c r="M76" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="N76" s="9" t="n">
-        <v>40</v>
+      <c r="H76" s="17" t="n">
+        <v>136</v>
+      </c>
+      <c r="I76" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" s="18" t="e"/>
+      <c r="K76" s="17" t="n">
+        <v>119</v>
+      </c>
+      <c r="L76" s="18" t="e"/>
+      <c r="M76" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N76" s="17" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2411,22 +2398,22 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I77" s="10" t="e"/>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="10" t="e"/>
       <c r="N77" s="9" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B78" s="19" t="e"/>
       <c r="C78" s="19" t="e"/>
@@ -2435,22 +2422,26 @@
       <c r="F78" s="19" t="e"/>
       <c r="G78" s="19" t="e"/>
       <c r="H78" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I78" s="10" t="e"/>
+        <v>35</v>
+      </c>
+      <c r="I78" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="J78" s="10" t="e"/>
       <c r="K78" s="9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L78" s="10" t="e"/>
-      <c r="M78" s="10" t="e"/>
+      <c r="M78" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="N78" s="9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B79" s="19" t="e"/>
       <c r="C79" s="19" t="e"/>
@@ -2459,22 +2450,22 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I79" s="10" t="e"/>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L79" s="10" t="e"/>
       <c r="M79" s="10" t="e"/>
       <c r="N79" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="A80" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B80" s="19" t="e"/>
       <c r="C80" s="19" t="e"/>
@@ -2483,82 +2474,82 @@
       <c r="F80" s="19" t="e"/>
       <c r="G80" s="19" t="e"/>
       <c r="H80" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I80" s="10" t="e"/>
       <c r="J80" s="10" t="e"/>
       <c r="K80" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L80" s="10" t="e"/>
       <c r="M80" s="10" t="e"/>
       <c r="N80" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A81" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="19" t="e"/>
+      <c r="C81" s="19" t="e"/>
+      <c r="D81" s="19" t="e"/>
+      <c r="E81" s="19" t="e"/>
+      <c r="F81" s="19" t="e"/>
+      <c r="G81" s="19" t="e"/>
+      <c r="H81" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J81" s="10" t="e"/>
+      <c r="K81" s="9" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" ht="22" customHeight="true">
-      <c r="A81" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="16" t="e"/>
-      <c r="C81" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="16" t="e"/>
-      <c r="E81" s="16" t="e"/>
-      <c r="F81" s="16" t="e"/>
-      <c r="G81" s="16" t="s">
+      <c r="L81" s="10" t="e"/>
+      <c r="M81" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N81" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true">
+      <c r="A82" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="16" t="e"/>
+      <c r="C82" s="16" t="e"/>
+      <c r="D82" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="16" t="e"/>
+      <c r="F82" s="16" t="e"/>
+      <c r="G82" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H81" s="17" t="n">
-        <v>226</v>
-      </c>
-      <c r="I81" s="17" t="n">
-        <v>42</v>
-      </c>
-      <c r="J81" s="18" t="e"/>
-      <c r="K81" s="17" t="n">
-        <v>184</v>
-      </c>
-      <c r="L81" s="18" t="e"/>
-      <c r="M81" s="17" t="n">
-        <v>42</v>
-      </c>
-      <c r="N81" s="17" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A82" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="19" t="e"/>
-      <c r="C82" s="19" t="e"/>
-      <c r="D82" s="19" t="e"/>
-      <c r="E82" s="19" t="e"/>
-      <c r="F82" s="19" t="e"/>
-      <c r="G82" s="19" t="e"/>
-      <c r="H82" s="9" t="n">
-        <v>71</v>
-      </c>
-      <c r="I82" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" s="10" t="e"/>
-      <c r="K82" s="9" t="n">
-        <v>61</v>
-      </c>
-      <c r="L82" s="10" t="e"/>
-      <c r="M82" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="N82" s="9" t="n">
-        <v>61</v>
+      <c r="H82" s="17" t="n">
+        <v>135</v>
+      </c>
+      <c r="I82" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J82" s="18" t="e"/>
+      <c r="K82" s="17" t="n">
+        <v>118</v>
+      </c>
+      <c r="L82" s="18" t="e"/>
+      <c r="M82" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N82" s="17" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2567,26 +2558,26 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L83" s="10" t="e"/>
       <c r="M83" s="9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N83" s="9" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B84" s="19" t="e"/>
       <c r="C84" s="19" t="e"/>
@@ -2595,22 +2586,26 @@
       <c r="F84" s="19" t="e"/>
       <c r="G84" s="19" t="e"/>
       <c r="H84" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I84" s="10" t="e"/>
+        <v>41</v>
+      </c>
+      <c r="I84" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L84" s="10" t="e"/>
-      <c r="M84" s="10" t="e"/>
+      <c r="M84" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="N84" s="9" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2619,22 +2614,22 @@
       <c r="F85" s="19" t="e"/>
       <c r="G85" s="19" t="e"/>
       <c r="H85" s="9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I85" s="10" t="e"/>
       <c r="J85" s="10" t="e"/>
       <c r="K85" s="9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L85" s="10" t="e"/>
       <c r="M85" s="10" t="e"/>
       <c r="N85" s="9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" s="19" t="e"/>
       <c r="C86" s="19" t="e"/>
@@ -2643,82 +2638,82 @@
       <c r="F86" s="19" t="e"/>
       <c r="G86" s="19" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I86" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I86" s="10" t="e"/>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L86" s="10" t="e"/>
-      <c r="M86" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="M86" s="10" t="e"/>
       <c r="N86" s="9" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true">
-      <c r="A87" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" s="16" t="e"/>
-      <c r="C87" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="16" t="e"/>
-      <c r="E87" s="16" t="e"/>
-      <c r="F87" s="16" t="e"/>
-      <c r="G87" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A87" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="19" t="e"/>
+      <c r="C87" s="19" t="e"/>
+      <c r="D87" s="19" t="e"/>
+      <c r="E87" s="19" t="e"/>
+      <c r="F87" s="19" t="e"/>
+      <c r="G87" s="19" t="e"/>
+      <c r="H87" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="I87" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J87" s="10" t="e"/>
+      <c r="K87" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L87" s="10" t="e"/>
+      <c r="M87" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" s="9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" ht="11" customHeight="true">
+      <c r="A88" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="16" t="e"/>
+      <c r="C88" s="16" t="e"/>
+      <c r="D88" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="16" t="e"/>
+      <c r="F88" s="16" t="e"/>
+      <c r="G88" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H87" s="17" t="n">
-        <v>120</v>
-      </c>
-      <c r="I87" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J87" s="18" t="e"/>
-      <c r="K87" s="17" t="n">
-        <v>115</v>
-      </c>
-      <c r="L87" s="18" t="e"/>
-      <c r="M87" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N87" s="17" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A88" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88" s="19" t="e"/>
-      <c r="C88" s="19" t="e"/>
-      <c r="D88" s="19" t="e"/>
-      <c r="E88" s="19" t="e"/>
-      <c r="F88" s="19" t="e"/>
-      <c r="G88" s="19" t="e"/>
-      <c r="H88" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I88" s="10" t="e"/>
-      <c r="J88" s="10" t="e"/>
-      <c r="K88" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="L88" s="10" t="e"/>
-      <c r="M88" s="10" t="e"/>
-      <c r="N88" s="9" t="n">
-        <v>27</v>
+      <c r="H88" s="17" t="n">
+        <v>178</v>
+      </c>
+      <c r="I88" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" s="18" t="e"/>
+      <c r="K88" s="17" t="n">
+        <v>172</v>
+      </c>
+      <c r="L88" s="18" t="e"/>
+      <c r="M88" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N88" s="17" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B89" s="19" t="e"/>
       <c r="C89" s="19" t="e"/>
@@ -2727,26 +2722,26 @@
       <c r="F89" s="19" t="e"/>
       <c r="G89" s="19" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="L89" s="10" t="e"/>
       <c r="M89" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N89" s="9" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="A90" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B90" s="19" t="e"/>
       <c r="C90" s="19" t="e"/>
@@ -2755,22 +2750,22 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="A91" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B91" s="19" t="e"/>
       <c r="C91" s="19" t="e"/>
@@ -2779,22 +2774,22 @@
       <c r="F91" s="19" t="e"/>
       <c r="G91" s="19" t="e"/>
       <c r="H91" s="9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I91" s="10" t="e"/>
       <c r="J91" s="10" t="e"/>
       <c r="K91" s="9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L91" s="10" t="e"/>
       <c r="M91" s="10" t="e"/>
       <c r="N91" s="9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="A92" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92" s="19" t="e"/>
       <c r="C92" s="19" t="e"/>
@@ -2803,82 +2798,82 @@
       <c r="F92" s="19" t="e"/>
       <c r="G92" s="19" t="e"/>
       <c r="H92" s="9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I92" s="10" t="e"/>
       <c r="J92" s="10" t="e"/>
       <c r="K92" s="9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L92" s="10" t="e"/>
       <c r="M92" s="10" t="e"/>
       <c r="N92" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" ht="11" customHeight="true">
-      <c r="A93" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="16" t="e"/>
-      <c r="C93" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D93" s="16" t="e"/>
-      <c r="E93" s="16" t="e"/>
-      <c r="F93" s="16" t="e"/>
-      <c r="G93" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A93" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="19" t="e"/>
+      <c r="C93" s="19" t="e"/>
+      <c r="D93" s="19" t="e"/>
+      <c r="E93" s="19" t="e"/>
+      <c r="F93" s="19" t="e"/>
+      <c r="G93" s="19" t="e"/>
+      <c r="H93" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I93" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" s="10" t="e"/>
+      <c r="K93" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L93" s="10" t="e"/>
+      <c r="M93" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" ht="22" customHeight="true">
+      <c r="A94" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="16" t="e"/>
+      <c r="C94" s="16" t="e"/>
+      <c r="D94" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E94" s="16" t="e"/>
+      <c r="F94" s="16" t="e"/>
+      <c r="G94" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H93" s="17" t="n">
-        <v>197</v>
-      </c>
-      <c r="I93" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J93" s="18" t="e"/>
-      <c r="K93" s="17" t="n">
-        <v>175</v>
-      </c>
-      <c r="L93" s="18" t="e"/>
-      <c r="M93" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="N93" s="17" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="19" t="e"/>
-      <c r="C94" s="19" t="e"/>
-      <c r="D94" s="19" t="e"/>
-      <c r="E94" s="19" t="e"/>
-      <c r="F94" s="19" t="e"/>
-      <c r="G94" s="19" t="e"/>
-      <c r="H94" s="9" t="n">
-        <v>77</v>
-      </c>
-      <c r="I94" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J94" s="10" t="e"/>
-      <c r="K94" s="9" t="n">
-        <v>70</v>
-      </c>
-      <c r="L94" s="10" t="e"/>
-      <c r="M94" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N94" s="9" t="n">
-        <v>70</v>
+      <c r="H94" s="17" t="n">
+        <v>194</v>
+      </c>
+      <c r="I94" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J94" s="18" t="e"/>
+      <c r="K94" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="L94" s="18" t="e"/>
+      <c r="M94" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="N94" s="17" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2887,26 +2882,26 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L95" s="10" t="e"/>
       <c r="M95" s="9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N95" s="9" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="A96" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B96" s="19" t="e"/>
       <c r="C96" s="19" t="e"/>
@@ -2915,22 +2910,26 @@
       <c r="F96" s="19" t="e"/>
       <c r="G96" s="19" t="e"/>
       <c r="H96" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I96" s="10" t="e"/>
+        <v>64</v>
+      </c>
+      <c r="I96" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="J96" s="10" t="e"/>
       <c r="K96" s="9" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L96" s="10" t="e"/>
-      <c r="M96" s="10" t="e"/>
+      <c r="M96" s="9" t="n">
+        <v>14</v>
+      </c>
       <c r="N96" s="9" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="A97" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B97" s="19" t="e"/>
       <c r="C97" s="19" t="e"/>
@@ -2939,54 +2938,46 @@
       <c r="F97" s="19" t="e"/>
       <c r="G97" s="19" t="e"/>
       <c r="H97" s="9" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I97" s="10" t="e"/>
       <c r="J97" s="10" t="e"/>
       <c r="K97" s="9" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L97" s="10" t="e"/>
       <c r="M97" s="10" t="e"/>
       <c r="N97" s="9" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true">
-      <c r="A98" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" s="16" t="e"/>
-      <c r="C98" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="16" t="e"/>
-      <c r="E98" s="16" t="e"/>
-      <c r="F98" s="16" t="e"/>
-      <c r="G98" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H98" s="17" t="n">
-        <v>202</v>
-      </c>
-      <c r="I98" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="J98" s="18" t="e"/>
-      <c r="K98" s="17" t="n">
-        <v>139</v>
-      </c>
-      <c r="L98" s="18" t="e"/>
-      <c r="M98" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="N98" s="17" t="n">
-        <v>139</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A98" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="19" t="e"/>
+      <c r="C98" s="19" t="e"/>
+      <c r="D98" s="19" t="e"/>
+      <c r="E98" s="19" t="e"/>
+      <c r="F98" s="19" t="e"/>
+      <c r="G98" s="19" t="e"/>
+      <c r="H98" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I98" s="10" t="e"/>
+      <c r="J98" s="10" t="e"/>
+      <c r="K98" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L98" s="10" t="e"/>
+      <c r="M98" s="10" t="e"/>
+      <c r="N98" s="9" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -2995,54 +2986,54 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>72</v>
-      </c>
-      <c r="I99" s="9" t="n">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I99" s="10" t="e"/>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="L99" s="10" t="e"/>
-      <c r="M99" s="9" t="n">
-        <v>28</v>
-      </c>
+      <c r="M99" s="10" t="e"/>
       <c r="N99" s="9" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A100" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B100" s="19" t="e"/>
-      <c r="C100" s="19" t="e"/>
-      <c r="D100" s="19" t="e"/>
-      <c r="E100" s="19" t="e"/>
-      <c r="F100" s="19" t="e"/>
-      <c r="G100" s="19" t="e"/>
-      <c r="H100" s="9" t="n">
-        <v>86</v>
-      </c>
-      <c r="I100" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="J100" s="10" t="e"/>
-      <c r="K100" s="9" t="n">
-        <v>51</v>
-      </c>
-      <c r="L100" s="10" t="e"/>
-      <c r="M100" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="N100" s="9" t="n">
-        <v>51</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true">
+      <c r="A100" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="16" t="e"/>
+      <c r="C100" s="16" t="e"/>
+      <c r="D100" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" s="16" t="e"/>
+      <c r="F100" s="16" t="e"/>
+      <c r="G100" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="I100" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J100" s="18" t="e"/>
+      <c r="K100" s="17" t="n">
+        <v>92</v>
+      </c>
+      <c r="L100" s="18" t="e"/>
+      <c r="M100" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="N100" s="17" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3051,22 +3042,26 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I101" s="10" t="e"/>
+        <v>26</v>
+      </c>
+      <c r="I101" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L101" s="10" t="e"/>
-      <c r="M101" s="10" t="e"/>
+      <c r="M101" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N101" s="9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B102" s="19" t="e"/>
       <c r="C102" s="19" t="e"/>
@@ -3075,54 +3070,50 @@
       <c r="F102" s="19" t="e"/>
       <c r="G102" s="19" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I102" s="10" t="e"/>
+        <v>34</v>
+      </c>
+      <c r="I102" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L102" s="10" t="e"/>
-      <c r="M102" s="10" t="e"/>
+      <c r="M102" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N102" s="9" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true">
-      <c r="A103" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="16" t="e"/>
-      <c r="C103" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" s="16" t="e"/>
-      <c r="E103" s="16" t="e"/>
-      <c r="F103" s="16" t="e"/>
-      <c r="G103" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" s="17" t="n">
-        <v>115</v>
-      </c>
-      <c r="I103" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J103" s="18" t="e"/>
-      <c r="K103" s="17" t="n">
-        <v>108</v>
-      </c>
-      <c r="L103" s="18" t="e"/>
-      <c r="M103" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N103" s="17" t="n">
-        <v>108</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A103" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="19" t="e"/>
+      <c r="C103" s="19" t="e"/>
+      <c r="D103" s="19" t="e"/>
+      <c r="E103" s="19" t="e"/>
+      <c r="F103" s="19" t="e"/>
+      <c r="G103" s="19" t="e"/>
+      <c r="H103" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I103" s="10" t="e"/>
+      <c r="J103" s="10" t="e"/>
+      <c r="K103" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L103" s="10" t="e"/>
+      <c r="M103" s="10" t="e"/>
+      <c r="N103" s="9" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="A104" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B104" s="19" t="e"/>
       <c r="C104" s="19" t="e"/>
@@ -3131,54 +3122,54 @@
       <c r="F104" s="19" t="e"/>
       <c r="G104" s="19" t="e"/>
       <c r="H104" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I104" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I104" s="10" t="e"/>
       <c r="J104" s="10" t="e"/>
       <c r="K104" s="9" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L104" s="10" t="e"/>
-      <c r="M104" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M104" s="10" t="e"/>
       <c r="N104" s="9" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A105" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" s="19" t="e"/>
-      <c r="C105" s="19" t="e"/>
-      <c r="D105" s="19" t="e"/>
-      <c r="E105" s="19" t="e"/>
-      <c r="F105" s="19" t="e"/>
-      <c r="G105" s="19" t="e"/>
-      <c r="H105" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I105" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J105" s="10" t="e"/>
-      <c r="K105" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="L105" s="10" t="e"/>
-      <c r="M105" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N105" s="9" t="n">
-        <v>28</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" ht="11" customHeight="true">
+      <c r="A105" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" s="16" t="e"/>
+      <c r="C105" s="16" t="e"/>
+      <c r="D105" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="16" t="e"/>
+      <c r="F105" s="16" t="e"/>
+      <c r="G105" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="17" t="n">
+        <v>229</v>
+      </c>
+      <c r="I105" s="17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J105" s="18" t="e"/>
+      <c r="K105" s="17" t="n">
+        <v>202</v>
+      </c>
+      <c r="L105" s="18" t="e"/>
+      <c r="M105" s="17" t="n">
+        <v>27</v>
+      </c>
+      <c r="N105" s="17" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B106" s="19" t="e"/>
       <c r="C106" s="19" t="e"/>
@@ -3187,22 +3178,26 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I106" s="10" t="e"/>
+        <v>59</v>
+      </c>
+      <c r="I106" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L106" s="10" t="e"/>
-      <c r="M106" s="10" t="e"/>
+      <c r="M106" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N106" s="9" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3211,22 +3206,26 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I107" s="10" t="e"/>
+        <v>92</v>
+      </c>
+      <c r="I107" s="9" t="n">
+        <v>24</v>
+      </c>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="L107" s="10" t="e"/>
-      <c r="M107" s="10" t="e"/>
+      <c r="M107" s="9" t="n">
+        <v>24</v>
+      </c>
       <c r="N107" s="9" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B108" s="19" t="e"/>
       <c r="C108" s="19" t="e"/>
@@ -3235,58 +3234,46 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I108" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I108" s="10" t="e"/>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L108" s="10" t="e"/>
+      <c r="M108" s="10" t="e"/>
+      <c r="N108" s="9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A109" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L108" s="10" t="e"/>
-      <c r="M108" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" s="9" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true">
-      <c r="A109" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B109" s="16" t="e"/>
-      <c r="C109" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D109" s="16" t="e"/>
-      <c r="E109" s="16" t="e"/>
-      <c r="F109" s="16" t="e"/>
-      <c r="G109" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" s="17" t="n">
-        <v>132</v>
-      </c>
-      <c r="I109" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="J109" s="18" t="e"/>
-      <c r="K109" s="17" t="n">
-        <v>69</v>
-      </c>
-      <c r="L109" s="18" t="e"/>
-      <c r="M109" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="N109" s="17" t="n">
-        <v>69</v>
+      <c r="B109" s="19" t="e"/>
+      <c r="C109" s="19" t="e"/>
+      <c r="D109" s="19" t="e"/>
+      <c r="E109" s="19" t="e"/>
+      <c r="F109" s="19" t="e"/>
+      <c r="G109" s="19" t="e"/>
+      <c r="H109" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I109" s="10" t="e"/>
+      <c r="J109" s="10" t="e"/>
+      <c r="K109" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="L109" s="10" t="e"/>
+      <c r="M109" s="10" t="e"/>
+      <c r="N109" s="9" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3295,54 +3282,54 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="I110" s="9" t="n">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I110" s="10" t="e"/>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L110" s="10" t="e"/>
-      <c r="M110" s="9" t="n">
-        <v>31</v>
-      </c>
+      <c r="M110" s="10" t="e"/>
       <c r="N110" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A111" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="19" t="e"/>
-      <c r="C111" s="19" t="e"/>
-      <c r="D111" s="19" t="e"/>
-      <c r="E111" s="19" t="e"/>
-      <c r="F111" s="19" t="e"/>
-      <c r="G111" s="19" t="e"/>
-      <c r="H111" s="9" t="n">
-        <v>51</v>
-      </c>
-      <c r="I111" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="J111" s="10" t="e"/>
-      <c r="K111" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L111" s="10" t="e"/>
-      <c r="M111" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="N111" s="9" t="n">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true">
+      <c r="A111" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="16" t="e"/>
+      <c r="C111" s="16" t="e"/>
+      <c r="D111" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E111" s="16" t="e"/>
+      <c r="F111" s="16" t="e"/>
+      <c r="G111" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="17" t="n">
+        <v>228</v>
+      </c>
+      <c r="I111" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="J111" s="18" t="e"/>
+      <c r="K111" s="17" t="n">
+        <v>192</v>
+      </c>
+      <c r="L111" s="18" t="e"/>
+      <c r="M111" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="N111" s="17" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3351,22 +3338,26 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I112" s="10" t="e"/>
+        <v>57</v>
+      </c>
+      <c r="I112" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="L112" s="10" t="e"/>
-      <c r="M112" s="10" t="e"/>
+      <c r="M112" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N112" s="9" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="A113" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B113" s="19" t="e"/>
       <c r="C113" s="19" t="e"/>
@@ -3375,58 +3366,50 @@
       <c r="F113" s="19" t="e"/>
       <c r="G113" s="19" t="e"/>
       <c r="H113" s="9" t="n">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I113" s="9" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J113" s="10" t="e"/>
       <c r="K113" s="9" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="L113" s="10" t="e"/>
       <c r="M113" s="9" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N113" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true">
-      <c r="A114" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B114" s="16" t="e"/>
-      <c r="C114" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D114" s="16" t="e"/>
-      <c r="E114" s="16" t="e"/>
-      <c r="F114" s="16" t="e"/>
-      <c r="G114" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H114" s="17" t="n">
-        <v>125</v>
-      </c>
-      <c r="I114" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="J114" s="18" t="e"/>
-      <c r="K114" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="L114" s="18" t="e"/>
-      <c r="M114" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="N114" s="17" t="n">
-        <v>37</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A114" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="19" t="e"/>
+      <c r="C114" s="19" t="e"/>
+      <c r="D114" s="19" t="e"/>
+      <c r="E114" s="19" t="e"/>
+      <c r="F114" s="19" t="e"/>
+      <c r="G114" s="19" t="e"/>
+      <c r="H114" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I114" s="10" t="e"/>
+      <c r="J114" s="10" t="e"/>
+      <c r="K114" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L114" s="10" t="e"/>
+      <c r="M114" s="10" t="e"/>
+      <c r="N114" s="9" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="A115" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B115" s="19" t="e"/>
       <c r="C115" s="19" t="e"/>
@@ -3435,26 +3418,22 @@
       <c r="F115" s="19" t="e"/>
       <c r="G115" s="19" t="e"/>
       <c r="H115" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="I115" s="9" t="n">
-        <v>31</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I115" s="10" t="e"/>
       <c r="J115" s="10" t="e"/>
       <c r="K115" s="9" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L115" s="10" t="e"/>
-      <c r="M115" s="9" t="n">
-        <v>31</v>
-      </c>
+      <c r="M115" s="10" t="e"/>
       <c r="N115" s="9" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3463,50 +3442,54 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>67</v>
-      </c>
-      <c r="I116" s="9" t="n">
-        <v>56</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I116" s="10" t="e"/>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L116" s="10" t="e"/>
-      <c r="M116" s="9" t="n">
-        <v>56</v>
-      </c>
+      <c r="M116" s="10" t="e"/>
       <c r="N116" s="9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A117" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B117" s="19" t="e"/>
-      <c r="C117" s="19" t="e"/>
-      <c r="D117" s="19" t="e"/>
-      <c r="E117" s="19" t="e"/>
-      <c r="F117" s="19" t="e"/>
-      <c r="G117" s="19" t="e"/>
-      <c r="H117" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I117" s="10" t="e"/>
-      <c r="J117" s="10" t="e"/>
-      <c r="K117" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L117" s="10" t="e"/>
-      <c r="M117" s="10" t="e"/>
-      <c r="N117" s="9" t="n">
-        <v>5</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true">
+      <c r="A117" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="16" t="e"/>
+      <c r="C117" s="16" t="e"/>
+      <c r="D117" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E117" s="16" t="e"/>
+      <c r="F117" s="16" t="e"/>
+      <c r="G117" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="17" t="n">
+        <v>137</v>
+      </c>
+      <c r="I117" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J117" s="18" t="e"/>
+      <c r="K117" s="17" t="n">
+        <v>117</v>
+      </c>
+      <c r="L117" s="18" t="e"/>
+      <c r="M117" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N117" s="17" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="A118" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B118" s="19" t="e"/>
       <c r="C118" s="19" t="e"/>
@@ -3515,58 +3498,54 @@
       <c r="F118" s="19" t="e"/>
       <c r="G118" s="19" t="e"/>
       <c r="H118" s="9" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I118" s="9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J118" s="10" t="e"/>
       <c r="K118" s="9" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L118" s="10" t="e"/>
       <c r="M118" s="9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N118" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true">
-      <c r="A119" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B119" s="16" t="e"/>
-      <c r="C119" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="16" t="e"/>
-      <c r="E119" s="16" t="e"/>
-      <c r="F119" s="16" t="e"/>
-      <c r="G119" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="17" t="n">
-        <v>90</v>
-      </c>
-      <c r="I119" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" s="18" t="e"/>
-      <c r="K119" s="17" t="n">
-        <v>89</v>
-      </c>
-      <c r="L119" s="18" t="e"/>
-      <c r="M119" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" s="17" t="n">
-        <v>89</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A119" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="19" t="e"/>
+      <c r="C119" s="19" t="e"/>
+      <c r="D119" s="19" t="e"/>
+      <c r="E119" s="19" t="e"/>
+      <c r="F119" s="19" t="e"/>
+      <c r="G119" s="19" t="e"/>
+      <c r="H119" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="I119" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J119" s="10" t="e"/>
+      <c r="K119" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L119" s="10" t="e"/>
+      <c r="M119" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N119" s="9" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3575,26 +3554,22 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I120" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I120" s="10" t="e"/>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L120" s="10" t="e"/>
-      <c r="M120" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M120" s="10" t="e"/>
       <c r="N120" s="9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3603,22 +3578,22 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I121" s="10" t="e"/>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L121" s="10" t="e"/>
       <c r="M121" s="10" t="e"/>
       <c r="N121" s="9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B122" s="19" t="e"/>
       <c r="C122" s="19" t="e"/>
@@ -3627,78 +3602,86 @@
       <c r="F122" s="19" t="e"/>
       <c r="G122" s="19" t="e"/>
       <c r="H122" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I122" s="10" t="e"/>
+        <v>22</v>
+      </c>
+      <c r="I122" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J122" s="10" t="e"/>
       <c r="K122" s="9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L122" s="10" t="e"/>
-      <c r="M122" s="10" t="e"/>
+      <c r="M122" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="N122" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A123" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B123" s="19" t="e"/>
-      <c r="C123" s="19" t="e"/>
-      <c r="D123" s="19" t="e"/>
-      <c r="E123" s="19" t="e"/>
-      <c r="F123" s="19" t="e"/>
-      <c r="G123" s="19" t="e"/>
-      <c r="H123" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I123" s="10" t="e"/>
-      <c r="J123" s="10" t="e"/>
-      <c r="K123" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L123" s="10" t="e"/>
-      <c r="M123" s="10" t="e"/>
-      <c r="N123" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true">
-      <c r="A124" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B124" s="16" t="e"/>
-      <c r="C124" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D124" s="16" t="e"/>
-      <c r="E124" s="16" t="e"/>
-      <c r="F124" s="16" t="e"/>
-      <c r="G124" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true">
+      <c r="A123" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" s="16" t="e"/>
+      <c r="C123" s="16" t="e"/>
+      <c r="D123" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E123" s="16" t="e"/>
+      <c r="F123" s="16" t="e"/>
+      <c r="G123" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H124" s="17" t="n">
-        <v>95</v>
-      </c>
-      <c r="I124" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="J124" s="18" t="e"/>
-      <c r="K124" s="17" t="n">
-        <v>75</v>
-      </c>
-      <c r="L124" s="18" t="e"/>
-      <c r="M124" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="N124" s="17" t="n">
-        <v>75</v>
+      <c r="H123" s="17" t="n">
+        <v>145</v>
+      </c>
+      <c r="I123" s="17" t="n">
+        <v>57</v>
+      </c>
+      <c r="J123" s="18" t="e"/>
+      <c r="K123" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="L123" s="18" t="e"/>
+      <c r="M123" s="17" t="n">
+        <v>57</v>
+      </c>
+      <c r="N123" s="17" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A124" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="19" t="e"/>
+      <c r="C124" s="19" t="e"/>
+      <c r="D124" s="19" t="e"/>
+      <c r="E124" s="19" t="e"/>
+      <c r="F124" s="19" t="e"/>
+      <c r="G124" s="19" t="e"/>
+      <c r="H124" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="I124" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="J124" s="10" t="e"/>
+      <c r="K124" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L124" s="10" t="e"/>
+      <c r="M124" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="N124" s="9" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B125" s="19" t="e"/>
       <c r="C125" s="19" t="e"/>
@@ -3707,26 +3690,26 @@
       <c r="F125" s="19" t="e"/>
       <c r="G125" s="19" t="e"/>
       <c r="H125" s="9" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I125" s="9" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J125" s="10" t="e"/>
       <c r="K125" s="9" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L125" s="10" t="e"/>
       <c r="M125" s="9" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N125" s="9" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3735,26 +3718,22 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I126" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I126" s="10" t="e"/>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L126" s="10" t="e"/>
-      <c r="M126" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M126" s="10" t="e"/>
       <c r="N126" s="9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="A127" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B127" s="19" t="e"/>
       <c r="C127" s="19" t="e"/>
@@ -3763,82 +3742,86 @@
       <c r="F127" s="19" t="e"/>
       <c r="G127" s="19" t="e"/>
       <c r="H127" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I127" s="10" t="e"/>
+        <v>23</v>
+      </c>
+      <c r="I127" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="J127" s="10" t="e"/>
       <c r="K127" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L127" s="10" t="e"/>
-      <c r="M127" s="10" t="e"/>
+      <c r="M127" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="N127" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A128" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B128" s="19" t="e"/>
-      <c r="C128" s="19" t="e"/>
-      <c r="D128" s="19" t="e"/>
-      <c r="E128" s="19" t="e"/>
-      <c r="F128" s="19" t="e"/>
-      <c r="G128" s="19" t="e"/>
-      <c r="H128" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I128" s="9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true">
+      <c r="A128" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" s="16" t="e"/>
+      <c r="C128" s="16" t="e"/>
+      <c r="D128" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E128" s="16" t="e"/>
+      <c r="F128" s="16" t="e"/>
+      <c r="G128" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="17" t="n">
+        <v>105</v>
+      </c>
+      <c r="I128" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="J128" s="18" t="e"/>
+      <c r="K128" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="L128" s="18" t="e"/>
+      <c r="M128" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="N128" s="17" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A129" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="19" t="e"/>
+      <c r="C129" s="19" t="e"/>
+      <c r="D129" s="19" t="e"/>
+      <c r="E129" s="19" t="e"/>
+      <c r="F129" s="19" t="e"/>
+      <c r="G129" s="19" t="e"/>
+      <c r="H129" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="I129" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="J129" s="10" t="e"/>
+      <c r="K129" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="J128" s="10" t="e"/>
-      <c r="K128" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L128" s="10" t="e"/>
-      <c r="M128" s="9" t="n">
+      <c r="L129" s="10" t="e"/>
+      <c r="M129" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="N129" s="9" t="n">
         <v>17</v>
-      </c>
-      <c r="N128" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true">
-      <c r="A129" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B129" s="16" t="e"/>
-      <c r="C129" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D129" s="16" t="e"/>
-      <c r="E129" s="16" t="e"/>
-      <c r="F129" s="16" t="e"/>
-      <c r="G129" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" s="17" t="n">
-        <v>109</v>
-      </c>
-      <c r="I129" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="J129" s="18" t="e"/>
-      <c r="K129" s="17" t="n">
-        <v>70</v>
-      </c>
-      <c r="L129" s="18" t="e"/>
-      <c r="M129" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="N129" s="17" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="A130" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B130" s="19" t="e"/>
       <c r="C130" s="19" t="e"/>
@@ -3847,26 +3830,26 @@
       <c r="F130" s="19" t="e"/>
       <c r="G130" s="19" t="e"/>
       <c r="H130" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="I130" s="9" t="n">
         <v>32</v>
-      </c>
-      <c r="I130" s="9" t="n">
-        <v>16</v>
       </c>
       <c r="J130" s="10" t="e"/>
       <c r="K130" s="9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L130" s="10" t="e"/>
       <c r="M130" s="9" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N130" s="9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="A131" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B131" s="19" t="e"/>
       <c r="C131" s="19" t="e"/>
@@ -3875,26 +3858,22 @@
       <c r="F131" s="19" t="e"/>
       <c r="G131" s="19" t="e"/>
       <c r="H131" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I131" s="9" t="n">
-        <v>23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I131" s="10" t="e"/>
       <c r="J131" s="10" t="e"/>
       <c r="K131" s="9" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="L131" s="10" t="e"/>
-      <c r="M131" s="9" t="n">
-        <v>23</v>
-      </c>
+      <c r="M131" s="10" t="e"/>
       <c r="N131" s="9" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="A132" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B132" s="19" t="e"/>
       <c r="C132" s="19" t="e"/>
@@ -3903,79 +3882,527 @@
       <c r="F132" s="19" t="e"/>
       <c r="G132" s="19" t="e"/>
       <c r="H132" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I132" s="10" t="e"/>
       <c r="J132" s="10" t="e"/>
       <c r="K132" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L132" s="10" t="e"/>
       <c r="M132" s="10" t="e"/>
       <c r="N132" s="9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true">
+      <c r="A133" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="16" t="e"/>
+      <c r="C133" s="16" t="e"/>
+      <c r="D133" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E133" s="16" t="e"/>
+      <c r="F133" s="16" t="e"/>
+      <c r="G133" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" s="17" t="n">
+        <v>97</v>
+      </c>
+      <c r="I133" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" s="18" t="e"/>
+      <c r="K133" s="17" t="n">
+        <v>95</v>
+      </c>
+      <c r="L133" s="18" t="e"/>
+      <c r="M133" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N133" s="17" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A134" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="19" t="e"/>
+      <c r="C134" s="19" t="e"/>
+      <c r="D134" s="19" t="e"/>
+      <c r="E134" s="19" t="e"/>
+      <c r="F134" s="19" t="e"/>
+      <c r="G134" s="19" t="e"/>
+      <c r="H134" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I134" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" s="10" t="e"/>
+      <c r="K134" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="L134" s="10" t="e"/>
+      <c r="M134" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" s="9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A135" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="19" t="e"/>
+      <c r="C135" s="19" t="e"/>
+      <c r="D135" s="19" t="e"/>
+      <c r="E135" s="19" t="e"/>
+      <c r="F135" s="19" t="e"/>
+      <c r="G135" s="19" t="e"/>
+      <c r="H135" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I135" s="10" t="e"/>
+      <c r="J135" s="10" t="e"/>
+      <c r="K135" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L135" s="10" t="e"/>
+      <c r="M135" s="10" t="e"/>
+      <c r="N135" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A136" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="19" t="e"/>
+      <c r="C136" s="19" t="e"/>
+      <c r="D136" s="19" t="e"/>
+      <c r="E136" s="19" t="e"/>
+      <c r="F136" s="19" t="e"/>
+      <c r="G136" s="19" t="e"/>
+      <c r="H136" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A133" s="19" t="s">
+      <c r="I136" s="10" t="e"/>
+      <c r="J136" s="10" t="e"/>
+      <c r="K136" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L136" s="10" t="e"/>
+      <c r="M136" s="10" t="e"/>
+      <c r="N136" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A137" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="19" t="e"/>
+      <c r="C137" s="19" t="e"/>
+      <c r="D137" s="19" t="e"/>
+      <c r="E137" s="19" t="e"/>
+      <c r="F137" s="19" t="e"/>
+      <c r="G137" s="19" t="e"/>
+      <c r="H137" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I137" s="10" t="e"/>
+      <c r="J137" s="10" t="e"/>
+      <c r="K137" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L137" s="10" t="e"/>
+      <c r="M137" s="10" t="e"/>
+      <c r="N137" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A138" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B133" s="19" t="e"/>
-      <c r="C133" s="19" t="e"/>
-      <c r="D133" s="19" t="e"/>
-      <c r="E133" s="19" t="e"/>
-      <c r="F133" s="19" t="e"/>
-      <c r="G133" s="19" t="e"/>
-      <c r="H133" s="9" t="n">
+      <c r="B138" s="19" t="e"/>
+      <c r="C138" s="19" t="e"/>
+      <c r="D138" s="19" t="e"/>
+      <c r="E138" s="19" t="e"/>
+      <c r="F138" s="19" t="e"/>
+      <c r="G138" s="19" t="e"/>
+      <c r="H138" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I138" s="10" t="e"/>
+      <c r="J138" s="10" t="e"/>
+      <c r="K138" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L138" s="10" t="e"/>
+      <c r="M138" s="10" t="e"/>
+      <c r="N138" s="9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" ht="11" customHeight="true">
+      <c r="A139" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="16" t="e"/>
+      <c r="C139" s="16" t="e"/>
+      <c r="D139" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E139" s="16" t="e"/>
+      <c r="F139" s="16" t="e"/>
+      <c r="G139" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" s="17" t="n">
+        <v>153</v>
+      </c>
+      <c r="I139" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J139" s="18" t="e"/>
+      <c r="K139" s="17" t="n">
+        <v>147</v>
+      </c>
+      <c r="L139" s="18" t="e"/>
+      <c r="M139" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N139" s="17" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A140" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" s="19" t="e"/>
+      <c r="C140" s="19" t="e"/>
+      <c r="D140" s="19" t="e"/>
+      <c r="E140" s="19" t="e"/>
+      <c r="F140" s="19" t="e"/>
+      <c r="G140" s="19" t="e"/>
+      <c r="H140" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="I140" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" s="10" t="e"/>
+      <c r="K140" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="L140" s="10" t="e"/>
+      <c r="M140" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" s="9" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A141" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" s="19" t="e"/>
+      <c r="C141" s="19" t="e"/>
+      <c r="D141" s="19" t="e"/>
+      <c r="E141" s="19" t="e"/>
+      <c r="F141" s="19" t="e"/>
+      <c r="G141" s="19" t="e"/>
+      <c r="H141" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="I141" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J141" s="10" t="e"/>
+      <c r="K141" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L141" s="10" t="e"/>
+      <c r="M141" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N141" s="9" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A142" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" s="19" t="e"/>
+      <c r="C142" s="19" t="e"/>
+      <c r="D142" s="19" t="e"/>
+      <c r="E142" s="19" t="e"/>
+      <c r="F142" s="19" t="e"/>
+      <c r="G142" s="19" t="e"/>
+      <c r="H142" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I142" s="10" t="e"/>
+      <c r="J142" s="10" t="e"/>
+      <c r="K142" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L142" s="10" t="e"/>
+      <c r="M142" s="10" t="e"/>
+      <c r="N142" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A143" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="19" t="e"/>
+      <c r="C143" s="19" t="e"/>
+      <c r="D143" s="19" t="e"/>
+      <c r="E143" s="19" t="e"/>
+      <c r="F143" s="19" t="e"/>
+      <c r="G143" s="19" t="e"/>
+      <c r="H143" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I143" s="10" t="e"/>
+      <c r="J143" s="10" t="e"/>
+      <c r="K143" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L143" s="10" t="e"/>
+      <c r="M143" s="10" t="e"/>
+      <c r="N143" s="9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A144" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" s="19" t="e"/>
+      <c r="C144" s="19" t="e"/>
+      <c r="D144" s="19" t="e"/>
+      <c r="E144" s="19" t="e"/>
+      <c r="F144" s="19" t="e"/>
+      <c r="G144" s="19" t="e"/>
+      <c r="H144" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="I133" s="10" t="e"/>
-      <c r="J133" s="10" t="e"/>
-      <c r="K133" s="9" t="n">
+      <c r="I144" s="10" t="e"/>
+      <c r="J144" s="10" t="e"/>
+      <c r="K144" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="L133" s="10" t="e"/>
-      <c r="M133" s="10" t="e"/>
-      <c r="N133" s="9" t="n">
+      <c r="L144" s="10" t="e"/>
+      <c r="M144" s="10" t="e"/>
+      <c r="N144" s="9" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="134" ht="13" customHeight="true">
-      <c r="A134" s="12" t="s">
+    <row r="145" ht="11" customHeight="true">
+      <c r="A145" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B145" s="16" t="e"/>
+      <c r="C145" s="16" t="e"/>
+      <c r="D145" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E145" s="16" t="e"/>
+      <c r="F145" s="16" t="e"/>
+      <c r="G145" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" s="17" t="n">
+        <v>108</v>
+      </c>
+      <c r="I145" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J145" s="18" t="e"/>
+      <c r="K145" s="17" t="n">
+        <v>96</v>
+      </c>
+      <c r="L145" s="18" t="e"/>
+      <c r="M145" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="N145" s="17" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A146" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" s="19" t="e"/>
+      <c r="C146" s="19" t="e"/>
+      <c r="D146" s="19" t="e"/>
+      <c r="E146" s="19" t="e"/>
+      <c r="F146" s="19" t="e"/>
+      <c r="G146" s="19" t="e"/>
+      <c r="H146" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I146" s="10" t="e"/>
+      <c r="J146" s="10" t="e"/>
+      <c r="K146" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="L146" s="10" t="e"/>
+      <c r="M146" s="10" t="e"/>
+      <c r="N146" s="9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A147" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" s="19" t="e"/>
+      <c r="C147" s="19" t="e"/>
+      <c r="D147" s="19" t="e"/>
+      <c r="E147" s="19" t="e"/>
+      <c r="F147" s="19" t="e"/>
+      <c r="G147" s="19" t="e"/>
+      <c r="H147" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I147" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J147" s="10" t="e"/>
+      <c r="K147" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L147" s="10" t="e"/>
+      <c r="M147" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="N147" s="9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A148" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" s="19" t="e"/>
+      <c r="C148" s="19" t="e"/>
+      <c r="D148" s="19" t="e"/>
+      <c r="E148" s="19" t="e"/>
+      <c r="F148" s="19" t="e"/>
+      <c r="G148" s="19" t="e"/>
+      <c r="H148" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I148" s="10" t="e"/>
+      <c r="J148" s="10" t="e"/>
+      <c r="K148" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L148" s="10" t="e"/>
+      <c r="M148" s="10" t="e"/>
+      <c r="N148" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A149" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" s="19" t="e"/>
+      <c r="C149" s="19" t="e"/>
+      <c r="D149" s="19" t="e"/>
+      <c r="E149" s="19" t="e"/>
+      <c r="F149" s="19" t="e"/>
+      <c r="G149" s="19" t="e"/>
+      <c r="H149" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I149" s="10" t="e"/>
+      <c r="J149" s="10" t="e"/>
+      <c r="K149" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L149" s="10" t="e"/>
+      <c r="M149" s="10" t="e"/>
+      <c r="N149" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A150" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="19" t="e"/>
+      <c r="C150" s="19" t="e"/>
+      <c r="D150" s="19" t="e"/>
+      <c r="E150" s="19" t="e"/>
+      <c r="F150" s="19" t="e"/>
+      <c r="G150" s="19" t="e"/>
+      <c r="H150" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B134" s="12" t="e"/>
-      <c r="C134" s="12" t="e"/>
-      <c r="D134" s="12" t="e"/>
-      <c r="E134" s="12" t="e"/>
-      <c r="F134" s="12" t="e"/>
-      <c r="G134" s="12" t="e"/>
-      <c r="H134" s="13" t="n">
-        <v>2956</v>
-      </c>
-      <c r="I134" s="14" t="n">
-        <v>406</v>
-      </c>
-      <c r="J134" s="15" t="e"/>
-      <c r="K134" s="13" t="n">
-        <v>2550</v>
-      </c>
-      <c r="L134" s="15" t="e"/>
-      <c r="M134" s="14" t="n">
-        <v>406</v>
-      </c>
-      <c r="N134" s="13" t="n">
-        <v>2550</v>
+      <c r="I150" s="10" t="e"/>
+      <c r="J150" s="10" t="e"/>
+      <c r="K150" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L150" s="10" t="e"/>
+      <c r="M150" s="10" t="e"/>
+      <c r="N150" s="9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" ht="13" customHeight="true">
+      <c r="A151" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" s="12" t="e"/>
+      <c r="C151" s="12" t="e"/>
+      <c r="D151" s="12" t="e"/>
+      <c r="E151" s="12" t="e"/>
+      <c r="F151" s="12" t="e"/>
+      <c r="G151" s="12" t="e"/>
+      <c r="H151" s="13" t="n">
+        <v>3201</v>
+      </c>
+      <c r="I151" s="14" t="n">
+        <v>305</v>
+      </c>
+      <c r="J151" s="15" t="e"/>
+      <c r="K151" s="13" t="n">
+        <v>2896</v>
+      </c>
+      <c r="L151" s="15" t="e"/>
+      <c r="M151" s="14" t="n">
+        <v>305</v>
+      </c>
+      <c r="N151" s="13" t="n">
+        <v>2896</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="167">
-    <mergeCell ref="D4:K4"/>
+  <mergeCells count="188">
+    <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -3989,154 +4416,175 @@
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A62:G62"/>
     <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:F65"/>
     <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
     <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A70:G70"/>
     <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:F76"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="A79:G79"/>
     <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
     <mergeCell ref="A85:G85"/>
     <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:F88"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A91:G91"/>
     <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:F94"/>
     <mergeCell ref="A95:G95"/>
     <mergeCell ref="A96:G96"/>
     <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:F100"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="A103:G103"/>
     <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:F105"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D111:F111"/>
     <mergeCell ref="A112:G112"/>
     <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="A114:G114"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:F117"/>
     <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="A119:G119"/>
     <mergeCell ref="A120:G120"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="A122:G122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A124:G124"/>
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
     <mergeCell ref="A127:G127"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="A129:G129"/>
     <mergeCell ref="A130:G130"/>
     <mergeCell ref="A131:G131"/>
     <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:F133"/>
     <mergeCell ref="A134:G134"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="A151:G151"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N151"/>
+  <dimension ref="N150"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -638,21 +638,21 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L9" s="10" t="e"/>
       <c r="M9" s="9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -690,21 +690,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1270</v>
+        <v>1187</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1230</v>
+        <v>1139</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1230</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -718,21 +718,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1678</v>
+        <v>1377</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1421</v>
+        <v>1283</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1421</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -746,21 +746,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>3201</v>
+        <v>2799</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2896</v>
+        <v>2656</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2896</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -778,21 +778,17 @@
         <v>24</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I14" s="18" t="e"/>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L14" s="18" t="e"/>
-      <c r="M14" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M14" s="18" t="e"/>
       <c r="N14" s="17" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
@@ -854,21 +850,17 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I17" s="10" t="e"/>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L17" s="10" t="e"/>
-      <c r="M17" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M17" s="10" t="e"/>
       <c r="N17" s="9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -886,21 +878,21 @@
         <v>24</v>
       </c>
       <c r="H18" s="17" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I18" s="17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J18" s="18" t="e"/>
       <c r="K18" s="17" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L18" s="18" t="e"/>
       <c r="M18" s="17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N18" s="17" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="1">
@@ -929,7 +921,7 @@
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
       <c r="A20" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="19" t="e"/>
       <c r="C20" s="19" t="e"/>
@@ -938,182 +930,182 @@
       <c r="F20" s="19" t="e"/>
       <c r="G20" s="19" t="e"/>
       <c r="H20" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I20" s="10" t="e"/>
+        <v>18</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" s="10" t="e"/>
       <c r="K20" s="9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L20" s="10" t="e"/>
-      <c r="M20" s="10" t="e"/>
+      <c r="M20" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A21" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="true">
+      <c r="A21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="16" t="e"/>
+      <c r="C21" s="16" t="e"/>
+      <c r="D21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="16" t="e"/>
+      <c r="F21" s="16" t="e"/>
+      <c r="G21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="I21" s="18" t="e"/>
+      <c r="J21" s="18" t="e"/>
+      <c r="K21" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L21" s="18" t="e"/>
+      <c r="M21" s="18" t="e"/>
+      <c r="N21" s="17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="19" t="e"/>
-      <c r="C21" s="19" t="e"/>
-      <c r="D21" s="19" t="e"/>
-      <c r="E21" s="19" t="e"/>
-      <c r="F21" s="19" t="e"/>
-      <c r="G21" s="19" t="e"/>
-      <c r="H21" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I21" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" s="10" t="e"/>
-      <c r="K21" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="L21" s="10" t="e"/>
-      <c r="M21" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N21" s="9" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="true">
-      <c r="A22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="16" t="e"/>
-      <c r="C22" s="16" t="e"/>
-      <c r="D22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="16" t="e"/>
-      <c r="F22" s="16" t="e"/>
-      <c r="G22" s="16" t="s">
+      <c r="B22" s="19" t="e"/>
+      <c r="C22" s="19" t="e"/>
+      <c r="D22" s="19" t="e"/>
+      <c r="E22" s="19" t="e"/>
+      <c r="F22" s="19" t="e"/>
+      <c r="G22" s="19" t="e"/>
+      <c r="H22" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10" t="e"/>
+      <c r="J22" s="10" t="e"/>
+      <c r="K22" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L22" s="10" t="e"/>
+      <c r="M22" s="10" t="e"/>
+      <c r="N22" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
+      <c r="A23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="16" t="e"/>
+      <c r="C23" s="16" t="e"/>
+      <c r="D23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="16" t="e"/>
+      <c r="F23" s="16" t="e"/>
+      <c r="G23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="I22" s="18" t="e"/>
-      <c r="J22" s="18" t="e"/>
-      <c r="K22" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L22" s="18" t="e"/>
-      <c r="M22" s="18" t="e"/>
-      <c r="N22" s="17" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A23" s="19" t="s">
+      <c r="H23" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="18" t="e"/>
+      <c r="J23" s="18" t="e"/>
+      <c r="K23" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="18" t="e"/>
+      <c r="M23" s="18" t="e"/>
+      <c r="N23" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="19" t="e"/>
-      <c r="C23" s="19" t="e"/>
-      <c r="D23" s="19" t="e"/>
-      <c r="E23" s="19" t="e"/>
-      <c r="F23" s="19" t="e"/>
-      <c r="G23" s="19" t="e"/>
-      <c r="H23" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10" t="e"/>
-      <c r="J23" s="10" t="e"/>
-      <c r="K23" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L23" s="10" t="e"/>
-      <c r="M23" s="10" t="e"/>
-      <c r="N23" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="true">
-      <c r="A24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="16" t="e"/>
-      <c r="C24" s="16" t="e"/>
-      <c r="D24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="16" t="e"/>
-      <c r="F24" s="16" t="e"/>
-      <c r="G24" s="16" t="s">
+      <c r="B24" s="19" t="e"/>
+      <c r="C24" s="19" t="e"/>
+      <c r="D24" s="19" t="e"/>
+      <c r="E24" s="19" t="e"/>
+      <c r="F24" s="19" t="e"/>
+      <c r="G24" s="19" t="e"/>
+      <c r="H24" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10" t="e"/>
+      <c r="J24" s="10" t="e"/>
+      <c r="K24" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" s="10" t="e"/>
+      <c r="M24" s="10" t="e"/>
+      <c r="N24" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
+      <c r="A25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="16" t="e"/>
+      <c r="C25" s="16" t="e"/>
+      <c r="D25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="16" t="e"/>
+      <c r="F25" s="16" t="e"/>
+      <c r="G25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" s="18" t="e"/>
-      <c r="J24" s="18" t="e"/>
-      <c r="K24" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L24" s="18" t="e"/>
-      <c r="M24" s="18" t="e"/>
-      <c r="N24" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="19" t="e"/>
-      <c r="C25" s="19" t="e"/>
-      <c r="D25" s="19" t="e"/>
-      <c r="E25" s="19" t="e"/>
-      <c r="F25" s="19" t="e"/>
-      <c r="G25" s="19" t="e"/>
-      <c r="H25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="10" t="e"/>
-      <c r="J25" s="10" t="e"/>
-      <c r="K25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L25" s="10" t="e"/>
-      <c r="M25" s="10" t="e"/>
-      <c r="N25" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true">
-      <c r="A26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="16" t="e"/>
-      <c r="C26" s="16" t="e"/>
-      <c r="D26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="16" t="e"/>
-      <c r="F26" s="16" t="e"/>
-      <c r="G26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="17" t="n">
+      <c r="H25" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="I26" s="18" t="e"/>
-      <c r="J26" s="18" t="e"/>
-      <c r="K26" s="17" t="n">
+      <c r="I25" s="18" t="e"/>
+      <c r="J25" s="18" t="e"/>
+      <c r="K25" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="L26" s="18" t="e"/>
-      <c r="M26" s="18" t="e"/>
-      <c r="N26" s="17" t="n">
+      <c r="L25" s="18" t="e"/>
+      <c r="M25" s="18" t="e"/>
+      <c r="N25" s="17" t="n">
         <v>82</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19" t="e"/>
+      <c r="C26" s="19" t="e"/>
+      <c r="D26" s="19" t="e"/>
+      <c r="E26" s="19" t="e"/>
+      <c r="F26" s="19" t="e"/>
+      <c r="G26" s="19" t="e"/>
+      <c r="H26" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="I26" s="10" t="e"/>
+      <c r="J26" s="10" t="e"/>
+      <c r="K26" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L26" s="10" t="e"/>
+      <c r="M26" s="10" t="e"/>
+      <c r="N26" s="9" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="A27" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="19" t="e"/>
       <c r="C27" s="19" t="e"/>
@@ -1122,74 +1114,74 @@
       <c r="F27" s="19" t="e"/>
       <c r="G27" s="19" t="e"/>
       <c r="H27" s="9" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I27" s="10" t="e"/>
       <c r="J27" s="10" t="e"/>
       <c r="K27" s="9" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L27" s="10" t="e"/>
       <c r="M27" s="10" t="e"/>
       <c r="N27" s="9" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19" t="e"/>
-      <c r="C28" s="19" t="e"/>
-      <c r="D28" s="19" t="e"/>
-      <c r="E28" s="19" t="e"/>
-      <c r="F28" s="19" t="e"/>
-      <c r="G28" s="19" t="e"/>
-      <c r="H28" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="I28" s="10" t="e"/>
-      <c r="J28" s="10" t="e"/>
-      <c r="K28" s="9" t="n">
+    </row>
+    <row r="28" ht="22" customHeight="true">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="10" t="e"/>
-      <c r="M28" s="10" t="e"/>
-      <c r="N28" s="9" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" ht="22" customHeight="true">
-      <c r="A29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="16" t="e"/>
-      <c r="C29" s="16" t="e"/>
-      <c r="D29" s="16" t="s">
+      <c r="B28" s="16" t="e"/>
+      <c r="C28" s="16" t="e"/>
+      <c r="D28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="16" t="e"/>
-      <c r="F29" s="16" t="e"/>
-      <c r="G29" s="16" t="s">
+      <c r="E28" s="16" t="e"/>
+      <c r="F28" s="16" t="e"/>
+      <c r="G28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="17" t="n">
+      <c r="H28" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="I29" s="18" t="e"/>
-      <c r="J29" s="18" t="e"/>
-      <c r="K29" s="17" t="n">
+      <c r="I28" s="18" t="e"/>
+      <c r="J28" s="18" t="e"/>
+      <c r="K28" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="L29" s="18" t="e"/>
-      <c r="M29" s="18" t="e"/>
-      <c r="N29" s="17" t="n">
+      <c r="L28" s="18" t="e"/>
+      <c r="M28" s="18" t="e"/>
+      <c r="N28" s="17" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="19" t="e"/>
+      <c r="C29" s="19" t="e"/>
+      <c r="D29" s="19" t="e"/>
+      <c r="E29" s="19" t="e"/>
+      <c r="F29" s="19" t="e"/>
+      <c r="G29" s="19" t="e"/>
+      <c r="H29" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10" t="e"/>
+      <c r="J29" s="10" t="e"/>
+      <c r="K29" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="10" t="e"/>
+      <c r="M29" s="10" t="e"/>
+      <c r="N29" s="9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="A30" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="19" t="e"/>
       <c r="C30" s="19" t="e"/>
@@ -1198,74 +1190,74 @@
       <c r="F30" s="19" t="e"/>
       <c r="G30" s="19" t="e"/>
       <c r="H30" s="9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I30" s="10" t="e"/>
       <c r="J30" s="10" t="e"/>
       <c r="K30" s="9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L30" s="10" t="e"/>
       <c r="M30" s="10" t="e"/>
       <c r="N30" s="9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A31" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="19" t="e"/>
-      <c r="C31" s="19" t="e"/>
-      <c r="D31" s="19" t="e"/>
-      <c r="E31" s="19" t="e"/>
-      <c r="F31" s="19" t="e"/>
-      <c r="G31" s="19" t="e"/>
-      <c r="H31" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="I31" s="10" t="e"/>
-      <c r="J31" s="10" t="e"/>
-      <c r="K31" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L31" s="10" t="e"/>
-      <c r="M31" s="10" t="e"/>
-      <c r="N31" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="22" customHeight="true">
-      <c r="A32" s="16" t="s">
+    </row>
+    <row r="31" ht="22" customHeight="true">
+      <c r="A31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="16" t="e"/>
-      <c r="C32" s="16" t="e"/>
-      <c r="D32" s="16" t="s">
+      <c r="B31" s="16" t="e"/>
+      <c r="C31" s="16" t="e"/>
+      <c r="D31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="16" t="e"/>
-      <c r="F32" s="16" t="e"/>
-      <c r="G32" s="16" t="s">
+      <c r="E31" s="16" t="e"/>
+      <c r="F31" s="16" t="e"/>
+      <c r="G31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="17" t="n">
+      <c r="H31" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="I32" s="18" t="e"/>
-      <c r="J32" s="18" t="e"/>
-      <c r="K32" s="17" t="n">
+      <c r="I31" s="18" t="e"/>
+      <c r="J31" s="18" t="e"/>
+      <c r="K31" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="L32" s="18" t="e"/>
-      <c r="M32" s="18" t="e"/>
-      <c r="N32" s="17" t="n">
+      <c r="L31" s="18" t="e"/>
+      <c r="M31" s="18" t="e"/>
+      <c r="N31" s="17" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="e"/>
+      <c r="C32" s="19" t="e"/>
+      <c r="D32" s="19" t="e"/>
+      <c r="E32" s="19" t="e"/>
+      <c r="F32" s="19" t="e"/>
+      <c r="G32" s="19" t="e"/>
+      <c r="H32" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" s="10" t="e"/>
+      <c r="J32" s="10" t="e"/>
+      <c r="K32" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" s="10" t="e"/>
+      <c r="M32" s="10" t="e"/>
+      <c r="N32" s="9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="19" t="e"/>
       <c r="C33" s="19" t="e"/>
@@ -1274,178 +1266,182 @@
       <c r="F33" s="19" t="e"/>
       <c r="G33" s="19" t="e"/>
       <c r="H33" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I33" s="10" t="e"/>
       <c r="J33" s="10" t="e"/>
       <c r="K33" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L33" s="10" t="e"/>
       <c r="M33" s="10" t="e"/>
       <c r="N33" s="9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A34" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
+      <c r="A34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="16" t="e"/>
+      <c r="C34" s="16" t="e"/>
+      <c r="D34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="16" t="e"/>
+      <c r="F34" s="16" t="e"/>
+      <c r="G34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" s="18" t="e"/>
+      <c r="J34" s="18" t="e"/>
+      <c r="K34" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="18" t="e"/>
+      <c r="M34" s="18" t="e"/>
+      <c r="N34" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A35" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="19" t="e"/>
-      <c r="C34" s="19" t="e"/>
-      <c r="D34" s="19" t="e"/>
-      <c r="E34" s="19" t="e"/>
-      <c r="F34" s="19" t="e"/>
-      <c r="G34" s="19" t="e"/>
-      <c r="H34" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I34" s="10" t="e"/>
-      <c r="J34" s="10" t="e"/>
-      <c r="K34" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L34" s="10" t="e"/>
-      <c r="M34" s="10" t="e"/>
-      <c r="N34" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" ht="22" customHeight="true">
-      <c r="A35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="16" t="e"/>
-      <c r="C35" s="16" t="e"/>
-      <c r="D35" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="16" t="e"/>
-      <c r="F35" s="16" t="e"/>
-      <c r="G35" s="16" t="s">
+      <c r="B35" s="19" t="e"/>
+      <c r="C35" s="19" t="e"/>
+      <c r="D35" s="19" t="e"/>
+      <c r="E35" s="19" t="e"/>
+      <c r="F35" s="19" t="e"/>
+      <c r="G35" s="19" t="e"/>
+      <c r="H35" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" s="10" t="e"/>
+      <c r="J35" s="10" t="e"/>
+      <c r="K35" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L35" s="10" t="e"/>
+      <c r="M35" s="10" t="e"/>
+      <c r="N35" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true">
+      <c r="A36" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="16" t="e"/>
+      <c r="C36" s="16" t="e"/>
+      <c r="D36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="16" t="e"/>
+      <c r="F36" s="16" t="e"/>
+      <c r="G36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" s="18" t="e"/>
-      <c r="J35" s="18" t="e"/>
-      <c r="K35" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L35" s="18" t="e"/>
-      <c r="M35" s="18" t="e"/>
-      <c r="N35" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A36" s="19" t="s">
+      <c r="H36" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" s="18" t="e"/>
+      <c r="J36" s="18" t="e"/>
+      <c r="K36" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="L36" s="18" t="e"/>
+      <c r="M36" s="18" t="e"/>
+      <c r="N36" s="17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="19" t="e"/>
-      <c r="C36" s="19" t="e"/>
-      <c r="D36" s="19" t="e"/>
-      <c r="E36" s="19" t="e"/>
-      <c r="F36" s="19" t="e"/>
-      <c r="G36" s="19" t="e"/>
-      <c r="H36" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" s="10" t="e"/>
-      <c r="J36" s="10" t="e"/>
-      <c r="K36" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L36" s="10" t="e"/>
-      <c r="M36" s="10" t="e"/>
-      <c r="N36" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true">
-      <c r="A37" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="16" t="e"/>
-      <c r="C37" s="16" t="e"/>
-      <c r="D37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="16" t="e"/>
-      <c r="F37" s="16" t="e"/>
-      <c r="G37" s="16" t="s">
+      <c r="B37" s="19" t="e"/>
+      <c r="C37" s="19" t="e"/>
+      <c r="D37" s="19" t="e"/>
+      <c r="E37" s="19" t="e"/>
+      <c r="F37" s="19" t="e"/>
+      <c r="G37" s="19" t="e"/>
+      <c r="H37" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" s="10" t="e"/>
+      <c r="J37" s="10" t="e"/>
+      <c r="K37" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L37" s="10" t="e"/>
+      <c r="M37" s="10" t="e"/>
+      <c r="N37" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="16" t="e"/>
+      <c r="C38" s="16" t="e"/>
+      <c r="D38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="16" t="e"/>
+      <c r="F38" s="16" t="e"/>
+      <c r="G38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="17" t="n">
+      <c r="H38" s="17" t="n">
+        <v>248</v>
+      </c>
+      <c r="I38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18" t="e"/>
+      <c r="K38" s="17" t="n">
+        <v>247</v>
+      </c>
+      <c r="L38" s="18" t="e"/>
+      <c r="M38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="17" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A39" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="18" t="e"/>
-      <c r="J37" s="18" t="e"/>
-      <c r="K37" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L37" s="18" t="e"/>
-      <c r="M37" s="18" t="e"/>
-      <c r="N37" s="17" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A38" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="19" t="e"/>
-      <c r="C38" s="19" t="e"/>
-      <c r="D38" s="19" t="e"/>
-      <c r="E38" s="19" t="e"/>
-      <c r="F38" s="19" t="e"/>
-      <c r="G38" s="19" t="e"/>
-      <c r="H38" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="10" t="e"/>
-      <c r="J38" s="10" t="e"/>
-      <c r="K38" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L38" s="10" t="e"/>
-      <c r="M38" s="10" t="e"/>
-      <c r="N38" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true">
-      <c r="A39" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="16" t="e"/>
-      <c r="C39" s="16" t="e"/>
-      <c r="D39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="16" t="e"/>
-      <c r="F39" s="16" t="e"/>
-      <c r="G39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="17" t="n">
-        <v>248</v>
-      </c>
-      <c r="I39" s="18" t="e"/>
-      <c r="J39" s="18" t="e"/>
-      <c r="K39" s="17" t="n">
-        <v>248</v>
-      </c>
-      <c r="L39" s="18" t="e"/>
-      <c r="M39" s="18" t="e"/>
-      <c r="N39" s="17" t="n">
-        <v>248</v>
+      <c r="B39" s="19" t="e"/>
+      <c r="C39" s="19" t="e"/>
+      <c r="D39" s="19" t="e"/>
+      <c r="E39" s="19" t="e"/>
+      <c r="F39" s="19" t="e"/>
+      <c r="G39" s="19" t="e"/>
+      <c r="H39" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="I39" s="10" t="e"/>
+      <c r="J39" s="10" t="e"/>
+      <c r="K39" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="L39" s="10" t="e"/>
+      <c r="M39" s="10" t="e"/>
+      <c r="N39" s="9" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="1">
       <c r="A40" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="19" t="e"/>
       <c r="C40" s="19" t="e"/>
@@ -1454,22 +1450,22 @@
       <c r="F40" s="19" t="e"/>
       <c r="G40" s="19" t="e"/>
       <c r="H40" s="9" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I40" s="10" t="e"/>
       <c r="J40" s="10" t="e"/>
       <c r="K40" s="9" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="L40" s="10" t="e"/>
       <c r="M40" s="10" t="e"/>
       <c r="N40" s="9" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="1">
       <c r="A41" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" s="19" t="e"/>
       <c r="C41" s="19" t="e"/>
@@ -1478,78 +1474,82 @@
       <c r="F41" s="19" t="e"/>
       <c r="G41" s="19" t="e"/>
       <c r="H41" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I41" s="10" t="e"/>
+        <v>103</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J41" s="10" t="e"/>
       <c r="K41" s="9" t="n">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="L41" s="10" t="e"/>
-      <c r="M41" s="10" t="e"/>
+      <c r="M41" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N41" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="19" t="e"/>
-      <c r="C42" s="19" t="e"/>
-      <c r="D42" s="19" t="e"/>
-      <c r="E42" s="19" t="e"/>
-      <c r="F42" s="19" t="e"/>
-      <c r="G42" s="19" t="e"/>
-      <c r="H42" s="9" t="n">
-        <v>103</v>
-      </c>
-      <c r="I42" s="10" t="e"/>
-      <c r="J42" s="10" t="e"/>
-      <c r="K42" s="9" t="n">
-        <v>103</v>
-      </c>
-      <c r="L42" s="10" t="e"/>
-      <c r="M42" s="10" t="e"/>
-      <c r="N42" s="9" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true">
-      <c r="A43" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true">
+      <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="16" t="e"/>
-      <c r="C43" s="16" t="e"/>
-      <c r="D43" s="16" t="s">
+      <c r="B42" s="16" t="e"/>
+      <c r="C42" s="16" t="e"/>
+      <c r="D42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="16" t="e"/>
-      <c r="F43" s="16" t="e"/>
-      <c r="G43" s="16" t="s">
+      <c r="E42" s="16" t="e"/>
+      <c r="F42" s="16" t="e"/>
+      <c r="G42" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="17" t="n">
-        <v>142</v>
-      </c>
-      <c r="I43" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" s="18" t="e"/>
-      <c r="K43" s="17" t="n">
-        <v>140</v>
-      </c>
-      <c r="L43" s="18" t="e"/>
-      <c r="M43" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" s="17" t="n">
-        <v>140</v>
+      <c r="H42" s="17" t="n">
+        <v>129</v>
+      </c>
+      <c r="I42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="18" t="e"/>
+      <c r="K42" s="17" t="n">
+        <v>128</v>
+      </c>
+      <c r="L42" s="18" t="e"/>
+      <c r="M42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="17" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="19" t="e"/>
+      <c r="C43" s="19" t="e"/>
+      <c r="D43" s="19" t="e"/>
+      <c r="E43" s="19" t="e"/>
+      <c r="F43" s="19" t="e"/>
+      <c r="G43" s="19" t="e"/>
+      <c r="H43" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="I43" s="10" t="e"/>
+      <c r="J43" s="10" t="e"/>
+      <c r="K43" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="L43" s="10" t="e"/>
+      <c r="M43" s="10" t="e"/>
+      <c r="N43" s="9" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="A44" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B44" s="19" t="e"/>
       <c r="C44" s="19" t="e"/>
@@ -1558,22 +1558,22 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I44" s="10" t="e"/>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L44" s="10" t="e"/>
       <c r="M44" s="10" t="e"/>
       <c r="N44" s="9" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="A45" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B45" s="19" t="e"/>
       <c r="C45" s="19" t="e"/>
@@ -1582,22 +1582,22 @@
       <c r="F45" s="19" t="e"/>
       <c r="G45" s="19" t="e"/>
       <c r="H45" s="9" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="I45" s="10" t="e"/>
       <c r="J45" s="10" t="e"/>
       <c r="K45" s="9" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="L45" s="10" t="e"/>
       <c r="M45" s="10" t="e"/>
       <c r="N45" s="9" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
       <c r="A46" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B46" s="19" t="e"/>
       <c r="C46" s="19" t="e"/>
@@ -1606,22 +1606,22 @@
       <c r="F46" s="19" t="e"/>
       <c r="G46" s="19" t="e"/>
       <c r="H46" s="9" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I46" s="10" t="e"/>
       <c r="J46" s="10" t="e"/>
       <c r="K46" s="9" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L46" s="10" t="e"/>
       <c r="M46" s="10" t="e"/>
       <c r="N46" s="9" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="A47" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" s="19" t="e"/>
       <c r="C47" s="19" t="e"/>
@@ -1630,78 +1630,86 @@
       <c r="F47" s="19" t="e"/>
       <c r="G47" s="19" t="e"/>
       <c r="H47" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="10" t="e"/>
+        <v>22</v>
+      </c>
+      <c r="I47" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J47" s="10" t="e"/>
       <c r="K47" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L47" s="10" t="e"/>
+      <c r="M47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="16" t="e"/>
+      <c r="C48" s="16" t="e"/>
+      <c r="D48" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="16" t="e"/>
+      <c r="F48" s="16" t="e"/>
+      <c r="G48" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="I48" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J48" s="18" t="e"/>
+      <c r="K48" s="17" t="n">
+        <v>148</v>
+      </c>
+      <c r="L48" s="18" t="e"/>
+      <c r="M48" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N48" s="17" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="10" t="e"/>
-      <c r="M47" s="10" t="e"/>
-      <c r="N47" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A48" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="19" t="e"/>
-      <c r="C48" s="19" t="e"/>
-      <c r="D48" s="19" t="e"/>
-      <c r="E48" s="19" t="e"/>
-      <c r="F48" s="19" t="e"/>
-      <c r="G48" s="19" t="e"/>
-      <c r="H48" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I48" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" s="10" t="e"/>
-      <c r="K48" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L48" s="10" t="e"/>
-      <c r="M48" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N48" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="A49" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="16" t="e"/>
-      <c r="C49" s="16" t="e"/>
-      <c r="D49" s="16" t="s">
+      <c r="B49" s="19" t="e"/>
+      <c r="C49" s="19" t="e"/>
+      <c r="D49" s="19" t="e"/>
+      <c r="E49" s="19" t="e"/>
+      <c r="F49" s="19" t="e"/>
+      <c r="G49" s="19" t="e"/>
+      <c r="H49" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="E49" s="16" t="e"/>
-      <c r="F49" s="16" t="e"/>
-      <c r="G49" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="I49" s="18" t="e"/>
-      <c r="J49" s="18" t="e"/>
-      <c r="K49" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="L49" s="18" t="e"/>
-      <c r="M49" s="18" t="e"/>
-      <c r="N49" s="17" t="n">
-        <v>168</v>
+      <c r="I49" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="J49" s="10" t="e"/>
+      <c r="K49" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="L49" s="10" t="e"/>
+      <c r="M49" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N49" s="9" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B50" s="19" t="e"/>
       <c r="C50" s="19" t="e"/>
@@ -1710,22 +1718,22 @@
       <c r="F50" s="19" t="e"/>
       <c r="G50" s="19" t="e"/>
       <c r="H50" s="9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I50" s="10" t="e"/>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L50" s="10" t="e"/>
       <c r="M50" s="10" t="e"/>
       <c r="N50" s="9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="1">
       <c r="A51" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" s="19" t="e"/>
       <c r="C51" s="19" t="e"/>
@@ -1734,74 +1742,82 @@
       <c r="F51" s="19" t="e"/>
       <c r="G51" s="19" t="e"/>
       <c r="H51" s="9" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="I51" s="10" t="e"/>
       <c r="J51" s="10" t="e"/>
       <c r="K51" s="9" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="L51" s="10" t="e"/>
       <c r="M51" s="10" t="e"/>
       <c r="N51" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A52" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="19" t="e"/>
-      <c r="C52" s="19" t="e"/>
-      <c r="D52" s="19" t="e"/>
-      <c r="E52" s="19" t="e"/>
-      <c r="F52" s="19" t="e"/>
-      <c r="G52" s="19" t="e"/>
-      <c r="H52" s="9" t="n">
         <v>87</v>
       </c>
-      <c r="I52" s="10" t="e"/>
-      <c r="J52" s="10" t="e"/>
-      <c r="K52" s="9" t="n">
-        <v>87</v>
-      </c>
-      <c r="L52" s="10" t="e"/>
-      <c r="M52" s="10" t="e"/>
-      <c r="N52" s="9" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
-      <c r="A53" s="16" t="s">
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="16" t="e"/>
-      <c r="C53" s="16" t="e"/>
-      <c r="D53" s="16" t="s">
+      <c r="B52" s="16" t="e"/>
+      <c r="C52" s="16" t="e"/>
+      <c r="D52" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="16" t="e"/>
-      <c r="F53" s="16" t="e"/>
-      <c r="G53" s="16" t="s">
+      <c r="E52" s="16" t="e"/>
+      <c r="F52" s="16" t="e"/>
+      <c r="G52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="17" t="n">
-        <v>154</v>
-      </c>
-      <c r="I53" s="18" t="e"/>
-      <c r="J53" s="18" t="e"/>
-      <c r="K53" s="17" t="n">
-        <v>154</v>
-      </c>
-      <c r="L53" s="18" t="e"/>
-      <c r="M53" s="18" t="e"/>
-      <c r="N53" s="17" t="n">
-        <v>154</v>
+      <c r="H52" s="17" t="n">
+        <v>136</v>
+      </c>
+      <c r="I52" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" s="18" t="e"/>
+      <c r="K52" s="17" t="n">
+        <v>133</v>
+      </c>
+      <c r="L52" s="18" t="e"/>
+      <c r="M52" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" s="17" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A53" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="19" t="e"/>
+      <c r="C53" s="19" t="e"/>
+      <c r="D53" s="19" t="e"/>
+      <c r="E53" s="19" t="e"/>
+      <c r="F53" s="19" t="e"/>
+      <c r="G53" s="19" t="e"/>
+      <c r="H53" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="I53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="10" t="e"/>
+      <c r="K53" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L53" s="10" t="e"/>
+      <c r="M53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="9" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1810,22 +1826,22 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I54" s="10" t="e"/>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="10" t="e"/>
       <c r="N54" s="9" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1834,22 +1850,22 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L55" s="10" t="e"/>
       <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
       <c r="A56" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" s="19" t="e"/>
       <c r="C56" s="19" t="e"/>
@@ -1858,22 +1874,22 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I56" s="10" t="e"/>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L56" s="10" t="e"/>
       <c r="M56" s="10" t="e"/>
       <c r="N56" s="9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
       <c r="A57" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="19" t="e"/>
       <c r="C57" s="19" t="e"/>
@@ -1882,78 +1898,82 @@
       <c r="F57" s="19" t="e"/>
       <c r="G57" s="19" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I57" s="10" t="e"/>
+        <v>33</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L57" s="10" t="e"/>
-      <c r="M57" s="10" t="e"/>
+      <c r="M57" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N57" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A58" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="19" t="e"/>
-      <c r="C58" s="19" t="e"/>
-      <c r="D58" s="19" t="e"/>
-      <c r="E58" s="19" t="e"/>
-      <c r="F58" s="19" t="e"/>
-      <c r="G58" s="19" t="e"/>
-      <c r="H58" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I58" s="10" t="e"/>
-      <c r="J58" s="10" t="e"/>
-      <c r="K58" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="L58" s="10" t="e"/>
-      <c r="M58" s="10" t="e"/>
-      <c r="N58" s="9" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true">
-      <c r="A59" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="16" t="e"/>
-      <c r="C59" s="16" t="e"/>
-      <c r="D59" s="16" t="s">
+      <c r="B58" s="16" t="e"/>
+      <c r="C58" s="16" t="e"/>
+      <c r="D58" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="16" t="e"/>
-      <c r="F59" s="16" t="e"/>
-      <c r="G59" s="16" t="s">
+      <c r="E58" s="16" t="e"/>
+      <c r="F58" s="16" t="e"/>
+      <c r="G58" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="17" t="n">
-        <v>112</v>
-      </c>
-      <c r="I59" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" s="18" t="e"/>
-      <c r="K59" s="17" t="n">
+      <c r="H58" s="17" t="n">
         <v>108</v>
       </c>
-      <c r="L59" s="18" t="e"/>
-      <c r="M59" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N59" s="17" t="n">
-        <v>108</v>
+      <c r="I58" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" s="18" t="e"/>
+      <c r="K58" s="17" t="n">
+        <v>102</v>
+      </c>
+      <c r="L58" s="18" t="e"/>
+      <c r="M58" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N58" s="17" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A59" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="19" t="e"/>
+      <c r="C59" s="19" t="e"/>
+      <c r="D59" s="19" t="e"/>
+      <c r="E59" s="19" t="e"/>
+      <c r="F59" s="19" t="e"/>
+      <c r="G59" s="19" t="e"/>
+      <c r="H59" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I59" s="10" t="e"/>
+      <c r="J59" s="10" t="e"/>
+      <c r="K59" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="L59" s="10" t="e"/>
+      <c r="M59" s="10" t="e"/>
+      <c r="N59" s="9" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1962,22 +1982,22 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L60" s="10" t="e"/>
       <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -1986,22 +2006,22 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I61" s="10" t="e"/>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L61" s="10" t="e"/>
       <c r="M61" s="10" t="e"/>
       <c r="N61" s="9" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" ht="11" customHeight="true" outlineLevel="1">
       <c r="A62" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B62" s="19" t="e"/>
       <c r="C62" s="19" t="e"/>
@@ -2010,22 +2030,22 @@
       <c r="F62" s="19" t="e"/>
       <c r="G62" s="19" t="e"/>
       <c r="H62" s="9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I62" s="10" t="e"/>
       <c r="J62" s="10" t="e"/>
       <c r="K62" s="9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L62" s="10" t="e"/>
       <c r="M62" s="10" t="e"/>
       <c r="N62" s="9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true" outlineLevel="1">
       <c r="A63" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B63" s="19" t="e"/>
       <c r="C63" s="19" t="e"/>
@@ -2034,182 +2054,182 @@
       <c r="F63" s="19" t="e"/>
       <c r="G63" s="19" t="e"/>
       <c r="H63" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I63" s="10" t="e"/>
+        <v>31</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J63" s="10" t="e"/>
       <c r="K63" s="9" t="n">
         <v>25</v>
       </c>
       <c r="L63" s="10" t="e"/>
-      <c r="M63" s="10" t="e"/>
+      <c r="M63" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N63" s="9" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="64" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A64" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="19" t="e"/>
-      <c r="C64" s="19" t="e"/>
-      <c r="D64" s="19" t="e"/>
-      <c r="E64" s="19" t="e"/>
-      <c r="F64" s="19" t="e"/>
-      <c r="G64" s="19" t="e"/>
-      <c r="H64" s="9" t="n">
+    <row r="64" ht="11" customHeight="true">
+      <c r="A64" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="16" t="e"/>
+      <c r="C64" s="16" t="e"/>
+      <c r="D64" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="16" t="e"/>
+      <c r="F64" s="16" t="e"/>
+      <c r="G64" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="I64" s="18" t="e"/>
+      <c r="J64" s="18" t="e"/>
+      <c r="K64" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="L64" s="18" t="e"/>
+      <c r="M64" s="18" t="e"/>
+      <c r="N64" s="17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A65" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" s="10" t="e"/>
-      <c r="K64" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="L64" s="10" t="e"/>
-      <c r="M64" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" ht="11" customHeight="true">
-      <c r="A65" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="16" t="e"/>
-      <c r="C65" s="16" t="e"/>
-      <c r="D65" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="16" t="e"/>
-      <c r="F65" s="16" t="e"/>
-      <c r="G65" s="16" t="s">
+      <c r="B65" s="19" t="e"/>
+      <c r="C65" s="19" t="e"/>
+      <c r="D65" s="19" t="e"/>
+      <c r="E65" s="19" t="e"/>
+      <c r="F65" s="19" t="e"/>
+      <c r="G65" s="19" t="e"/>
+      <c r="H65" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="H65" s="17" t="n">
+      <c r="I65" s="10" t="e"/>
+      <c r="J65" s="10" t="e"/>
+      <c r="K65" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="L65" s="10" t="e"/>
+      <c r="M65" s="10" t="e"/>
+      <c r="N65" s="9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true">
+      <c r="A66" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="16" t="e"/>
+      <c r="C66" s="16" t="e"/>
+      <c r="D66" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="16" t="e"/>
+      <c r="F66" s="16" t="e"/>
+      <c r="G66" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="I65" s="18" t="e"/>
-      <c r="J65" s="18" t="e"/>
-      <c r="K65" s="17" t="n">
+      <c r="I66" s="18" t="e"/>
+      <c r="J66" s="18" t="e"/>
+      <c r="K66" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="L65" s="18" t="e"/>
-      <c r="M65" s="18" t="e"/>
-      <c r="N65" s="17" t="n">
+      <c r="L66" s="18" t="e"/>
+      <c r="M66" s="18" t="e"/>
+      <c r="N66" s="17" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="66" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A66" s="19" t="s">
+    <row r="67" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A67" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="19" t="e"/>
+      <c r="C67" s="19" t="e"/>
+      <c r="D67" s="19" t="e"/>
+      <c r="E67" s="19" t="e"/>
+      <c r="F67" s="19" t="e"/>
+      <c r="G67" s="19" t="e"/>
+      <c r="H67" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B66" s="19" t="e"/>
-      <c r="C66" s="19" t="e"/>
-      <c r="D66" s="19" t="e"/>
-      <c r="E66" s="19" t="e"/>
-      <c r="F66" s="19" t="e"/>
-      <c r="G66" s="19" t="e"/>
-      <c r="H66" s="9" t="n">
+      <c r="I67" s="10" t="e"/>
+      <c r="J67" s="10" t="e"/>
+      <c r="K67" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="I66" s="10" t="e"/>
-      <c r="J66" s="10" t="e"/>
-      <c r="K66" s="9" t="n">
+      <c r="L67" s="10" t="e"/>
+      <c r="M67" s="10" t="e"/>
+      <c r="N67" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="L66" s="10" t="e"/>
-      <c r="M66" s="10" t="e"/>
-      <c r="N66" s="9" t="n">
+    </row>
+    <row r="68" ht="11" customHeight="true">
+      <c r="A68" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="16" t="e"/>
+      <c r="C68" s="16" t="e"/>
+      <c r="D68" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="16" t="e"/>
+      <c r="F68" s="16" t="e"/>
+      <c r="G68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="I68" s="18" t="e"/>
+      <c r="J68" s="18" t="e"/>
+      <c r="K68" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="L68" s="18" t="e"/>
+      <c r="M68" s="18" t="e"/>
+      <c r="N68" s="17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A69" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" ht="11" customHeight="true">
-      <c r="A67" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="16" t="e"/>
-      <c r="C67" s="16" t="e"/>
-      <c r="D67" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E67" s="16" t="e"/>
-      <c r="F67" s="16" t="e"/>
-      <c r="G67" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I67" s="18" t="e"/>
-      <c r="J67" s="18" t="e"/>
-      <c r="K67" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="L67" s="18" t="e"/>
-      <c r="M67" s="18" t="e"/>
-      <c r="N67" s="17" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A68" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="19" t="e"/>
-      <c r="C68" s="19" t="e"/>
-      <c r="D68" s="19" t="e"/>
-      <c r="E68" s="19" t="e"/>
-      <c r="F68" s="19" t="e"/>
-      <c r="G68" s="19" t="e"/>
-      <c r="H68" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I68" s="10" t="e"/>
-      <c r="J68" s="10" t="e"/>
-      <c r="K68" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L68" s="10" t="e"/>
-      <c r="M68" s="10" t="e"/>
-      <c r="N68" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="true">
-      <c r="A69" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="16" t="e"/>
-      <c r="C69" s="16" t="e"/>
-      <c r="D69" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="16" t="e"/>
-      <c r="F69" s="16" t="e"/>
-      <c r="G69" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I69" s="18" t="e"/>
-      <c r="J69" s="18" t="e"/>
-      <c r="K69" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="L69" s="18" t="e"/>
-      <c r="M69" s="18" t="e"/>
-      <c r="N69" s="17" t="n">
-        <v>25</v>
+      <c r="B69" s="19" t="e"/>
+      <c r="C69" s="19" t="e"/>
+      <c r="D69" s="19" t="e"/>
+      <c r="E69" s="19" t="e"/>
+      <c r="F69" s="19" t="e"/>
+      <c r="G69" s="19" t="e"/>
+      <c r="H69" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I69" s="10" t="e"/>
+      <c r="J69" s="10" t="e"/>
+      <c r="K69" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L69" s="10" t="e"/>
+      <c r="M69" s="10" t="e"/>
+      <c r="N69" s="9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2218,74 +2238,78 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L70" s="10" t="e"/>
       <c r="M70" s="10" t="e"/>
       <c r="N70" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A71" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="19" t="e"/>
-      <c r="C71" s="19" t="e"/>
-      <c r="D71" s="19" t="e"/>
-      <c r="E71" s="19" t="e"/>
-      <c r="F71" s="19" t="e"/>
-      <c r="G71" s="19" t="e"/>
-      <c r="H71" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I71" s="10" t="e"/>
-      <c r="J71" s="10" t="e"/>
-      <c r="K71" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L71" s="10" t="e"/>
-      <c r="M71" s="10" t="e"/>
-      <c r="N71" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true">
-      <c r="A72" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true">
+      <c r="A71" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="16" t="e"/>
-      <c r="C72" s="16" t="e"/>
-      <c r="D72" s="16" t="s">
+      <c r="B71" s="16" t="e"/>
+      <c r="C71" s="16" t="e"/>
+      <c r="D71" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="16" t="e"/>
-      <c r="F72" s="16" t="e"/>
-      <c r="G72" s="16" t="s">
+      <c r="E71" s="16" t="e"/>
+      <c r="F71" s="16" t="e"/>
+      <c r="G71" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H72" s="17" t="n">
+      <c r="H71" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="I72" s="18" t="e"/>
-      <c r="J72" s="18" t="e"/>
-      <c r="K72" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" s="18" t="e"/>
-      <c r="M72" s="18" t="e"/>
-      <c r="N72" s="17" t="n">
-        <v>100</v>
+      <c r="I71" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" s="18" t="e"/>
+      <c r="K71" s="17" t="n">
+        <v>98</v>
+      </c>
+      <c r="L71" s="18" t="e"/>
+      <c r="M71" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" s="17" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A72" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="19" t="e"/>
+      <c r="C72" s="19" t="e"/>
+      <c r="D72" s="19" t="e"/>
+      <c r="E72" s="19" t="e"/>
+      <c r="F72" s="19" t="e"/>
+      <c r="G72" s="19" t="e"/>
+      <c r="H72" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I72" s="10" t="e"/>
+      <c r="J72" s="10" t="e"/>
+      <c r="K72" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L72" s="10" t="e"/>
+      <c r="M72" s="10" t="e"/>
+      <c r="N72" s="9" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="A73" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B73" s="19" t="e"/>
       <c r="C73" s="19" t="e"/>
@@ -2294,46 +2318,58 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I73" s="10" t="e"/>
+        <v>70</v>
+      </c>
+      <c r="I73" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="L73" s="10" t="e"/>
-      <c r="M73" s="10" t="e"/>
+      <c r="M73" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N73" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A74" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" s="19" t="e"/>
-      <c r="C74" s="19" t="e"/>
-      <c r="D74" s="19" t="e"/>
-      <c r="E74" s="19" t="e"/>
-      <c r="F74" s="19" t="e"/>
-      <c r="G74" s="19" t="e"/>
-      <c r="H74" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I74" s="10" t="e"/>
-      <c r="J74" s="10" t="e"/>
-      <c r="K74" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L74" s="10" t="e"/>
-      <c r="M74" s="10" t="e"/>
-      <c r="N74" s="9" t="n">
-        <v>20</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" ht="22" customHeight="true">
+      <c r="A74" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="16" t="e"/>
+      <c r="C74" s="16" t="e"/>
+      <c r="D74" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="16" t="e"/>
+      <c r="F74" s="16" t="e"/>
+      <c r="G74" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="17" t="n">
+        <v>124</v>
+      </c>
+      <c r="I74" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" s="18" t="e"/>
+      <c r="K74" s="17" t="n">
+        <v>119</v>
+      </c>
+      <c r="L74" s="18" t="e"/>
+      <c r="M74" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" s="17" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
       <c r="A75" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75" s="19" t="e"/>
       <c r="C75" s="19" t="e"/>
@@ -2342,54 +2378,50 @@
       <c r="F75" s="19" t="e"/>
       <c r="G75" s="19" t="e"/>
       <c r="H75" s="9" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="I75" s="10" t="e"/>
       <c r="J75" s="10" t="e"/>
       <c r="K75" s="9" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="L75" s="10" t="e"/>
       <c r="M75" s="10" t="e"/>
       <c r="N75" s="9" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" ht="22" customHeight="true">
-      <c r="A76" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="16" t="e"/>
-      <c r="C76" s="16" t="e"/>
-      <c r="D76" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="16" t="e"/>
-      <c r="F76" s="16" t="e"/>
-      <c r="G76" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" s="17" t="n">
-        <v>136</v>
-      </c>
-      <c r="I76" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" s="18" t="e"/>
-      <c r="K76" s="17" t="n">
-        <v>119</v>
-      </c>
-      <c r="L76" s="18" t="e"/>
-      <c r="M76" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N76" s="17" t="n">
-        <v>119</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A76" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="19" t="e"/>
+      <c r="C76" s="19" t="e"/>
+      <c r="D76" s="19" t="e"/>
+      <c r="E76" s="19" t="e"/>
+      <c r="F76" s="19" t="e"/>
+      <c r="G76" s="19" t="e"/>
+      <c r="H76" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I76" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" s="10" t="e"/>
+      <c r="K76" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L76" s="10" t="e"/>
+      <c r="M76" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" s="9" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2398,22 +2430,22 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I77" s="10" t="e"/>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="10" t="e"/>
       <c r="N77" s="9" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B78" s="19" t="e"/>
       <c r="C78" s="19" t="e"/>
@@ -2422,26 +2454,22 @@
       <c r="F78" s="19" t="e"/>
       <c r="G78" s="19" t="e"/>
       <c r="H78" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I78" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I78" s="10" t="e"/>
       <c r="J78" s="10" t="e"/>
       <c r="K78" s="9" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L78" s="10" t="e"/>
-      <c r="M78" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M78" s="10" t="e"/>
       <c r="N78" s="9" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B79" s="19" t="e"/>
       <c r="C79" s="19" t="e"/>
@@ -2450,46 +2478,58 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I79" s="10" t="e"/>
+        <v>22</v>
+      </c>
+      <c r="I79" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L79" s="10" t="e"/>
-      <c r="M79" s="10" t="e"/>
+      <c r="M79" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N79" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A80" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="19" t="e"/>
-      <c r="C80" s="19" t="e"/>
-      <c r="D80" s="19" t="e"/>
-      <c r="E80" s="19" t="e"/>
-      <c r="F80" s="19" t="e"/>
-      <c r="G80" s="19" t="e"/>
-      <c r="H80" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I80" s="10" t="e"/>
-      <c r="J80" s="10" t="e"/>
-      <c r="K80" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L80" s="10" t="e"/>
-      <c r="M80" s="10" t="e"/>
-      <c r="N80" s="9" t="n">
-        <v>10</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" ht="11" customHeight="true">
+      <c r="A80" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="16" t="e"/>
+      <c r="C80" s="16" t="e"/>
+      <c r="D80" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="16" t="e"/>
+      <c r="F80" s="16" t="e"/>
+      <c r="G80" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="17" t="n">
+        <v>101</v>
+      </c>
+      <c r="I80" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" s="18" t="e"/>
+      <c r="K80" s="17" t="n">
+        <v>91</v>
+      </c>
+      <c r="L80" s="18" t="e"/>
+      <c r="M80" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N80" s="17" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="A81" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B81" s="19" t="e"/>
       <c r="C81" s="19" t="e"/>
@@ -2501,55 +2541,47 @@
         <v>36</v>
       </c>
       <c r="I81" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J81" s="10" t="e"/>
       <c r="K81" s="9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L81" s="10" t="e"/>
       <c r="M81" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N81" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true">
-      <c r="A82" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="16" t="e"/>
-      <c r="C82" s="16" t="e"/>
-      <c r="D82" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" s="16" t="e"/>
-      <c r="F82" s="16" t="e"/>
-      <c r="G82" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" s="17" t="n">
-        <v>135</v>
-      </c>
-      <c r="I82" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" s="18" t="e"/>
-      <c r="K82" s="17" t="n">
-        <v>118</v>
-      </c>
-      <c r="L82" s="18" t="e"/>
-      <c r="M82" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N82" s="17" t="n">
-        <v>118</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A82" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="19" t="e"/>
+      <c r="C82" s="19" t="e"/>
+      <c r="D82" s="19" t="e"/>
+      <c r="E82" s="19" t="e"/>
+      <c r="F82" s="19" t="e"/>
+      <c r="G82" s="19" t="e"/>
+      <c r="H82" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="I82" s="10" t="e"/>
+      <c r="J82" s="10" t="e"/>
+      <c r="K82" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="L82" s="10" t="e"/>
+      <c r="M82" s="10" t="e"/>
+      <c r="N82" s="9" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2558,26 +2590,22 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="I83" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="L83" s="10" t="e"/>
-      <c r="M83" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M83" s="10" t="e"/>
       <c r="N83" s="9" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B84" s="19" t="e"/>
       <c r="C84" s="19" t="e"/>
@@ -2586,50 +2614,54 @@
       <c r="F84" s="19" t="e"/>
       <c r="G84" s="19" t="e"/>
       <c r="H84" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="I84" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I84" s="10" t="e"/>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L84" s="10" t="e"/>
-      <c r="M84" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M84" s="10" t="e"/>
       <c r="N84" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A85" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="19" t="e"/>
-      <c r="C85" s="19" t="e"/>
-      <c r="D85" s="19" t="e"/>
-      <c r="E85" s="19" t="e"/>
-      <c r="F85" s="19" t="e"/>
-      <c r="G85" s="19" t="e"/>
-      <c r="H85" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I85" s="10" t="e"/>
-      <c r="J85" s="10" t="e"/>
-      <c r="K85" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L85" s="10" t="e"/>
-      <c r="M85" s="10" t="e"/>
-      <c r="N85" s="9" t="n">
-        <v>13</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true">
+      <c r="A85" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="16" t="e"/>
+      <c r="C85" s="16" t="e"/>
+      <c r="D85" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="16" t="e"/>
+      <c r="F85" s="16" t="e"/>
+      <c r="G85" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="17" t="n">
+        <v>166</v>
+      </c>
+      <c r="I85" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" s="18" t="e"/>
+      <c r="K85" s="17" t="n">
+        <v>161</v>
+      </c>
+      <c r="L85" s="18" t="e"/>
+      <c r="M85" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" s="17" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86" s="19" t="e"/>
       <c r="C86" s="19" t="e"/>
@@ -2638,22 +2670,26 @@
       <c r="F86" s="19" t="e"/>
       <c r="G86" s="19" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I86" s="10" t="e"/>
+        <v>37</v>
+      </c>
+      <c r="I86" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L86" s="10" t="e"/>
-      <c r="M86" s="10" t="e"/>
+      <c r="M86" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="N86" s="9" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="A87" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B87" s="19" t="e"/>
       <c r="C87" s="19" t="e"/>
@@ -2662,58 +2698,50 @@
       <c r="F87" s="19" t="e"/>
       <c r="G87" s="19" t="e"/>
       <c r="H87" s="9" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J87" s="10" t="e"/>
       <c r="K87" s="9" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L87" s="10" t="e"/>
       <c r="M87" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N87" s="9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" ht="11" customHeight="true">
-      <c r="A88" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="16" t="e"/>
-      <c r="C88" s="16" t="e"/>
-      <c r="D88" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E88" s="16" t="e"/>
-      <c r="F88" s="16" t="e"/>
-      <c r="G88" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" s="17" t="n">
-        <v>178</v>
-      </c>
-      <c r="I88" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" s="18" t="e"/>
-      <c r="K88" s="17" t="n">
-        <v>172</v>
-      </c>
-      <c r="L88" s="18" t="e"/>
-      <c r="M88" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N88" s="17" t="n">
-        <v>172</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A88" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="19" t="e"/>
+      <c r="C88" s="19" t="e"/>
+      <c r="D88" s="19" t="e"/>
+      <c r="E88" s="19" t="e"/>
+      <c r="F88" s="19" t="e"/>
+      <c r="G88" s="19" t="e"/>
+      <c r="H88" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I88" s="10" t="e"/>
+      <c r="J88" s="10" t="e"/>
+      <c r="K88" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L88" s="10" t="e"/>
+      <c r="M88" s="10" t="e"/>
+      <c r="N88" s="9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B89" s="19" t="e"/>
       <c r="C89" s="19" t="e"/>
@@ -2722,26 +2750,22 @@
       <c r="F89" s="19" t="e"/>
       <c r="G89" s="19" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="I89" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I89" s="10" t="e"/>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L89" s="10" t="e"/>
-      <c r="M89" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M89" s="10" t="e"/>
       <c r="N89" s="9" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="A90" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B90" s="19" t="e"/>
       <c r="C90" s="19" t="e"/>
@@ -2750,46 +2774,54 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A91" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="19" t="e"/>
-      <c r="C91" s="19" t="e"/>
-      <c r="D91" s="19" t="e"/>
-      <c r="E91" s="19" t="e"/>
-      <c r="F91" s="19" t="e"/>
-      <c r="G91" s="19" t="e"/>
-      <c r="H91" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I91" s="10" t="e"/>
-      <c r="J91" s="10" t="e"/>
-      <c r="K91" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L91" s="10" t="e"/>
-      <c r="M91" s="10" t="e"/>
-      <c r="N91" s="9" t="n">
-        <v>15</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true">
+      <c r="A91" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="16" t="e"/>
+      <c r="C91" s="16" t="e"/>
+      <c r="D91" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E91" s="16" t="e"/>
+      <c r="F91" s="16" t="e"/>
+      <c r="G91" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="I91" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J91" s="18" t="e"/>
+      <c r="K91" s="17" t="n">
+        <v>112</v>
+      </c>
+      <c r="L91" s="18" t="e"/>
+      <c r="M91" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="N91" s="17" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="A92" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" s="19" t="e"/>
       <c r="C92" s="19" t="e"/>
@@ -2798,22 +2830,26 @@
       <c r="F92" s="19" t="e"/>
       <c r="G92" s="19" t="e"/>
       <c r="H92" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I92" s="10" t="e"/>
+        <v>34</v>
+      </c>
+      <c r="I92" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J92" s="10" t="e"/>
       <c r="K92" s="9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L92" s="10" t="e"/>
-      <c r="M92" s="10" t="e"/>
+      <c r="M92" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N92" s="9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="A93" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B93" s="19" t="e"/>
       <c r="C93" s="19" t="e"/>
@@ -2822,58 +2858,50 @@
       <c r="F93" s="19" t="e"/>
       <c r="G93" s="19" t="e"/>
       <c r="H93" s="9" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J93" s="10" t="e"/>
       <c r="K93" s="9" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L93" s="10" t="e"/>
       <c r="M93" s="9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N93" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" ht="22" customHeight="true">
-      <c r="A94" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="16" t="e"/>
-      <c r="C94" s="16" t="e"/>
-      <c r="D94" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E94" s="16" t="e"/>
-      <c r="F94" s="16" t="e"/>
-      <c r="G94" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" s="17" t="n">
-        <v>194</v>
-      </c>
-      <c r="I94" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="J94" s="18" t="e"/>
-      <c r="K94" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="L94" s="18" t="e"/>
-      <c r="M94" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="N94" s="17" t="n">
-        <v>168</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A94" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="19" t="e"/>
+      <c r="C94" s="19" t="e"/>
+      <c r="D94" s="19" t="e"/>
+      <c r="E94" s="19" t="e"/>
+      <c r="F94" s="19" t="e"/>
+      <c r="G94" s="19" t="e"/>
+      <c r="H94" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I94" s="10" t="e"/>
+      <c r="J94" s="10" t="e"/>
+      <c r="K94" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L94" s="10" t="e"/>
+      <c r="M94" s="10" t="e"/>
+      <c r="N94" s="9" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2882,26 +2910,22 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="I95" s="9" t="n">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I95" s="10" t="e"/>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L95" s="10" t="e"/>
-      <c r="M95" s="9" t="n">
-        <v>12</v>
-      </c>
+      <c r="M95" s="10" t="e"/>
       <c r="N95" s="9" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="A96" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B96" s="19" t="e"/>
       <c r="C96" s="19" t="e"/>
@@ -2910,50 +2934,58 @@
       <c r="F96" s="19" t="e"/>
       <c r="G96" s="19" t="e"/>
       <c r="H96" s="9" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J96" s="10" t="e"/>
       <c r="K96" s="9" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="L96" s="10" t="e"/>
       <c r="M96" s="9" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N96" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A97" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97" s="19" t="e"/>
-      <c r="C97" s="19" t="e"/>
-      <c r="D97" s="19" t="e"/>
-      <c r="E97" s="19" t="e"/>
-      <c r="F97" s="19" t="e"/>
-      <c r="G97" s="19" t="e"/>
-      <c r="H97" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I97" s="10" t="e"/>
-      <c r="J97" s="10" t="e"/>
-      <c r="K97" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L97" s="10" t="e"/>
-      <c r="M97" s="10" t="e"/>
-      <c r="N97" s="9" t="n">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true">
+      <c r="A97" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" s="16" t="e"/>
+      <c r="C97" s="16" t="e"/>
+      <c r="D97" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" s="16" t="e"/>
+      <c r="F97" s="16" t="e"/>
+      <c r="G97" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="17" t="n">
+        <v>93</v>
+      </c>
+      <c r="I97" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" s="18" t="e"/>
+      <c r="K97" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="L97" s="18" t="e"/>
+      <c r="M97" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" s="17" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" s="19" t="e"/>
       <c r="C98" s="19" t="e"/>
@@ -2962,22 +2994,26 @@
       <c r="F98" s="19" t="e"/>
       <c r="G98" s="19" t="e"/>
       <c r="H98" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I98" s="10" t="e"/>
+        <v>20</v>
+      </c>
+      <c r="I98" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J98" s="10" t="e"/>
       <c r="K98" s="9" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L98" s="10" t="e"/>
-      <c r="M98" s="10" t="e"/>
+      <c r="M98" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N98" s="9" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -2986,54 +3022,50 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I99" s="10" t="e"/>
+        <v>19</v>
+      </c>
+      <c r="I99" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L99" s="10" t="e"/>
-      <c r="M99" s="10" t="e"/>
+      <c r="M99" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N99" s="9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true">
-      <c r="A100" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B100" s="16" t="e"/>
-      <c r="C100" s="16" t="e"/>
-      <c r="D100" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E100" s="16" t="e"/>
-      <c r="F100" s="16" t="e"/>
-      <c r="G100" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H100" s="17" t="n">
-        <v>104</v>
-      </c>
-      <c r="I100" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J100" s="18" t="e"/>
-      <c r="K100" s="17" t="n">
-        <v>92</v>
-      </c>
-      <c r="L100" s="18" t="e"/>
-      <c r="M100" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="N100" s="17" t="n">
-        <v>92</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A100" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="19" t="e"/>
+      <c r="C100" s="19" t="e"/>
+      <c r="D100" s="19" t="e"/>
+      <c r="E100" s="19" t="e"/>
+      <c r="F100" s="19" t="e"/>
+      <c r="G100" s="19" t="e"/>
+      <c r="H100" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I100" s="10" t="e"/>
+      <c r="J100" s="10" t="e"/>
+      <c r="K100" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L100" s="10" t="e"/>
+      <c r="M100" s="10" t="e"/>
+      <c r="N100" s="9" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3042,26 +3074,22 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I101" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I101" s="10" t="e"/>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L101" s="10" t="e"/>
-      <c r="M101" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M101" s="10" t="e"/>
       <c r="N101" s="9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B102" s="19" t="e"/>
       <c r="C102" s="19" t="e"/>
@@ -3070,50 +3098,54 @@
       <c r="F102" s="19" t="e"/>
       <c r="G102" s="19" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I102" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I102" s="10" t="e"/>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L102" s="10" t="e"/>
-      <c r="M102" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M102" s="10" t="e"/>
       <c r="N102" s="9" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A103" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B103" s="19" t="e"/>
-      <c r="C103" s="19" t="e"/>
-      <c r="D103" s="19" t="e"/>
-      <c r="E103" s="19" t="e"/>
-      <c r="F103" s="19" t="e"/>
-      <c r="G103" s="19" t="e"/>
-      <c r="H103" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I103" s="10" t="e"/>
-      <c r="J103" s="10" t="e"/>
-      <c r="K103" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L103" s="10" t="e"/>
-      <c r="M103" s="10" t="e"/>
-      <c r="N103" s="9" t="n">
-        <v>19</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true">
+      <c r="A103" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="16" t="e"/>
+      <c r="C103" s="16" t="e"/>
+      <c r="D103" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" s="16" t="e"/>
+      <c r="F103" s="16" t="e"/>
+      <c r="G103" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="17" t="n">
+        <v>174</v>
+      </c>
+      <c r="I103" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J103" s="18" t="e"/>
+      <c r="K103" s="17" t="n">
+        <v>166</v>
+      </c>
+      <c r="L103" s="18" t="e"/>
+      <c r="M103" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N103" s="17" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="A104" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B104" s="19" t="e"/>
       <c r="C104" s="19" t="e"/>
@@ -3122,54 +3154,54 @@
       <c r="F104" s="19" t="e"/>
       <c r="G104" s="19" t="e"/>
       <c r="H104" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I104" s="10" t="e"/>
+        <v>53</v>
+      </c>
+      <c r="I104" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J104" s="10" t="e"/>
       <c r="K104" s="9" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="L104" s="10" t="e"/>
-      <c r="M104" s="10" t="e"/>
+      <c r="M104" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N104" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" ht="11" customHeight="true">
-      <c r="A105" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B105" s="16" t="e"/>
-      <c r="C105" s="16" t="e"/>
-      <c r="D105" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" s="16" t="e"/>
-      <c r="F105" s="16" t="e"/>
-      <c r="G105" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H105" s="17" t="n">
-        <v>229</v>
-      </c>
-      <c r="I105" s="17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J105" s="18" t="e"/>
-      <c r="K105" s="17" t="n">
-        <v>202</v>
-      </c>
-      <c r="L105" s="18" t="e"/>
-      <c r="M105" s="17" t="n">
-        <v>27</v>
-      </c>
-      <c r="N105" s="17" t="n">
-        <v>202</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A105" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="19" t="e"/>
+      <c r="C105" s="19" t="e"/>
+      <c r="D105" s="19" t="e"/>
+      <c r="E105" s="19" t="e"/>
+      <c r="F105" s="19" t="e"/>
+      <c r="G105" s="19" t="e"/>
+      <c r="H105" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="I105" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" s="10" t="e"/>
+      <c r="K105" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="L105" s="10" t="e"/>
+      <c r="M105" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" s="9" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B106" s="19" t="e"/>
       <c r="C106" s="19" t="e"/>
@@ -3178,26 +3210,22 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="I106" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I106" s="10" t="e"/>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="L106" s="10" t="e"/>
-      <c r="M106" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M106" s="10" t="e"/>
       <c r="N106" s="9" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3206,26 +3234,22 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>92</v>
-      </c>
-      <c r="I107" s="9" t="n">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="I107" s="10" t="e"/>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="L107" s="10" t="e"/>
-      <c r="M107" s="9" t="n">
-        <v>24</v>
-      </c>
+      <c r="M107" s="10" t="e"/>
       <c r="N107" s="9" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B108" s="19" t="e"/>
       <c r="C108" s="19" t="e"/>
@@ -3234,46 +3258,54 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I108" s="10" t="e"/>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L108" s="10" t="e"/>
       <c r="M108" s="10" t="e"/>
       <c r="N108" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A109" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B109" s="19" t="e"/>
-      <c r="C109" s="19" t="e"/>
-      <c r="D109" s="19" t="e"/>
-      <c r="E109" s="19" t="e"/>
-      <c r="F109" s="19" t="e"/>
-      <c r="G109" s="19" t="e"/>
-      <c r="H109" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I109" s="10" t="e"/>
-      <c r="J109" s="10" t="e"/>
-      <c r="K109" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="L109" s="10" t="e"/>
-      <c r="M109" s="10" t="e"/>
-      <c r="N109" s="9" t="n">
-        <v>50</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="true">
+      <c r="A109" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="16" t="e"/>
+      <c r="C109" s="16" t="e"/>
+      <c r="D109" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E109" s="16" t="e"/>
+      <c r="F109" s="16" t="e"/>
+      <c r="G109" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="17" t="n">
+        <v>158</v>
+      </c>
+      <c r="I109" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J109" s="18" t="e"/>
+      <c r="K109" s="17" t="n">
+        <v>150</v>
+      </c>
+      <c r="L109" s="18" t="e"/>
+      <c r="M109" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N109" s="17" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3282,54 +3314,50 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I110" s="10" t="e"/>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L110" s="10" t="e"/>
       <c r="M110" s="10" t="e"/>
       <c r="N110" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true">
-      <c r="A111" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B111" s="16" t="e"/>
-      <c r="C111" s="16" t="e"/>
-      <c r="D111" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E111" s="16" t="e"/>
-      <c r="F111" s="16" t="e"/>
-      <c r="G111" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" s="17" t="n">
-        <v>228</v>
-      </c>
-      <c r="I111" s="17" t="n">
-        <v>36</v>
-      </c>
-      <c r="J111" s="18" t="e"/>
-      <c r="K111" s="17" t="n">
-        <v>192</v>
-      </c>
-      <c r="L111" s="18" t="e"/>
-      <c r="M111" s="17" t="n">
-        <v>36</v>
-      </c>
-      <c r="N111" s="17" t="n">
-        <v>192</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A111" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" s="19" t="e"/>
+      <c r="C111" s="19" t="e"/>
+      <c r="D111" s="19" t="e"/>
+      <c r="E111" s="19" t="e"/>
+      <c r="F111" s="19" t="e"/>
+      <c r="G111" s="19" t="e"/>
+      <c r="H111" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="I111" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J111" s="10" t="e"/>
+      <c r="K111" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L111" s="10" t="e"/>
+      <c r="M111" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N111" s="9" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B112" s="19" t="e"/>
       <c r="C112" s="19" t="e"/>
@@ -3338,26 +3366,22 @@
       <c r="F112" s="19" t="e"/>
       <c r="G112" s="19" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>57</v>
-      </c>
-      <c r="I112" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I112" s="10" t="e"/>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L112" s="10" t="e"/>
-      <c r="M112" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M112" s="10" t="e"/>
       <c r="N112" s="9" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="A113" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B113" s="19" t="e"/>
       <c r="C113" s="19" t="e"/>
@@ -3366,26 +3390,22 @@
       <c r="F113" s="19" t="e"/>
       <c r="G113" s="19" t="e"/>
       <c r="H113" s="9" t="n">
-        <v>89</v>
-      </c>
-      <c r="I113" s="9" t="n">
         <v>30</v>
       </c>
+      <c r="I113" s="10" t="e"/>
       <c r="J113" s="10" t="e"/>
       <c r="K113" s="9" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="L113" s="10" t="e"/>
-      <c r="M113" s="9" t="n">
+      <c r="M113" s="10" t="e"/>
+      <c r="N113" s="9" t="n">
         <v>30</v>
-      </c>
-      <c r="N113" s="9" t="n">
-        <v>59</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3394,46 +3414,58 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I114" s="10" t="e"/>
+        <v>30</v>
+      </c>
+      <c r="I114" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L114" s="10" t="e"/>
-      <c r="M114" s="10" t="e"/>
+      <c r="M114" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N114" s="9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A115" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B115" s="19" t="e"/>
-      <c r="C115" s="19" t="e"/>
-      <c r="D115" s="19" t="e"/>
-      <c r="E115" s="19" t="e"/>
-      <c r="F115" s="19" t="e"/>
-      <c r="G115" s="19" t="e"/>
-      <c r="H115" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I115" s="10" t="e"/>
-      <c r="J115" s="10" t="e"/>
-      <c r="K115" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L115" s="10" t="e"/>
-      <c r="M115" s="10" t="e"/>
-      <c r="N115" s="9" t="n">
-        <v>40</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true">
+      <c r="A115" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="16" t="e"/>
+      <c r="C115" s="16" t="e"/>
+      <c r="D115" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E115" s="16" t="e"/>
+      <c r="F115" s="16" t="e"/>
+      <c r="G115" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="I115" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J115" s="18" t="e"/>
+      <c r="K115" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="L115" s="18" t="e"/>
+      <c r="M115" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N115" s="17" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3442,54 +3474,54 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I116" s="10" t="e"/>
+        <v>28</v>
+      </c>
+      <c r="I116" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L116" s="10" t="e"/>
-      <c r="M116" s="10" t="e"/>
+      <c r="M116" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N116" s="9" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true">
-      <c r="A117" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="16" t="e"/>
-      <c r="C117" s="16" t="e"/>
-      <c r="D117" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E117" s="16" t="e"/>
-      <c r="F117" s="16" t="e"/>
-      <c r="G117" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" s="17" t="n">
-        <v>137</v>
-      </c>
-      <c r="I117" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="J117" s="18" t="e"/>
-      <c r="K117" s="17" t="n">
-        <v>117</v>
-      </c>
-      <c r="L117" s="18" t="e"/>
-      <c r="M117" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="N117" s="17" t="n">
-        <v>117</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A117" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" s="19" t="e"/>
+      <c r="C117" s="19" t="e"/>
+      <c r="D117" s="19" t="e"/>
+      <c r="E117" s="19" t="e"/>
+      <c r="F117" s="19" t="e"/>
+      <c r="G117" s="19" t="e"/>
+      <c r="H117" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I117" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J117" s="10" t="e"/>
+      <c r="K117" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="L117" s="10" t="e"/>
+      <c r="M117" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" s="9" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="A118" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B118" s="19" t="e"/>
       <c r="C118" s="19" t="e"/>
@@ -3498,26 +3530,22 @@
       <c r="F118" s="19" t="e"/>
       <c r="G118" s="19" t="e"/>
       <c r="H118" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I118" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I118" s="10" t="e"/>
       <c r="J118" s="10" t="e"/>
       <c r="K118" s="9" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L118" s="10" t="e"/>
-      <c r="M118" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="M118" s="10" t="e"/>
       <c r="N118" s="9" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="A119" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B119" s="19" t="e"/>
       <c r="C119" s="19" t="e"/>
@@ -3526,26 +3554,22 @@
       <c r="F119" s="19" t="e"/>
       <c r="G119" s="19" t="e"/>
       <c r="H119" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I119" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I119" s="10" t="e"/>
       <c r="J119" s="10" t="e"/>
       <c r="K119" s="9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L119" s="10" t="e"/>
-      <c r="M119" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="M119" s="10" t="e"/>
       <c r="N119" s="9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3554,46 +3578,54 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I120" s="10" t="e"/>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L120" s="10" t="e"/>
       <c r="M120" s="10" t="e"/>
       <c r="N120" s="9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A121" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="19" t="e"/>
-      <c r="C121" s="19" t="e"/>
-      <c r="D121" s="19" t="e"/>
-      <c r="E121" s="19" t="e"/>
-      <c r="F121" s="19" t="e"/>
-      <c r="G121" s="19" t="e"/>
-      <c r="H121" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I121" s="10" t="e"/>
-      <c r="J121" s="10" t="e"/>
-      <c r="K121" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="L121" s="10" t="e"/>
-      <c r="M121" s="10" t="e"/>
-      <c r="N121" s="9" t="n">
-        <v>40</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" ht="11" customHeight="true">
+      <c r="A121" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B121" s="16" t="e"/>
+      <c r="C121" s="16" t="e"/>
+      <c r="D121" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" s="16" t="e"/>
+      <c r="F121" s="16" t="e"/>
+      <c r="G121" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" s="17" t="n">
+        <v>165</v>
+      </c>
+      <c r="I121" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J121" s="18" t="e"/>
+      <c r="K121" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="L121" s="18" t="e"/>
+      <c r="M121" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="N121" s="17" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B122" s="19" t="e"/>
       <c r="C122" s="19" t="e"/>
@@ -3602,58 +3634,54 @@
       <c r="F122" s="19" t="e"/>
       <c r="G122" s="19" t="e"/>
       <c r="H122" s="9" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I122" s="9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J122" s="10" t="e"/>
       <c r="K122" s="9" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="L122" s="10" t="e"/>
       <c r="M122" s="9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N122" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" ht="11" customHeight="true">
-      <c r="A123" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B123" s="16" t="e"/>
-      <c r="C123" s="16" t="e"/>
-      <c r="D123" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E123" s="16" t="e"/>
-      <c r="F123" s="16" t="e"/>
-      <c r="G123" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" s="17" t="n">
-        <v>145</v>
-      </c>
-      <c r="I123" s="17" t="n">
-        <v>57</v>
-      </c>
-      <c r="J123" s="18" t="e"/>
-      <c r="K123" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="L123" s="18" t="e"/>
-      <c r="M123" s="17" t="n">
-        <v>57</v>
-      </c>
-      <c r="N123" s="17" t="n">
-        <v>88</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A123" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" s="19" t="e"/>
+      <c r="C123" s="19" t="e"/>
+      <c r="D123" s="19" t="e"/>
+      <c r="E123" s="19" t="e"/>
+      <c r="F123" s="19" t="e"/>
+      <c r="G123" s="19" t="e"/>
+      <c r="H123" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="I123" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J123" s="10" t="e"/>
+      <c r="K123" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="L123" s="10" t="e"/>
+      <c r="M123" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N123" s="9" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="A124" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B124" s="19" t="e"/>
       <c r="C124" s="19" t="e"/>
@@ -3662,26 +3690,22 @@
       <c r="F124" s="19" t="e"/>
       <c r="G124" s="19" t="e"/>
       <c r="H124" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="I124" s="9" t="n">
-        <v>24</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I124" s="10" t="e"/>
       <c r="J124" s="10" t="e"/>
       <c r="K124" s="9" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L124" s="10" t="e"/>
-      <c r="M124" s="9" t="n">
-        <v>24</v>
-      </c>
+      <c r="M124" s="10" t="e"/>
       <c r="N124" s="9" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B125" s="19" t="e"/>
       <c r="C125" s="19" t="e"/>
@@ -3690,26 +3714,22 @@
       <c r="F125" s="19" t="e"/>
       <c r="G125" s="19" t="e"/>
       <c r="H125" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="I125" s="9" t="n">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I125" s="10" t="e"/>
       <c r="J125" s="10" t="e"/>
       <c r="K125" s="9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L125" s="10" t="e"/>
-      <c r="M125" s="9" t="n">
-        <v>25</v>
-      </c>
+      <c r="M125" s="10" t="e"/>
       <c r="N125" s="9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3718,82 +3738,86 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I126" s="10" t="e"/>
+        <v>23</v>
+      </c>
+      <c r="I126" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L126" s="10" t="e"/>
+      <c r="M126" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N126" s="9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true">
+      <c r="A127" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="16" t="e"/>
+      <c r="C127" s="16" t="e"/>
+      <c r="D127" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" s="16" t="e"/>
+      <c r="F127" s="16" t="e"/>
+      <c r="G127" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="I127" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J127" s="18" t="e"/>
+      <c r="K127" s="17" t="n">
+        <v>65</v>
+      </c>
+      <c r="L127" s="18" t="e"/>
+      <c r="M127" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="N127" s="17" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A128" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="19" t="e"/>
+      <c r="C128" s="19" t="e"/>
+      <c r="D128" s="19" t="e"/>
+      <c r="E128" s="19" t="e"/>
+      <c r="F128" s="19" t="e"/>
+      <c r="G128" s="19" t="e"/>
+      <c r="H128" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I128" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L126" s="10" t="e"/>
-      <c r="M126" s="10" t="e"/>
-      <c r="N126" s="9" t="n">
+      <c r="J128" s="10" t="e"/>
+      <c r="K128" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L128" s="10" t="e"/>
+      <c r="M128" s="9" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A127" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127" s="19" t="e"/>
-      <c r="C127" s="19" t="e"/>
-      <c r="D127" s="19" t="e"/>
-      <c r="E127" s="19" t="e"/>
-      <c r="F127" s="19" t="e"/>
-      <c r="G127" s="19" t="e"/>
-      <c r="H127" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I127" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J127" s="10" t="e"/>
-      <c r="K127" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L127" s="10" t="e"/>
-      <c r="M127" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N127" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true">
-      <c r="A128" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B128" s="16" t="e"/>
-      <c r="C128" s="16" t="e"/>
-      <c r="D128" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E128" s="16" t="e"/>
-      <c r="F128" s="16" t="e"/>
-      <c r="G128" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H128" s="17" t="n">
-        <v>105</v>
-      </c>
-      <c r="I128" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="J128" s="18" t="e"/>
-      <c r="K128" s="17" t="n">
-        <v>52</v>
-      </c>
-      <c r="L128" s="18" t="e"/>
-      <c r="M128" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="N128" s="17" t="n">
-        <v>52</v>
+      <c r="N128" s="9" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="A129" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B129" s="19" t="e"/>
       <c r="C129" s="19" t="e"/>
@@ -3802,26 +3826,26 @@
       <c r="F129" s="19" t="e"/>
       <c r="G129" s="19" t="e"/>
       <c r="H129" s="9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I129" s="9" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J129" s="10" t="e"/>
       <c r="K129" s="9" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L129" s="10" t="e"/>
       <c r="M129" s="9" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N129" s="9" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="A130" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B130" s="19" t="e"/>
       <c r="C130" s="19" t="e"/>
@@ -3830,26 +3854,22 @@
       <c r="F130" s="19" t="e"/>
       <c r="G130" s="19" t="e"/>
       <c r="H130" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="I130" s="9" t="n">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I130" s="10" t="e"/>
       <c r="J130" s="10" t="e"/>
       <c r="K130" s="9" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L130" s="10" t="e"/>
-      <c r="M130" s="9" t="n">
-        <v>32</v>
-      </c>
+      <c r="M130" s="10" t="e"/>
       <c r="N130" s="9" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="A131" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B131" s="19" t="e"/>
       <c r="C131" s="19" t="e"/>
@@ -3858,78 +3878,74 @@
       <c r="F131" s="19" t="e"/>
       <c r="G131" s="19" t="e"/>
       <c r="H131" s="9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I131" s="10" t="e"/>
       <c r="J131" s="10" t="e"/>
       <c r="K131" s="9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L131" s="10" t="e"/>
       <c r="M131" s="10" t="e"/>
       <c r="N131" s="9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A132" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" s="19" t="e"/>
-      <c r="C132" s="19" t="e"/>
-      <c r="D132" s="19" t="e"/>
-      <c r="E132" s="19" t="e"/>
-      <c r="F132" s="19" t="e"/>
-      <c r="G132" s="19" t="e"/>
-      <c r="H132" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I132" s="10" t="e"/>
-      <c r="J132" s="10" t="e"/>
-      <c r="K132" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L132" s="10" t="e"/>
-      <c r="M132" s="10" t="e"/>
-      <c r="N132" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" ht="11" customHeight="true">
-      <c r="A133" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true">
+      <c r="A132" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B133" s="16" t="e"/>
-      <c r="C133" s="16" t="e"/>
-      <c r="D133" s="16" t="s">
+      <c r="B132" s="16" t="e"/>
+      <c r="C132" s="16" t="e"/>
+      <c r="D132" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E133" s="16" t="e"/>
-      <c r="F133" s="16" t="e"/>
-      <c r="G133" s="16" t="s">
+      <c r="E132" s="16" t="e"/>
+      <c r="F132" s="16" t="e"/>
+      <c r="G132" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H133" s="17" t="n">
-        <v>97</v>
-      </c>
-      <c r="I133" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J133" s="18" t="e"/>
-      <c r="K133" s="17" t="n">
-        <v>95</v>
-      </c>
-      <c r="L133" s="18" t="e"/>
-      <c r="M133" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N133" s="17" t="n">
-        <v>95</v>
+      <c r="H132" s="17" t="n">
+        <v>93</v>
+      </c>
+      <c r="I132" s="18" t="e"/>
+      <c r="J132" s="18" t="e"/>
+      <c r="K132" s="17" t="n">
+        <v>93</v>
+      </c>
+      <c r="L132" s="18" t="e"/>
+      <c r="M132" s="18" t="e"/>
+      <c r="N132" s="17" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A133" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="19" t="e"/>
+      <c r="C133" s="19" t="e"/>
+      <c r="D133" s="19" t="e"/>
+      <c r="E133" s="19" t="e"/>
+      <c r="F133" s="19" t="e"/>
+      <c r="G133" s="19" t="e"/>
+      <c r="H133" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I133" s="10" t="e"/>
+      <c r="J133" s="10" t="e"/>
+      <c r="K133" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" s="10" t="e"/>
+      <c r="M133" s="10" t="e"/>
+      <c r="N133" s="9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="A134" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B134" s="19" t="e"/>
       <c r="C134" s="19" t="e"/>
@@ -3938,26 +3954,22 @@
       <c r="F134" s="19" t="e"/>
       <c r="G134" s="19" t="e"/>
       <c r="H134" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I134" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I134" s="10" t="e"/>
       <c r="J134" s="10" t="e"/>
       <c r="K134" s="9" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L134" s="10" t="e"/>
-      <c r="M134" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M134" s="10" t="e"/>
       <c r="N134" s="9" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="A135" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B135" s="19" t="e"/>
       <c r="C135" s="19" t="e"/>
@@ -3966,22 +3978,22 @@
       <c r="F135" s="19" t="e"/>
       <c r="G135" s="19" t="e"/>
       <c r="H135" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I135" s="10" t="e"/>
       <c r="J135" s="10" t="e"/>
       <c r="K135" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L135" s="10" t="e"/>
       <c r="M135" s="10" t="e"/>
       <c r="N135" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="A136" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B136" s="19" t="e"/>
       <c r="C136" s="19" t="e"/>
@@ -3990,22 +4002,22 @@
       <c r="F136" s="19" t="e"/>
       <c r="G136" s="19" t="e"/>
       <c r="H136" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I136" s="10" t="e"/>
       <c r="J136" s="10" t="e"/>
       <c r="K136" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L136" s="10" t="e"/>
       <c r="M136" s="10" t="e"/>
       <c r="N136" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="A137" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B137" s="19" t="e"/>
       <c r="C137" s="19" t="e"/>
@@ -4014,78 +4026,78 @@
       <c r="F137" s="19" t="e"/>
       <c r="G137" s="19" t="e"/>
       <c r="H137" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I137" s="10" t="e"/>
       <c r="J137" s="10" t="e"/>
       <c r="K137" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L137" s="10" t="e"/>
       <c r="M137" s="10" t="e"/>
       <c r="N137" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A138" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" s="19" t="e"/>
-      <c r="C138" s="19" t="e"/>
-      <c r="D138" s="19" t="e"/>
-      <c r="E138" s="19" t="e"/>
-      <c r="F138" s="19" t="e"/>
-      <c r="G138" s="19" t="e"/>
-      <c r="H138" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="I138" s="10" t="e"/>
-      <c r="J138" s="10" t="e"/>
-      <c r="K138" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L138" s="10" t="e"/>
-      <c r="M138" s="10" t="e"/>
-      <c r="N138" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" ht="11" customHeight="true">
-      <c r="A139" s="16" t="s">
+    </row>
+    <row r="138" ht="11" customHeight="true">
+      <c r="A138" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B139" s="16" t="e"/>
-      <c r="C139" s="16" t="e"/>
-      <c r="D139" s="16" t="s">
+      <c r="B138" s="16" t="e"/>
+      <c r="C138" s="16" t="e"/>
+      <c r="D138" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E139" s="16" t="e"/>
-      <c r="F139" s="16" t="e"/>
-      <c r="G139" s="16" t="s">
+      <c r="E138" s="16" t="e"/>
+      <c r="F138" s="16" t="e"/>
+      <c r="G138" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H139" s="17" t="n">
-        <v>153</v>
-      </c>
-      <c r="I139" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J139" s="18" t="e"/>
-      <c r="K139" s="17" t="n">
-        <v>147</v>
-      </c>
-      <c r="L139" s="18" t="e"/>
-      <c r="M139" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N139" s="17" t="n">
-        <v>147</v>
+      <c r="H138" s="17" t="n">
+        <v>132</v>
+      </c>
+      <c r="I138" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" s="18" t="e"/>
+      <c r="K138" s="17" t="n">
+        <v>129</v>
+      </c>
+      <c r="L138" s="18" t="e"/>
+      <c r="M138" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N138" s="17" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A139" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="19" t="e"/>
+      <c r="C139" s="19" t="e"/>
+      <c r="D139" s="19" t="e"/>
+      <c r="E139" s="19" t="e"/>
+      <c r="F139" s="19" t="e"/>
+      <c r="G139" s="19" t="e"/>
+      <c r="H139" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I139" s="10" t="e"/>
+      <c r="J139" s="10" t="e"/>
+      <c r="K139" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="L139" s="10" t="e"/>
+      <c r="M139" s="10" t="e"/>
+      <c r="N139" s="9" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="A140" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B140" s="19" t="e"/>
       <c r="C140" s="19" t="e"/>
@@ -4094,26 +4106,22 @@
       <c r="F140" s="19" t="e"/>
       <c r="G140" s="19" t="e"/>
       <c r="H140" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="I140" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I140" s="10" t="e"/>
       <c r="J140" s="10" t="e"/>
       <c r="K140" s="9" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="L140" s="10" t="e"/>
-      <c r="M140" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M140" s="10" t="e"/>
       <c r="N140" s="9" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="A141" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B141" s="19" t="e"/>
       <c r="C141" s="19" t="e"/>
@@ -4122,26 +4130,22 @@
       <c r="F141" s="19" t="e"/>
       <c r="G141" s="19" t="e"/>
       <c r="H141" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I141" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I141" s="10" t="e"/>
       <c r="J141" s="10" t="e"/>
       <c r="K141" s="9" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="L141" s="10" t="e"/>
-      <c r="M141" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M141" s="10" t="e"/>
       <c r="N141" s="9" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" ht="11" customHeight="true" outlineLevel="1">
       <c r="A142" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B142" s="19" t="e"/>
       <c r="C142" s="19" t="e"/>
@@ -4150,22 +4154,22 @@
       <c r="F142" s="19" t="e"/>
       <c r="G142" s="19" t="e"/>
       <c r="H142" s="9" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I142" s="10" t="e"/>
       <c r="J142" s="10" t="e"/>
       <c r="K142" s="9" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L142" s="10" t="e"/>
       <c r="M142" s="10" t="e"/>
       <c r="N142" s="9" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="1">
       <c r="A143" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B143" s="19" t="e"/>
       <c r="C143" s="19" t="e"/>
@@ -4174,78 +4178,86 @@
       <c r="F143" s="19" t="e"/>
       <c r="G143" s="19" t="e"/>
       <c r="H143" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I143" s="10" t="e"/>
+        <v>26</v>
+      </c>
+      <c r="I143" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J143" s="10" t="e"/>
       <c r="K143" s="9" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="L143" s="10" t="e"/>
-      <c r="M143" s="10" t="e"/>
+      <c r="M143" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N143" s="9" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="144" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A144" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B144" s="19" t="e"/>
-      <c r="C144" s="19" t="e"/>
-      <c r="D144" s="19" t="e"/>
-      <c r="E144" s="19" t="e"/>
-      <c r="F144" s="19" t="e"/>
-      <c r="G144" s="19" t="e"/>
-      <c r="H144" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="I144" s="10" t="e"/>
-      <c r="J144" s="10" t="e"/>
-      <c r="K144" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="L144" s="10" t="e"/>
-      <c r="M144" s="10" t="e"/>
-      <c r="N144" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" ht="11" customHeight="true">
-      <c r="A145" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" ht="11" customHeight="true">
+      <c r="A144" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B145" s="16" t="e"/>
-      <c r="C145" s="16" t="e"/>
-      <c r="D145" s="16" t="s">
+      <c r="B144" s="16" t="e"/>
+      <c r="C144" s="16" t="e"/>
+      <c r="D144" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E145" s="16" t="e"/>
-      <c r="F145" s="16" t="e"/>
-      <c r="G145" s="16" t="s">
+      <c r="E144" s="16" t="e"/>
+      <c r="F144" s="16" t="e"/>
+      <c r="G144" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H145" s="17" t="n">
-        <v>108</v>
-      </c>
-      <c r="I145" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J145" s="18" t="e"/>
-      <c r="K145" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="L145" s="18" t="e"/>
-      <c r="M145" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="N145" s="17" t="n">
-        <v>96</v>
+      <c r="H144" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="I144" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J144" s="18" t="e"/>
+      <c r="K144" s="17" t="n">
+        <v>89</v>
+      </c>
+      <c r="L144" s="18" t="e"/>
+      <c r="M144" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N144" s="17" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A145" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" s="19" t="e"/>
+      <c r="C145" s="19" t="e"/>
+      <c r="D145" s="19" t="e"/>
+      <c r="E145" s="19" t="e"/>
+      <c r="F145" s="19" t="e"/>
+      <c r="G145" s="19" t="e"/>
+      <c r="H145" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="I145" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" s="10" t="e"/>
+      <c r="K145" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L145" s="10" t="e"/>
+      <c r="M145" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" s="9" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="A146" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B146" s="19" t="e"/>
       <c r="C146" s="19" t="e"/>
@@ -4256,20 +4268,24 @@
       <c r="H146" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="I146" s="10" t="e"/>
+      <c r="I146" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J146" s="10" t="e"/>
       <c r="K146" s="9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L146" s="10" t="e"/>
-      <c r="M146" s="10" t="e"/>
+      <c r="M146" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N146" s="9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="A147" s="19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B147" s="19" t="e"/>
       <c r="C147" s="19" t="e"/>
@@ -4278,26 +4294,22 @@
       <c r="F147" s="19" t="e"/>
       <c r="G147" s="19" t="e"/>
       <c r="H147" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I147" s="9" t="n">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I147" s="10" t="e"/>
       <c r="J147" s="10" t="e"/>
       <c r="K147" s="9" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L147" s="10" t="e"/>
-      <c r="M147" s="9" t="n">
-        <v>12</v>
-      </c>
+      <c r="M147" s="10" t="e"/>
       <c r="N147" s="9" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" ht="11" customHeight="true" outlineLevel="1">
       <c r="A148" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B148" s="19" t="e"/>
       <c r="C148" s="19" t="e"/>
@@ -4321,7 +4333,7 @@
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="A149" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B149" s="19" t="e"/>
       <c r="C149" s="19" t="e"/>
@@ -4330,73 +4342,53 @@
       <c r="F149" s="19" t="e"/>
       <c r="G149" s="19" t="e"/>
       <c r="H149" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I149" s="10" t="e"/>
+        <v>21</v>
+      </c>
+      <c r="I149" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J149" s="10" t="e"/>
       <c r="K149" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L149" s="10" t="e"/>
-      <c r="M149" s="10" t="e"/>
+      <c r="M149" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N149" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A150" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="19" t="e"/>
-      <c r="C150" s="19" t="e"/>
-      <c r="D150" s="19" t="e"/>
-      <c r="E150" s="19" t="e"/>
-      <c r="F150" s="19" t="e"/>
-      <c r="G150" s="19" t="e"/>
-      <c r="H150" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" ht="13" customHeight="true">
+      <c r="A150" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I150" s="10" t="e"/>
-      <c r="J150" s="10" t="e"/>
-      <c r="K150" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="L150" s="10" t="e"/>
-      <c r="M150" s="10" t="e"/>
-      <c r="N150" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="151" ht="13" customHeight="true">
-      <c r="A151" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B151" s="12" t="e"/>
-      <c r="C151" s="12" t="e"/>
-      <c r="D151" s="12" t="e"/>
-      <c r="E151" s="12" t="e"/>
-      <c r="F151" s="12" t="e"/>
-      <c r="G151" s="12" t="e"/>
-      <c r="H151" s="13" t="n">
-        <v>3201</v>
-      </c>
-      <c r="I151" s="14" t="n">
-        <v>305</v>
-      </c>
-      <c r="J151" s="15" t="e"/>
-      <c r="K151" s="13" t="n">
-        <v>2896</v>
-      </c>
-      <c r="L151" s="15" t="e"/>
-      <c r="M151" s="14" t="n">
-        <v>305</v>
-      </c>
-      <c r="N151" s="13" t="n">
-        <v>2896</v>
+      <c r="B150" s="12" t="e"/>
+      <c r="C150" s="12" t="e"/>
+      <c r="D150" s="12" t="e"/>
+      <c r="E150" s="12" t="e"/>
+      <c r="F150" s="12" t="e"/>
+      <c r="G150" s="12" t="e"/>
+      <c r="H150" s="13" t="n">
+        <v>2799</v>
+      </c>
+      <c r="I150" s="14" t="n">
+        <v>143</v>
+      </c>
+      <c r="J150" s="15" t="e"/>
+      <c r="K150" s="13" t="n">
+        <v>2656</v>
+      </c>
+      <c r="L150" s="15" t="e"/>
+      <c r="M150" s="14" t="n">
+        <v>143</v>
+      </c>
+      <c r="N150" s="13" t="n">
+        <v>2656</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="188">
+  <mergeCells count="187">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -4425,166 +4417,165 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:G53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A62:G62"/>
     <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A72:G72"/>
     <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
     <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="A76:G76"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:F80"/>
     <mergeCell ref="A81:G81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A82:G82"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
     <mergeCell ref="A86:G86"/>
     <mergeCell ref="A87:G87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="A88:G88"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
     <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:F97"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:F103"/>
     <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="A105:G105"/>
     <mergeCell ref="A106:G106"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:F109"/>
     <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="A111:G111"/>
     <mergeCell ref="A112:G112"/>
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="D115:F115"/>
     <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="A117:G117"/>
     <mergeCell ref="A118:G118"/>
     <mergeCell ref="A119:G119"/>
     <mergeCell ref="A120:G120"/>
-    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="D121:F121"/>
     <mergeCell ref="A122:G122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A123:G123"/>
     <mergeCell ref="A124:G124"/>
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
-    <mergeCell ref="A127:G127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="A128:G128"/>
     <mergeCell ref="A129:G129"/>
     <mergeCell ref="A130:G130"/>
     <mergeCell ref="A131:G131"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="A133:G133"/>
     <mergeCell ref="A134:G134"/>
     <mergeCell ref="A135:G135"/>
     <mergeCell ref="A136:G136"/>
     <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="A139:G139"/>
     <mergeCell ref="A140:G140"/>
     <mergeCell ref="A141:G141"/>
     <mergeCell ref="A142:G142"/>
     <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A144:G144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="A145:G145"/>
     <mergeCell ref="A146:G146"/>
     <mergeCell ref="A147:G147"/>
     <mergeCell ref="A148:G148"/>
     <mergeCell ref="A149:G149"/>
     <mergeCell ref="A150:G150"/>
-    <mergeCell ref="A151:G151"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Остатки и доступность товаров</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Параметры:</t>
   </si>
   <si>
-    <t>Склад В группе из списка "МАРКЕТПЛЕЙСЫ; WB ИП; ЛЕРУА; WB; ОЗОН" И
+    <t>Склад В группе из списка "МАРКЕТПЛЕЙСЫ; WB ИП; ЛЕРУА; WB; ОЗОН; Всеинструменты" И
 Номенклатура.Группа аналитического учета В группе из списка "Пластиковые бордюры КАНТР...; Пластиковые бордюры для т...; Дренаж общий; Грязезащита"</t>
   </si>
   <si>
@@ -104,6 +104,9 @@
     <t>WB</t>
   </si>
   <si>
+    <t>ЛЕРУА</t>
+  </si>
+  <si>
     <t>МАРКЕТПЛЕЙСЫ</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
     <t>ANM.49*99 Решетка придверная грязезащитная стальная ANMAKS, 49 х 99 cм</t>
   </si>
   <si>
-    <t>ЛЕРУА</t>
-  </si>
-  <si>
     <t>503А</t>
   </si>
   <si>
@@ -167,15 +167,27 @@
     <t>7245 Экобордюр  КОНТУР Б-100.05.08-ПП пластиковый  черный  L-1000 мм,  H-45 мм</t>
   </si>
   <si>
+    <t>7245-К-10</t>
+  </si>
+  <si>
+    <t>7245-К-10 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм</t>
+  </si>
+  <si>
+    <t>WB ИП</t>
+  </si>
+  <si>
+    <t>7245-К-10-30</t>
+  </si>
+  <si>
+    <t>7245-К-10-30 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм, (УПАКО</t>
+  </si>
+  <si>
     <t>7245-К-16</t>
   </si>
   <si>
     <t>7245-К-16 Экобордюр КОНТУР Б-100.05.08 пластиковый черный L-1000 мм, H-45 мм, (УПАКОВКА 16 шт.)</t>
   </si>
   <si>
-    <t>WB ИП</t>
-  </si>
-  <si>
     <t>7260</t>
   </si>
   <si>
@@ -188,6 +200,18 @@
     <t>7260-К-12 Экобордюр КОНТУР Б-100.06.08 пластиковый черный L-1000 мм, H-60 мм, (УПАКОВКА 12 шт.)</t>
   </si>
   <si>
+    <t>7260-К-8</t>
+  </si>
+  <si>
+    <t>7260-К-8 Экобордюр КОНТУР Б-100.06.08 пластиковый черный L-1000 мм, H-60 мм</t>
+  </si>
+  <si>
+    <t>7260-К-8-24</t>
+  </si>
+  <si>
+    <t>7260-К-8-24 Экобордюр КОНТУР Б-100.06.08 пластиковый черный L-1000 мм, H-60 мм</t>
+  </si>
+  <si>
     <t>7262-КП</t>
   </si>
   <si>
@@ -216,6 +240,18 @@
   </si>
   <si>
     <t>7280 Экобордюр  КОНТУР Б-100.08.08-ПП пластиковый  черный  L-1000 мм,  H-80 мм</t>
+  </si>
+  <si>
+    <t>7280-К-6</t>
+  </si>
+  <si>
+    <t>7280-К-6 Экобордюр КОНТУР Б-100.08.08 пластиковый черный L-1000 мм,  H-80 мм</t>
+  </si>
+  <si>
+    <t>7280-К-6-18</t>
+  </si>
+  <si>
+    <t>7280-К-6-18 Экобордюр КОНТУР Б-100.08.08 пластиковый черный L-1000 мм,  H-80 мм, (УПАКОВКА 6 шт. плю</t>
   </si>
   <si>
     <t>7280-К-8</t>
@@ -502,7 +538,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N150"/>
+  <dimension ref="N177"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -510,10 +546,10 @@
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="true"/>
     <col min="2" max="2" width="4.16796875" style="1" customWidth="true"/>
-    <col min="3" max="3" width="0.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="50.83203125" style="1" customWidth="true"/>
+    <col min="3" max="3" width="1.83203125" style="1" customWidth="true"/>
+    <col min="4" max="4" width="49.66796875" style="1" customWidth="true"/>
     <col min="5" max="5" width="18.5" style="1" customWidth="true"/>
-    <col min="6" max="6" width="5.33203125" style="1" customWidth="true"/>
+    <col min="6" max="6" width="6.5" style="1" customWidth="true"/>
     <col min="7" max="7" width="7.16796875" style="1" customWidth="true"/>
     <col min="8" max="8" width="14" style="1" customWidth="true"/>
     <col min="9" max="9" width="16.33203125" style="1" customWidth="true"/>
@@ -638,21 +674,17 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I9" s="10" t="e"/>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L9" s="10" t="e"/>
-      <c r="M9" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M9" s="10" t="e"/>
       <c r="N9" s="9" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -666,17 +698,17 @@
       <c r="F10" s="8" t="e"/>
       <c r="G10" s="8" t="e"/>
       <c r="H10" s="9" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I10" s="10" t="e"/>
       <c r="J10" s="10" t="e"/>
       <c r="K10" s="9" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L10" s="10" t="e"/>
       <c r="M10" s="10" t="e"/>
       <c r="N10" s="9" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -690,21 +722,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1187</v>
+        <v>1287</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1139</v>
+        <v>1284</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1139</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -718,21 +750,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1377</v>
+        <v>1015</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="J12" s="10" t="e"/>
-      <c r="K12" s="11" t="n">
-        <v>1283</v>
+      <c r="K12" s="9" t="n">
+        <v>986</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>94</v>
-      </c>
-      <c r="N12" s="11" t="n">
-        <v>1283</v>
+        <v>29</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>986</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="true">
@@ -746,21 +778,21 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2799</v>
+        <v>2519</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2656</v>
+        <v>2487</v>
       </c>
       <c r="L13" s="15" t="e"/>
       <c r="M13" s="14" t="n">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2656</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -778,17 +810,17 @@
         <v>24</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I14" s="18" t="e"/>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L14" s="18" t="e"/>
       <c r="M14" s="18" t="e"/>
       <c r="N14" s="17" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
@@ -826,17 +858,17 @@
       <c r="F16" s="19" t="e"/>
       <c r="G16" s="19" t="e"/>
       <c r="H16" s="9" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I16" s="10" t="e"/>
       <c r="J16" s="10" t="e"/>
       <c r="K16" s="9" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L16" s="10" t="e"/>
       <c r="M16" s="10" t="e"/>
       <c r="N16" s="9" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="1">
@@ -850,78 +882,74 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I17" s="10" t="e"/>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L17" s="10" t="e"/>
       <c r="M17" s="10" t="e"/>
       <c r="N17" s="9" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
-      <c r="A18" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="16" t="e"/>
-      <c r="C18" s="16" t="e"/>
-      <c r="D18" s="16" t="s">
+      <c r="B18" s="19" t="e"/>
+      <c r="C18" s="19" t="e"/>
+      <c r="D18" s="19" t="e"/>
+      <c r="E18" s="19" t="e"/>
+      <c r="F18" s="19" t="e"/>
+      <c r="G18" s="19" t="e"/>
+      <c r="H18" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="10" t="e"/>
+      <c r="J18" s="10" t="e"/>
+      <c r="K18" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" s="10" t="e"/>
+      <c r="M18" s="10" t="e"/>
+      <c r="N18" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
+      <c r="A19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="16" t="e"/>
-      <c r="F18" s="16" t="e"/>
-      <c r="G18" s="16" t="s">
+      <c r="B19" s="16" t="e"/>
+      <c r="C19" s="16" t="e"/>
+      <c r="D19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="16" t="e"/>
+      <c r="F19" s="16" t="e"/>
+      <c r="G19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="I18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="18" t="e"/>
-      <c r="K18" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="L18" s="18" t="e"/>
-      <c r="M18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="17" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="19" t="e"/>
-      <c r="C19" s="19" t="e"/>
-      <c r="D19" s="19" t="e"/>
-      <c r="E19" s="19" t="e"/>
-      <c r="F19" s="19" t="e"/>
-      <c r="G19" s="19" t="e"/>
-      <c r="H19" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I19" s="10" t="e"/>
-      <c r="J19" s="10" t="e"/>
-      <c r="K19" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="10" t="e"/>
-      <c r="M19" s="10" t="e"/>
-      <c r="N19" s="9" t="n">
-        <v>6</v>
+      <c r="H19" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="I19" s="18" t="e"/>
+      <c r="J19" s="18" t="e"/>
+      <c r="K19" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="L19" s="18" t="e"/>
+      <c r="M19" s="18" t="e"/>
+      <c r="N19" s="17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
       <c r="A20" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="19" t="e"/>
       <c r="C20" s="19" t="e"/>
@@ -930,182 +958,178 @@
       <c r="F20" s="19" t="e"/>
       <c r="G20" s="19" t="e"/>
       <c r="H20" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I20" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I20" s="10" t="e"/>
       <c r="J20" s="10" t="e"/>
       <c r="K20" s="9" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L20" s="10" t="e"/>
-      <c r="M20" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M20" s="10" t="e"/>
       <c r="N20" s="9" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="22" customHeight="true">
-      <c r="A21" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="19" t="e"/>
+      <c r="C21" s="19" t="e"/>
+      <c r="D21" s="19" t="e"/>
+      <c r="E21" s="19" t="e"/>
+      <c r="F21" s="19" t="e"/>
+      <c r="G21" s="19" t="e"/>
+      <c r="H21" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="I21" s="10" t="e"/>
+      <c r="J21" s="10" t="e"/>
+      <c r="K21" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L21" s="10" t="e"/>
+      <c r="M21" s="10" t="e"/>
+      <c r="N21" s="9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true">
+      <c r="A22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="16" t="e"/>
-      <c r="C21" s="16" t="e"/>
-      <c r="D21" s="16" t="s">
+      <c r="B22" s="16" t="e"/>
+      <c r="C22" s="16" t="e"/>
+      <c r="D22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="16" t="e"/>
-      <c r="F21" s="16" t="e"/>
-      <c r="G21" s="16" t="s">
+      <c r="E22" s="16" t="e"/>
+      <c r="F22" s="16" t="e"/>
+      <c r="G22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="I21" s="18" t="e"/>
-      <c r="J21" s="18" t="e"/>
-      <c r="K21" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L21" s="18" t="e"/>
-      <c r="M21" s="18" t="e"/>
-      <c r="N21" s="17" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="19" t="e"/>
-      <c r="C22" s="19" t="e"/>
-      <c r="D22" s="19" t="e"/>
-      <c r="E22" s="19" t="e"/>
-      <c r="F22" s="19" t="e"/>
-      <c r="G22" s="19" t="e"/>
-      <c r="H22" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I22" s="10" t="e"/>
-      <c r="J22" s="10" t="e"/>
-      <c r="K22" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L22" s="10" t="e"/>
-      <c r="M22" s="10" t="e"/>
-      <c r="N22" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="true">
-      <c r="A23" s="16" t="s">
+      <c r="H22" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="I22" s="18" t="e"/>
+      <c r="J22" s="18" t="e"/>
+      <c r="K22" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="L22" s="18" t="e"/>
+      <c r="M22" s="18" t="e"/>
+      <c r="N22" s="17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="19" t="e"/>
+      <c r="C23" s="19" t="e"/>
+      <c r="D23" s="19" t="e"/>
+      <c r="E23" s="19" t="e"/>
+      <c r="F23" s="19" t="e"/>
+      <c r="G23" s="19" t="e"/>
+      <c r="H23" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I23" s="10" t="e"/>
+      <c r="J23" s="10" t="e"/>
+      <c r="K23" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L23" s="10" t="e"/>
+      <c r="M23" s="10" t="e"/>
+      <c r="N23" s="9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true">
+      <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="16" t="e"/>
-      <c r="C23" s="16" t="e"/>
-      <c r="D23" s="16" t="s">
+      <c r="B24" s="16" t="e"/>
+      <c r="C24" s="16" t="e"/>
+      <c r="D24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="16" t="e"/>
-      <c r="F23" s="16" t="e"/>
-      <c r="G23" s="16" t="s">
+      <c r="E24" s="16" t="e"/>
+      <c r="F24" s="16" t="e"/>
+      <c r="G24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I23" s="18" t="e"/>
-      <c r="J23" s="18" t="e"/>
-      <c r="K23" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L23" s="18" t="e"/>
-      <c r="M23" s="18" t="e"/>
-      <c r="N23" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A24" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="19" t="e"/>
-      <c r="C24" s="19" t="e"/>
-      <c r="D24" s="19" t="e"/>
-      <c r="E24" s="19" t="e"/>
-      <c r="F24" s="19" t="e"/>
-      <c r="G24" s="19" t="e"/>
-      <c r="H24" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" s="10" t="e"/>
-      <c r="J24" s="10" t="e"/>
-      <c r="K24" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L24" s="10" t="e"/>
-      <c r="M24" s="10" t="e"/>
-      <c r="N24" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="true">
-      <c r="A25" s="16" t="s">
+      <c r="H24" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="18" t="e"/>
+      <c r="J24" s="18" t="e"/>
+      <c r="K24" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" s="18" t="e"/>
+      <c r="M24" s="18" t="e"/>
+      <c r="N24" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="19" t="e"/>
+      <c r="C25" s="19" t="e"/>
+      <c r="D25" s="19" t="e"/>
+      <c r="E25" s="19" t="e"/>
+      <c r="F25" s="19" t="e"/>
+      <c r="G25" s="19" t="e"/>
+      <c r="H25" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="10" t="e"/>
+      <c r="J25" s="10" t="e"/>
+      <c r="K25" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" s="10" t="e"/>
+      <c r="M25" s="10" t="e"/>
+      <c r="N25" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true">
+      <c r="A26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="16" t="e"/>
-      <c r="C25" s="16" t="e"/>
-      <c r="D25" s="16" t="s">
+      <c r="B26" s="16" t="e"/>
+      <c r="C26" s="16" t="e"/>
+      <c r="D26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="16" t="e"/>
-      <c r="F25" s="16" t="e"/>
-      <c r="G25" s="16" t="s">
+      <c r="E26" s="16" t="e"/>
+      <c r="F26" s="16" t="e"/>
+      <c r="G26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="17" t="n">
-        <v>82</v>
-      </c>
-      <c r="I25" s="18" t="e"/>
-      <c r="J25" s="18" t="e"/>
-      <c r="K25" s="17" t="n">
-        <v>82</v>
-      </c>
-      <c r="L25" s="18" t="e"/>
-      <c r="M25" s="18" t="e"/>
-      <c r="N25" s="17" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="19" t="e"/>
-      <c r="C26" s="19" t="e"/>
-      <c r="D26" s="19" t="e"/>
-      <c r="E26" s="19" t="e"/>
-      <c r="F26" s="19" t="e"/>
-      <c r="G26" s="19" t="e"/>
-      <c r="H26" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I26" s="10" t="e"/>
-      <c r="J26" s="10" t="e"/>
-      <c r="K26" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="L26" s="10" t="e"/>
-      <c r="M26" s="10" t="e"/>
-      <c r="N26" s="9" t="n">
-        <v>45</v>
+      <c r="H26" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="I26" s="18" t="e"/>
+      <c r="J26" s="18" t="e"/>
+      <c r="K26" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="L26" s="18" t="e"/>
+      <c r="M26" s="18" t="e"/>
+      <c r="N26" s="17" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
       <c r="A27" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="19" t="e"/>
       <c r="C27" s="19" t="e"/>
@@ -1114,50 +1138,46 @@
       <c r="F27" s="19" t="e"/>
       <c r="G27" s="19" t="e"/>
       <c r="H27" s="9" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I27" s="10" t="e"/>
       <c r="J27" s="10" t="e"/>
       <c r="K27" s="9" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L27" s="10" t="e"/>
       <c r="M27" s="10" t="e"/>
       <c r="N27" s="9" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" ht="22" customHeight="true">
-      <c r="A28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="16" t="e"/>
-      <c r="C28" s="16" t="e"/>
-      <c r="D28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="16" t="e"/>
-      <c r="F28" s="16" t="e"/>
-      <c r="G28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="I28" s="18" t="e"/>
-      <c r="J28" s="18" t="e"/>
-      <c r="K28" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="L28" s="18" t="e"/>
-      <c r="M28" s="18" t="e"/>
-      <c r="N28" s="17" t="n">
-        <v>16</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="e"/>
+      <c r="C28" s="19" t="e"/>
+      <c r="D28" s="19" t="e"/>
+      <c r="E28" s="19" t="e"/>
+      <c r="F28" s="19" t="e"/>
+      <c r="G28" s="19" t="e"/>
+      <c r="H28" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="I28" s="10" t="e"/>
+      <c r="J28" s="10" t="e"/>
+      <c r="K28" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="L28" s="10" t="e"/>
+      <c r="M28" s="10" t="e"/>
+      <c r="N28" s="9" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="1">
       <c r="A29" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="19" t="e"/>
       <c r="C29" s="19" t="e"/>
@@ -1166,74 +1186,74 @@
       <c r="F29" s="19" t="e"/>
       <c r="G29" s="19" t="e"/>
       <c r="H29" s="9" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I29" s="10" t="e"/>
       <c r="J29" s="10" t="e"/>
       <c r="K29" s="9" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="L29" s="10" t="e"/>
       <c r="M29" s="10" t="e"/>
       <c r="N29" s="9" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true">
+      <c r="A30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="16" t="e"/>
+      <c r="C30" s="16" t="e"/>
+      <c r="D30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="16" t="e"/>
+      <c r="F30" s="16" t="e"/>
+      <c r="G30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" s="18" t="e"/>
+      <c r="J30" s="18" t="e"/>
+      <c r="K30" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L30" s="18" t="e"/>
+      <c r="M30" s="18" t="e"/>
+      <c r="N30" s="17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="19" t="e"/>
+      <c r="C31" s="19" t="e"/>
+      <c r="D31" s="19" t="e"/>
+      <c r="E31" s="19" t="e"/>
+      <c r="F31" s="19" t="e"/>
+      <c r="G31" s="19" t="e"/>
+      <c r="H31" s="9" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A30" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="19" t="e"/>
-      <c r="C30" s="19" t="e"/>
-      <c r="D30" s="19" t="e"/>
-      <c r="E30" s="19" t="e"/>
-      <c r="F30" s="19" t="e"/>
-      <c r="G30" s="19" t="e"/>
-      <c r="H30" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I30" s="10" t="e"/>
-      <c r="J30" s="10" t="e"/>
-      <c r="K30" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L30" s="10" t="e"/>
-      <c r="M30" s="10" t="e"/>
-      <c r="N30" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" ht="22" customHeight="true">
-      <c r="A31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="16" t="e"/>
-      <c r="C31" s="16" t="e"/>
-      <c r="D31" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="16" t="e"/>
-      <c r="F31" s="16" t="e"/>
-      <c r="G31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="I31" s="18" t="e"/>
-      <c r="J31" s="18" t="e"/>
-      <c r="K31" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="L31" s="18" t="e"/>
-      <c r="M31" s="18" t="e"/>
-      <c r="N31" s="17" t="n">
-        <v>14</v>
+      <c r="I31" s="10" t="e"/>
+      <c r="J31" s="10" t="e"/>
+      <c r="K31" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" s="10" t="e"/>
+      <c r="M31" s="10" t="e"/>
+      <c r="N31" s="9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="1">
       <c r="A32" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="19" t="e"/>
       <c r="C32" s="19" t="e"/>
@@ -1242,22 +1262,22 @@
       <c r="F32" s="19" t="e"/>
       <c r="G32" s="19" t="e"/>
       <c r="H32" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" s="10" t="e"/>
       <c r="J32" s="10" t="e"/>
       <c r="K32" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32" s="10" t="e"/>
       <c r="M32" s="10" t="e"/>
       <c r="N32" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="19" t="e"/>
       <c r="C33" s="19" t="e"/>
@@ -1281,12 +1301,12 @@
     </row>
     <row r="34" ht="22" customHeight="true">
       <c r="A34" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="16" t="e"/>
       <c r="C34" s="16" t="e"/>
       <c r="D34" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="16" t="e"/>
       <c r="F34" s="16" t="e"/>
@@ -1294,22 +1314,22 @@
         <v>24</v>
       </c>
       <c r="H34" s="17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I34" s="18" t="e"/>
       <c r="J34" s="18" t="e"/>
       <c r="K34" s="17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L34" s="18" t="e"/>
       <c r="M34" s="18" t="e"/>
       <c r="N34" s="17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="1">
       <c r="A35" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="19" t="e"/>
       <c r="C35" s="19" t="e"/>
@@ -1318,130 +1338,126 @@
       <c r="F35" s="19" t="e"/>
       <c r="G35" s="19" t="e"/>
       <c r="H35" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I35" s="10" t="e"/>
       <c r="J35" s="10" t="e"/>
       <c r="K35" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L35" s="10" t="e"/>
       <c r="M35" s="10" t="e"/>
       <c r="N35" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" ht="11" customHeight="true">
-      <c r="A36" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A36" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="19" t="e"/>
+      <c r="C36" s="19" t="e"/>
+      <c r="D36" s="19" t="e"/>
+      <c r="E36" s="19" t="e"/>
+      <c r="F36" s="19" t="e"/>
+      <c r="G36" s="19" t="e"/>
+      <c r="H36" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" s="10" t="e"/>
+      <c r="J36" s="10" t="e"/>
+      <c r="K36" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" s="10" t="e"/>
+      <c r="M36" s="10" t="e"/>
+      <c r="N36" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true">
+      <c r="A37" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="16" t="e"/>
+      <c r="C37" s="16" t="e"/>
+      <c r="D37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="16" t="e"/>
+      <c r="F37" s="16" t="e"/>
+      <c r="G37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" s="18" t="e"/>
+      <c r="J37" s="18" t="e"/>
+      <c r="K37" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L37" s="18" t="e"/>
+      <c r="M37" s="18" t="e"/>
+      <c r="N37" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A38" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="19" t="e"/>
+      <c r="C38" s="19" t="e"/>
+      <c r="D38" s="19" t="e"/>
+      <c r="E38" s="19" t="e"/>
+      <c r="F38" s="19" t="e"/>
+      <c r="G38" s="19" t="e"/>
+      <c r="H38" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" s="10" t="e"/>
+      <c r="J38" s="10" t="e"/>
+      <c r="K38" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" s="10" t="e"/>
+      <c r="M38" s="10" t="e"/>
+      <c r="N38" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
+      <c r="A39" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="16" t="e"/>
-      <c r="C36" s="16" t="e"/>
-      <c r="D36" s="16" t="s">
+      <c r="B39" s="16" t="e"/>
+      <c r="C39" s="16" t="e"/>
+      <c r="D39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="16" t="e"/>
-      <c r="F36" s="16" t="e"/>
-      <c r="G36" s="16" t="s">
+      <c r="E39" s="16" t="e"/>
+      <c r="F39" s="16" t="e"/>
+      <c r="G39" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="17" t="n">
+      <c r="H39" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="I36" s="18" t="e"/>
-      <c r="J36" s="18" t="e"/>
-      <c r="K36" s="17" t="n">
+      <c r="I39" s="18" t="e"/>
+      <c r="J39" s="18" t="e"/>
+      <c r="K39" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="L36" s="18" t="e"/>
-      <c r="M36" s="18" t="e"/>
-      <c r="N36" s="17" t="n">
+      <c r="L39" s="18" t="e"/>
+      <c r="M39" s="18" t="e"/>
+      <c r="N39" s="17" t="n">
         <v>30</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A37" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="19" t="e"/>
-      <c r="C37" s="19" t="e"/>
-      <c r="D37" s="19" t="e"/>
-      <c r="E37" s="19" t="e"/>
-      <c r="F37" s="19" t="e"/>
-      <c r="G37" s="19" t="e"/>
-      <c r="H37" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="10" t="e"/>
-      <c r="J37" s="10" t="e"/>
-      <c r="K37" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L37" s="10" t="e"/>
-      <c r="M37" s="10" t="e"/>
-      <c r="N37" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
-      <c r="A38" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="16" t="e"/>
-      <c r="C38" s="16" t="e"/>
-      <c r="D38" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="16" t="e"/>
-      <c r="F38" s="16" t="e"/>
-      <c r="G38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="17" t="n">
-        <v>248</v>
-      </c>
-      <c r="I38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" s="18" t="e"/>
-      <c r="K38" s="17" t="n">
-        <v>247</v>
-      </c>
-      <c r="L38" s="18" t="e"/>
-      <c r="M38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="17" t="n">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A39" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="19" t="e"/>
-      <c r="C39" s="19" t="e"/>
-      <c r="D39" s="19" t="e"/>
-      <c r="E39" s="19" t="e"/>
-      <c r="F39" s="19" t="e"/>
-      <c r="G39" s="19" t="e"/>
-      <c r="H39" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="I39" s="10" t="e"/>
-      <c r="J39" s="10" t="e"/>
-      <c r="K39" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="L39" s="10" t="e"/>
-      <c r="M39" s="10" t="e"/>
-      <c r="N39" s="9" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="1">
       <c r="A40" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B40" s="19" t="e"/>
       <c r="C40" s="19" t="e"/>
@@ -1450,82 +1466,74 @@
       <c r="F40" s="19" t="e"/>
       <c r="G40" s="19" t="e"/>
       <c r="H40" s="9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I40" s="10" t="e"/>
       <c r="J40" s="10" t="e"/>
       <c r="K40" s="9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L40" s="10" t="e"/>
       <c r="M40" s="10" t="e"/>
       <c r="N40" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="19" t="e"/>
-      <c r="C41" s="19" t="e"/>
-      <c r="D41" s="19" t="e"/>
-      <c r="E41" s="19" t="e"/>
-      <c r="F41" s="19" t="e"/>
-      <c r="G41" s="19" t="e"/>
-      <c r="H41" s="9" t="n">
-        <v>103</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="10" t="e"/>
-      <c r="K41" s="9" t="n">
-        <v>102</v>
-      </c>
-      <c r="L41" s="10" t="e"/>
-      <c r="M41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="9" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" ht="22" customHeight="true">
-      <c r="A42" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="16" t="e"/>
-      <c r="C42" s="16" t="e"/>
-      <c r="D42" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="16" t="e"/>
-      <c r="F42" s="16" t="e"/>
-      <c r="G42" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="16" t="e"/>
+      <c r="C41" s="16" t="e"/>
+      <c r="D41" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="16" t="e"/>
+      <c r="F41" s="16" t="e"/>
+      <c r="G41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="17" t="n">
-        <v>129</v>
-      </c>
-      <c r="I42" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="18" t="e"/>
-      <c r="K42" s="17" t="n">
-        <v>128</v>
-      </c>
-      <c r="L42" s="18" t="e"/>
-      <c r="M42" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" s="17" t="n">
-        <v>128</v>
+      <c r="H41" s="17" t="n">
+        <v>245</v>
+      </c>
+      <c r="I41" s="18" t="e"/>
+      <c r="J41" s="18" t="e"/>
+      <c r="K41" s="17" t="n">
+        <v>245</v>
+      </c>
+      <c r="L41" s="18" t="e"/>
+      <c r="M41" s="18" t="e"/>
+      <c r="N41" s="17" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="19" t="e"/>
+      <c r="C42" s="19" t="e"/>
+      <c r="D42" s="19" t="e"/>
+      <c r="E42" s="19" t="e"/>
+      <c r="F42" s="19" t="e"/>
+      <c r="G42" s="19" t="e"/>
+      <c r="H42" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="I42" s="10" t="e"/>
+      <c r="J42" s="10" t="e"/>
+      <c r="K42" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="L42" s="10" t="e"/>
+      <c r="M42" s="10" t="e"/>
+      <c r="N42" s="9" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="1">
       <c r="A43" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B43" s="19" t="e"/>
       <c r="C43" s="19" t="e"/>
@@ -1534,22 +1542,22 @@
       <c r="F43" s="19" t="e"/>
       <c r="G43" s="19" t="e"/>
       <c r="H43" s="9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I43" s="10" t="e"/>
       <c r="J43" s="10" t="e"/>
       <c r="K43" s="9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L43" s="10" t="e"/>
       <c r="M43" s="10" t="e"/>
       <c r="N43" s="9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="A44" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B44" s="19" t="e"/>
       <c r="C44" s="19" t="e"/>
@@ -1558,46 +1566,50 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I44" s="10" t="e"/>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L44" s="10" t="e"/>
       <c r="M44" s="10" t="e"/>
       <c r="N44" s="9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="16" t="e"/>
+      <c r="C45" s="16" t="e"/>
+      <c r="D45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="16" t="e"/>
+      <c r="F45" s="16" t="e"/>
+      <c r="G45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="17" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A45" s="19" t="s">
+      <c r="I45" s="18" t="e"/>
+      <c r="J45" s="18" t="e"/>
+      <c r="K45" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B45" s="19" t="e"/>
-      <c r="C45" s="19" t="e"/>
-      <c r="D45" s="19" t="e"/>
-      <c r="E45" s="19" t="e"/>
-      <c r="F45" s="19" t="e"/>
-      <c r="G45" s="19" t="e"/>
-      <c r="H45" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" s="10" t="e"/>
-      <c r="J45" s="10" t="e"/>
-      <c r="K45" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L45" s="10" t="e"/>
-      <c r="M45" s="10" t="e"/>
-      <c r="N45" s="9" t="n">
-        <v>4</v>
+      <c r="L45" s="18" t="e"/>
+      <c r="M45" s="18" t="e"/>
+      <c r="N45" s="17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
       <c r="A46" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="19" t="e"/>
       <c r="C46" s="19" t="e"/>
@@ -1606,22 +1618,22 @@
       <c r="F46" s="19" t="e"/>
       <c r="G46" s="19" t="e"/>
       <c r="H46" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I46" s="10" t="e"/>
       <c r="J46" s="10" t="e"/>
       <c r="K46" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L46" s="10" t="e"/>
       <c r="M46" s="10" t="e"/>
       <c r="N46" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="A47" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B47" s="19" t="e"/>
       <c r="C47" s="19" t="e"/>
@@ -1630,86 +1642,74 @@
       <c r="F47" s="19" t="e"/>
       <c r="G47" s="19" t="e"/>
       <c r="H47" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I47" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I47" s="10" t="e"/>
       <c r="J47" s="10" t="e"/>
       <c r="K47" s="9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L47" s="10" t="e"/>
-      <c r="M47" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M47" s="10" t="e"/>
       <c r="N47" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true">
-      <c r="A48" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A48" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="19" t="e"/>
+      <c r="C48" s="19" t="e"/>
+      <c r="D48" s="19" t="e"/>
+      <c r="E48" s="19" t="e"/>
+      <c r="F48" s="19" t="e"/>
+      <c r="G48" s="19" t="e"/>
+      <c r="H48" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" s="10" t="e"/>
+      <c r="J48" s="10" t="e"/>
+      <c r="K48" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" s="10" t="e"/>
+      <c r="M48" s="10" t="e"/>
+      <c r="N48" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
+      <c r="A49" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="16" t="e"/>
-      <c r="C48" s="16" t="e"/>
-      <c r="D48" s="16" t="s">
+      <c r="B49" s="16" t="e"/>
+      <c r="C49" s="16" t="e"/>
+      <c r="D49" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="16" t="e"/>
-      <c r="F48" s="16" t="e"/>
-      <c r="G48" s="16" t="s">
+      <c r="E49" s="16" t="e"/>
+      <c r="F49" s="16" t="e"/>
+      <c r="G49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="17" t="n">
-        <v>168</v>
-      </c>
-      <c r="I48" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="J48" s="18" t="e"/>
-      <c r="K48" s="17" t="n">
-        <v>148</v>
-      </c>
-      <c r="L48" s="18" t="e"/>
-      <c r="M48" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="N48" s="17" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A49" s="19" t="s">
+      <c r="H49" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B49" s="19" t="e"/>
-      <c r="C49" s="19" t="e"/>
-      <c r="D49" s="19" t="e"/>
-      <c r="E49" s="19" t="e"/>
-      <c r="F49" s="19" t="e"/>
-      <c r="G49" s="19" t="e"/>
-      <c r="H49" s="9" t="n">
-        <v>51</v>
-      </c>
-      <c r="I49" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" s="10" t="e"/>
-      <c r="K49" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="L49" s="10" t="e"/>
-      <c r="M49" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="N49" s="9" t="n">
-        <v>31</v>
+      <c r="I49" s="18" t="e"/>
+      <c r="J49" s="18" t="e"/>
+      <c r="K49" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="L49" s="18" t="e"/>
+      <c r="M49" s="18" t="e"/>
+      <c r="N49" s="17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="19" t="e"/>
       <c r="C50" s="19" t="e"/>
@@ -1718,22 +1718,22 @@
       <c r="F50" s="19" t="e"/>
       <c r="G50" s="19" t="e"/>
       <c r="H50" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I50" s="10" t="e"/>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L50" s="10" t="e"/>
       <c r="M50" s="10" t="e"/>
       <c r="N50" s="9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="1">
       <c r="A51" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B51" s="19" t="e"/>
       <c r="C51" s="19" t="e"/>
@@ -1742,82 +1742,74 @@
       <c r="F51" s="19" t="e"/>
       <c r="G51" s="19" t="e"/>
       <c r="H51" s="9" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="I51" s="10" t="e"/>
       <c r="J51" s="10" t="e"/>
       <c r="K51" s="9" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="L51" s="10" t="e"/>
       <c r="M51" s="10" t="e"/>
       <c r="N51" s="9" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" ht="22" customHeight="true">
-      <c r="A52" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A52" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="19" t="e"/>
+      <c r="C52" s="19" t="e"/>
+      <c r="D52" s="19" t="e"/>
+      <c r="E52" s="19" t="e"/>
+      <c r="F52" s="19" t="e"/>
+      <c r="G52" s="19" t="e"/>
+      <c r="H52" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" s="10" t="e"/>
+      <c r="J52" s="10" t="e"/>
+      <c r="K52" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L52" s="10" t="e"/>
+      <c r="M52" s="10" t="e"/>
+      <c r="N52" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
+      <c r="A53" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="16" t="e"/>
-      <c r="C52" s="16" t="e"/>
-      <c r="D52" s="16" t="s">
+      <c r="B53" s="16" t="e"/>
+      <c r="C53" s="16" t="e"/>
+      <c r="D53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="16" t="e"/>
-      <c r="F52" s="16" t="e"/>
-      <c r="G52" s="16" t="s">
+      <c r="E53" s="16" t="e"/>
+      <c r="F53" s="16" t="e"/>
+      <c r="G53" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="17" t="n">
-        <v>136</v>
-      </c>
-      <c r="I52" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" s="18" t="e"/>
-      <c r="K52" s="17" t="n">
-        <v>133</v>
-      </c>
-      <c r="L52" s="18" t="e"/>
-      <c r="M52" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" s="17" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A53" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="19" t="e"/>
-      <c r="C53" s="19" t="e"/>
-      <c r="D53" s="19" t="e"/>
-      <c r="E53" s="19" t="e"/>
-      <c r="F53" s="19" t="e"/>
-      <c r="G53" s="19" t="e"/>
-      <c r="H53" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="10" t="e"/>
-      <c r="K53" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="L53" s="10" t="e"/>
-      <c r="M53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" s="9" t="n">
-        <v>28</v>
+      <c r="H53" s="17" t="n">
+        <v>128</v>
+      </c>
+      <c r="I53" s="18" t="e"/>
+      <c r="J53" s="18" t="e"/>
+      <c r="K53" s="17" t="n">
+        <v>128</v>
+      </c>
+      <c r="L53" s="18" t="e"/>
+      <c r="M53" s="18" t="e"/>
+      <c r="N53" s="17" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1826,22 +1818,22 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I54" s="10" t="e"/>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="10" t="e"/>
       <c r="N54" s="9" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1850,17 +1842,17 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L55" s="10" t="e"/>
       <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
@@ -1874,17 +1866,17 @@
       <c r="F56" s="19" t="e"/>
       <c r="G56" s="19" t="e"/>
       <c r="H56" s="9" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I56" s="10" t="e"/>
       <c r="J56" s="10" t="e"/>
       <c r="K56" s="9" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L56" s="10" t="e"/>
       <c r="M56" s="10" t="e"/>
       <c r="N56" s="9" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
@@ -1898,82 +1890,74 @@
       <c r="F57" s="19" t="e"/>
       <c r="G57" s="19" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I57" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I57" s="10" t="e"/>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L57" s="10" t="e"/>
-      <c r="M57" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M57" s="10" t="e"/>
       <c r="N57" s="9" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
-      <c r="A58" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A58" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="19" t="e"/>
+      <c r="C58" s="19" t="e"/>
+      <c r="D58" s="19" t="e"/>
+      <c r="E58" s="19" t="e"/>
+      <c r="F58" s="19" t="e"/>
+      <c r="G58" s="19" t="e"/>
+      <c r="H58" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I58" s="10" t="e"/>
+      <c r="J58" s="10" t="e"/>
+      <c r="K58" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L58" s="10" t="e"/>
+      <c r="M58" s="10" t="e"/>
+      <c r="N58" s="9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
+      <c r="A59" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="16" t="e"/>
-      <c r="C58" s="16" t="e"/>
-      <c r="D58" s="16" t="s">
+      <c r="B59" s="16" t="e"/>
+      <c r="C59" s="16" t="e"/>
+      <c r="D59" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="16" t="e"/>
-      <c r="F58" s="16" t="e"/>
-      <c r="G58" s="16" t="s">
+      <c r="E59" s="16" t="e"/>
+      <c r="F59" s="16" t="e"/>
+      <c r="G59" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="17" t="n">
-        <v>108</v>
-      </c>
-      <c r="I58" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J58" s="18" t="e"/>
-      <c r="K58" s="17" t="n">
-        <v>102</v>
-      </c>
-      <c r="L58" s="18" t="e"/>
-      <c r="M58" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N58" s="17" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A59" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="19" t="e"/>
-      <c r="C59" s="19" t="e"/>
-      <c r="D59" s="19" t="e"/>
-      <c r="E59" s="19" t="e"/>
-      <c r="F59" s="19" t="e"/>
-      <c r="G59" s="19" t="e"/>
-      <c r="H59" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="I59" s="10" t="e"/>
-      <c r="J59" s="10" t="e"/>
-      <c r="K59" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="L59" s="10" t="e"/>
-      <c r="M59" s="10" t="e"/>
-      <c r="N59" s="9" t="n">
-        <v>32</v>
+      <c r="H59" s="17" t="n">
+        <v>143</v>
+      </c>
+      <c r="I59" s="18" t="e"/>
+      <c r="J59" s="18" t="e"/>
+      <c r="K59" s="17" t="n">
+        <v>143</v>
+      </c>
+      <c r="L59" s="18" t="e"/>
+      <c r="M59" s="18" t="e"/>
+      <c r="N59" s="17" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1982,22 +1966,22 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L60" s="10" t="e"/>
       <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -2006,22 +1990,22 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I61" s="10" t="e"/>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L61" s="10" t="e"/>
       <c r="M61" s="10" t="e"/>
       <c r="N61" s="9" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="11" customHeight="true" outlineLevel="1">
       <c r="A62" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B62" s="19" t="e"/>
       <c r="C62" s="19" t="e"/>
@@ -2030,78 +2014,78 @@
       <c r="F62" s="19" t="e"/>
       <c r="G62" s="19" t="e"/>
       <c r="H62" s="9" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="I62" s="10" t="e"/>
       <c r="J62" s="10" t="e"/>
       <c r="K62" s="9" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="L62" s="10" t="e"/>
       <c r="M62" s="10" t="e"/>
       <c r="N62" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A63" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="19" t="e"/>
-      <c r="C63" s="19" t="e"/>
-      <c r="D63" s="19" t="e"/>
-      <c r="E63" s="19" t="e"/>
-      <c r="F63" s="19" t="e"/>
-      <c r="G63" s="19" t="e"/>
-      <c r="H63" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I63" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J63" s="10" t="e"/>
-      <c r="K63" s="9" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true">
+      <c r="A63" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="16" t="e"/>
+      <c r="C63" s="16" t="e"/>
+      <c r="D63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="16" t="e"/>
+      <c r="F63" s="16" t="e"/>
+      <c r="G63" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="17" t="n">
+        <v>121</v>
+      </c>
+      <c r="I63" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" s="18" t="e"/>
+      <c r="K63" s="17" t="n">
+        <v>119</v>
+      </c>
+      <c r="L63" s="18" t="e"/>
+      <c r="M63" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" s="17" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A64" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="10" t="e"/>
-      <c r="M63" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N63" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" ht="11" customHeight="true">
-      <c r="A64" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="16" t="e"/>
-      <c r="C64" s="16" t="e"/>
-      <c r="D64" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="16" t="e"/>
-      <c r="F64" s="16" t="e"/>
-      <c r="G64" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="I64" s="18" t="e"/>
-      <c r="J64" s="18" t="e"/>
-      <c r="K64" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="L64" s="18" t="e"/>
-      <c r="M64" s="18" t="e"/>
-      <c r="N64" s="17" t="n">
-        <v>24</v>
+      <c r="B64" s="19" t="e"/>
+      <c r="C64" s="19" t="e"/>
+      <c r="D64" s="19" t="e"/>
+      <c r="E64" s="19" t="e"/>
+      <c r="F64" s="19" t="e"/>
+      <c r="G64" s="19" t="e"/>
+      <c r="H64" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="I64" s="10" t="e"/>
+      <c r="J64" s="10" t="e"/>
+      <c r="K64" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L64" s="10" t="e"/>
+      <c r="M64" s="10" t="e"/>
+      <c r="N64" s="9" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2110,50 +2094,50 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="I65" s="10" t="e"/>
+        <v>22</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L65" s="10" t="e"/>
-      <c r="M65" s="10" t="e"/>
+      <c r="M65" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N65" s="9" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true">
-      <c r="A66" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="16" t="e"/>
-      <c r="C66" s="16" t="e"/>
-      <c r="D66" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="16" t="e"/>
-      <c r="F66" s="16" t="e"/>
-      <c r="G66" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I66" s="18" t="e"/>
-      <c r="J66" s="18" t="e"/>
-      <c r="K66" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="L66" s="18" t="e"/>
-      <c r="M66" s="18" t="e"/>
-      <c r="N66" s="17" t="n">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A66" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="19" t="e"/>
+      <c r="C66" s="19" t="e"/>
+      <c r="D66" s="19" t="e"/>
+      <c r="E66" s="19" t="e"/>
+      <c r="F66" s="19" t="e"/>
+      <c r="G66" s="19" t="e"/>
+      <c r="H66" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="I66" s="10" t="e"/>
+      <c r="J66" s="10" t="e"/>
+      <c r="K66" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="L66" s="10" t="e"/>
+      <c r="M66" s="10" t="e"/>
+      <c r="N66" s="9" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="67" ht="11" customHeight="true" outlineLevel="1">
       <c r="A67" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B67" s="19" t="e"/>
       <c r="C67" s="19" t="e"/>
@@ -2162,27 +2146,27 @@
       <c r="F67" s="19" t="e"/>
       <c r="G67" s="19" t="e"/>
       <c r="H67" s="9" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I67" s="10" t="e"/>
       <c r="J67" s="10" t="e"/>
       <c r="K67" s="9" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L67" s="10" t="e"/>
       <c r="M67" s="10" t="e"/>
       <c r="N67" s="9" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true">
       <c r="A68" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68" s="16" t="e"/>
       <c r="C68" s="16" t="e"/>
       <c r="D68" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E68" s="16" t="e"/>
       <c r="F68" s="16" t="e"/>
@@ -2190,17 +2174,17 @@
         <v>24</v>
       </c>
       <c r="H68" s="17" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I68" s="18" t="e"/>
       <c r="J68" s="18" t="e"/>
       <c r="K68" s="17" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L68" s="18" t="e"/>
       <c r="M68" s="18" t="e"/>
       <c r="N68" s="17" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
@@ -2214,17 +2198,17 @@
       <c r="F69" s="19" t="e"/>
       <c r="G69" s="19" t="e"/>
       <c r="H69" s="9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I69" s="10" t="e"/>
       <c r="J69" s="10" t="e"/>
       <c r="K69" s="9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L69" s="10" t="e"/>
       <c r="M69" s="10" t="e"/>
       <c r="N69" s="9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
@@ -2251,65 +2235,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="11" customHeight="true">
-      <c r="A71" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="16" t="e"/>
-      <c r="C71" s="16" t="e"/>
-      <c r="D71" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="16" t="e"/>
-      <c r="F71" s="16" t="e"/>
-      <c r="G71" s="16" t="s">
+    <row r="71" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A71" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="19" t="e"/>
+      <c r="C71" s="19" t="e"/>
+      <c r="D71" s="19" t="e"/>
+      <c r="E71" s="19" t="e"/>
+      <c r="F71" s="19" t="e"/>
+      <c r="G71" s="19" t="e"/>
+      <c r="H71" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I71" s="10" t="e"/>
+      <c r="J71" s="10" t="e"/>
+      <c r="K71" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L71" s="10" t="e"/>
+      <c r="M71" s="10" t="e"/>
+      <c r="N71" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true">
+      <c r="A72" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="16" t="e"/>
+      <c r="C72" s="16" t="e"/>
+      <c r="D72" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="16" t="e"/>
+      <c r="F72" s="16" t="e"/>
+      <c r="G72" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H71" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I71" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" s="18" t="e"/>
-      <c r="K71" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="L71" s="18" t="e"/>
-      <c r="M71" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N71" s="17" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A72" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="19" t="e"/>
-      <c r="C72" s="19" t="e"/>
-      <c r="D72" s="19" t="e"/>
-      <c r="E72" s="19" t="e"/>
-      <c r="F72" s="19" t="e"/>
-      <c r="G72" s="19" t="e"/>
-      <c r="H72" s="9" t="n">
+      <c r="H72" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="I72" s="10" t="e"/>
-      <c r="J72" s="10" t="e"/>
-      <c r="K72" s="9" t="n">
+      <c r="I72" s="18" t="e"/>
+      <c r="J72" s="18" t="e"/>
+      <c r="K72" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="L72" s="10" t="e"/>
-      <c r="M72" s="10" t="e"/>
-      <c r="N72" s="9" t="n">
+      <c r="L72" s="18" t="e"/>
+      <c r="M72" s="18" t="e"/>
+      <c r="N72" s="17" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="A73" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" s="19" t="e"/>
       <c r="C73" s="19" t="e"/>
@@ -2318,58 +2298,46 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>70</v>
-      </c>
-      <c r="I73" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I73" s="10" t="e"/>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="L73" s="10" t="e"/>
-      <c r="M73" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M73" s="10" t="e"/>
       <c r="N73" s="9" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" ht="22" customHeight="true">
-      <c r="A74" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="16" t="e"/>
-      <c r="C74" s="16" t="e"/>
-      <c r="D74" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="16" t="e"/>
-      <c r="F74" s="16" t="e"/>
-      <c r="G74" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="17" t="n">
-        <v>124</v>
-      </c>
-      <c r="I74" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" s="18" t="e"/>
-      <c r="K74" s="17" t="n">
-        <v>119</v>
-      </c>
-      <c r="L74" s="18" t="e"/>
-      <c r="M74" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N74" s="17" t="n">
-        <v>119</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="19" t="e"/>
+      <c r="C74" s="19" t="e"/>
+      <c r="D74" s="19" t="e"/>
+      <c r="E74" s="19" t="e"/>
+      <c r="F74" s="19" t="e"/>
+      <c r="G74" s="19" t="e"/>
+      <c r="H74" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I74" s="10" t="e"/>
+      <c r="J74" s="10" t="e"/>
+      <c r="K74" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L74" s="10" t="e"/>
+      <c r="M74" s="10" t="e"/>
+      <c r="N74" s="9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
       <c r="A75" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B75" s="19" t="e"/>
       <c r="C75" s="19" t="e"/>
@@ -2378,50 +2346,50 @@
       <c r="F75" s="19" t="e"/>
       <c r="G75" s="19" t="e"/>
       <c r="H75" s="9" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I75" s="10" t="e"/>
       <c r="J75" s="10" t="e"/>
       <c r="K75" s="9" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L75" s="10" t="e"/>
       <c r="M75" s="10" t="e"/>
       <c r="N75" s="9" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A76" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" s="19" t="e"/>
-      <c r="C76" s="19" t="e"/>
-      <c r="D76" s="19" t="e"/>
-      <c r="E76" s="19" t="e"/>
-      <c r="F76" s="19" t="e"/>
-      <c r="G76" s="19" t="e"/>
-      <c r="H76" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="I76" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" s="10" t="e"/>
-      <c r="K76" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="L76" s="10" t="e"/>
-      <c r="M76" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N76" s="9" t="n">
-        <v>28</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true">
+      <c r="A76" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="16" t="e"/>
+      <c r="C76" s="16" t="e"/>
+      <c r="D76" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="16" t="e"/>
+      <c r="F76" s="16" t="e"/>
+      <c r="G76" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="17" t="n">
+        <v>96</v>
+      </c>
+      <c r="I76" s="18" t="e"/>
+      <c r="J76" s="18" t="e"/>
+      <c r="K76" s="17" t="n">
+        <v>96</v>
+      </c>
+      <c r="L76" s="18" t="e"/>
+      <c r="M76" s="18" t="e"/>
+      <c r="N76" s="17" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2430,22 +2398,22 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I77" s="10" t="e"/>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="10" t="e"/>
       <c r="N77" s="9" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B78" s="19" t="e"/>
       <c r="C78" s="19" t="e"/>
@@ -2454,22 +2422,22 @@
       <c r="F78" s="19" t="e"/>
       <c r="G78" s="19" t="e"/>
       <c r="H78" s="9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I78" s="10" t="e"/>
       <c r="J78" s="10" t="e"/>
       <c r="K78" s="9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L78" s="10" t="e"/>
       <c r="M78" s="10" t="e"/>
       <c r="N78" s="9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="19" t="e"/>
       <c r="C79" s="19" t="e"/>
@@ -2478,58 +2446,46 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I79" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I79" s="10" t="e"/>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L79" s="10" t="e"/>
-      <c r="M79" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M79" s="10" t="e"/>
       <c r="N79" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" ht="11" customHeight="true">
-      <c r="A80" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="16" t="e"/>
-      <c r="C80" s="16" t="e"/>
-      <c r="D80" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" s="16" t="e"/>
-      <c r="F80" s="16" t="e"/>
-      <c r="G80" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" s="17" t="n">
-        <v>101</v>
-      </c>
-      <c r="I80" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" s="18" t="e"/>
-      <c r="K80" s="17" t="n">
-        <v>91</v>
-      </c>
-      <c r="L80" s="18" t="e"/>
-      <c r="M80" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N80" s="17" t="n">
-        <v>91</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A80" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="19" t="e"/>
+      <c r="C80" s="19" t="e"/>
+      <c r="D80" s="19" t="e"/>
+      <c r="E80" s="19" t="e"/>
+      <c r="F80" s="19" t="e"/>
+      <c r="G80" s="19" t="e"/>
+      <c r="H80" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I80" s="10" t="e"/>
+      <c r="J80" s="10" t="e"/>
+      <c r="K80" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L80" s="10" t="e"/>
+      <c r="M80" s="10" t="e"/>
+      <c r="N80" s="9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="A81" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B81" s="19" t="e"/>
       <c r="C81" s="19" t="e"/>
@@ -2538,50 +2494,50 @@
       <c r="F81" s="19" t="e"/>
       <c r="G81" s="19" t="e"/>
       <c r="H81" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I81" s="9" t="n">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I81" s="10" t="e"/>
       <c r="J81" s="10" t="e"/>
       <c r="K81" s="9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L81" s="10" t="e"/>
-      <c r="M81" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="M81" s="10" t="e"/>
       <c r="N81" s="9" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A82" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="19" t="e"/>
-      <c r="C82" s="19" t="e"/>
-      <c r="D82" s="19" t="e"/>
-      <c r="E82" s="19" t="e"/>
-      <c r="F82" s="19" t="e"/>
-      <c r="G82" s="19" t="e"/>
-      <c r="H82" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I82" s="10" t="e"/>
-      <c r="J82" s="10" t="e"/>
-      <c r="K82" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="L82" s="10" t="e"/>
-      <c r="M82" s="10" t="e"/>
-      <c r="N82" s="9" t="n">
-        <v>29</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true">
+      <c r="A82" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="16" t="e"/>
+      <c r="C82" s="16" t="e"/>
+      <c r="D82" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="16" t="e"/>
+      <c r="F82" s="16" t="e"/>
+      <c r="G82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="I82" s="18" t="e"/>
+      <c r="J82" s="18" t="e"/>
+      <c r="K82" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="L82" s="18" t="e"/>
+      <c r="M82" s="18" t="e"/>
+      <c r="N82" s="17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2590,106 +2546,102 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L83" s="10" t="e"/>
       <c r="M83" s="10" t="e"/>
       <c r="N83" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A84" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" s="19" t="e"/>
-      <c r="C84" s="19" t="e"/>
-      <c r="D84" s="19" t="e"/>
-      <c r="E84" s="19" t="e"/>
-      <c r="F84" s="19" t="e"/>
-      <c r="G84" s="19" t="e"/>
-      <c r="H84" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="I84" s="10" t="e"/>
-      <c r="J84" s="10" t="e"/>
-      <c r="K84" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="L84" s="10" t="e"/>
-      <c r="M84" s="10" t="e"/>
-      <c r="N84" s="9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true">
-      <c r="A85" s="16" t="s">
+    </row>
+    <row r="84" ht="11" customHeight="true">
+      <c r="A84" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="16" t="e"/>
+      <c r="C84" s="16" t="e"/>
+      <c r="D84" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="16" t="e"/>
+      <c r="F84" s="16" t="e"/>
+      <c r="G84" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I84" s="18" t="e"/>
+      <c r="J84" s="18" t="e"/>
+      <c r="K84" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L84" s="18" t="e"/>
+      <c r="M84" s="18" t="e"/>
+      <c r="N84" s="17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A85" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="19" t="e"/>
+      <c r="C85" s="19" t="e"/>
+      <c r="D85" s="19" t="e"/>
+      <c r="E85" s="19" t="e"/>
+      <c r="F85" s="19" t="e"/>
+      <c r="G85" s="19" t="e"/>
+      <c r="H85" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I85" s="10" t="e"/>
+      <c r="J85" s="10" t="e"/>
+      <c r="K85" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L85" s="10" t="e"/>
+      <c r="M85" s="10" t="e"/>
+      <c r="N85" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true">
+      <c r="A86" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="16" t="e"/>
-      <c r="C85" s="16" t="e"/>
-      <c r="D85" s="16" t="s">
+      <c r="B86" s="16" t="e"/>
+      <c r="C86" s="16" t="e"/>
+      <c r="D86" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="16" t="e"/>
-      <c r="F85" s="16" t="e"/>
-      <c r="G85" s="16" t="s">
+      <c r="E86" s="16" t="e"/>
+      <c r="F86" s="16" t="e"/>
+      <c r="G86" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="17" t="n">
-        <v>166</v>
-      </c>
-      <c r="I85" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" s="18" t="e"/>
-      <c r="K85" s="17" t="n">
-        <v>161</v>
-      </c>
-      <c r="L85" s="18" t="e"/>
-      <c r="M85" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N85" s="17" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A86" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="19" t="e"/>
-      <c r="C86" s="19" t="e"/>
-      <c r="D86" s="19" t="e"/>
-      <c r="E86" s="19" t="e"/>
-      <c r="F86" s="19" t="e"/>
-      <c r="G86" s="19" t="e"/>
-      <c r="H86" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="I86" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" s="10" t="e"/>
-      <c r="K86" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="L86" s="10" t="e"/>
-      <c r="M86" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N86" s="9" t="n">
-        <v>33</v>
+      <c r="H86" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I86" s="18" t="e"/>
+      <c r="J86" s="18" t="e"/>
+      <c r="K86" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="L86" s="18" t="e"/>
+      <c r="M86" s="18" t="e"/>
+      <c r="N86" s="17" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="A87" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B87" s="19" t="e"/>
       <c r="C87" s="19" t="e"/>
@@ -2698,26 +2650,22 @@
       <c r="F87" s="19" t="e"/>
       <c r="G87" s="19" t="e"/>
       <c r="H87" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I87" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I87" s="10" t="e"/>
       <c r="J87" s="10" t="e"/>
       <c r="K87" s="9" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L87" s="10" t="e"/>
-      <c r="M87" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M87" s="10" t="e"/>
       <c r="N87" s="9" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2726,41 +2674,45 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L88" s="10" t="e"/>
       <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A89" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="19" t="e"/>
-      <c r="C89" s="19" t="e"/>
-      <c r="D89" s="19" t="e"/>
-      <c r="E89" s="19" t="e"/>
-      <c r="F89" s="19" t="e"/>
-      <c r="G89" s="19" t="e"/>
-      <c r="H89" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I89" s="10" t="e"/>
-      <c r="J89" s="10" t="e"/>
-      <c r="K89" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="L89" s="10" t="e"/>
-      <c r="M89" s="10" t="e"/>
-      <c r="N89" s="9" t="n">
-        <v>50</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" ht="11" customHeight="true">
+      <c r="A89" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="16" t="e"/>
+      <c r="C89" s="16" t="e"/>
+      <c r="D89" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="16" t="e"/>
+      <c r="F89" s="16" t="e"/>
+      <c r="G89" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="17" t="n">
+        <v>84</v>
+      </c>
+      <c r="I89" s="18" t="e"/>
+      <c r="J89" s="18" t="e"/>
+      <c r="K89" s="17" t="n">
+        <v>84</v>
+      </c>
+      <c r="L89" s="18" t="e"/>
+      <c r="M89" s="18" t="e"/>
+      <c r="N89" s="17" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
@@ -2774,82 +2726,78 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true">
-      <c r="A91" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="16" t="e"/>
-      <c r="C91" s="16" t="e"/>
-      <c r="D91" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E91" s="16" t="e"/>
-      <c r="F91" s="16" t="e"/>
-      <c r="G91" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A91" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="19" t="e"/>
+      <c r="C91" s="19" t="e"/>
+      <c r="D91" s="19" t="e"/>
+      <c r="E91" s="19" t="e"/>
+      <c r="F91" s="19" t="e"/>
+      <c r="G91" s="19" t="e"/>
+      <c r="H91" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="I91" s="10" t="e"/>
+      <c r="J91" s="10" t="e"/>
+      <c r="K91" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="L91" s="10" t="e"/>
+      <c r="M91" s="10" t="e"/>
+      <c r="N91" s="9" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true">
+      <c r="A92" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="16" t="e"/>
+      <c r="C92" s="16" t="e"/>
+      <c r="D92" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="16" t="e"/>
+      <c r="F92" s="16" t="e"/>
+      <c r="G92" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H91" s="17" t="n">
-        <v>130</v>
-      </c>
-      <c r="I91" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="J91" s="18" t="e"/>
-      <c r="K91" s="17" t="n">
-        <v>112</v>
-      </c>
-      <c r="L91" s="18" t="e"/>
-      <c r="M91" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="N91" s="17" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A92" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" s="19" t="e"/>
-      <c r="C92" s="19" t="e"/>
-      <c r="D92" s="19" t="e"/>
-      <c r="E92" s="19" t="e"/>
-      <c r="F92" s="19" t="e"/>
-      <c r="G92" s="19" t="e"/>
-      <c r="H92" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I92" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" s="10" t="e"/>
-      <c r="K92" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="L92" s="10" t="e"/>
-      <c r="M92" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N92" s="9" t="n">
-        <v>31</v>
+      <c r="H92" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I92" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" s="18" t="e"/>
+      <c r="K92" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="L92" s="18" t="e"/>
+      <c r="M92" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" s="17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="A93" s="19" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B93" s="19" t="e"/>
       <c r="C93" s="19" t="e"/>
@@ -2858,26 +2806,22 @@
       <c r="F93" s="19" t="e"/>
       <c r="G93" s="19" t="e"/>
       <c r="H93" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="I93" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I93" s="10" t="e"/>
       <c r="J93" s="10" t="e"/>
       <c r="K93" s="9" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="L93" s="10" t="e"/>
-      <c r="M93" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M93" s="10" t="e"/>
       <c r="N93" s="9" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -2886,22 +2830,22 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I94" s="10" t="e"/>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L94" s="10" t="e"/>
       <c r="M94" s="10" t="e"/>
       <c r="N94" s="9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2912,80 +2856,76 @@
       <c r="H95" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I95" s="10" t="e"/>
+      <c r="I95" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L95" s="10" t="e"/>
-      <c r="M95" s="10" t="e"/>
+      <c r="M95" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N95" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A96" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96" s="19" t="e"/>
-      <c r="C96" s="19" t="e"/>
-      <c r="D96" s="19" t="e"/>
-      <c r="E96" s="19" t="e"/>
-      <c r="F96" s="19" t="e"/>
-      <c r="G96" s="19" t="e"/>
-      <c r="H96" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I96" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J96" s="10" t="e"/>
-      <c r="K96" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L96" s="10" t="e"/>
-      <c r="M96" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N96" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true">
-      <c r="A97" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B97" s="16" t="e"/>
-      <c r="C97" s="16" t="e"/>
-      <c r="D97" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E97" s="16" t="e"/>
-      <c r="F97" s="16" t="e"/>
-      <c r="G97" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" ht="22" customHeight="true">
+      <c r="A96" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="16" t="e"/>
+      <c r="C96" s="16" t="e"/>
+      <c r="D96" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="16" t="e"/>
+      <c r="F96" s="16" t="e"/>
+      <c r="G96" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H97" s="17" t="n">
-        <v>93</v>
-      </c>
-      <c r="I97" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" s="18" t="e"/>
-      <c r="K97" s="17" t="n">
-        <v>90</v>
-      </c>
-      <c r="L97" s="18" t="e"/>
-      <c r="M97" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N97" s="17" t="n">
-        <v>90</v>
+      <c r="H96" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I96" s="18" t="e"/>
+      <c r="J96" s="18" t="e"/>
+      <c r="K96" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="L96" s="18" t="e"/>
+      <c r="M96" s="18" t="e"/>
+      <c r="N96" s="17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A97" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="19" t="e"/>
+      <c r="C97" s="19" t="e"/>
+      <c r="D97" s="19" t="e"/>
+      <c r="E97" s="19" t="e"/>
+      <c r="F97" s="19" t="e"/>
+      <c r="G97" s="19" t="e"/>
+      <c r="H97" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I97" s="10" t="e"/>
+      <c r="J97" s="10" t="e"/>
+      <c r="K97" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L97" s="10" t="e"/>
+      <c r="M97" s="10" t="e"/>
+      <c r="N97" s="9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B98" s="19" t="e"/>
       <c r="C98" s="19" t="e"/>
@@ -2994,26 +2934,22 @@
       <c r="F98" s="19" t="e"/>
       <c r="G98" s="19" t="e"/>
       <c r="H98" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I98" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I98" s="10" t="e"/>
       <c r="J98" s="10" t="e"/>
       <c r="K98" s="9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L98" s="10" t="e"/>
-      <c r="M98" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M98" s="10" t="e"/>
       <c r="N98" s="9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -3022,50 +2958,50 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I99" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I99" s="10" t="e"/>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L99" s="10" t="e"/>
-      <c r="M99" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M99" s="10" t="e"/>
       <c r="N99" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A100" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B100" s="19" t="e"/>
-      <c r="C100" s="19" t="e"/>
-      <c r="D100" s="19" t="e"/>
-      <c r="E100" s="19" t="e"/>
-      <c r="F100" s="19" t="e"/>
-      <c r="G100" s="19" t="e"/>
-      <c r="H100" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I100" s="10" t="e"/>
-      <c r="J100" s="10" t="e"/>
-      <c r="K100" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L100" s="10" t="e"/>
-      <c r="M100" s="10" t="e"/>
-      <c r="N100" s="9" t="n">
-        <v>19</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true">
+      <c r="A100" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="16" t="e"/>
+      <c r="C100" s="16" t="e"/>
+      <c r="D100" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="16" t="e"/>
+      <c r="F100" s="16" t="e"/>
+      <c r="G100" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="17" t="n">
+        <v>124</v>
+      </c>
+      <c r="I100" s="18" t="e"/>
+      <c r="J100" s="18" t="e"/>
+      <c r="K100" s="17" t="n">
+        <v>124</v>
+      </c>
+      <c r="L100" s="18" t="e"/>
+      <c r="M100" s="18" t="e"/>
+      <c r="N100" s="17" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3074,22 +3010,22 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I101" s="10" t="e"/>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L101" s="10" t="e"/>
       <c r="M101" s="10" t="e"/>
       <c r="N101" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B102" s="19" t="e"/>
       <c r="C102" s="19" t="e"/>
@@ -3098,54 +3034,46 @@
       <c r="F102" s="19" t="e"/>
       <c r="G102" s="19" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I102" s="10" t="e"/>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L102" s="10" t="e"/>
       <c r="M102" s="10" t="e"/>
       <c r="N102" s="9" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true">
-      <c r="A103" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="16" t="e"/>
-      <c r="C103" s="16" t="e"/>
-      <c r="D103" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E103" s="16" t="e"/>
-      <c r="F103" s="16" t="e"/>
-      <c r="G103" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" s="17" t="n">
-        <v>174</v>
-      </c>
-      <c r="I103" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J103" s="18" t="e"/>
-      <c r="K103" s="17" t="n">
-        <v>166</v>
-      </c>
-      <c r="L103" s="18" t="e"/>
-      <c r="M103" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N103" s="17" t="n">
-        <v>166</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A103" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="19" t="e"/>
+      <c r="C103" s="19" t="e"/>
+      <c r="D103" s="19" t="e"/>
+      <c r="E103" s="19" t="e"/>
+      <c r="F103" s="19" t="e"/>
+      <c r="G103" s="19" t="e"/>
+      <c r="H103" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="I103" s="10" t="e"/>
+      <c r="J103" s="10" t="e"/>
+      <c r="K103" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="L103" s="10" t="e"/>
+      <c r="M103" s="10" t="e"/>
+      <c r="N103" s="9" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="A104" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B104" s="19" t="e"/>
       <c r="C104" s="19" t="e"/>
@@ -3154,26 +3082,22 @@
       <c r="F104" s="19" t="e"/>
       <c r="G104" s="19" t="e"/>
       <c r="H104" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="I104" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I104" s="10" t="e"/>
       <c r="J104" s="10" t="e"/>
       <c r="K104" s="9" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L104" s="10" t="e"/>
-      <c r="M104" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M104" s="10" t="e"/>
       <c r="N104" s="9" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B105" s="19" t="e"/>
       <c r="C105" s="19" t="e"/>
@@ -3182,50 +3106,50 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="I105" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I105" s="10" t="e"/>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="L105" s="10" t="e"/>
-      <c r="M105" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M105" s="10" t="e"/>
       <c r="N105" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A106" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106" s="19" t="e"/>
-      <c r="C106" s="19" t="e"/>
-      <c r="D106" s="19" t="e"/>
-      <c r="E106" s="19" t="e"/>
-      <c r="F106" s="19" t="e"/>
-      <c r="G106" s="19" t="e"/>
-      <c r="H106" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I106" s="10" t="e"/>
-      <c r="J106" s="10" t="e"/>
-      <c r="K106" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L106" s="10" t="e"/>
-      <c r="M106" s="10" t="e"/>
-      <c r="N106" s="9" t="n">
-        <v>9</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" ht="11" customHeight="true">
+      <c r="A106" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="16" t="e"/>
+      <c r="C106" s="16" t="e"/>
+      <c r="D106" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" s="16" t="e"/>
+      <c r="F106" s="16" t="e"/>
+      <c r="G106" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="17" t="n">
+        <v>97</v>
+      </c>
+      <c r="I106" s="18" t="e"/>
+      <c r="J106" s="18" t="e"/>
+      <c r="K106" s="17" t="n">
+        <v>97</v>
+      </c>
+      <c r="L106" s="18" t="e"/>
+      <c r="M106" s="18" t="e"/>
+      <c r="N106" s="17" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
       <c r="A107" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107" s="19" t="e"/>
       <c r="C107" s="19" t="e"/>
@@ -3234,22 +3158,22 @@
       <c r="F107" s="19" t="e"/>
       <c r="G107" s="19" t="e"/>
       <c r="H107" s="9" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I107" s="10" t="e"/>
       <c r="J107" s="10" t="e"/>
       <c r="K107" s="9" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L107" s="10" t="e"/>
       <c r="M107" s="10" t="e"/>
       <c r="N107" s="9" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B108" s="19" t="e"/>
       <c r="C108" s="19" t="e"/>
@@ -3258,54 +3182,46 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I108" s="10" t="e"/>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L108" s="10" t="e"/>
       <c r="M108" s="10" t="e"/>
       <c r="N108" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true">
-      <c r="A109" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B109" s="16" t="e"/>
-      <c r="C109" s="16" t="e"/>
-      <c r="D109" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E109" s="16" t="e"/>
-      <c r="F109" s="16" t="e"/>
-      <c r="G109" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" s="17" t="n">
-        <v>158</v>
-      </c>
-      <c r="I109" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J109" s="18" t="e"/>
-      <c r="K109" s="17" t="n">
-        <v>150</v>
-      </c>
-      <c r="L109" s="18" t="e"/>
-      <c r="M109" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="N109" s="17" t="n">
-        <v>150</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A109" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="19" t="e"/>
+      <c r="C109" s="19" t="e"/>
+      <c r="D109" s="19" t="e"/>
+      <c r="E109" s="19" t="e"/>
+      <c r="F109" s="19" t="e"/>
+      <c r="G109" s="19" t="e"/>
+      <c r="H109" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I109" s="10" t="e"/>
+      <c r="J109" s="10" t="e"/>
+      <c r="K109" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L109" s="10" t="e"/>
+      <c r="M109" s="10" t="e"/>
+      <c r="N109" s="9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3314,22 +3230,22 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I110" s="10" t="e"/>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L110" s="10" t="e"/>
       <c r="M110" s="10" t="e"/>
       <c r="N110" s="9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="A111" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B111" s="19" t="e"/>
       <c r="C111" s="19" t="e"/>
@@ -3338,50 +3254,50 @@
       <c r="F111" s="19" t="e"/>
       <c r="G111" s="19" t="e"/>
       <c r="H111" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="I111" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I111" s="10" t="e"/>
       <c r="J111" s="10" t="e"/>
       <c r="K111" s="9" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="L111" s="10" t="e"/>
-      <c r="M111" s="9" t="n">
-        <v>7</v>
-      </c>
+      <c r="M111" s="10" t="e"/>
       <c r="N111" s="9" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A112" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B112" s="19" t="e"/>
-      <c r="C112" s="19" t="e"/>
-      <c r="D112" s="19" t="e"/>
-      <c r="E112" s="19" t="e"/>
-      <c r="F112" s="19" t="e"/>
-      <c r="G112" s="19" t="e"/>
-      <c r="H112" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I112" s="10" t="e"/>
-      <c r="J112" s="10" t="e"/>
-      <c r="K112" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="L112" s="10" t="e"/>
-      <c r="M112" s="10" t="e"/>
-      <c r="N112" s="9" t="n">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true">
+      <c r="A112" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112" s="16" t="e"/>
+      <c r="C112" s="16" t="e"/>
+      <c r="D112" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E112" s="16" t="e"/>
+      <c r="F112" s="16" t="e"/>
+      <c r="G112" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="17" t="n">
+        <v>111</v>
+      </c>
+      <c r="I112" s="18" t="e"/>
+      <c r="J112" s="18" t="e"/>
+      <c r="K112" s="17" t="n">
+        <v>111</v>
+      </c>
+      <c r="L112" s="18" t="e"/>
+      <c r="M112" s="18" t="e"/>
+      <c r="N112" s="17" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="A113" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113" s="19" t="e"/>
       <c r="C113" s="19" t="e"/>
@@ -3390,22 +3306,22 @@
       <c r="F113" s="19" t="e"/>
       <c r="G113" s="19" t="e"/>
       <c r="H113" s="9" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I113" s="10" t="e"/>
       <c r="J113" s="10" t="e"/>
       <c r="K113" s="9" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L113" s="10" t="e"/>
       <c r="M113" s="10" t="e"/>
       <c r="N113" s="9" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3414,58 +3330,46 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I114" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I114" s="10" t="e"/>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L114" s="10" t="e"/>
-      <c r="M114" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M114" s="10" t="e"/>
       <c r="N114" s="9" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true">
-      <c r="A115" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B115" s="16" t="e"/>
-      <c r="C115" s="16" t="e"/>
-      <c r="D115" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E115" s="16" t="e"/>
-      <c r="F115" s="16" t="e"/>
-      <c r="G115" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H115" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="I115" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J115" s="18" t="e"/>
-      <c r="K115" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="L115" s="18" t="e"/>
-      <c r="M115" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N115" s="17" t="n">
-        <v>88</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A115" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" s="19" t="e"/>
+      <c r="C115" s="19" t="e"/>
+      <c r="D115" s="19" t="e"/>
+      <c r="E115" s="19" t="e"/>
+      <c r="F115" s="19" t="e"/>
+      <c r="G115" s="19" t="e"/>
+      <c r="H115" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I115" s="10" t="e"/>
+      <c r="J115" s="10" t="e"/>
+      <c r="K115" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L115" s="10" t="e"/>
+      <c r="M115" s="10" t="e"/>
+      <c r="N115" s="9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3474,26 +3378,22 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="I116" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I116" s="10" t="e"/>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L116" s="10" t="e"/>
-      <c r="M116" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M116" s="10" t="e"/>
       <c r="N116" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="A117" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B117" s="19" t="e"/>
       <c r="C117" s="19" t="e"/>
@@ -3502,50 +3402,54 @@
       <c r="F117" s="19" t="e"/>
       <c r="G117" s="19" t="e"/>
       <c r="H117" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="I117" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I117" s="10" t="e"/>
       <c r="J117" s="10" t="e"/>
       <c r="K117" s="9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L117" s="10" t="e"/>
-      <c r="M117" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M117" s="10" t="e"/>
       <c r="N117" s="9" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A118" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B118" s="19" t="e"/>
-      <c r="C118" s="19" t="e"/>
-      <c r="D118" s="19" t="e"/>
-      <c r="E118" s="19" t="e"/>
-      <c r="F118" s="19" t="e"/>
-      <c r="G118" s="19" t="e"/>
-      <c r="H118" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I118" s="10" t="e"/>
-      <c r="J118" s="10" t="e"/>
-      <c r="K118" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="L118" s="10" t="e"/>
-      <c r="M118" s="10" t="e"/>
-      <c r="N118" s="9" t="n">
-        <v>11</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" ht="22" customHeight="true">
+      <c r="A118" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B118" s="16" t="e"/>
+      <c r="C118" s="16" t="e"/>
+      <c r="D118" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E118" s="16" t="e"/>
+      <c r="F118" s="16" t="e"/>
+      <c r="G118" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="17" t="n">
+        <v>128</v>
+      </c>
+      <c r="I118" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" s="18" t="e"/>
+      <c r="K118" s="17" t="n">
+        <v>127</v>
+      </c>
+      <c r="L118" s="18" t="e"/>
+      <c r="M118" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" s="17" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="A119" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B119" s="19" t="e"/>
       <c r="C119" s="19" t="e"/>
@@ -3554,22 +3458,22 @@
       <c r="F119" s="19" t="e"/>
       <c r="G119" s="19" t="e"/>
       <c r="H119" s="9" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I119" s="10" t="e"/>
       <c r="J119" s="10" t="e"/>
       <c r="K119" s="9" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L119" s="10" t="e"/>
       <c r="M119" s="10" t="e"/>
       <c r="N119" s="9" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3578,54 +3482,50 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I120" s="10" t="e"/>
+        <v>19</v>
+      </c>
+      <c r="I120" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L120" s="10" t="e"/>
-      <c r="M120" s="10" t="e"/>
+      <c r="M120" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N120" s="9" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" ht="11" customHeight="true">
-      <c r="A121" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B121" s="16" t="e"/>
-      <c r="C121" s="16" t="e"/>
-      <c r="D121" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E121" s="16" t="e"/>
-      <c r="F121" s="16" t="e"/>
-      <c r="G121" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" s="17" t="n">
-        <v>165</v>
-      </c>
-      <c r="I121" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="J121" s="18" t="e"/>
-      <c r="K121" s="17" t="n">
-        <v>140</v>
-      </c>
-      <c r="L121" s="18" t="e"/>
-      <c r="M121" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="N121" s="17" t="n">
-        <v>140</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A121" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="19" t="e"/>
+      <c r="C121" s="19" t="e"/>
+      <c r="D121" s="19" t="e"/>
+      <c r="E121" s="19" t="e"/>
+      <c r="F121" s="19" t="e"/>
+      <c r="G121" s="19" t="e"/>
+      <c r="H121" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I121" s="10" t="e"/>
+      <c r="J121" s="10" t="e"/>
+      <c r="K121" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L121" s="10" t="e"/>
+      <c r="M121" s="10" t="e"/>
+      <c r="N121" s="9" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B122" s="19" t="e"/>
       <c r="C122" s="19" t="e"/>
@@ -3634,26 +3534,22 @@
       <c r="F122" s="19" t="e"/>
       <c r="G122" s="19" t="e"/>
       <c r="H122" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="I122" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I122" s="10" t="e"/>
       <c r="J122" s="10" t="e"/>
       <c r="K122" s="9" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L122" s="10" t="e"/>
-      <c r="M122" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M122" s="10" t="e"/>
       <c r="N122" s="9" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="A123" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B123" s="19" t="e"/>
       <c r="C123" s="19" t="e"/>
@@ -3662,50 +3558,54 @@
       <c r="F123" s="19" t="e"/>
       <c r="G123" s="19" t="e"/>
       <c r="H123" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="I123" s="9" t="n">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I123" s="10" t="e"/>
       <c r="J123" s="10" t="e"/>
       <c r="K123" s="9" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="L123" s="10" t="e"/>
-      <c r="M123" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="M123" s="10" t="e"/>
       <c r="N123" s="9" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A124" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B124" s="19" t="e"/>
-      <c r="C124" s="19" t="e"/>
-      <c r="D124" s="19" t="e"/>
-      <c r="E124" s="19" t="e"/>
-      <c r="F124" s="19" t="e"/>
-      <c r="G124" s="19" t="e"/>
-      <c r="H124" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I124" s="10" t="e"/>
-      <c r="J124" s="10" t="e"/>
-      <c r="K124" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L124" s="10" t="e"/>
-      <c r="M124" s="10" t="e"/>
-      <c r="N124" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true">
+      <c r="A124" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="16" t="e"/>
+      <c r="C124" s="16" t="e"/>
+      <c r="D124" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" s="16" t="e"/>
+      <c r="F124" s="16" t="e"/>
+      <c r="G124" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="17" t="n">
+        <v>102</v>
+      </c>
+      <c r="I124" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" s="18" t="e"/>
+      <c r="K124" s="17" t="n">
+        <v>101</v>
+      </c>
+      <c r="L124" s="18" t="e"/>
+      <c r="M124" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" s="17" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B125" s="19" t="e"/>
       <c r="C125" s="19" t="e"/>
@@ -3714,22 +3614,22 @@
       <c r="F125" s="19" t="e"/>
       <c r="G125" s="19" t="e"/>
       <c r="H125" s="9" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I125" s="10" t="e"/>
       <c r="J125" s="10" t="e"/>
       <c r="K125" s="9" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L125" s="10" t="e"/>
       <c r="M125" s="10" t="e"/>
       <c r="N125" s="9" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3741,55 +3641,47 @@
         <v>23</v>
       </c>
       <c r="I126" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L126" s="10" t="e"/>
       <c r="M126" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N126" s="9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A127" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="19" t="e"/>
+      <c r="C127" s="19" t="e"/>
+      <c r="D127" s="19" t="e"/>
+      <c r="E127" s="19" t="e"/>
+      <c r="F127" s="19" t="e"/>
+      <c r="G127" s="19" t="e"/>
+      <c r="H127" s="9" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" ht="11" customHeight="true">
-      <c r="A127" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B127" s="16" t="e"/>
-      <c r="C127" s="16" t="e"/>
-      <c r="D127" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E127" s="16" t="e"/>
-      <c r="F127" s="16" t="e"/>
-      <c r="G127" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H127" s="17" t="n">
-        <v>78</v>
-      </c>
-      <c r="I127" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J127" s="18" t="e"/>
-      <c r="K127" s="17" t="n">
-        <v>65</v>
-      </c>
-      <c r="L127" s="18" t="e"/>
-      <c r="M127" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="N127" s="17" t="n">
-        <v>65</v>
+      <c r="I127" s="10" t="e"/>
+      <c r="J127" s="10" t="e"/>
+      <c r="K127" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L127" s="10" t="e"/>
+      <c r="M127" s="10" t="e"/>
+      <c r="N127" s="9" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="A128" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B128" s="19" t="e"/>
       <c r="C128" s="19" t="e"/>
@@ -3798,26 +3690,22 @@
       <c r="F128" s="19" t="e"/>
       <c r="G128" s="19" t="e"/>
       <c r="H128" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I128" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I128" s="10" t="e"/>
       <c r="J128" s="10" t="e"/>
       <c r="K128" s="9" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L128" s="10" t="e"/>
-      <c r="M128" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M128" s="10" t="e"/>
       <c r="N128" s="9" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" ht="11" customHeight="true" outlineLevel="1">
       <c r="A129" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B129" s="19" t="e"/>
       <c r="C129" s="19" t="e"/>
@@ -3826,50 +3714,54 @@
       <c r="F129" s="19" t="e"/>
       <c r="G129" s="19" t="e"/>
       <c r="H129" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I129" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I129" s="10" t="e"/>
       <c r="J129" s="10" t="e"/>
       <c r="K129" s="9" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L129" s="10" t="e"/>
-      <c r="M129" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="M129" s="10" t="e"/>
       <c r="N129" s="9" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A130" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B130" s="19" t="e"/>
-      <c r="C130" s="19" t="e"/>
-      <c r="D130" s="19" t="e"/>
-      <c r="E130" s="19" t="e"/>
-      <c r="F130" s="19" t="e"/>
-      <c r="G130" s="19" t="e"/>
-      <c r="H130" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I130" s="10" t="e"/>
-      <c r="J130" s="10" t="e"/>
-      <c r="K130" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L130" s="10" t="e"/>
-      <c r="M130" s="10" t="e"/>
-      <c r="N130" s="9" t="n">
-        <v>5</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" ht="11" customHeight="true">
+      <c r="A130" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" s="16" t="e"/>
+      <c r="C130" s="16" t="e"/>
+      <c r="D130" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E130" s="16" t="e"/>
+      <c r="F130" s="16" t="e"/>
+      <c r="G130" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="17" t="n">
+        <v>107</v>
+      </c>
+      <c r="I130" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" s="18" t="e"/>
+      <c r="K130" s="17" t="n">
+        <v>103</v>
+      </c>
+      <c r="L130" s="18" t="e"/>
+      <c r="M130" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" s="17" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="A131" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B131" s="19" t="e"/>
       <c r="C131" s="19" t="e"/>
@@ -3878,50 +3770,54 @@
       <c r="F131" s="19" t="e"/>
       <c r="G131" s="19" t="e"/>
       <c r="H131" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I131" s="10" t="e"/>
+        <v>27</v>
+      </c>
+      <c r="I131" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J131" s="10" t="e"/>
       <c r="K131" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L131" s="10" t="e"/>
-      <c r="M131" s="10" t="e"/>
+      <c r="M131" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N131" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true">
-      <c r="A132" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B132" s="16" t="e"/>
-      <c r="C132" s="16" t="e"/>
-      <c r="D132" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E132" s="16" t="e"/>
-      <c r="F132" s="16" t="e"/>
-      <c r="G132" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H132" s="17" t="n">
-        <v>93</v>
-      </c>
-      <c r="I132" s="18" t="e"/>
-      <c r="J132" s="18" t="e"/>
-      <c r="K132" s="17" t="n">
-        <v>93</v>
-      </c>
-      <c r="L132" s="18" t="e"/>
-      <c r="M132" s="18" t="e"/>
-      <c r="N132" s="17" t="n">
-        <v>93</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A132" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" s="19" t="e"/>
+      <c r="C132" s="19" t="e"/>
+      <c r="D132" s="19" t="e"/>
+      <c r="E132" s="19" t="e"/>
+      <c r="F132" s="19" t="e"/>
+      <c r="G132" s="19" t="e"/>
+      <c r="H132" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I132" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" s="10" t="e"/>
+      <c r="K132" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L132" s="10" t="e"/>
+      <c r="M132" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" s="9" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="A133" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B133" s="19" t="e"/>
       <c r="C133" s="19" t="e"/>
@@ -3930,22 +3826,22 @@
       <c r="F133" s="19" t="e"/>
       <c r="G133" s="19" t="e"/>
       <c r="H133" s="9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I133" s="10" t="e"/>
       <c r="J133" s="10" t="e"/>
       <c r="K133" s="9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L133" s="10" t="e"/>
       <c r="M133" s="10" t="e"/>
       <c r="N133" s="9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="A134" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B134" s="19" t="e"/>
       <c r="C134" s="19" t="e"/>
@@ -3954,22 +3850,22 @@
       <c r="F134" s="19" t="e"/>
       <c r="G134" s="19" t="e"/>
       <c r="H134" s="9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I134" s="10" t="e"/>
       <c r="J134" s="10" t="e"/>
       <c r="K134" s="9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L134" s="10" t="e"/>
       <c r="M134" s="10" t="e"/>
       <c r="N134" s="9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="A135" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B135" s="19" t="e"/>
       <c r="C135" s="19" t="e"/>
@@ -3978,46 +3874,58 @@
       <c r="F135" s="19" t="e"/>
       <c r="G135" s="19" t="e"/>
       <c r="H135" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I135" s="10" t="e"/>
+        <v>19</v>
+      </c>
+      <c r="I135" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J135" s="10" t="e"/>
       <c r="K135" s="9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L135" s="10" t="e"/>
-      <c r="M135" s="10" t="e"/>
+      <c r="M135" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N135" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A136" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B136" s="19" t="e"/>
-      <c r="C136" s="19" t="e"/>
-      <c r="D136" s="19" t="e"/>
-      <c r="E136" s="19" t="e"/>
-      <c r="F136" s="19" t="e"/>
-      <c r="G136" s="19" t="e"/>
-      <c r="H136" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I136" s="10" t="e"/>
-      <c r="J136" s="10" t="e"/>
-      <c r="K136" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L136" s="10" t="e"/>
-      <c r="M136" s="10" t="e"/>
-      <c r="N136" s="9" t="n">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" ht="11" customHeight="true">
+      <c r="A136" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" s="16" t="e"/>
+      <c r="C136" s="16" t="e"/>
+      <c r="D136" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E136" s="16" t="e"/>
+      <c r="F136" s="16" t="e"/>
+      <c r="G136" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="I136" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" s="18" t="e"/>
+      <c r="K136" s="17" t="n">
+        <v>86</v>
+      </c>
+      <c r="L136" s="18" t="e"/>
+      <c r="M136" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" s="17" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="A137" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B137" s="19" t="e"/>
       <c r="C137" s="19" t="e"/>
@@ -4026,54 +3934,54 @@
       <c r="F137" s="19" t="e"/>
       <c r="G137" s="19" t="e"/>
       <c r="H137" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I137" s="10" t="e"/>
+        <v>29</v>
+      </c>
+      <c r="I137" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J137" s="10" t="e"/>
       <c r="K137" s="9" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L137" s="10" t="e"/>
-      <c r="M137" s="10" t="e"/>
+      <c r="M137" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N137" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" ht="11" customHeight="true">
-      <c r="A138" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B138" s="16" t="e"/>
-      <c r="C138" s="16" t="e"/>
-      <c r="D138" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E138" s="16" t="e"/>
-      <c r="F138" s="16" t="e"/>
-      <c r="G138" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A138" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" s="19" t="e"/>
+      <c r="C138" s="19" t="e"/>
+      <c r="D138" s="19" t="e"/>
+      <c r="E138" s="19" t="e"/>
+      <c r="F138" s="19" t="e"/>
+      <c r="G138" s="19" t="e"/>
+      <c r="H138" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="H138" s="17" t="n">
-        <v>132</v>
-      </c>
-      <c r="I138" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J138" s="18" t="e"/>
-      <c r="K138" s="17" t="n">
-        <v>129</v>
-      </c>
-      <c r="L138" s="18" t="e"/>
-      <c r="M138" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N138" s="17" t="n">
-        <v>129</v>
+      <c r="I138" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" s="10" t="e"/>
+      <c r="K138" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L138" s="10" t="e"/>
+      <c r="M138" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" s="9" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="A139" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B139" s="19" t="e"/>
       <c r="C139" s="19" t="e"/>
@@ -4082,22 +3990,22 @@
       <c r="F139" s="19" t="e"/>
       <c r="G139" s="19" t="e"/>
       <c r="H139" s="9" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I139" s="10" t="e"/>
       <c r="J139" s="10" t="e"/>
       <c r="K139" s="9" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="L139" s="10" t="e"/>
       <c r="M139" s="10" t="e"/>
       <c r="N139" s="9" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="A140" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B140" s="19" t="e"/>
       <c r="C140" s="19" t="e"/>
@@ -4106,22 +4014,22 @@
       <c r="F140" s="19" t="e"/>
       <c r="G140" s="19" t="e"/>
       <c r="H140" s="9" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I140" s="10" t="e"/>
       <c r="J140" s="10" t="e"/>
       <c r="K140" s="9" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L140" s="10" t="e"/>
       <c r="M140" s="10" t="e"/>
       <c r="N140" s="9" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" ht="11" customHeight="true" outlineLevel="1">
       <c r="A141" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B141" s="19" t="e"/>
       <c r="C141" s="19" t="e"/>
@@ -4130,46 +4038,54 @@
       <c r="F141" s="19" t="e"/>
       <c r="G141" s="19" t="e"/>
       <c r="H141" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I141" s="10" t="e"/>
       <c r="J141" s="10" t="e"/>
       <c r="K141" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L141" s="10" t="e"/>
       <c r="M141" s="10" t="e"/>
       <c r="N141" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A142" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B142" s="19" t="e"/>
-      <c r="C142" s="19" t="e"/>
-      <c r="D142" s="19" t="e"/>
-      <c r="E142" s="19" t="e"/>
-      <c r="F142" s="19" t="e"/>
-      <c r="G142" s="19" t="e"/>
-      <c r="H142" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I142" s="10" t="e"/>
-      <c r="J142" s="10" t="e"/>
-      <c r="K142" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="L142" s="10" t="e"/>
-      <c r="M142" s="10" t="e"/>
-      <c r="N142" s="9" t="n">
-        <v>35</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true">
+      <c r="A142" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B142" s="16" t="e"/>
+      <c r="C142" s="16" t="e"/>
+      <c r="D142" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="16" t="e"/>
+      <c r="F142" s="16" t="e"/>
+      <c r="G142" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" s="17" t="n">
+        <v>83</v>
+      </c>
+      <c r="I142" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" s="18" t="e"/>
+      <c r="K142" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="L142" s="18" t="e"/>
+      <c r="M142" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N142" s="17" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="1">
       <c r="A143" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B143" s="19" t="e"/>
       <c r="C143" s="19" t="e"/>
@@ -4178,58 +4094,54 @@
       <c r="F143" s="19" t="e"/>
       <c r="G143" s="19" t="e"/>
       <c r="H143" s="9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I143" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J143" s="10" t="e"/>
       <c r="K143" s="9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L143" s="10" t="e"/>
       <c r="M143" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N143" s="9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" ht="11" customHeight="true">
-      <c r="A144" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B144" s="16" t="e"/>
-      <c r="C144" s="16" t="e"/>
-      <c r="D144" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E144" s="16" t="e"/>
-      <c r="F144" s="16" t="e"/>
-      <c r="G144" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H144" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="I144" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J144" s="18" t="e"/>
-      <c r="K144" s="17" t="n">
-        <v>89</v>
-      </c>
-      <c r="L144" s="18" t="e"/>
-      <c r="M144" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N144" s="17" t="n">
-        <v>89</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A144" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" s="19" t="e"/>
+      <c r="C144" s="19" t="e"/>
+      <c r="D144" s="19" t="e"/>
+      <c r="E144" s="19" t="e"/>
+      <c r="F144" s="19" t="e"/>
+      <c r="G144" s="19" t="e"/>
+      <c r="H144" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I144" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" s="10" t="e"/>
+      <c r="K144" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L144" s="10" t="e"/>
+      <c r="M144" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" s="9" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="A145" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B145" s="19" t="e"/>
       <c r="C145" s="19" t="e"/>
@@ -4238,26 +4150,22 @@
       <c r="F145" s="19" t="e"/>
       <c r="G145" s="19" t="e"/>
       <c r="H145" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I145" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I145" s="10" t="e"/>
       <c r="J145" s="10" t="e"/>
       <c r="K145" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L145" s="10" t="e"/>
-      <c r="M145" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M145" s="10" t="e"/>
       <c r="N145" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="A146" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B146" s="19" t="e"/>
       <c r="C146" s="19" t="e"/>
@@ -4266,26 +4174,22 @@
       <c r="F146" s="19" t="e"/>
       <c r="G146" s="19" t="e"/>
       <c r="H146" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I146" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I146" s="10" t="e"/>
       <c r="J146" s="10" t="e"/>
       <c r="K146" s="9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L146" s="10" t="e"/>
-      <c r="M146" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M146" s="10" t="e"/>
       <c r="N146" s="9" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="A147" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B147" s="19" t="e"/>
       <c r="C147" s="19" t="e"/>
@@ -4294,46 +4198,54 @@
       <c r="F147" s="19" t="e"/>
       <c r="G147" s="19" t="e"/>
       <c r="H147" s="9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I147" s="10" t="e"/>
       <c r="J147" s="10" t="e"/>
       <c r="K147" s="9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L147" s="10" t="e"/>
       <c r="M147" s="10" t="e"/>
       <c r="N147" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A148" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" s="19" t="e"/>
-      <c r="C148" s="19" t="e"/>
-      <c r="D148" s="19" t="e"/>
-      <c r="E148" s="19" t="e"/>
-      <c r="F148" s="19" t="e"/>
-      <c r="G148" s="19" t="e"/>
-      <c r="H148" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I148" s="10" t="e"/>
-      <c r="J148" s="10" t="e"/>
-      <c r="K148" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L148" s="10" t="e"/>
-      <c r="M148" s="10" t="e"/>
-      <c r="N148" s="9" t="n">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" ht="11" customHeight="true">
+      <c r="A148" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B148" s="16" t="e"/>
+      <c r="C148" s="16" t="e"/>
+      <c r="D148" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E148" s="16" t="e"/>
+      <c r="F148" s="16" t="e"/>
+      <c r="G148" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" s="17" t="n">
+        <v>96</v>
+      </c>
+      <c r="I148" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J148" s="18" t="e"/>
+      <c r="K148" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="L148" s="18" t="e"/>
+      <c r="M148" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N148" s="17" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="A149" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B149" s="19" t="e"/>
       <c r="C149" s="19" t="e"/>
@@ -4342,53 +4254,737 @@
       <c r="F149" s="19" t="e"/>
       <c r="G149" s="19" t="e"/>
       <c r="H149" s="9" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I149" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J149" s="10" t="e"/>
       <c r="K149" s="9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L149" s="10" t="e"/>
       <c r="M149" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N149" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A150" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="19" t="e"/>
+      <c r="C150" s="19" t="e"/>
+      <c r="D150" s="19" t="e"/>
+      <c r="E150" s="19" t="e"/>
+      <c r="F150" s="19" t="e"/>
+      <c r="G150" s="19" t="e"/>
+      <c r="H150" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I150" s="10" t="e"/>
+      <c r="J150" s="10" t="e"/>
+      <c r="K150" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L150" s="10" t="e"/>
+      <c r="M150" s="10" t="e"/>
+      <c r="N150" s="9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A151" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" s="19" t="e"/>
+      <c r="C151" s="19" t="e"/>
+      <c r="D151" s="19" t="e"/>
+      <c r="E151" s="19" t="e"/>
+      <c r="F151" s="19" t="e"/>
+      <c r="G151" s="19" t="e"/>
+      <c r="H151" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I151" s="10" t="e"/>
+      <c r="J151" s="10" t="e"/>
+      <c r="K151" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L151" s="10" t="e"/>
+      <c r="M151" s="10" t="e"/>
+      <c r="N151" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A152" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="19" t="e"/>
+      <c r="C152" s="19" t="e"/>
+      <c r="D152" s="19" t="e"/>
+      <c r="E152" s="19" t="e"/>
+      <c r="F152" s="19" t="e"/>
+      <c r="G152" s="19" t="e"/>
+      <c r="H152" s="9" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="150" ht="13" customHeight="true">
-      <c r="A150" s="12" t="s">
+      <c r="I152" s="10" t="e"/>
+      <c r="J152" s="10" t="e"/>
+      <c r="K152" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L152" s="10" t="e"/>
+      <c r="M152" s="10" t="e"/>
+      <c r="N152" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A153" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="19" t="e"/>
+      <c r="C153" s="19" t="e"/>
+      <c r="D153" s="19" t="e"/>
+      <c r="E153" s="19" t="e"/>
+      <c r="F153" s="19" t="e"/>
+      <c r="G153" s="19" t="e"/>
+      <c r="H153" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I153" s="10" t="e"/>
+      <c r="J153" s="10" t="e"/>
+      <c r="K153" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L153" s="10" t="e"/>
+      <c r="M153" s="10" t="e"/>
+      <c r="N153" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true">
+      <c r="A154" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B154" s="16" t="e"/>
+      <c r="C154" s="16" t="e"/>
+      <c r="D154" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E154" s="16" t="e"/>
+      <c r="F154" s="16" t="e"/>
+      <c r="G154" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" s="17" t="n">
+        <v>96</v>
+      </c>
+      <c r="I154" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J154" s="18" t="e"/>
+      <c r="K154" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="L154" s="18" t="e"/>
+      <c r="M154" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N154" s="17" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A155" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155" s="19" t="e"/>
+      <c r="C155" s="19" t="e"/>
+      <c r="D155" s="19" t="e"/>
+      <c r="E155" s="19" t="e"/>
+      <c r="F155" s="19" t="e"/>
+      <c r="G155" s="19" t="e"/>
+      <c r="H155" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I155" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" s="10" t="e"/>
+      <c r="K155" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="L155" s="10" t="e"/>
+      <c r="M155" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" s="9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A156" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" s="19" t="e"/>
+      <c r="C156" s="19" t="e"/>
+      <c r="D156" s="19" t="e"/>
+      <c r="E156" s="19" t="e"/>
+      <c r="F156" s="19" t="e"/>
+      <c r="G156" s="19" t="e"/>
+      <c r="H156" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I156" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J156" s="10" t="e"/>
+      <c r="K156" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L156" s="10" t="e"/>
+      <c r="M156" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N156" s="9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A157" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157" s="19" t="e"/>
+      <c r="C157" s="19" t="e"/>
+      <c r="D157" s="19" t="e"/>
+      <c r="E157" s="19" t="e"/>
+      <c r="F157" s="19" t="e"/>
+      <c r="G157" s="19" t="e"/>
+      <c r="H157" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I157" s="10" t="e"/>
+      <c r="J157" s="10" t="e"/>
+      <c r="K157" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L157" s="10" t="e"/>
+      <c r="M157" s="10" t="e"/>
+      <c r="N157" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A158" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" s="19" t="e"/>
+      <c r="C158" s="19" t="e"/>
+      <c r="D158" s="19" t="e"/>
+      <c r="E158" s="19" t="e"/>
+      <c r="F158" s="19" t="e"/>
+      <c r="G158" s="19" t="e"/>
+      <c r="H158" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I158" s="10" t="e"/>
+      <c r="J158" s="10" t="e"/>
+      <c r="K158" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L158" s="10" t="e"/>
+      <c r="M158" s="10" t="e"/>
+      <c r="N158" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A159" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="19" t="e"/>
+      <c r="C159" s="19" t="e"/>
+      <c r="D159" s="19" t="e"/>
+      <c r="E159" s="19" t="e"/>
+      <c r="F159" s="19" t="e"/>
+      <c r="G159" s="19" t="e"/>
+      <c r="H159" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I159" s="10" t="e"/>
+      <c r="J159" s="10" t="e"/>
+      <c r="K159" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L159" s="10" t="e"/>
+      <c r="M159" s="10" t="e"/>
+      <c r="N159" s="9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" ht="11" customHeight="true">
+      <c r="A160" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B160" s="16" t="e"/>
+      <c r="C160" s="16" t="e"/>
+      <c r="D160" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E160" s="16" t="e"/>
+      <c r="F160" s="16" t="e"/>
+      <c r="G160" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="I160" s="18" t="e"/>
+      <c r="J160" s="18" t="e"/>
+      <c r="K160" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="L160" s="18" t="e"/>
+      <c r="M160" s="18" t="e"/>
+      <c r="N160" s="17" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A161" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B161" s="19" t="e"/>
+      <c r="C161" s="19" t="e"/>
+      <c r="D161" s="19" t="e"/>
+      <c r="E161" s="19" t="e"/>
+      <c r="F161" s="19" t="e"/>
+      <c r="G161" s="19" t="e"/>
+      <c r="H161" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I161" s="10" t="e"/>
+      <c r="J161" s="10" t="e"/>
+      <c r="K161" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L161" s="10" t="e"/>
+      <c r="M161" s="10" t="e"/>
+      <c r="N161" s="9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A162" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="19" t="e"/>
+      <c r="C162" s="19" t="e"/>
+      <c r="D162" s="19" t="e"/>
+      <c r="E162" s="19" t="e"/>
+      <c r="F162" s="19" t="e"/>
+      <c r="G162" s="19" t="e"/>
+      <c r="H162" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I162" s="10" t="e"/>
+      <c r="J162" s="10" t="e"/>
+      <c r="K162" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L162" s="10" t="e"/>
+      <c r="M162" s="10" t="e"/>
+      <c r="N162" s="9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A163" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B163" s="19" t="e"/>
+      <c r="C163" s="19" t="e"/>
+      <c r="D163" s="19" t="e"/>
+      <c r="E163" s="19" t="e"/>
+      <c r="F163" s="19" t="e"/>
+      <c r="G163" s="19" t="e"/>
+      <c r="H163" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I163" s="10" t="e"/>
+      <c r="J163" s="10" t="e"/>
+      <c r="K163" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L163" s="10" t="e"/>
+      <c r="M163" s="10" t="e"/>
+      <c r="N163" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A164" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164" s="19" t="e"/>
+      <c r="C164" s="19" t="e"/>
+      <c r="D164" s="19" t="e"/>
+      <c r="E164" s="19" t="e"/>
+      <c r="F164" s="19" t="e"/>
+      <c r="G164" s="19" t="e"/>
+      <c r="H164" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I164" s="10" t="e"/>
+      <c r="J164" s="10" t="e"/>
+      <c r="K164" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L164" s="10" t="e"/>
+      <c r="M164" s="10" t="e"/>
+      <c r="N164" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A165" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" s="19" t="e"/>
+      <c r="C165" s="19" t="e"/>
+      <c r="D165" s="19" t="e"/>
+      <c r="E165" s="19" t="e"/>
+      <c r="F165" s="19" t="e"/>
+      <c r="G165" s="19" t="e"/>
+      <c r="H165" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I165" s="10" t="e"/>
+      <c r="J165" s="10" t="e"/>
+      <c r="K165" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L165" s="10" t="e"/>
+      <c r="M165" s="10" t="e"/>
+      <c r="N165" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" ht="11" customHeight="true">
+      <c r="A166" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" s="16" t="e"/>
+      <c r="C166" s="16" t="e"/>
+      <c r="D166" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E166" s="16" t="e"/>
+      <c r="F166" s="16" t="e"/>
+      <c r="G166" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" s="17" t="n">
+        <v>70</v>
+      </c>
+      <c r="I166" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J166" s="18" t="e"/>
+      <c r="K166" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="L166" s="18" t="e"/>
+      <c r="M166" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N166" s="17" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A167" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" s="19" t="e"/>
+      <c r="C167" s="19" t="e"/>
+      <c r="D167" s="19" t="e"/>
+      <c r="E167" s="19" t="e"/>
+      <c r="F167" s="19" t="e"/>
+      <c r="G167" s="19" t="e"/>
+      <c r="H167" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I167" s="10" t="e"/>
+      <c r="J167" s="10" t="e"/>
+      <c r="K167" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L167" s="10" t="e"/>
+      <c r="M167" s="10" t="e"/>
+      <c r="N167" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A168" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" s="19" t="e"/>
+      <c r="C168" s="19" t="e"/>
+      <c r="D168" s="19" t="e"/>
+      <c r="E168" s="19" t="e"/>
+      <c r="F168" s="19" t="e"/>
+      <c r="G168" s="19" t="e"/>
+      <c r="H168" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I168" s="10" t="e"/>
+      <c r="J168" s="10" t="e"/>
+      <c r="K168" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L168" s="10" t="e"/>
+      <c r="M168" s="10" t="e"/>
+      <c r="N168" s="9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A169" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B169" s="19" t="e"/>
+      <c r="C169" s="19" t="e"/>
+      <c r="D169" s="19" t="e"/>
+      <c r="E169" s="19" t="e"/>
+      <c r="F169" s="19" t="e"/>
+      <c r="G169" s="19" t="e"/>
+      <c r="H169" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I169" s="10" t="e"/>
+      <c r="J169" s="10" t="e"/>
+      <c r="K169" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L169" s="10" t="e"/>
+      <c r="M169" s="10" t="e"/>
+      <c r="N169" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A170" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B170" s="19" t="e"/>
+      <c r="C170" s="19" t="e"/>
+      <c r="D170" s="19" t="e"/>
+      <c r="E170" s="19" t="e"/>
+      <c r="F170" s="19" t="e"/>
+      <c r="G170" s="19" t="e"/>
+      <c r="H170" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B150" s="12" t="e"/>
-      <c r="C150" s="12" t="e"/>
-      <c r="D150" s="12" t="e"/>
-      <c r="E150" s="12" t="e"/>
-      <c r="F150" s="12" t="e"/>
-      <c r="G150" s="12" t="e"/>
-      <c r="H150" s="13" t="n">
-        <v>2799</v>
-      </c>
-      <c r="I150" s="14" t="n">
-        <v>143</v>
-      </c>
-      <c r="J150" s="15" t="e"/>
-      <c r="K150" s="13" t="n">
-        <v>2656</v>
-      </c>
-      <c r="L150" s="15" t="e"/>
-      <c r="M150" s="14" t="n">
-        <v>143</v>
-      </c>
-      <c r="N150" s="13" t="n">
-        <v>2656</v>
+      <c r="I170" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J170" s="10" t="e"/>
+      <c r="K170" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L170" s="10" t="e"/>
+      <c r="M170" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N170" s="9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" ht="11" customHeight="true">
+      <c r="A171" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B171" s="16" t="e"/>
+      <c r="C171" s="16" t="e"/>
+      <c r="D171" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E171" s="16" t="e"/>
+      <c r="F171" s="16" t="e"/>
+      <c r="G171" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="I171" s="18" t="e"/>
+      <c r="J171" s="18" t="e"/>
+      <c r="K171" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="L171" s="18" t="e"/>
+      <c r="M171" s="18" t="e"/>
+      <c r="N171" s="17" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A172" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172" s="19" t="e"/>
+      <c r="C172" s="19" t="e"/>
+      <c r="D172" s="19" t="e"/>
+      <c r="E172" s="19" t="e"/>
+      <c r="F172" s="19" t="e"/>
+      <c r="G172" s="19" t="e"/>
+      <c r="H172" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I172" s="10" t="e"/>
+      <c r="J172" s="10" t="e"/>
+      <c r="K172" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L172" s="10" t="e"/>
+      <c r="M172" s="10" t="e"/>
+      <c r="N172" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A173" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" s="19" t="e"/>
+      <c r="C173" s="19" t="e"/>
+      <c r="D173" s="19" t="e"/>
+      <c r="E173" s="19" t="e"/>
+      <c r="F173" s="19" t="e"/>
+      <c r="G173" s="19" t="e"/>
+      <c r="H173" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I173" s="10" t="e"/>
+      <c r="J173" s="10" t="e"/>
+      <c r="K173" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L173" s="10" t="e"/>
+      <c r="M173" s="10" t="e"/>
+      <c r="N173" s="9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A174" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B174" s="19" t="e"/>
+      <c r="C174" s="19" t="e"/>
+      <c r="D174" s="19" t="e"/>
+      <c r="E174" s="19" t="e"/>
+      <c r="F174" s="19" t="e"/>
+      <c r="G174" s="19" t="e"/>
+      <c r="H174" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I174" s="10" t="e"/>
+      <c r="J174" s="10" t="e"/>
+      <c r="K174" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L174" s="10" t="e"/>
+      <c r="M174" s="10" t="e"/>
+      <c r="N174" s="9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A175" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="19" t="e"/>
+      <c r="C175" s="19" t="e"/>
+      <c r="D175" s="19" t="e"/>
+      <c r="E175" s="19" t="e"/>
+      <c r="F175" s="19" t="e"/>
+      <c r="G175" s="19" t="e"/>
+      <c r="H175" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I175" s="10" t="e"/>
+      <c r="J175" s="10" t="e"/>
+      <c r="K175" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L175" s="10" t="e"/>
+      <c r="M175" s="10" t="e"/>
+      <c r="N175" s="9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A176" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="19" t="e"/>
+      <c r="C176" s="19" t="e"/>
+      <c r="D176" s="19" t="e"/>
+      <c r="E176" s="19" t="e"/>
+      <c r="F176" s="19" t="e"/>
+      <c r="G176" s="19" t="e"/>
+      <c r="H176" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I176" s="10" t="e"/>
+      <c r="J176" s="10" t="e"/>
+      <c r="K176" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L176" s="10" t="e"/>
+      <c r="M176" s="10" t="e"/>
+      <c r="N176" s="9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" ht="13" customHeight="true">
+      <c r="A177" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" s="12" t="e"/>
+      <c r="C177" s="12" t="e"/>
+      <c r="D177" s="12" t="e"/>
+      <c r="E177" s="12" t="e"/>
+      <c r="F177" s="12" t="e"/>
+      <c r="G177" s="12" t="e"/>
+      <c r="H177" s="13" t="n">
+        <v>2519</v>
+      </c>
+      <c r="I177" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J177" s="15" t="e"/>
+      <c r="K177" s="13" t="n">
+        <v>2487</v>
+      </c>
+      <c r="L177" s="15" t="e"/>
+      <c r="M177" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="N177" s="13" t="n">
+        <v>2487</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="220">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -4413,169 +5009,202 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A28:G28"/>
     <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A66:G66"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:F68"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
     <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="A74:G74"/>
     <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:F76"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A80:G80"/>
     <mergeCell ref="A81:G81"/>
-    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
     <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:F86"/>
     <mergeCell ref="A87:G87"/>
     <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:F89"/>
     <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="A97:G97"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:F100"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A103:G103"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:F106"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A111:G111"/>
-    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="D112:F112"/>
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
     <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:F118"/>
     <mergeCell ref="A119:G119"/>
     <mergeCell ref="A120:G120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="A121:G121"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="D124:F124"/>
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="A127:G127"/>
     <mergeCell ref="A128:G128"/>
     <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:F130"/>
     <mergeCell ref="A131:G131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="A132:G132"/>
     <mergeCell ref="A133:G133"/>
     <mergeCell ref="A134:G134"/>
     <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:F136"/>
     <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="A138:G138"/>
     <mergeCell ref="A139:G139"/>
     <mergeCell ref="A140:G140"/>
     <mergeCell ref="A141:G141"/>
-    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
     <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="A144:G144"/>
     <mergeCell ref="A145:G145"/>
     <mergeCell ref="A146:G146"/>
     <mergeCell ref="A147:G147"/>
-    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="D148:F148"/>
     <mergeCell ref="A149:G149"/>
     <mergeCell ref="A150:G150"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="A158:G158"/>
+    <mergeCell ref="A159:G159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="A161:G161"/>
+    <mergeCell ref="A162:G162"/>
+    <mergeCell ref="A163:G163"/>
+    <mergeCell ref="A164:G164"/>
+    <mergeCell ref="A165:G165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="A167:G167"/>
+    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A169:G169"/>
+    <mergeCell ref="A170:G170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="A172:G172"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A174:G174"/>
+    <mergeCell ref="A175:G175"/>
+    <mergeCell ref="A176:G176"/>
+    <mergeCell ref="A177:G177"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Остатки и доступность товаров</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Ожидается</t>
+  </si>
+  <si>
+    <t>06.12.2023 г.</t>
   </si>
   <si>
     <t>Артикул</t>
@@ -460,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -519,6 +522,12 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,7 +547,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="N177"/>
+  <dimension ref="O179"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -558,6 +567,7 @@
     <col min="12" max="12" width="14" style="1" customWidth="true"/>
     <col min="13" max="13" width="14" style="1" customWidth="true"/>
     <col min="14" max="14" width="14" style="1" customWidth="true"/>
+    <col min="15" max="15" width="15.16796875" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="10" customHeight="true" s="1" customFormat="true"/>
@@ -608,46 +618,52 @@
       </c>
       <c r="M6" s="5" t="e"/>
       <c r="N6" s="5" t="e"/>
+      <c r="O6" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" ht="26" customHeight="true">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="e"/>
       <c r="C7" s="5" t="e"/>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5" t="e"/>
       <c r="F7" s="5" t="e"/>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="true">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="e"/>
       <c r="C8" s="5" t="e"/>
@@ -662,10 +678,11 @@
       <c r="L8" s="6" t="e"/>
       <c r="M8" s="6" t="e"/>
       <c r="N8" s="6" t="e"/>
+      <c r="O8" s="6" t="e"/>
     </row>
     <row r="9" ht="11" customHeight="true">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="e"/>
       <c r="C9" s="8" t="e"/>
@@ -674,22 +691,29 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="I9" s="10" t="e"/>
+        <v>79</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="L9" s="10" t="e"/>
-      <c r="M9" s="10" t="e"/>
+        <v>78</v>
+      </c>
+      <c r="L9" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" s="9" t="n">
-        <v>49</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O9" s="10" t="e"/>
     </row>
     <row r="10" ht="11" customHeight="true">
       <c r="A10" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="8" t="e"/>
       <c r="C10" s="8" t="e"/>
@@ -698,22 +722,23 @@
       <c r="F10" s="8" t="e"/>
       <c r="G10" s="8" t="e"/>
       <c r="H10" s="9" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I10" s="10" t="e"/>
       <c r="J10" s="10" t="e"/>
       <c r="K10" s="9" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L10" s="10" t="e"/>
       <c r="M10" s="10" t="e"/>
       <c r="N10" s="9" t="n">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O10" s="10" t="e"/>
     </row>
     <row r="11" ht="11" customHeight="true">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="e"/>
       <c r="C11" s="8" t="e"/>
@@ -722,26 +747,27 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1287</v>
+        <v>1258</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1284</v>
+        <v>1257</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1284</v>
-      </c>
+        <v>1257</v>
+      </c>
+      <c r="O11" s="10" t="e"/>
     </row>
     <row r="12" ht="11" customHeight="true">
       <c r="A12" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8" t="e"/>
       <c r="C12" s="8" t="e"/>
@@ -749,27 +775,28 @@
       <c r="E12" s="8" t="e"/>
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
-      <c r="H12" s="11" t="n">
-        <v>1015</v>
+      <c r="H12" s="9" t="n">
+        <v>887</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="9" t="n">
-        <v>986</v>
+        <v>861</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N12" s="9" t="n">
-        <v>986</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="O12" s="10" t="e"/>
     </row>
     <row r="13" ht="13" customHeight="true">
       <c r="A13" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="12" t="e"/>
       <c r="C13" s="12" t="e"/>
@@ -778,54 +805,66 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2519</v>
+        <v>2390</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2487</v>
-      </c>
-      <c r="L13" s="15" t="e"/>
+        <v>2362</v>
+      </c>
+      <c r="L13" s="14" t="n">
+        <v>30</v>
+      </c>
       <c r="M13" s="14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2487</v>
-      </c>
+        <v>2392</v>
+      </c>
+      <c r="O13" s="15" t="e"/>
     </row>
     <row r="14" ht="11" customHeight="true">
       <c r="A14" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="16" t="e"/>
       <c r="C14" s="16" t="e"/>
       <c r="D14" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="16" t="e"/>
       <c r="F14" s="16" t="e"/>
       <c r="G14" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="I14" s="18" t="e"/>
+        <v>61</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="L14" s="18" t="e"/>
-      <c r="M14" s="18" t="e"/>
+        <v>60</v>
+      </c>
+      <c r="L14" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="M14" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" s="17" t="n">
-        <v>23</v>
+        <v>90</v>
+      </c>
+      <c r="O14" s="17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
       <c r="A15" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="19" t="e"/>
       <c r="C15" s="19" t="e"/>
@@ -834,22 +873,27 @@
       <c r="F15" s="19" t="e"/>
       <c r="G15" s="19" t="e"/>
       <c r="H15" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" s="10" t="e"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="10" t="e"/>
       <c r="K15" s="9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L15" s="10" t="e"/>
-      <c r="M15" s="10" t="e"/>
+      <c r="M15" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O15" s="20" t="e"/>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="1">
       <c r="A16" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="19" t="e"/>
       <c r="C16" s="19" t="e"/>
@@ -870,10 +914,11 @@
       <c r="N16" s="9" t="n">
         <v>4</v>
       </c>
+      <c r="O16" s="20" t="e"/>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="1">
       <c r="A17" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="19" t="e"/>
       <c r="C17" s="19" t="e"/>
@@ -882,22 +927,23 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I17" s="10" t="e"/>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="L17" s="10" t="e"/>
       <c r="M17" s="10" t="e"/>
       <c r="N17" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="O17" s="20" t="e"/>
     </row>
     <row r="18" ht="11" customHeight="true" outlineLevel="1">
       <c r="A18" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="19" t="e"/>
       <c r="C18" s="19" t="e"/>
@@ -906,50 +952,56 @@
       <c r="F18" s="19" t="e"/>
       <c r="G18" s="19" t="e"/>
       <c r="H18" s="9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I18" s="10" t="e"/>
       <c r="J18" s="10" t="e"/>
       <c r="K18" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" s="10" t="e"/>
+        <v>8</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>30</v>
+      </c>
       <c r="M18" s="10" t="e"/>
       <c r="N18" s="9" t="n">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
       <c r="A19" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="16" t="e"/>
       <c r="C19" s="16" t="e"/>
       <c r="D19" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="16" t="e"/>
       <c r="F19" s="16" t="e"/>
       <c r="G19" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="17" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I19" s="18" t="e"/>
       <c r="J19" s="18" t="e"/>
       <c r="K19" s="17" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L19" s="18" t="e"/>
       <c r="M19" s="18" t="e"/>
       <c r="N19" s="17" t="n">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O19" s="21" t="e"/>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="1">
       <c r="A20" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="19" t="e"/>
       <c r="C20" s="19" t="e"/>
@@ -970,10 +1022,11 @@
       <c r="N20" s="9" t="n">
         <v>5</v>
       </c>
+      <c r="O20" s="20" t="e"/>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="1">
       <c r="A21" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="19" t="e"/>
       <c r="C21" s="19" t="e"/>
@@ -982,174 +1035,181 @@
       <c r="F21" s="19" t="e"/>
       <c r="G21" s="19" t="e"/>
       <c r="H21" s="9" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I21" s="10" t="e"/>
       <c r="J21" s="10" t="e"/>
       <c r="K21" s="9" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L21" s="10" t="e"/>
       <c r="M21" s="10" t="e"/>
       <c r="N21" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="true">
-      <c r="A22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="16" t="e"/>
-      <c r="C22" s="16" t="e"/>
-      <c r="D22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="20" t="e"/>
+    </row>
+    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="19" t="e"/>
+      <c r="C22" s="19" t="e"/>
+      <c r="D22" s="19" t="e"/>
+      <c r="E22" s="19" t="e"/>
+      <c r="F22" s="19" t="e"/>
+      <c r="G22" s="19" t="e"/>
+      <c r="H22" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10" t="e"/>
+      <c r="J22" s="10" t="e"/>
+      <c r="K22" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" s="10" t="e"/>
+      <c r="M22" s="10" t="e"/>
+      <c r="N22" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" s="20" t="e"/>
+    </row>
+    <row r="23" ht="22" customHeight="true">
+      <c r="A23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="16" t="e"/>
-      <c r="F22" s="16" t="e"/>
-      <c r="G22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="17" t="n">
+      <c r="B23" s="16" t="e"/>
+      <c r="C23" s="16" t="e"/>
+      <c r="D23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="16" t="e"/>
+      <c r="F23" s="16" t="e"/>
+      <c r="G23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="I22" s="18" t="e"/>
-      <c r="J22" s="18" t="e"/>
-      <c r="K22" s="17" t="n">
+      <c r="I23" s="18" t="e"/>
+      <c r="J23" s="18" t="e"/>
+      <c r="K23" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="L22" s="18" t="e"/>
-      <c r="M22" s="18" t="e"/>
-      <c r="N22" s="17" t="n">
+      <c r="L23" s="18" t="e"/>
+      <c r="M23" s="18" t="e"/>
+      <c r="N23" s="17" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="19" t="e"/>
-      <c r="C23" s="19" t="e"/>
-      <c r="D23" s="19" t="e"/>
-      <c r="E23" s="19" t="e"/>
-      <c r="F23" s="19" t="e"/>
-      <c r="G23" s="19" t="e"/>
-      <c r="H23" s="9" t="n">
+      <c r="O23" s="21" t="e"/>
+    </row>
+    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="19" t="e"/>
+      <c r="C24" s="19" t="e"/>
+      <c r="D24" s="19" t="e"/>
+      <c r="E24" s="19" t="e"/>
+      <c r="F24" s="19" t="e"/>
+      <c r="G24" s="19" t="e"/>
+      <c r="H24" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="I23" s="10" t="e"/>
-      <c r="J23" s="10" t="e"/>
-      <c r="K23" s="9" t="n">
+      <c r="I24" s="10" t="e"/>
+      <c r="J24" s="10" t="e"/>
+      <c r="K24" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="L23" s="10" t="e"/>
-      <c r="M23" s="10" t="e"/>
-      <c r="N23" s="9" t="n">
+      <c r="L24" s="10" t="e"/>
+      <c r="M24" s="10" t="e"/>
+      <c r="N24" s="9" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" ht="22" customHeight="true">
-      <c r="A24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="16" t="e"/>
-      <c r="C24" s="16" t="e"/>
-      <c r="D24" s="16" t="s">
+      <c r="O24" s="20" t="e"/>
+    </row>
+    <row r="25" ht="22" customHeight="true">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="16" t="e"/>
-      <c r="F24" s="16" t="e"/>
-      <c r="G24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" s="18" t="e"/>
-      <c r="J24" s="18" t="e"/>
-      <c r="K24" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L24" s="18" t="e"/>
-      <c r="M24" s="18" t="e"/>
-      <c r="N24" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="19" t="e"/>
-      <c r="C25" s="19" t="e"/>
-      <c r="D25" s="19" t="e"/>
-      <c r="E25" s="19" t="e"/>
-      <c r="F25" s="19" t="e"/>
-      <c r="G25" s="19" t="e"/>
-      <c r="H25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="10" t="e"/>
-      <c r="J25" s="10" t="e"/>
-      <c r="K25" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L25" s="10" t="e"/>
-      <c r="M25" s="10" t="e"/>
-      <c r="N25" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true">
-      <c r="A26" s="16" t="s">
+      <c r="B25" s="16" t="e"/>
+      <c r="C25" s="16" t="e"/>
+      <c r="D25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="16" t="e"/>
-      <c r="C26" s="16" t="e"/>
-      <c r="D26" s="16" t="s">
+      <c r="E25" s="16" t="e"/>
+      <c r="F25" s="16" t="e"/>
+      <c r="G25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="18" t="e"/>
+      <c r="J25" s="18" t="e"/>
+      <c r="K25" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" s="18" t="e"/>
+      <c r="M25" s="18" t="e"/>
+      <c r="N25" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" s="21" t="e"/>
+    </row>
+    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="19" t="e"/>
+      <c r="C26" s="19" t="e"/>
+      <c r="D26" s="19" t="e"/>
+      <c r="E26" s="19" t="e"/>
+      <c r="F26" s="19" t="e"/>
+      <c r="G26" s="19" t="e"/>
+      <c r="H26" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="10" t="e"/>
+      <c r="J26" s="10" t="e"/>
+      <c r="K26" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" s="10" t="e"/>
+      <c r="M26" s="10" t="e"/>
+      <c r="N26" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" s="20" t="e"/>
+    </row>
+    <row r="27" ht="22" customHeight="true">
+      <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="16" t="e"/>
-      <c r="F26" s="16" t="e"/>
-      <c r="G26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="17" t="n">
+      <c r="B27" s="16" t="e"/>
+      <c r="C27" s="16" t="e"/>
+      <c r="D27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="16" t="e"/>
+      <c r="F27" s="16" t="e"/>
+      <c r="G27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="17" t="n">
         <v>77</v>
       </c>
-      <c r="I26" s="18" t="e"/>
-      <c r="J26" s="18" t="e"/>
-      <c r="K26" s="17" t="n">
+      <c r="I27" s="18" t="e"/>
+      <c r="J27" s="18" t="e"/>
+      <c r="K27" s="17" t="n">
         <v>77</v>
       </c>
-      <c r="L26" s="18" t="e"/>
-      <c r="M26" s="18" t="e"/>
-      <c r="N26" s="17" t="n">
+      <c r="L27" s="18" t="e"/>
+      <c r="M27" s="18" t="e"/>
+      <c r="N27" s="17" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19" t="e"/>
-      <c r="C27" s="19" t="e"/>
-      <c r="D27" s="19" t="e"/>
-      <c r="E27" s="19" t="e"/>
-      <c r="F27" s="19" t="e"/>
-      <c r="G27" s="19" t="e"/>
-      <c r="H27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10" t="e"/>
-      <c r="J27" s="10" t="e"/>
-      <c r="K27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10" t="e"/>
-      <c r="M27" s="10" t="e"/>
-      <c r="N27" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="O27" s="21" t="e"/>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="1">
       <c r="A28" s="19" t="s">
@@ -1162,18 +1222,19 @@
       <c r="F28" s="19" t="e"/>
       <c r="G28" s="19" t="e"/>
       <c r="H28" s="9" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="I28" s="10" t="e"/>
       <c r="J28" s="10" t="e"/>
       <c r="K28" s="9" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="L28" s="10" t="e"/>
       <c r="M28" s="10" t="e"/>
       <c r="N28" s="9" t="n">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O28" s="20" t="e"/>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="1">
       <c r="A29" s="19" t="s">
@@ -1186,70 +1247,73 @@
       <c r="F29" s="19" t="e"/>
       <c r="G29" s="19" t="e"/>
       <c r="H29" s="9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I29" s="10" t="e"/>
       <c r="J29" s="10" t="e"/>
       <c r="K29" s="9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L29" s="10" t="e"/>
       <c r="M29" s="10" t="e"/>
       <c r="N29" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="O29" s="20" t="e"/>
+    </row>
+    <row r="30" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="e"/>
+      <c r="C30" s="19" t="e"/>
+      <c r="D30" s="19" t="e"/>
+      <c r="E30" s="19" t="e"/>
+      <c r="F30" s="19" t="e"/>
+      <c r="G30" s="19" t="e"/>
+      <c r="H30" s="9" t="n">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" ht="22" customHeight="true">
-      <c r="A30" s="16" t="s">
+      <c r="I30" s="10" t="e"/>
+      <c r="J30" s="10" t="e"/>
+      <c r="K30" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B30" s="16" t="e"/>
-      <c r="C30" s="16" t="e"/>
-      <c r="D30" s="16" t="s">
+      <c r="L30" s="10" t="e"/>
+      <c r="M30" s="10" t="e"/>
+      <c r="N30" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="O30" s="20" t="e"/>
+    </row>
+    <row r="31" ht="22" customHeight="true">
+      <c r="A31" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="16" t="e"/>
-      <c r="F30" s="16" t="e"/>
-      <c r="G30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="I30" s="18" t="e"/>
-      <c r="J30" s="18" t="e"/>
-      <c r="K30" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="L30" s="18" t="e"/>
-      <c r="M30" s="18" t="e"/>
-      <c r="N30" s="17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="19" t="e"/>
-      <c r="C31" s="19" t="e"/>
-      <c r="D31" s="19" t="e"/>
-      <c r="E31" s="19" t="e"/>
-      <c r="F31" s="19" t="e"/>
-      <c r="G31" s="19" t="e"/>
-      <c r="H31" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I31" s="10" t="e"/>
-      <c r="J31" s="10" t="e"/>
-      <c r="K31" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L31" s="10" t="e"/>
-      <c r="M31" s="10" t="e"/>
-      <c r="N31" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="B31" s="16" t="e"/>
+      <c r="C31" s="16" t="e"/>
+      <c r="D31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="16" t="e"/>
+      <c r="F31" s="16" t="e"/>
+      <c r="G31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="I31" s="18" t="e"/>
+      <c r="J31" s="18" t="e"/>
+      <c r="K31" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="L31" s="18" t="e"/>
+      <c r="M31" s="18" t="e"/>
+      <c r="N31" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="O31" s="21" t="e"/>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="1">
       <c r="A32" s="19" t="s">
@@ -1274,6 +1338,7 @@
       <c r="N32" s="9" t="n">
         <v>2</v>
       </c>
+      <c r="O32" s="20" t="e"/>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="19" t="s">
@@ -1286,74 +1351,77 @@
       <c r="F33" s="19" t="e"/>
       <c r="G33" s="19" t="e"/>
       <c r="H33" s="9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I33" s="10" t="e"/>
       <c r="J33" s="10" t="e"/>
       <c r="K33" s="9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L33" s="10" t="e"/>
       <c r="M33" s="10" t="e"/>
       <c r="N33" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" ht="22" customHeight="true">
-      <c r="A34" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="16" t="e"/>
-      <c r="C34" s="16" t="e"/>
-      <c r="D34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="20" t="e"/>
+    </row>
+    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="19" t="e"/>
+      <c r="C34" s="19" t="e"/>
+      <c r="D34" s="19" t="e"/>
+      <c r="E34" s="19" t="e"/>
+      <c r="F34" s="19" t="e"/>
+      <c r="G34" s="19" t="e"/>
+      <c r="H34" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" s="10" t="e"/>
+      <c r="J34" s="10" t="e"/>
+      <c r="K34" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="10" t="e"/>
+      <c r="M34" s="10" t="e"/>
+      <c r="N34" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" s="20" t="e"/>
+    </row>
+    <row r="35" ht="22" customHeight="true">
+      <c r="A35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="16" t="e"/>
-      <c r="F34" s="16" t="e"/>
-      <c r="G34" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="I34" s="18" t="e"/>
-      <c r="J34" s="18" t="e"/>
-      <c r="K34" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="L34" s="18" t="e"/>
-      <c r="M34" s="18" t="e"/>
-      <c r="N34" s="17" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A35" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="19" t="e"/>
-      <c r="C35" s="19" t="e"/>
-      <c r="D35" s="19" t="e"/>
-      <c r="E35" s="19" t="e"/>
-      <c r="F35" s="19" t="e"/>
-      <c r="G35" s="19" t="e"/>
-      <c r="H35" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" s="10" t="e"/>
-      <c r="J35" s="10" t="e"/>
-      <c r="K35" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L35" s="10" t="e"/>
-      <c r="M35" s="10" t="e"/>
-      <c r="N35" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="B35" s="16" t="e"/>
+      <c r="C35" s="16" t="e"/>
+      <c r="D35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="16" t="e"/>
+      <c r="F35" s="16" t="e"/>
+      <c r="G35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="I35" s="18" t="e"/>
+      <c r="J35" s="18" t="e"/>
+      <c r="K35" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L35" s="18" t="e"/>
+      <c r="M35" s="18" t="e"/>
+      <c r="N35" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O35" s="21" t="e"/>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="1">
       <c r="A36" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="19" t="e"/>
       <c r="C36" s="19" t="e"/>
@@ -1362,174 +1430,181 @@
       <c r="F36" s="19" t="e"/>
       <c r="G36" s="19" t="e"/>
       <c r="H36" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I36" s="10" t="e"/>
       <c r="J36" s="10" t="e"/>
       <c r="K36" s="9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L36" s="10" t="e"/>
       <c r="M36" s="10" t="e"/>
       <c r="N36" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" ht="22" customHeight="true">
-      <c r="A37" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="16" t="e"/>
-      <c r="C37" s="16" t="e"/>
-      <c r="D37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="20" t="e"/>
+    </row>
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A37" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="19" t="e"/>
+      <c r="C37" s="19" t="e"/>
+      <c r="D37" s="19" t="e"/>
+      <c r="E37" s="19" t="e"/>
+      <c r="F37" s="19" t="e"/>
+      <c r="G37" s="19" t="e"/>
+      <c r="H37" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I37" s="10" t="e"/>
+      <c r="J37" s="10" t="e"/>
+      <c r="K37" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L37" s="10" t="e"/>
+      <c r="M37" s="10" t="e"/>
+      <c r="N37" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" s="20" t="e"/>
+    </row>
+    <row r="38" ht="22" customHeight="true">
+      <c r="A38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="16" t="e"/>
-      <c r="F37" s="16" t="e"/>
-      <c r="G37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="I37" s="18" t="e"/>
-      <c r="J37" s="18" t="e"/>
-      <c r="K37" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L37" s="18" t="e"/>
-      <c r="M37" s="18" t="e"/>
-      <c r="N37" s="17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A38" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="19" t="e"/>
-      <c r="C38" s="19" t="e"/>
-      <c r="D38" s="19" t="e"/>
-      <c r="E38" s="19" t="e"/>
-      <c r="F38" s="19" t="e"/>
-      <c r="G38" s="19" t="e"/>
-      <c r="H38" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I38" s="10" t="e"/>
-      <c r="J38" s="10" t="e"/>
-      <c r="K38" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L38" s="10" t="e"/>
-      <c r="M38" s="10" t="e"/>
-      <c r="N38" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true">
-      <c r="A39" s="16" t="s">
+      <c r="B38" s="16" t="e"/>
+      <c r="C38" s="16" t="e"/>
+      <c r="D38" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="16" t="e"/>
-      <c r="C39" s="16" t="e"/>
-      <c r="D39" s="16" t="s">
+      <c r="E38" s="16" t="e"/>
+      <c r="F38" s="16" t="e"/>
+      <c r="G38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" s="18" t="e"/>
+      <c r="J38" s="18" t="e"/>
+      <c r="K38" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" s="18" t="e"/>
+      <c r="M38" s="18" t="e"/>
+      <c r="N38" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" s="21" t="e"/>
+    </row>
+    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A39" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="19" t="e"/>
+      <c r="C39" s="19" t="e"/>
+      <c r="D39" s="19" t="e"/>
+      <c r="E39" s="19" t="e"/>
+      <c r="F39" s="19" t="e"/>
+      <c r="G39" s="19" t="e"/>
+      <c r="H39" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" s="10" t="e"/>
+      <c r="J39" s="10" t="e"/>
+      <c r="K39" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" s="10" t="e"/>
+      <c r="M39" s="10" t="e"/>
+      <c r="N39" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" s="20" t="e"/>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="16" t="e"/>
-      <c r="F39" s="16" t="e"/>
-      <c r="G39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="17" t="n">
+      <c r="B40" s="16" t="e"/>
+      <c r="C40" s="16" t="e"/>
+      <c r="D40" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="16" t="e"/>
+      <c r="F40" s="16" t="e"/>
+      <c r="G40" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="I39" s="18" t="e"/>
-      <c r="J39" s="18" t="e"/>
-      <c r="K39" s="17" t="n">
+      <c r="I40" s="18" t="e"/>
+      <c r="J40" s="18" t="e"/>
+      <c r="K40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="L39" s="18" t="e"/>
-      <c r="M39" s="18" t="e"/>
-      <c r="N39" s="17" t="n">
+      <c r="L40" s="18" t="e"/>
+      <c r="M40" s="18" t="e"/>
+      <c r="N40" s="17" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A40" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="19" t="e"/>
-      <c r="C40" s="19" t="e"/>
-      <c r="D40" s="19" t="e"/>
-      <c r="E40" s="19" t="e"/>
-      <c r="F40" s="19" t="e"/>
-      <c r="G40" s="19" t="e"/>
-      <c r="H40" s="9" t="n">
+      <c r="O40" s="21" t="e"/>
+    </row>
+    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A41" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="19" t="e"/>
+      <c r="C41" s="19" t="e"/>
+      <c r="D41" s="19" t="e"/>
+      <c r="E41" s="19" t="e"/>
+      <c r="F41" s="19" t="e"/>
+      <c r="G41" s="19" t="e"/>
+      <c r="H41" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="I40" s="10" t="e"/>
-      <c r="J40" s="10" t="e"/>
-      <c r="K40" s="9" t="n">
+      <c r="I41" s="10" t="e"/>
+      <c r="J41" s="10" t="e"/>
+      <c r="K41" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="L40" s="10" t="e"/>
-      <c r="M40" s="10" t="e"/>
-      <c r="N40" s="9" t="n">
+      <c r="L41" s="10" t="e"/>
+      <c r="M41" s="10" t="e"/>
+      <c r="N41" s="9" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" ht="11" customHeight="true">
-      <c r="A41" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="16" t="e"/>
-      <c r="C41" s="16" t="e"/>
-      <c r="D41" s="16" t="s">
+      <c r="O41" s="20" t="e"/>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="16" t="e"/>
-      <c r="F41" s="16" t="e"/>
-      <c r="G41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="17" t="n">
-        <v>245</v>
-      </c>
-      <c r="I41" s="18" t="e"/>
-      <c r="J41" s="18" t="e"/>
-      <c r="K41" s="17" t="n">
-        <v>245</v>
-      </c>
-      <c r="L41" s="18" t="e"/>
-      <c r="M41" s="18" t="e"/>
-      <c r="N41" s="17" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A42" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="19" t="e"/>
-      <c r="C42" s="19" t="e"/>
-      <c r="D42" s="19" t="e"/>
-      <c r="E42" s="19" t="e"/>
-      <c r="F42" s="19" t="e"/>
-      <c r="G42" s="19" t="e"/>
-      <c r="H42" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="I42" s="10" t="e"/>
-      <c r="J42" s="10" t="e"/>
-      <c r="K42" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="L42" s="10" t="e"/>
-      <c r="M42" s="10" t="e"/>
-      <c r="N42" s="9" t="n">
-        <v>95</v>
-      </c>
+      <c r="B42" s="16" t="e"/>
+      <c r="C42" s="16" t="e"/>
+      <c r="D42" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="16" t="e"/>
+      <c r="F42" s="16" t="e"/>
+      <c r="G42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="17" t="n">
+        <v>236</v>
+      </c>
+      <c r="I42" s="18" t="e"/>
+      <c r="J42" s="18" t="e"/>
+      <c r="K42" s="17" t="n">
+        <v>236</v>
+      </c>
+      <c r="L42" s="18" t="e"/>
+      <c r="M42" s="18" t="e"/>
+      <c r="N42" s="17" t="n">
+        <v>236</v>
+      </c>
+      <c r="O42" s="21" t="e"/>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="1">
       <c r="A43" s="19" t="s">
@@ -1542,18 +1617,19 @@
       <c r="F43" s="19" t="e"/>
       <c r="G43" s="19" t="e"/>
       <c r="H43" s="9" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I43" s="10" t="e"/>
       <c r="J43" s="10" t="e"/>
       <c r="K43" s="9" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L43" s="10" t="e"/>
       <c r="M43" s="10" t="e"/>
       <c r="N43" s="9" t="n">
-        <v>50</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O43" s="20" t="e"/>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
       <c r="A44" s="19" t="s">
@@ -1566,74 +1642,77 @@
       <c r="F44" s="19" t="e"/>
       <c r="G44" s="19" t="e"/>
       <c r="H44" s="9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I44" s="10" t="e"/>
       <c r="J44" s="10" t="e"/>
       <c r="K44" s="9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L44" s="10" t="e"/>
       <c r="M44" s="10" t="e"/>
       <c r="N44" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true">
-      <c r="A45" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="16" t="e"/>
-      <c r="C45" s="16" t="e"/>
-      <c r="D45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="20" t="e"/>
+    </row>
+    <row r="45" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A45" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="19" t="e"/>
+      <c r="C45" s="19" t="e"/>
+      <c r="D45" s="19" t="e"/>
+      <c r="E45" s="19" t="e"/>
+      <c r="F45" s="19" t="e"/>
+      <c r="G45" s="19" t="e"/>
+      <c r="H45" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="I45" s="10" t="e"/>
+      <c r="J45" s="10" t="e"/>
+      <c r="K45" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="L45" s="10" t="e"/>
+      <c r="M45" s="10" t="e"/>
+      <c r="N45" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="O45" s="20" t="e"/>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="16" t="e"/>
-      <c r="F45" s="16" t="e"/>
-      <c r="G45" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="18" t="e"/>
-      <c r="J45" s="18" t="e"/>
-      <c r="K45" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L45" s="18" t="e"/>
-      <c r="M45" s="18" t="e"/>
-      <c r="N45" s="17" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A46" s="19" t="s">
+      <c r="B46" s="16" t="e"/>
+      <c r="C46" s="16" t="e"/>
+      <c r="D46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="16" t="e"/>
+      <c r="F46" s="16" t="e"/>
+      <c r="G46" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="19" t="e"/>
-      <c r="C46" s="19" t="e"/>
-      <c r="D46" s="19" t="e"/>
-      <c r="E46" s="19" t="e"/>
-      <c r="F46" s="19" t="e"/>
-      <c r="G46" s="19" t="e"/>
-      <c r="H46" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I46" s="10" t="e"/>
-      <c r="J46" s="10" t="e"/>
-      <c r="K46" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L46" s="10" t="e"/>
-      <c r="M46" s="10" t="e"/>
-      <c r="N46" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="H46" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="I46" s="18" t="e"/>
+      <c r="J46" s="18" t="e"/>
+      <c r="K46" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="L46" s="18" t="e"/>
+      <c r="M46" s="18" t="e"/>
+      <c r="N46" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="O46" s="21" t="e"/>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="A47" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B47" s="19" t="e"/>
       <c r="C47" s="19" t="e"/>
@@ -1654,10 +1733,11 @@
       <c r="N47" s="9" t="n">
         <v>10</v>
       </c>
+      <c r="O47" s="20" t="e"/>
     </row>
     <row r="48" ht="11" customHeight="true" outlineLevel="1">
       <c r="A48" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B48" s="19" t="e"/>
       <c r="C48" s="19" t="e"/>
@@ -1678,38 +1758,36 @@
       <c r="N48" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" ht="22" customHeight="true">
-      <c r="A49" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="16" t="e"/>
-      <c r="C49" s="16" t="e"/>
-      <c r="D49" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="16" t="e"/>
-      <c r="F49" s="16" t="e"/>
-      <c r="G49" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="18" t="e"/>
-      <c r="J49" s="18" t="e"/>
-      <c r="K49" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L49" s="18" t="e"/>
-      <c r="M49" s="18" t="e"/>
-      <c r="N49" s="17" t="n">
-        <v>30</v>
-      </c>
+      <c r="O48" s="20" t="e"/>
+    </row>
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A49" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="19" t="e"/>
+      <c r="C49" s="19" t="e"/>
+      <c r="D49" s="19" t="e"/>
+      <c r="E49" s="19" t="e"/>
+      <c r="F49" s="19" t="e"/>
+      <c r="G49" s="19" t="e"/>
+      <c r="H49" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" s="10" t="e"/>
+      <c r="J49" s="10" t="e"/>
+      <c r="K49" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" s="10" t="e"/>
+      <c r="M49" s="10" t="e"/>
+      <c r="N49" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" s="20" t="e"/>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B50" s="19" t="e"/>
       <c r="C50" s="19" t="e"/>
@@ -1730,34 +1808,40 @@
       <c r="N50" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A51" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="19" t="e"/>
-      <c r="C51" s="19" t="e"/>
-      <c r="D51" s="19" t="e"/>
-      <c r="E51" s="19" t="e"/>
-      <c r="F51" s="19" t="e"/>
-      <c r="G51" s="19" t="e"/>
-      <c r="H51" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I51" s="10" t="e"/>
-      <c r="J51" s="10" t="e"/>
-      <c r="K51" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L51" s="10" t="e"/>
-      <c r="M51" s="10" t="e"/>
-      <c r="N51" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="O50" s="20" t="e"/>
+    </row>
+    <row r="51" ht="22" customHeight="true">
+      <c r="A51" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="16" t="e"/>
+      <c r="C51" s="16" t="e"/>
+      <c r="D51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="16" t="e"/>
+      <c r="F51" s="16" t="e"/>
+      <c r="G51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="I51" s="18" t="e"/>
+      <c r="J51" s="18" t="e"/>
+      <c r="K51" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="L51" s="18" t="e"/>
+      <c r="M51" s="18" t="e"/>
+      <c r="N51" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="O51" s="21" t="e"/>
     </row>
     <row r="52" ht="11" customHeight="true" outlineLevel="1">
       <c r="A52" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B52" s="19" t="e"/>
       <c r="C52" s="19" t="e"/>
@@ -1778,38 +1862,36 @@
       <c r="N52" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
-      <c r="A53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="16" t="e"/>
-      <c r="C53" s="16" t="e"/>
-      <c r="D53" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="16" t="e"/>
-      <c r="F53" s="16" t="e"/>
-      <c r="G53" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="17" t="n">
-        <v>128</v>
-      </c>
-      <c r="I53" s="18" t="e"/>
-      <c r="J53" s="18" t="e"/>
-      <c r="K53" s="17" t="n">
-        <v>128</v>
-      </c>
-      <c r="L53" s="18" t="e"/>
-      <c r="M53" s="18" t="e"/>
-      <c r="N53" s="17" t="n">
-        <v>128</v>
-      </c>
+      <c r="O52" s="20" t="e"/>
+    </row>
+    <row r="53" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A53" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="19" t="e"/>
+      <c r="C53" s="19" t="e"/>
+      <c r="D53" s="19" t="e"/>
+      <c r="E53" s="19" t="e"/>
+      <c r="F53" s="19" t="e"/>
+      <c r="G53" s="19" t="e"/>
+      <c r="H53" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I53" s="10" t="e"/>
+      <c r="J53" s="10" t="e"/>
+      <c r="K53" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L53" s="10" t="e"/>
+      <c r="M53" s="10" t="e"/>
+      <c r="N53" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O53" s="20" t="e"/>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
       <c r="A54" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B54" s="19" t="e"/>
       <c r="C54" s="19" t="e"/>
@@ -1818,22 +1900,23 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="I54" s="10" t="e"/>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="10" t="e"/>
       <c r="N54" s="9" t="n">
-        <v>46</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O54" s="20" t="e"/>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="19" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B55" s="19" t="e"/>
       <c r="C55" s="19" t="e"/>
@@ -1842,46 +1925,52 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L55" s="10" t="e"/>
       <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A56" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="19" t="e"/>
-      <c r="C56" s="19" t="e"/>
-      <c r="D56" s="19" t="e"/>
-      <c r="E56" s="19" t="e"/>
-      <c r="F56" s="19" t="e"/>
-      <c r="G56" s="19" t="e"/>
-      <c r="H56" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I56" s="10" t="e"/>
-      <c r="J56" s="10" t="e"/>
-      <c r="K56" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L56" s="10" t="e"/>
-      <c r="M56" s="10" t="e"/>
-      <c r="N56" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O55" s="20" t="e"/>
+    </row>
+    <row r="56" ht="22" customHeight="true">
+      <c r="A56" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="16" t="e"/>
+      <c r="C56" s="16" t="e"/>
+      <c r="D56" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="16" t="e"/>
+      <c r="F56" s="16" t="e"/>
+      <c r="G56" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="17" t="n">
+        <v>120</v>
+      </c>
+      <c r="I56" s="18" t="e"/>
+      <c r="J56" s="18" t="e"/>
+      <c r="K56" s="17" t="n">
+        <v>120</v>
+      </c>
+      <c r="L56" s="18" t="e"/>
+      <c r="M56" s="18" t="e"/>
+      <c r="N56" s="17" t="n">
+        <v>120</v>
+      </c>
+      <c r="O56" s="21" t="e"/>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
       <c r="A57" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" s="19" t="e"/>
       <c r="C57" s="19" t="e"/>
@@ -1890,22 +1979,23 @@
       <c r="F57" s="19" t="e"/>
       <c r="G57" s="19" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I57" s="10" t="e"/>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L57" s="10" t="e"/>
       <c r="M57" s="10" t="e"/>
       <c r="N57" s="9" t="n">
-        <v>30</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="O57" s="20" t="e"/>
     </row>
     <row r="58" ht="11" customHeight="true" outlineLevel="1">
       <c r="A58" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B58" s="19" t="e"/>
       <c r="C58" s="19" t="e"/>
@@ -1914,50 +2004,48 @@
       <c r="F58" s="19" t="e"/>
       <c r="G58" s="19" t="e"/>
       <c r="H58" s="9" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I58" s="10" t="e"/>
       <c r="J58" s="10" t="e"/>
       <c r="K58" s="9" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L58" s="10" t="e"/>
       <c r="M58" s="10" t="e"/>
       <c r="N58" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true">
-      <c r="A59" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="16" t="e"/>
-      <c r="C59" s="16" t="e"/>
-      <c r="D59" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="16" t="e"/>
-      <c r="F59" s="16" t="e"/>
-      <c r="G59" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="17" t="n">
-        <v>143</v>
-      </c>
-      <c r="I59" s="18" t="e"/>
-      <c r="J59" s="18" t="e"/>
-      <c r="K59" s="17" t="n">
-        <v>143</v>
-      </c>
-      <c r="L59" s="18" t="e"/>
-      <c r="M59" s="18" t="e"/>
-      <c r="N59" s="17" t="n">
-        <v>143</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="O58" s="20" t="e"/>
+    </row>
+    <row r="59" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A59" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="19" t="e"/>
+      <c r="C59" s="19" t="e"/>
+      <c r="D59" s="19" t="e"/>
+      <c r="E59" s="19" t="e"/>
+      <c r="F59" s="19" t="e"/>
+      <c r="G59" s="19" t="e"/>
+      <c r="H59" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I59" s="10" t="e"/>
+      <c r="J59" s="10" t="e"/>
+      <c r="K59" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L59" s="10" t="e"/>
+      <c r="M59" s="10" t="e"/>
+      <c r="N59" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" s="20" t="e"/>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
       <c r="A60" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B60" s="19" t="e"/>
       <c r="C60" s="19" t="e"/>
@@ -1966,22 +2054,23 @@
       <c r="F60" s="19" t="e"/>
       <c r="G60" s="19" t="e"/>
       <c r="H60" s="9" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I60" s="10" t="e"/>
       <c r="J60" s="10" t="e"/>
       <c r="K60" s="9" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L60" s="10" t="e"/>
       <c r="M60" s="10" t="e"/>
       <c r="N60" s="9" t="n">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O60" s="20" t="e"/>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
       <c r="A61" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B61" s="19" t="e"/>
       <c r="C61" s="19" t="e"/>
@@ -1990,78 +2079,85 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I61" s="10" t="e"/>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L61" s="10" t="e"/>
       <c r="M61" s="10" t="e"/>
       <c r="N61" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O61" s="20" t="e"/>
+    </row>
+    <row r="62" ht="11" customHeight="true">
+      <c r="A62" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="16" t="e"/>
+      <c r="C62" s="16" t="e"/>
+      <c r="D62" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="16" t="e"/>
+      <c r="F62" s="16" t="e"/>
+      <c r="G62" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="17" t="n">
+        <v>143</v>
+      </c>
+      <c r="I62" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="18" t="e"/>
+      <c r="K62" s="17" t="n">
+        <v>142</v>
+      </c>
+      <c r="L62" s="18" t="e"/>
+      <c r="M62" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="17" t="n">
+        <v>142</v>
+      </c>
+      <c r="O62" s="21" t="e"/>
+    </row>
+    <row r="63" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A63" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="19" t="e"/>
+      <c r="C63" s="19" t="e"/>
+      <c r="D63" s="19" t="e"/>
+      <c r="E63" s="19" t="e"/>
+      <c r="F63" s="19" t="e"/>
+      <c r="G63" s="19" t="e"/>
+      <c r="H63" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="10" t="e"/>
+      <c r="K63" s="9" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A62" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="19" t="e"/>
-      <c r="C62" s="19" t="e"/>
-      <c r="D62" s="19" t="e"/>
-      <c r="E62" s="19" t="e"/>
-      <c r="F62" s="19" t="e"/>
-      <c r="G62" s="19" t="e"/>
-      <c r="H62" s="9" t="n">
-        <v>82</v>
-      </c>
-      <c r="I62" s="10" t="e"/>
-      <c r="J62" s="10" t="e"/>
-      <c r="K62" s="9" t="n">
-        <v>82</v>
-      </c>
-      <c r="L62" s="10" t="e"/>
-      <c r="M62" s="10" t="e"/>
-      <c r="N62" s="9" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" ht="22" customHeight="true">
-      <c r="A63" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="16" t="e"/>
-      <c r="C63" s="16" t="e"/>
-      <c r="D63" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="16" t="e"/>
-      <c r="F63" s="16" t="e"/>
-      <c r="G63" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="17" t="n">
-        <v>121</v>
-      </c>
-      <c r="I63" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" s="18" t="e"/>
-      <c r="K63" s="17" t="n">
-        <v>119</v>
-      </c>
-      <c r="L63" s="18" t="e"/>
-      <c r="M63" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N63" s="17" t="n">
-        <v>119</v>
-      </c>
+      <c r="L63" s="10" t="e"/>
+      <c r="M63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O63" s="20" t="e"/>
     </row>
     <row r="64" ht="11" customHeight="true" outlineLevel="1">
       <c r="A64" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B64" s="19" t="e"/>
       <c r="C64" s="19" t="e"/>
@@ -2070,22 +2166,23 @@
       <c r="F64" s="19" t="e"/>
       <c r="G64" s="19" t="e"/>
       <c r="H64" s="9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I64" s="10" t="e"/>
       <c r="J64" s="10" t="e"/>
       <c r="K64" s="9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L64" s="10" t="e"/>
       <c r="M64" s="10" t="e"/>
       <c r="N64" s="9" t="n">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="O64" s="20" t="e"/>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
       <c r="A65" s="19" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B65" s="19" t="e"/>
       <c r="C65" s="19" t="e"/>
@@ -2094,50 +2191,52 @@
       <c r="F65" s="19" t="e"/>
       <c r="G65" s="19" t="e"/>
       <c r="H65" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I65" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I65" s="10" t="e"/>
       <c r="J65" s="10" t="e"/>
       <c r="K65" s="9" t="n">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L65" s="10" t="e"/>
-      <c r="M65" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M65" s="10" t="e"/>
       <c r="N65" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A66" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="19" t="e"/>
-      <c r="C66" s="19" t="e"/>
-      <c r="D66" s="19" t="e"/>
-      <c r="E66" s="19" t="e"/>
-      <c r="F66" s="19" t="e"/>
-      <c r="G66" s="19" t="e"/>
-      <c r="H66" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="I66" s="10" t="e"/>
-      <c r="J66" s="10" t="e"/>
-      <c r="K66" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="L66" s="10" t="e"/>
-      <c r="M66" s="10" t="e"/>
-      <c r="N66" s="9" t="n">
-        <v>55</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O65" s="20" t="e"/>
+    </row>
+    <row r="66" ht="22" customHeight="true">
+      <c r="A66" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="16" t="e"/>
+      <c r="C66" s="16" t="e"/>
+      <c r="D66" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="16" t="e"/>
+      <c r="F66" s="16" t="e"/>
+      <c r="G66" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="17" t="n">
+        <v>115</v>
+      </c>
+      <c r="I66" s="18" t="e"/>
+      <c r="J66" s="18" t="e"/>
+      <c r="K66" s="17" t="n">
+        <v>115</v>
+      </c>
+      <c r="L66" s="18" t="e"/>
+      <c r="M66" s="18" t="e"/>
+      <c r="N66" s="17" t="n">
+        <v>115</v>
+      </c>
+      <c r="O66" s="21" t="e"/>
     </row>
     <row r="67" ht="11" customHeight="true" outlineLevel="1">
       <c r="A67" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B67" s="19" t="e"/>
       <c r="C67" s="19" t="e"/>
@@ -2146,50 +2245,48 @@
       <c r="F67" s="19" t="e"/>
       <c r="G67" s="19" t="e"/>
       <c r="H67" s="9" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I67" s="10" t="e"/>
       <c r="J67" s="10" t="e"/>
       <c r="K67" s="9" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L67" s="10" t="e"/>
       <c r="M67" s="10" t="e"/>
       <c r="N67" s="9" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="11" customHeight="true">
-      <c r="A68" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="16" t="e"/>
-      <c r="C68" s="16" t="e"/>
-      <c r="D68" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="16" t="e"/>
-      <c r="F68" s="16" t="e"/>
-      <c r="G68" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="I68" s="18" t="e"/>
-      <c r="J68" s="18" t="e"/>
-      <c r="K68" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L68" s="18" t="e"/>
-      <c r="M68" s="18" t="e"/>
-      <c r="N68" s="17" t="n">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="O67" s="20" t="e"/>
+    </row>
+    <row r="68" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A68" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="19" t="e"/>
+      <c r="C68" s="19" t="e"/>
+      <c r="D68" s="19" t="e"/>
+      <c r="E68" s="19" t="e"/>
+      <c r="F68" s="19" t="e"/>
+      <c r="G68" s="19" t="e"/>
+      <c r="H68" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I68" s="10" t="e"/>
+      <c r="J68" s="10" t="e"/>
+      <c r="K68" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L68" s="10" t="e"/>
+      <c r="M68" s="10" t="e"/>
+      <c r="N68" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O68" s="20" t="e"/>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
       <c r="A69" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B69" s="19" t="e"/>
       <c r="C69" s="19" t="e"/>
@@ -2198,22 +2295,23 @@
       <c r="F69" s="19" t="e"/>
       <c r="G69" s="19" t="e"/>
       <c r="H69" s="9" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I69" s="10" t="e"/>
       <c r="J69" s="10" t="e"/>
       <c r="K69" s="9" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="L69" s="10" t="e"/>
       <c r="M69" s="10" t="e"/>
       <c r="N69" s="9" t="n">
-        <v>10</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="O69" s="20" t="e"/>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="19" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B70" s="19" t="e"/>
       <c r="C70" s="19" t="e"/>
@@ -2222,74 +2320,77 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L70" s="10" t="e"/>
       <c r="M70" s="10" t="e"/>
       <c r="N70" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A71" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="19" t="e"/>
-      <c r="C71" s="19" t="e"/>
-      <c r="D71" s="19" t="e"/>
-      <c r="E71" s="19" t="e"/>
-      <c r="F71" s="19" t="e"/>
-      <c r="G71" s="19" t="e"/>
-      <c r="H71" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I71" s="10" t="e"/>
-      <c r="J71" s="10" t="e"/>
-      <c r="K71" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L71" s="10" t="e"/>
-      <c r="M71" s="10" t="e"/>
-      <c r="N71" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true">
-      <c r="A72" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O70" s="20" t="e"/>
+    </row>
+    <row r="71" ht="11" customHeight="true">
+      <c r="A71" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="16" t="e"/>
+      <c r="C71" s="16" t="e"/>
+      <c r="D71" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="16" t="e"/>
-      <c r="C72" s="16" t="e"/>
-      <c r="D72" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="16" t="e"/>
-      <c r="F72" s="16" t="e"/>
-      <c r="G72" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="I72" s="18" t="e"/>
-      <c r="J72" s="18" t="e"/>
-      <c r="K72" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L72" s="18" t="e"/>
-      <c r="M72" s="18" t="e"/>
-      <c r="N72" s="17" t="n">
-        <v>30</v>
-      </c>
+      <c r="E71" s="16" t="e"/>
+      <c r="F71" s="16" t="e"/>
+      <c r="G71" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="I71" s="18" t="e"/>
+      <c r="J71" s="18" t="e"/>
+      <c r="K71" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="L71" s="18" t="e"/>
+      <c r="M71" s="18" t="e"/>
+      <c r="N71" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="O71" s="21" t="e"/>
+    </row>
+    <row r="72" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A72" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="19" t="e"/>
+      <c r="C72" s="19" t="e"/>
+      <c r="D72" s="19" t="e"/>
+      <c r="E72" s="19" t="e"/>
+      <c r="F72" s="19" t="e"/>
+      <c r="G72" s="19" t="e"/>
+      <c r="H72" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I72" s="10" t="e"/>
+      <c r="J72" s="10" t="e"/>
+      <c r="K72" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L72" s="10" t="e"/>
+      <c r="M72" s="10" t="e"/>
+      <c r="N72" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O72" s="20" t="e"/>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
       <c r="A73" s="19" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B73" s="19" t="e"/>
       <c r="C73" s="19" t="e"/>
@@ -2310,10 +2411,11 @@
       <c r="N73" s="9" t="n">
         <v>10</v>
       </c>
+      <c r="O73" s="20" t="e"/>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="A74" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B74" s="19" t="e"/>
       <c r="C74" s="19" t="e"/>
@@ -2322,22 +2424,23 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I74" s="10" t="e"/>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L74" s="10" t="e"/>
       <c r="M74" s="10" t="e"/>
       <c r="N74" s="9" t="n">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O74" s="20" t="e"/>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
       <c r="A75" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B75" s="19" t="e"/>
       <c r="C75" s="19" t="e"/>
@@ -2358,38 +2461,40 @@
       <c r="N75" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" ht="11" customHeight="true">
+      <c r="O75" s="20" t="e"/>
+    </row>
+    <row r="76" ht="22" customHeight="true">
       <c r="A76" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="16" t="e"/>
       <c r="C76" s="16" t="e"/>
       <c r="D76" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E76" s="16" t="e"/>
       <c r="F76" s="16" t="e"/>
       <c r="G76" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H76" s="17" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="I76" s="18" t="e"/>
       <c r="J76" s="18" t="e"/>
       <c r="K76" s="17" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="L76" s="18" t="e"/>
       <c r="M76" s="18" t="e"/>
       <c r="N76" s="17" t="n">
-        <v>96</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="O76" s="21" t="e"/>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2398,22 +2503,23 @@
       <c r="F77" s="19" t="e"/>
       <c r="G77" s="19" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I77" s="10" t="e"/>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="10" t="e"/>
       <c r="N77" s="9" t="n">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O77" s="20" t="e"/>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B78" s="19" t="e"/>
       <c r="C78" s="19" t="e"/>
@@ -2422,22 +2528,23 @@
       <c r="F78" s="19" t="e"/>
       <c r="G78" s="19" t="e"/>
       <c r="H78" s="9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I78" s="10" t="e"/>
       <c r="J78" s="10" t="e"/>
       <c r="K78" s="9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L78" s="10" t="e"/>
       <c r="M78" s="10" t="e"/>
       <c r="N78" s="9" t="n">
-        <v>21</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O78" s="20" t="e"/>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B79" s="19" t="e"/>
       <c r="C79" s="19" t="e"/>
@@ -2446,22 +2553,23 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I79" s="10" t="e"/>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L79" s="10" t="e"/>
       <c r="M79" s="10" t="e"/>
       <c r="N79" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O79" s="20" t="e"/>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
       <c r="A80" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B80" s="19" t="e"/>
       <c r="C80" s="19" t="e"/>
@@ -2470,74 +2578,77 @@
       <c r="F80" s="19" t="e"/>
       <c r="G80" s="19" t="e"/>
       <c r="H80" s="9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I80" s="10" t="e"/>
       <c r="J80" s="10" t="e"/>
       <c r="K80" s="9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L80" s="10" t="e"/>
       <c r="M80" s="10" t="e"/>
       <c r="N80" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A81" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="19" t="e"/>
-      <c r="C81" s="19" t="e"/>
-      <c r="D81" s="19" t="e"/>
-      <c r="E81" s="19" t="e"/>
-      <c r="F81" s="19" t="e"/>
-      <c r="G81" s="19" t="e"/>
-      <c r="H81" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="I81" s="10" t="e"/>
-      <c r="J81" s="10" t="e"/>
-      <c r="K81" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="L81" s="10" t="e"/>
-      <c r="M81" s="10" t="e"/>
-      <c r="N81" s="9" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true">
-      <c r="A82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O80" s="20" t="e"/>
+    </row>
+    <row r="81" ht="11" customHeight="true">
+      <c r="A81" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="16" t="e"/>
+      <c r="C81" s="16" t="e"/>
+      <c r="D81" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="16" t="e"/>
-      <c r="C82" s="16" t="e"/>
-      <c r="D82" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" s="16" t="e"/>
-      <c r="F82" s="16" t="e"/>
-      <c r="G82" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="I82" s="18" t="e"/>
-      <c r="J82" s="18" t="e"/>
-      <c r="K82" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="L82" s="18" t="e"/>
-      <c r="M82" s="18" t="e"/>
-      <c r="N82" s="17" t="n">
-        <v>23</v>
-      </c>
+      <c r="E81" s="16" t="e"/>
+      <c r="F81" s="16" t="e"/>
+      <c r="G81" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="I81" s="18" t="e"/>
+      <c r="J81" s="18" t="e"/>
+      <c r="K81" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="L81" s="18" t="e"/>
+      <c r="M81" s="18" t="e"/>
+      <c r="N81" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="O81" s="21" t="e"/>
+    </row>
+    <row r="82" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A82" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="19" t="e"/>
+      <c r="C82" s="19" t="e"/>
+      <c r="D82" s="19" t="e"/>
+      <c r="E82" s="19" t="e"/>
+      <c r="F82" s="19" t="e"/>
+      <c r="G82" s="19" t="e"/>
+      <c r="H82" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I82" s="10" t="e"/>
+      <c r="J82" s="10" t="e"/>
+      <c r="K82" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="L82" s="10" t="e"/>
+      <c r="M82" s="10" t="e"/>
+      <c r="N82" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="O82" s="20" t="e"/>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2546,50 +2657,48 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L83" s="10" t="e"/>
       <c r="M83" s="10" t="e"/>
       <c r="N83" s="9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true">
-      <c r="A84" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="16" t="e"/>
-      <c r="C84" s="16" t="e"/>
-      <c r="D84" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E84" s="16" t="e"/>
-      <c r="F84" s="16" t="e"/>
-      <c r="G84" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I84" s="18" t="e"/>
-      <c r="J84" s="18" t="e"/>
-      <c r="K84" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="L84" s="18" t="e"/>
-      <c r="M84" s="18" t="e"/>
-      <c r="N84" s="17" t="n">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O83" s="20" t="e"/>
+    </row>
+    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A84" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="19" t="e"/>
+      <c r="C84" s="19" t="e"/>
+      <c r="D84" s="19" t="e"/>
+      <c r="E84" s="19" t="e"/>
+      <c r="F84" s="19" t="e"/>
+      <c r="G84" s="19" t="e"/>
+      <c r="H84" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I84" s="10" t="e"/>
+      <c r="J84" s="10" t="e"/>
+      <c r="K84" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L84" s="10" t="e"/>
+      <c r="M84" s="10" t="e"/>
+      <c r="N84" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O84" s="20" t="e"/>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2610,62 +2719,65 @@
       <c r="N85" s="9" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" ht="11" customHeight="true">
-      <c r="A86" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="16" t="e"/>
-      <c r="C86" s="16" t="e"/>
-      <c r="D86" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="16" t="e"/>
-      <c r="F86" s="16" t="e"/>
-      <c r="G86" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="I86" s="18" t="e"/>
-      <c r="J86" s="18" t="e"/>
-      <c r="K86" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="L86" s="18" t="e"/>
-      <c r="M86" s="18" t="e"/>
-      <c r="N86" s="17" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A87" s="19" t="s">
+      <c r="O85" s="20" t="e"/>
+    </row>
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A86" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="19" t="e"/>
+      <c r="C86" s="19" t="e"/>
+      <c r="D86" s="19" t="e"/>
+      <c r="E86" s="19" t="e"/>
+      <c r="F86" s="19" t="e"/>
+      <c r="G86" s="19" t="e"/>
+      <c r="H86" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="I86" s="10" t="e"/>
+      <c r="J86" s="10" t="e"/>
+      <c r="K86" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L86" s="10" t="e"/>
+      <c r="M86" s="10" t="e"/>
+      <c r="N86" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="O86" s="20" t="e"/>
+    </row>
+    <row r="87" ht="11" customHeight="true">
+      <c r="A87" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="16" t="e"/>
+      <c r="C87" s="16" t="e"/>
+      <c r="D87" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="16" t="e"/>
+      <c r="F87" s="16" t="e"/>
+      <c r="G87" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="19" t="e"/>
-      <c r="C87" s="19" t="e"/>
-      <c r="D87" s="19" t="e"/>
-      <c r="E87" s="19" t="e"/>
-      <c r="F87" s="19" t="e"/>
-      <c r="G87" s="19" t="e"/>
-      <c r="H87" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I87" s="10" t="e"/>
-      <c r="J87" s="10" t="e"/>
-      <c r="K87" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="L87" s="10" t="e"/>
-      <c r="M87" s="10" t="e"/>
-      <c r="N87" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="H87" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="I87" s="18" t="e"/>
+      <c r="J87" s="18" t="e"/>
+      <c r="K87" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="L87" s="18" t="e"/>
+      <c r="M87" s="18" t="e"/>
+      <c r="N87" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="O87" s="21" t="e"/>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2674,50 +2786,52 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L88" s="10" t="e"/>
       <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O88" s="20" t="e"/>
     </row>
     <row r="89" ht="11" customHeight="true">
       <c r="A89" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" s="16" t="e"/>
       <c r="C89" s="16" t="e"/>
       <c r="D89" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E89" s="16" t="e"/>
       <c r="F89" s="16" t="e"/>
       <c r="G89" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H89" s="17" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I89" s="18" t="e"/>
       <c r="J89" s="18" t="e"/>
       <c r="K89" s="17" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="L89" s="18" t="e"/>
       <c r="M89" s="18" t="e"/>
       <c r="N89" s="17" t="n">
-        <v>84</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O89" s="21" t="e"/>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="A90" s="19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B90" s="19" t="e"/>
       <c r="C90" s="19" t="e"/>
@@ -2726,78 +2840,77 @@
       <c r="F90" s="19" t="e"/>
       <c r="G90" s="19" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I90" s="10" t="e"/>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="10" t="e"/>
       <c r="N90" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A91" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" s="19" t="e"/>
-      <c r="C91" s="19" t="e"/>
-      <c r="D91" s="19" t="e"/>
-      <c r="E91" s="19" t="e"/>
-      <c r="F91" s="19" t="e"/>
-      <c r="G91" s="19" t="e"/>
-      <c r="H91" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="I91" s="10" t="e"/>
-      <c r="J91" s="10" t="e"/>
-      <c r="K91" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="L91" s="10" t="e"/>
-      <c r="M91" s="10" t="e"/>
-      <c r="N91" s="9" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true">
-      <c r="A92" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B92" s="16" t="e"/>
-      <c r="C92" s="16" t="e"/>
-      <c r="D92" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E92" s="16" t="e"/>
-      <c r="F92" s="16" t="e"/>
-      <c r="G92" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="I92" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" s="18" t="e"/>
-      <c r="K92" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="L92" s="18" t="e"/>
-      <c r="M92" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" s="17" t="n">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O90" s="20" t="e"/>
+    </row>
+    <row r="91" ht="11" customHeight="true">
+      <c r="A91" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="16" t="e"/>
+      <c r="C91" s="16" t="e"/>
+      <c r="D91" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="16" t="e"/>
+      <c r="F91" s="16" t="e"/>
+      <c r="G91" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I91" s="18" t="e"/>
+      <c r="J91" s="18" t="e"/>
+      <c r="K91" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="L91" s="18" t="e"/>
+      <c r="M91" s="18" t="e"/>
+      <c r="N91" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="O91" s="21" t="e"/>
+    </row>
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A92" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="19" t="e"/>
+      <c r="C92" s="19" t="e"/>
+      <c r="D92" s="19" t="e"/>
+      <c r="E92" s="19" t="e"/>
+      <c r="F92" s="19" t="e"/>
+      <c r="G92" s="19" t="e"/>
+      <c r="H92" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I92" s="10" t="e"/>
+      <c r="J92" s="10" t="e"/>
+      <c r="K92" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L92" s="10" t="e"/>
+      <c r="M92" s="10" t="e"/>
+      <c r="N92" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O92" s="20" t="e"/>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="A93" s="19" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B93" s="19" t="e"/>
       <c r="C93" s="19" t="e"/>
@@ -2818,30 +2931,36 @@
       <c r="N93" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A94" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="19" t="e"/>
-      <c r="C94" s="19" t="e"/>
-      <c r="D94" s="19" t="e"/>
-      <c r="E94" s="19" t="e"/>
-      <c r="F94" s="19" t="e"/>
-      <c r="G94" s="19" t="e"/>
-      <c r="H94" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I94" s="10" t="e"/>
-      <c r="J94" s="10" t="e"/>
-      <c r="K94" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L94" s="10" t="e"/>
-      <c r="M94" s="10" t="e"/>
-      <c r="N94" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="O93" s="20" t="e"/>
+    </row>
+    <row r="94" ht="11" customHeight="true">
+      <c r="A94" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="16" t="e"/>
+      <c r="C94" s="16" t="e"/>
+      <c r="D94" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="16" t="e"/>
+      <c r="F94" s="16" t="e"/>
+      <c r="G94" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" s="17" t="n">
+        <v>84</v>
+      </c>
+      <c r="I94" s="18" t="e"/>
+      <c r="J94" s="18" t="e"/>
+      <c r="K94" s="17" t="n">
+        <v>84</v>
+      </c>
+      <c r="L94" s="18" t="e"/>
+      <c r="M94" s="18" t="e"/>
+      <c r="N94" s="17" t="n">
+        <v>84</v>
+      </c>
+      <c r="O94" s="21" t="e"/>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
@@ -2854,78 +2973,77 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I95" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I95" s="10" t="e"/>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="L95" s="10" t="e"/>
-      <c r="M95" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M95" s="10" t="e"/>
       <c r="N95" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" ht="22" customHeight="true">
-      <c r="A96" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O95" s="20" t="e"/>
+    </row>
+    <row r="96" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A96" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="19" t="e"/>
+      <c r="C96" s="19" t="e"/>
+      <c r="D96" s="19" t="e"/>
+      <c r="E96" s="19" t="e"/>
+      <c r="F96" s="19" t="e"/>
+      <c r="G96" s="19" t="e"/>
+      <c r="H96" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="I96" s="10" t="e"/>
+      <c r="J96" s="10" t="e"/>
+      <c r="K96" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="L96" s="10" t="e"/>
+      <c r="M96" s="10" t="e"/>
+      <c r="N96" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="O96" s="20" t="e"/>
+    </row>
+    <row r="97" ht="11" customHeight="true">
+      <c r="A97" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="16" t="e"/>
+      <c r="C97" s="16" t="e"/>
+      <c r="D97" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B96" s="16" t="e"/>
-      <c r="C96" s="16" t="e"/>
-      <c r="D96" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E96" s="16" t="e"/>
-      <c r="F96" s="16" t="e"/>
-      <c r="G96" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="I96" s="18" t="e"/>
-      <c r="J96" s="18" t="e"/>
-      <c r="K96" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L96" s="18" t="e"/>
-      <c r="M96" s="18" t="e"/>
-      <c r="N96" s="17" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A97" s="19" t="s">
+      <c r="E97" s="16" t="e"/>
+      <c r="F97" s="16" t="e"/>
+      <c r="G97" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="19" t="e"/>
-      <c r="C97" s="19" t="e"/>
-      <c r="D97" s="19" t="e"/>
-      <c r="E97" s="19" t="e"/>
-      <c r="F97" s="19" t="e"/>
-      <c r="G97" s="19" t="e"/>
-      <c r="H97" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I97" s="10" t="e"/>
-      <c r="J97" s="10" t="e"/>
-      <c r="K97" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L97" s="10" t="e"/>
-      <c r="M97" s="10" t="e"/>
-      <c r="N97" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="H97" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="I97" s="18" t="e"/>
+      <c r="J97" s="18" t="e"/>
+      <c r="K97" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="L97" s="18" t="e"/>
+      <c r="M97" s="18" t="e"/>
+      <c r="N97" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="O97" s="21" t="e"/>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B98" s="19" t="e"/>
       <c r="C98" s="19" t="e"/>
@@ -2946,10 +3064,11 @@
       <c r="N98" s="9" t="n">
         <v>10</v>
       </c>
+      <c r="O98" s="20" t="e"/>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -2970,38 +3089,36 @@
       <c r="N99" s="9" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" ht="22" customHeight="true">
-      <c r="A100" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B100" s="16" t="e"/>
-      <c r="C100" s="16" t="e"/>
-      <c r="D100" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E100" s="16" t="e"/>
-      <c r="F100" s="16" t="e"/>
-      <c r="G100" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H100" s="17" t="n">
-        <v>124</v>
-      </c>
-      <c r="I100" s="18" t="e"/>
-      <c r="J100" s="18" t="e"/>
-      <c r="K100" s="17" t="n">
-        <v>124</v>
-      </c>
-      <c r="L100" s="18" t="e"/>
-      <c r="M100" s="18" t="e"/>
-      <c r="N100" s="17" t="n">
-        <v>124</v>
-      </c>
+      <c r="O99" s="20" t="e"/>
+    </row>
+    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A100" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="19" t="e"/>
+      <c r="C100" s="19" t="e"/>
+      <c r="D100" s="19" t="e"/>
+      <c r="E100" s="19" t="e"/>
+      <c r="F100" s="19" t="e"/>
+      <c r="G100" s="19" t="e"/>
+      <c r="H100" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" s="10" t="e"/>
+      <c r="J100" s="10" t="e"/>
+      <c r="K100" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L100" s="10" t="e"/>
+      <c r="M100" s="10" t="e"/>
+      <c r="N100" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O100" s="20" t="e"/>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
       <c r="A101" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B101" s="19" t="e"/>
       <c r="C101" s="19" t="e"/>
@@ -3010,42 +3127,48 @@
       <c r="F101" s="19" t="e"/>
       <c r="G101" s="19" t="e"/>
       <c r="H101" s="9" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I101" s="10" t="e"/>
       <c r="J101" s="10" t="e"/>
       <c r="K101" s="9" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L101" s="10" t="e"/>
       <c r="M101" s="10" t="e"/>
       <c r="N101" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A102" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" s="19" t="e"/>
-      <c r="C102" s="19" t="e"/>
-      <c r="D102" s="19" t="e"/>
-      <c r="E102" s="19" t="e"/>
-      <c r="F102" s="19" t="e"/>
-      <c r="G102" s="19" t="e"/>
-      <c r="H102" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I102" s="10" t="e"/>
-      <c r="J102" s="10" t="e"/>
-      <c r="K102" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L102" s="10" t="e"/>
-      <c r="M102" s="10" t="e"/>
-      <c r="N102" s="9" t="n">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O101" s="20" t="e"/>
+    </row>
+    <row r="102" ht="22" customHeight="true">
+      <c r="A102" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="16" t="e"/>
+      <c r="C102" s="16" t="e"/>
+      <c r="D102" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" s="16" t="e"/>
+      <c r="F102" s="16" t="e"/>
+      <c r="G102" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="I102" s="18" t="e"/>
+      <c r="J102" s="18" t="e"/>
+      <c r="K102" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="L102" s="18" t="e"/>
+      <c r="M102" s="18" t="e"/>
+      <c r="N102" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="O102" s="21" t="e"/>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="A103" s="19" t="s">
@@ -3058,22 +3181,23 @@
       <c r="F103" s="19" t="e"/>
       <c r="G103" s="19" t="e"/>
       <c r="H103" s="9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I103" s="10" t="e"/>
       <c r="J103" s="10" t="e"/>
       <c r="K103" s="9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L103" s="10" t="e"/>
       <c r="M103" s="10" t="e"/>
       <c r="N103" s="9" t="n">
-        <v>17</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O103" s="20" t="e"/>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="A104" s="19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B104" s="19" t="e"/>
       <c r="C104" s="19" t="e"/>
@@ -3082,18 +3206,19 @@
       <c r="F104" s="19" t="e"/>
       <c r="G104" s="19" t="e"/>
       <c r="H104" s="9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I104" s="10" t="e"/>
       <c r="J104" s="10" t="e"/>
       <c r="K104" s="9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L104" s="10" t="e"/>
       <c r="M104" s="10" t="e"/>
       <c r="N104" s="9" t="n">
-        <v>50</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O104" s="20" t="e"/>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
@@ -3106,74 +3231,77 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I105" s="10" t="e"/>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L105" s="10" t="e"/>
       <c r="M105" s="10" t="e"/>
       <c r="N105" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" ht="11" customHeight="true">
-      <c r="A106" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O105" s="20" t="e"/>
+    </row>
+    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A106" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="19" t="e"/>
+      <c r="C106" s="19" t="e"/>
+      <c r="D106" s="19" t="e"/>
+      <c r="E106" s="19" t="e"/>
+      <c r="F106" s="19" t="e"/>
+      <c r="G106" s="19" t="e"/>
+      <c r="H106" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I106" s="10" t="e"/>
+      <c r="J106" s="10" t="e"/>
+      <c r="K106" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L106" s="10" t="e"/>
+      <c r="M106" s="10" t="e"/>
+      <c r="N106" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O106" s="20" t="e"/>
+    </row>
+    <row r="107" ht="22" customHeight="true">
+      <c r="A107" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" s="16" t="e"/>
+      <c r="C107" s="16" t="e"/>
+      <c r="D107" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B106" s="16" t="e"/>
-      <c r="C106" s="16" t="e"/>
-      <c r="D106" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E106" s="16" t="e"/>
-      <c r="F106" s="16" t="e"/>
-      <c r="G106" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H106" s="17" t="n">
-        <v>97</v>
-      </c>
-      <c r="I106" s="18" t="e"/>
-      <c r="J106" s="18" t="e"/>
-      <c r="K106" s="17" t="n">
-        <v>97</v>
-      </c>
-      <c r="L106" s="18" t="e"/>
-      <c r="M106" s="18" t="e"/>
-      <c r="N106" s="17" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A107" s="19" t="s">
+      <c r="E107" s="16" t="e"/>
+      <c r="F107" s="16" t="e"/>
+      <c r="G107" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="19" t="e"/>
-      <c r="C107" s="19" t="e"/>
-      <c r="D107" s="19" t="e"/>
-      <c r="E107" s="19" t="e"/>
-      <c r="F107" s="19" t="e"/>
-      <c r="G107" s="19" t="e"/>
-      <c r="H107" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I107" s="10" t="e"/>
-      <c r="J107" s="10" t="e"/>
-      <c r="K107" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L107" s="10" t="e"/>
-      <c r="M107" s="10" t="e"/>
-      <c r="N107" s="9" t="n">
-        <v>25</v>
-      </c>
+      <c r="H107" s="17" t="n">
+        <v>106</v>
+      </c>
+      <c r="I107" s="18" t="e"/>
+      <c r="J107" s="18" t="e"/>
+      <c r="K107" s="17" t="n">
+        <v>106</v>
+      </c>
+      <c r="L107" s="18" t="e"/>
+      <c r="M107" s="18" t="e"/>
+      <c r="N107" s="17" t="n">
+        <v>106</v>
+      </c>
+      <c r="O107" s="21" t="e"/>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B108" s="19" t="e"/>
       <c r="C108" s="19" t="e"/>
@@ -3182,22 +3310,23 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I108" s="10" t="e"/>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L108" s="10" t="e"/>
       <c r="M108" s="10" t="e"/>
       <c r="N108" s="9" t="n">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O108" s="20" t="e"/>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="A109" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B109" s="19" t="e"/>
       <c r="C109" s="19" t="e"/>
@@ -3206,18 +3335,19 @@
       <c r="F109" s="19" t="e"/>
       <c r="G109" s="19" t="e"/>
       <c r="H109" s="9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I109" s="10" t="e"/>
       <c r="J109" s="10" t="e"/>
       <c r="K109" s="9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L109" s="10" t="e"/>
       <c r="M109" s="10" t="e"/>
       <c r="N109" s="9" t="n">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O109" s="20" t="e"/>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
@@ -3230,18 +3360,19 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I110" s="10" t="e"/>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L110" s="10" t="e"/>
       <c r="M110" s="10" t="e"/>
       <c r="N110" s="9" t="n">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O110" s="20" t="e"/>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="A111" s="19" t="s">
@@ -3254,74 +3385,77 @@
       <c r="F111" s="19" t="e"/>
       <c r="G111" s="19" t="e"/>
       <c r="H111" s="9" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I111" s="10" t="e"/>
       <c r="J111" s="10" t="e"/>
       <c r="K111" s="9" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L111" s="10" t="e"/>
       <c r="M111" s="10" t="e"/>
       <c r="N111" s="9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true">
-      <c r="A112" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O111" s="20" t="e"/>
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A112" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" s="19" t="e"/>
+      <c r="C112" s="19" t="e"/>
+      <c r="D112" s="19" t="e"/>
+      <c r="E112" s="19" t="e"/>
+      <c r="F112" s="19" t="e"/>
+      <c r="G112" s="19" t="e"/>
+      <c r="H112" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I112" s="10" t="e"/>
+      <c r="J112" s="10" t="e"/>
+      <c r="K112" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L112" s="10" t="e"/>
+      <c r="M112" s="10" t="e"/>
+      <c r="N112" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O112" s="20" t="e"/>
+    </row>
+    <row r="113" ht="11" customHeight="true">
+      <c r="A113" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" s="16" t="e"/>
+      <c r="C113" s="16" t="e"/>
+      <c r="D113" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B112" s="16" t="e"/>
-      <c r="C112" s="16" t="e"/>
-      <c r="D112" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E112" s="16" t="e"/>
-      <c r="F112" s="16" t="e"/>
-      <c r="G112" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H112" s="17" t="n">
-        <v>111</v>
-      </c>
-      <c r="I112" s="18" t="e"/>
-      <c r="J112" s="18" t="e"/>
-      <c r="K112" s="17" t="n">
-        <v>111</v>
-      </c>
-      <c r="L112" s="18" t="e"/>
-      <c r="M112" s="18" t="e"/>
-      <c r="N112" s="17" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A113" s="19" t="s">
+      <c r="E113" s="16" t="e"/>
+      <c r="F113" s="16" t="e"/>
+      <c r="G113" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="19" t="e"/>
-      <c r="C113" s="19" t="e"/>
-      <c r="D113" s="19" t="e"/>
-      <c r="E113" s="19" t="e"/>
-      <c r="F113" s="19" t="e"/>
-      <c r="G113" s="19" t="e"/>
-      <c r="H113" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I113" s="10" t="e"/>
-      <c r="J113" s="10" t="e"/>
-      <c r="K113" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="L113" s="10" t="e"/>
-      <c r="M113" s="10" t="e"/>
-      <c r="N113" s="9" t="n">
-        <v>23</v>
-      </c>
+      <c r="H113" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="I113" s="18" t="e"/>
+      <c r="J113" s="18" t="e"/>
+      <c r="K113" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="L113" s="18" t="e"/>
+      <c r="M113" s="18" t="e"/>
+      <c r="N113" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="O113" s="21" t="e"/>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3330,22 +3464,23 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I114" s="10" t="e"/>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="L114" s="10" t="e"/>
       <c r="M114" s="10" t="e"/>
       <c r="N114" s="9" t="n">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O114" s="20" t="e"/>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="A115" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B115" s="19" t="e"/>
       <c r="C115" s="19" t="e"/>
@@ -3354,18 +3489,19 @@
       <c r="F115" s="19" t="e"/>
       <c r="G115" s="19" t="e"/>
       <c r="H115" s="9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I115" s="10" t="e"/>
       <c r="J115" s="10" t="e"/>
       <c r="K115" s="9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L115" s="10" t="e"/>
       <c r="M115" s="10" t="e"/>
       <c r="N115" s="9" t="n">
-        <v>15</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O115" s="20" t="e"/>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
@@ -3378,18 +3514,19 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I116" s="10" t="e"/>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L116" s="10" t="e"/>
       <c r="M116" s="10" t="e"/>
       <c r="N116" s="9" t="n">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O116" s="20" t="e"/>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="A117" s="19" t="s">
@@ -3402,78 +3539,77 @@
       <c r="F117" s="19" t="e"/>
       <c r="G117" s="19" t="e"/>
       <c r="H117" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I117" s="10" t="e"/>
       <c r="J117" s="10" t="e"/>
       <c r="K117" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L117" s="10" t="e"/>
       <c r="M117" s="10" t="e"/>
       <c r="N117" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O117" s="20" t="e"/>
+    </row>
+    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A118" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="19" t="e"/>
+      <c r="C118" s="19" t="e"/>
+      <c r="D118" s="19" t="e"/>
+      <c r="E118" s="19" t="e"/>
+      <c r="F118" s="19" t="e"/>
+      <c r="G118" s="19" t="e"/>
+      <c r="H118" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I118" s="10" t="e"/>
+      <c r="J118" s="10" t="e"/>
+      <c r="K118" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L118" s="10" t="e"/>
+      <c r="M118" s="10" t="e"/>
+      <c r="N118" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O118" s="20" t="e"/>
+    </row>
+    <row r="119" ht="11" customHeight="true">
+      <c r="A119" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119" s="16" t="e"/>
+      <c r="C119" s="16" t="e"/>
+      <c r="D119" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E119" s="16" t="e"/>
+      <c r="F119" s="16" t="e"/>
+      <c r="G119" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" ht="22" customHeight="true">
-      <c r="A118" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B118" s="16" t="e"/>
-      <c r="C118" s="16" t="e"/>
-      <c r="D118" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E118" s="16" t="e"/>
-      <c r="F118" s="16" t="e"/>
-      <c r="G118" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H118" s="17" t="n">
-        <v>128</v>
-      </c>
-      <c r="I118" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" s="18" t="e"/>
-      <c r="K118" s="17" t="n">
-        <v>127</v>
-      </c>
-      <c r="L118" s="18" t="e"/>
-      <c r="M118" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" s="17" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A119" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" s="19" t="e"/>
-      <c r="C119" s="19" t="e"/>
-      <c r="D119" s="19" t="e"/>
-      <c r="E119" s="19" t="e"/>
-      <c r="F119" s="19" t="e"/>
-      <c r="G119" s="19" t="e"/>
-      <c r="H119" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I119" s="10" t="e"/>
-      <c r="J119" s="10" t="e"/>
-      <c r="K119" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="L119" s="10" t="e"/>
-      <c r="M119" s="10" t="e"/>
-      <c r="N119" s="9" t="n">
-        <v>26</v>
-      </c>
+      <c r="H119" s="17" t="n">
+        <v>98</v>
+      </c>
+      <c r="I119" s="18" t="e"/>
+      <c r="J119" s="18" t="e"/>
+      <c r="K119" s="17" t="n">
+        <v>98</v>
+      </c>
+      <c r="L119" s="18" t="e"/>
+      <c r="M119" s="18" t="e"/>
+      <c r="N119" s="17" t="n">
+        <v>98</v>
+      </c>
+      <c r="O119" s="21" t="e"/>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3482,26 +3618,23 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I120" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I120" s="10" t="e"/>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L120" s="10" t="e"/>
-      <c r="M120" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M120" s="10" t="e"/>
       <c r="N120" s="9" t="n">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O120" s="20" t="e"/>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3510,18 +3643,19 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I121" s="10" t="e"/>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L121" s="10" t="e"/>
       <c r="M121" s="10" t="e"/>
       <c r="N121" s="9" t="n">
-        <v>15</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="O121" s="20" t="e"/>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="19" t="s">
@@ -3534,22 +3668,23 @@
       <c r="F122" s="19" t="e"/>
       <c r="G122" s="19" t="e"/>
       <c r="H122" s="9" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I122" s="10" t="e"/>
       <c r="J122" s="10" t="e"/>
       <c r="K122" s="9" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L122" s="10" t="e"/>
       <c r="M122" s="10" t="e"/>
       <c r="N122" s="9" t="n">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O122" s="20" t="e"/>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="A123" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B123" s="19" t="e"/>
       <c r="C123" s="19" t="e"/>
@@ -3558,54 +3693,56 @@
       <c r="F123" s="19" t="e"/>
       <c r="G123" s="19" t="e"/>
       <c r="H123" s="9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I123" s="10" t="e"/>
       <c r="J123" s="10" t="e"/>
       <c r="K123" s="9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L123" s="10" t="e"/>
       <c r="M123" s="10" t="e"/>
       <c r="N123" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true">
+        <v>25</v>
+      </c>
+      <c r="O123" s="20" t="e"/>
+    </row>
+    <row r="124" ht="22" customHeight="true">
       <c r="A124" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124" s="16" t="e"/>
       <c r="C124" s="16" t="e"/>
       <c r="D124" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E124" s="16" t="e"/>
       <c r="F124" s="16" t="e"/>
       <c r="G124" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H124" s="17" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I124" s="17" t="n">
         <v>1</v>
       </c>
       <c r="J124" s="18" t="e"/>
       <c r="K124" s="17" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L124" s="18" t="e"/>
       <c r="M124" s="17" t="n">
         <v>1</v>
       </c>
       <c r="N124" s="17" t="n">
-        <v>101</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O124" s="21" t="e"/>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B125" s="19" t="e"/>
       <c r="C125" s="19" t="e"/>
@@ -3614,22 +3751,23 @@
       <c r="F125" s="19" t="e"/>
       <c r="G125" s="19" t="e"/>
       <c r="H125" s="9" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I125" s="10" t="e"/>
       <c r="J125" s="10" t="e"/>
       <c r="K125" s="9" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L125" s="10" t="e"/>
       <c r="M125" s="10" t="e"/>
       <c r="N125" s="9" t="n">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O125" s="20" t="e"/>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3638,26 +3776,27 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I126" s="9" t="n">
         <v>1</v>
       </c>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L126" s="10" t="e"/>
       <c r="M126" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N126" s="9" t="n">
-        <v>22</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="O126" s="20" t="e"/>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="A127" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B127" s="19" t="e"/>
       <c r="C127" s="19" t="e"/>
@@ -3666,22 +3805,23 @@
       <c r="F127" s="19" t="e"/>
       <c r="G127" s="19" t="e"/>
       <c r="H127" s="9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I127" s="10" t="e"/>
       <c r="J127" s="10" t="e"/>
       <c r="K127" s="9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L127" s="10" t="e"/>
       <c r="M127" s="10" t="e"/>
       <c r="N127" s="9" t="n">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O127" s="20" t="e"/>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="A128" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B128" s="19" t="e"/>
       <c r="C128" s="19" t="e"/>
@@ -3690,78 +3830,85 @@
       <c r="F128" s="19" t="e"/>
       <c r="G128" s="19" t="e"/>
       <c r="H128" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I128" s="10" t="e"/>
       <c r="J128" s="10" t="e"/>
       <c r="K128" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L128" s="10" t="e"/>
       <c r="M128" s="10" t="e"/>
       <c r="N128" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A129" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B129" s="19" t="e"/>
-      <c r="C129" s="19" t="e"/>
-      <c r="D129" s="19" t="e"/>
-      <c r="E129" s="19" t="e"/>
-      <c r="F129" s="19" t="e"/>
-      <c r="G129" s="19" t="e"/>
-      <c r="H129" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="I129" s="10" t="e"/>
-      <c r="J129" s="10" t="e"/>
-      <c r="K129" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="L129" s="10" t="e"/>
-      <c r="M129" s="10" t="e"/>
-      <c r="N129" s="9" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" ht="11" customHeight="true">
-      <c r="A130" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O128" s="20" t="e"/>
+    </row>
+    <row r="129" ht="11" customHeight="true">
+      <c r="A129" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129" s="16" t="e"/>
+      <c r="C129" s="16" t="e"/>
+      <c r="D129" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B130" s="16" t="e"/>
-      <c r="C130" s="16" t="e"/>
-      <c r="D130" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E130" s="16" t="e"/>
-      <c r="F130" s="16" t="e"/>
-      <c r="G130" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H130" s="17" t="n">
-        <v>107</v>
-      </c>
-      <c r="I130" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J130" s="18" t="e"/>
-      <c r="K130" s="17" t="n">
-        <v>103</v>
-      </c>
-      <c r="L130" s="18" t="e"/>
-      <c r="M130" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N130" s="17" t="n">
-        <v>103</v>
-      </c>
+      <c r="E129" s="16" t="e"/>
+      <c r="F129" s="16" t="e"/>
+      <c r="G129" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" s="17" t="n">
+        <v>92</v>
+      </c>
+      <c r="I129" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" s="18" t="e"/>
+      <c r="K129" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="L129" s="18" t="e"/>
+      <c r="M129" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N129" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="O129" s="21" t="e"/>
+    </row>
+    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A130" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="19" t="e"/>
+      <c r="C130" s="19" t="e"/>
+      <c r="D130" s="19" t="e"/>
+      <c r="E130" s="19" t="e"/>
+      <c r="F130" s="19" t="e"/>
+      <c r="G130" s="19" t="e"/>
+      <c r="H130" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I130" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" s="10" t="e"/>
+      <c r="K130" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="L130" s="10" t="e"/>
+      <c r="M130" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O130" s="20" t="e"/>
     </row>
     <row r="131" ht="11" customHeight="true" outlineLevel="1">
       <c r="A131" s="19" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B131" s="19" t="e"/>
       <c r="C131" s="19" t="e"/>
@@ -3770,26 +3917,23 @@
       <c r="F131" s="19" t="e"/>
       <c r="G131" s="19" t="e"/>
       <c r="H131" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I131" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I131" s="10" t="e"/>
       <c r="J131" s="10" t="e"/>
       <c r="K131" s="9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L131" s="10" t="e"/>
-      <c r="M131" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M131" s="10" t="e"/>
       <c r="N131" s="9" t="n">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O131" s="20" t="e"/>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="A132" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B132" s="19" t="e"/>
       <c r="C132" s="19" t="e"/>
@@ -3798,26 +3942,23 @@
       <c r="F132" s="19" t="e"/>
       <c r="G132" s="19" t="e"/>
       <c r="H132" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I132" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I132" s="10" t="e"/>
       <c r="J132" s="10" t="e"/>
       <c r="K132" s="9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L132" s="10" t="e"/>
-      <c r="M132" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M132" s="10" t="e"/>
       <c r="N132" s="9" t="n">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O132" s="20" t="e"/>
     </row>
     <row r="133" ht="11" customHeight="true" outlineLevel="1">
       <c r="A133" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B133" s="19" t="e"/>
       <c r="C133" s="19" t="e"/>
@@ -3826,22 +3967,23 @@
       <c r="F133" s="19" t="e"/>
       <c r="G133" s="19" t="e"/>
       <c r="H133" s="9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I133" s="10" t="e"/>
       <c r="J133" s="10" t="e"/>
       <c r="K133" s="9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L133" s="10" t="e"/>
       <c r="M133" s="10" t="e"/>
       <c r="N133" s="9" t="n">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O133" s="20" t="e"/>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="A134" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B134" s="19" t="e"/>
       <c r="C134" s="19" t="e"/>
@@ -3850,82 +3992,77 @@
       <c r="F134" s="19" t="e"/>
       <c r="G134" s="19" t="e"/>
       <c r="H134" s="9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I134" s="10" t="e"/>
       <c r="J134" s="10" t="e"/>
       <c r="K134" s="9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L134" s="10" t="e"/>
       <c r="M134" s="10" t="e"/>
       <c r="N134" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A135" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B135" s="19" t="e"/>
-      <c r="C135" s="19" t="e"/>
-      <c r="D135" s="19" t="e"/>
-      <c r="E135" s="19" t="e"/>
-      <c r="F135" s="19" t="e"/>
-      <c r="G135" s="19" t="e"/>
-      <c r="H135" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="O134" s="20" t="e"/>
+    </row>
+    <row r="135" ht="11" customHeight="true">
+      <c r="A135" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" s="16" t="e"/>
+      <c r="C135" s="16" t="e"/>
+      <c r="D135" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E135" s="16" t="e"/>
+      <c r="F135" s="16" t="e"/>
+      <c r="G135" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H135" s="17" t="n">
+        <v>86</v>
+      </c>
+      <c r="I135" s="18" t="e"/>
+      <c r="J135" s="18" t="e"/>
+      <c r="K135" s="17" t="n">
+        <v>86</v>
+      </c>
+      <c r="L135" s="18" t="e"/>
+      <c r="M135" s="18" t="e"/>
+      <c r="N135" s="17" t="n">
+        <v>86</v>
+      </c>
+      <c r="O135" s="21" t="e"/>
+    </row>
+    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A136" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" s="19" t="e"/>
+      <c r="C136" s="19" t="e"/>
+      <c r="D136" s="19" t="e"/>
+      <c r="E136" s="19" t="e"/>
+      <c r="F136" s="19" t="e"/>
+      <c r="G136" s="19" t="e"/>
+      <c r="H136" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="I135" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" s="10" t="e"/>
-      <c r="K135" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L135" s="10" t="e"/>
-      <c r="M135" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true">
-      <c r="A136" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B136" s="16" t="e"/>
-      <c r="C136" s="16" t="e"/>
-      <c r="D136" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E136" s="16" t="e"/>
-      <c r="F136" s="16" t="e"/>
-      <c r="G136" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H136" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="I136" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J136" s="18" t="e"/>
-      <c r="K136" s="17" t="n">
-        <v>86</v>
-      </c>
-      <c r="L136" s="18" t="e"/>
-      <c r="M136" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N136" s="17" t="n">
-        <v>86</v>
-      </c>
+      <c r="I136" s="10" t="e"/>
+      <c r="J136" s="10" t="e"/>
+      <c r="K136" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L136" s="10" t="e"/>
+      <c r="M136" s="10" t="e"/>
+      <c r="N136" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="O136" s="20" t="e"/>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="A137" s="19" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B137" s="19" t="e"/>
       <c r="C137" s="19" t="e"/>
@@ -3934,26 +4071,23 @@
       <c r="F137" s="19" t="e"/>
       <c r="G137" s="19" t="e"/>
       <c r="H137" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I137" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I137" s="10" t="e"/>
       <c r="J137" s="10" t="e"/>
       <c r="K137" s="9" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L137" s="10" t="e"/>
-      <c r="M137" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M137" s="10" t="e"/>
       <c r="N137" s="9" t="n">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O137" s="20" t="e"/>
     </row>
     <row r="138" ht="11" customHeight="true" outlineLevel="1">
       <c r="A138" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B138" s="19" t="e"/>
       <c r="C138" s="19" t="e"/>
@@ -3962,26 +4096,23 @@
       <c r="F138" s="19" t="e"/>
       <c r="G138" s="19" t="e"/>
       <c r="H138" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="I138" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I138" s="10" t="e"/>
       <c r="J138" s="10" t="e"/>
       <c r="K138" s="9" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="L138" s="10" t="e"/>
-      <c r="M138" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M138" s="10" t="e"/>
       <c r="N138" s="9" t="n">
-        <v>23</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O138" s="20" t="e"/>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="A139" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B139" s="19" t="e"/>
       <c r="C139" s="19" t="e"/>
@@ -3990,22 +4121,23 @@
       <c r="F139" s="19" t="e"/>
       <c r="G139" s="19" t="e"/>
       <c r="H139" s="9" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I139" s="10" t="e"/>
       <c r="J139" s="10" t="e"/>
       <c r="K139" s="9" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L139" s="10" t="e"/>
       <c r="M139" s="10" t="e"/>
       <c r="N139" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O139" s="20" t="e"/>
     </row>
     <row r="140" ht="11" customHeight="true" outlineLevel="1">
       <c r="A140" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B140" s="19" t="e"/>
       <c r="C140" s="19" t="e"/>
@@ -4014,78 +4146,85 @@
       <c r="F140" s="19" t="e"/>
       <c r="G140" s="19" t="e"/>
       <c r="H140" s="9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I140" s="10" t="e"/>
       <c r="J140" s="10" t="e"/>
       <c r="K140" s="9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L140" s="10" t="e"/>
       <c r="M140" s="10" t="e"/>
       <c r="N140" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A141" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O140" s="20" t="e"/>
+    </row>
+    <row r="141" ht="11" customHeight="true">
+      <c r="A141" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141" s="16" t="e"/>
+      <c r="C141" s="16" t="e"/>
+      <c r="D141" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E141" s="16" t="e"/>
+      <c r="F141" s="16" t="e"/>
+      <c r="G141" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="I141" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" s="18" t="e"/>
+      <c r="K141" s="17" t="n">
+        <v>91</v>
+      </c>
+      <c r="L141" s="18" t="e"/>
+      <c r="M141" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N141" s="17" t="n">
+        <v>91</v>
+      </c>
+      <c r="O141" s="21" t="e"/>
+    </row>
+    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A142" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="19" t="e"/>
+      <c r="C142" s="19" t="e"/>
+      <c r="D142" s="19" t="e"/>
+      <c r="E142" s="19" t="e"/>
+      <c r="F142" s="19" t="e"/>
+      <c r="G142" s="19" t="e"/>
+      <c r="H142" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="I142" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" s="10" t="e"/>
+      <c r="K142" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B141" s="19" t="e"/>
-      <c r="C141" s="19" t="e"/>
-      <c r="D141" s="19" t="e"/>
-      <c r="E141" s="19" t="e"/>
-      <c r="F141" s="19" t="e"/>
-      <c r="G141" s="19" t="e"/>
-      <c r="H141" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I141" s="10" t="e"/>
-      <c r="J141" s="10" t="e"/>
-      <c r="K141" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L141" s="10" t="e"/>
-      <c r="M141" s="10" t="e"/>
-      <c r="N141" s="9" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" ht="11" customHeight="true">
-      <c r="A142" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B142" s="16" t="e"/>
-      <c r="C142" s="16" t="e"/>
-      <c r="D142" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E142" s="16" t="e"/>
-      <c r="F142" s="16" t="e"/>
-      <c r="G142" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H142" s="17" t="n">
-        <v>83</v>
-      </c>
-      <c r="I142" s="17" t="n">
+      <c r="L142" s="10" t="e"/>
+      <c r="M142" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="J142" s="18" t="e"/>
-      <c r="K142" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="L142" s="18" t="e"/>
-      <c r="M142" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N142" s="17" t="n">
-        <v>80</v>
-      </c>
+      <c r="N142" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="O142" s="20" t="e"/>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="1">
       <c r="A143" s="19" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B143" s="19" t="e"/>
       <c r="C143" s="19" t="e"/>
@@ -4094,26 +4233,23 @@
       <c r="F143" s="19" t="e"/>
       <c r="G143" s="19" t="e"/>
       <c r="H143" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I143" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I143" s="10" t="e"/>
       <c r="J143" s="10" t="e"/>
       <c r="K143" s="9" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L143" s="10" t="e"/>
-      <c r="M143" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M143" s="10" t="e"/>
       <c r="N143" s="9" t="n">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="O143" s="20" t="e"/>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="1">
       <c r="A144" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B144" s="19" t="e"/>
       <c r="C144" s="19" t="e"/>
@@ -4122,26 +4258,23 @@
       <c r="F144" s="19" t="e"/>
       <c r="G144" s="19" t="e"/>
       <c r="H144" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I144" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I144" s="10" t="e"/>
       <c r="J144" s="10" t="e"/>
       <c r="K144" s="9" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L144" s="10" t="e"/>
-      <c r="M144" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M144" s="10" t="e"/>
       <c r="N144" s="9" t="n">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O144" s="20" t="e"/>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="A145" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B145" s="19" t="e"/>
       <c r="C145" s="19" t="e"/>
@@ -4150,46 +4283,56 @@
       <c r="F145" s="19" t="e"/>
       <c r="G145" s="19" t="e"/>
       <c r="H145" s="9" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I145" s="10" t="e"/>
       <c r="J145" s="10" t="e"/>
       <c r="K145" s="9" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L145" s="10" t="e"/>
       <c r="M145" s="10" t="e"/>
       <c r="N145" s="9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A146" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" s="19" t="e"/>
-      <c r="C146" s="19" t="e"/>
-      <c r="D146" s="19" t="e"/>
-      <c r="E146" s="19" t="e"/>
-      <c r="F146" s="19" t="e"/>
-      <c r="G146" s="19" t="e"/>
-      <c r="H146" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I146" s="10" t="e"/>
-      <c r="J146" s="10" t="e"/>
-      <c r="K146" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L146" s="10" t="e"/>
-      <c r="M146" s="10" t="e"/>
-      <c r="N146" s="9" t="n">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="O145" s="20" t="e"/>
+    </row>
+    <row r="146" ht="11" customHeight="true">
+      <c r="A146" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" s="16" t="e"/>
+      <c r="C146" s="16" t="e"/>
+      <c r="D146" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E146" s="16" t="e"/>
+      <c r="F146" s="16" t="e"/>
+      <c r="G146" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="I146" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" s="18" t="e"/>
+      <c r="K146" s="17" t="n">
+        <v>58</v>
+      </c>
+      <c r="L146" s="18" t="e"/>
+      <c r="M146" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" s="17" t="n">
+        <v>58</v>
+      </c>
+      <c r="O146" s="21" t="e"/>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="A147" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B147" s="19" t="e"/>
       <c r="C147" s="19" t="e"/>
@@ -4198,54 +4341,52 @@
       <c r="F147" s="19" t="e"/>
       <c r="G147" s="19" t="e"/>
       <c r="H147" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="I147" s="10" t="e"/>
+        <v>19</v>
+      </c>
+      <c r="I147" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J147" s="10" t="e"/>
       <c r="K147" s="9" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L147" s="10" t="e"/>
-      <c r="M147" s="10" t="e"/>
+      <c r="M147" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N147" s="9" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" ht="11" customHeight="true">
-      <c r="A148" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B148" s="16" t="e"/>
-      <c r="C148" s="16" t="e"/>
-      <c r="D148" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E148" s="16" t="e"/>
-      <c r="F148" s="16" t="e"/>
-      <c r="G148" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H148" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="I148" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J148" s="18" t="e"/>
-      <c r="K148" s="17" t="n">
-        <v>90</v>
-      </c>
-      <c r="L148" s="18" t="e"/>
-      <c r="M148" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N148" s="17" t="n">
-        <v>90</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O147" s="20" t="e"/>
+    </row>
+    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A148" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="19" t="e"/>
+      <c r="C148" s="19" t="e"/>
+      <c r="D148" s="19" t="e"/>
+      <c r="E148" s="19" t="e"/>
+      <c r="F148" s="19" t="e"/>
+      <c r="G148" s="19" t="e"/>
+      <c r="H148" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="I148" s="10" t="e"/>
+      <c r="J148" s="10" t="e"/>
+      <c r="K148" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="L148" s="10" t="e"/>
+      <c r="M148" s="10" t="e"/>
+      <c r="N148" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O148" s="20" t="e"/>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="A149" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B149" s="19" t="e"/>
       <c r="C149" s="19" t="e"/>
@@ -4254,26 +4395,23 @@
       <c r="F149" s="19" t="e"/>
       <c r="G149" s="19" t="e"/>
       <c r="H149" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I149" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I149" s="10" t="e"/>
       <c r="J149" s="10" t="e"/>
       <c r="K149" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L149" s="10" t="e"/>
-      <c r="M149" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M149" s="10" t="e"/>
       <c r="N149" s="9" t="n">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O149" s="20" t="e"/>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="A150" s="19" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B150" s="19" t="e"/>
       <c r="C150" s="19" t="e"/>
@@ -4282,46 +4420,56 @@
       <c r="F150" s="19" t="e"/>
       <c r="G150" s="19" t="e"/>
       <c r="H150" s="9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I150" s="10" t="e"/>
       <c r="J150" s="10" t="e"/>
       <c r="K150" s="9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L150" s="10" t="e"/>
       <c r="M150" s="10" t="e"/>
       <c r="N150" s="9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A151" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B151" s="19" t="e"/>
-      <c r="C151" s="19" t="e"/>
-      <c r="D151" s="19" t="e"/>
-      <c r="E151" s="19" t="e"/>
-      <c r="F151" s="19" t="e"/>
-      <c r="G151" s="19" t="e"/>
-      <c r="H151" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I151" s="10" t="e"/>
-      <c r="J151" s="10" t="e"/>
-      <c r="K151" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L151" s="10" t="e"/>
-      <c r="M151" s="10" t="e"/>
-      <c r="N151" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O150" s="20" t="e"/>
+    </row>
+    <row r="151" ht="11" customHeight="true">
+      <c r="A151" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B151" s="16" t="e"/>
+      <c r="C151" s="16" t="e"/>
+      <c r="D151" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" s="16" t="e"/>
+      <c r="F151" s="16" t="e"/>
+      <c r="G151" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H151" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="I151" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J151" s="18" t="e"/>
+      <c r="K151" s="17" t="n">
+        <v>68</v>
+      </c>
+      <c r="L151" s="18" t="e"/>
+      <c r="M151" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="N151" s="17" t="n">
+        <v>68</v>
+      </c>
+      <c r="O151" s="21" t="e"/>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="A152" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B152" s="19" t="e"/>
       <c r="C152" s="19" t="e"/>
@@ -4330,22 +4478,27 @@
       <c r="F152" s="19" t="e"/>
       <c r="G152" s="19" t="e"/>
       <c r="H152" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I152" s="10" t="e"/>
+        <v>33</v>
+      </c>
+      <c r="I152" s="9" t="n">
+        <v>12</v>
+      </c>
       <c r="J152" s="10" t="e"/>
       <c r="K152" s="9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L152" s="10" t="e"/>
-      <c r="M152" s="10" t="e"/>
+      <c r="M152" s="9" t="n">
+        <v>12</v>
+      </c>
       <c r="N152" s="9" t="n">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O152" s="20" t="e"/>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="A153" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B153" s="19" t="e"/>
       <c r="C153" s="19" t="e"/>
@@ -4354,54 +4507,48 @@
       <c r="F153" s="19" t="e"/>
       <c r="G153" s="19" t="e"/>
       <c r="H153" s="9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I153" s="10" t="e"/>
       <c r="J153" s="10" t="e"/>
       <c r="K153" s="9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L153" s="10" t="e"/>
       <c r="M153" s="10" t="e"/>
       <c r="N153" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" ht="11" customHeight="true">
-      <c r="A154" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B154" s="16" t="e"/>
-      <c r="C154" s="16" t="e"/>
-      <c r="D154" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E154" s="16" t="e"/>
-      <c r="F154" s="16" t="e"/>
-      <c r="G154" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H154" s="17" t="n">
-        <v>96</v>
-      </c>
-      <c r="I154" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J154" s="18" t="e"/>
-      <c r="K154" s="17" t="n">
-        <v>90</v>
-      </c>
-      <c r="L154" s="18" t="e"/>
-      <c r="M154" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N154" s="17" t="n">
-        <v>90</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O153" s="20" t="e"/>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A154" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="19" t="e"/>
+      <c r="C154" s="19" t="e"/>
+      <c r="D154" s="19" t="e"/>
+      <c r="E154" s="19" t="e"/>
+      <c r="F154" s="19" t="e"/>
+      <c r="G154" s="19" t="e"/>
+      <c r="H154" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I154" s="10" t="e"/>
+      <c r="J154" s="10" t="e"/>
+      <c r="K154" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L154" s="10" t="e"/>
+      <c r="M154" s="10" t="e"/>
+      <c r="N154" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O154" s="20" t="e"/>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="A155" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B155" s="19" t="e"/>
       <c r="C155" s="19" t="e"/>
@@ -4410,26 +4557,23 @@
       <c r="F155" s="19" t="e"/>
       <c r="G155" s="19" t="e"/>
       <c r="H155" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I155" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I155" s="10" t="e"/>
       <c r="J155" s="10" t="e"/>
       <c r="K155" s="9" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L155" s="10" t="e"/>
-      <c r="M155" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M155" s="10" t="e"/>
       <c r="N155" s="9" t="n">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="O155" s="20" t="e"/>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="1">
       <c r="A156" s="19" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B156" s="19" t="e"/>
       <c r="C156" s="19" t="e"/>
@@ -4438,50 +4582,56 @@
       <c r="F156" s="19" t="e"/>
       <c r="G156" s="19" t="e"/>
       <c r="H156" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="I156" s="9" t="n">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I156" s="10" t="e"/>
       <c r="J156" s="10" t="e"/>
       <c r="K156" s="9" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L156" s="10" t="e"/>
-      <c r="M156" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="M156" s="10" t="e"/>
       <c r="N156" s="9" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A157" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B157" s="19" t="e"/>
-      <c r="C157" s="19" t="e"/>
-      <c r="D157" s="19" t="e"/>
-      <c r="E157" s="19" t="e"/>
-      <c r="F157" s="19" t="e"/>
-      <c r="G157" s="19" t="e"/>
-      <c r="H157" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I157" s="10" t="e"/>
-      <c r="J157" s="10" t="e"/>
-      <c r="K157" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L157" s="10" t="e"/>
-      <c r="M157" s="10" t="e"/>
-      <c r="N157" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O156" s="20" t="e"/>
+    </row>
+    <row r="157" ht="11" customHeight="true">
+      <c r="A157" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B157" s="16" t="e"/>
+      <c r="C157" s="16" t="e"/>
+      <c r="D157" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="16" t="e"/>
+      <c r="F157" s="16" t="e"/>
+      <c r="G157" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H157" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="I157" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J157" s="18" t="e"/>
+      <c r="K157" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="L157" s="18" t="e"/>
+      <c r="M157" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N157" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="O157" s="21" t="e"/>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="1">
       <c r="A158" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B158" s="19" t="e"/>
       <c r="C158" s="19" t="e"/>
@@ -4490,22 +4640,27 @@
       <c r="F158" s="19" t="e"/>
       <c r="G158" s="19" t="e"/>
       <c r="H158" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I158" s="10" t="e"/>
+        <v>32</v>
+      </c>
+      <c r="I158" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="J158" s="10" t="e"/>
       <c r="K158" s="9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L158" s="10" t="e"/>
-      <c r="M158" s="10" t="e"/>
+      <c r="M158" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="N158" s="9" t="n">
-        <v>20</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O158" s="20" t="e"/>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="A159" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B159" s="19" t="e"/>
       <c r="C159" s="19" t="e"/>
@@ -4514,50 +4669,48 @@
       <c r="F159" s="19" t="e"/>
       <c r="G159" s="19" t="e"/>
       <c r="H159" s="9" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I159" s="10" t="e"/>
       <c r="J159" s="10" t="e"/>
       <c r="K159" s="9" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L159" s="10" t="e"/>
       <c r="M159" s="10" t="e"/>
       <c r="N159" s="9" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" ht="11" customHeight="true">
-      <c r="A160" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B160" s="16" t="e"/>
-      <c r="C160" s="16" t="e"/>
-      <c r="D160" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E160" s="16" t="e"/>
-      <c r="F160" s="16" t="e"/>
-      <c r="G160" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H160" s="17" t="n">
-        <v>59</v>
-      </c>
-      <c r="I160" s="18" t="e"/>
-      <c r="J160" s="18" t="e"/>
-      <c r="K160" s="17" t="n">
-        <v>59</v>
-      </c>
-      <c r="L160" s="18" t="e"/>
-      <c r="M160" s="18" t="e"/>
-      <c r="N160" s="17" t="n">
-        <v>59</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O159" s="20" t="e"/>
+    </row>
+    <row r="160" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A160" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="19" t="e"/>
+      <c r="C160" s="19" t="e"/>
+      <c r="D160" s="19" t="e"/>
+      <c r="E160" s="19" t="e"/>
+      <c r="F160" s="19" t="e"/>
+      <c r="G160" s="19" t="e"/>
+      <c r="H160" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I160" s="10" t="e"/>
+      <c r="J160" s="10" t="e"/>
+      <c r="K160" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L160" s="10" t="e"/>
+      <c r="M160" s="10" t="e"/>
+      <c r="N160" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O160" s="20" t="e"/>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="1">
       <c r="A161" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B161" s="19" t="e"/>
       <c r="C161" s="19" t="e"/>
@@ -4566,22 +4719,23 @@
       <c r="F161" s="19" t="e"/>
       <c r="G161" s="19" t="e"/>
       <c r="H161" s="9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I161" s="10" t="e"/>
       <c r="J161" s="10" t="e"/>
       <c r="K161" s="9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L161" s="10" t="e"/>
       <c r="M161" s="10" t="e"/>
       <c r="N161" s="9" t="n">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O161" s="20" t="e"/>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="A162" s="19" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B162" s="19" t="e"/>
       <c r="C162" s="19" t="e"/>
@@ -4602,34 +4756,44 @@
       <c r="N162" s="9" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A163" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B163" s="19" t="e"/>
-      <c r="C163" s="19" t="e"/>
-      <c r="D163" s="19" t="e"/>
-      <c r="E163" s="19" t="e"/>
-      <c r="F163" s="19" t="e"/>
-      <c r="G163" s="19" t="e"/>
-      <c r="H163" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I163" s="10" t="e"/>
-      <c r="J163" s="10" t="e"/>
-      <c r="K163" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L163" s="10" t="e"/>
-      <c r="M163" s="10" t="e"/>
-      <c r="N163" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="O162" s="20" t="e"/>
+    </row>
+    <row r="163" ht="11" customHeight="true">
+      <c r="A163" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="16" t="e"/>
+      <c r="C163" s="16" t="e"/>
+      <c r="D163" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" s="16" t="e"/>
+      <c r="F163" s="16" t="e"/>
+      <c r="G163" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" s="17" t="n">
+        <v>56</v>
+      </c>
+      <c r="I163" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" s="18" t="e"/>
+      <c r="K163" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="L163" s="18" t="e"/>
+      <c r="M163" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="O163" s="21" t="e"/>
     </row>
     <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="A164" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B164" s="19" t="e"/>
       <c r="C164" s="19" t="e"/>
@@ -4638,22 +4802,27 @@
       <c r="F164" s="19" t="e"/>
       <c r="G164" s="19" t="e"/>
       <c r="H164" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I164" s="10" t="e"/>
+        <v>16</v>
+      </c>
+      <c r="I164" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J164" s="10" t="e"/>
       <c r="K164" s="9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L164" s="10" t="e"/>
-      <c r="M164" s="10" t="e"/>
+      <c r="M164" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N164" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O164" s="20" t="e"/>
     </row>
     <row r="165" ht="11" customHeight="true" outlineLevel="1">
       <c r="A165" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B165" s="19" t="e"/>
       <c r="C165" s="19" t="e"/>
@@ -4662,54 +4831,48 @@
       <c r="F165" s="19" t="e"/>
       <c r="G165" s="19" t="e"/>
       <c r="H165" s="9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I165" s="10" t="e"/>
       <c r="J165" s="10" t="e"/>
       <c r="K165" s="9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L165" s="10" t="e"/>
       <c r="M165" s="10" t="e"/>
       <c r="N165" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" ht="11" customHeight="true">
-      <c r="A166" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B166" s="16" t="e"/>
-      <c r="C166" s="16" t="e"/>
-      <c r="D166" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E166" s="16" t="e"/>
-      <c r="F166" s="16" t="e"/>
-      <c r="G166" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H166" s="17" t="n">
-        <v>70</v>
-      </c>
-      <c r="I166" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J166" s="18" t="e"/>
-      <c r="K166" s="17" t="n">
-        <v>64</v>
-      </c>
-      <c r="L166" s="18" t="e"/>
-      <c r="M166" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N166" s="17" t="n">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="O165" s="20" t="e"/>
+    </row>
+    <row r="166" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A166" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166" s="19" t="e"/>
+      <c r="C166" s="19" t="e"/>
+      <c r="D166" s="19" t="e"/>
+      <c r="E166" s="19" t="e"/>
+      <c r="F166" s="19" t="e"/>
+      <c r="G166" s="19" t="e"/>
+      <c r="H166" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I166" s="10" t="e"/>
+      <c r="J166" s="10" t="e"/>
+      <c r="K166" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L166" s="10" t="e"/>
+      <c r="M166" s="10" t="e"/>
+      <c r="N166" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O166" s="20" t="e"/>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="A167" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B167" s="19" t="e"/>
       <c r="C167" s="19" t="e"/>
@@ -4718,42 +4881,48 @@
       <c r="F167" s="19" t="e"/>
       <c r="G167" s="19" t="e"/>
       <c r="H167" s="9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I167" s="10" t="e"/>
       <c r="J167" s="10" t="e"/>
       <c r="K167" s="9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L167" s="10" t="e"/>
       <c r="M167" s="10" t="e"/>
       <c r="N167" s="9" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A168" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B168" s="19" t="e"/>
-      <c r="C168" s="19" t="e"/>
-      <c r="D168" s="19" t="e"/>
-      <c r="E168" s="19" t="e"/>
-      <c r="F168" s="19" t="e"/>
-      <c r="G168" s="19" t="e"/>
-      <c r="H168" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I168" s="10" t="e"/>
-      <c r="J168" s="10" t="e"/>
-      <c r="K168" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L168" s="10" t="e"/>
-      <c r="M168" s="10" t="e"/>
-      <c r="N168" s="9" t="n">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O167" s="20" t="e"/>
+    </row>
+    <row r="168" ht="11" customHeight="true">
+      <c r="A168" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B168" s="16" t="e"/>
+      <c r="C168" s="16" t="e"/>
+      <c r="D168" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E168" s="16" t="e"/>
+      <c r="F168" s="16" t="e"/>
+      <c r="G168" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H168" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="I168" s="18" t="e"/>
+      <c r="J168" s="18" t="e"/>
+      <c r="K168" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="L168" s="18" t="e"/>
+      <c r="M168" s="18" t="e"/>
+      <c r="N168" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="O168" s="21" t="e"/>
     </row>
     <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="A169" s="19" t="s">
@@ -4766,22 +4935,23 @@
       <c r="F169" s="19" t="e"/>
       <c r="G169" s="19" t="e"/>
       <c r="H169" s="9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I169" s="10" t="e"/>
       <c r="J169" s="10" t="e"/>
       <c r="K169" s="9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L169" s="10" t="e"/>
       <c r="M169" s="10" t="e"/>
       <c r="N169" s="9" t="n">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O169" s="20" t="e"/>
     </row>
     <row r="170" ht="11" customHeight="true" outlineLevel="1">
       <c r="A170" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B170" s="19" t="e"/>
       <c r="C170" s="19" t="e"/>
@@ -4790,54 +4960,48 @@
       <c r="F170" s="19" t="e"/>
       <c r="G170" s="19" t="e"/>
       <c r="H170" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="I170" s="9" t="n">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I170" s="10" t="e"/>
       <c r="J170" s="10" t="e"/>
       <c r="K170" s="9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L170" s="10" t="e"/>
-      <c r="M170" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="M170" s="10" t="e"/>
       <c r="N170" s="9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" ht="11" customHeight="true">
-      <c r="A171" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B171" s="16" t="e"/>
-      <c r="C171" s="16" t="e"/>
-      <c r="D171" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E171" s="16" t="e"/>
-      <c r="F171" s="16" t="e"/>
-      <c r="G171" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H171" s="17" t="n">
-        <v>75</v>
-      </c>
-      <c r="I171" s="18" t="e"/>
-      <c r="J171" s="18" t="e"/>
-      <c r="K171" s="17" t="n">
-        <v>75</v>
-      </c>
-      <c r="L171" s="18" t="e"/>
-      <c r="M171" s="18" t="e"/>
-      <c r="N171" s="17" t="n">
-        <v>75</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O170" s="20" t="e"/>
+    </row>
+    <row r="171" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A171" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" s="19" t="e"/>
+      <c r="C171" s="19" t="e"/>
+      <c r="D171" s="19" t="e"/>
+      <c r="E171" s="19" t="e"/>
+      <c r="F171" s="19" t="e"/>
+      <c r="G171" s="19" t="e"/>
+      <c r="H171" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I171" s="10" t="e"/>
+      <c r="J171" s="10" t="e"/>
+      <c r="K171" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L171" s="10" t="e"/>
+      <c r="M171" s="10" t="e"/>
+      <c r="N171" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O171" s="20" t="e"/>
     </row>
     <row r="172" ht="11" customHeight="true" outlineLevel="1">
       <c r="A172" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B172" s="19" t="e"/>
       <c r="C172" s="19" t="e"/>
@@ -4846,42 +5010,48 @@
       <c r="F172" s="19" t="e"/>
       <c r="G172" s="19" t="e"/>
       <c r="H172" s="9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I172" s="10" t="e"/>
       <c r="J172" s="10" t="e"/>
       <c r="K172" s="9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L172" s="10" t="e"/>
       <c r="M172" s="10" t="e"/>
       <c r="N172" s="9" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A173" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B173" s="19" t="e"/>
-      <c r="C173" s="19" t="e"/>
-      <c r="D173" s="19" t="e"/>
-      <c r="E173" s="19" t="e"/>
-      <c r="F173" s="19" t="e"/>
-      <c r="G173" s="19" t="e"/>
-      <c r="H173" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I173" s="10" t="e"/>
-      <c r="J173" s="10" t="e"/>
-      <c r="K173" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L173" s="10" t="e"/>
-      <c r="M173" s="10" t="e"/>
-      <c r="N173" s="9" t="n">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O172" s="20" t="e"/>
+    </row>
+    <row r="173" ht="11" customHeight="true">
+      <c r="A173" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B173" s="16" t="e"/>
+      <c r="C173" s="16" t="e"/>
+      <c r="D173" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E173" s="16" t="e"/>
+      <c r="F173" s="16" t="e"/>
+      <c r="G173" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="I173" s="18" t="e"/>
+      <c r="J173" s="18" t="e"/>
+      <c r="K173" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="L173" s="18" t="e"/>
+      <c r="M173" s="18" t="e"/>
+      <c r="N173" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="O173" s="21" t="e"/>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="1">
       <c r="A174" s="19" t="s">
@@ -4894,22 +5064,23 @@
       <c r="F174" s="19" t="e"/>
       <c r="G174" s="19" t="e"/>
       <c r="H174" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I174" s="10" t="e"/>
       <c r="J174" s="10" t="e"/>
       <c r="K174" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L174" s="10" t="e"/>
       <c r="M174" s="10" t="e"/>
       <c r="N174" s="9" t="n">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O174" s="20" t="e"/>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="1">
       <c r="A175" s="19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B175" s="19" t="e"/>
       <c r="C175" s="19" t="e"/>
@@ -4918,22 +5089,23 @@
       <c r="F175" s="19" t="e"/>
       <c r="G175" s="19" t="e"/>
       <c r="H175" s="9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I175" s="10" t="e"/>
       <c r="J175" s="10" t="e"/>
       <c r="K175" s="9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L175" s="10" t="e"/>
       <c r="M175" s="10" t="e"/>
       <c r="N175" s="9" t="n">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O175" s="20" t="e"/>
     </row>
     <row r="176" ht="11" customHeight="true" outlineLevel="1">
       <c r="A176" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B176" s="19" t="e"/>
       <c r="C176" s="19" t="e"/>
@@ -4942,49 +5114,103 @@
       <c r="F176" s="19" t="e"/>
       <c r="G176" s="19" t="e"/>
       <c r="H176" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I176" s="10" t="e"/>
       <c r="J176" s="10" t="e"/>
       <c r="K176" s="9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L176" s="10" t="e"/>
       <c r="M176" s="10" t="e"/>
       <c r="N176" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O176" s="20" t="e"/>
+    </row>
+    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A177" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177" s="19" t="e"/>
+      <c r="C177" s="19" t="e"/>
+      <c r="D177" s="19" t="e"/>
+      <c r="E177" s="19" t="e"/>
+      <c r="F177" s="19" t="e"/>
+      <c r="G177" s="19" t="e"/>
+      <c r="H177" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I177" s="10" t="e"/>
+      <c r="J177" s="10" t="e"/>
+      <c r="K177" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L177" s="10" t="e"/>
+      <c r="M177" s="10" t="e"/>
+      <c r="N177" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O177" s="20" t="e"/>
+    </row>
+    <row r="178" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A178" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B178" s="19" t="e"/>
+      <c r="C178" s="19" t="e"/>
+      <c r="D178" s="19" t="e"/>
+      <c r="E178" s="19" t="e"/>
+      <c r="F178" s="19" t="e"/>
+      <c r="G178" s="19" t="e"/>
+      <c r="H178" s="9" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="177" ht="13" customHeight="true">
-      <c r="A177" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B177" s="12" t="e"/>
-      <c r="C177" s="12" t="e"/>
-      <c r="D177" s="12" t="e"/>
-      <c r="E177" s="12" t="e"/>
-      <c r="F177" s="12" t="e"/>
-      <c r="G177" s="12" t="e"/>
-      <c r="H177" s="13" t="n">
-        <v>2519</v>
-      </c>
-      <c r="I177" s="14" t="n">
-        <v>32</v>
-      </c>
-      <c r="J177" s="15" t="e"/>
-      <c r="K177" s="13" t="n">
-        <v>2487</v>
-      </c>
-      <c r="L177" s="15" t="e"/>
-      <c r="M177" s="14" t="n">
-        <v>32</v>
-      </c>
-      <c r="N177" s="13" t="n">
-        <v>2487</v>
-      </c>
+      <c r="I178" s="10" t="e"/>
+      <c r="J178" s="10" t="e"/>
+      <c r="K178" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L178" s="10" t="e"/>
+      <c r="M178" s="10" t="e"/>
+      <c r="N178" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O178" s="20" t="e"/>
+    </row>
+    <row r="179" ht="13" customHeight="true">
+      <c r="A179" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" s="12" t="e"/>
+      <c r="C179" s="12" t="e"/>
+      <c r="D179" s="12" t="e"/>
+      <c r="E179" s="12" t="e"/>
+      <c r="F179" s="12" t="e"/>
+      <c r="G179" s="12" t="e"/>
+      <c r="H179" s="13" t="n">
+        <v>2390</v>
+      </c>
+      <c r="I179" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J179" s="15" t="e"/>
+      <c r="K179" s="13" t="n">
+        <v>2362</v>
+      </c>
+      <c r="L179" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="M179" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="N179" s="13" t="n">
+        <v>2392</v>
+      </c>
+      <c r="O179" s="15" t="e"/>
     </row>
   </sheetData>
-  <mergeCells count="220">
+  <mergeCells count="223">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -4998,6 +5224,7 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
@@ -5014,72 +5241,71 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
     <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A53:G53"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
     <mergeCell ref="A57:G57"/>
     <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A59:G59"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:F66"/>
     <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="A68:G68"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A70:G70"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A72:G72"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A74:G74"/>
     <mergeCell ref="A75:G75"/>
@@ -5089,55 +5315,55 @@
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="A79:G79"/>
     <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A82:G82"/>
     <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A84:G84"/>
     <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:F87"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="D89:F89"/>
     <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A92:G92"/>
     <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:F94"/>
     <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:F97"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A100:G100"/>
     <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:F102"/>
     <mergeCell ref="A103:G103"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:F107"/>
     <mergeCell ref="A108:G108"/>
     <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A111:G111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="D113:F113"/>
     <mergeCell ref="A114:G114"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
     <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:F119"/>
     <mergeCell ref="A120:G120"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="A122:G122"/>
@@ -5148,63 +5374,66 @@
     <mergeCell ref="A126:G126"/>
     <mergeCell ref="A127:G127"/>
     <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="A130:G130"/>
     <mergeCell ref="A131:G131"/>
     <mergeCell ref="A132:G132"/>
     <mergeCell ref="A133:G133"/>
     <mergeCell ref="A134:G134"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="A136:G136"/>
     <mergeCell ref="A137:G137"/>
     <mergeCell ref="A138:G138"/>
     <mergeCell ref="A139:G139"/>
     <mergeCell ref="A140:G140"/>
-    <mergeCell ref="A141:G141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="A142:G142"/>
     <mergeCell ref="A143:G143"/>
     <mergeCell ref="A144:G144"/>
     <mergeCell ref="A145:G145"/>
-    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:F146"/>
     <mergeCell ref="A147:G147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="A148:G148"/>
     <mergeCell ref="A149:G149"/>
     <mergeCell ref="A150:G150"/>
-    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="D151:F151"/>
     <mergeCell ref="A152:G152"/>
     <mergeCell ref="A153:G153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="A154:G154"/>
     <mergeCell ref="A155:G155"/>
     <mergeCell ref="A156:G156"/>
-    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="D157:F157"/>
     <mergeCell ref="A158:G158"/>
     <mergeCell ref="A159:G159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="A160:G160"/>
     <mergeCell ref="A161:G161"/>
     <mergeCell ref="A162:G162"/>
-    <mergeCell ref="A163:G163"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:F163"/>
     <mergeCell ref="A164:G164"/>
     <mergeCell ref="A165:G165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="A166:G166"/>
     <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
     <mergeCell ref="A169:G169"/>
     <mergeCell ref="A170:G170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="A171:G171"/>
     <mergeCell ref="A172:G172"/>
-    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="D173:F173"/>
     <mergeCell ref="A174:G174"/>
     <mergeCell ref="A175:G175"/>
     <mergeCell ref="A176:G176"/>
     <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="A179:G179"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/mp_sklad/uploads/123123123.xlsx
+++ b/mp_sklad/uploads/123123123.xlsx
@@ -31,7 +31,7 @@
     <t>Параметры:</t>
   </si>
   <si>
-    <t>Склад В группе из списка "МАРКЕТПЛЕЙСЫ; WB ИП; ЛЕРУА; WB; ОЗОН; Всеинструменты" И
+    <t>Склад В группе из списка "МАРКЕТПЛЕЙСЫ; WB ИП; ЛЕРУА; WB; ОЗОН; Всеинструменты; ЯМ ФБС" И
 Номенклатура.Группа аналитического учета В группе из списка "Пластиковые бордюры КАНТР...; Пластиковые бордюры для т...; Дренаж общий; Грязезащита"</t>
   </si>
   <si>
@@ -44,7 +44,7 @@
     <t>Ожидается</t>
   </si>
   <si>
-    <t>06.12.2023 г.</t>
+    <t>22.12.2023 г.</t>
   </si>
   <si>
     <t>Артикул</t>
@@ -504,10 +504,10 @@
     <xf numFmtId="52" fontId="3" fillId="2" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="51" fontId="3" fillId="2" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="51" fontId="3" fillId="2" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -547,7 +547,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="O179"/>
+  <dimension ref="O182"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -691,14 +691,14 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L9" s="9" t="n">
         <v>30</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O9" s="10" t="e"/>
     </row>
@@ -722,17 +722,21 @@
       <c r="F10" s="8" t="e"/>
       <c r="G10" s="8" t="e"/>
       <c r="H10" s="9" t="n">
-        <v>166</v>
-      </c>
-      <c r="I10" s="10" t="e"/>
+        <v>162</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J10" s="10" t="e"/>
       <c r="K10" s="9" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L10" s="10" t="e"/>
-      <c r="M10" s="10" t="e"/>
+      <c r="M10" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N10" s="9" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O10" s="10" t="e"/>
     </row>
@@ -747,21 +751,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1258</v>
+        <v>2079</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>1</v>
+        <v>726</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1257</v>
+        <v>1353</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>1</v>
+        <v>726</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1257</v>
+        <v>1353</v>
       </c>
       <c r="O11" s="10" t="e"/>
     </row>
@@ -775,22 +779,22 @@
       <c r="E12" s="8" t="e"/>
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
-      <c r="H12" s="9" t="n">
-        <v>887</v>
+      <c r="H12" s="11" t="n">
+        <v>1593</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>26</v>
+        <v>709</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="9" t="n">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>26</v>
+        <v>709</v>
       </c>
       <c r="N12" s="9" t="n">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="O12" s="10" t="e"/>
     </row>
@@ -805,25 +809,25 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>2390</v>
-      </c>
-      <c r="I13" s="14" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" s="15" t="e"/>
+        <v>3910</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>1438</v>
+      </c>
+      <c r="J13" s="14" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>2362</v>
-      </c>
-      <c r="L13" s="14" t="n">
+        <v>2472</v>
+      </c>
+      <c r="L13" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="M13" s="14" t="n">
-        <v>28</v>
+      <c r="M13" s="13" t="n">
+        <v>1438</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2392</v>
-      </c>
-      <c r="O13" s="15" t="e"/>
+        <v>2502</v>
+      </c>
+      <c r="O13" s="14" t="e"/>
     </row>
     <row r="14" ht="11" customHeight="true">
       <c r="A14" s="16" t="s">
@@ -840,26 +844,22 @@
         <v>25</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>61</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I14" s="18" t="e"/>
       <c r="J14" s="18" t="e"/>
       <c r="K14" s="17" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L14" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="M14" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M14" s="18" t="e"/>
       <c r="N14" s="17" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O14" s="17" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
@@ -873,19 +873,15 @@
       <c r="F15" s="19" t="e"/>
       <c r="G15" s="19" t="e"/>
       <c r="H15" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I15" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I15" s="10" t="e"/>
       <c r="J15" s="10" t="e"/>
       <c r="K15" s="9" t="n">
         <v>8</v>
       </c>
       <c r="L15" s="10" t="e"/>
-      <c r="M15" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M15" s="10" t="e"/>
       <c r="N15" s="9" t="n">
         <v>8</v>
       </c>
@@ -927,17 +923,17 @@
       <c r="F17" s="19" t="e"/>
       <c r="G17" s="19" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I17" s="10" t="e"/>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L17" s="10" t="e"/>
       <c r="M17" s="10" t="e"/>
       <c r="N17" s="9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O17" s="20" t="e"/>
     </row>
@@ -952,22 +948,22 @@
       <c r="F18" s="19" t="e"/>
       <c r="G18" s="19" t="e"/>
       <c r="H18" s="9" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I18" s="10" t="e"/>
       <c r="J18" s="10" t="e"/>
       <c r="K18" s="9" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L18" s="9" t="n">
         <v>30</v>
       </c>
       <c r="M18" s="10" t="e"/>
       <c r="N18" s="9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="O18" s="9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -985,17 +981,21 @@
         <v>25</v>
       </c>
       <c r="H19" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="I19" s="18" t="e"/>
+        <v>20</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" s="18" t="e"/>
       <c r="K19" s="17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="18" t="e"/>
-      <c r="M19" s="18" t="e"/>
+      <c r="M19" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" s="17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O19" s="21" t="e"/>
     </row>
@@ -1035,17 +1035,17 @@
       <c r="F21" s="19" t="e"/>
       <c r="G21" s="19" t="e"/>
       <c r="H21" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" s="10" t="e"/>
       <c r="J21" s="10" t="e"/>
       <c r="K21" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" s="10" t="e"/>
       <c r="M21" s="10" t="e"/>
       <c r="N21" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21" s="20" t="e"/>
     </row>
@@ -1062,15 +1062,19 @@
       <c r="H22" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I22" s="10" t="e"/>
+      <c r="I22" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J22" s="10" t="e"/>
       <c r="K22" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" s="10" t="e"/>
-      <c r="M22" s="10" t="e"/>
+      <c r="M22" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N22" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" s="20" t="e"/>
     </row>
@@ -1089,17 +1093,17 @@
         <v>25</v>
       </c>
       <c r="H23" s="17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="18" t="e"/>
       <c r="J23" s="18" t="e"/>
       <c r="K23" s="17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="18" t="e"/>
       <c r="M23" s="18" t="e"/>
       <c r="N23" s="17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O23" s="21" t="e"/>
     </row>
@@ -1114,17 +1118,17 @@
       <c r="F24" s="19" t="e"/>
       <c r="G24" s="19" t="e"/>
       <c r="H24" s="9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="10" t="e"/>
       <c r="J24" s="10" t="e"/>
       <c r="K24" s="9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="10" t="e"/>
       <c r="M24" s="10" t="e"/>
       <c r="N24" s="9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O24" s="20" t="e"/>
     </row>
@@ -1197,17 +1201,17 @@
         <v>25</v>
       </c>
       <c r="H27" s="17" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I27" s="18" t="e"/>
       <c r="J27" s="18" t="e"/>
       <c r="K27" s="17" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L27" s="18" t="e"/>
       <c r="M27" s="18" t="e"/>
       <c r="N27" s="17" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O27" s="21" t="e"/>
     </row>
@@ -1272,17 +1276,17 @@
       <c r="F30" s="19" t="e"/>
       <c r="G30" s="19" t="e"/>
       <c r="H30" s="9" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I30" s="10" t="e"/>
       <c r="J30" s="10" t="e"/>
       <c r="K30" s="9" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L30" s="10" t="e"/>
       <c r="M30" s="10" t="e"/>
       <c r="N30" s="9" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O30" s="20" t="e"/>
     </row>
@@ -1407,15 +1411,19 @@
       <c r="H35" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="I35" s="18" t="e"/>
+      <c r="I35" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="J35" s="18" t="e"/>
       <c r="K35" s="17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L35" s="18" t="e"/>
-      <c r="M35" s="18" t="e"/>
+      <c r="M35" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="N35" s="17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O35" s="21" t="e"/>
     </row>
@@ -1457,15 +1465,19 @@
       <c r="H37" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="I37" s="10" t="e"/>
+      <c r="I37" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J37" s="10" t="e"/>
       <c r="K37" s="9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L37" s="10" t="e"/>
-      <c r="M37" s="10" t="e"/>
+      <c r="M37" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N37" s="9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O37" s="20" t="e"/>
     </row>
@@ -1696,17 +1708,17 @@
         <v>25</v>
       </c>
       <c r="H46" s="17" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I46" s="18" t="e"/>
       <c r="J46" s="18" t="e"/>
       <c r="K46" s="17" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L46" s="18" t="e"/>
       <c r="M46" s="18" t="e"/>
       <c r="N46" s="17" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O46" s="21" t="e"/>
     </row>
@@ -1771,17 +1783,17 @@
       <c r="F49" s="19" t="e"/>
       <c r="G49" s="19" t="e"/>
       <c r="H49" s="9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I49" s="10" t="e"/>
       <c r="J49" s="10" t="e"/>
       <c r="K49" s="9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L49" s="10" t="e"/>
       <c r="M49" s="10" t="e"/>
       <c r="N49" s="9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O49" s="20" t="e"/>
     </row>
@@ -1825,17 +1837,21 @@
         <v>25</v>
       </c>
       <c r="H51" s="17" t="n">
-        <v>35</v>
-      </c>
-      <c r="I51" s="18" t="e"/>
+        <v>202</v>
+      </c>
+      <c r="I51" s="17" t="n">
+        <v>150</v>
+      </c>
       <c r="J51" s="18" t="e"/>
       <c r="K51" s="17" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L51" s="18" t="e"/>
-      <c r="M51" s="18" t="e"/>
+      <c r="M51" s="17" t="n">
+        <v>150</v>
+      </c>
       <c r="N51" s="17" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="O51" s="21" t="e"/>
     </row>
@@ -1850,17 +1866,17 @@
       <c r="F52" s="19" t="e"/>
       <c r="G52" s="19" t="e"/>
       <c r="H52" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" s="10" t="e"/>
       <c r="J52" s="10" t="e"/>
       <c r="K52" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L52" s="10" t="e"/>
       <c r="M52" s="10" t="e"/>
       <c r="N52" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O52" s="20" t="e"/>
     </row>
@@ -1875,17 +1891,17 @@
       <c r="F53" s="19" t="e"/>
       <c r="G53" s="19" t="e"/>
       <c r="H53" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I53" s="10" t="e"/>
       <c r="J53" s="10" t="e"/>
       <c r="K53" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L53" s="10" t="e"/>
       <c r="M53" s="10" t="e"/>
       <c r="N53" s="9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O53" s="20" t="e"/>
     </row>
@@ -1900,17 +1916,17 @@
       <c r="F54" s="19" t="e"/>
       <c r="G54" s="19" t="e"/>
       <c r="H54" s="9" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I54" s="10" t="e"/>
       <c r="J54" s="10" t="e"/>
       <c r="K54" s="9" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L54" s="10" t="e"/>
       <c r="M54" s="10" t="e"/>
       <c r="N54" s="9" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O54" s="20" t="e"/>
     </row>
@@ -1925,15 +1941,19 @@
       <c r="F55" s="19" t="e"/>
       <c r="G55" s="19" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I55" s="10" t="e"/>
+        <v>160</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>150</v>
+      </c>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
         <v>10</v>
       </c>
       <c r="L55" s="10" t="e"/>
-      <c r="M55" s="10" t="e"/>
+      <c r="M55" s="9" t="n">
+        <v>150</v>
+      </c>
       <c r="N55" s="9" t="n">
         <v>10</v>
       </c>
@@ -1954,17 +1974,21 @@
         <v>25</v>
       </c>
       <c r="H56" s="17" t="n">
-        <v>120</v>
-      </c>
-      <c r="I56" s="18" t="e"/>
+        <v>311</v>
+      </c>
+      <c r="I56" s="17" t="n">
+        <v>192</v>
+      </c>
       <c r="J56" s="18" t="e"/>
       <c r="K56" s="17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L56" s="18" t="e"/>
-      <c r="M56" s="18" t="e"/>
+      <c r="M56" s="17" t="n">
+        <v>192</v>
+      </c>
       <c r="N56" s="17" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O56" s="21" t="e"/>
     </row>
@@ -2004,17 +2028,17 @@
       <c r="F58" s="19" t="e"/>
       <c r="G58" s="19" t="e"/>
       <c r="H58" s="9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I58" s="10" t="e"/>
       <c r="J58" s="10" t="e"/>
       <c r="K58" s="9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L58" s="10" t="e"/>
       <c r="M58" s="10" t="e"/>
       <c r="N58" s="9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O58" s="20" t="e"/>
     </row>
@@ -2079,15 +2103,19 @@
       <c r="F61" s="19" t="e"/>
       <c r="G61" s="19" t="e"/>
       <c r="H61" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I61" s="10" t="e"/>
+        <v>210</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <v>192</v>
+      </c>
       <c r="J61" s="10" t="e"/>
       <c r="K61" s="9" t="n">
         <v>18</v>
       </c>
       <c r="L61" s="10" t="e"/>
-      <c r="M61" s="10" t="e"/>
+      <c r="M61" s="9" t="n">
+        <v>192</v>
+      </c>
       <c r="N61" s="9" t="n">
         <v>18</v>
       </c>
@@ -2108,19 +2136,15 @@
         <v>25</v>
       </c>
       <c r="H62" s="17" t="n">
-        <v>143</v>
-      </c>
-      <c r="I62" s="17" t="n">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I62" s="18" t="e"/>
       <c r="J62" s="18" t="e"/>
       <c r="K62" s="17" t="n">
         <v>142</v>
       </c>
       <c r="L62" s="18" t="e"/>
-      <c r="M62" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M62" s="18" t="e"/>
       <c r="N62" s="17" t="n">
         <v>142</v>
       </c>
@@ -2137,19 +2161,15 @@
       <c r="F63" s="19" t="e"/>
       <c r="G63" s="19" t="e"/>
       <c r="H63" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I63" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I63" s="10" t="e"/>
       <c r="J63" s="10" t="e"/>
       <c r="K63" s="9" t="n">
         <v>30</v>
       </c>
       <c r="L63" s="10" t="e"/>
-      <c r="M63" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M63" s="10" t="e"/>
       <c r="N63" s="9" t="n">
         <v>30</v>
       </c>
@@ -2220,17 +2240,21 @@
         <v>25</v>
       </c>
       <c r="H66" s="17" t="n">
-        <v>115</v>
-      </c>
-      <c r="I66" s="18" t="e"/>
+        <v>306</v>
+      </c>
+      <c r="I66" s="17" t="n">
+        <v>192</v>
+      </c>
       <c r="J66" s="18" t="e"/>
       <c r="K66" s="17" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L66" s="18" t="e"/>
-      <c r="M66" s="18" t="e"/>
+      <c r="M66" s="17" t="n">
+        <v>192</v>
+      </c>
       <c r="N66" s="17" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O66" s="21" t="e"/>
     </row>
@@ -2270,17 +2294,17 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I68" s="10" t="e"/>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L68" s="10" t="e"/>
       <c r="M68" s="10" t="e"/>
       <c r="N68" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O68" s="20" t="e"/>
     </row>
@@ -2320,15 +2344,19 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="I70" s="10" t="e"/>
+        <v>204</v>
+      </c>
+      <c r="I70" s="9" t="n">
+        <v>192</v>
+      </c>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
         <v>12</v>
       </c>
       <c r="L70" s="10" t="e"/>
-      <c r="M70" s="10" t="e"/>
+      <c r="M70" s="9" t="n">
+        <v>192</v>
+      </c>
       <c r="N70" s="9" t="n">
         <v>12</v>
       </c>
@@ -2349,17 +2377,17 @@
         <v>25</v>
       </c>
       <c r="H71" s="17" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I71" s="18" t="e"/>
       <c r="J71" s="18" t="e"/>
       <c r="K71" s="17" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L71" s="18" t="e"/>
       <c r="M71" s="18" t="e"/>
       <c r="N71" s="17" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O71" s="21" t="e"/>
     </row>
@@ -2415,7 +2443,7 @@
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="A74" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B74" s="19" t="e"/>
       <c r="C74" s="19" t="e"/>
@@ -2424,77 +2452,77 @@
       <c r="F74" s="19" t="e"/>
       <c r="G74" s="19" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I74" s="10" t="e"/>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L74" s="10" t="e"/>
       <c r="M74" s="10" t="e"/>
       <c r="N74" s="9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O74" s="20" t="e"/>
     </row>
-    <row r="75" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A75" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="19" t="e"/>
-      <c r="C75" s="19" t="e"/>
-      <c r="D75" s="19" t="e"/>
-      <c r="E75" s="19" t="e"/>
-      <c r="F75" s="19" t="e"/>
-      <c r="G75" s="19" t="e"/>
-      <c r="H75" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I75" s="10" t="e"/>
-      <c r="J75" s="10" t="e"/>
-      <c r="K75" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L75" s="10" t="e"/>
-      <c r="M75" s="10" t="e"/>
-      <c r="N75" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O75" s="20" t="e"/>
-    </row>
-    <row r="76" ht="22" customHeight="true">
-      <c r="A76" s="16" t="s">
+    <row r="75" ht="22" customHeight="true">
+      <c r="A75" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="16" t="e"/>
-      <c r="C76" s="16" t="e"/>
-      <c r="D76" s="16" t="s">
+      <c r="B75" s="16" t="e"/>
+      <c r="C75" s="16" t="e"/>
+      <c r="D75" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E76" s="16" t="e"/>
-      <c r="F76" s="16" t="e"/>
-      <c r="G76" s="16" t="s">
+      <c r="E75" s="16" t="e"/>
+      <c r="F75" s="16" t="e"/>
+      <c r="G75" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="I76" s="18" t="e"/>
-      <c r="J76" s="18" t="e"/>
-      <c r="K76" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="L76" s="18" t="e"/>
-      <c r="M76" s="18" t="e"/>
-      <c r="N76" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="O76" s="21" t="e"/>
+      <c r="H75" s="17" t="n">
+        <v>43</v>
+      </c>
+      <c r="I75" s="18" t="e"/>
+      <c r="J75" s="18" t="e"/>
+      <c r="K75" s="17" t="n">
+        <v>43</v>
+      </c>
+      <c r="L75" s="18" t="e"/>
+      <c r="M75" s="18" t="e"/>
+      <c r="N75" s="17" t="n">
+        <v>43</v>
+      </c>
+      <c r="O75" s="21" t="e"/>
+    </row>
+    <row r="76" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A76" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="19" t="e"/>
+      <c r="C76" s="19" t="e"/>
+      <c r="D76" s="19" t="e"/>
+      <c r="E76" s="19" t="e"/>
+      <c r="F76" s="19" t="e"/>
+      <c r="G76" s="19" t="e"/>
+      <c r="H76" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I76" s="10" t="e"/>
+      <c r="J76" s="10" t="e"/>
+      <c r="K76" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L76" s="10" t="e"/>
+      <c r="M76" s="10" t="e"/>
+      <c r="N76" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O76" s="20" t="e"/>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B77" s="19" t="e"/>
       <c r="C77" s="19" t="e"/>
@@ -2519,7 +2547,7 @@
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B78" s="19" t="e"/>
       <c r="C78" s="19" t="e"/>
@@ -2528,23 +2556,23 @@
       <c r="F78" s="19" t="e"/>
       <c r="G78" s="19" t="e"/>
       <c r="H78" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I78" s="10" t="e"/>
       <c r="J78" s="10" t="e"/>
       <c r="K78" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L78" s="10" t="e"/>
       <c r="M78" s="10" t="e"/>
       <c r="N78" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O78" s="20" t="e"/>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B79" s="19" t="e"/>
       <c r="C79" s="19" t="e"/>
@@ -2553,77 +2581,77 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I79" s="10" t="e"/>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L79" s="10" t="e"/>
       <c r="M79" s="10" t="e"/>
       <c r="N79" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O79" s="20" t="e"/>
     </row>
-    <row r="80" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A80" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="19" t="e"/>
-      <c r="C80" s="19" t="e"/>
-      <c r="D80" s="19" t="e"/>
-      <c r="E80" s="19" t="e"/>
-      <c r="F80" s="19" t="e"/>
-      <c r="G80" s="19" t="e"/>
-      <c r="H80" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I80" s="10" t="e"/>
-      <c r="J80" s="10" t="e"/>
-      <c r="K80" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L80" s="10" t="e"/>
-      <c r="M80" s="10" t="e"/>
-      <c r="N80" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O80" s="20" t="e"/>
-    </row>
-    <row r="81" ht="11" customHeight="true">
-      <c r="A81" s="16" t="s">
+    <row r="80" ht="11" customHeight="true">
+      <c r="A80" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B81" s="16" t="e"/>
-      <c r="C81" s="16" t="e"/>
-      <c r="D81" s="16" t="s">
+      <c r="B80" s="16" t="e"/>
+      <c r="C80" s="16" t="e"/>
+      <c r="D80" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="16" t="e"/>
-      <c r="F81" s="16" t="e"/>
-      <c r="G81" s="16" t="s">
+      <c r="E80" s="16" t="e"/>
+      <c r="F80" s="16" t="e"/>
+      <c r="G80" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="I81" s="18" t="e"/>
-      <c r="J81" s="18" t="e"/>
-      <c r="K81" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="L81" s="18" t="e"/>
-      <c r="M81" s="18" t="e"/>
-      <c r="N81" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="O81" s="21" t="e"/>
+      <c r="H80" s="17" t="n">
+        <v>99</v>
+      </c>
+      <c r="I80" s="18" t="e"/>
+      <c r="J80" s="18" t="e"/>
+      <c r="K80" s="17" t="n">
+        <v>99</v>
+      </c>
+      <c r="L80" s="18" t="e"/>
+      <c r="M80" s="18" t="e"/>
+      <c r="N80" s="17" t="n">
+        <v>99</v>
+      </c>
+      <c r="O80" s="21" t="e"/>
+    </row>
+    <row r="81" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A81" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="19" t="e"/>
+      <c r="C81" s="19" t="e"/>
+      <c r="D81" s="19" t="e"/>
+      <c r="E81" s="19" t="e"/>
+      <c r="F81" s="19" t="e"/>
+      <c r="G81" s="19" t="e"/>
+      <c r="H81" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I81" s="10" t="e"/>
+      <c r="J81" s="10" t="e"/>
+      <c r="K81" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L81" s="10" t="e"/>
+      <c r="M81" s="10" t="e"/>
+      <c r="N81" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O81" s="20" t="e"/>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="A82" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B82" s="19" t="e"/>
       <c r="C82" s="19" t="e"/>
@@ -2632,23 +2660,23 @@
       <c r="F82" s="19" t="e"/>
       <c r="G82" s="19" t="e"/>
       <c r="H82" s="9" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I82" s="10" t="e"/>
       <c r="J82" s="10" t="e"/>
       <c r="K82" s="9" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L82" s="10" t="e"/>
       <c r="M82" s="10" t="e"/>
       <c r="N82" s="9" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O82" s="20" t="e"/>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="19" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B83" s="19" t="e"/>
       <c r="C83" s="19" t="e"/>
@@ -2657,23 +2685,23 @@
       <c r="F83" s="19" t="e"/>
       <c r="G83" s="19" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L83" s="10" t="e"/>
       <c r="M83" s="10" t="e"/>
       <c r="N83" s="9" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O83" s="20" t="e"/>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B84" s="19" t="e"/>
       <c r="C84" s="19" t="e"/>
@@ -2682,23 +2710,23 @@
       <c r="F84" s="19" t="e"/>
       <c r="G84" s="19" t="e"/>
       <c r="H84" s="9" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I84" s="10" t="e"/>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L84" s="10" t="e"/>
       <c r="M84" s="10" t="e"/>
       <c r="N84" s="9" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O84" s="20" t="e"/>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2707,185 +2735,185 @@
       <c r="F85" s="19" t="e"/>
       <c r="G85" s="19" t="e"/>
       <c r="H85" s="9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I85" s="10" t="e"/>
       <c r="J85" s="10" t="e"/>
       <c r="K85" s="9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L85" s="10" t="e"/>
       <c r="M85" s="10" t="e"/>
       <c r="N85" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O85" s="20" t="e"/>
+    </row>
+    <row r="86" ht="11" customHeight="true">
+      <c r="A86" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" s="16" t="e"/>
+      <c r="C86" s="16" t="e"/>
+      <c r="D86" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="16" t="e"/>
+      <c r="F86" s="16" t="e"/>
+      <c r="G86" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O85" s="20" t="e"/>
-    </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A86" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="19" t="e"/>
-      <c r="C86" s="19" t="e"/>
-      <c r="D86" s="19" t="e"/>
-      <c r="E86" s="19" t="e"/>
-      <c r="F86" s="19" t="e"/>
-      <c r="G86" s="19" t="e"/>
-      <c r="H86" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I86" s="10" t="e"/>
-      <c r="J86" s="10" t="e"/>
-      <c r="K86" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L86" s="10" t="e"/>
-      <c r="M86" s="10" t="e"/>
-      <c r="N86" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="O86" s="20" t="e"/>
-    </row>
-    <row r="87" ht="11" customHeight="true">
-      <c r="A87" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="16" t="e"/>
-      <c r="C87" s="16" t="e"/>
-      <c r="D87" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E87" s="16" t="e"/>
-      <c r="F87" s="16" t="e"/>
-      <c r="G87" s="16" t="s">
+      <c r="H86" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="I86" s="18" t="e"/>
+      <c r="J86" s="18" t="e"/>
+      <c r="K86" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="L86" s="18" t="e"/>
+      <c r="M86" s="18" t="e"/>
+      <c r="N86" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="O86" s="21" t="e"/>
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A87" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="19" t="e"/>
+      <c r="C87" s="19" t="e"/>
+      <c r="D87" s="19" t="e"/>
+      <c r="E87" s="19" t="e"/>
+      <c r="F87" s="19" t="e"/>
+      <c r="G87" s="19" t="e"/>
+      <c r="H87" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="I87" s="10" t="e"/>
+      <c r="J87" s="10" t="e"/>
+      <c r="K87" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L87" s="10" t="e"/>
+      <c r="M87" s="10" t="e"/>
+      <c r="N87" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="O87" s="20" t="e"/>
+    </row>
+    <row r="88" ht="11" customHeight="true">
+      <c r="A88" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="16" t="e"/>
+      <c r="C88" s="16" t="e"/>
+      <c r="D88" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="16" t="e"/>
+      <c r="F88" s="16" t="e"/>
+      <c r="G88" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H87" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="I87" s="18" t="e"/>
-      <c r="J87" s="18" t="e"/>
-      <c r="K87" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="L87" s="18" t="e"/>
-      <c r="M87" s="18" t="e"/>
-      <c r="N87" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="O87" s="21" t="e"/>
-    </row>
-    <row r="88" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A88" s="19" t="s">
+      <c r="H88" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I88" s="18" t="e"/>
+      <c r="J88" s="18" t="e"/>
+      <c r="K88" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L88" s="18" t="e"/>
+      <c r="M88" s="18" t="e"/>
+      <c r="N88" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="O88" s="21" t="e"/>
+    </row>
+    <row r="89" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A89" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" s="19" t="e"/>
+      <c r="C89" s="19" t="e"/>
+      <c r="D89" s="19" t="e"/>
+      <c r="E89" s="19" t="e"/>
+      <c r="F89" s="19" t="e"/>
+      <c r="G89" s="19" t="e"/>
+      <c r="H89" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I89" s="10" t="e"/>
+      <c r="J89" s="10" t="e"/>
+      <c r="K89" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L89" s="10" t="e"/>
+      <c r="M89" s="10" t="e"/>
+      <c r="N89" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="O89" s="20" t="e"/>
+    </row>
+    <row r="90" ht="11" customHeight="true">
+      <c r="A90" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="16" t="e"/>
+      <c r="C90" s="16" t="e"/>
+      <c r="D90" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" s="16" t="e"/>
+      <c r="F90" s="16" t="e"/>
+      <c r="G90" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="I90" s="18" t="e"/>
+      <c r="J90" s="18" t="e"/>
+      <c r="K90" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="L90" s="18" t="e"/>
+      <c r="M90" s="18" t="e"/>
+      <c r="N90" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="O90" s="21" t="e"/>
+    </row>
+    <row r="91" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A91" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="19" t="e"/>
-      <c r="C88" s="19" t="e"/>
-      <c r="D88" s="19" t="e"/>
-      <c r="E88" s="19" t="e"/>
-      <c r="F88" s="19" t="e"/>
-      <c r="G88" s="19" t="e"/>
-      <c r="H88" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I88" s="10" t="e"/>
-      <c r="J88" s="10" t="e"/>
-      <c r="K88" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="L88" s="10" t="e"/>
-      <c r="M88" s="10" t="e"/>
-      <c r="N88" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="O88" s="20" t="e"/>
-    </row>
-    <row r="89" ht="11" customHeight="true">
-      <c r="A89" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="16" t="e"/>
-      <c r="C89" s="16" t="e"/>
-      <c r="D89" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E89" s="16" t="e"/>
-      <c r="F89" s="16" t="e"/>
-      <c r="G89" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I89" s="18" t="e"/>
-      <c r="J89" s="18" t="e"/>
-      <c r="K89" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="L89" s="18" t="e"/>
-      <c r="M89" s="18" t="e"/>
-      <c r="N89" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="O89" s="21" t="e"/>
-    </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A90" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" s="19" t="e"/>
-      <c r="C90" s="19" t="e"/>
-      <c r="D90" s="19" t="e"/>
-      <c r="E90" s="19" t="e"/>
-      <c r="F90" s="19" t="e"/>
-      <c r="G90" s="19" t="e"/>
-      <c r="H90" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I90" s="10" t="e"/>
-      <c r="J90" s="10" t="e"/>
-      <c r="K90" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L90" s="10" t="e"/>
-      <c r="M90" s="10" t="e"/>
-      <c r="N90" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="O90" s="20" t="e"/>
-    </row>
-    <row r="91" ht="11" customHeight="true">
-      <c r="A91" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="16" t="e"/>
-      <c r="C91" s="16" t="e"/>
-      <c r="D91" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91" s="16" t="e"/>
-      <c r="F91" s="16" t="e"/>
-      <c r="G91" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="I91" s="18" t="e"/>
-      <c r="J91" s="18" t="e"/>
-      <c r="K91" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="L91" s="18" t="e"/>
-      <c r="M91" s="18" t="e"/>
-      <c r="N91" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="O91" s="21" t="e"/>
+      <c r="B91" s="19" t="e"/>
+      <c r="C91" s="19" t="e"/>
+      <c r="D91" s="19" t="e"/>
+      <c r="E91" s="19" t="e"/>
+      <c r="F91" s="19" t="e"/>
+      <c r="G91" s="19" t="e"/>
+      <c r="H91" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I91" s="10" t="e"/>
+      <c r="J91" s="10" t="e"/>
+      <c r="K91" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L91" s="10" t="e"/>
+      <c r="M91" s="10" t="e"/>
+      <c r="N91" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O91" s="20" t="e"/>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="A92" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B92" s="19" t="e"/>
       <c r="C92" s="19" t="e"/>
@@ -2894,77 +2922,77 @@
       <c r="F92" s="19" t="e"/>
       <c r="G92" s="19" t="e"/>
       <c r="H92" s="9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I92" s="10" t="e"/>
       <c r="J92" s="10" t="e"/>
       <c r="K92" s="9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L92" s="10" t="e"/>
       <c r="M92" s="10" t="e"/>
       <c r="N92" s="9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O92" s="20" t="e"/>
     </row>
-    <row r="93" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A93" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93" s="19" t="e"/>
-      <c r="C93" s="19" t="e"/>
-      <c r="D93" s="19" t="e"/>
-      <c r="E93" s="19" t="e"/>
-      <c r="F93" s="19" t="e"/>
-      <c r="G93" s="19" t="e"/>
-      <c r="H93" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I93" s="10" t="e"/>
-      <c r="J93" s="10" t="e"/>
-      <c r="K93" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L93" s="10" t="e"/>
-      <c r="M93" s="10" t="e"/>
-      <c r="N93" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O93" s="20" t="e"/>
-    </row>
-    <row r="94" ht="11" customHeight="true">
-      <c r="A94" s="16" t="s">
+    <row r="93" ht="11" customHeight="true">
+      <c r="A93" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B94" s="16" t="e"/>
-      <c r="C94" s="16" t="e"/>
-      <c r="D94" s="16" t="s">
+      <c r="B93" s="16" t="e"/>
+      <c r="C93" s="16" t="e"/>
+      <c r="D93" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E94" s="16" t="e"/>
-      <c r="F94" s="16" t="e"/>
-      <c r="G94" s="16" t="s">
+      <c r="E93" s="16" t="e"/>
+      <c r="F93" s="16" t="e"/>
+      <c r="G93" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H94" s="17" t="n">
-        <v>84</v>
-      </c>
-      <c r="I94" s="18" t="e"/>
-      <c r="J94" s="18" t="e"/>
-      <c r="K94" s="17" t="n">
-        <v>84</v>
-      </c>
-      <c r="L94" s="18" t="e"/>
-      <c r="M94" s="18" t="e"/>
-      <c r="N94" s="17" t="n">
-        <v>84</v>
-      </c>
-      <c r="O94" s="21" t="e"/>
+      <c r="H93" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="I93" s="18" t="e"/>
+      <c r="J93" s="18" t="e"/>
+      <c r="K93" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="L93" s="18" t="e"/>
+      <c r="M93" s="18" t="e"/>
+      <c r="N93" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="O93" s="21" t="e"/>
+    </row>
+    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A94" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="19" t="e"/>
+      <c r="C94" s="19" t="e"/>
+      <c r="D94" s="19" t="e"/>
+      <c r="E94" s="19" t="e"/>
+      <c r="F94" s="19" t="e"/>
+      <c r="G94" s="19" t="e"/>
+      <c r="H94" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I94" s="10" t="e"/>
+      <c r="J94" s="10" t="e"/>
+      <c r="K94" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L94" s="10" t="e"/>
+      <c r="M94" s="10" t="e"/>
+      <c r="N94" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O94" s="20" t="e"/>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B95" s="19" t="e"/>
       <c r="C95" s="19" t="e"/>
@@ -2973,77 +3001,77 @@
       <c r="F95" s="19" t="e"/>
       <c r="G95" s="19" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I95" s="10" t="e"/>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L95" s="10" t="e"/>
       <c r="M95" s="10" t="e"/>
       <c r="N95" s="9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O95" s="20" t="e"/>
     </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A96" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" s="19" t="e"/>
-      <c r="C96" s="19" t="e"/>
-      <c r="D96" s="19" t="e"/>
-      <c r="E96" s="19" t="e"/>
-      <c r="F96" s="19" t="e"/>
-      <c r="G96" s="19" t="e"/>
-      <c r="H96" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="I96" s="10" t="e"/>
-      <c r="J96" s="10" t="e"/>
-      <c r="K96" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="L96" s="10" t="e"/>
-      <c r="M96" s="10" t="e"/>
-      <c r="N96" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="O96" s="20" t="e"/>
-    </row>
-    <row r="97" ht="11" customHeight="true">
-      <c r="A97" s="16" t="s">
+    <row r="96" ht="11" customHeight="true">
+      <c r="A96" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="16" t="e"/>
-      <c r="C97" s="16" t="e"/>
-      <c r="D97" s="16" t="s">
+      <c r="B96" s="16" t="e"/>
+      <c r="C96" s="16" t="e"/>
+      <c r="D96" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E97" s="16" t="e"/>
-      <c r="F97" s="16" t="e"/>
-      <c r="G97" s="16" t="s">
+      <c r="E96" s="16" t="e"/>
+      <c r="F96" s="16" t="e"/>
+      <c r="G96" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H97" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="I97" s="18" t="e"/>
-      <c r="J97" s="18" t="e"/>
-      <c r="K97" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="L97" s="18" t="e"/>
-      <c r="M97" s="18" t="e"/>
-      <c r="N97" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="O97" s="21" t="e"/>
+      <c r="H96" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="I96" s="18" t="e"/>
+      <c r="J96" s="18" t="e"/>
+      <c r="K96" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="L96" s="18" t="e"/>
+      <c r="M96" s="18" t="e"/>
+      <c r="N96" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="O96" s="21" t="e"/>
+    </row>
+    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A97" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="19" t="e"/>
+      <c r="C97" s="19" t="e"/>
+      <c r="D97" s="19" t="e"/>
+      <c r="E97" s="19" t="e"/>
+      <c r="F97" s="19" t="e"/>
+      <c r="G97" s="19" t="e"/>
+      <c r="H97" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I97" s="10" t="e"/>
+      <c r="J97" s="10" t="e"/>
+      <c r="K97" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L97" s="10" t="e"/>
+      <c r="M97" s="10" t="e"/>
+      <c r="N97" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O97" s="20" t="e"/>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B98" s="19" t="e"/>
       <c r="C98" s="19" t="e"/>
@@ -3068,7 +3096,7 @@
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -3077,23 +3105,23 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I99" s="10" t="e"/>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L99" s="10" t="e"/>
       <c r="M99" s="10" t="e"/>
       <c r="N99" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O99" s="20" t="e"/>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
       <c r="A100" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B100" s="19" t="e"/>
       <c r="C100" s="19" t="e"/>
@@ -3102,77 +3130,77 @@
       <c r="F100" s="19" t="e"/>
       <c r="G100" s="19" t="e"/>
       <c r="H100" s="9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I100" s="10" t="e"/>
       <c r="J100" s="10" t="e"/>
       <c r="K100" s="9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L100" s="10" t="e"/>
       <c r="M100" s="10" t="e"/>
       <c r="N100" s="9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O100" s="20" t="e"/>
     </row>
-    <row r="101" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A101" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B101" s="19" t="e"/>
-      <c r="C101" s="19" t="e"/>
-      <c r="D101" s="19" t="e"/>
-      <c r="E101" s="19" t="e"/>
-      <c r="F101" s="19" t="e"/>
-      <c r="G101" s="19" t="e"/>
-      <c r="H101" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I101" s="10" t="e"/>
-      <c r="J101" s="10" t="e"/>
-      <c r="K101" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L101" s="10" t="e"/>
-      <c r="M101" s="10" t="e"/>
-      <c r="N101" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O101" s="20" t="e"/>
-    </row>
-    <row r="102" ht="22" customHeight="true">
-      <c r="A102" s="16" t="s">
+    <row r="101" ht="22" customHeight="true">
+      <c r="A101" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B102" s="16" t="e"/>
-      <c r="C102" s="16" t="e"/>
-      <c r="D102" s="16" t="s">
+      <c r="B101" s="16" t="e"/>
+      <c r="C101" s="16" t="e"/>
+      <c r="D101" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E102" s="16" t="e"/>
-      <c r="F102" s="16" t="e"/>
-      <c r="G102" s="16" t="s">
+      <c r="E101" s="16" t="e"/>
+      <c r="F101" s="16" t="e"/>
+      <c r="G101" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H102" s="17" t="n">
-        <v>32</v>
-      </c>
-      <c r="I102" s="18" t="e"/>
-      <c r="J102" s="18" t="e"/>
-      <c r="K102" s="17" t="n">
-        <v>32</v>
-      </c>
-      <c r="L102" s="18" t="e"/>
-      <c r="M102" s="18" t="e"/>
-      <c r="N102" s="17" t="n">
-        <v>32</v>
-      </c>
-      <c r="O102" s="21" t="e"/>
+      <c r="H101" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="I101" s="18" t="e"/>
+      <c r="J101" s="18" t="e"/>
+      <c r="K101" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="L101" s="18" t="e"/>
+      <c r="M101" s="18" t="e"/>
+      <c r="N101" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="O101" s="21" t="e"/>
+    </row>
+    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A102" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="19" t="e"/>
+      <c r="C102" s="19" t="e"/>
+      <c r="D102" s="19" t="e"/>
+      <c r="E102" s="19" t="e"/>
+      <c r="F102" s="19" t="e"/>
+      <c r="G102" s="19" t="e"/>
+      <c r="H102" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I102" s="10" t="e"/>
+      <c r="J102" s="10" t="e"/>
+      <c r="K102" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L102" s="10" t="e"/>
+      <c r="M102" s="10" t="e"/>
+      <c r="N102" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O102" s="20" t="e"/>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="A103" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B103" s="19" t="e"/>
       <c r="C103" s="19" t="e"/>
@@ -3197,7 +3225,7 @@
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
       <c r="A104" s="19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B104" s="19" t="e"/>
       <c r="C104" s="19" t="e"/>
@@ -3222,7 +3250,7 @@
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B105" s="19" t="e"/>
       <c r="C105" s="19" t="e"/>
@@ -3231,77 +3259,81 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I105" s="10" t="e"/>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L105" s="10" t="e"/>
       <c r="M105" s="10" t="e"/>
       <c r="N105" s="9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O105" s="20" t="e"/>
     </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A106" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" s="19" t="e"/>
-      <c r="C106" s="19" t="e"/>
-      <c r="D106" s="19" t="e"/>
-      <c r="E106" s="19" t="e"/>
-      <c r="F106" s="19" t="e"/>
-      <c r="G106" s="19" t="e"/>
-      <c r="H106" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I106" s="10" t="e"/>
-      <c r="J106" s="10" t="e"/>
-      <c r="K106" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L106" s="10" t="e"/>
-      <c r="M106" s="10" t="e"/>
-      <c r="N106" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O106" s="20" t="e"/>
-    </row>
-    <row r="107" ht="22" customHeight="true">
-      <c r="A107" s="16" t="s">
+    <row r="106" ht="22" customHeight="true">
+      <c r="A106" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B107" s="16" t="e"/>
-      <c r="C107" s="16" t="e"/>
-      <c r="D107" s="16" t="s">
+      <c r="B106" s="16" t="e"/>
+      <c r="C106" s="16" t="e"/>
+      <c r="D106" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E107" s="16" t="e"/>
-      <c r="F107" s="16" t="e"/>
-      <c r="G107" s="16" t="s">
+      <c r="E106" s="16" t="e"/>
+      <c r="F106" s="16" t="e"/>
+      <c r="G106" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H107" s="17" t="n">
-        <v>106</v>
-      </c>
-      <c r="I107" s="18" t="e"/>
-      <c r="J107" s="18" t="e"/>
-      <c r="K107" s="17" t="n">
-        <v>106</v>
-      </c>
-      <c r="L107" s="18" t="e"/>
-      <c r="M107" s="18" t="e"/>
-      <c r="N107" s="17" t="n">
-        <v>106</v>
-      </c>
-      <c r="O107" s="21" t="e"/>
+      <c r="H106" s="17" t="n">
+        <v>296</v>
+      </c>
+      <c r="I106" s="17" t="n">
+        <v>192</v>
+      </c>
+      <c r="J106" s="18" t="e"/>
+      <c r="K106" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="L106" s="18" t="e"/>
+      <c r="M106" s="17" t="n">
+        <v>192</v>
+      </c>
+      <c r="N106" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="O106" s="21" t="e"/>
+    </row>
+    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A107" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="19" t="e"/>
+      <c r="C107" s="19" t="e"/>
+      <c r="D107" s="19" t="e"/>
+      <c r="E107" s="19" t="e"/>
+      <c r="F107" s="19" t="e"/>
+      <c r="G107" s="19" t="e"/>
+      <c r="H107" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="I107" s="10" t="e"/>
+      <c r="J107" s="10" t="e"/>
+      <c r="K107" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L107" s="10" t="e"/>
+      <c r="M107" s="10" t="e"/>
+      <c r="N107" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O107" s="20" t="e"/>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B108" s="19" t="e"/>
       <c r="C108" s="19" t="e"/>
@@ -3310,23 +3342,23 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I108" s="10" t="e"/>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L108" s="10" t="e"/>
       <c r="M108" s="10" t="e"/>
       <c r="N108" s="9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O108" s="20" t="e"/>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="A109" s="19" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B109" s="19" t="e"/>
       <c r="C109" s="19" t="e"/>
@@ -3335,23 +3367,23 @@
       <c r="F109" s="19" t="e"/>
       <c r="G109" s="19" t="e"/>
       <c r="H109" s="9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I109" s="10" t="e"/>
       <c r="J109" s="10" t="e"/>
       <c r="K109" s="9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L109" s="10" t="e"/>
       <c r="M109" s="10" t="e"/>
       <c r="N109" s="9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O109" s="20" t="e"/>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
       <c r="A110" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B110" s="19" t="e"/>
       <c r="C110" s="19" t="e"/>
@@ -3360,23 +3392,23 @@
       <c r="F110" s="19" t="e"/>
       <c r="G110" s="19" t="e"/>
       <c r="H110" s="9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I110" s="10" t="e"/>
       <c r="J110" s="10" t="e"/>
       <c r="K110" s="9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L110" s="10" t="e"/>
       <c r="M110" s="10" t="e"/>
       <c r="N110" s="9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="O110" s="20" t="e"/>
     </row>
     <row r="111" ht="11" customHeight="true" outlineLevel="1">
       <c r="A111" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B111" s="19" t="e"/>
       <c r="C111" s="19" t="e"/>
@@ -3385,77 +3417,81 @@
       <c r="F111" s="19" t="e"/>
       <c r="G111" s="19" t="e"/>
       <c r="H111" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I111" s="10" t="e"/>
+        <v>210</v>
+      </c>
+      <c r="I111" s="9" t="n">
+        <v>192</v>
+      </c>
       <c r="J111" s="10" t="e"/>
       <c r="K111" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L111" s="10" t="e"/>
+      <c r="M111" s="9" t="n">
+        <v>192</v>
+      </c>
+      <c r="N111" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O111" s="20" t="e"/>
+    </row>
+    <row r="112" ht="11" customHeight="true">
+      <c r="A112" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="16" t="e"/>
+      <c r="C112" s="16" t="e"/>
+      <c r="D112" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" s="16" t="e"/>
+      <c r="F112" s="16" t="e"/>
+      <c r="G112" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L111" s="10" t="e"/>
-      <c r="M111" s="10" t="e"/>
-      <c r="N111" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="O111" s="20" t="e"/>
-    </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A112" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B112" s="19" t="e"/>
-      <c r="C112" s="19" t="e"/>
-      <c r="D112" s="19" t="e"/>
-      <c r="E112" s="19" t="e"/>
-      <c r="F112" s="19" t="e"/>
-      <c r="G112" s="19" t="e"/>
-      <c r="H112" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I112" s="10" t="e"/>
-      <c r="J112" s="10" t="e"/>
-      <c r="K112" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L112" s="10" t="e"/>
-      <c r="M112" s="10" t="e"/>
-      <c r="N112" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="O112" s="20" t="e"/>
-    </row>
-    <row r="113" ht="11" customHeight="true">
-      <c r="A113" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B113" s="16" t="e"/>
-      <c r="C113" s="16" t="e"/>
-      <c r="D113" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E113" s="16" t="e"/>
-      <c r="F113" s="16" t="e"/>
-      <c r="G113" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="I113" s="18" t="e"/>
-      <c r="J113" s="18" t="e"/>
-      <c r="K113" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="L113" s="18" t="e"/>
-      <c r="M113" s="18" t="e"/>
-      <c r="N113" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="O113" s="21" t="e"/>
+      <c r="H112" s="17" t="n">
+        <v>97</v>
+      </c>
+      <c r="I112" s="18" t="e"/>
+      <c r="J112" s="18" t="e"/>
+      <c r="K112" s="17" t="n">
+        <v>97</v>
+      </c>
+      <c r="L112" s="18" t="e"/>
+      <c r="M112" s="18" t="e"/>
+      <c r="N112" s="17" t="n">
+        <v>97</v>
+      </c>
+      <c r="O112" s="21" t="e"/>
+    </row>
+    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A113" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="19" t="e"/>
+      <c r="C113" s="19" t="e"/>
+      <c r="D113" s="19" t="e"/>
+      <c r="E113" s="19" t="e"/>
+      <c r="F113" s="19" t="e"/>
+      <c r="G113" s="19" t="e"/>
+      <c r="H113" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="I113" s="10" t="e"/>
+      <c r="J113" s="10" t="e"/>
+      <c r="K113" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L113" s="10" t="e"/>
+      <c r="M113" s="10" t="e"/>
+      <c r="N113" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O113" s="20" t="e"/>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B114" s="19" t="e"/>
       <c r="C114" s="19" t="e"/>
@@ -3464,23 +3500,23 @@
       <c r="F114" s="19" t="e"/>
       <c r="G114" s="19" t="e"/>
       <c r="H114" s="9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I114" s="10" t="e"/>
       <c r="J114" s="10" t="e"/>
       <c r="K114" s="9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L114" s="10" t="e"/>
       <c r="M114" s="10" t="e"/>
       <c r="N114" s="9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O114" s="20" t="e"/>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="A115" s="19" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B115" s="19" t="e"/>
       <c r="C115" s="19" t="e"/>
@@ -3489,23 +3525,23 @@
       <c r="F115" s="19" t="e"/>
       <c r="G115" s="19" t="e"/>
       <c r="H115" s="9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I115" s="10" t="e"/>
       <c r="J115" s="10" t="e"/>
       <c r="K115" s="9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L115" s="10" t="e"/>
       <c r="M115" s="10" t="e"/>
       <c r="N115" s="9" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O115" s="20" t="e"/>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B116" s="19" t="e"/>
       <c r="C116" s="19" t="e"/>
@@ -3514,23 +3550,23 @@
       <c r="F116" s="19" t="e"/>
       <c r="G116" s="19" t="e"/>
       <c r="H116" s="9" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I116" s="10" t="e"/>
       <c r="J116" s="10" t="e"/>
       <c r="K116" s="9" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L116" s="10" t="e"/>
       <c r="M116" s="10" t="e"/>
       <c r="N116" s="9" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O116" s="20" t="e"/>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="A117" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B117" s="19" t="e"/>
       <c r="C117" s="19" t="e"/>
@@ -3539,77 +3575,77 @@
       <c r="F117" s="19" t="e"/>
       <c r="G117" s="19" t="e"/>
       <c r="H117" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I117" s="10" t="e"/>
       <c r="J117" s="10" t="e"/>
       <c r="K117" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L117" s="10" t="e"/>
       <c r="M117" s="10" t="e"/>
       <c r="N117" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O117" s="20" t="e"/>
     </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A118" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B118" s="19" t="e"/>
-      <c r="C118" s="19" t="e"/>
-      <c r="D118" s="19" t="e"/>
-      <c r="E118" s="19" t="e"/>
-      <c r="F118" s="19" t="e"/>
-      <c r="G118" s="19" t="e"/>
-      <c r="H118" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I118" s="10" t="e"/>
-      <c r="J118" s="10" t="e"/>
-      <c r="K118" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="L118" s="10" t="e"/>
-      <c r="M118" s="10" t="e"/>
-      <c r="N118" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="O118" s="20" t="e"/>
-    </row>
-    <row r="119" ht="11" customHeight="true">
-      <c r="A119" s="16" t="s">
+    <row r="118" ht="11" customHeight="true">
+      <c r="A118" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B119" s="16" t="e"/>
-      <c r="C119" s="16" t="e"/>
-      <c r="D119" s="16" t="s">
+      <c r="B118" s="16" t="e"/>
+      <c r="C118" s="16" t="e"/>
+      <c r="D118" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E119" s="16" t="e"/>
-      <c r="F119" s="16" t="e"/>
-      <c r="G119" s="16" t="s">
+      <c r="E118" s="16" t="e"/>
+      <c r="F118" s="16" t="e"/>
+      <c r="G118" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H119" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="I119" s="18" t="e"/>
-      <c r="J119" s="18" t="e"/>
-      <c r="K119" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="L119" s="18" t="e"/>
-      <c r="M119" s="18" t="e"/>
-      <c r="N119" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="O119" s="21" t="e"/>
+      <c r="H118" s="17" t="n">
+        <v>101</v>
+      </c>
+      <c r="I118" s="18" t="e"/>
+      <c r="J118" s="18" t="e"/>
+      <c r="K118" s="17" t="n">
+        <v>101</v>
+      </c>
+      <c r="L118" s="18" t="e"/>
+      <c r="M118" s="18" t="e"/>
+      <c r="N118" s="17" t="n">
+        <v>101</v>
+      </c>
+      <c r="O118" s="21" t="e"/>
+    </row>
+    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A119" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" s="19" t="e"/>
+      <c r="C119" s="19" t="e"/>
+      <c r="D119" s="19" t="e"/>
+      <c r="E119" s="19" t="e"/>
+      <c r="F119" s="19" t="e"/>
+      <c r="G119" s="19" t="e"/>
+      <c r="H119" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="I119" s="10" t="e"/>
+      <c r="J119" s="10" t="e"/>
+      <c r="K119" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L119" s="10" t="e"/>
+      <c r="M119" s="10" t="e"/>
+      <c r="N119" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O119" s="20" t="e"/>
     </row>
     <row r="120" ht="11" customHeight="true" outlineLevel="1">
       <c r="A120" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B120" s="19" t="e"/>
       <c r="C120" s="19" t="e"/>
@@ -3618,23 +3654,23 @@
       <c r="F120" s="19" t="e"/>
       <c r="G120" s="19" t="e"/>
       <c r="H120" s="9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I120" s="10" t="e"/>
       <c r="J120" s="10" t="e"/>
       <c r="K120" s="9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L120" s="10" t="e"/>
       <c r="M120" s="10" t="e"/>
       <c r="N120" s="9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="O120" s="20" t="e"/>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="19" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B121" s="19" t="e"/>
       <c r="C121" s="19" t="e"/>
@@ -3643,23 +3679,23 @@
       <c r="F121" s="19" t="e"/>
       <c r="G121" s="19" t="e"/>
       <c r="H121" s="9" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I121" s="10" t="e"/>
       <c r="J121" s="10" t="e"/>
       <c r="K121" s="9" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L121" s="10" t="e"/>
       <c r="M121" s="10" t="e"/>
       <c r="N121" s="9" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="O121" s="20" t="e"/>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B122" s="19" t="e"/>
       <c r="C122" s="19" t="e"/>
@@ -3668,81 +3704,77 @@
       <c r="F122" s="19" t="e"/>
       <c r="G122" s="19" t="e"/>
       <c r="H122" s="9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I122" s="10" t="e"/>
       <c r="J122" s="10" t="e"/>
       <c r="K122" s="9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L122" s="10" t="e"/>
       <c r="M122" s="10" t="e"/>
       <c r="N122" s="9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O122" s="20" t="e"/>
     </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A123" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B123" s="19" t="e"/>
-      <c r="C123" s="19" t="e"/>
-      <c r="D123" s="19" t="e"/>
-      <c r="E123" s="19" t="e"/>
-      <c r="F123" s="19" t="e"/>
-      <c r="G123" s="19" t="e"/>
-      <c r="H123" s="9" t="n">
+    <row r="123" ht="22" customHeight="true">
+      <c r="A123" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" s="16" t="e"/>
+      <c r="C123" s="16" t="e"/>
+      <c r="D123" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E123" s="16" t="e"/>
+      <c r="F123" s="16" t="e"/>
+      <c r="G123" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I123" s="10" t="e"/>
-      <c r="J123" s="10" t="e"/>
-      <c r="K123" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L123" s="10" t="e"/>
-      <c r="M123" s="10" t="e"/>
-      <c r="N123" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="O123" s="20" t="e"/>
-    </row>
-    <row r="124" ht="22" customHeight="true">
-      <c r="A124" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B124" s="16" t="e"/>
-      <c r="C124" s="16" t="e"/>
-      <c r="D124" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E124" s="16" t="e"/>
-      <c r="F124" s="16" t="e"/>
-      <c r="G124" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" s="17" t="n">
-        <v>101</v>
-      </c>
-      <c r="I124" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" s="18" t="e"/>
-      <c r="K124" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L124" s="18" t="e"/>
-      <c r="M124" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="O124" s="21" t="e"/>
+      <c r="H123" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="I123" s="18" t="e"/>
+      <c r="J123" s="18" t="e"/>
+      <c r="K123" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="L123" s="18" t="e"/>
+      <c r="M123" s="18" t="e"/>
+      <c r="N123" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="O123" s="21" t="e"/>
+    </row>
+    <row r="124" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A124" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="19" t="e"/>
+      <c r="C124" s="19" t="e"/>
+      <c r="D124" s="19" t="e"/>
+      <c r="E124" s="19" t="e"/>
+      <c r="F124" s="19" t="e"/>
+      <c r="G124" s="19" t="e"/>
+      <c r="H124" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I124" s="10" t="e"/>
+      <c r="J124" s="10" t="e"/>
+      <c r="K124" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L124" s="10" t="e"/>
+      <c r="M124" s="10" t="e"/>
+      <c r="N124" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O124" s="20" t="e"/>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B125" s="19" t="e"/>
       <c r="C125" s="19" t="e"/>
@@ -3751,23 +3783,23 @@
       <c r="F125" s="19" t="e"/>
       <c r="G125" s="19" t="e"/>
       <c r="H125" s="9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I125" s="10" t="e"/>
       <c r="J125" s="10" t="e"/>
       <c r="K125" s="9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L125" s="10" t="e"/>
       <c r="M125" s="10" t="e"/>
       <c r="N125" s="9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="O125" s="20" t="e"/>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="19" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B126" s="19" t="e"/>
       <c r="C126" s="19" t="e"/>
@@ -3776,27 +3808,23 @@
       <c r="F126" s="19" t="e"/>
       <c r="G126" s="19" t="e"/>
       <c r="H126" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I126" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I126" s="10" t="e"/>
       <c r="J126" s="10" t="e"/>
       <c r="K126" s="9" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L126" s="10" t="e"/>
-      <c r="M126" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M126" s="10" t="e"/>
       <c r="N126" s="9" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="O126" s="20" t="e"/>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="A127" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B127" s="19" t="e"/>
       <c r="C127" s="19" t="e"/>
@@ -3805,17 +3833,17 @@
       <c r="F127" s="19" t="e"/>
       <c r="G127" s="19" t="e"/>
       <c r="H127" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I127" s="10" t="e"/>
       <c r="J127" s="10" t="e"/>
       <c r="K127" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L127" s="10" t="e"/>
       <c r="M127" s="10" t="e"/>
       <c r="N127" s="9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O127" s="20" t="e"/>
     </row>
@@ -3830,17 +3858,17 @@
       <c r="F128" s="19" t="e"/>
       <c r="G128" s="19" t="e"/>
       <c r="H128" s="9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I128" s="10" t="e"/>
       <c r="J128" s="10" t="e"/>
       <c r="K128" s="9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L128" s="10" t="e"/>
       <c r="M128" s="10" t="e"/>
       <c r="N128" s="9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O128" s="20" t="e"/>
     </row>
@@ -3859,21 +3887,17 @@
         <v>25</v>
       </c>
       <c r="H129" s="17" t="n">
-        <v>92</v>
-      </c>
-      <c r="I129" s="17" t="n">
-        <v>2</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I129" s="18" t="e"/>
       <c r="J129" s="18" t="e"/>
       <c r="K129" s="17" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L129" s="18" t="e"/>
-      <c r="M129" s="17" t="n">
-        <v>2</v>
-      </c>
+      <c r="M129" s="18" t="e"/>
       <c r="N129" s="17" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O129" s="21" t="e"/>
     </row>
@@ -3888,21 +3912,17 @@
       <c r="F130" s="19" t="e"/>
       <c r="G130" s="19" t="e"/>
       <c r="H130" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I130" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I130" s="10" t="e"/>
       <c r="J130" s="10" t="e"/>
       <c r="K130" s="9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L130" s="10" t="e"/>
-      <c r="M130" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M130" s="10" t="e"/>
       <c r="N130" s="9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O130" s="20" t="e"/>
     </row>
@@ -3917,17 +3937,17 @@
       <c r="F131" s="19" t="e"/>
       <c r="G131" s="19" t="e"/>
       <c r="H131" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I131" s="10" t="e"/>
       <c r="J131" s="10" t="e"/>
       <c r="K131" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L131" s="10" t="e"/>
       <c r="M131" s="10" t="e"/>
       <c r="N131" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O131" s="20" t="e"/>
     </row>
@@ -3967,17 +3987,17 @@
       <c r="F133" s="19" t="e"/>
       <c r="G133" s="19" t="e"/>
       <c r="H133" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I133" s="10" t="e"/>
       <c r="J133" s="10" t="e"/>
       <c r="K133" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L133" s="10" t="e"/>
       <c r="M133" s="10" t="e"/>
       <c r="N133" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O133" s="20" t="e"/>
     </row>
@@ -4021,17 +4041,21 @@
         <v>25</v>
       </c>
       <c r="H135" s="17" t="n">
-        <v>86</v>
-      </c>
-      <c r="I135" s="18" t="e"/>
+        <v>217</v>
+      </c>
+      <c r="I135" s="17" t="n">
+        <v>128</v>
+      </c>
       <c r="J135" s="18" t="e"/>
       <c r="K135" s="17" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L135" s="18" t="e"/>
-      <c r="M135" s="18" t="e"/>
+      <c r="M135" s="17" t="n">
+        <v>128</v>
+      </c>
       <c r="N135" s="17" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O135" s="21" t="e"/>
     </row>
@@ -4046,17 +4070,17 @@
       <c r="F136" s="19" t="e"/>
       <c r="G136" s="19" t="e"/>
       <c r="H136" s="9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I136" s="10" t="e"/>
       <c r="J136" s="10" t="e"/>
       <c r="K136" s="9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L136" s="10" t="e"/>
       <c r="M136" s="10" t="e"/>
       <c r="N136" s="9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O136" s="20" t="e"/>
     </row>
@@ -4071,17 +4095,17 @@
       <c r="F137" s="19" t="e"/>
       <c r="G137" s="19" t="e"/>
       <c r="H137" s="9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I137" s="10" t="e"/>
       <c r="J137" s="10" t="e"/>
       <c r="K137" s="9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L137" s="10" t="e"/>
       <c r="M137" s="10" t="e"/>
       <c r="N137" s="9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O137" s="20" t="e"/>
     </row>
@@ -4146,17 +4170,21 @@
       <c r="F140" s="19" t="e"/>
       <c r="G140" s="19" t="e"/>
       <c r="H140" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I140" s="10" t="e"/>
+        <v>152</v>
+      </c>
+      <c r="I140" s="9" t="n">
+        <v>128</v>
+      </c>
       <c r="J140" s="10" t="e"/>
       <c r="K140" s="9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L140" s="10" t="e"/>
-      <c r="M140" s="10" t="e"/>
+      <c r="M140" s="9" t="n">
+        <v>128</v>
+      </c>
       <c r="N140" s="9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O140" s="20" t="e"/>
     </row>
@@ -4175,21 +4203,21 @@
         <v>25</v>
       </c>
       <c r="H141" s="17" t="n">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="I141" s="17" t="n">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="J141" s="18" t="e"/>
       <c r="K141" s="17" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L141" s="18" t="e"/>
       <c r="M141" s="17" t="n">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="N141" s="17" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O141" s="21" t="e"/>
     </row>
@@ -4204,21 +4232,17 @@
       <c r="F142" s="19" t="e"/>
       <c r="G142" s="19" t="e"/>
       <c r="H142" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="I142" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I142" s="10" t="e"/>
       <c r="J142" s="10" t="e"/>
       <c r="K142" s="9" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L142" s="10" t="e"/>
-      <c r="M142" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M142" s="10" t="e"/>
       <c r="N142" s="9" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O142" s="20" t="e"/>
     </row>
@@ -4233,17 +4257,17 @@
       <c r="F143" s="19" t="e"/>
       <c r="G143" s="19" t="e"/>
       <c r="H143" s="9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I143" s="10" t="e"/>
       <c r="J143" s="10" t="e"/>
       <c r="K143" s="9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L143" s="10" t="e"/>
       <c r="M143" s="10" t="e"/>
       <c r="N143" s="9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O143" s="20" t="e"/>
     </row>
@@ -4258,23 +4282,23 @@
       <c r="F144" s="19" t="e"/>
       <c r="G144" s="19" t="e"/>
       <c r="H144" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I144" s="10" t="e"/>
       <c r="J144" s="10" t="e"/>
       <c r="K144" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L144" s="10" t="e"/>
       <c r="M144" s="10" t="e"/>
       <c r="N144" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O144" s="20" t="e"/>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="A145" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B145" s="19" t="e"/>
       <c r="C145" s="19" t="e"/>
@@ -4283,85 +4307,81 @@
       <c r="F145" s="19" t="e"/>
       <c r="G145" s="19" t="e"/>
       <c r="H145" s="9" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I145" s="10" t="e"/>
       <c r="J145" s="10" t="e"/>
       <c r="K145" s="9" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L145" s="10" t="e"/>
       <c r="M145" s="10" t="e"/>
       <c r="N145" s="9" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="O145" s="20" t="e"/>
     </row>
-    <row r="146" ht="11" customHeight="true">
-      <c r="A146" s="16" t="s">
+    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A146" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="19" t="e"/>
+      <c r="C146" s="19" t="e"/>
+      <c r="D146" s="19" t="e"/>
+      <c r="E146" s="19" t="e"/>
+      <c r="F146" s="19" t="e"/>
+      <c r="G146" s="19" t="e"/>
+      <c r="H146" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="I146" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="J146" s="10" t="e"/>
+      <c r="K146" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="L146" s="10" t="e"/>
+      <c r="M146" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="N146" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="O146" s="20" t="e"/>
+    </row>
+    <row r="147" ht="11" customHeight="true">
+      <c r="A147" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B146" s="16" t="e"/>
-      <c r="C146" s="16" t="e"/>
-      <c r="D146" s="16" t="s">
+      <c r="B147" s="16" t="e"/>
+      <c r="C147" s="16" t="e"/>
+      <c r="D147" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E146" s="16" t="e"/>
-      <c r="F146" s="16" t="e"/>
-      <c r="G146" s="16" t="s">
+      <c r="E147" s="16" t="e"/>
+      <c r="F147" s="16" t="e"/>
+      <c r="G147" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H146" s="17" t="n">
-        <v>59</v>
-      </c>
-      <c r="I146" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" s="18" t="e"/>
-      <c r="K146" s="17" t="n">
-        <v>58</v>
-      </c>
-      <c r="L146" s="18" t="e"/>
-      <c r="M146" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" s="17" t="n">
-        <v>58</v>
-      </c>
-      <c r="O146" s="21" t="e"/>
-    </row>
-    <row r="147" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A147" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B147" s="19" t="e"/>
-      <c r="C147" s="19" t="e"/>
-      <c r="D147" s="19" t="e"/>
-      <c r="E147" s="19" t="e"/>
-      <c r="F147" s="19" t="e"/>
-      <c r="G147" s="19" t="e"/>
-      <c r="H147" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I147" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" s="10" t="e"/>
-      <c r="K147" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="L147" s="10" t="e"/>
-      <c r="M147" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="O147" s="20" t="e"/>
+      <c r="H147" s="17" t="n">
+        <v>72</v>
+      </c>
+      <c r="I147" s="18" t="e"/>
+      <c r="J147" s="18" t="e"/>
+      <c r="K147" s="17" t="n">
+        <v>72</v>
+      </c>
+      <c r="L147" s="18" t="e"/>
+      <c r="M147" s="18" t="e"/>
+      <c r="N147" s="17" t="n">
+        <v>72</v>
+      </c>
+      <c r="O147" s="21" t="e"/>
     </row>
     <row r="148" ht="11" customHeight="true" outlineLevel="1">
       <c r="A148" s="19" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B148" s="19" t="e"/>
       <c r="C148" s="19" t="e"/>
@@ -4386,7 +4406,7 @@
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="A149" s="19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B149" s="19" t="e"/>
       <c r="C149" s="19" t="e"/>
@@ -4395,23 +4415,23 @@
       <c r="F149" s="19" t="e"/>
       <c r="G149" s="19" t="e"/>
       <c r="H149" s="9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I149" s="10" t="e"/>
       <c r="J149" s="10" t="e"/>
       <c r="K149" s="9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L149" s="10" t="e"/>
       <c r="M149" s="10" t="e"/>
       <c r="N149" s="9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O149" s="20" t="e"/>
     </row>
     <row r="150" ht="11" customHeight="true" outlineLevel="1">
       <c r="A150" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B150" s="19" t="e"/>
       <c r="C150" s="19" t="e"/>
@@ -4420,56 +4440,48 @@
       <c r="F150" s="19" t="e"/>
       <c r="G150" s="19" t="e"/>
       <c r="H150" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I150" s="10" t="e"/>
       <c r="J150" s="10" t="e"/>
       <c r="K150" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L150" s="10" t="e"/>
       <c r="M150" s="10" t="e"/>
       <c r="N150" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O150" s="20" t="e"/>
     </row>
-    <row r="151" ht="11" customHeight="true">
-      <c r="A151" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B151" s="16" t="e"/>
-      <c r="C151" s="16" t="e"/>
-      <c r="D151" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E151" s="16" t="e"/>
-      <c r="F151" s="16" t="e"/>
-      <c r="G151" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H151" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="I151" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J151" s="18" t="e"/>
-      <c r="K151" s="17" t="n">
-        <v>68</v>
-      </c>
-      <c r="L151" s="18" t="e"/>
-      <c r="M151" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="N151" s="17" t="n">
-        <v>68</v>
-      </c>
-      <c r="O151" s="21" t="e"/>
+    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A151" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151" s="19" t="e"/>
+      <c r="C151" s="19" t="e"/>
+      <c r="D151" s="19" t="e"/>
+      <c r="E151" s="19" t="e"/>
+      <c r="F151" s="19" t="e"/>
+      <c r="G151" s="19" t="e"/>
+      <c r="H151" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I151" s="10" t="e"/>
+      <c r="J151" s="10" t="e"/>
+      <c r="K151" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L151" s="10" t="e"/>
+      <c r="M151" s="10" t="e"/>
+      <c r="N151" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O151" s="20" t="e"/>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="A152" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B152" s="19" t="e"/>
       <c r="C152" s="19" t="e"/>
@@ -4478,52 +4490,56 @@
       <c r="F152" s="19" t="e"/>
       <c r="G152" s="19" t="e"/>
       <c r="H152" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="I152" s="9" t="n">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I152" s="10" t="e"/>
       <c r="J152" s="10" t="e"/>
       <c r="K152" s="9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L152" s="10" t="e"/>
-      <c r="M152" s="9" t="n">
-        <v>12</v>
-      </c>
+      <c r="M152" s="10" t="e"/>
       <c r="N152" s="9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O152" s="20" t="e"/>
     </row>
-    <row r="153" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A153" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B153" s="19" t="e"/>
-      <c r="C153" s="19" t="e"/>
-      <c r="D153" s="19" t="e"/>
-      <c r="E153" s="19" t="e"/>
-      <c r="F153" s="19" t="e"/>
-      <c r="G153" s="19" t="e"/>
-      <c r="H153" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I153" s="10" t="e"/>
-      <c r="J153" s="10" t="e"/>
-      <c r="K153" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L153" s="10" t="e"/>
-      <c r="M153" s="10" t="e"/>
-      <c r="N153" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="O153" s="20" t="e"/>
+    <row r="153" ht="11" customHeight="true">
+      <c r="A153" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B153" s="16" t="e"/>
+      <c r="C153" s="16" t="e"/>
+      <c r="D153" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E153" s="16" t="e"/>
+      <c r="F153" s="16" t="e"/>
+      <c r="G153" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H153" s="17" t="n">
+        <v>297</v>
+      </c>
+      <c r="I153" s="17" t="n">
+        <v>228</v>
+      </c>
+      <c r="J153" s="18" t="e"/>
+      <c r="K153" s="17" t="n">
+        <v>69</v>
+      </c>
+      <c r="L153" s="18" t="e"/>
+      <c r="M153" s="17" t="n">
+        <v>228</v>
+      </c>
+      <c r="N153" s="17" t="n">
+        <v>69</v>
+      </c>
+      <c r="O153" s="21" t="e"/>
     </row>
     <row r="154" ht="11" customHeight="true" outlineLevel="1">
       <c r="A154" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B154" s="19" t="e"/>
       <c r="C154" s="19" t="e"/>
@@ -4532,23 +4548,27 @@
       <c r="F154" s="19" t="e"/>
       <c r="G154" s="19" t="e"/>
       <c r="H154" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I154" s="10" t="e"/>
+        <v>18</v>
+      </c>
+      <c r="I154" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J154" s="10" t="e"/>
       <c r="K154" s="9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L154" s="10" t="e"/>
-      <c r="M154" s="10" t="e"/>
+      <c r="M154" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N154" s="9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O154" s="20" t="e"/>
     </row>
     <row r="155" ht="11" customHeight="true" outlineLevel="1">
       <c r="A155" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B155" s="19" t="e"/>
       <c r="C155" s="19" t="e"/>
@@ -4557,23 +4577,27 @@
       <c r="F155" s="19" t="e"/>
       <c r="G155" s="19" t="e"/>
       <c r="H155" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I155" s="10" t="e"/>
+        <v>22</v>
+      </c>
+      <c r="I155" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J155" s="10" t="e"/>
       <c r="K155" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L155" s="10" t="e"/>
-      <c r="M155" s="10" t="e"/>
+      <c r="M155" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N155" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O155" s="20" t="e"/>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="1">
       <c r="A156" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B156" s="19" t="e"/>
       <c r="C156" s="19" t="e"/>
@@ -4582,56 +4606,48 @@
       <c r="F156" s="19" t="e"/>
       <c r="G156" s="19" t="e"/>
       <c r="H156" s="9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I156" s="10" t="e"/>
       <c r="J156" s="10" t="e"/>
       <c r="K156" s="9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L156" s="10" t="e"/>
       <c r="M156" s="10" t="e"/>
       <c r="N156" s="9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O156" s="20" t="e"/>
     </row>
-    <row r="157" ht="11" customHeight="true">
-      <c r="A157" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B157" s="16" t="e"/>
-      <c r="C157" s="16" t="e"/>
-      <c r="D157" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E157" s="16" t="e"/>
-      <c r="F157" s="16" t="e"/>
-      <c r="G157" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H157" s="17" t="n">
-        <v>94</v>
-      </c>
-      <c r="I157" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J157" s="18" t="e"/>
-      <c r="K157" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="L157" s="18" t="e"/>
-      <c r="M157" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N157" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="O157" s="21" t="e"/>
+    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A157" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="19" t="e"/>
+      <c r="C157" s="19" t="e"/>
+      <c r="D157" s="19" t="e"/>
+      <c r="E157" s="19" t="e"/>
+      <c r="F157" s="19" t="e"/>
+      <c r="G157" s="19" t="e"/>
+      <c r="H157" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I157" s="10" t="e"/>
+      <c r="J157" s="10" t="e"/>
+      <c r="K157" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L157" s="10" t="e"/>
+      <c r="M157" s="10" t="e"/>
+      <c r="N157" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O157" s="20" t="e"/>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="1">
       <c r="A158" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B158" s="19" t="e"/>
       <c r="C158" s="19" t="e"/>
@@ -4640,52 +4656,60 @@
       <c r="F158" s="19" t="e"/>
       <c r="G158" s="19" t="e"/>
       <c r="H158" s="9" t="n">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="I158" s="9" t="n">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="J158" s="10" t="e"/>
       <c r="K158" s="9" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L158" s="10" t="e"/>
       <c r="M158" s="9" t="n">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="N158" s="9" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="O158" s="20" t="e"/>
     </row>
-    <row r="159" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A159" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B159" s="19" t="e"/>
-      <c r="C159" s="19" t="e"/>
-      <c r="D159" s="19" t="e"/>
-      <c r="E159" s="19" t="e"/>
-      <c r="F159" s="19" t="e"/>
-      <c r="G159" s="19" t="e"/>
-      <c r="H159" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="I159" s="10" t="e"/>
-      <c r="J159" s="10" t="e"/>
-      <c r="K159" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="L159" s="10" t="e"/>
-      <c r="M159" s="10" t="e"/>
-      <c r="N159" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="O159" s="20" t="e"/>
+    <row r="159" ht="11" customHeight="true">
+      <c r="A159" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B159" s="16" t="e"/>
+      <c r="C159" s="16" t="e"/>
+      <c r="D159" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159" s="16" t="e"/>
+      <c r="F159" s="16" t="e"/>
+      <c r="G159" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H159" s="17" t="n">
+        <v>306</v>
+      </c>
+      <c r="I159" s="17" t="n">
+        <v>224</v>
+      </c>
+      <c r="J159" s="18" t="e"/>
+      <c r="K159" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="L159" s="18" t="e"/>
+      <c r="M159" s="17" t="n">
+        <v>224</v>
+      </c>
+      <c r="N159" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="O159" s="21" t="e"/>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="1">
       <c r="A160" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B160" s="19" t="e"/>
       <c r="C160" s="19" t="e"/>
@@ -4694,23 +4718,23 @@
       <c r="F160" s="19" t="e"/>
       <c r="G160" s="19" t="e"/>
       <c r="H160" s="9" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I160" s="10" t="e"/>
       <c r="J160" s="10" t="e"/>
       <c r="K160" s="9" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L160" s="10" t="e"/>
       <c r="M160" s="10" t="e"/>
       <c r="N160" s="9" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="O160" s="20" t="e"/>
     </row>
     <row r="161" ht="11" customHeight="true" outlineLevel="1">
       <c r="A161" s="19" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B161" s="19" t="e"/>
       <c r="C161" s="19" t="e"/>
@@ -4719,23 +4743,23 @@
       <c r="F161" s="19" t="e"/>
       <c r="G161" s="19" t="e"/>
       <c r="H161" s="9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I161" s="10" t="e"/>
       <c r="J161" s="10" t="e"/>
       <c r="K161" s="9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L161" s="10" t="e"/>
       <c r="M161" s="10" t="e"/>
       <c r="N161" s="9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O161" s="20" t="e"/>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="A162" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B162" s="19" t="e"/>
       <c r="C162" s="19" t="e"/>
@@ -4744,56 +4768,48 @@
       <c r="F162" s="19" t="e"/>
       <c r="G162" s="19" t="e"/>
       <c r="H162" s="9" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I162" s="10" t="e"/>
       <c r="J162" s="10" t="e"/>
       <c r="K162" s="9" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L162" s="10" t="e"/>
       <c r="M162" s="10" t="e"/>
       <c r="N162" s="9" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O162" s="20" t="e"/>
     </row>
-    <row r="163" ht="11" customHeight="true">
-      <c r="A163" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B163" s="16" t="e"/>
-      <c r="C163" s="16" t="e"/>
-      <c r="D163" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E163" s="16" t="e"/>
-      <c r="F163" s="16" t="e"/>
-      <c r="G163" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H163" s="17" t="n">
-        <v>56</v>
-      </c>
-      <c r="I163" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" s="18" t="e"/>
-      <c r="K163" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="L163" s="18" t="e"/>
-      <c r="M163" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="O163" s="21" t="e"/>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A163" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" s="19" t="e"/>
+      <c r="C163" s="19" t="e"/>
+      <c r="D163" s="19" t="e"/>
+      <c r="E163" s="19" t="e"/>
+      <c r="F163" s="19" t="e"/>
+      <c r="G163" s="19" t="e"/>
+      <c r="H163" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I163" s="10" t="e"/>
+      <c r="J163" s="10" t="e"/>
+      <c r="K163" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L163" s="10" t="e"/>
+      <c r="M163" s="10" t="e"/>
+      <c r="N163" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O163" s="20" t="e"/>
     </row>
     <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="A164" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B164" s="19" t="e"/>
       <c r="C164" s="19" t="e"/>
@@ -4802,52 +4818,56 @@
       <c r="F164" s="19" t="e"/>
       <c r="G164" s="19" t="e"/>
       <c r="H164" s="9" t="n">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I164" s="9" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="J164" s="10" t="e"/>
       <c r="K164" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L164" s="10" t="e"/>
       <c r="M164" s="9" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="N164" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O164" s="20" t="e"/>
     </row>
-    <row r="165" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A165" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B165" s="19" t="e"/>
-      <c r="C165" s="19" t="e"/>
-      <c r="D165" s="19" t="e"/>
-      <c r="E165" s="19" t="e"/>
-      <c r="F165" s="19" t="e"/>
-      <c r="G165" s="19" t="e"/>
-      <c r="H165" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I165" s="10" t="e"/>
-      <c r="J165" s="10" t="e"/>
-      <c r="K165" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="L165" s="10" t="e"/>
-      <c r="M165" s="10" t="e"/>
-      <c r="N165" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="O165" s="20" t="e"/>
+    <row r="165" ht="11" customHeight="true">
+      <c r="A165" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" s="16" t="e"/>
+      <c r="C165" s="16" t="e"/>
+      <c r="D165" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E165" s="16" t="e"/>
+      <c r="F165" s="16" t="e"/>
+      <c r="G165" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" s="17" t="n">
+        <v>54</v>
+      </c>
+      <c r="I165" s="18" t="e"/>
+      <c r="J165" s="18" t="e"/>
+      <c r="K165" s="17" t="n">
+        <v>54</v>
+      </c>
+      <c r="L165" s="18" t="e"/>
+      <c r="M165" s="18" t="e"/>
+      <c r="N165" s="17" t="n">
+        <v>54</v>
+      </c>
+      <c r="O165" s="21" t="e"/>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="1">
       <c r="A166" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B166" s="19" t="e"/>
       <c r="C166" s="19" t="e"/>
@@ -4856,23 +4876,23 @@
       <c r="F166" s="19" t="e"/>
       <c r="G166" s="19" t="e"/>
       <c r="H166" s="9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I166" s="10" t="e"/>
       <c r="J166" s="10" t="e"/>
       <c r="K166" s="9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L166" s="10" t="e"/>
       <c r="M166" s="10" t="e"/>
       <c r="N166" s="9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O166" s="20" t="e"/>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="A167" s="19" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B167" s="19" t="e"/>
       <c r="C167" s="19" t="e"/>
@@ -4881,52 +4901,48 @@
       <c r="F167" s="19" t="e"/>
       <c r="G167" s="19" t="e"/>
       <c r="H167" s="9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I167" s="10" t="e"/>
       <c r="J167" s="10" t="e"/>
       <c r="K167" s="9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L167" s="10" t="e"/>
       <c r="M167" s="10" t="e"/>
       <c r="N167" s="9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O167" s="20" t="e"/>
     </row>
-    <row r="168" ht="11" customHeight="true">
-      <c r="A168" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B168" s="16" t="e"/>
-      <c r="C168" s="16" t="e"/>
-      <c r="D168" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E168" s="16" t="e"/>
-      <c r="F168" s="16" t="e"/>
-      <c r="G168" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H168" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="I168" s="18" t="e"/>
-      <c r="J168" s="18" t="e"/>
-      <c r="K168" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="L168" s="18" t="e"/>
-      <c r="M168" s="18" t="e"/>
-      <c r="N168" s="17" t="n">
-        <v>63</v>
-      </c>
-      <c r="O168" s="21" t="e"/>
+    <row r="168" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A168" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" s="19" t="e"/>
+      <c r="C168" s="19" t="e"/>
+      <c r="D168" s="19" t="e"/>
+      <c r="E168" s="19" t="e"/>
+      <c r="F168" s="19" t="e"/>
+      <c r="G168" s="19" t="e"/>
+      <c r="H168" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I168" s="10" t="e"/>
+      <c r="J168" s="10" t="e"/>
+      <c r="K168" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L168" s="10" t="e"/>
+      <c r="M168" s="10" t="e"/>
+      <c r="N168" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O168" s="20" t="e"/>
     </row>
     <row r="169" ht="11" customHeight="true" outlineLevel="1">
       <c r="A169" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B169" s="19" t="e"/>
       <c r="C169" s="19" t="e"/>
@@ -4935,48 +4951,52 @@
       <c r="F169" s="19" t="e"/>
       <c r="G169" s="19" t="e"/>
       <c r="H169" s="9" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I169" s="10" t="e"/>
       <c r="J169" s="10" t="e"/>
       <c r="K169" s="9" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L169" s="10" t="e"/>
       <c r="M169" s="10" t="e"/>
       <c r="N169" s="9" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O169" s="20" t="e"/>
     </row>
-    <row r="170" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A170" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170" s="19" t="e"/>
-      <c r="C170" s="19" t="e"/>
-      <c r="D170" s="19" t="e"/>
-      <c r="E170" s="19" t="e"/>
-      <c r="F170" s="19" t="e"/>
-      <c r="G170" s="19" t="e"/>
-      <c r="H170" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I170" s="10" t="e"/>
-      <c r="J170" s="10" t="e"/>
-      <c r="K170" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L170" s="10" t="e"/>
-      <c r="M170" s="10" t="e"/>
-      <c r="N170" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="O170" s="20" t="e"/>
+    <row r="170" ht="11" customHeight="true">
+      <c r="A170" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B170" s="16" t="e"/>
+      <c r="C170" s="16" t="e"/>
+      <c r="D170" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E170" s="16" t="e"/>
+      <c r="F170" s="16" t="e"/>
+      <c r="G170" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="I170" s="18" t="e"/>
+      <c r="J170" s="18" t="e"/>
+      <c r="K170" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="L170" s="18" t="e"/>
+      <c r="M170" s="18" t="e"/>
+      <c r="N170" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="O170" s="21" t="e"/>
     </row>
     <row r="171" ht="11" customHeight="true" outlineLevel="1">
       <c r="A171" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B171" s="19" t="e"/>
       <c r="C171" s="19" t="e"/>
@@ -4985,23 +5005,23 @@
       <c r="F171" s="19" t="e"/>
       <c r="G171" s="19" t="e"/>
       <c r="H171" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I171" s="10" t="e"/>
       <c r="J171" s="10" t="e"/>
       <c r="K171" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L171" s="10" t="e"/>
       <c r="M171" s="10" t="e"/>
       <c r="N171" s="9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O171" s="20" t="e"/>
     </row>
     <row r="172" ht="11" customHeight="true" outlineLevel="1">
       <c r="A172" s="19" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B172" s="19" t="e"/>
       <c r="C172" s="19" t="e"/>
@@ -5010,52 +5030,48 @@
       <c r="F172" s="19" t="e"/>
       <c r="G172" s="19" t="e"/>
       <c r="H172" s="9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I172" s="10" t="e"/>
       <c r="J172" s="10" t="e"/>
       <c r="K172" s="9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L172" s="10" t="e"/>
       <c r="M172" s="10" t="e"/>
       <c r="N172" s="9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O172" s="20" t="e"/>
     </row>
-    <row r="173" ht="11" customHeight="true">
-      <c r="A173" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B173" s="16" t="e"/>
-      <c r="C173" s="16" t="e"/>
-      <c r="D173" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E173" s="16" t="e"/>
-      <c r="F173" s="16" t="e"/>
-      <c r="G173" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H173" s="17" t="n">
-        <v>64</v>
-      </c>
-      <c r="I173" s="18" t="e"/>
-      <c r="J173" s="18" t="e"/>
-      <c r="K173" s="17" t="n">
-        <v>64</v>
-      </c>
-      <c r="L173" s="18" t="e"/>
-      <c r="M173" s="18" t="e"/>
-      <c r="N173" s="17" t="n">
-        <v>64</v>
-      </c>
-      <c r="O173" s="21" t="e"/>
+    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A173" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" s="19" t="e"/>
+      <c r="C173" s="19" t="e"/>
+      <c r="D173" s="19" t="e"/>
+      <c r="E173" s="19" t="e"/>
+      <c r="F173" s="19" t="e"/>
+      <c r="G173" s="19" t="e"/>
+      <c r="H173" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I173" s="10" t="e"/>
+      <c r="J173" s="10" t="e"/>
+      <c r="K173" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L173" s="10" t="e"/>
+      <c r="M173" s="10" t="e"/>
+      <c r="N173" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O173" s="20" t="e"/>
     </row>
     <row r="174" ht="11" customHeight="true" outlineLevel="1">
       <c r="A174" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B174" s="19" t="e"/>
       <c r="C174" s="19" t="e"/>
@@ -5064,23 +5080,23 @@
       <c r="F174" s="19" t="e"/>
       <c r="G174" s="19" t="e"/>
       <c r="H174" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I174" s="10" t="e"/>
       <c r="J174" s="10" t="e"/>
       <c r="K174" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L174" s="10" t="e"/>
       <c r="M174" s="10" t="e"/>
       <c r="N174" s="9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O174" s="20" t="e"/>
     </row>
     <row r="175" ht="11" customHeight="true" outlineLevel="1">
       <c r="A175" s="19" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B175" s="19" t="e"/>
       <c r="C175" s="19" t="e"/>
@@ -5103,34 +5119,38 @@
       </c>
       <c r="O175" s="20" t="e"/>
     </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A176" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B176" s="19" t="e"/>
-      <c r="C176" s="19" t="e"/>
-      <c r="D176" s="19" t="e"/>
-      <c r="E176" s="19" t="e"/>
-      <c r="F176" s="19" t="e"/>
-      <c r="G176" s="19" t="e"/>
-      <c r="H176" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I176" s="10" t="e"/>
-      <c r="J176" s="10" t="e"/>
-      <c r="K176" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L176" s="10" t="e"/>
-      <c r="M176" s="10" t="e"/>
-      <c r="N176" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O176" s="20" t="e"/>
+    <row r="176" ht="11" customHeight="true">
+      <c r="A176" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B176" s="16" t="e"/>
+      <c r="C176" s="16" t="e"/>
+      <c r="D176" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E176" s="16" t="e"/>
+      <c r="F176" s="16" t="e"/>
+      <c r="G176" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H176" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="I176" s="18" t="e"/>
+      <c r="J176" s="18" t="e"/>
+      <c r="K176" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="L176" s="18" t="e"/>
+      <c r="M176" s="18" t="e"/>
+      <c r="N176" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="O176" s="21" t="e"/>
     </row>
     <row r="177" ht="11" customHeight="true" outlineLevel="1">
       <c r="A177" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B177" s="19" t="e"/>
       <c r="C177" s="19" t="e"/>
@@ -5139,23 +5159,23 @@
       <c r="F177" s="19" t="e"/>
       <c r="G177" s="19" t="e"/>
       <c r="H177" s="9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I177" s="10" t="e"/>
       <c r="J177" s="10" t="e"/>
       <c r="K177" s="9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L177" s="10" t="e"/>
       <c r="M177" s="10" t="e"/>
       <c r="N177" s="9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O177" s="20" t="e"/>
     </row>
     <row r="178" ht="11" customHeight="true" outlineLevel="1">
       <c r="A178" s="19" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B178" s="19" t="e"/>
       <c r="C178" s="19" t="e"/>
@@ -5164,53 +5184,128 @@
       <c r="F178" s="19" t="e"/>
       <c r="G178" s="19" t="e"/>
       <c r="H178" s="9" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I178" s="10" t="e"/>
       <c r="J178" s="10" t="e"/>
       <c r="K178" s="9" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L178" s="10" t="e"/>
       <c r="M178" s="10" t="e"/>
       <c r="N178" s="9" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O178" s="20" t="e"/>
     </row>
-    <row r="179" ht="13" customHeight="true">
-      <c r="A179" s="12" t="s">
+    <row r="179" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A179" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" s="19" t="e"/>
+      <c r="C179" s="19" t="e"/>
+      <c r="D179" s="19" t="e"/>
+      <c r="E179" s="19" t="e"/>
+      <c r="F179" s="19" t="e"/>
+      <c r="G179" s="19" t="e"/>
+      <c r="H179" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I179" s="10" t="e"/>
+      <c r="J179" s="10" t="e"/>
+      <c r="K179" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L179" s="10" t="e"/>
+      <c r="M179" s="10" t="e"/>
+      <c r="N179" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O179" s="20" t="e"/>
+    </row>
+    <row r="180" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A180" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180" s="19" t="e"/>
+      <c r="C180" s="19" t="e"/>
+      <c r="D180" s="19" t="e"/>
+      <c r="E180" s="19" t="e"/>
+      <c r="F180" s="19" t="e"/>
+      <c r="G180" s="19" t="e"/>
+      <c r="H180" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I180" s="10" t="e"/>
+      <c r="J180" s="10" t="e"/>
+      <c r="K180" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L180" s="10" t="e"/>
+      <c r="M180" s="10" t="e"/>
+      <c r="N180" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O180" s="20" t="e"/>
+    </row>
+    <row r="181" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A181" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B181" s="19" t="e"/>
+      <c r="C181" s="19" t="e"/>
+      <c r="D181" s="19" t="e"/>
+      <c r="E181" s="19" t="e"/>
+      <c r="F181" s="19" t="e"/>
+      <c r="G181" s="19" t="e"/>
+      <c r="H181" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I181" s="10" t="e"/>
+      <c r="J181" s="10" t="e"/>
+      <c r="K181" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L181" s="10" t="e"/>
+      <c r="M181" s="10" t="e"/>
+      <c r="N181" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O181" s="20" t="e"/>
+    </row>
+    <row r="182" ht="13" customHeight="true">
+      <c r="A182" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B179" s="12" t="e"/>
-      <c r="C179" s="12" t="e"/>
-      <c r="D179" s="12" t="e"/>
-      <c r="E179" s="12" t="e"/>
-      <c r="F179" s="12" t="e"/>
-      <c r="G179" s="12" t="e"/>
-      <c r="H179" s="13" t="n">
-        <v>2390</v>
-      </c>
-      <c r="I179" s="14" t="n">
-        <v>28</v>
-      </c>
-      <c r="J179" s="15" t="e"/>
-      <c r="K179" s="13" t="n">
-        <v>2362</v>
-      </c>
-      <c r="L179" s="14" t="n">
+      <c r="B182" s="12" t="e"/>
+      <c r="C182" s="12" t="e"/>
+      <c r="D182" s="12" t="e"/>
+      <c r="E182" s="12" t="e"/>
+      <c r="F182" s="12" t="e"/>
+      <c r="G182" s="12" t="e"/>
+      <c r="H182" s="13" t="n">
+        <v>3910</v>
+      </c>
+      <c r="I182" s="13" t="n">
+        <v>1438</v>
+      </c>
+      <c r="J182" s="14" t="e"/>
+      <c r="K182" s="13" t="n">
+        <v>2472</v>
+      </c>
+      <c r="L182" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="M179" s="14" t="n">
-        <v>28</v>
-      </c>
-      <c r="N179" s="13" t="n">
-        <v>2392</v>
-      </c>
-      <c r="O179" s="15" t="e"/>
+      <c r="M182" s="13" t="n">
+        <v>1438</v>
+      </c>
+      <c r="N182" s="13" t="n">
+        <v>2502</v>
+      </c>
+      <c r="O182" s="14" t="e"/>
     </row>
   </sheetData>
-  <mergeCells count="223">
+  <mergeCells count="226">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -5308,68 +5403,68 @@
     <mergeCell ref="A72:G72"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="A76:G76"/>
     <mergeCell ref="A77:G77"/>
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A81:G81"/>
     <mergeCell ref="A82:G82"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
     <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="A91:G91"/>
     <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="A97:G97"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="A102:G102"/>
     <mergeCell ref="A103:G103"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A106:G106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="A107:G107"/>
     <mergeCell ref="A108:G108"/>
     <mergeCell ref="A109:G109"/>
     <mergeCell ref="A110:G110"/>
     <mergeCell ref="A111:G111"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="A113:G113"/>
     <mergeCell ref="A114:G114"/>
     <mergeCell ref="A115:G115"/>
     <mergeCell ref="A116:G116"/>
     <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="A119:G119"/>
     <mergeCell ref="A120:G120"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="A122:G122"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="A124:G124"/>
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="A126:G126"/>
     <mergeCell ref="A127:G127"/>
@@ -5394,46 +5489,49 @@
     <mergeCell ref="A143:G143"/>
     <mergeCell ref="A144:G144"/>
     <mergeCell ref="A145:G145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:F147"/>
     <mergeCell ref="A148:G148"/>
     <mergeCell ref="A149:G149"/>
     <mergeCell ref="A150:G150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="A151:G151"/>
     <mergeCell ref="A152:G152"/>
-    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="D153:F153"/>
     <mergeCell ref="A154:G154"/>
     <mergeCell ref="A155:G155"/>
     <mergeCell ref="A156:G156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="A157:G157"/>
     <mergeCell ref="A158:G158"/>
-    <mergeCell ref="A159:G159"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="D159:F159"/>
     <mergeCell ref="A160:G160"/>
     <mergeCell ref="A161:G161"/>
     <mergeCell ref="A162:G162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="A163:G163"/>
     <mergeCell ref="A164:G164"/>
-    <mergeCell ref="A165:G165"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="D165:F165"/>
     <mergeCell ref="A166:G166"/>
     <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="A168:G168"/>
     <mergeCell ref="A169:G169"/>
-    <mergeCell ref="A170:G170"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
     <mergeCell ref="A171:G171"/>
     <mergeCell ref="A172:G172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A173:G173"/>
     <mergeCell ref="A174:G174"/>
     <mergeCell ref="A175:G175"/>
-    <mergeCell ref="A176:G176"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="D176:F176"/>
     <mergeCell ref="A177:G177"/>
     <mergeCell ref="A178:G178"/>
     <mergeCell ref="A179:G179"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="A182:G182"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>
